--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -2823,7 +2823,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6227232</v>
+        <v>6227923</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2835,76 +2835,76 @@
         <v>45020.5</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="L27">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M27">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="N27">
+        <v>2.625</v>
+      </c>
+      <c r="O27">
         <v>4</v>
       </c>
-      <c r="O27">
-        <v>3.6</v>
-      </c>
       <c r="P27">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q27">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R27">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S27">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T27">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V27">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W27">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z27">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC27">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2912,7 +2912,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6227923</v>
+        <v>6227232</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2924,76 +2924,76 @@
         <v>45020.5</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>40</v>
+      </c>
+      <c r="K28">
+        <v>4.333</v>
+      </c>
+      <c r="L28">
+        <v>3.75</v>
+      </c>
+      <c r="M28">
+        <v>1.615</v>
+      </c>
+      <c r="N28">
         <v>4</v>
       </c>
-      <c r="J28" t="s">
-        <v>39</v>
-      </c>
-      <c r="K28">
-        <v>2.6</v>
-      </c>
-      <c r="L28">
-        <v>3.25</v>
-      </c>
-      <c r="M28">
-        <v>2.375</v>
-      </c>
-      <c r="N28">
-        <v>2.625</v>
-      </c>
       <c r="O28">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P28">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="Q28">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R28">
+        <v>1.825</v>
+      </c>
+      <c r="S28">
+        <v>1.975</v>
+      </c>
+      <c r="T28">
+        <v>2.25</v>
+      </c>
+      <c r="U28">
         <v>1.85</v>
       </c>
-      <c r="S28">
+      <c r="V28">
         <v>1.95</v>
       </c>
-      <c r="T28">
-        <v>2.5</v>
-      </c>
-      <c r="U28">
-        <v>1.775</v>
-      </c>
-      <c r="V28">
-        <v>2.025</v>
-      </c>
       <c r="W28">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA28">
+        <v>-1</v>
+      </c>
+      <c r="AB28">
+        <v>-1</v>
+      </c>
+      <c r="AC28">
         <v>0.95</v>
-      </c>
-      <c r="AB28">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC28">
-        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -2823,7 +2823,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6227923</v>
+        <v>6227232</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2835,76 +2835,76 @@
         <v>45020.5</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27">
+        <v>4.333</v>
+      </c>
+      <c r="L27">
+        <v>3.75</v>
+      </c>
+      <c r="M27">
+        <v>1.615</v>
+      </c>
+      <c r="N27">
         <v>4</v>
       </c>
-      <c r="J27" t="s">
-        <v>39</v>
-      </c>
-      <c r="K27">
-        <v>2.6</v>
-      </c>
-      <c r="L27">
-        <v>3.25</v>
-      </c>
-      <c r="M27">
-        <v>2.375</v>
-      </c>
-      <c r="N27">
-        <v>2.625</v>
-      </c>
       <c r="O27">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P27">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="Q27">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R27">
+        <v>1.825</v>
+      </c>
+      <c r="S27">
+        <v>1.975</v>
+      </c>
+      <c r="T27">
+        <v>2.25</v>
+      </c>
+      <c r="U27">
         <v>1.85</v>
       </c>
-      <c r="S27">
+      <c r="V27">
         <v>1.95</v>
       </c>
-      <c r="T27">
-        <v>2.5</v>
-      </c>
-      <c r="U27">
-        <v>1.775</v>
-      </c>
-      <c r="V27">
-        <v>2.025</v>
-      </c>
       <c r="W27">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA27">
+        <v>-1</v>
+      </c>
+      <c r="AB27">
+        <v>-1</v>
+      </c>
+      <c r="AC27">
         <v>0.95</v>
-      </c>
-      <c r="AB27">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC27">
-        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2912,7 +2912,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6227232</v>
+        <v>6227923</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2924,76 +2924,76 @@
         <v>45020.5</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="L28">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M28">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="N28">
+        <v>2.625</v>
+      </c>
+      <c r="O28">
         <v>4</v>
       </c>
-      <c r="O28">
-        <v>3.6</v>
-      </c>
       <c r="P28">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q28">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R28">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S28">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T28">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V28">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W28">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z28">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC28">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -2823,7 +2823,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6227232</v>
+        <v>6227923</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2835,76 +2835,76 @@
         <v>45020.5</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="L27">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M27">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="N27">
+        <v>2.625</v>
+      </c>
+      <c r="O27">
         <v>4</v>
       </c>
-      <c r="O27">
-        <v>3.6</v>
-      </c>
       <c r="P27">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q27">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R27">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S27">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T27">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V27">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W27">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z27">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC27">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2912,7 +2912,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6227923</v>
+        <v>6227232</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2924,76 +2924,76 @@
         <v>45020.5</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>40</v>
+      </c>
+      <c r="K28">
+        <v>4.333</v>
+      </c>
+      <c r="L28">
+        <v>3.75</v>
+      </c>
+      <c r="M28">
+        <v>1.615</v>
+      </c>
+      <c r="N28">
         <v>4</v>
       </c>
-      <c r="J28" t="s">
-        <v>39</v>
-      </c>
-      <c r="K28">
-        <v>2.6</v>
-      </c>
-      <c r="L28">
-        <v>3.25</v>
-      </c>
-      <c r="M28">
-        <v>2.375</v>
-      </c>
-      <c r="N28">
-        <v>2.625</v>
-      </c>
       <c r="O28">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P28">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="Q28">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R28">
+        <v>1.825</v>
+      </c>
+      <c r="S28">
+        <v>1.975</v>
+      </c>
+      <c r="T28">
+        <v>2.25</v>
+      </c>
+      <c r="U28">
         <v>1.85</v>
       </c>
-      <c r="S28">
+      <c r="V28">
         <v>1.95</v>
       </c>
-      <c r="T28">
-        <v>2.5</v>
-      </c>
-      <c r="U28">
-        <v>1.775</v>
-      </c>
-      <c r="V28">
-        <v>2.025</v>
-      </c>
       <c r="W28">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA28">
+        <v>-1</v>
+      </c>
+      <c r="AB28">
+        <v>-1</v>
+      </c>
+      <c r="AC28">
         <v>0.95</v>
-      </c>
-      <c r="AB28">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC28">
-        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -15995,7 +15995,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6732837</v>
+        <v>7465686</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16007,73 +16007,73 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F175" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G175" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K175">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="L175">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M175">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="N175">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="O175">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P175">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q175">
         <v>0.25</v>
       </c>
       <c r="R175">
+        <v>1.8</v>
+      </c>
+      <c r="S175">
         <v>2</v>
       </c>
-      <c r="S175">
-        <v>1.8</v>
-      </c>
       <c r="T175">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U175">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V175">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA175">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC175">
         <v>-1</v>
@@ -16084,7 +16084,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7465686</v>
+        <v>6732836</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16096,58 +16096,58 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F176" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G176" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H176">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
         <v>40</v>
       </c>
       <c r="K176">
-        <v>2.3</v>
+        <v>1.222</v>
       </c>
       <c r="L176">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M176">
-        <v>2.3</v>
+        <v>9</v>
       </c>
       <c r="N176">
-        <v>2.55</v>
+        <v>1.363</v>
       </c>
       <c r="O176">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P176">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="Q176">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R176">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S176">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T176">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U176">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V176">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W176">
-        <v>1.55</v>
+        <v>0.363</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16156,13 +16156,13 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA176">
         <v>-1</v>
       </c>
       <c r="AB176">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC176">
         <v>-1</v>
@@ -16262,7 +16262,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6732836</v>
+        <v>6732727</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16274,13 +16274,13 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F178" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G178" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -16289,25 +16289,25 @@
         <v>40</v>
       </c>
       <c r="K178">
-        <v>1.222</v>
+        <v>1.285</v>
       </c>
       <c r="L178">
         <v>5.5</v>
       </c>
       <c r="M178">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="N178">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="O178">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="P178">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q178">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R178">
         <v>1.9</v>
@@ -16316,16 +16316,16 @@
         <v>1.9</v>
       </c>
       <c r="T178">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U178">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V178">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W178">
-        <v>0.363</v>
+        <v>0.3</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16334,16 +16334,16 @@
         <v>-1</v>
       </c>
       <c r="Z178">
+        <v>-1</v>
+      </c>
+      <c r="AA178">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA178">
-        <v>-1</v>
-      </c>
       <c r="AB178">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16351,7 +16351,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6732727</v>
+        <v>6732837</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16363,76 +16363,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F179" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G179" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>3</v>
+      </c>
+      <c r="J179" t="s">
+        <v>39</v>
+      </c>
+      <c r="K179">
+        <v>3.6</v>
+      </c>
+      <c r="L179">
+        <v>3.6</v>
+      </c>
+      <c r="M179">
+        <v>1.8</v>
+      </c>
+      <c r="N179">
+        <v>3</v>
+      </c>
+      <c r="O179">
+        <v>3.6</v>
+      </c>
+      <c r="P179">
+        <v>2</v>
+      </c>
+      <c r="Q179">
+        <v>0.25</v>
+      </c>
+      <c r="R179">
+        <v>2</v>
+      </c>
+      <c r="S179">
+        <v>1.8</v>
+      </c>
+      <c r="T179">
+        <v>2.5</v>
+      </c>
+      <c r="U179">
+        <v>1.975</v>
+      </c>
+      <c r="V179">
+        <v>1.825</v>
+      </c>
+      <c r="W179">
+        <v>-1</v>
+      </c>
+      <c r="X179">
+        <v>-1</v>
+      </c>
+      <c r="Y179">
         <v>1</v>
       </c>
-      <c r="I179">
-        <v>0</v>
-      </c>
-      <c r="J179" t="s">
-        <v>40</v>
-      </c>
-      <c r="K179">
-        <v>1.285</v>
-      </c>
-      <c r="L179">
-        <v>5.5</v>
-      </c>
-      <c r="M179">
-        <v>6.5</v>
-      </c>
-      <c r="N179">
-        <v>1.3</v>
-      </c>
-      <c r="O179">
-        <v>5.5</v>
-      </c>
-      <c r="P179">
-        <v>6</v>
-      </c>
-      <c r="Q179">
-        <v>-1.5</v>
-      </c>
-      <c r="R179">
-        <v>1.9</v>
-      </c>
-      <c r="S179">
-        <v>1.9</v>
-      </c>
-      <c r="T179">
-        <v>2.75</v>
-      </c>
-      <c r="U179">
-        <v>1.8</v>
-      </c>
-      <c r="V179">
-        <v>2</v>
-      </c>
-      <c r="W179">
-        <v>0.3</v>
-      </c>
-      <c r="X179">
-        <v>-1</v>
-      </c>
-      <c r="Y179">
-        <v>-1</v>
-      </c>
       <c r="Z179">
         <v>-1</v>
       </c>
       <c r="AA179">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC179">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -11545,7 +11545,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6732795</v>
+        <v>6732794</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11557,13 +11557,13 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -11572,43 +11572,43 @@
         <v>40</v>
       </c>
       <c r="K125">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="L125">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M125">
+        <v>9</v>
+      </c>
+      <c r="N125">
+        <v>1.25</v>
+      </c>
+      <c r="O125">
+        <v>5.25</v>
+      </c>
+      <c r="P125">
+        <v>9</v>
+      </c>
+      <c r="Q125">
+        <v>-1.75</v>
+      </c>
+      <c r="R125">
+        <v>2</v>
+      </c>
+      <c r="S125">
+        <v>1.8</v>
+      </c>
+      <c r="T125">
         <v>3</v>
       </c>
-      <c r="N125">
-        <v>2.3</v>
-      </c>
-      <c r="O125">
-        <v>3.2</v>
-      </c>
-      <c r="P125">
-        <v>2.7</v>
-      </c>
-      <c r="Q125">
-        <v>-0.25</v>
-      </c>
-      <c r="R125">
-        <v>2.05</v>
-      </c>
-      <c r="S125">
-        <v>1.75</v>
-      </c>
-      <c r="T125">
-        <v>2.25</v>
-      </c>
       <c r="U125">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V125">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W125">
-        <v>1.3</v>
+        <v>0.25</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11617,16 +11617,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC125">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11634,7 +11634,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6732794</v>
+        <v>6732795</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11646,13 +11646,13 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F126" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G126" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -11661,43 +11661,43 @@
         <v>40</v>
       </c>
       <c r="K126">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="L126">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M126">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N126">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="O126">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P126">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="Q126">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S126">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T126">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U126">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V126">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W126">
-        <v>0.25</v>
+        <v>1.3</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11706,16 +11706,16 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA126">
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -15016,7 +15016,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6732827</v>
+        <v>7326568</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15028,76 +15028,76 @@
         <v>45220.375</v>
       </c>
       <c r="F164" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G164" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H164">
         <v>0</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K164">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="L164">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="M164">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="N164">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="O164">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P164">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="Q164">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R164">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S164">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T164">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U164">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V164">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W164">
         <v>-1</v>
       </c>
       <c r="X164">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y164">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA164">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB164">
         <v>-1</v>
       </c>
       <c r="AC164">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15105,7 +15105,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7326568</v>
+        <v>6732827</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15117,76 +15117,76 @@
         <v>45220.375</v>
       </c>
       <c r="F165" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G165" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H165">
         <v>0</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J165" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K165">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="L165">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="M165">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="N165">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="O165">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P165">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="Q165">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R165">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S165">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T165">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U165">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V165">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W165">
         <v>-1</v>
       </c>
       <c r="X165">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z165">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -16173,7 +16173,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6732834</v>
+        <v>6732837</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16185,76 +16185,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F177" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G177" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H177">
         <v>0</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J177" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K177">
-        <v>1.25</v>
+        <v>3.6</v>
       </c>
       <c r="L177">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M177">
-        <v>7.5</v>
+        <v>1.8</v>
       </c>
       <c r="N177">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="O177">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P177">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q177">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R177">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S177">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T177">
         <v>2.5</v>
       </c>
       <c r="U177">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V177">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W177">
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z177">
         <v>-1</v>
       </c>
       <c r="AA177">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC177">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16351,7 +16351,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6732837</v>
+        <v>6732834</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16363,76 +16363,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F179" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G179" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H179">
         <v>0</v>
       </c>
       <c r="I179">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K179">
-        <v>3.6</v>
+        <v>1.25</v>
       </c>
       <c r="L179">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M179">
-        <v>1.8</v>
+        <v>7.5</v>
       </c>
       <c r="N179">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="O179">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P179">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q179">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R179">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S179">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T179">
         <v>2.5</v>
       </c>
       <c r="U179">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V179">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W179">
         <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y179">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
         <v>-1</v>
       </c>
       <c r="AA179">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB179">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
   </sheetData>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -2823,7 +2823,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6227923</v>
+        <v>6227232</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2835,76 +2835,76 @@
         <v>45020.5</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27">
+        <v>4.333</v>
+      </c>
+      <c r="L27">
+        <v>3.75</v>
+      </c>
+      <c r="M27">
+        <v>1.615</v>
+      </c>
+      <c r="N27">
         <v>4</v>
       </c>
-      <c r="J27" t="s">
-        <v>39</v>
-      </c>
-      <c r="K27">
-        <v>2.6</v>
-      </c>
-      <c r="L27">
-        <v>3.25</v>
-      </c>
-      <c r="M27">
-        <v>2.375</v>
-      </c>
-      <c r="N27">
-        <v>2.625</v>
-      </c>
       <c r="O27">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P27">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="Q27">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R27">
+        <v>1.825</v>
+      </c>
+      <c r="S27">
+        <v>1.975</v>
+      </c>
+      <c r="T27">
+        <v>2.25</v>
+      </c>
+      <c r="U27">
         <v>1.85</v>
       </c>
-      <c r="S27">
+      <c r="V27">
         <v>1.95</v>
       </c>
-      <c r="T27">
-        <v>2.5</v>
-      </c>
-      <c r="U27">
-        <v>1.775</v>
-      </c>
-      <c r="V27">
-        <v>2.025</v>
-      </c>
       <c r="W27">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA27">
+        <v>-1</v>
+      </c>
+      <c r="AB27">
+        <v>-1</v>
+      </c>
+      <c r="AC27">
         <v>0.95</v>
-      </c>
-      <c r="AB27">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC27">
-        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2912,7 +2912,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6227232</v>
+        <v>6227923</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2924,76 +2924,76 @@
         <v>45020.5</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="L28">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M28">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="N28">
+        <v>2.625</v>
+      </c>
+      <c r="O28">
         <v>4</v>
       </c>
-      <c r="O28">
-        <v>3.6</v>
-      </c>
       <c r="P28">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q28">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R28">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S28">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T28">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V28">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W28">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z28">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC28">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -9409,7 +9409,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6732773</v>
+        <v>6732711</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9421,16 +9421,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J101" t="s">
         <v>39</v>
@@ -9439,37 +9439,37 @@
         <v>5</v>
       </c>
       <c r="L101">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M101">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="N101">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O101">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P101">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="Q101">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R101">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S101">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T101">
         <v>2.5</v>
       </c>
       <c r="U101">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V101">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9478,19 +9478,19 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>0.5329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="Z101">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC101">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9498,7 +9498,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6732711</v>
+        <v>6732773</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9510,16 +9510,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
         <v>1</v>
-      </c>
-      <c r="I102">
-        <v>4</v>
       </c>
       <c r="J102" t="s">
         <v>39</v>
@@ -9528,37 +9528,37 @@
         <v>5</v>
       </c>
       <c r="L102">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M102">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="N102">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O102">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P102">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="Q102">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R102">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S102">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T102">
         <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V102">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W102">
         <v>-1</v>
@@ -9567,19 +9567,19 @@
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>0.25</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA102">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB102">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -15016,7 +15016,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7326568</v>
+        <v>6732827</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15028,76 +15028,76 @@
         <v>45220.375</v>
       </c>
       <c r="F164" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G164" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H164">
         <v>0</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K164">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="L164">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="M164">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="N164">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="O164">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P164">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="Q164">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R164">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S164">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T164">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U164">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V164">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W164">
         <v>-1</v>
       </c>
       <c r="X164">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z164">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB164">
         <v>-1</v>
       </c>
       <c r="AC164">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15105,7 +15105,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6732827</v>
+        <v>7326568</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15117,76 +15117,76 @@
         <v>45220.375</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G165" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H165">
         <v>0</v>
       </c>
       <c r="I165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K165">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="L165">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="M165">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="N165">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="O165">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P165">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="Q165">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R165">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S165">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T165">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U165">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V165">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W165">
         <v>-1</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y165">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA165">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15995,7 +15995,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7465686</v>
+        <v>6732727</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16007,58 +16007,58 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F175" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G175" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H175">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
         <v>40</v>
       </c>
       <c r="K175">
-        <v>2.3</v>
+        <v>1.285</v>
       </c>
       <c r="L175">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M175">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="N175">
-        <v>2.55</v>
+        <v>1.3</v>
       </c>
       <c r="O175">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P175">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="Q175">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R175">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S175">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T175">
         <v>2.75</v>
       </c>
       <c r="U175">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V175">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W175">
-        <v>1.55</v>
+        <v>0.3</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16067,16 +16067,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB175">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16084,7 +16084,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6732836</v>
+        <v>6732834</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16096,76 +16096,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G176" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H176">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176">
         <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K176">
-        <v>1.222</v>
+        <v>1.25</v>
       </c>
       <c r="L176">
         <v>5.5</v>
       </c>
       <c r="M176">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="N176">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="O176">
         <v>4.5</v>
       </c>
       <c r="P176">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q176">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R176">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S176">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T176">
         <v>2.5</v>
       </c>
       <c r="U176">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V176">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W176">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X176">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB176">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16173,7 +16173,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6732837</v>
+        <v>6732836</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16185,46 +16185,46 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F177" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G177" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I177">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K177">
-        <v>3.6</v>
+        <v>1.222</v>
       </c>
       <c r="L177">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M177">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="N177">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="O177">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P177">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q177">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R177">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S177">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T177">
         <v>2.5</v>
@@ -16236,19 +16236,19 @@
         <v>1.825</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA177">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
         <v>0.9750000000000001</v>
@@ -16262,7 +16262,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6732727</v>
+        <v>6732837</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16274,76 +16274,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F178" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G178" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>3</v>
+      </c>
+      <c r="J178" t="s">
+        <v>39</v>
+      </c>
+      <c r="K178">
+        <v>3.6</v>
+      </c>
+      <c r="L178">
+        <v>3.6</v>
+      </c>
+      <c r="M178">
+        <v>1.8</v>
+      </c>
+      <c r="N178">
+        <v>3</v>
+      </c>
+      <c r="O178">
+        <v>3.6</v>
+      </c>
+      <c r="P178">
+        <v>2</v>
+      </c>
+      <c r="Q178">
+        <v>0.25</v>
+      </c>
+      <c r="R178">
+        <v>2</v>
+      </c>
+      <c r="S178">
+        <v>1.8</v>
+      </c>
+      <c r="T178">
+        <v>2.5</v>
+      </c>
+      <c r="U178">
+        <v>1.975</v>
+      </c>
+      <c r="V178">
+        <v>1.825</v>
+      </c>
+      <c r="W178">
+        <v>-1</v>
+      </c>
+      <c r="X178">
+        <v>-1</v>
+      </c>
+      <c r="Y178">
         <v>1</v>
       </c>
-      <c r="I178">
-        <v>0</v>
-      </c>
-      <c r="J178" t="s">
-        <v>40</v>
-      </c>
-      <c r="K178">
-        <v>1.285</v>
-      </c>
-      <c r="L178">
-        <v>5.5</v>
-      </c>
-      <c r="M178">
-        <v>6.5</v>
-      </c>
-      <c r="N178">
-        <v>1.3</v>
-      </c>
-      <c r="O178">
-        <v>5.5</v>
-      </c>
-      <c r="P178">
-        <v>6</v>
-      </c>
-      <c r="Q178">
-        <v>-1.5</v>
-      </c>
-      <c r="R178">
-        <v>1.9</v>
-      </c>
-      <c r="S178">
-        <v>1.9</v>
-      </c>
-      <c r="T178">
-        <v>2.75</v>
-      </c>
-      <c r="U178">
-        <v>1.8</v>
-      </c>
-      <c r="V178">
-        <v>2</v>
-      </c>
-      <c r="W178">
-        <v>0.3</v>
-      </c>
-      <c r="X178">
-        <v>-1</v>
-      </c>
-      <c r="Y178">
-        <v>-1</v>
-      </c>
       <c r="Z178">
         <v>-1</v>
       </c>
       <c r="AA178">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC178">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16351,7 +16351,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6732834</v>
+        <v>7465686</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16363,76 +16363,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F179" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G179" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K179">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="L179">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M179">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="N179">
-        <v>1.45</v>
+        <v>2.55</v>
       </c>
       <c r="O179">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P179">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Q179">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R179">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S179">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T179">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U179">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V179">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X179">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA179">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC179">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -9409,7 +9409,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6732711</v>
+        <v>6732773</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9421,16 +9421,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
         <v>1</v>
-      </c>
-      <c r="I101">
-        <v>4</v>
       </c>
       <c r="J101" t="s">
         <v>39</v>
@@ -9439,37 +9439,37 @@
         <v>5</v>
       </c>
       <c r="L101">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M101">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="N101">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O101">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P101">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="Q101">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R101">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S101">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T101">
         <v>2.5</v>
       </c>
       <c r="U101">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V101">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9478,19 +9478,19 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>0.25</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA101">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB101">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9498,7 +9498,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6732773</v>
+        <v>6732711</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9510,16 +9510,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J102" t="s">
         <v>39</v>
@@ -9528,37 +9528,37 @@
         <v>5</v>
       </c>
       <c r="L102">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M102">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="N102">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O102">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P102">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="Q102">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R102">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S102">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T102">
         <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V102">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W102">
         <v>-1</v>
@@ -9567,19 +9567,19 @@
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>0.5329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="Z102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC102">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -11545,7 +11545,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6732794</v>
+        <v>6732795</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11557,13 +11557,13 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -11572,43 +11572,43 @@
         <v>40</v>
       </c>
       <c r="K125">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="L125">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M125">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N125">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="O125">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P125">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="Q125">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S125">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T125">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U125">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V125">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W125">
-        <v>0.25</v>
+        <v>1.3</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11617,16 +11617,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11634,7 +11634,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6732795</v>
+        <v>6732794</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11646,13 +11646,13 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F126" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -11661,43 +11661,43 @@
         <v>40</v>
       </c>
       <c r="K126">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="L126">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M126">
+        <v>9</v>
+      </c>
+      <c r="N126">
+        <v>1.25</v>
+      </c>
+      <c r="O126">
+        <v>5.25</v>
+      </c>
+      <c r="P126">
+        <v>9</v>
+      </c>
+      <c r="Q126">
+        <v>-1.75</v>
+      </c>
+      <c r="R126">
+        <v>2</v>
+      </c>
+      <c r="S126">
+        <v>1.8</v>
+      </c>
+      <c r="T126">
         <v>3</v>
       </c>
-      <c r="N126">
-        <v>2.3</v>
-      </c>
-      <c r="O126">
-        <v>3.2</v>
-      </c>
-      <c r="P126">
-        <v>2.7</v>
-      </c>
-      <c r="Q126">
-        <v>-0.25</v>
-      </c>
-      <c r="R126">
-        <v>2.05</v>
-      </c>
-      <c r="S126">
-        <v>1.75</v>
-      </c>
-      <c r="T126">
-        <v>2.25</v>
-      </c>
       <c r="U126">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V126">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W126">
-        <v>1.3</v>
+        <v>0.25</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11706,16 +11706,16 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AA126">
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC126">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -15995,7 +15995,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6732727</v>
+        <v>6732837</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16007,76 +16007,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F175" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G175" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>3</v>
+      </c>
+      <c r="J175" t="s">
+        <v>39</v>
+      </c>
+      <c r="K175">
+        <v>3.6</v>
+      </c>
+      <c r="L175">
+        <v>3.6</v>
+      </c>
+      <c r="M175">
+        <v>1.8</v>
+      </c>
+      <c r="N175">
+        <v>3</v>
+      </c>
+      <c r="O175">
+        <v>3.6</v>
+      </c>
+      <c r="P175">
+        <v>2</v>
+      </c>
+      <c r="Q175">
+        <v>0.25</v>
+      </c>
+      <c r="R175">
+        <v>2</v>
+      </c>
+      <c r="S175">
+        <v>1.8</v>
+      </c>
+      <c r="T175">
+        <v>2.5</v>
+      </c>
+      <c r="U175">
+        <v>1.975</v>
+      </c>
+      <c r="V175">
+        <v>1.825</v>
+      </c>
+      <c r="W175">
+        <v>-1</v>
+      </c>
+      <c r="X175">
+        <v>-1</v>
+      </c>
+      <c r="Y175">
         <v>1</v>
       </c>
-      <c r="I175">
-        <v>0</v>
-      </c>
-      <c r="J175" t="s">
-        <v>40</v>
-      </c>
-      <c r="K175">
-        <v>1.285</v>
-      </c>
-      <c r="L175">
-        <v>5.5</v>
-      </c>
-      <c r="M175">
-        <v>6.5</v>
-      </c>
-      <c r="N175">
-        <v>1.3</v>
-      </c>
-      <c r="O175">
-        <v>5.5</v>
-      </c>
-      <c r="P175">
-        <v>6</v>
-      </c>
-      <c r="Q175">
-        <v>-1.5</v>
-      </c>
-      <c r="R175">
-        <v>1.9</v>
-      </c>
-      <c r="S175">
-        <v>1.9</v>
-      </c>
-      <c r="T175">
-        <v>2.75</v>
-      </c>
-      <c r="U175">
-        <v>1.8</v>
-      </c>
-      <c r="V175">
-        <v>2</v>
-      </c>
-      <c r="W175">
-        <v>0.3</v>
-      </c>
-      <c r="X175">
-        <v>-1</v>
-      </c>
-      <c r="Y175">
-        <v>-1</v>
-      </c>
       <c r="Z175">
         <v>-1</v>
       </c>
       <c r="AA175">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC175">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16173,7 +16173,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6732836</v>
+        <v>7465686</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16185,58 +16185,58 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F177" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G177" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J177" t="s">
         <v>40</v>
       </c>
       <c r="K177">
-        <v>1.222</v>
+        <v>2.3</v>
       </c>
       <c r="L177">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M177">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="N177">
-        <v>1.363</v>
+        <v>2.55</v>
       </c>
       <c r="O177">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P177">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="Q177">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R177">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S177">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T177">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U177">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V177">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W177">
-        <v>0.363</v>
+        <v>1.55</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16245,13 +16245,13 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA177">
         <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16262,7 +16262,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6732837</v>
+        <v>6732836</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16274,46 +16274,46 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F178" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G178" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I178">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K178">
-        <v>3.6</v>
+        <v>1.222</v>
       </c>
       <c r="L178">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M178">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="N178">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="O178">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P178">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q178">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R178">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S178">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T178">
         <v>2.5</v>
@@ -16325,19 +16325,19 @@
         <v>1.825</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA178">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
         <v>0.9750000000000001</v>
@@ -16351,7 +16351,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7465686</v>
+        <v>6732727</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16363,58 +16363,58 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G179" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H179">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
         <v>40</v>
       </c>
       <c r="K179">
-        <v>2.3</v>
+        <v>1.285</v>
       </c>
       <c r="L179">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M179">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="N179">
-        <v>2.55</v>
+        <v>1.3</v>
       </c>
       <c r="O179">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P179">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="Q179">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R179">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S179">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T179">
         <v>2.75</v>
       </c>
       <c r="U179">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V179">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W179">
-        <v>1.55</v>
+        <v>0.3</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16423,16 +16423,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB179">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -2823,7 +2823,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6227232</v>
+        <v>6227923</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2835,76 +2835,76 @@
         <v>45020.5</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="L27">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M27">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="N27">
+        <v>2.625</v>
+      </c>
+      <c r="O27">
         <v>4</v>
       </c>
-      <c r="O27">
-        <v>3.6</v>
-      </c>
       <c r="P27">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q27">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R27">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S27">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T27">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V27">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W27">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z27">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC27">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2912,7 +2912,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6227923</v>
+        <v>6227232</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2924,76 +2924,76 @@
         <v>45020.5</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>40</v>
+      </c>
+      <c r="K28">
+        <v>4.333</v>
+      </c>
+      <c r="L28">
+        <v>3.75</v>
+      </c>
+      <c r="M28">
+        <v>1.615</v>
+      </c>
+      <c r="N28">
         <v>4</v>
       </c>
-      <c r="J28" t="s">
-        <v>39</v>
-      </c>
-      <c r="K28">
-        <v>2.6</v>
-      </c>
-      <c r="L28">
-        <v>3.25</v>
-      </c>
-      <c r="M28">
-        <v>2.375</v>
-      </c>
-      <c r="N28">
-        <v>2.625</v>
-      </c>
       <c r="O28">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P28">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="Q28">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R28">
+        <v>1.825</v>
+      </c>
+      <c r="S28">
+        <v>1.975</v>
+      </c>
+      <c r="T28">
+        <v>2.25</v>
+      </c>
+      <c r="U28">
         <v>1.85</v>
       </c>
-      <c r="S28">
+      <c r="V28">
         <v>1.95</v>
       </c>
-      <c r="T28">
-        <v>2.5</v>
-      </c>
-      <c r="U28">
-        <v>1.775</v>
-      </c>
-      <c r="V28">
-        <v>2.025</v>
-      </c>
       <c r="W28">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA28">
+        <v>-1</v>
+      </c>
+      <c r="AB28">
+        <v>-1</v>
+      </c>
+      <c r="AC28">
         <v>0.95</v>
-      </c>
-      <c r="AB28">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC28">
-        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -11545,7 +11545,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6732795</v>
+        <v>6732794</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11557,13 +11557,13 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -11572,43 +11572,43 @@
         <v>40</v>
       </c>
       <c r="K125">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="L125">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M125">
+        <v>9</v>
+      </c>
+      <c r="N125">
+        <v>1.25</v>
+      </c>
+      <c r="O125">
+        <v>5.25</v>
+      </c>
+      <c r="P125">
+        <v>9</v>
+      </c>
+      <c r="Q125">
+        <v>-1.75</v>
+      </c>
+      <c r="R125">
+        <v>2</v>
+      </c>
+      <c r="S125">
+        <v>1.8</v>
+      </c>
+      <c r="T125">
         <v>3</v>
       </c>
-      <c r="N125">
-        <v>2.3</v>
-      </c>
-      <c r="O125">
-        <v>3.2</v>
-      </c>
-      <c r="P125">
-        <v>2.7</v>
-      </c>
-      <c r="Q125">
-        <v>-0.25</v>
-      </c>
-      <c r="R125">
-        <v>2.05</v>
-      </c>
-      <c r="S125">
-        <v>1.75</v>
-      </c>
-      <c r="T125">
-        <v>2.25</v>
-      </c>
       <c r="U125">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V125">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W125">
-        <v>1.3</v>
+        <v>0.25</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11617,16 +11617,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC125">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11634,7 +11634,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6732794</v>
+        <v>6732795</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11646,13 +11646,13 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F126" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G126" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -11661,43 +11661,43 @@
         <v>40</v>
       </c>
       <c r="K126">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="L126">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M126">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N126">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="O126">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P126">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="Q126">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S126">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T126">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U126">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V126">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W126">
-        <v>0.25</v>
+        <v>1.3</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11706,16 +11706,16 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA126">
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -15016,7 +15016,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6732827</v>
+        <v>7326568</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15028,76 +15028,76 @@
         <v>45220.375</v>
       </c>
       <c r="F164" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G164" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H164">
         <v>0</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K164">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="L164">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="M164">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="N164">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="O164">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P164">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="Q164">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R164">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S164">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T164">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U164">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V164">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W164">
         <v>-1</v>
       </c>
       <c r="X164">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y164">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA164">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB164">
         <v>-1</v>
       </c>
       <c r="AC164">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15105,7 +15105,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7326568</v>
+        <v>6732827</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15117,76 +15117,76 @@
         <v>45220.375</v>
       </c>
       <c r="F165" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G165" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H165">
         <v>0</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J165" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K165">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="L165">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="M165">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="N165">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="O165">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P165">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="Q165">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R165">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S165">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T165">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U165">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V165">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W165">
         <v>-1</v>
       </c>
       <c r="X165">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z165">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15995,7 +15995,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6732837</v>
+        <v>6732834</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16007,76 +16007,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F175" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G175" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H175">
         <v>0</v>
       </c>
       <c r="I175">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K175">
-        <v>3.6</v>
+        <v>1.25</v>
       </c>
       <c r="L175">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M175">
-        <v>1.8</v>
+        <v>7.5</v>
       </c>
       <c r="N175">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="O175">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P175">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q175">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R175">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S175">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T175">
         <v>2.5</v>
       </c>
       <c r="U175">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V175">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W175">
         <v>-1</v>
       </c>
       <c r="X175">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y175">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
         <v>-1</v>
       </c>
       <c r="AA175">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB175">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16084,7 +16084,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6732834</v>
+        <v>6732836</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16096,76 +16096,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F176" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G176" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I176">
         <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K176">
-        <v>1.25</v>
+        <v>1.222</v>
       </c>
       <c r="L176">
         <v>5.5</v>
       </c>
       <c r="M176">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="N176">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="O176">
         <v>4.5</v>
       </c>
       <c r="P176">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q176">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R176">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S176">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T176">
         <v>2.5</v>
       </c>
       <c r="U176">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V176">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X176">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA176">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC176">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16173,7 +16173,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7465686</v>
+        <v>6732837</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16185,73 +16185,73 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F177" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H177">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I177">
+        <v>3</v>
+      </c>
+      <c r="J177" t="s">
+        <v>39</v>
+      </c>
+      <c r="K177">
+        <v>3.6</v>
+      </c>
+      <c r="L177">
+        <v>3.6</v>
+      </c>
+      <c r="M177">
+        <v>1.8</v>
+      </c>
+      <c r="N177">
+        <v>3</v>
+      </c>
+      <c r="O177">
+        <v>3.6</v>
+      </c>
+      <c r="P177">
         <v>2</v>
-      </c>
-      <c r="J177" t="s">
-        <v>40</v>
-      </c>
-      <c r="K177">
-        <v>2.3</v>
-      </c>
-      <c r="L177">
-        <v>4</v>
-      </c>
-      <c r="M177">
-        <v>2.3</v>
-      </c>
-      <c r="N177">
-        <v>2.55</v>
-      </c>
-      <c r="O177">
-        <v>4</v>
-      </c>
-      <c r="P177">
-        <v>2.2</v>
       </c>
       <c r="Q177">
         <v>0.25</v>
       </c>
       <c r="R177">
+        <v>2</v>
+      </c>
+      <c r="S177">
         <v>1.8</v>
       </c>
-      <c r="S177">
-        <v>2</v>
-      </c>
       <c r="T177">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V177">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W177">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z177">
+        <v>-1</v>
+      </c>
+      <c r="AA177">
         <v>0.8</v>
       </c>
-      <c r="AA177">
-        <v>-1</v>
-      </c>
       <c r="AB177">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16262,7 +16262,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6732836</v>
+        <v>7465686</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16274,58 +16274,58 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F178" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G178" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J178" t="s">
         <v>40</v>
       </c>
       <c r="K178">
-        <v>1.222</v>
+        <v>2.3</v>
       </c>
       <c r="L178">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M178">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="N178">
-        <v>1.363</v>
+        <v>2.55</v>
       </c>
       <c r="O178">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P178">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="Q178">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R178">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S178">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T178">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U178">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V178">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W178">
-        <v>0.363</v>
+        <v>1.55</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16334,13 +16334,13 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC178">
         <v>-1</v>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -15016,7 +15016,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7326568</v>
+        <v>6732827</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15028,76 +15028,76 @@
         <v>45220.375</v>
       </c>
       <c r="F164" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G164" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H164">
         <v>0</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K164">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="L164">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="M164">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="N164">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="O164">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P164">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="Q164">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R164">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S164">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T164">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U164">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V164">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W164">
         <v>-1</v>
       </c>
       <c r="X164">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z164">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB164">
         <v>-1</v>
       </c>
       <c r="AC164">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15105,7 +15105,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6732827</v>
+        <v>7326568</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15117,76 +15117,76 @@
         <v>45220.375</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G165" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H165">
         <v>0</v>
       </c>
       <c r="I165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K165">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="L165">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="M165">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="N165">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="O165">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P165">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="Q165">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R165">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S165">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T165">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U165">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V165">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W165">
         <v>-1</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y165">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA165">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15995,7 +15995,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6732834</v>
+        <v>6732727</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16007,61 +16007,61 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F175" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G175" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175">
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K175">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="L175">
         <v>5.5</v>
       </c>
       <c r="M175">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="N175">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="O175">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="P175">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q175">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R175">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S175">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T175">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U175">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V175">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X175">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y175">
         <v>-1</v>
@@ -16070,13 +16070,13 @@
         <v>-1</v>
       </c>
       <c r="AA175">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB175">
         <v>-1</v>
       </c>
       <c r="AC175">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16084,7 +16084,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6732836</v>
+        <v>6732834</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16096,76 +16096,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G176" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H176">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176">
         <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K176">
-        <v>1.222</v>
+        <v>1.25</v>
       </c>
       <c r="L176">
         <v>5.5</v>
       </c>
       <c r="M176">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="N176">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="O176">
         <v>4.5</v>
       </c>
       <c r="P176">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q176">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R176">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S176">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T176">
         <v>2.5</v>
       </c>
       <c r="U176">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V176">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W176">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X176">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB176">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16173,7 +16173,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6732837</v>
+        <v>6732836</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16185,46 +16185,46 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F177" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G177" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I177">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K177">
-        <v>3.6</v>
+        <v>1.222</v>
       </c>
       <c r="L177">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M177">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="N177">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="O177">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P177">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q177">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R177">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S177">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T177">
         <v>2.5</v>
@@ -16236,19 +16236,19 @@
         <v>1.825</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA177">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
         <v>0.9750000000000001</v>
@@ -16262,7 +16262,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7465686</v>
+        <v>6732837</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16274,73 +16274,73 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F178" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G178" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H178">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I178">
+        <v>3</v>
+      </c>
+      <c r="J178" t="s">
+        <v>39</v>
+      </c>
+      <c r="K178">
+        <v>3.6</v>
+      </c>
+      <c r="L178">
+        <v>3.6</v>
+      </c>
+      <c r="M178">
+        <v>1.8</v>
+      </c>
+      <c r="N178">
+        <v>3</v>
+      </c>
+      <c r="O178">
+        <v>3.6</v>
+      </c>
+      <c r="P178">
         <v>2</v>
-      </c>
-      <c r="J178" t="s">
-        <v>40</v>
-      </c>
-      <c r="K178">
-        <v>2.3</v>
-      </c>
-      <c r="L178">
-        <v>4</v>
-      </c>
-      <c r="M178">
-        <v>2.3</v>
-      </c>
-      <c r="N178">
-        <v>2.55</v>
-      </c>
-      <c r="O178">
-        <v>4</v>
-      </c>
-      <c r="P178">
-        <v>2.2</v>
       </c>
       <c r="Q178">
         <v>0.25</v>
       </c>
       <c r="R178">
+        <v>2</v>
+      </c>
+      <c r="S178">
         <v>1.8</v>
       </c>
-      <c r="S178">
-        <v>2</v>
-      </c>
       <c r="T178">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U178">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V178">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W178">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z178">
+        <v>-1</v>
+      </c>
+      <c r="AA178">
         <v>0.8</v>
       </c>
-      <c r="AA178">
-        <v>-1</v>
-      </c>
       <c r="AB178">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16351,7 +16351,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6732727</v>
+        <v>7465686</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16363,58 +16363,58 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F179" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G179" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
         <v>40</v>
       </c>
       <c r="K179">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="L179">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M179">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="N179">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="O179">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P179">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q179">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R179">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S179">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T179">
         <v>2.75</v>
       </c>
       <c r="U179">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V179">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W179">
-        <v>0.3</v>
+        <v>1.55</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16423,16 +16423,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA179">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC179">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -11545,7 +11545,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6732794</v>
+        <v>6732795</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11557,13 +11557,13 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -11572,43 +11572,43 @@
         <v>40</v>
       </c>
       <c r="K125">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="L125">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M125">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N125">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="O125">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P125">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="Q125">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S125">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T125">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U125">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V125">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W125">
-        <v>0.25</v>
+        <v>1.3</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11617,16 +11617,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11634,7 +11634,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6732795</v>
+        <v>6732794</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11646,13 +11646,13 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F126" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -11661,43 +11661,43 @@
         <v>40</v>
       </c>
       <c r="K126">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="L126">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M126">
+        <v>9</v>
+      </c>
+      <c r="N126">
+        <v>1.25</v>
+      </c>
+      <c r="O126">
+        <v>5.25</v>
+      </c>
+      <c r="P126">
+        <v>9</v>
+      </c>
+      <c r="Q126">
+        <v>-1.75</v>
+      </c>
+      <c r="R126">
+        <v>2</v>
+      </c>
+      <c r="S126">
+        <v>1.8</v>
+      </c>
+      <c r="T126">
         <v>3</v>
       </c>
-      <c r="N126">
-        <v>2.3</v>
-      </c>
-      <c r="O126">
-        <v>3.2</v>
-      </c>
-      <c r="P126">
-        <v>2.7</v>
-      </c>
-      <c r="Q126">
-        <v>-0.25</v>
-      </c>
-      <c r="R126">
-        <v>2.05</v>
-      </c>
-      <c r="S126">
-        <v>1.75</v>
-      </c>
-      <c r="T126">
-        <v>2.25</v>
-      </c>
       <c r="U126">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V126">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W126">
-        <v>1.3</v>
+        <v>0.25</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11706,16 +11706,16 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AA126">
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC126">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -15016,7 +15016,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6732827</v>
+        <v>7326568</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15028,76 +15028,76 @@
         <v>45220.375</v>
       </c>
       <c r="F164" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G164" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H164">
         <v>0</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K164">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="L164">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="M164">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="N164">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="O164">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P164">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="Q164">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R164">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S164">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T164">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U164">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V164">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W164">
         <v>-1</v>
       </c>
       <c r="X164">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y164">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA164">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB164">
         <v>-1</v>
       </c>
       <c r="AC164">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15105,7 +15105,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7326568</v>
+        <v>6732827</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15117,76 +15117,76 @@
         <v>45220.375</v>
       </c>
       <c r="F165" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G165" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H165">
         <v>0</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J165" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K165">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="L165">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="M165">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="N165">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="O165">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P165">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="Q165">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R165">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S165">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T165">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U165">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V165">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W165">
         <v>-1</v>
       </c>
       <c r="X165">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z165">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="166" spans="1:29">

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -2734,7 +2734,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6732711</v>
+        <v>6732773</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2746,16 +2746,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>1</v>
-      </c>
-      <c r="I26">
-        <v>4</v>
       </c>
       <c r="J26" t="s">
         <v>41</v>
@@ -2764,37 +2764,37 @@
         <v>5</v>
       </c>
       <c r="L26">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M26">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="N26">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O26">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P26">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="Q26">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R26">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V26">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W26">
         <v>-1</v>
@@ -2803,19 +2803,19 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>0.25</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB26">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2823,7 +2823,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6732773</v>
+        <v>6732711</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2835,16 +2835,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J27" t="s">
         <v>41</v>
@@ -2853,37 +2853,37 @@
         <v>5</v>
       </c>
       <c r="L27">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="N27">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O27">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P27">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R27">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S27">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V27">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2892,19 +2892,19 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.5329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -8341,7 +8341,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6732827</v>
+        <v>7326568</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8353,76 +8353,76 @@
         <v>45220.375</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K89">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="L89">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="M89">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="N89">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="O89">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P89">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="Q89">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S89">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U89">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V89">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y89">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA89">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8430,7 +8430,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7326568</v>
+        <v>6732827</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8442,76 +8442,76 @@
         <v>45220.375</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K90">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="L90">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="M90">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="N90">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="O90">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P90">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="Q90">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R90">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S90">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T90">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V90">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z90">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -9409,7 +9409,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6732727</v>
+        <v>6732837</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9421,76 +9421,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>3</v>
+      </c>
+      <c r="J101" t="s">
+        <v>41</v>
+      </c>
+      <c r="K101">
+        <v>3.6</v>
+      </c>
+      <c r="L101">
+        <v>3.6</v>
+      </c>
+      <c r="M101">
+        <v>1.8</v>
+      </c>
+      <c r="N101">
+        <v>3</v>
+      </c>
+      <c r="O101">
+        <v>3.6</v>
+      </c>
+      <c r="P101">
+        <v>2</v>
+      </c>
+      <c r="Q101">
+        <v>0.25</v>
+      </c>
+      <c r="R101">
+        <v>2</v>
+      </c>
+      <c r="S101">
+        <v>1.8</v>
+      </c>
+      <c r="T101">
+        <v>2.5</v>
+      </c>
+      <c r="U101">
+        <v>1.975</v>
+      </c>
+      <c r="V101">
+        <v>1.825</v>
+      </c>
+      <c r="W101">
+        <v>-1</v>
+      </c>
+      <c r="X101">
+        <v>-1</v>
+      </c>
+      <c r="Y101">
         <v>1</v>
       </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-      <c r="J101" t="s">
-        <v>40</v>
-      </c>
-      <c r="K101">
-        <v>1.285</v>
-      </c>
-      <c r="L101">
-        <v>5.5</v>
-      </c>
-      <c r="M101">
-        <v>6.5</v>
-      </c>
-      <c r="N101">
-        <v>1.3</v>
-      </c>
-      <c r="O101">
-        <v>5.5</v>
-      </c>
-      <c r="P101">
-        <v>6</v>
-      </c>
-      <c r="Q101">
-        <v>-1.5</v>
-      </c>
-      <c r="R101">
-        <v>1.9</v>
-      </c>
-      <c r="S101">
-        <v>1.9</v>
-      </c>
-      <c r="T101">
-        <v>2.75</v>
-      </c>
-      <c r="U101">
-        <v>1.8</v>
-      </c>
-      <c r="V101">
-        <v>2</v>
-      </c>
-      <c r="W101">
-        <v>0.3</v>
-      </c>
-      <c r="X101">
-        <v>-1</v>
-      </c>
-      <c r="Y101">
-        <v>-1</v>
-      </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC101">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9498,7 +9498,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6732834</v>
+        <v>6732836</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9510,76 +9510,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K102">
-        <v>1.25</v>
+        <v>1.222</v>
       </c>
       <c r="L102">
         <v>5.5</v>
       </c>
       <c r="M102">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="N102">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="O102">
         <v>4.5</v>
       </c>
       <c r="P102">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q102">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R102">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S102">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T102">
         <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X102">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA102">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC102">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9587,7 +9587,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6732837</v>
+        <v>6732834</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9599,76 +9599,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K103">
-        <v>3.6</v>
+        <v>1.25</v>
       </c>
       <c r="L103">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M103">
-        <v>1.8</v>
+        <v>7.5</v>
       </c>
       <c r="N103">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="O103">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P103">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R103">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S103">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T103">
         <v>2.5</v>
       </c>
       <c r="U103">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V103">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y103">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB103">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9676,7 +9676,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6732836</v>
+        <v>6732727</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9688,13 +9688,13 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -9703,25 +9703,25 @@
         <v>40</v>
       </c>
       <c r="K104">
-        <v>1.222</v>
+        <v>1.285</v>
       </c>
       <c r="L104">
         <v>5.5</v>
       </c>
       <c r="M104">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="N104">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="O104">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="P104">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q104">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R104">
         <v>1.9</v>
@@ -9730,16 +9730,16 @@
         <v>1.9</v>
       </c>
       <c r="T104">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V104">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W104">
-        <v>0.363</v>
+        <v>0.3</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9748,16 +9748,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
+        <v>-1</v>
+      </c>
+      <c r="AA104">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA104">
-        <v>-1</v>
-      </c>
       <c r="AB104">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -2734,7 +2734,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6732773</v>
+        <v>6732711</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2746,16 +2746,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J26" t="s">
         <v>41</v>
@@ -2764,37 +2764,37 @@
         <v>5</v>
       </c>
       <c r="L26">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M26">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="N26">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O26">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P26">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S26">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V26">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W26">
         <v>-1</v>
@@ -2803,19 +2803,19 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>0.5329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC26">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2823,7 +2823,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6732711</v>
+        <v>6732773</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2835,16 +2835,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>1</v>
-      </c>
-      <c r="I27">
-        <v>4</v>
       </c>
       <c r="J27" t="s">
         <v>41</v>
@@ -2853,37 +2853,37 @@
         <v>5</v>
       </c>
       <c r="L27">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M27">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="N27">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O27">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P27">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="Q27">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R27">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S27">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2892,19 +2892,19 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.25</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB27">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -9320,7 +9320,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7465686</v>
+        <v>6732837</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9332,73 +9332,73 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H100">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I100">
+        <v>3</v>
+      </c>
+      <c r="J100" t="s">
+        <v>41</v>
+      </c>
+      <c r="K100">
+        <v>3.6</v>
+      </c>
+      <c r="L100">
+        <v>3.6</v>
+      </c>
+      <c r="M100">
+        <v>1.8</v>
+      </c>
+      <c r="N100">
+        <v>3</v>
+      </c>
+      <c r="O100">
+        <v>3.6</v>
+      </c>
+      <c r="P100">
         <v>2</v>
-      </c>
-      <c r="J100" t="s">
-        <v>40</v>
-      </c>
-      <c r="K100">
-        <v>2.3</v>
-      </c>
-      <c r="L100">
-        <v>4</v>
-      </c>
-      <c r="M100">
-        <v>2.3</v>
-      </c>
-      <c r="N100">
-        <v>2.55</v>
-      </c>
-      <c r="O100">
-        <v>4</v>
-      </c>
-      <c r="P100">
-        <v>2.2</v>
       </c>
       <c r="Q100">
         <v>0.25</v>
       </c>
       <c r="R100">
+        <v>2</v>
+      </c>
+      <c r="S100">
         <v>1.8</v>
       </c>
-      <c r="S100">
-        <v>2</v>
-      </c>
       <c r="T100">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U100">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V100">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W100">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z100">
+        <v>-1</v>
+      </c>
+      <c r="AA100">
         <v>0.8</v>
       </c>
-      <c r="AA100">
-        <v>-1</v>
-      </c>
       <c r="AB100">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9409,7 +9409,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6732837</v>
+        <v>6732836</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9421,46 +9421,46 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H101">
+        <v>3</v>
+      </c>
+      <c r="I101">
         <v>0</v>
       </c>
-      <c r="I101">
-        <v>3</v>
-      </c>
       <c r="J101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K101">
-        <v>3.6</v>
+        <v>1.222</v>
       </c>
       <c r="L101">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M101">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="N101">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="O101">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P101">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q101">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R101">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S101">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T101">
         <v>2.5</v>
@@ -9472,19 +9472,19 @@
         <v>1.825</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA101">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
         <v>0.9750000000000001</v>
@@ -9498,7 +9498,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6732836</v>
+        <v>6732834</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9510,76 +9510,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K102">
-        <v>1.222</v>
+        <v>1.25</v>
       </c>
       <c r="L102">
         <v>5.5</v>
       </c>
       <c r="M102">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="N102">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="O102">
         <v>4.5</v>
       </c>
       <c r="P102">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q102">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R102">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S102">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T102">
         <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V102">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W102">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB102">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9587,7 +9587,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6732834</v>
+        <v>6732727</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9599,61 +9599,61 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103">
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K103">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="L103">
         <v>5.5</v>
       </c>
       <c r="M103">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="N103">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="O103">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="P103">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q103">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R103">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S103">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T103">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U103">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V103">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X103">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
@@ -9662,13 +9662,13 @@
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB103">
         <v>-1</v>
       </c>
       <c r="AC103">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9676,7 +9676,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6732727</v>
+        <v>7465686</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9688,58 +9688,58 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
         <v>40</v>
       </c>
       <c r="K104">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="L104">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M104">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="N104">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="O104">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P104">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q104">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R104">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T104">
         <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V104">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W104">
-        <v>0.3</v>
+        <v>1.55</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9748,16 +9748,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA104">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC104">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC104"/>
+  <dimension ref="A1:AC108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4870,7 +4870,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6732794</v>
+        <v>6732795</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4882,13 +4882,13 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -4897,43 +4897,43 @@
         <v>40</v>
       </c>
       <c r="K50">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="L50">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M50">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N50">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="O50">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P50">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="Q50">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S50">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T50">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
-        <v>0.25</v>
+        <v>1.3</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4942,16 +4942,16 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4959,7 +4959,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6732795</v>
+        <v>6732794</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4971,13 +4971,13 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -4986,43 +4986,43 @@
         <v>40</v>
       </c>
       <c r="K51">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="L51">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M51">
+        <v>9</v>
+      </c>
+      <c r="N51">
+        <v>1.25</v>
+      </c>
+      <c r="O51">
+        <v>5.25</v>
+      </c>
+      <c r="P51">
+        <v>9</v>
+      </c>
+      <c r="Q51">
+        <v>-1.75</v>
+      </c>
+      <c r="R51">
+        <v>2</v>
+      </c>
+      <c r="S51">
+        <v>1.8</v>
+      </c>
+      <c r="T51">
         <v>3</v>
       </c>
-      <c r="N51">
-        <v>2.3</v>
-      </c>
-      <c r="O51">
-        <v>3.2</v>
-      </c>
-      <c r="P51">
-        <v>2.7</v>
-      </c>
-      <c r="Q51">
-        <v>-0.25</v>
-      </c>
-      <c r="R51">
-        <v>2.05</v>
-      </c>
-      <c r="S51">
-        <v>1.75</v>
-      </c>
-      <c r="T51">
-        <v>2.25</v>
-      </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
-        <v>1.3</v>
+        <v>0.25</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5031,16 +5031,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC51">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -9320,7 +9320,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6732837</v>
+        <v>6732836</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9332,46 +9332,46 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I100">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K100">
-        <v>3.6</v>
+        <v>1.222</v>
       </c>
       <c r="L100">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M100">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="N100">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="O100">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P100">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q100">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R100">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S100">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T100">
         <v>2.5</v>
@@ -9383,19 +9383,19 @@
         <v>1.825</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA100">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
         <v>0.9750000000000001</v>
@@ -9409,7 +9409,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6732836</v>
+        <v>6732727</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9421,13 +9421,13 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -9436,25 +9436,25 @@
         <v>40</v>
       </c>
       <c r="K101">
-        <v>1.222</v>
+        <v>1.285</v>
       </c>
       <c r="L101">
         <v>5.5</v>
       </c>
       <c r="M101">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="N101">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="O101">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="P101">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q101">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R101">
         <v>1.9</v>
@@ -9463,16 +9463,16 @@
         <v>1.9</v>
       </c>
       <c r="T101">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V101">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W101">
-        <v>0.363</v>
+        <v>0.3</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9481,16 +9481,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
+        <v>-1</v>
+      </c>
+      <c r="AA101">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA101">
-        <v>-1</v>
-      </c>
       <c r="AB101">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9498,7 +9498,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6732834</v>
+        <v>6732837</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9510,76 +9510,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J102" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K102">
-        <v>1.25</v>
+        <v>3.6</v>
       </c>
       <c r="L102">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M102">
-        <v>7.5</v>
+        <v>1.8</v>
       </c>
       <c r="N102">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="O102">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P102">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q102">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S102">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T102">
         <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC102">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9587,7 +9587,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6732727</v>
+        <v>7465686</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9599,58 +9599,58 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
         <v>40</v>
       </c>
       <c r="K103">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="L103">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M103">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="N103">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="O103">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P103">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q103">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S103">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T103">
         <v>2.75</v>
       </c>
       <c r="U103">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V103">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W103">
-        <v>0.3</v>
+        <v>1.55</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9659,16 +9659,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA103">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC103">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9676,7 +9676,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7465686</v>
+        <v>6732834</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9688,76 +9688,387 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F104" t="s">
+        <v>32</v>
+      </c>
+      <c r="G104" t="s">
+        <v>29</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104" t="s">
+        <v>39</v>
+      </c>
+      <c r="K104">
+        <v>1.25</v>
+      </c>
+      <c r="L104">
+        <v>5.5</v>
+      </c>
+      <c r="M104">
+        <v>7.5</v>
+      </c>
+      <c r="N104">
+        <v>1.45</v>
+      </c>
+      <c r="O104">
+        <v>4.5</v>
+      </c>
+      <c r="P104">
+        <v>5</v>
+      </c>
+      <c r="Q104">
+        <v>-1</v>
+      </c>
+      <c r="R104">
+        <v>1.775</v>
+      </c>
+      <c r="S104">
+        <v>2.025</v>
+      </c>
+      <c r="T104">
+        <v>2.5</v>
+      </c>
+      <c r="U104">
+        <v>1.875</v>
+      </c>
+      <c r="V104">
+        <v>1.925</v>
+      </c>
+      <c r="W104">
+        <v>-1</v>
+      </c>
+      <c r="X104">
+        <v>3.5</v>
+      </c>
+      <c r="Y104">
+        <v>-1</v>
+      </c>
+      <c r="Z104">
+        <v>-1</v>
+      </c>
+      <c r="AA104">
+        <v>1.025</v>
+      </c>
+      <c r="AB104">
+        <v>-1</v>
+      </c>
+      <c r="AC104">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>7862033</v>
+      </c>
+      <c r="C105" t="s">
+        <v>28</v>
+      </c>
+      <c r="D105" t="s">
+        <v>28</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45352.58333333334</v>
+      </c>
+      <c r="F105" t="s">
+        <v>36</v>
+      </c>
+      <c r="G105" t="s">
+        <v>37</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105" t="s">
+        <v>39</v>
+      </c>
+      <c r="K105">
+        <v>4.333</v>
+      </c>
+      <c r="L105">
+        <v>3.3</v>
+      </c>
+      <c r="M105">
+        <v>1.727</v>
+      </c>
+      <c r="N105">
+        <v>4</v>
+      </c>
+      <c r="O105">
+        <v>3.2</v>
+      </c>
+      <c r="P105">
+        <v>1.833</v>
+      </c>
+      <c r="Q105">
+        <v>0.5</v>
+      </c>
+      <c r="R105">
+        <v>1.925</v>
+      </c>
+      <c r="S105">
+        <v>1.875</v>
+      </c>
+      <c r="T105">
+        <v>2</v>
+      </c>
+      <c r="U105">
+        <v>1.775</v>
+      </c>
+      <c r="V105">
+        <v>2.025</v>
+      </c>
+      <c r="W105">
+        <v>-1</v>
+      </c>
+      <c r="X105">
+        <v>2.2</v>
+      </c>
+      <c r="Y105">
+        <v>-1</v>
+      </c>
+      <c r="Z105">
+        <v>0.925</v>
+      </c>
+      <c r="AA105">
+        <v>-1</v>
+      </c>
+      <c r="AB105">
+        <v>-1</v>
+      </c>
+      <c r="AC105">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>7862902</v>
+      </c>
+      <c r="C106" t="s">
+        <v>28</v>
+      </c>
+      <c r="D106" t="s">
+        <v>28</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45353.33333333334</v>
+      </c>
+      <c r="F106" t="s">
+        <v>29</v>
+      </c>
+      <c r="G106" t="s">
+        <v>32</v>
+      </c>
+      <c r="K106">
+        <v>7.5</v>
+      </c>
+      <c r="L106">
+        <v>4.333</v>
+      </c>
+      <c r="M106">
+        <v>1.333</v>
+      </c>
+      <c r="N106">
+        <v>7</v>
+      </c>
+      <c r="O106">
+        <v>4.333</v>
+      </c>
+      <c r="P106">
+        <v>1.363</v>
+      </c>
+      <c r="Q106">
+        <v>1.25</v>
+      </c>
+      <c r="R106">
+        <v>1.95</v>
+      </c>
+      <c r="S106">
+        <v>1.85</v>
+      </c>
+      <c r="T106">
+        <v>2.25</v>
+      </c>
+      <c r="U106">
+        <v>1.85</v>
+      </c>
+      <c r="V106">
+        <v>1.95</v>
+      </c>
+      <c r="W106">
+        <v>0</v>
+      </c>
+      <c r="X106">
+        <v>0</v>
+      </c>
+      <c r="Y106">
+        <v>0</v>
+      </c>
+      <c r="Z106">
+        <v>0</v>
+      </c>
+      <c r="AA106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>7862903</v>
+      </c>
+      <c r="C107" t="s">
+        <v>28</v>
+      </c>
+      <c r="D107" t="s">
+        <v>28</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45353.41666666666</v>
+      </c>
+      <c r="F107" t="s">
+        <v>31</v>
+      </c>
+      <c r="G107" t="s">
         <v>38</v>
       </c>
-      <c r="G104" t="s">
-        <v>35</v>
-      </c>
-      <c r="H104">
+      <c r="K107">
+        <v>5</v>
+      </c>
+      <c r="L107">
+        <v>3.6</v>
+      </c>
+      <c r="M107">
+        <v>1.571</v>
+      </c>
+      <c r="N107">
+        <v>5.75</v>
+      </c>
+      <c r="O107">
+        <v>3.75</v>
+      </c>
+      <c r="P107">
+        <v>1.5</v>
+      </c>
+      <c r="Q107">
+        <v>1</v>
+      </c>
+      <c r="R107">
+        <v>1.95</v>
+      </c>
+      <c r="S107">
+        <v>1.85</v>
+      </c>
+      <c r="T107">
+        <v>2.5</v>
+      </c>
+      <c r="U107">
+        <v>2.025</v>
+      </c>
+      <c r="V107">
+        <v>1.775</v>
+      </c>
+      <c r="W107">
+        <v>0</v>
+      </c>
+      <c r="X107">
+        <v>0</v>
+      </c>
+      <c r="Y107">
+        <v>0</v>
+      </c>
+      <c r="Z107">
+        <v>0</v>
+      </c>
+      <c r="AA107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>7862034</v>
+      </c>
+      <c r="C108" t="s">
+        <v>28</v>
+      </c>
+      <c r="D108" t="s">
+        <v>28</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45354.33333333334</v>
+      </c>
+      <c r="F108" t="s">
+        <v>30</v>
+      </c>
+      <c r="G108" t="s">
+        <v>33</v>
+      </c>
+      <c r="K108">
+        <v>6.5</v>
+      </c>
+      <c r="L108">
         <v>4</v>
       </c>
-      <c r="I104">
+      <c r="M108">
+        <v>1.4</v>
+      </c>
+      <c r="N108">
+        <v>7.5</v>
+      </c>
+      <c r="O108">
+        <v>4.5</v>
+      </c>
+      <c r="P108">
+        <v>1.3</v>
+      </c>
+      <c r="Q108">
+        <v>1.25</v>
+      </c>
+      <c r="R108">
         <v>2</v>
       </c>
-      <c r="J104" t="s">
-        <v>40</v>
-      </c>
-      <c r="K104">
-        <v>2.3</v>
-      </c>
-      <c r="L104">
-        <v>4</v>
-      </c>
-      <c r="M104">
-        <v>2.3</v>
-      </c>
-      <c r="N104">
-        <v>2.55</v>
-      </c>
-      <c r="O104">
-        <v>4</v>
-      </c>
-      <c r="P104">
-        <v>2.2</v>
-      </c>
-      <c r="Q104">
-        <v>0.25</v>
-      </c>
-      <c r="R104">
+      <c r="S108">
         <v>1.8</v>
       </c>
-      <c r="S104">
+      <c r="T108">
+        <v>2.5</v>
+      </c>
+      <c r="U108">
+        <v>1.8</v>
+      </c>
+      <c r="V108">
         <v>2</v>
       </c>
-      <c r="T104">
-        <v>2.75</v>
-      </c>
-      <c r="U104">
-        <v>1.85</v>
-      </c>
-      <c r="V104">
-        <v>1.95</v>
-      </c>
-      <c r="W104">
-        <v>1.55</v>
-      </c>
-      <c r="X104">
-        <v>-1</v>
-      </c>
-      <c r="Y104">
-        <v>-1</v>
-      </c>
-      <c r="Z104">
-        <v>0.8</v>
-      </c>
-      <c r="AA104">
-        <v>-1</v>
-      </c>
-      <c r="AB104">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC104">
-        <v>-1</v>
+      <c r="W108">
+        <v>0</v>
+      </c>
+      <c r="X108">
+        <v>0</v>
+      </c>
+      <c r="Y108">
+        <v>0</v>
+      </c>
+      <c r="Z108">
+        <v>0</v>
+      </c>
+      <c r="AA108">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -2734,7 +2734,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6732711</v>
+        <v>6732773</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2746,16 +2746,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>1</v>
-      </c>
-      <c r="I26">
-        <v>4</v>
       </c>
       <c r="J26" t="s">
         <v>41</v>
@@ -2764,37 +2764,37 @@
         <v>5</v>
       </c>
       <c r="L26">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M26">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="N26">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O26">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P26">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="Q26">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R26">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V26">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W26">
         <v>-1</v>
@@ -2803,19 +2803,19 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>0.25</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB26">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2823,7 +2823,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6732773</v>
+        <v>6732711</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2835,16 +2835,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J27" t="s">
         <v>41</v>
@@ -2853,37 +2853,37 @@
         <v>5</v>
       </c>
       <c r="L27">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="N27">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O27">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P27">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R27">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S27">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V27">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2892,19 +2892,19 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.5329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -4870,7 +4870,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6732795</v>
+        <v>6732794</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4882,13 +4882,13 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -4897,43 +4897,43 @@
         <v>40</v>
       </c>
       <c r="K50">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="L50">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M50">
+        <v>9</v>
+      </c>
+      <c r="N50">
+        <v>1.25</v>
+      </c>
+      <c r="O50">
+        <v>5.25</v>
+      </c>
+      <c r="P50">
+        <v>9</v>
+      </c>
+      <c r="Q50">
+        <v>-1.75</v>
+      </c>
+      <c r="R50">
+        <v>2</v>
+      </c>
+      <c r="S50">
+        <v>1.8</v>
+      </c>
+      <c r="T50">
         <v>3</v>
       </c>
-      <c r="N50">
-        <v>2.3</v>
-      </c>
-      <c r="O50">
-        <v>3.2</v>
-      </c>
-      <c r="P50">
-        <v>2.7</v>
-      </c>
-      <c r="Q50">
-        <v>-0.25</v>
-      </c>
-      <c r="R50">
-        <v>2.05</v>
-      </c>
-      <c r="S50">
-        <v>1.75</v>
-      </c>
-      <c r="T50">
-        <v>2.25</v>
-      </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W50">
-        <v>1.3</v>
+        <v>0.25</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4942,16 +4942,16 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC50">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4959,7 +4959,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6732794</v>
+        <v>6732795</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4971,13 +4971,13 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -4986,43 +4986,43 @@
         <v>40</v>
       </c>
       <c r="K51">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="L51">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M51">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N51">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="O51">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P51">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="Q51">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S51">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W51">
-        <v>0.25</v>
+        <v>1.3</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5031,16 +5031,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -8341,7 +8341,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7326568</v>
+        <v>6732827</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8353,76 +8353,76 @@
         <v>45220.375</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K89">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="L89">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="M89">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="N89">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="O89">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P89">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R89">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S89">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T89">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V89">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8430,7 +8430,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6732827</v>
+        <v>7326568</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8442,76 +8442,76 @@
         <v>45220.375</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G90" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K90">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="L90">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="M90">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="N90">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="O90">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P90">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="Q90">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T90">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U90">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V90">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y90">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA90">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -9320,7 +9320,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6732836</v>
+        <v>6732834</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9332,76 +9332,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K100">
-        <v>1.222</v>
+        <v>1.25</v>
       </c>
       <c r="L100">
         <v>5.5</v>
       </c>
       <c r="M100">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="N100">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="O100">
         <v>4.5</v>
       </c>
       <c r="P100">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q100">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R100">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S100">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T100">
         <v>2.5</v>
       </c>
       <c r="U100">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V100">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W100">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB100">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9409,7 +9409,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6732727</v>
+        <v>7465686</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9421,58 +9421,58 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
         <v>40</v>
       </c>
       <c r="K101">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="L101">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M101">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="N101">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="O101">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P101">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q101">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R101">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S101">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T101">
         <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V101">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W101">
-        <v>0.3</v>
+        <v>1.55</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9481,16 +9481,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA101">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC101">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9587,7 +9587,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7465686</v>
+        <v>6732836</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9599,58 +9599,58 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H103">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>40</v>
       </c>
       <c r="K103">
-        <v>2.3</v>
+        <v>1.222</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M103">
-        <v>2.3</v>
+        <v>9</v>
       </c>
       <c r="N103">
-        <v>2.55</v>
+        <v>1.363</v>
       </c>
       <c r="O103">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P103">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R103">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S103">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U103">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V103">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W103">
-        <v>1.55</v>
+        <v>0.363</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9659,13 +9659,13 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -9676,7 +9676,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6732834</v>
+        <v>6732727</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9688,61 +9688,61 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K104">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="L104">
         <v>5.5</v>
       </c>
       <c r="M104">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="N104">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="O104">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="P104">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q104">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R104">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S104">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T104">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V104">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X104">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
@@ -9751,13 +9751,13 @@
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9871,6 +9871,15 @@
       <c r="G106" t="s">
         <v>32</v>
       </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106" t="s">
+        <v>39</v>
+      </c>
       <c r="K106">
         <v>7.5</v>
       </c>
@@ -9893,34 +9902,40 @@
         <v>1.25</v>
       </c>
       <c r="R106">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S106">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T106">
         <v>2.25</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V106">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W106">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>0</v>
+        <v>3.333</v>
       </c>
       <c r="Y106">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA106">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB106">
+        <v>-1</v>
+      </c>
+      <c r="AC106">
+        <v>0.925</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9945,6 +9960,15 @@
       <c r="G107" t="s">
         <v>38</v>
       </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107" t="s">
+        <v>39</v>
+      </c>
       <c r="K107">
         <v>5</v>
       </c>
@@ -9973,28 +9997,34 @@
         <v>1.85</v>
       </c>
       <c r="T107">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U107">
+        <v>1.775</v>
+      </c>
+      <c r="V107">
         <v>2.025</v>
       </c>
-      <c r="V107">
-        <v>1.775</v>
-      </c>
       <c r="W107">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Y107">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA107">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB107">
+        <v>-0.5</v>
+      </c>
+      <c r="AC107">
+        <v>0.5125</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10029,31 +10059,31 @@
         <v>1.4</v>
       </c>
       <c r="N108">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O108">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P108">
-        <v>1.3</v>
+        <v>1.285</v>
       </c>
       <c r="Q108">
         <v>1.25</v>
       </c>
       <c r="R108">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S108">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T108">
         <v>2.5</v>
       </c>
       <c r="U108">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V108">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W108">
         <v>0</v>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>FK Kauno Zalgiris</t>
+  </si>
+  <si>
+    <t>FK Transinvest</t>
   </si>
   <si>
     <t>D</t>
@@ -501,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC108"/>
+  <dimension ref="A1:AC109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K2">
         <v>5.5</v>
@@ -711,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K3">
         <v>1.85</v>
@@ -800,7 +803,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K4">
         <v>2.4</v>
@@ -889,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -978,7 +981,7 @@
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K6">
         <v>1.571</v>
@@ -1067,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K7">
         <v>2.3</v>
@@ -1156,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K8">
         <v>4.333</v>
@@ -1245,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K9">
         <v>5.5</v>
@@ -1334,7 +1337,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10">
         <v>3.3</v>
@@ -1423,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K11">
         <v>3.25</v>
@@ -1512,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K12">
         <v>2.75</v>
@@ -1601,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K13">
         <v>1.533</v>
@@ -1690,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K14">
         <v>1.333</v>
@@ -1779,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K15">
         <v>1.3</v>
@@ -1868,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K16">
         <v>11</v>
@@ -1957,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K17">
         <v>1.363</v>
@@ -2046,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K18">
         <v>1.727</v>
@@ -2135,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K19">
         <v>1.4</v>
@@ -2224,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K20">
         <v>6</v>
@@ -2313,7 +2316,7 @@
         <v>5</v>
       </c>
       <c r="J21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K21">
         <v>3.25</v>
@@ -2402,7 +2405,7 @@
         <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K22">
         <v>1.571</v>
@@ -2491,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K23">
         <v>1.444</v>
@@ -2580,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K24">
         <v>3.6</v>
@@ -2669,7 +2672,7 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K25">
         <v>3.1</v>
@@ -2758,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K26">
         <v>5</v>
@@ -2847,7 +2850,7 @@
         <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K27">
         <v>5</v>
@@ -2936,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K28">
         <v>1.4</v>
@@ -3025,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K29">
         <v>1.8</v>
@@ -3114,7 +3117,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K30">
         <v>5.5</v>
@@ -3203,7 +3206,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K31">
         <v>1.333</v>
@@ -3292,7 +3295,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K32">
         <v>1.909</v>
@@ -3381,7 +3384,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K33">
         <v>2.15</v>
@@ -3470,7 +3473,7 @@
         <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -3559,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K35">
         <v>4.8</v>
@@ -3648,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K36">
         <v>1.222</v>
@@ -3737,7 +3740,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K37">
         <v>2.375</v>
@@ -3826,7 +3829,7 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K38">
         <v>3</v>
@@ -3915,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K39">
         <v>1.666</v>
@@ -4004,7 +4007,7 @@
         <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K40">
         <v>4.333</v>
@@ -4093,7 +4096,7 @@
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K41">
         <v>3.1</v>
@@ -4182,7 +4185,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K42">
         <v>2.45</v>
@@ -4271,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K43">
         <v>1.5</v>
@@ -4360,7 +4363,7 @@
         <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K44">
         <v>2.1</v>
@@ -4449,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K45">
         <v>2.5</v>
@@ -4538,7 +4541,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -4627,7 +4630,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K47">
         <v>3.5</v>
@@ -4716,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K48">
         <v>1.444</v>
@@ -4805,7 +4808,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K49">
         <v>1.85</v>
@@ -4894,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K50">
         <v>1.25</v>
@@ -4983,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K51">
         <v>2.15</v>
@@ -5072,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K52">
         <v>1.222</v>
@@ -5161,7 +5164,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K53">
         <v>1.444</v>
@@ -5250,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K54">
         <v>1.444</v>
@@ -5339,7 +5342,7 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K55">
         <v>2.2</v>
@@ -5428,7 +5431,7 @@
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K56">
         <v>9</v>
@@ -5517,7 +5520,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K57">
         <v>5.5</v>
@@ -5606,7 +5609,7 @@
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K58">
         <v>6</v>
@@ -5695,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K59">
         <v>2.2</v>
@@ -5784,7 +5787,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K60">
         <v>4.5</v>
@@ -5873,7 +5876,7 @@
         <v>6</v>
       </c>
       <c r="J61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K61">
         <v>2.8</v>
@@ -5962,7 +5965,7 @@
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K62">
         <v>3.6</v>
@@ -6051,7 +6054,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K63">
         <v>1.222</v>
@@ -6140,7 +6143,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K64">
         <v>1.25</v>
@@ -6229,7 +6232,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K65">
         <v>12</v>
@@ -6318,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K66">
         <v>1.3</v>
@@ -6407,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K67">
         <v>1.7</v>
@@ -6496,7 +6499,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K68">
         <v>1.833</v>
@@ -6585,7 +6588,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K69">
         <v>1.125</v>
@@ -6674,7 +6677,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K70">
         <v>4</v>
@@ -6763,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K71">
         <v>2.5</v>
@@ -6852,7 +6855,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K72">
         <v>1.285</v>
@@ -6941,7 +6944,7 @@
         <v>6</v>
       </c>
       <c r="J73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K73">
         <v>6</v>
@@ -7030,7 +7033,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K74">
         <v>1.8</v>
@@ -7119,7 +7122,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K75">
         <v>2.375</v>
@@ -7208,7 +7211,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K76">
         <v>1.125</v>
@@ -7297,7 +7300,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K77">
         <v>2.25</v>
@@ -7386,7 +7389,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K78">
         <v>1.4</v>
@@ -7475,7 +7478,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K79">
         <v>1.6</v>
@@ -7564,7 +7567,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K80">
         <v>1.4</v>
@@ -7653,7 +7656,7 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K81">
         <v>5</v>
@@ -7742,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K82">
         <v>2.2</v>
@@ -7831,7 +7834,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K83">
         <v>1.65</v>
@@ -7920,7 +7923,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K84">
         <v>1.909</v>
@@ -8009,7 +8012,7 @@
         <v>3</v>
       </c>
       <c r="J85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K85">
         <v>4.5</v>
@@ -8098,7 +8101,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K86">
         <v>1.45</v>
@@ -8187,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K87">
         <v>1.909</v>
@@ -8276,7 +8279,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K88">
         <v>2.25</v>
@@ -8365,7 +8368,7 @@
         <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K89">
         <v>6</v>
@@ -8454,7 +8457,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K90">
         <v>2.375</v>
@@ -8543,7 +8546,7 @@
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K91">
         <v>2.625</v>
@@ -8632,7 +8635,7 @@
         <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K92">
         <v>1.571</v>
@@ -8721,7 +8724,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K93">
         <v>4.75</v>
@@ -8810,7 +8813,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K94">
         <v>3.1</v>
@@ -8899,7 +8902,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K95">
         <v>2.5</v>
@@ -8988,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K96">
         <v>3.6</v>
@@ -9077,7 +9080,7 @@
         <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K97">
         <v>5</v>
@@ -9166,7 +9169,7 @@
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K98">
         <v>6.5</v>
@@ -9255,7 +9258,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K99">
         <v>2.625</v>
@@ -9344,7 +9347,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K100">
         <v>1.25</v>
@@ -9409,7 +9412,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7465686</v>
+        <v>6732836</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9421,58 +9424,58 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K101">
-        <v>2.3</v>
+        <v>1.222</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M101">
-        <v>2.3</v>
+        <v>9</v>
       </c>
       <c r="N101">
-        <v>2.55</v>
+        <v>1.363</v>
       </c>
       <c r="O101">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P101">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="Q101">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R101">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S101">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T101">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U101">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V101">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W101">
-        <v>1.55</v>
+        <v>0.363</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9481,13 +9484,13 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9522,7 +9525,7 @@
         <v>3</v>
       </c>
       <c r="J102" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K102">
         <v>3.6</v>
@@ -9587,7 +9590,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6732836</v>
+        <v>7465686</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9599,58 +9602,58 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K103">
-        <v>1.222</v>
+        <v>2.3</v>
       </c>
       <c r="L103">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M103">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="N103">
-        <v>1.363</v>
+        <v>2.55</v>
       </c>
       <c r="O103">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P103">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="Q103">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S103">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T103">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U103">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V103">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W103">
-        <v>0.363</v>
+        <v>1.55</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9659,13 +9662,13 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -9700,7 +9703,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K104">
         <v>1.285</v>
@@ -9789,7 +9792,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K105">
         <v>4.333</v>
@@ -9878,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K106">
         <v>7.5</v>
@@ -9967,7 +9970,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K107">
         <v>5</v>
@@ -10049,6 +10052,15 @@
       <c r="G108" t="s">
         <v>33</v>
       </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108" t="s">
+        <v>42</v>
+      </c>
       <c r="K108">
         <v>6.5</v>
       </c>
@@ -10059,46 +10071,141 @@
         <v>1.4</v>
       </c>
       <c r="N108">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="O108">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P108">
-        <v>1.285</v>
+        <v>1.45</v>
       </c>
       <c r="Q108">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R108">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S108">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T108">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U108">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V108">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="Z108">
         <v>0</v>
       </c>
       <c r="AA108">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB108">
+        <v>-1</v>
+      </c>
+      <c r="AC108">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>7862904</v>
+      </c>
+      <c r="C109" t="s">
+        <v>28</v>
+      </c>
+      <c r="D109" t="s">
+        <v>28</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45354.5625</v>
+      </c>
+      <c r="F109" t="s">
+        <v>35</v>
+      </c>
+      <c r="G109" t="s">
+        <v>39</v>
+      </c>
+      <c r="H109">
+        <v>2</v>
+      </c>
+      <c r="I109">
+        <v>3</v>
+      </c>
+      <c r="J109" t="s">
+        <v>42</v>
+      </c>
+      <c r="K109">
+        <v>1.8</v>
+      </c>
+      <c r="L109">
+        <v>3.5</v>
+      </c>
+      <c r="M109">
+        <v>3.6</v>
+      </c>
+      <c r="N109">
+        <v>1.95</v>
+      </c>
+      <c r="O109">
+        <v>3.5</v>
+      </c>
+      <c r="P109">
+        <v>3.1</v>
+      </c>
+      <c r="Q109">
+        <v>-0.25</v>
+      </c>
+      <c r="R109">
+        <v>1.775</v>
+      </c>
+      <c r="S109">
+        <v>2.025</v>
+      </c>
+      <c r="T109">
+        <v>2.5</v>
+      </c>
+      <c r="U109">
+        <v>1.9</v>
+      </c>
+      <c r="V109">
+        <v>1.9</v>
+      </c>
+      <c r="W109">
+        <v>-1</v>
+      </c>
+      <c r="X109">
+        <v>-1</v>
+      </c>
+      <c r="Y109">
+        <v>2.1</v>
+      </c>
+      <c r="Z109">
+        <v>-1</v>
+      </c>
+      <c r="AA109">
+        <v>1.025</v>
+      </c>
+      <c r="AB109">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC109">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -504,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC109"/>
+  <dimension ref="A1:AC112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2737,7 +2737,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6732773</v>
+        <v>6732711</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2749,16 +2749,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J26" t="s">
         <v>42</v>
@@ -2767,37 +2767,37 @@
         <v>5</v>
       </c>
       <c r="L26">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M26">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="N26">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O26">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P26">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S26">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V26">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W26">
         <v>-1</v>
@@ -2806,19 +2806,19 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>0.5329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC26">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2826,7 +2826,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6732711</v>
+        <v>6732773</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2838,16 +2838,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>1</v>
-      </c>
-      <c r="I27">
-        <v>4</v>
       </c>
       <c r="J27" t="s">
         <v>42</v>
@@ -2856,37 +2856,37 @@
         <v>5</v>
       </c>
       <c r="L27">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M27">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="N27">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O27">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P27">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="Q27">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R27">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S27">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2895,19 +2895,19 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.25</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB27">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -4873,7 +4873,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6732794</v>
+        <v>6732795</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4885,13 +4885,13 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -4900,43 +4900,43 @@
         <v>41</v>
       </c>
       <c r="K50">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="L50">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M50">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N50">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="O50">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P50">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="Q50">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S50">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T50">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
-        <v>0.25</v>
+        <v>1.3</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4945,16 +4945,16 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4962,7 +4962,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6732795</v>
+        <v>6732794</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4974,13 +4974,13 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -4989,43 +4989,43 @@
         <v>41</v>
       </c>
       <c r="K51">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="L51">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M51">
+        <v>9</v>
+      </c>
+      <c r="N51">
+        <v>1.25</v>
+      </c>
+      <c r="O51">
+        <v>5.25</v>
+      </c>
+      <c r="P51">
+        <v>9</v>
+      </c>
+      <c r="Q51">
+        <v>-1.75</v>
+      </c>
+      <c r="R51">
+        <v>2</v>
+      </c>
+      <c r="S51">
+        <v>1.8</v>
+      </c>
+      <c r="T51">
         <v>3</v>
       </c>
-      <c r="N51">
-        <v>2.3</v>
-      </c>
-      <c r="O51">
-        <v>3.2</v>
-      </c>
-      <c r="P51">
-        <v>2.7</v>
-      </c>
-      <c r="Q51">
-        <v>-0.25</v>
-      </c>
-      <c r="R51">
-        <v>2.05</v>
-      </c>
-      <c r="S51">
-        <v>1.75</v>
-      </c>
-      <c r="T51">
-        <v>2.25</v>
-      </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
-        <v>1.3</v>
+        <v>0.25</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5034,16 +5034,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC51">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -8344,7 +8344,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6732827</v>
+        <v>7326568</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8356,76 +8356,76 @@
         <v>45220.375</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K89">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="L89">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="M89">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="N89">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="O89">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P89">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="Q89">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S89">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U89">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V89">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y89">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA89">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8433,7 +8433,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7326568</v>
+        <v>6732827</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8445,76 +8445,76 @@
         <v>45220.375</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K90">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="L90">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="M90">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="N90">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="O90">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P90">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="Q90">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R90">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S90">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T90">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V90">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z90">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -9412,7 +9412,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6732836</v>
+        <v>7465686</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9424,58 +9424,58 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
         <v>41</v>
       </c>
       <c r="K101">
-        <v>1.222</v>
+        <v>2.3</v>
       </c>
       <c r="L101">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M101">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="N101">
-        <v>1.363</v>
+        <v>2.55</v>
       </c>
       <c r="O101">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P101">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="Q101">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R101">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S101">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T101">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V101">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W101">
-        <v>0.363</v>
+        <v>1.55</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9484,13 +9484,13 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9501,7 +9501,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6732837</v>
+        <v>6732836</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9513,46 +9513,46 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K102">
-        <v>3.6</v>
+        <v>1.222</v>
       </c>
       <c r="L102">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M102">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="N102">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="O102">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P102">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q102">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R102">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S102">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T102">
         <v>2.5</v>
@@ -9564,19 +9564,19 @@
         <v>1.825</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA102">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
         <v>0.9750000000000001</v>
@@ -9590,7 +9590,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7465686</v>
+        <v>6732727</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9602,58 +9602,58 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F103" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H103">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>41</v>
       </c>
       <c r="K103">
-        <v>2.3</v>
+        <v>1.285</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M103">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="N103">
-        <v>2.55</v>
+        <v>1.3</v>
       </c>
       <c r="O103">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P103">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R103">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S103">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T103">
         <v>2.75</v>
       </c>
       <c r="U103">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V103">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W103">
-        <v>1.55</v>
+        <v>0.3</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9662,16 +9662,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB103">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9679,7 +9679,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6732727</v>
+        <v>6732837</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9691,76 +9691,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>3</v>
+      </c>
+      <c r="J104" t="s">
+        <v>42</v>
+      </c>
+      <c r="K104">
+        <v>3.6</v>
+      </c>
+      <c r="L104">
+        <v>3.6</v>
+      </c>
+      <c r="M104">
+        <v>1.8</v>
+      </c>
+      <c r="N104">
+        <v>3</v>
+      </c>
+      <c r="O104">
+        <v>3.6</v>
+      </c>
+      <c r="P104">
+        <v>2</v>
+      </c>
+      <c r="Q104">
+        <v>0.25</v>
+      </c>
+      <c r="R104">
+        <v>2</v>
+      </c>
+      <c r="S104">
+        <v>1.8</v>
+      </c>
+      <c r="T104">
+        <v>2.5</v>
+      </c>
+      <c r="U104">
+        <v>1.975</v>
+      </c>
+      <c r="V104">
+        <v>1.825</v>
+      </c>
+      <c r="W104">
+        <v>-1</v>
+      </c>
+      <c r="X104">
+        <v>-1</v>
+      </c>
+      <c r="Y104">
         <v>1</v>
       </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
-      <c r="J104" t="s">
-        <v>41</v>
-      </c>
-      <c r="K104">
-        <v>1.285</v>
-      </c>
-      <c r="L104">
-        <v>5.5</v>
-      </c>
-      <c r="M104">
-        <v>6.5</v>
-      </c>
-      <c r="N104">
-        <v>1.3</v>
-      </c>
-      <c r="O104">
-        <v>5.5</v>
-      </c>
-      <c r="P104">
-        <v>6</v>
-      </c>
-      <c r="Q104">
-        <v>-1.5</v>
-      </c>
-      <c r="R104">
-        <v>1.9</v>
-      </c>
-      <c r="S104">
-        <v>1.9</v>
-      </c>
-      <c r="T104">
-        <v>2.75</v>
-      </c>
-      <c r="U104">
-        <v>1.8</v>
-      </c>
-      <c r="V104">
-        <v>2</v>
-      </c>
-      <c r="W104">
-        <v>0.3</v>
-      </c>
-      <c r="X104">
-        <v>-1</v>
-      </c>
-      <c r="Y104">
-        <v>-1</v>
-      </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC104">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10206,6 +10206,228 @@
       </c>
       <c r="AC109">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>7862907</v>
+      </c>
+      <c r="C110" t="s">
+        <v>28</v>
+      </c>
+      <c r="D110" t="s">
+        <v>28</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45361.33333333334</v>
+      </c>
+      <c r="F110" t="s">
+        <v>37</v>
+      </c>
+      <c r="G110" t="s">
+        <v>31</v>
+      </c>
+      <c r="K110">
+        <v>1.4</v>
+      </c>
+      <c r="L110">
+        <v>4.5</v>
+      </c>
+      <c r="M110">
+        <v>5.5</v>
+      </c>
+      <c r="N110">
+        <v>1.3</v>
+      </c>
+      <c r="O110">
+        <v>5</v>
+      </c>
+      <c r="P110">
+        <v>6</v>
+      </c>
+      <c r="Q110">
+        <v>-1.5</v>
+      </c>
+      <c r="R110">
+        <v>2</v>
+      </c>
+      <c r="S110">
+        <v>1.8</v>
+      </c>
+      <c r="T110">
+        <v>2.5</v>
+      </c>
+      <c r="U110">
+        <v>1.8</v>
+      </c>
+      <c r="V110">
+        <v>2</v>
+      </c>
+      <c r="W110">
+        <v>0</v>
+      </c>
+      <c r="X110">
+        <v>0</v>
+      </c>
+      <c r="Y110">
+        <v>0</v>
+      </c>
+      <c r="Z110">
+        <v>0</v>
+      </c>
+      <c r="AA110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>7862908</v>
+      </c>
+      <c r="C111" t="s">
+        <v>28</v>
+      </c>
+      <c r="D111" t="s">
+        <v>28</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45361.41666666666</v>
+      </c>
+      <c r="F111" t="s">
+        <v>32</v>
+      </c>
+      <c r="G111" t="s">
+        <v>30</v>
+      </c>
+      <c r="K111">
+        <v>1.2</v>
+      </c>
+      <c r="L111">
+        <v>5.5</v>
+      </c>
+      <c r="M111">
+        <v>10</v>
+      </c>
+      <c r="N111">
+        <v>1.363</v>
+      </c>
+      <c r="O111">
+        <v>4.5</v>
+      </c>
+      <c r="P111">
+        <v>6</v>
+      </c>
+      <c r="Q111">
+        <v>-1.25</v>
+      </c>
+      <c r="R111">
+        <v>1.95</v>
+      </c>
+      <c r="S111">
+        <v>1.85</v>
+      </c>
+      <c r="T111">
+        <v>2.25</v>
+      </c>
+      <c r="U111">
+        <v>1.8</v>
+      </c>
+      <c r="V111">
+        <v>2</v>
+      </c>
+      <c r="W111">
+        <v>0</v>
+      </c>
+      <c r="X111">
+        <v>0</v>
+      </c>
+      <c r="Y111">
+        <v>0</v>
+      </c>
+      <c r="Z111">
+        <v>0</v>
+      </c>
+      <c r="AA111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>7862035</v>
+      </c>
+      <c r="C112" t="s">
+        <v>28</v>
+      </c>
+      <c r="D112" t="s">
+        <v>28</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45361.5625</v>
+      </c>
+      <c r="F112" t="s">
+        <v>33</v>
+      </c>
+      <c r="G112" t="s">
+        <v>36</v>
+      </c>
+      <c r="K112">
+        <v>1.3</v>
+      </c>
+      <c r="L112">
+        <v>5</v>
+      </c>
+      <c r="M112">
+        <v>7</v>
+      </c>
+      <c r="N112">
+        <v>1.285</v>
+      </c>
+      <c r="O112">
+        <v>5</v>
+      </c>
+      <c r="P112">
+        <v>7.5</v>
+      </c>
+      <c r="Q112">
+        <v>-1.5</v>
+      </c>
+      <c r="R112">
+        <v>1.925</v>
+      </c>
+      <c r="S112">
+        <v>1.875</v>
+      </c>
+      <c r="T112">
+        <v>2.75</v>
+      </c>
+      <c r="U112">
+        <v>1.975</v>
+      </c>
+      <c r="V112">
+        <v>1.825</v>
+      </c>
+      <c r="W112">
+        <v>0</v>
+      </c>
+      <c r="X112">
+        <v>0</v>
+      </c>
+      <c r="Y112">
+        <v>0</v>
+      </c>
+      <c r="Z112">
+        <v>0</v>
+      </c>
+      <c r="AA112">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -504,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC112"/>
+  <dimension ref="A1:AC115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2737,7 +2737,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6732711</v>
+        <v>6732773</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2749,16 +2749,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>1</v>
-      </c>
-      <c r="I26">
-        <v>4</v>
       </c>
       <c r="J26" t="s">
         <v>42</v>
@@ -2767,37 +2767,37 @@
         <v>5</v>
       </c>
       <c r="L26">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M26">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="N26">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O26">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P26">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="Q26">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R26">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V26">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W26">
         <v>-1</v>
@@ -2806,19 +2806,19 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>0.25</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB26">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2826,7 +2826,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6732773</v>
+        <v>6732711</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2838,16 +2838,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J27" t="s">
         <v>42</v>
@@ -2856,37 +2856,37 @@
         <v>5</v>
       </c>
       <c r="L27">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="N27">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O27">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P27">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R27">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S27">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V27">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2895,19 +2895,19 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.5329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -8344,7 +8344,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7326568</v>
+        <v>6732827</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8356,76 +8356,76 @@
         <v>45220.375</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K89">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="L89">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="M89">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="N89">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="O89">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P89">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R89">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S89">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T89">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V89">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8433,7 +8433,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6732827</v>
+        <v>7326568</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8445,76 +8445,76 @@
         <v>45220.375</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G90" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K90">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="L90">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="M90">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="N90">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="O90">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P90">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="Q90">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T90">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U90">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V90">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y90">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA90">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -9323,7 +9323,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6732834</v>
+        <v>6732837</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9335,76 +9335,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J100" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K100">
-        <v>1.25</v>
+        <v>3.6</v>
       </c>
       <c r="L100">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M100">
-        <v>7.5</v>
+        <v>1.8</v>
       </c>
       <c r="N100">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="O100">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P100">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q100">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R100">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S100">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T100">
         <v>2.5</v>
       </c>
       <c r="U100">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V100">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC100">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9412,7 +9412,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7465686</v>
+        <v>6732727</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9424,58 +9424,58 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H101">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
         <v>41</v>
       </c>
       <c r="K101">
-        <v>2.3</v>
+        <v>1.285</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M101">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="N101">
-        <v>2.55</v>
+        <v>1.3</v>
       </c>
       <c r="O101">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P101">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="Q101">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R101">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S101">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T101">
         <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V101">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W101">
-        <v>1.55</v>
+        <v>0.3</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9484,16 +9484,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB101">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9590,7 +9590,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6732727</v>
+        <v>6732834</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9602,61 +9602,61 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K103">
-        <v>1.285</v>
+        <v>1.25</v>
       </c>
       <c r="L103">
         <v>5.5</v>
       </c>
       <c r="M103">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="N103">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="O103">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P103">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q103">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R103">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S103">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U103">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V103">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W103">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y103">
         <v>-1</v>
@@ -9665,13 +9665,13 @@
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB103">
         <v>-1</v>
       </c>
       <c r="AC103">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9679,7 +9679,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6732837</v>
+        <v>7465686</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9691,73 +9691,73 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K104">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="L104">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M104">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="N104">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="O104">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P104">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q104">
         <v>0.25</v>
       </c>
       <c r="R104">
+        <v>1.8</v>
+      </c>
+      <c r="S104">
         <v>2</v>
       </c>
-      <c r="S104">
-        <v>1.8</v>
-      </c>
       <c r="T104">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V104">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA104">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -10213,7 +10213,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7862907</v>
+        <v>7862905</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10222,64 +10222,79 @@
         <v>28</v>
       </c>
       <c r="E110" s="2">
-        <v>45361.33333333334</v>
+        <v>45360.33333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G110" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110">
+        <v>2</v>
+      </c>
+      <c r="J110" t="s">
+        <v>42</v>
       </c>
       <c r="K110">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="L110">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M110">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="N110">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="O110">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="P110">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q110">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
+        <v>1.9</v>
+      </c>
+      <c r="S110">
+        <v>1.9</v>
+      </c>
+      <c r="T110">
+        <v>2.25</v>
+      </c>
+      <c r="U110">
+        <v>1.825</v>
+      </c>
+      <c r="V110">
+        <v>1.975</v>
+      </c>
+      <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
+        <v>-1</v>
+      </c>
+      <c r="Y110">
         <v>2</v>
       </c>
-      <c r="S110">
-        <v>1.8</v>
-      </c>
-      <c r="T110">
-        <v>2.5</v>
-      </c>
-      <c r="U110">
-        <v>1.8</v>
-      </c>
-      <c r="V110">
-        <v>2</v>
-      </c>
-      <c r="W110">
-        <v>0</v>
-      </c>
-      <c r="X110">
-        <v>0</v>
-      </c>
-      <c r="Y110">
-        <v>0</v>
-      </c>
       <c r="Z110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB110">
+        <v>0.825</v>
+      </c>
+      <c r="AC110">
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10287,7 +10302,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7862908</v>
+        <v>7862906</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10296,64 +10311,79 @@
         <v>28</v>
       </c>
       <c r="E111" s="2">
-        <v>45361.41666666666</v>
+        <v>45360.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111" t="s">
+        <v>42</v>
       </c>
       <c r="K111">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="L111">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M111">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="N111">
-        <v>1.363</v>
+        <v>1.65</v>
       </c>
       <c r="O111">
+        <v>3.5</v>
+      </c>
+      <c r="P111">
         <v>4.5</v>
       </c>
-      <c r="P111">
-        <v>6</v>
-      </c>
       <c r="Q111">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R111">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S111">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T111">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U111">
+        <v>2</v>
+      </c>
+      <c r="V111">
         <v>1.8</v>
       </c>
-      <c r="V111">
-        <v>2</v>
-      </c>
       <c r="W111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Z111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB111">
+        <v>-1</v>
+      </c>
+      <c r="AC111">
+        <v>0.8</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10361,7 +10391,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7862035</v>
+        <v>7862907</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10370,43 +10400,52 @@
         <v>28</v>
       </c>
       <c r="E112" s="2">
-        <v>45361.5625</v>
+        <v>45361.33333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G112" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112" t="s">
+        <v>40</v>
       </c>
       <c r="K112">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="L112">
+        <v>4.5</v>
+      </c>
+      <c r="M112">
+        <v>5.5</v>
+      </c>
+      <c r="N112">
+        <v>1.5</v>
+      </c>
+      <c r="O112">
+        <v>4</v>
+      </c>
+      <c r="P112">
         <v>5</v>
       </c>
-      <c r="M112">
-        <v>7</v>
-      </c>
-      <c r="N112">
-        <v>1.285</v>
-      </c>
-      <c r="O112">
-        <v>5</v>
-      </c>
-      <c r="P112">
-        <v>7.5</v>
-      </c>
       <c r="Q112">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R112">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S112">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U112">
         <v>1.975</v>
@@ -10415,18 +10454,276 @@
         <v>1.825</v>
       </c>
       <c r="W112">
+        <v>-1</v>
+      </c>
+      <c r="X112">
+        <v>3</v>
+      </c>
+      <c r="Y112">
+        <v>-1</v>
+      </c>
+      <c r="Z112">
+        <v>-1</v>
+      </c>
+      <c r="AA112">
+        <v>0.825</v>
+      </c>
+      <c r="AB112">
+        <v>-1</v>
+      </c>
+      <c r="AC112">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>7862908</v>
+      </c>
+      <c r="C113" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" t="s">
+        <v>28</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45361.41666666666</v>
+      </c>
+      <c r="F113" t="s">
+        <v>32</v>
+      </c>
+      <c r="G113" t="s">
+        <v>30</v>
+      </c>
+      <c r="H113">
         <v>0</v>
       </c>
-      <c r="X112">
+      <c r="I113">
         <v>0</v>
       </c>
-      <c r="Y112">
+      <c r="J113" t="s">
+        <v>40</v>
+      </c>
+      <c r="K113">
+        <v>1.2</v>
+      </c>
+      <c r="L113">
+        <v>5.5</v>
+      </c>
+      <c r="M113">
+        <v>10</v>
+      </c>
+      <c r="N113">
+        <v>1.444</v>
+      </c>
+      <c r="O113">
+        <v>4.2</v>
+      </c>
+      <c r="P113">
+        <v>5.5</v>
+      </c>
+      <c r="Q113">
+        <v>-1</v>
+      </c>
+      <c r="R113">
+        <v>1.775</v>
+      </c>
+      <c r="S113">
+        <v>2.025</v>
+      </c>
+      <c r="T113">
+        <v>2.25</v>
+      </c>
+      <c r="U113">
+        <v>1.875</v>
+      </c>
+      <c r="V113">
+        <v>1.925</v>
+      </c>
+      <c r="W113">
+        <v>-1</v>
+      </c>
+      <c r="X113">
+        <v>3.2</v>
+      </c>
+      <c r="Y113">
+        <v>-1</v>
+      </c>
+      <c r="Z113">
+        <v>-1</v>
+      </c>
+      <c r="AA113">
+        <v>1.025</v>
+      </c>
+      <c r="AB113">
+        <v>-1</v>
+      </c>
+      <c r="AC113">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>7862035</v>
+      </c>
+      <c r="C114" t="s">
+        <v>28</v>
+      </c>
+      <c r="D114" t="s">
+        <v>28</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45361.5625</v>
+      </c>
+      <c r="F114" t="s">
+        <v>33</v>
+      </c>
+      <c r="G114" t="s">
+        <v>36</v>
+      </c>
+      <c r="H114">
+        <v>3</v>
+      </c>
+      <c r="I114">
+        <v>3</v>
+      </c>
+      <c r="J114" t="s">
+        <v>40</v>
+      </c>
+      <c r="K114">
+        <v>1.3</v>
+      </c>
+      <c r="L114">
+        <v>5</v>
+      </c>
+      <c r="M114">
+        <v>7</v>
+      </c>
+      <c r="N114">
+        <v>1.363</v>
+      </c>
+      <c r="O114">
+        <v>4.2</v>
+      </c>
+      <c r="P114">
+        <v>7</v>
+      </c>
+      <c r="Q114">
+        <v>-1.25</v>
+      </c>
+      <c r="R114">
+        <v>2</v>
+      </c>
+      <c r="S114">
+        <v>1.8</v>
+      </c>
+      <c r="T114">
+        <v>2.25</v>
+      </c>
+      <c r="U114">
+        <v>1.925</v>
+      </c>
+      <c r="V114">
+        <v>1.875</v>
+      </c>
+      <c r="W114">
+        <v>-1</v>
+      </c>
+      <c r="X114">
+        <v>3.2</v>
+      </c>
+      <c r="Y114">
+        <v>-1</v>
+      </c>
+      <c r="Z114">
+        <v>-1</v>
+      </c>
+      <c r="AA114">
+        <v>0.8</v>
+      </c>
+      <c r="AB114">
+        <v>0.925</v>
+      </c>
+      <c r="AC114">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>7862909</v>
+      </c>
+      <c r="C115" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115" t="s">
+        <v>28</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45363.54166666666</v>
+      </c>
+      <c r="F115" t="s">
+        <v>38</v>
+      </c>
+      <c r="G115" t="s">
+        <v>39</v>
+      </c>
+      <c r="K115">
+        <v>2</v>
+      </c>
+      <c r="L115">
+        <v>3.25</v>
+      </c>
+      <c r="M115">
+        <v>3.25</v>
+      </c>
+      <c r="N115">
+        <v>1.95</v>
+      </c>
+      <c r="O115">
+        <v>3.4</v>
+      </c>
+      <c r="P115">
+        <v>3.25</v>
+      </c>
+      <c r="Q115">
+        <v>-0.5</v>
+      </c>
+      <c r="R115">
+        <v>2.025</v>
+      </c>
+      <c r="S115">
+        <v>1.775</v>
+      </c>
+      <c r="T115">
+        <v>2.75</v>
+      </c>
+      <c r="U115">
+        <v>2</v>
+      </c>
+      <c r="V115">
+        <v>1.8</v>
+      </c>
+      <c r="W115">
         <v>0</v>
       </c>
-      <c r="Z112">
+      <c r="X115">
         <v>0</v>
       </c>
-      <c r="AA112">
+      <c r="Y115">
+        <v>0</v>
+      </c>
+      <c r="Z115">
+        <v>0</v>
+      </c>
+      <c r="AA115">
         <v>0</v>
       </c>
     </row>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -504,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC115"/>
+  <dimension ref="A1:AC123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2737,7 +2737,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6732773</v>
+        <v>6732711</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2749,16 +2749,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J26" t="s">
         <v>42</v>
@@ -2767,37 +2767,37 @@
         <v>5</v>
       </c>
       <c r="L26">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M26">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="N26">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O26">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P26">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S26">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V26">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W26">
         <v>-1</v>
@@ -2806,19 +2806,19 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>0.5329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC26">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2826,7 +2826,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6732711</v>
+        <v>6732773</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2838,16 +2838,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>1</v>
-      </c>
-      <c r="I27">
-        <v>4</v>
       </c>
       <c r="J27" t="s">
         <v>42</v>
@@ -2856,37 +2856,37 @@
         <v>5</v>
       </c>
       <c r="L27">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M27">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="N27">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O27">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P27">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="Q27">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R27">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S27">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2895,19 +2895,19 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.25</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB27">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -9501,7 +9501,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6732836</v>
+        <v>6732834</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9513,76 +9513,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K102">
-        <v>1.222</v>
+        <v>1.25</v>
       </c>
       <c r="L102">
         <v>5.5</v>
       </c>
       <c r="M102">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="N102">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="O102">
         <v>4.5</v>
       </c>
       <c r="P102">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q102">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R102">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S102">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T102">
         <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V102">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W102">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB102">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9590,7 +9590,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6732834</v>
+        <v>7465686</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9602,76 +9602,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G103" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K103">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="L103">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M103">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="N103">
-        <v>1.45</v>
+        <v>2.55</v>
       </c>
       <c r="O103">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P103">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Q103">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S103">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T103">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U103">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V103">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X103">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA103">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC103">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9679,7 +9679,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7465686</v>
+        <v>6732836</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9691,58 +9691,58 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F104" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
         <v>41</v>
       </c>
       <c r="K104">
-        <v>2.3</v>
+        <v>1.222</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M104">
-        <v>2.3</v>
+        <v>9</v>
       </c>
       <c r="N104">
-        <v>2.55</v>
+        <v>1.363</v>
       </c>
       <c r="O104">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P104">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="Q104">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R104">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S104">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U104">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
-        <v>1.55</v>
+        <v>0.363</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9751,13 +9751,13 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -10675,6 +10675,15 @@
       <c r="G115" t="s">
         <v>39</v>
       </c>
+      <c r="H115">
+        <v>2</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115" t="s">
+        <v>41</v>
+      </c>
       <c r="K115">
         <v>2</v>
       </c>
@@ -10685,45 +10694,733 @@
         <v>3.25</v>
       </c>
       <c r="N115">
+        <v>1.571</v>
+      </c>
+      <c r="O115">
+        <v>3.6</v>
+      </c>
+      <c r="P115">
+        <v>4.75</v>
+      </c>
+      <c r="Q115">
+        <v>-0.75</v>
+      </c>
+      <c r="R115">
+        <v>1.825</v>
+      </c>
+      <c r="S115">
+        <v>1.975</v>
+      </c>
+      <c r="T115">
+        <v>2.5</v>
+      </c>
+      <c r="U115">
+        <v>1.825</v>
+      </c>
+      <c r="V115">
+        <v>1.975</v>
+      </c>
+      <c r="W115">
+        <v>0.571</v>
+      </c>
+      <c r="X115">
+        <v>-1</v>
+      </c>
+      <c r="Y115">
+        <v>-1</v>
+      </c>
+      <c r="Z115">
+        <v>0.4125</v>
+      </c>
+      <c r="AA115">
+        <v>-0.5</v>
+      </c>
+      <c r="AB115">
+        <v>0.825</v>
+      </c>
+      <c r="AC115">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>7862910</v>
+      </c>
+      <c r="C116" t="s">
+        <v>28</v>
+      </c>
+      <c r="D116" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45364.5</v>
+      </c>
+      <c r="F116" t="s">
+        <v>30</v>
+      </c>
+      <c r="G116" t="s">
+        <v>29</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116" t="s">
+        <v>40</v>
+      </c>
+      <c r="K116">
+        <v>2.3</v>
+      </c>
+      <c r="L116">
+        <v>2.7</v>
+      </c>
+      <c r="M116">
+        <v>3.25</v>
+      </c>
+      <c r="N116">
+        <v>2.4</v>
+      </c>
+      <c r="O116">
+        <v>2.75</v>
+      </c>
+      <c r="P116">
+        <v>3</v>
+      </c>
+      <c r="Q116">
+        <v>-0.25</v>
+      </c>
+      <c r="R116">
+        <v>2.075</v>
+      </c>
+      <c r="S116">
+        <v>1.725</v>
+      </c>
+      <c r="T116">
+        <v>1.75</v>
+      </c>
+      <c r="U116">
+        <v>1.775</v>
+      </c>
+      <c r="V116">
+        <v>2.025</v>
+      </c>
+      <c r="W116">
+        <v>-1</v>
+      </c>
+      <c r="X116">
+        <v>1.75</v>
+      </c>
+      <c r="Y116">
+        <v>-1</v>
+      </c>
+      <c r="Z116">
+        <v>-0.5</v>
+      </c>
+      <c r="AA116">
+        <v>0.3625</v>
+      </c>
+      <c r="AB116">
+        <v>-1</v>
+      </c>
+      <c r="AC116">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>7862911</v>
+      </c>
+      <c r="C117" t="s">
+        <v>28</v>
+      </c>
+      <c r="D117" t="s">
+        <v>28</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45364.54166666666</v>
+      </c>
+      <c r="F117" t="s">
+        <v>35</v>
+      </c>
+      <c r="G117" t="s">
+        <v>37</v>
+      </c>
+      <c r="H117">
+        <v>2</v>
+      </c>
+      <c r="I117">
+        <v>2</v>
+      </c>
+      <c r="J117" t="s">
+        <v>40</v>
+      </c>
+      <c r="K117">
+        <v>2.15</v>
+      </c>
+      <c r="L117">
+        <v>3.1</v>
+      </c>
+      <c r="M117">
+        <v>3.1</v>
+      </c>
+      <c r="N117">
+        <v>2.45</v>
+      </c>
+      <c r="O117">
+        <v>2.9</v>
+      </c>
+      <c r="P117">
+        <v>3</v>
+      </c>
+      <c r="Q117">
+        <v>0</v>
+      </c>
+      <c r="R117">
+        <v>1.725</v>
+      </c>
+      <c r="S117">
+        <v>2.075</v>
+      </c>
+      <c r="T117">
+        <v>2.5</v>
+      </c>
+      <c r="U117">
+        <v>2.025</v>
+      </c>
+      <c r="V117">
+        <v>1.775</v>
+      </c>
+      <c r="W117">
+        <v>-1</v>
+      </c>
+      <c r="X117">
+        <v>1.9</v>
+      </c>
+      <c r="Y117">
+        <v>-1</v>
+      </c>
+      <c r="Z117">
+        <v>0</v>
+      </c>
+      <c r="AA117">
+        <v>-0</v>
+      </c>
+      <c r="AB117">
+        <v>1.025</v>
+      </c>
+      <c r="AC117">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>7862036</v>
+      </c>
+      <c r="C118" t="s">
+        <v>28</v>
+      </c>
+      <c r="D118" t="s">
+        <v>28</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45364.54166666666</v>
+      </c>
+      <c r="F118" t="s">
+        <v>31</v>
+      </c>
+      <c r="G118" t="s">
+        <v>33</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <v>4</v>
+      </c>
+      <c r="J118" t="s">
+        <v>42</v>
+      </c>
+      <c r="K118">
+        <v>8</v>
+      </c>
+      <c r="L118">
+        <v>4.5</v>
+      </c>
+      <c r="M118">
+        <v>1.3</v>
+      </c>
+      <c r="N118">
+        <v>6.5</v>
+      </c>
+      <c r="O118">
+        <v>4.5</v>
+      </c>
+      <c r="P118">
+        <v>1.333</v>
+      </c>
+      <c r="Q118">
+        <v>1.25</v>
+      </c>
+      <c r="R118">
+        <v>2</v>
+      </c>
+      <c r="S118">
+        <v>1.8</v>
+      </c>
+      <c r="T118">
+        <v>2.5</v>
+      </c>
+      <c r="U118">
+        <v>1.825</v>
+      </c>
+      <c r="V118">
+        <v>1.975</v>
+      </c>
+      <c r="W118">
+        <v>-1</v>
+      </c>
+      <c r="X118">
+        <v>-1</v>
+      </c>
+      <c r="Y118">
+        <v>0.333</v>
+      </c>
+      <c r="Z118">
+        <v>-1</v>
+      </c>
+      <c r="AA118">
+        <v>0.8</v>
+      </c>
+      <c r="AB118">
+        <v>0.825</v>
+      </c>
+      <c r="AC118">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>7862037</v>
+      </c>
+      <c r="C119" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119" t="s">
+        <v>28</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45364.63541666666</v>
+      </c>
+      <c r="F119" t="s">
+        <v>36</v>
+      </c>
+      <c r="G119" t="s">
+        <v>32</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119" t="s">
+        <v>41</v>
+      </c>
+      <c r="K119">
+        <v>7.5</v>
+      </c>
+      <c r="L119">
+        <v>4</v>
+      </c>
+      <c r="M119">
+        <v>1.363</v>
+      </c>
+      <c r="N119">
+        <v>3.1</v>
+      </c>
+      <c r="O119">
+        <v>3.25</v>
+      </c>
+      <c r="P119">
+        <v>2.1</v>
+      </c>
+      <c r="Q119">
+        <v>0.25</v>
+      </c>
+      <c r="R119">
+        <v>1.875</v>
+      </c>
+      <c r="S119">
+        <v>1.925</v>
+      </c>
+      <c r="T119">
+        <v>2</v>
+      </c>
+      <c r="U119">
         <v>1.95</v>
       </c>
-      <c r="O115">
-        <v>3.4</v>
-      </c>
-      <c r="P115">
-        <v>3.25</v>
-      </c>
-      <c r="Q115">
-        <v>-0.5</v>
-      </c>
-      <c r="R115">
+      <c r="V119">
+        <v>1.85</v>
+      </c>
+      <c r="W119">
+        <v>2.1</v>
+      </c>
+      <c r="X119">
+        <v>-1</v>
+      </c>
+      <c r="Y119">
+        <v>-1</v>
+      </c>
+      <c r="Z119">
+        <v>0.875</v>
+      </c>
+      <c r="AA119">
+        <v>-1</v>
+      </c>
+      <c r="AB119">
+        <v>-1</v>
+      </c>
+      <c r="AC119">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>7862038</v>
+      </c>
+      <c r="C120" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120" t="s">
+        <v>28</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45367.375</v>
+      </c>
+      <c r="F120" t="s">
+        <v>29</v>
+      </c>
+      <c r="G120" t="s">
+        <v>36</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120" t="s">
+        <v>41</v>
+      </c>
+      <c r="K120">
+        <v>2.5</v>
+      </c>
+      <c r="L120">
+        <v>3.2</v>
+      </c>
+      <c r="M120">
+        <v>2.5</v>
+      </c>
+      <c r="N120">
+        <v>3.2</v>
+      </c>
+      <c r="O120">
+        <v>3.1</v>
+      </c>
+      <c r="P120">
+        <v>2.05</v>
+      </c>
+      <c r="Q120">
+        <v>0.25</v>
+      </c>
+      <c r="R120">
+        <v>1.95</v>
+      </c>
+      <c r="S120">
+        <v>1.85</v>
+      </c>
+      <c r="T120">
+        <v>2</v>
+      </c>
+      <c r="U120">
+        <v>1.9</v>
+      </c>
+      <c r="V120">
+        <v>1.9</v>
+      </c>
+      <c r="W120">
+        <v>2.2</v>
+      </c>
+      <c r="X120">
+        <v>-1</v>
+      </c>
+      <c r="Y120">
+        <v>-1</v>
+      </c>
+      <c r="Z120">
+        <v>0.95</v>
+      </c>
+      <c r="AA120">
+        <v>-1</v>
+      </c>
+      <c r="AB120">
+        <v>-1</v>
+      </c>
+      <c r="AC120">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>7862912</v>
+      </c>
+      <c r="C121" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121" t="s">
+        <v>28</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45367.4375</v>
+      </c>
+      <c r="F121" t="s">
+        <v>32</v>
+      </c>
+      <c r="G121" t="s">
+        <v>31</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121" t="s">
+        <v>42</v>
+      </c>
+      <c r="K121">
+        <v>1.2</v>
+      </c>
+      <c r="L121">
+        <v>6.5</v>
+      </c>
+      <c r="M121">
+        <v>8</v>
+      </c>
+      <c r="N121">
+        <v>1.4</v>
+      </c>
+      <c r="O121">
+        <v>5</v>
+      </c>
+      <c r="P121">
+        <v>5</v>
+      </c>
+      <c r="Q121">
+        <v>-1</v>
+      </c>
+      <c r="R121">
+        <v>1.775</v>
+      </c>
+      <c r="S121">
         <v>2.025</v>
       </c>
-      <c r="S115">
+      <c r="T121">
+        <v>2.25</v>
+      </c>
+      <c r="U121">
+        <v>1.95</v>
+      </c>
+      <c r="V121">
+        <v>1.85</v>
+      </c>
+      <c r="W121">
+        <v>-1</v>
+      </c>
+      <c r="X121">
+        <v>-1</v>
+      </c>
+      <c r="Y121">
+        <v>4</v>
+      </c>
+      <c r="Z121">
+        <v>-1</v>
+      </c>
+      <c r="AA121">
+        <v>1.025</v>
+      </c>
+      <c r="AB121">
+        <v>-1</v>
+      </c>
+      <c r="AC121">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>7862914</v>
+      </c>
+      <c r="C122" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" t="s">
+        <v>28</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45368.41666666666</v>
+      </c>
+      <c r="F122" t="s">
+        <v>37</v>
+      </c>
+      <c r="G122" t="s">
+        <v>38</v>
+      </c>
+      <c r="K122">
+        <v>2.5</v>
+      </c>
+      <c r="L122">
+        <v>2.875</v>
+      </c>
+      <c r="M122">
+        <v>2.75</v>
+      </c>
+      <c r="N122">
+        <v>2.3</v>
+      </c>
+      <c r="O122">
+        <v>3</v>
+      </c>
+      <c r="P122">
+        <v>3.1</v>
+      </c>
+      <c r="Q122">
+        <v>-0.25</v>
+      </c>
+      <c r="R122">
+        <v>2.025</v>
+      </c>
+      <c r="S122">
         <v>1.775</v>
       </c>
-      <c r="T115">
+      <c r="T122">
+        <v>2.25</v>
+      </c>
+      <c r="U122">
+        <v>2</v>
+      </c>
+      <c r="V122">
+        <v>1.8</v>
+      </c>
+      <c r="W122">
+        <v>0</v>
+      </c>
+      <c r="X122">
+        <v>0</v>
+      </c>
+      <c r="Y122">
+        <v>0</v>
+      </c>
+      <c r="Z122">
+        <v>0</v>
+      </c>
+      <c r="AA122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>7862039</v>
+      </c>
+      <c r="C123" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45368.5625</v>
+      </c>
+      <c r="F123" t="s">
+        <v>33</v>
+      </c>
+      <c r="G123" t="s">
+        <v>35</v>
+      </c>
+      <c r="K123">
+        <v>1.615</v>
+      </c>
+      <c r="L123">
+        <v>3.8</v>
+      </c>
+      <c r="M123">
+        <v>4.333</v>
+      </c>
+      <c r="N123">
+        <v>1.615</v>
+      </c>
+      <c r="O123">
+        <v>3.75</v>
+      </c>
+      <c r="P123">
+        <v>4.2</v>
+      </c>
+      <c r="Q123">
+        <v>-0.75</v>
+      </c>
+      <c r="R123">
+        <v>1.85</v>
+      </c>
+      <c r="S123">
+        <v>1.95</v>
+      </c>
+      <c r="T123">
         <v>2.75</v>
       </c>
-      <c r="U115">
-        <v>2</v>
-      </c>
-      <c r="V115">
-        <v>1.8</v>
-      </c>
-      <c r="W115">
-        <v>0</v>
-      </c>
-      <c r="X115">
-        <v>0</v>
-      </c>
-      <c r="Y115">
-        <v>0</v>
-      </c>
-      <c r="Z115">
-        <v>0</v>
-      </c>
-      <c r="AA115">
+      <c r="U123">
+        <v>1.975</v>
+      </c>
+      <c r="V123">
+        <v>1.825</v>
+      </c>
+      <c r="W123">
+        <v>0</v>
+      </c>
+      <c r="X123">
+        <v>0</v>
+      </c>
+      <c r="Y123">
+        <v>0</v>
+      </c>
+      <c r="Z123">
+        <v>0</v>
+      </c>
+      <c r="AA123">
         <v>0</v>
       </c>
     </row>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -504,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC123"/>
+  <dimension ref="A1:AC124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2737,7 +2737,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6732711</v>
+        <v>6732773</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2749,16 +2749,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>1</v>
-      </c>
-      <c r="I26">
-        <v>4</v>
       </c>
       <c r="J26" t="s">
         <v>42</v>
@@ -2767,37 +2767,37 @@
         <v>5</v>
       </c>
       <c r="L26">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M26">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="N26">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O26">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P26">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="Q26">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R26">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V26">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W26">
         <v>-1</v>
@@ -2806,19 +2806,19 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>0.25</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB26">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2826,7 +2826,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6732773</v>
+        <v>6732711</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2838,16 +2838,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J27" t="s">
         <v>42</v>
@@ -2856,37 +2856,37 @@
         <v>5</v>
       </c>
       <c r="L27">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="N27">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O27">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P27">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R27">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S27">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V27">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2895,19 +2895,19 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.5329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -4873,7 +4873,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6732795</v>
+        <v>6732794</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4885,13 +4885,13 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -4900,43 +4900,43 @@
         <v>41</v>
       </c>
       <c r="K50">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="L50">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M50">
+        <v>9</v>
+      </c>
+      <c r="N50">
+        <v>1.25</v>
+      </c>
+      <c r="O50">
+        <v>5.25</v>
+      </c>
+      <c r="P50">
+        <v>9</v>
+      </c>
+      <c r="Q50">
+        <v>-1.75</v>
+      </c>
+      <c r="R50">
+        <v>2</v>
+      </c>
+      <c r="S50">
+        <v>1.8</v>
+      </c>
+      <c r="T50">
         <v>3</v>
       </c>
-      <c r="N50">
-        <v>2.3</v>
-      </c>
-      <c r="O50">
-        <v>3.2</v>
-      </c>
-      <c r="P50">
-        <v>2.7</v>
-      </c>
-      <c r="Q50">
-        <v>-0.25</v>
-      </c>
-      <c r="R50">
-        <v>2.05</v>
-      </c>
-      <c r="S50">
-        <v>1.75</v>
-      </c>
-      <c r="T50">
-        <v>2.25</v>
-      </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W50">
-        <v>1.3</v>
+        <v>0.25</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4945,16 +4945,16 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC50">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4962,7 +4962,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6732794</v>
+        <v>6732795</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4974,13 +4974,13 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -4989,43 +4989,43 @@
         <v>41</v>
       </c>
       <c r="K51">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="L51">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M51">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N51">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="O51">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P51">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="Q51">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S51">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W51">
-        <v>0.25</v>
+        <v>1.3</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5034,16 +5034,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -9501,7 +9501,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6732834</v>
+        <v>6732836</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9513,76 +9513,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K102">
-        <v>1.25</v>
+        <v>1.222</v>
       </c>
       <c r="L102">
         <v>5.5</v>
       </c>
       <c r="M102">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="N102">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="O102">
         <v>4.5</v>
       </c>
       <c r="P102">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q102">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R102">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S102">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T102">
         <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X102">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA102">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC102">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9590,7 +9590,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7465686</v>
+        <v>6732834</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9602,76 +9602,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F103" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H103">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K103">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M103">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="N103">
-        <v>2.55</v>
+        <v>1.45</v>
       </c>
       <c r="O103">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P103">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R103">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S103">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U103">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V103">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W103">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB103">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9679,7 +9679,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6732836</v>
+        <v>7465686</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9691,58 +9691,58 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
         <v>41</v>
       </c>
       <c r="K104">
-        <v>1.222</v>
+        <v>2.3</v>
       </c>
       <c r="L104">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M104">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="N104">
-        <v>1.363</v>
+        <v>2.55</v>
       </c>
       <c r="O104">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P104">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="Q104">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R104">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T104">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V104">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W104">
-        <v>0.363</v>
+        <v>1.55</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9751,13 +9751,13 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -11281,7 +11281,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7862914</v>
+        <v>7862913</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11290,64 +11290,79 @@
         <v>28</v>
       </c>
       <c r="E122" s="2">
-        <v>45368.41666666666</v>
+        <v>45368.375</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G122" t="s">
-        <v>38</v>
+        <v>30</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>2</v>
+      </c>
+      <c r="J122" t="s">
+        <v>42</v>
       </c>
       <c r="K122">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L122">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M122">
         <v>2.75</v>
       </c>
       <c r="N122">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O122">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P122">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R122">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S122">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T122">
         <v>2.25</v>
       </c>
       <c r="U122">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V122">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Z122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB122">
+        <v>-0.5</v>
+      </c>
+      <c r="AC122">
+        <v>0.4125</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11355,73 +11370,177 @@
         <v>121</v>
       </c>
       <c r="B123">
+        <v>7862914</v>
+      </c>
+      <c r="C123" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45368.41666666666</v>
+      </c>
+      <c r="F123" t="s">
+        <v>37</v>
+      </c>
+      <c r="G123" t="s">
+        <v>38</v>
+      </c>
+      <c r="H123">
+        <v>2</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123" t="s">
+        <v>41</v>
+      </c>
+      <c r="K123">
+        <v>2.5</v>
+      </c>
+      <c r="L123">
+        <v>2.875</v>
+      </c>
+      <c r="M123">
+        <v>2.75</v>
+      </c>
+      <c r="N123">
+        <v>2.5</v>
+      </c>
+      <c r="O123">
+        <v>3</v>
+      </c>
+      <c r="P123">
+        <v>2.9</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+      <c r="R123">
+        <v>2</v>
+      </c>
+      <c r="S123">
+        <v>1.8</v>
+      </c>
+      <c r="T123">
+        <v>2.25</v>
+      </c>
+      <c r="U123">
+        <v>2.025</v>
+      </c>
+      <c r="V123">
+        <v>1.775</v>
+      </c>
+      <c r="W123">
+        <v>1.5</v>
+      </c>
+      <c r="X123">
+        <v>-1</v>
+      </c>
+      <c r="Y123">
+        <v>-1</v>
+      </c>
+      <c r="Z123">
+        <v>1</v>
+      </c>
+      <c r="AA123">
+        <v>-1</v>
+      </c>
+      <c r="AB123">
+        <v>1.025</v>
+      </c>
+      <c r="AC123">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
         <v>7862039</v>
       </c>
-      <c r="C123" t="s">
-        <v>28</v>
-      </c>
-      <c r="D123" t="s">
-        <v>28</v>
-      </c>
-      <c r="E123" s="2">
+      <c r="C124" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" t="s">
+        <v>28</v>
+      </c>
+      <c r="E124" s="2">
         <v>45368.5625</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F124" t="s">
         <v>33</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G124" t="s">
         <v>35</v>
       </c>
-      <c r="K123">
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>3</v>
+      </c>
+      <c r="J124" t="s">
+        <v>42</v>
+      </c>
+      <c r="K124">
         <v>1.615</v>
       </c>
-      <c r="L123">
+      <c r="L124">
         <v>3.8</v>
       </c>
-      <c r="M123">
+      <c r="M124">
         <v>4.333</v>
       </c>
-      <c r="N123">
-        <v>1.615</v>
-      </c>
-      <c r="O123">
-        <v>3.75</v>
-      </c>
-      <c r="P123">
-        <v>4.2</v>
-      </c>
-      <c r="Q123">
+      <c r="N124">
+        <v>1.6</v>
+      </c>
+      <c r="O124">
+        <v>3.6</v>
+      </c>
+      <c r="P124">
+        <v>4.5</v>
+      </c>
+      <c r="Q124">
         <v>-0.75</v>
       </c>
-      <c r="R123">
+      <c r="R124">
         <v>1.85</v>
       </c>
-      <c r="S123">
+      <c r="S124">
         <v>1.95</v>
       </c>
-      <c r="T123">
-        <v>2.75</v>
-      </c>
-      <c r="U123">
+      <c r="T124">
+        <v>2.5</v>
+      </c>
+      <c r="U124">
         <v>1.975</v>
       </c>
-      <c r="V123">
+      <c r="V124">
         <v>1.825</v>
       </c>
-      <c r="W123">
-        <v>0</v>
-      </c>
-      <c r="X123">
-        <v>0</v>
-      </c>
-      <c r="Y123">
-        <v>0</v>
-      </c>
-      <c r="Z123">
-        <v>0</v>
-      </c>
-      <c r="AA123">
-        <v>0</v>
+      <c r="W124">
+        <v>-1</v>
+      </c>
+      <c r="X124">
+        <v>-1</v>
+      </c>
+      <c r="Y124">
+        <v>3.5</v>
+      </c>
+      <c r="Z124">
+        <v>-1</v>
+      </c>
+      <c r="AA124">
+        <v>0.95</v>
+      </c>
+      <c r="AB124">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC124">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -504,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC124"/>
+  <dimension ref="A1:AC125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4873,7 +4873,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6732794</v>
+        <v>6732795</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4885,13 +4885,13 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -4900,43 +4900,43 @@
         <v>41</v>
       </c>
       <c r="K50">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="L50">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M50">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N50">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="O50">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P50">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="Q50">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S50">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T50">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
-        <v>0.25</v>
+        <v>1.3</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4945,16 +4945,16 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4962,7 +4962,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6732795</v>
+        <v>6732794</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4974,13 +4974,13 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -4989,43 +4989,43 @@
         <v>41</v>
       </c>
       <c r="K51">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="L51">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M51">
+        <v>9</v>
+      </c>
+      <c r="N51">
+        <v>1.25</v>
+      </c>
+      <c r="O51">
+        <v>5.25</v>
+      </c>
+      <c r="P51">
+        <v>9</v>
+      </c>
+      <c r="Q51">
+        <v>-1.75</v>
+      </c>
+      <c r="R51">
+        <v>2</v>
+      </c>
+      <c r="S51">
+        <v>1.8</v>
+      </c>
+      <c r="T51">
         <v>3</v>
       </c>
-      <c r="N51">
-        <v>2.3</v>
-      </c>
-      <c r="O51">
-        <v>3.2</v>
-      </c>
-      <c r="P51">
-        <v>2.7</v>
-      </c>
-      <c r="Q51">
-        <v>-0.25</v>
-      </c>
-      <c r="R51">
-        <v>2.05</v>
-      </c>
-      <c r="S51">
-        <v>1.75</v>
-      </c>
-      <c r="T51">
-        <v>2.25</v>
-      </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
-        <v>1.3</v>
+        <v>0.25</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5034,16 +5034,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC51">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -8344,7 +8344,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6732827</v>
+        <v>7326568</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8356,76 +8356,76 @@
         <v>45220.375</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K89">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="L89">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="M89">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="N89">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="O89">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P89">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="Q89">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S89">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U89">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V89">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y89">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA89">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8433,7 +8433,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7326568</v>
+        <v>6732827</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8445,76 +8445,76 @@
         <v>45220.375</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K90">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="L90">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="M90">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="N90">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="O90">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P90">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="Q90">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R90">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S90">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T90">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V90">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z90">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -9412,7 +9412,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6732727</v>
+        <v>7465686</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9424,58 +9424,58 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
         <v>41</v>
       </c>
       <c r="K101">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="L101">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M101">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="N101">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="O101">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P101">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q101">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R101">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S101">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T101">
         <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V101">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W101">
-        <v>0.3</v>
+        <v>1.55</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9484,16 +9484,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA101">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC101">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9501,7 +9501,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6732836</v>
+        <v>6732727</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9513,13 +9513,13 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -9528,25 +9528,25 @@
         <v>41</v>
       </c>
       <c r="K102">
-        <v>1.222</v>
+        <v>1.285</v>
       </c>
       <c r="L102">
         <v>5.5</v>
       </c>
       <c r="M102">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="N102">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="O102">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="P102">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q102">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R102">
         <v>1.9</v>
@@ -9555,16 +9555,16 @@
         <v>1.9</v>
       </c>
       <c r="T102">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U102">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V102">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W102">
-        <v>0.363</v>
+        <v>0.3</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9573,16 +9573,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
+        <v>-1</v>
+      </c>
+      <c r="AA102">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA102">
-        <v>-1</v>
-      </c>
       <c r="AB102">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9679,7 +9679,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7465686</v>
+        <v>6732836</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9691,58 +9691,58 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F104" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
         <v>41</v>
       </c>
       <c r="K104">
-        <v>2.3</v>
+        <v>1.222</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M104">
-        <v>2.3</v>
+        <v>9</v>
       </c>
       <c r="N104">
-        <v>2.55</v>
+        <v>1.363</v>
       </c>
       <c r="O104">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P104">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="Q104">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R104">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S104">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U104">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
-        <v>1.55</v>
+        <v>0.363</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9751,13 +9751,13 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -10836,7 +10836,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7862911</v>
+        <v>7862036</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10848,73 +10848,73 @@
         <v>45364.54166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G117" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>4</v>
+      </c>
+      <c r="J117" t="s">
+        <v>42</v>
+      </c>
+      <c r="K117">
+        <v>8</v>
+      </c>
+      <c r="L117">
+        <v>4.5</v>
+      </c>
+      <c r="M117">
+        <v>1.3</v>
+      </c>
+      <c r="N117">
+        <v>6.5</v>
+      </c>
+      <c r="O117">
+        <v>4.5</v>
+      </c>
+      <c r="P117">
+        <v>1.333</v>
+      </c>
+      <c r="Q117">
+        <v>1.25</v>
+      </c>
+      <c r="R117">
         <v>2</v>
       </c>
-      <c r="I117">
-        <v>2</v>
-      </c>
-      <c r="J117" t="s">
-        <v>40</v>
-      </c>
-      <c r="K117">
-        <v>2.15</v>
-      </c>
-      <c r="L117">
-        <v>3.1</v>
-      </c>
-      <c r="M117">
-        <v>3.1</v>
-      </c>
-      <c r="N117">
-        <v>2.45</v>
-      </c>
-      <c r="O117">
-        <v>2.9</v>
-      </c>
-      <c r="P117">
-        <v>3</v>
-      </c>
-      <c r="Q117">
-        <v>0</v>
-      </c>
-      <c r="R117">
-        <v>1.725</v>
-      </c>
       <c r="S117">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="T117">
         <v>2.5</v>
       </c>
       <c r="U117">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V117">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB117">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10925,7 +10925,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7862036</v>
+        <v>7862911</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10937,73 +10937,73 @@
         <v>45364.54166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K118">
-        <v>8</v>
+        <v>2.15</v>
       </c>
       <c r="L118">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M118">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="N118">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="O118">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="P118">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="Q118">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R118">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S118">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="T118">
         <v>2.5</v>
       </c>
       <c r="U118">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V118">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y118">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA118">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB118">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11541,6 +11541,80 @@
       </c>
       <c r="AC124">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>7862915</v>
+      </c>
+      <c r="C125" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" t="s">
+        <v>28</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45380.58333333334</v>
+      </c>
+      <c r="F125" t="s">
+        <v>31</v>
+      </c>
+      <c r="G125" t="s">
+        <v>29</v>
+      </c>
+      <c r="K125">
+        <v>2.6</v>
+      </c>
+      <c r="L125">
+        <v>2.9</v>
+      </c>
+      <c r="M125">
+        <v>2.625</v>
+      </c>
+      <c r="N125">
+        <v>2.7</v>
+      </c>
+      <c r="O125">
+        <v>2.8</v>
+      </c>
+      <c r="P125">
+        <v>2.7</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <v>1.9</v>
+      </c>
+      <c r="S125">
+        <v>1.9</v>
+      </c>
+      <c r="T125">
+        <v>2</v>
+      </c>
+      <c r="U125">
+        <v>1.95</v>
+      </c>
+      <c r="V125">
+        <v>1.85</v>
+      </c>
+      <c r="W125">
+        <v>0</v>
+      </c>
+      <c r="X125">
+        <v>0</v>
+      </c>
+      <c r="Y125">
+        <v>0</v>
+      </c>
+      <c r="Z125">
+        <v>0</v>
+      </c>
+      <c r="AA125">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -504,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC125"/>
+  <dimension ref="A1:AC124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11543,80 +11543,6 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="125" spans="1:29">
-      <c r="A125" s="1">
-        <v>123</v>
-      </c>
-      <c r="B125">
-        <v>7862915</v>
-      </c>
-      <c r="C125" t="s">
-        <v>28</v>
-      </c>
-      <c r="D125" t="s">
-        <v>28</v>
-      </c>
-      <c r="E125" s="2">
-        <v>45380.58333333334</v>
-      </c>
-      <c r="F125" t="s">
-        <v>31</v>
-      </c>
-      <c r="G125" t="s">
-        <v>29</v>
-      </c>
-      <c r="K125">
-        <v>2.6</v>
-      </c>
-      <c r="L125">
-        <v>2.9</v>
-      </c>
-      <c r="M125">
-        <v>2.625</v>
-      </c>
-      <c r="N125">
-        <v>2.7</v>
-      </c>
-      <c r="O125">
-        <v>2.8</v>
-      </c>
-      <c r="P125">
-        <v>2.7</v>
-      </c>
-      <c r="Q125">
-        <v>0</v>
-      </c>
-      <c r="R125">
-        <v>1.9</v>
-      </c>
-      <c r="S125">
-        <v>1.9</v>
-      </c>
-      <c r="T125">
-        <v>2</v>
-      </c>
-      <c r="U125">
-        <v>1.95</v>
-      </c>
-      <c r="V125">
-        <v>1.85</v>
-      </c>
-      <c r="W125">
-        <v>0</v>
-      </c>
-      <c r="X125">
-        <v>0</v>
-      </c>
-      <c r="Y125">
-        <v>0</v>
-      </c>
-      <c r="Z125">
-        <v>0</v>
-      </c>
-      <c r="AA125">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -2737,7 +2737,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6732773</v>
+        <v>6732711</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2749,16 +2749,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J26" t="s">
         <v>42</v>
@@ -2767,37 +2767,37 @@
         <v>5</v>
       </c>
       <c r="L26">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M26">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="N26">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O26">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P26">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S26">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V26">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W26">
         <v>-1</v>
@@ -2806,19 +2806,19 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>0.5329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC26">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2826,7 +2826,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6732711</v>
+        <v>6732773</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2838,16 +2838,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>1</v>
-      </c>
-      <c r="I27">
-        <v>4</v>
       </c>
       <c r="J27" t="s">
         <v>42</v>
@@ -2856,37 +2856,37 @@
         <v>5</v>
       </c>
       <c r="L27">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M27">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="N27">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O27">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P27">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="Q27">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R27">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S27">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2895,19 +2895,19 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.25</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB27">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:29">

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -504,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC124"/>
+  <dimension ref="A1:AC127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2737,7 +2737,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6732711</v>
+        <v>6732773</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2749,16 +2749,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>1</v>
-      </c>
-      <c r="I26">
-        <v>4</v>
       </c>
       <c r="J26" t="s">
         <v>42</v>
@@ -2767,37 +2767,37 @@
         <v>5</v>
       </c>
       <c r="L26">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M26">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="N26">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O26">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P26">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="Q26">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R26">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V26">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W26">
         <v>-1</v>
@@ -2806,19 +2806,19 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>0.25</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB26">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2826,7 +2826,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6732773</v>
+        <v>6732711</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2838,16 +2838,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J27" t="s">
         <v>42</v>
@@ -2856,37 +2856,37 @@
         <v>5</v>
       </c>
       <c r="L27">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="N27">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O27">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P27">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R27">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S27">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V27">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2895,19 +2895,19 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.5329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -8344,7 +8344,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7326568</v>
+        <v>6732827</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8356,76 +8356,76 @@
         <v>45220.375</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K89">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="L89">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="M89">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="N89">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="O89">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P89">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R89">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S89">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T89">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V89">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8433,7 +8433,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6732827</v>
+        <v>7326568</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8445,76 +8445,76 @@
         <v>45220.375</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G90" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K90">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="L90">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="M90">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="N90">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="O90">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P90">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="Q90">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T90">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U90">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V90">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y90">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA90">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -9323,7 +9323,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6732837</v>
+        <v>6732836</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9335,46 +9335,46 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H100">
+        <v>3</v>
+      </c>
+      <c r="I100">
         <v>0</v>
       </c>
-      <c r="I100">
-        <v>3</v>
-      </c>
       <c r="J100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K100">
-        <v>3.6</v>
+        <v>1.222</v>
       </c>
       <c r="L100">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M100">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="N100">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="O100">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P100">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q100">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R100">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S100">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T100">
         <v>2.5</v>
@@ -9386,19 +9386,19 @@
         <v>1.825</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA100">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
         <v>0.9750000000000001</v>
@@ -9412,7 +9412,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7465686</v>
+        <v>6732834</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9424,76 +9424,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H101">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K101">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M101">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="N101">
-        <v>2.55</v>
+        <v>1.45</v>
       </c>
       <c r="O101">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P101">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q101">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R101">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S101">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T101">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U101">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V101">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W101">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB101">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9590,7 +9590,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6732834</v>
+        <v>7465686</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9602,76 +9602,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G103" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K103">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="L103">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M103">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="N103">
-        <v>1.45</v>
+        <v>2.55</v>
       </c>
       <c r="O103">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P103">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Q103">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S103">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T103">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U103">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V103">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X103">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA103">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC103">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9679,7 +9679,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6732836</v>
+        <v>6732837</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9691,46 +9691,46 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>3</v>
       </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
       <c r="J104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K104">
-        <v>1.222</v>
+        <v>3.6</v>
       </c>
       <c r="L104">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M104">
-        <v>9</v>
+        <v>1.8</v>
       </c>
       <c r="N104">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="O104">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P104">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q104">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R104">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S104">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T104">
         <v>2.5</v>
@@ -9742,19 +9742,19 @@
         <v>1.825</v>
       </c>
       <c r="W104">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z104">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB104">
         <v>0.9750000000000001</v>
@@ -10836,7 +10836,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7862036</v>
+        <v>7862911</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10848,73 +10848,73 @@
         <v>45364.54166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K117">
-        <v>8</v>
+        <v>2.15</v>
       </c>
       <c r="L117">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M117">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="N117">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="O117">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="P117">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="Q117">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R117">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S117">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="T117">
         <v>2.5</v>
       </c>
       <c r="U117">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V117">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y117">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA117">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB117">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10925,7 +10925,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7862911</v>
+        <v>7862036</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10937,73 +10937,73 @@
         <v>45364.54166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <v>4</v>
+      </c>
+      <c r="J118" t="s">
+        <v>42</v>
+      </c>
+      <c r="K118">
+        <v>8</v>
+      </c>
+      <c r="L118">
+        <v>4.5</v>
+      </c>
+      <c r="M118">
+        <v>1.3</v>
+      </c>
+      <c r="N118">
+        <v>6.5</v>
+      </c>
+      <c r="O118">
+        <v>4.5</v>
+      </c>
+      <c r="P118">
+        <v>1.333</v>
+      </c>
+      <c r="Q118">
+        <v>1.25</v>
+      </c>
+      <c r="R118">
         <v>2</v>
       </c>
-      <c r="I118">
-        <v>2</v>
-      </c>
-      <c r="J118" t="s">
-        <v>40</v>
-      </c>
-      <c r="K118">
-        <v>2.15</v>
-      </c>
-      <c r="L118">
-        <v>3.1</v>
-      </c>
-      <c r="M118">
-        <v>3.1</v>
-      </c>
-      <c r="N118">
-        <v>2.45</v>
-      </c>
-      <c r="O118">
-        <v>2.9</v>
-      </c>
-      <c r="P118">
-        <v>3</v>
-      </c>
-      <c r="Q118">
-        <v>0</v>
-      </c>
-      <c r="R118">
-        <v>1.725</v>
-      </c>
       <c r="S118">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="T118">
         <v>2.5</v>
       </c>
       <c r="U118">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z118">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB118">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11541,6 +11541,273 @@
       </c>
       <c r="AC124">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>7862915</v>
+      </c>
+      <c r="C125" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" t="s">
+        <v>28</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45380.58333333334</v>
+      </c>
+      <c r="F125" t="s">
+        <v>31</v>
+      </c>
+      <c r="G125" t="s">
+        <v>29</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>2</v>
+      </c>
+      <c r="J125" t="s">
+        <v>42</v>
+      </c>
+      <c r="K125">
+        <v>2.6</v>
+      </c>
+      <c r="L125">
+        <v>2.9</v>
+      </c>
+      <c r="M125">
+        <v>2.625</v>
+      </c>
+      <c r="N125">
+        <v>2.6</v>
+      </c>
+      <c r="O125">
+        <v>2.8</v>
+      </c>
+      <c r="P125">
+        <v>2.75</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <v>1.825</v>
+      </c>
+      <c r="S125">
+        <v>1.975</v>
+      </c>
+      <c r="T125">
+        <v>2</v>
+      </c>
+      <c r="U125">
+        <v>1.975</v>
+      </c>
+      <c r="V125">
+        <v>1.825</v>
+      </c>
+      <c r="W125">
+        <v>-1</v>
+      </c>
+      <c r="X125">
+        <v>-1</v>
+      </c>
+      <c r="Y125">
+        <v>1.75</v>
+      </c>
+      <c r="Z125">
+        <v>-1</v>
+      </c>
+      <c r="AA125">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB125">
+        <v>0</v>
+      </c>
+      <c r="AC125">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>7862916</v>
+      </c>
+      <c r="C126" t="s">
+        <v>28</v>
+      </c>
+      <c r="D126" t="s">
+        <v>28</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45381.41666666666</v>
+      </c>
+      <c r="F126" t="s">
+        <v>35</v>
+      </c>
+      <c r="G126" t="s">
+        <v>32</v>
+      </c>
+      <c r="H126">
+        <v>4</v>
+      </c>
+      <c r="I126">
+        <v>2</v>
+      </c>
+      <c r="J126" t="s">
+        <v>41</v>
+      </c>
+      <c r="K126">
+        <v>2.5</v>
+      </c>
+      <c r="L126">
+        <v>3</v>
+      </c>
+      <c r="M126">
+        <v>2.6</v>
+      </c>
+      <c r="N126">
+        <v>2.6</v>
+      </c>
+      <c r="O126">
+        <v>2.9</v>
+      </c>
+      <c r="P126">
+        <v>2.6</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="R126">
+        <v>1.9</v>
+      </c>
+      <c r="S126">
+        <v>1.9</v>
+      </c>
+      <c r="T126">
+        <v>2.25</v>
+      </c>
+      <c r="U126">
+        <v>1.925</v>
+      </c>
+      <c r="V126">
+        <v>1.875</v>
+      </c>
+      <c r="W126">
+        <v>1.6</v>
+      </c>
+      <c r="X126">
+        <v>-1</v>
+      </c>
+      <c r="Y126">
+        <v>-1</v>
+      </c>
+      <c r="Z126">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA126">
+        <v>-1</v>
+      </c>
+      <c r="AB126">
+        <v>0.925</v>
+      </c>
+      <c r="AC126">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>7862917</v>
+      </c>
+      <c r="C127" t="s">
+        <v>28</v>
+      </c>
+      <c r="D127" t="s">
+        <v>28</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45381.5</v>
+      </c>
+      <c r="F127" t="s">
+        <v>37</v>
+      </c>
+      <c r="G127" t="s">
+        <v>39</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127" t="s">
+        <v>42</v>
+      </c>
+      <c r="K127">
+        <v>1.533</v>
+      </c>
+      <c r="L127">
+        <v>3.75</v>
+      </c>
+      <c r="M127">
+        <v>5</v>
+      </c>
+      <c r="N127">
+        <v>1.65</v>
+      </c>
+      <c r="O127">
+        <v>3.4</v>
+      </c>
+      <c r="P127">
+        <v>4.5</v>
+      </c>
+      <c r="Q127">
+        <v>-0.75</v>
+      </c>
+      <c r="R127">
+        <v>1.875</v>
+      </c>
+      <c r="S127">
+        <v>1.925</v>
+      </c>
+      <c r="T127">
+        <v>2.75</v>
+      </c>
+      <c r="U127">
+        <v>1.95</v>
+      </c>
+      <c r="V127">
+        <v>1.85</v>
+      </c>
+      <c r="W127">
+        <v>-1</v>
+      </c>
+      <c r="X127">
+        <v>-1</v>
+      </c>
+      <c r="Y127">
+        <v>3.5</v>
+      </c>
+      <c r="Z127">
+        <v>-1</v>
+      </c>
+      <c r="AA127">
+        <v>0.925</v>
+      </c>
+      <c r="AB127">
+        <v>-1</v>
+      </c>
+      <c r="AC127">
+        <v>0.8500000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -504,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC127"/>
+  <dimension ref="A1:AC129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2737,7 +2737,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6732773</v>
+        <v>6732711</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2749,16 +2749,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J26" t="s">
         <v>42</v>
@@ -2767,37 +2767,37 @@
         <v>5</v>
       </c>
       <c r="L26">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M26">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="N26">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O26">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P26">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S26">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V26">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W26">
         <v>-1</v>
@@ -2806,19 +2806,19 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>0.5329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC26">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2826,7 +2826,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6732711</v>
+        <v>6732773</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2838,16 +2838,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>1</v>
-      </c>
-      <c r="I27">
-        <v>4</v>
       </c>
       <c r="J27" t="s">
         <v>42</v>
@@ -2856,37 +2856,37 @@
         <v>5</v>
       </c>
       <c r="L27">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M27">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="N27">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O27">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P27">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="Q27">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R27">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S27">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2895,19 +2895,19 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.25</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB27">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -8344,7 +8344,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6732827</v>
+        <v>7326568</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8356,76 +8356,76 @@
         <v>45220.375</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K89">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="L89">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="M89">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="N89">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="O89">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P89">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="Q89">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S89">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U89">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V89">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y89">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA89">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8433,7 +8433,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7326568</v>
+        <v>6732827</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8445,76 +8445,76 @@
         <v>45220.375</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K90">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="L90">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="M90">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="N90">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="O90">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P90">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="Q90">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R90">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S90">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T90">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V90">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z90">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -9590,7 +9590,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7465686</v>
+        <v>6732837</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9602,73 +9602,73 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F103" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H103">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I103">
+        <v>3</v>
+      </c>
+      <c r="J103" t="s">
+        <v>42</v>
+      </c>
+      <c r="K103">
+        <v>3.6</v>
+      </c>
+      <c r="L103">
+        <v>3.6</v>
+      </c>
+      <c r="M103">
+        <v>1.8</v>
+      </c>
+      <c r="N103">
+        <v>3</v>
+      </c>
+      <c r="O103">
+        <v>3.6</v>
+      </c>
+      <c r="P103">
         <v>2</v>
-      </c>
-      <c r="J103" t="s">
-        <v>41</v>
-      </c>
-      <c r="K103">
-        <v>2.3</v>
-      </c>
-      <c r="L103">
-        <v>4</v>
-      </c>
-      <c r="M103">
-        <v>2.3</v>
-      </c>
-      <c r="N103">
-        <v>2.55</v>
-      </c>
-      <c r="O103">
-        <v>4</v>
-      </c>
-      <c r="P103">
-        <v>2.2</v>
       </c>
       <c r="Q103">
         <v>0.25</v>
       </c>
       <c r="R103">
+        <v>2</v>
+      </c>
+      <c r="S103">
         <v>1.8</v>
       </c>
-      <c r="S103">
-        <v>2</v>
-      </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U103">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V103">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W103">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z103">
+        <v>-1</v>
+      </c>
+      <c r="AA103">
         <v>0.8</v>
       </c>
-      <c r="AA103">
-        <v>-1</v>
-      </c>
       <c r="AB103">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -9679,7 +9679,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6732837</v>
+        <v>7465686</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9691,73 +9691,73 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K104">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="L104">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M104">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="N104">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="O104">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P104">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q104">
         <v>0.25</v>
       </c>
       <c r="R104">
+        <v>1.8</v>
+      </c>
+      <c r="S104">
         <v>2</v>
       </c>
-      <c r="S104">
-        <v>1.8</v>
-      </c>
       <c r="T104">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V104">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA104">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -11808,6 +11808,184 @@
       </c>
       <c r="AC127">
         <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>7862040</v>
+      </c>
+      <c r="C128" t="s">
+        <v>28</v>
+      </c>
+      <c r="D128" t="s">
+        <v>28</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45382.375</v>
+      </c>
+      <c r="F128" t="s">
+        <v>36</v>
+      </c>
+      <c r="G128" t="s">
+        <v>30</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128" t="s">
+        <v>42</v>
+      </c>
+      <c r="K128">
+        <v>2.45</v>
+      </c>
+      <c r="L128">
+        <v>3.25</v>
+      </c>
+      <c r="M128">
+        <v>2.5</v>
+      </c>
+      <c r="N128">
+        <v>2.15</v>
+      </c>
+      <c r="O128">
+        <v>3.2</v>
+      </c>
+      <c r="P128">
+        <v>3</v>
+      </c>
+      <c r="Q128">
+        <v>-0.25</v>
+      </c>
+      <c r="R128">
+        <v>1.9</v>
+      </c>
+      <c r="S128">
+        <v>1.9</v>
+      </c>
+      <c r="T128">
+        <v>2</v>
+      </c>
+      <c r="U128">
+        <v>1.85</v>
+      </c>
+      <c r="V128">
+        <v>1.95</v>
+      </c>
+      <c r="W128">
+        <v>-1</v>
+      </c>
+      <c r="X128">
+        <v>-1</v>
+      </c>
+      <c r="Y128">
+        <v>2</v>
+      </c>
+      <c r="Z128">
+        <v>-1</v>
+      </c>
+      <c r="AA128">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB128">
+        <v>-1</v>
+      </c>
+      <c r="AC128">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>7862042</v>
+      </c>
+      <c r="C129" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" t="s">
+        <v>28</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45382.51736111111</v>
+      </c>
+      <c r="F129" t="s">
+        <v>38</v>
+      </c>
+      <c r="G129" t="s">
+        <v>33</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129" t="s">
+        <v>42</v>
+      </c>
+      <c r="K129">
+        <v>4</v>
+      </c>
+      <c r="L129">
+        <v>3.5</v>
+      </c>
+      <c r="M129">
+        <v>1.727</v>
+      </c>
+      <c r="N129">
+        <v>3.3</v>
+      </c>
+      <c r="O129">
+        <v>3.2</v>
+      </c>
+      <c r="P129">
+        <v>2</v>
+      </c>
+      <c r="Q129">
+        <v>0.25</v>
+      </c>
+      <c r="R129">
+        <v>1.975</v>
+      </c>
+      <c r="S129">
+        <v>1.825</v>
+      </c>
+      <c r="T129">
+        <v>2.5</v>
+      </c>
+      <c r="U129">
+        <v>1.9</v>
+      </c>
+      <c r="V129">
+        <v>1.9</v>
+      </c>
+      <c r="W129">
+        <v>-1</v>
+      </c>
+      <c r="X129">
+        <v>-1</v>
+      </c>
+      <c r="Y129">
+        <v>1</v>
+      </c>
+      <c r="Z129">
+        <v>-1</v>
+      </c>
+      <c r="AA129">
+        <v>0.825</v>
+      </c>
+      <c r="AB129">
+        <v>-1</v>
+      </c>
+      <c r="AC129">
+        <v>0.8999999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -2737,7 +2737,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6732711</v>
+        <v>6732773</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2749,16 +2749,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>1</v>
-      </c>
-      <c r="I26">
-        <v>4</v>
       </c>
       <c r="J26" t="s">
         <v>42</v>
@@ -2767,37 +2767,37 @@
         <v>5</v>
       </c>
       <c r="L26">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M26">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="N26">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O26">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P26">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="Q26">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R26">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V26">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W26">
         <v>-1</v>
@@ -2806,19 +2806,19 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>0.25</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB26">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2826,7 +2826,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6732773</v>
+        <v>6732711</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2838,16 +2838,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J27" t="s">
         <v>42</v>
@@ -2856,37 +2856,37 @@
         <v>5</v>
       </c>
       <c r="L27">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="N27">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O27">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P27">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R27">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S27">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V27">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2895,19 +2895,19 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.5329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -8344,7 +8344,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7326568</v>
+        <v>6732827</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8356,76 +8356,76 @@
         <v>45220.375</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K89">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="L89">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="M89">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="N89">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="O89">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P89">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R89">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S89">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T89">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V89">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8433,7 +8433,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6732827</v>
+        <v>7326568</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8445,76 +8445,76 @@
         <v>45220.375</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G90" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K90">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="L90">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="M90">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="N90">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="O90">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P90">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="Q90">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T90">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U90">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V90">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y90">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA90">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -9323,7 +9323,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6732836</v>
+        <v>6732727</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9335,13 +9335,13 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -9350,25 +9350,25 @@
         <v>41</v>
       </c>
       <c r="K100">
-        <v>1.222</v>
+        <v>1.285</v>
       </c>
       <c r="L100">
         <v>5.5</v>
       </c>
       <c r="M100">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="N100">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="O100">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="P100">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q100">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R100">
         <v>1.9</v>
@@ -9377,16 +9377,16 @@
         <v>1.9</v>
       </c>
       <c r="T100">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V100">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W100">
-        <v>0.363</v>
+        <v>0.3</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9395,16 +9395,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
+        <v>-1</v>
+      </c>
+      <c r="AA100">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA100">
-        <v>-1</v>
-      </c>
       <c r="AB100">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9412,7 +9412,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6732834</v>
+        <v>6732836</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9424,76 +9424,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K101">
-        <v>1.25</v>
+        <v>1.222</v>
       </c>
       <c r="L101">
         <v>5.5</v>
       </c>
       <c r="M101">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="N101">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="O101">
         <v>4.5</v>
       </c>
       <c r="P101">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q101">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R101">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S101">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T101">
         <v>2.5</v>
       </c>
       <c r="U101">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V101">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X101">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA101">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC101">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9501,7 +9501,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6732727</v>
+        <v>7465686</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9513,58 +9513,58 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
         <v>41</v>
       </c>
       <c r="K102">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="L102">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M102">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="N102">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="O102">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P102">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q102">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S102">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T102">
         <v>2.75</v>
       </c>
       <c r="U102">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V102">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W102">
-        <v>0.3</v>
+        <v>1.55</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9573,16 +9573,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA102">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC102">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9679,7 +9679,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7465686</v>
+        <v>6732834</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9691,76 +9691,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F104" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H104">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K104">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M104">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="N104">
-        <v>2.55</v>
+        <v>1.45</v>
       </c>
       <c r="O104">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P104">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q104">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R104">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S104">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U104">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W104">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB104">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="105" spans="1:29">

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -10836,7 +10836,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7862911</v>
+        <v>7862036</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10848,73 +10848,73 @@
         <v>45364.54166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G117" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>4</v>
+      </c>
+      <c r="J117" t="s">
+        <v>42</v>
+      </c>
+      <c r="K117">
+        <v>8</v>
+      </c>
+      <c r="L117">
+        <v>4.5</v>
+      </c>
+      <c r="M117">
+        <v>1.3</v>
+      </c>
+      <c r="N117">
+        <v>6.5</v>
+      </c>
+      <c r="O117">
+        <v>4.5</v>
+      </c>
+      <c r="P117">
+        <v>1.333</v>
+      </c>
+      <c r="Q117">
+        <v>1.25</v>
+      </c>
+      <c r="R117">
         <v>2</v>
       </c>
-      <c r="I117">
-        <v>2</v>
-      </c>
-      <c r="J117" t="s">
-        <v>40</v>
-      </c>
-      <c r="K117">
-        <v>2.15</v>
-      </c>
-      <c r="L117">
-        <v>3.1</v>
-      </c>
-      <c r="M117">
-        <v>3.1</v>
-      </c>
-      <c r="N117">
-        <v>2.45</v>
-      </c>
-      <c r="O117">
-        <v>2.9</v>
-      </c>
-      <c r="P117">
-        <v>3</v>
-      </c>
-      <c r="Q117">
-        <v>0</v>
-      </c>
-      <c r="R117">
-        <v>1.725</v>
-      </c>
       <c r="S117">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="T117">
         <v>2.5</v>
       </c>
       <c r="U117">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V117">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB117">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10925,7 +10925,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7862036</v>
+        <v>7862911</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10937,73 +10937,73 @@
         <v>45364.54166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K118">
-        <v>8</v>
+        <v>2.15</v>
       </c>
       <c r="L118">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M118">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="N118">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="O118">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="P118">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="Q118">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R118">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S118">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="T118">
         <v>2.5</v>
       </c>
       <c r="U118">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V118">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y118">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA118">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB118">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC118">
         <v>-1</v>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -10836,7 +10836,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7862036</v>
+        <v>7862911</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10848,73 +10848,73 @@
         <v>45364.54166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K117">
-        <v>8</v>
+        <v>2.15</v>
       </c>
       <c r="L117">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M117">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="N117">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="O117">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="P117">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="Q117">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R117">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S117">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="T117">
         <v>2.5</v>
       </c>
       <c r="U117">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V117">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y117">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA117">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB117">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10925,7 +10925,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7862911</v>
+        <v>7862036</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10937,73 +10937,73 @@
         <v>45364.54166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <v>4</v>
+      </c>
+      <c r="J118" t="s">
+        <v>42</v>
+      </c>
+      <c r="K118">
+        <v>8</v>
+      </c>
+      <c r="L118">
+        <v>4.5</v>
+      </c>
+      <c r="M118">
+        <v>1.3</v>
+      </c>
+      <c r="N118">
+        <v>6.5</v>
+      </c>
+      <c r="O118">
+        <v>4.5</v>
+      </c>
+      <c r="P118">
+        <v>1.333</v>
+      </c>
+      <c r="Q118">
+        <v>1.25</v>
+      </c>
+      <c r="R118">
         <v>2</v>
       </c>
-      <c r="I118">
-        <v>2</v>
-      </c>
-      <c r="J118" t="s">
-        <v>40</v>
-      </c>
-      <c r="K118">
-        <v>2.15</v>
-      </c>
-      <c r="L118">
-        <v>3.1</v>
-      </c>
-      <c r="M118">
-        <v>3.1</v>
-      </c>
-      <c r="N118">
-        <v>2.45</v>
-      </c>
-      <c r="O118">
-        <v>2.9</v>
-      </c>
-      <c r="P118">
-        <v>3</v>
-      </c>
-      <c r="Q118">
-        <v>0</v>
-      </c>
-      <c r="R118">
-        <v>1.725</v>
-      </c>
       <c r="S118">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="T118">
         <v>2.5</v>
       </c>
       <c r="U118">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z118">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB118">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC118">
         <v>-1</v>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -9412,7 +9412,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6732836</v>
+        <v>7465686</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9424,58 +9424,58 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
         <v>41</v>
       </c>
       <c r="K101">
-        <v>1.222</v>
+        <v>2.3</v>
       </c>
       <c r="L101">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M101">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="N101">
-        <v>1.363</v>
+        <v>2.55</v>
       </c>
       <c r="O101">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P101">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="Q101">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R101">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S101">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T101">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V101">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W101">
-        <v>0.363</v>
+        <v>1.55</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9484,13 +9484,13 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9501,7 +9501,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7465686</v>
+        <v>6732837</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9513,73 +9513,73 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H102">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I102">
+        <v>3</v>
+      </c>
+      <c r="J102" t="s">
+        <v>42</v>
+      </c>
+      <c r="K102">
+        <v>3.6</v>
+      </c>
+      <c r="L102">
+        <v>3.6</v>
+      </c>
+      <c r="M102">
+        <v>1.8</v>
+      </c>
+      <c r="N102">
+        <v>3</v>
+      </c>
+      <c r="O102">
+        <v>3.6</v>
+      </c>
+      <c r="P102">
         <v>2</v>
-      </c>
-      <c r="J102" t="s">
-        <v>41</v>
-      </c>
-      <c r="K102">
-        <v>2.3</v>
-      </c>
-      <c r="L102">
-        <v>4</v>
-      </c>
-      <c r="M102">
-        <v>2.3</v>
-      </c>
-      <c r="N102">
-        <v>2.55</v>
-      </c>
-      <c r="O102">
-        <v>4</v>
-      </c>
-      <c r="P102">
-        <v>2.2</v>
       </c>
       <c r="Q102">
         <v>0.25</v>
       </c>
       <c r="R102">
+        <v>2</v>
+      </c>
+      <c r="S102">
         <v>1.8</v>
       </c>
-      <c r="S102">
-        <v>2</v>
-      </c>
       <c r="T102">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V102">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W102">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z102">
+        <v>-1</v>
+      </c>
+      <c r="AA102">
         <v>0.8</v>
       </c>
-      <c r="AA102">
-        <v>-1</v>
-      </c>
       <c r="AB102">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC102">
         <v>-1</v>
@@ -9590,7 +9590,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6732837</v>
+        <v>6732836</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9602,46 +9602,46 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H103">
+        <v>3</v>
+      </c>
+      <c r="I103">
         <v>0</v>
       </c>
-      <c r="I103">
-        <v>3</v>
-      </c>
       <c r="J103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K103">
-        <v>3.6</v>
+        <v>1.222</v>
       </c>
       <c r="L103">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M103">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="N103">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="O103">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P103">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R103">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S103">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T103">
         <v>2.5</v>
@@ -9653,19 +9653,19 @@
         <v>1.825</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA103">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
         <v>0.9750000000000001</v>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -504,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC129"/>
+  <dimension ref="A1:AC130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10836,7 +10836,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7862911</v>
+        <v>7862036</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10848,73 +10848,73 @@
         <v>45364.54166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G117" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>4</v>
+      </c>
+      <c r="J117" t="s">
+        <v>42</v>
+      </c>
+      <c r="K117">
+        <v>8</v>
+      </c>
+      <c r="L117">
+        <v>4.5</v>
+      </c>
+      <c r="M117">
+        <v>1.3</v>
+      </c>
+      <c r="N117">
+        <v>6.5</v>
+      </c>
+      <c r="O117">
+        <v>4.5</v>
+      </c>
+      <c r="P117">
+        <v>1.333</v>
+      </c>
+      <c r="Q117">
+        <v>1.25</v>
+      </c>
+      <c r="R117">
         <v>2</v>
       </c>
-      <c r="I117">
-        <v>2</v>
-      </c>
-      <c r="J117" t="s">
-        <v>40</v>
-      </c>
-      <c r="K117">
-        <v>2.15</v>
-      </c>
-      <c r="L117">
-        <v>3.1</v>
-      </c>
-      <c r="M117">
-        <v>3.1</v>
-      </c>
-      <c r="N117">
-        <v>2.45</v>
-      </c>
-      <c r="O117">
-        <v>2.9</v>
-      </c>
-      <c r="P117">
-        <v>3</v>
-      </c>
-      <c r="Q117">
-        <v>0</v>
-      </c>
-      <c r="R117">
-        <v>1.725</v>
-      </c>
       <c r="S117">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="T117">
         <v>2.5</v>
       </c>
       <c r="U117">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V117">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB117">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10925,7 +10925,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7862036</v>
+        <v>7862911</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10937,73 +10937,73 @@
         <v>45364.54166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K118">
-        <v>8</v>
+        <v>2.15</v>
       </c>
       <c r="L118">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M118">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="N118">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="O118">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="P118">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="Q118">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R118">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S118">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="T118">
         <v>2.5</v>
       </c>
       <c r="U118">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V118">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y118">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA118">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB118">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11986,6 +11986,80 @@
       </c>
       <c r="AC129">
         <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>7862920</v>
+      </c>
+      <c r="C130" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" t="s">
+        <v>28</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45389.52083333334</v>
+      </c>
+      <c r="F130" t="s">
+        <v>38</v>
+      </c>
+      <c r="G130" t="s">
+        <v>32</v>
+      </c>
+      <c r="K130">
+        <v>2.75</v>
+      </c>
+      <c r="L130">
+        <v>3</v>
+      </c>
+      <c r="M130">
+        <v>2.4</v>
+      </c>
+      <c r="N130">
+        <v>2.25</v>
+      </c>
+      <c r="O130">
+        <v>3</v>
+      </c>
+      <c r="P130">
+        <v>2.9</v>
+      </c>
+      <c r="Q130">
+        <v>-0.25</v>
+      </c>
+      <c r="R130">
+        <v>2</v>
+      </c>
+      <c r="S130">
+        <v>1.8</v>
+      </c>
+      <c r="T130">
+        <v>2.25</v>
+      </c>
+      <c r="U130">
+        <v>2.025</v>
+      </c>
+      <c r="V130">
+        <v>1.775</v>
+      </c>
+      <c r="W130">
+        <v>0</v>
+      </c>
+      <c r="X130">
+        <v>0</v>
+      </c>
+      <c r="Y130">
+        <v>0</v>
+      </c>
+      <c r="Z130">
+        <v>0</v>
+      </c>
+      <c r="AA130">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -504,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC130"/>
+  <dimension ref="A1:AC134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4873,7 +4873,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6732795</v>
+        <v>6732794</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4885,13 +4885,13 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -4900,43 +4900,43 @@
         <v>41</v>
       </c>
       <c r="K50">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="L50">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M50">
+        <v>9</v>
+      </c>
+      <c r="N50">
+        <v>1.25</v>
+      </c>
+      <c r="O50">
+        <v>5.25</v>
+      </c>
+      <c r="P50">
+        <v>9</v>
+      </c>
+      <c r="Q50">
+        <v>-1.75</v>
+      </c>
+      <c r="R50">
+        <v>2</v>
+      </c>
+      <c r="S50">
+        <v>1.8</v>
+      </c>
+      <c r="T50">
         <v>3</v>
       </c>
-      <c r="N50">
-        <v>2.3</v>
-      </c>
-      <c r="O50">
-        <v>3.2</v>
-      </c>
-      <c r="P50">
-        <v>2.7</v>
-      </c>
-      <c r="Q50">
-        <v>-0.25</v>
-      </c>
-      <c r="R50">
-        <v>2.05</v>
-      </c>
-      <c r="S50">
-        <v>1.75</v>
-      </c>
-      <c r="T50">
-        <v>2.25</v>
-      </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W50">
-        <v>1.3</v>
+        <v>0.25</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4945,16 +4945,16 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC50">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4962,7 +4962,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6732794</v>
+        <v>6732795</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4974,13 +4974,13 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -4989,43 +4989,43 @@
         <v>41</v>
       </c>
       <c r="K51">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="L51">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M51">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N51">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="O51">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P51">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="Q51">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S51">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W51">
-        <v>0.25</v>
+        <v>1.3</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5034,16 +5034,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -9412,7 +9412,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7465686</v>
+        <v>6732834</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9424,76 +9424,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H101">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K101">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M101">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="N101">
-        <v>2.55</v>
+        <v>1.45</v>
       </c>
       <c r="O101">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P101">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q101">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R101">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S101">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T101">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U101">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V101">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W101">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB101">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9501,7 +9501,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6732837</v>
+        <v>7465686</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9513,73 +9513,73 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K102">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="L102">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M102">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="N102">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="O102">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P102">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q102">
         <v>0.25</v>
       </c>
       <c r="R102">
+        <v>1.8</v>
+      </c>
+      <c r="S102">
         <v>2</v>
       </c>
-      <c r="S102">
-        <v>1.8</v>
-      </c>
       <c r="T102">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U102">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V102">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA102">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC102">
         <v>-1</v>
@@ -9679,7 +9679,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6732834</v>
+        <v>6732837</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9691,76 +9691,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H104">
         <v>0</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J104" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K104">
-        <v>1.25</v>
+        <v>3.6</v>
       </c>
       <c r="L104">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M104">
-        <v>7.5</v>
+        <v>1.8</v>
       </c>
       <c r="N104">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="O104">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P104">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q104">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R104">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S104">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T104">
         <v>2.5</v>
       </c>
       <c r="U104">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC104">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -11993,7 +11993,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7862920</v>
+        <v>7862918</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12002,64 +12002,435 @@
         <v>28</v>
       </c>
       <c r="E130" s="2">
-        <v>45389.52083333334</v>
+        <v>45388.375</v>
       </c>
       <c r="F130" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130" t="s">
+        <v>40</v>
       </c>
       <c r="K130">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="L130">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M130">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="N130">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="O130">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P130">
-        <v>2.9</v>
+        <v>1.65</v>
       </c>
       <c r="Q130">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R130">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S130">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T130">
         <v>2.25</v>
       </c>
       <c r="U130">
+        <v>1.875</v>
+      </c>
+      <c r="V130">
+        <v>1.925</v>
+      </c>
+      <c r="W130">
+        <v>-1</v>
+      </c>
+      <c r="X130">
+        <v>2.4</v>
+      </c>
+      <c r="Y130">
+        <v>-1</v>
+      </c>
+      <c r="Z130">
+        <v>0.875</v>
+      </c>
+      <c r="AA130">
+        <v>-1</v>
+      </c>
+      <c r="AB130">
+        <v>-1</v>
+      </c>
+      <c r="AC130">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>7862919</v>
+      </c>
+      <c r="C131" t="s">
+        <v>28</v>
+      </c>
+      <c r="D131" t="s">
+        <v>28</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45388.45833333334</v>
+      </c>
+      <c r="F131" t="s">
+        <v>30</v>
+      </c>
+      <c r="G131" t="s">
+        <v>31</v>
+      </c>
+      <c r="H131">
+        <v>2</v>
+      </c>
+      <c r="I131">
+        <v>2</v>
+      </c>
+      <c r="J131" t="s">
+        <v>40</v>
+      </c>
+      <c r="K131">
+        <v>2.25</v>
+      </c>
+      <c r="L131">
+        <v>2.9</v>
+      </c>
+      <c r="M131">
+        <v>3.1</v>
+      </c>
+      <c r="N131">
+        <v>2.05</v>
+      </c>
+      <c r="O131">
+        <v>3</v>
+      </c>
+      <c r="P131">
+        <v>3.5</v>
+      </c>
+      <c r="Q131">
+        <v>-0.25</v>
+      </c>
+      <c r="R131">
+        <v>1.775</v>
+      </c>
+      <c r="S131">
         <v>2.025</v>
       </c>
-      <c r="V130">
+      <c r="T131">
+        <v>2</v>
+      </c>
+      <c r="U131">
+        <v>1.9</v>
+      </c>
+      <c r="V131">
+        <v>1.9</v>
+      </c>
+      <c r="W131">
+        <v>-1</v>
+      </c>
+      <c r="X131">
+        <v>2</v>
+      </c>
+      <c r="Y131">
+        <v>-1</v>
+      </c>
+      <c r="Z131">
+        <v>-0.5</v>
+      </c>
+      <c r="AA131">
+        <v>0.5125</v>
+      </c>
+      <c r="AB131">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC131">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>7865009</v>
+      </c>
+      <c r="C132" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" t="s">
+        <v>28</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45389.29166666666</v>
+      </c>
+      <c r="F132" t="s">
+        <v>39</v>
+      </c>
+      <c r="G132" t="s">
+        <v>36</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>2</v>
+      </c>
+      <c r="J132" t="s">
+        <v>42</v>
+      </c>
+      <c r="K132">
+        <v>1.833</v>
+      </c>
+      <c r="L132">
+        <v>3.4</v>
+      </c>
+      <c r="M132">
+        <v>3.6</v>
+      </c>
+      <c r="N132">
+        <v>2</v>
+      </c>
+      <c r="O132">
+        <v>3.25</v>
+      </c>
+      <c r="P132">
+        <v>3.3</v>
+      </c>
+      <c r="Q132">
+        <v>-0.25</v>
+      </c>
+      <c r="R132">
         <v>1.775</v>
       </c>
-      <c r="W130">
+      <c r="S132">
+        <v>2.025</v>
+      </c>
+      <c r="T132">
+        <v>2.25</v>
+      </c>
+      <c r="U132">
+        <v>1.875</v>
+      </c>
+      <c r="V132">
+        <v>1.925</v>
+      </c>
+      <c r="W132">
+        <v>-1</v>
+      </c>
+      <c r="X132">
+        <v>-1</v>
+      </c>
+      <c r="Y132">
+        <v>2.3</v>
+      </c>
+      <c r="Z132">
+        <v>-1</v>
+      </c>
+      <c r="AA132">
+        <v>1.025</v>
+      </c>
+      <c r="AB132">
+        <v>-0.5</v>
+      </c>
+      <c r="AC132">
+        <v>0.4625</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>7862043</v>
+      </c>
+      <c r="C133" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133" t="s">
+        <v>28</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45389.375</v>
+      </c>
+      <c r="F133" t="s">
+        <v>33</v>
+      </c>
+      <c r="G133" t="s">
+        <v>37</v>
+      </c>
+      <c r="H133">
+        <v>3</v>
+      </c>
+      <c r="I133">
         <v>0</v>
       </c>
-      <c r="X130">
+      <c r="J133" t="s">
+        <v>41</v>
+      </c>
+      <c r="K133">
+        <v>1.666</v>
+      </c>
+      <c r="L133">
+        <v>3.75</v>
+      </c>
+      <c r="M133">
+        <v>4</v>
+      </c>
+      <c r="N133">
+        <v>1.7</v>
+      </c>
+      <c r="O133">
+        <v>3.6</v>
+      </c>
+      <c r="P133">
+        <v>4</v>
+      </c>
+      <c r="Q133">
+        <v>-0.75</v>
+      </c>
+      <c r="R133">
+        <v>1.975</v>
+      </c>
+      <c r="S133">
+        <v>1.825</v>
+      </c>
+      <c r="T133">
+        <v>2.5</v>
+      </c>
+      <c r="U133">
+        <v>1.925</v>
+      </c>
+      <c r="V133">
+        <v>1.875</v>
+      </c>
+      <c r="W133">
+        <v>0.7</v>
+      </c>
+      <c r="X133">
+        <v>-1</v>
+      </c>
+      <c r="Y133">
+        <v>-1</v>
+      </c>
+      <c r="Z133">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA133">
+        <v>-1</v>
+      </c>
+      <c r="AB133">
+        <v>0.925</v>
+      </c>
+      <c r="AC133">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>7862920</v>
+      </c>
+      <c r="C134" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" t="s">
+        <v>28</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45389.51736111111</v>
+      </c>
+      <c r="F134" t="s">
+        <v>38</v>
+      </c>
+      <c r="G134" t="s">
+        <v>32</v>
+      </c>
+      <c r="H134">
         <v>0</v>
       </c>
-      <c r="Y130">
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134" t="s">
+        <v>42</v>
+      </c>
+      <c r="K134">
+        <v>2.75</v>
+      </c>
+      <c r="L134">
+        <v>3</v>
+      </c>
+      <c r="M134">
+        <v>2.4</v>
+      </c>
+      <c r="N134">
+        <v>2.375</v>
+      </c>
+      <c r="O134">
+        <v>3</v>
+      </c>
+      <c r="P134">
+        <v>2.8</v>
+      </c>
+      <c r="Q134">
         <v>0</v>
       </c>
-      <c r="Z130">
-        <v>0</v>
-      </c>
-      <c r="AA130">
-        <v>0</v>
+      <c r="R134">
+        <v>1.8</v>
+      </c>
+      <c r="S134">
+        <v>2</v>
+      </c>
+      <c r="T134">
+        <v>2</v>
+      </c>
+      <c r="U134">
+        <v>1.85</v>
+      </c>
+      <c r="V134">
+        <v>1.95</v>
+      </c>
+      <c r="W134">
+        <v>-1</v>
+      </c>
+      <c r="X134">
+        <v>-1</v>
+      </c>
+      <c r="Y134">
+        <v>1.8</v>
+      </c>
+      <c r="Z134">
+        <v>-1</v>
+      </c>
+      <c r="AA134">
+        <v>1</v>
+      </c>
+      <c r="AB134">
+        <v>-1</v>
+      </c>
+      <c r="AC134">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -4873,7 +4873,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6732794</v>
+        <v>6732795</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4885,13 +4885,13 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -4900,43 +4900,43 @@
         <v>41</v>
       </c>
       <c r="K50">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="L50">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M50">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N50">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="O50">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P50">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="Q50">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S50">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T50">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
-        <v>0.25</v>
+        <v>1.3</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4945,16 +4945,16 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4962,7 +4962,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6732795</v>
+        <v>6732794</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4974,13 +4974,13 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -4989,43 +4989,43 @@
         <v>41</v>
       </c>
       <c r="K51">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="L51">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M51">
+        <v>9</v>
+      </c>
+      <c r="N51">
+        <v>1.25</v>
+      </c>
+      <c r="O51">
+        <v>5.25</v>
+      </c>
+      <c r="P51">
+        <v>9</v>
+      </c>
+      <c r="Q51">
+        <v>-1.75</v>
+      </c>
+      <c r="R51">
+        <v>2</v>
+      </c>
+      <c r="S51">
+        <v>1.8</v>
+      </c>
+      <c r="T51">
         <v>3</v>
       </c>
-      <c r="N51">
-        <v>2.3</v>
-      </c>
-      <c r="O51">
-        <v>3.2</v>
-      </c>
-      <c r="P51">
-        <v>2.7</v>
-      </c>
-      <c r="Q51">
-        <v>-0.25</v>
-      </c>
-      <c r="R51">
-        <v>2.05</v>
-      </c>
-      <c r="S51">
-        <v>1.75</v>
-      </c>
-      <c r="T51">
-        <v>2.25</v>
-      </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
-        <v>1.3</v>
+        <v>0.25</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5034,16 +5034,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC51">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -8344,7 +8344,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6732827</v>
+        <v>7326568</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8356,76 +8356,76 @@
         <v>45220.375</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K89">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="L89">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="M89">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="N89">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="O89">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P89">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="Q89">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S89">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U89">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V89">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y89">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA89">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8433,7 +8433,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7326568</v>
+        <v>6732827</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8445,76 +8445,76 @@
         <v>45220.375</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K90">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="L90">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="M90">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="N90">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="O90">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P90">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="Q90">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R90">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S90">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T90">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V90">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z90">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -9323,7 +9323,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6732727</v>
+        <v>7465686</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9335,58 +9335,58 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
         <v>41</v>
       </c>
       <c r="K100">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="L100">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M100">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="N100">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="O100">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P100">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q100">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R100">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S100">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T100">
         <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V100">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W100">
-        <v>0.3</v>
+        <v>1.55</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9395,16 +9395,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA100">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC100">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9412,7 +9412,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6732834</v>
+        <v>6732837</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9424,76 +9424,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K101">
-        <v>1.25</v>
+        <v>3.6</v>
       </c>
       <c r="L101">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M101">
-        <v>7.5</v>
+        <v>1.8</v>
       </c>
       <c r="N101">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="O101">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P101">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q101">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R101">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S101">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T101">
         <v>2.5</v>
       </c>
       <c r="U101">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V101">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC101">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9501,7 +9501,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7465686</v>
+        <v>6732834</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9513,76 +9513,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H102">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K102">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M102">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="N102">
-        <v>2.55</v>
+        <v>1.45</v>
       </c>
       <c r="O102">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P102">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q102">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R102">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S102">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T102">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V102">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W102">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB102">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9590,7 +9590,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6732836</v>
+        <v>6732727</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9602,13 +9602,13 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -9617,25 +9617,25 @@
         <v>41</v>
       </c>
       <c r="K103">
-        <v>1.222</v>
+        <v>1.285</v>
       </c>
       <c r="L103">
         <v>5.5</v>
       </c>
       <c r="M103">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="N103">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="O103">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="P103">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q103">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R103">
         <v>1.9</v>
@@ -9644,16 +9644,16 @@
         <v>1.9</v>
       </c>
       <c r="T103">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U103">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V103">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W103">
-        <v>0.363</v>
+        <v>0.3</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9662,16 +9662,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
+        <v>-1</v>
+      </c>
+      <c r="AA103">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA103">
-        <v>-1</v>
-      </c>
       <c r="AB103">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9679,7 +9679,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6732837</v>
+        <v>6732836</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9691,46 +9691,46 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H104">
+        <v>3</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
-      <c r="I104">
-        <v>3</v>
-      </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K104">
-        <v>3.6</v>
+        <v>1.222</v>
       </c>
       <c r="L104">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M104">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="N104">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="O104">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P104">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q104">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R104">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S104">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T104">
         <v>2.5</v>
@@ -9742,19 +9742,19 @@
         <v>1.825</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA104">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
         <v>0.9750000000000001</v>
@@ -10836,7 +10836,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7862036</v>
+        <v>7862911</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10848,73 +10848,73 @@
         <v>45364.54166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K117">
-        <v>8</v>
+        <v>2.15</v>
       </c>
       <c r="L117">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M117">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="N117">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="O117">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="P117">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="Q117">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R117">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S117">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="T117">
         <v>2.5</v>
       </c>
       <c r="U117">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V117">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y117">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA117">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB117">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10925,7 +10925,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7862911</v>
+        <v>7862036</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10937,73 +10937,73 @@
         <v>45364.54166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <v>4</v>
+      </c>
+      <c r="J118" t="s">
+        <v>42</v>
+      </c>
+      <c r="K118">
+        <v>8</v>
+      </c>
+      <c r="L118">
+        <v>4.5</v>
+      </c>
+      <c r="M118">
+        <v>1.3</v>
+      </c>
+      <c r="N118">
+        <v>6.5</v>
+      </c>
+      <c r="O118">
+        <v>4.5</v>
+      </c>
+      <c r="P118">
+        <v>1.333</v>
+      </c>
+      <c r="Q118">
+        <v>1.25</v>
+      </c>
+      <c r="R118">
         <v>2</v>
       </c>
-      <c r="I118">
-        <v>2</v>
-      </c>
-      <c r="J118" t="s">
-        <v>40</v>
-      </c>
-      <c r="K118">
-        <v>2.15</v>
-      </c>
-      <c r="L118">
-        <v>3.1</v>
-      </c>
-      <c r="M118">
-        <v>3.1</v>
-      </c>
-      <c r="N118">
-        <v>2.45</v>
-      </c>
-      <c r="O118">
-        <v>2.9</v>
-      </c>
-      <c r="P118">
-        <v>3</v>
-      </c>
-      <c r="Q118">
-        <v>0</v>
-      </c>
-      <c r="R118">
-        <v>1.725</v>
-      </c>
       <c r="S118">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="T118">
         <v>2.5</v>
       </c>
       <c r="U118">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z118">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB118">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC118">
         <v>-1</v>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -504,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC134"/>
+  <dimension ref="A1:AC136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9323,7 +9323,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7465686</v>
+        <v>6732834</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9335,76 +9335,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H100">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K100">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="L100">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M100">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="N100">
-        <v>2.55</v>
+        <v>1.45</v>
       </c>
       <c r="O100">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P100">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q100">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R100">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S100">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T100">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U100">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V100">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W100">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB100">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9501,7 +9501,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6732834</v>
+        <v>6732727</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9513,61 +9513,61 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K102">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="L102">
         <v>5.5</v>
       </c>
       <c r="M102">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="N102">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="O102">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="P102">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q102">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R102">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S102">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T102">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U102">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X102">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
@@ -9576,13 +9576,13 @@
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB102">
         <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9590,7 +9590,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6732727</v>
+        <v>7465686</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9602,58 +9602,58 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
         <v>41</v>
       </c>
       <c r="K103">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="L103">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M103">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="N103">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="O103">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P103">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q103">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S103">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T103">
         <v>2.75</v>
       </c>
       <c r="U103">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V103">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W103">
-        <v>0.3</v>
+        <v>1.55</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9662,16 +9662,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA103">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC103">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -12431,6 +12431,169 @@
       </c>
       <c r="AC134">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>7862921</v>
+      </c>
+      <c r="C135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" t="s">
+        <v>28</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45391.5</v>
+      </c>
+      <c r="F135" t="s">
+        <v>35</v>
+      </c>
+      <c r="G135" t="s">
+        <v>30</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135" t="s">
+        <v>42</v>
+      </c>
+      <c r="K135">
+        <v>1.75</v>
+      </c>
+      <c r="L135">
+        <v>3.25</v>
+      </c>
+      <c r="M135">
+        <v>4.2</v>
+      </c>
+      <c r="N135">
+        <v>1.45</v>
+      </c>
+      <c r="O135">
+        <v>3.6</v>
+      </c>
+      <c r="P135">
+        <v>6</v>
+      </c>
+      <c r="Q135">
+        <v>-1</v>
+      </c>
+      <c r="R135">
+        <v>1.875</v>
+      </c>
+      <c r="S135">
+        <v>1.925</v>
+      </c>
+      <c r="T135">
+        <v>2.5</v>
+      </c>
+      <c r="U135">
+        <v>1.9</v>
+      </c>
+      <c r="V135">
+        <v>1.9</v>
+      </c>
+      <c r="W135">
+        <v>-1</v>
+      </c>
+      <c r="X135">
+        <v>-1</v>
+      </c>
+      <c r="Y135">
+        <v>5</v>
+      </c>
+      <c r="Z135">
+        <v>-1</v>
+      </c>
+      <c r="AA135">
+        <v>0.925</v>
+      </c>
+      <c r="AB135">
+        <v>-1</v>
+      </c>
+      <c r="AC135">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>7862922</v>
+      </c>
+      <c r="C136" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" t="s">
+        <v>28</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45392.5</v>
+      </c>
+      <c r="F136" t="s">
+        <v>37</v>
+      </c>
+      <c r="G136" t="s">
+        <v>32</v>
+      </c>
+      <c r="K136">
+        <v>2.7</v>
+      </c>
+      <c r="L136">
+        <v>3</v>
+      </c>
+      <c r="M136">
+        <v>2.5</v>
+      </c>
+      <c r="N136">
+        <v>2.6</v>
+      </c>
+      <c r="O136">
+        <v>3</v>
+      </c>
+      <c r="P136">
+        <v>2.6</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136">
+        <v>1.9</v>
+      </c>
+      <c r="S136">
+        <v>1.9</v>
+      </c>
+      <c r="T136">
+        <v>2</v>
+      </c>
+      <c r="U136">
+        <v>1.9</v>
+      </c>
+      <c r="V136">
+        <v>1.9</v>
+      </c>
+      <c r="W136">
+        <v>0</v>
+      </c>
+      <c r="X136">
+        <v>0</v>
+      </c>
+      <c r="Y136">
+        <v>0</v>
+      </c>
+      <c r="Z136">
+        <v>0</v>
+      </c>
+      <c r="AA136">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -504,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC136"/>
+  <dimension ref="A1:AC135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2737,7 +2737,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6732773</v>
+        <v>6732711</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2749,16 +2749,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J26" t="s">
         <v>42</v>
@@ -2767,37 +2767,37 @@
         <v>5</v>
       </c>
       <c r="L26">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M26">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="N26">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O26">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P26">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S26">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V26">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W26">
         <v>-1</v>
@@ -2806,19 +2806,19 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>0.5329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC26">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2826,7 +2826,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6732711</v>
+        <v>6732773</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2838,16 +2838,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>1</v>
-      </c>
-      <c r="I27">
-        <v>4</v>
       </c>
       <c r="J27" t="s">
         <v>42</v>
@@ -2856,37 +2856,37 @@
         <v>5</v>
       </c>
       <c r="L27">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M27">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="N27">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O27">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P27">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="Q27">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R27">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S27">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2895,19 +2895,19 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.25</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB27">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -12520,80 +12520,6 @@
       </c>
       <c r="AC135">
         <v>0.8999999999999999</v>
-      </c>
-    </row>
-    <row r="136" spans="1:29">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
-      <c r="B136">
-        <v>7862922</v>
-      </c>
-      <c r="C136" t="s">
-        <v>28</v>
-      </c>
-      <c r="D136" t="s">
-        <v>28</v>
-      </c>
-      <c r="E136" s="2">
-        <v>45392.5</v>
-      </c>
-      <c r="F136" t="s">
-        <v>37</v>
-      </c>
-      <c r="G136" t="s">
-        <v>32</v>
-      </c>
-      <c r="K136">
-        <v>2.7</v>
-      </c>
-      <c r="L136">
-        <v>3</v>
-      </c>
-      <c r="M136">
-        <v>2.5</v>
-      </c>
-      <c r="N136">
-        <v>2.6</v>
-      </c>
-      <c r="O136">
-        <v>3</v>
-      </c>
-      <c r="P136">
-        <v>2.6</v>
-      </c>
-      <c r="Q136">
-        <v>0</v>
-      </c>
-      <c r="R136">
-        <v>1.9</v>
-      </c>
-      <c r="S136">
-        <v>1.9</v>
-      </c>
-      <c r="T136">
-        <v>2</v>
-      </c>
-      <c r="U136">
-        <v>1.9</v>
-      </c>
-      <c r="V136">
-        <v>1.9</v>
-      </c>
-      <c r="W136">
-        <v>0</v>
-      </c>
-      <c r="X136">
-        <v>0</v>
-      </c>
-      <c r="Y136">
-        <v>0</v>
-      </c>
-      <c r="Z136">
-        <v>0</v>
-      </c>
-      <c r="AA136">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -504,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC135"/>
+  <dimension ref="A1:AC139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2737,7 +2737,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6732711</v>
+        <v>6732773</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2749,16 +2749,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>1</v>
-      </c>
-      <c r="I26">
-        <v>4</v>
       </c>
       <c r="J26" t="s">
         <v>42</v>
@@ -2767,37 +2767,37 @@
         <v>5</v>
       </c>
       <c r="L26">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M26">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="N26">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O26">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P26">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="Q26">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R26">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V26">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W26">
         <v>-1</v>
@@ -2806,19 +2806,19 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>0.25</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB26">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2826,7 +2826,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6732773</v>
+        <v>6732711</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2838,16 +2838,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J27" t="s">
         <v>42</v>
@@ -2856,37 +2856,37 @@
         <v>5</v>
       </c>
       <c r="L27">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="N27">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O27">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P27">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R27">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S27">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V27">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2895,19 +2895,19 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.5329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -9323,7 +9323,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6732834</v>
+        <v>6732727</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9335,61 +9335,61 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K100">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="L100">
         <v>5.5</v>
       </c>
       <c r="M100">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="N100">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="O100">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="P100">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q100">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R100">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S100">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T100">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V100">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X100">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
         <v>-1</v>
@@ -9398,13 +9398,13 @@
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9501,7 +9501,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6732727</v>
+        <v>6732834</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9513,61 +9513,61 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K102">
-        <v>1.285</v>
+        <v>1.25</v>
       </c>
       <c r="L102">
         <v>5.5</v>
       </c>
       <c r="M102">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="N102">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="O102">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P102">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q102">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R102">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S102">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T102">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V102">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W102">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y102">
         <v>-1</v>
@@ -9576,13 +9576,13 @@
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB102">
         <v>-1</v>
       </c>
       <c r="AC102">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9590,7 +9590,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7465686</v>
+        <v>6732836</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9602,58 +9602,58 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H103">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>41</v>
       </c>
       <c r="K103">
-        <v>2.3</v>
+        <v>1.222</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M103">
-        <v>2.3</v>
+        <v>9</v>
       </c>
       <c r="N103">
-        <v>2.55</v>
+        <v>1.363</v>
       </c>
       <c r="O103">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P103">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R103">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S103">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U103">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V103">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W103">
-        <v>1.55</v>
+        <v>0.363</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9662,13 +9662,13 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -9679,7 +9679,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6732836</v>
+        <v>7465686</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9691,58 +9691,58 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
         <v>41</v>
       </c>
       <c r="K104">
-        <v>1.222</v>
+        <v>2.3</v>
       </c>
       <c r="L104">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M104">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="N104">
-        <v>1.363</v>
+        <v>2.55</v>
       </c>
       <c r="O104">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P104">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="Q104">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R104">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T104">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V104">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W104">
-        <v>0.363</v>
+        <v>1.55</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9751,13 +9751,13 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -12520,6 +12520,362 @@
       </c>
       <c r="AC135">
         <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>7862922</v>
+      </c>
+      <c r="C136" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" t="s">
+        <v>28</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45392.5</v>
+      </c>
+      <c r="F136" t="s">
+        <v>37</v>
+      </c>
+      <c r="G136" t="s">
+        <v>32</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136" t="s">
+        <v>40</v>
+      </c>
+      <c r="K136">
+        <v>2.7</v>
+      </c>
+      <c r="L136">
+        <v>3</v>
+      </c>
+      <c r="M136">
+        <v>2.5</v>
+      </c>
+      <c r="N136">
+        <v>2.9</v>
+      </c>
+      <c r="O136">
+        <v>2.9</v>
+      </c>
+      <c r="P136">
+        <v>2.375</v>
+      </c>
+      <c r="Q136">
+        <v>0.25</v>
+      </c>
+      <c r="R136">
+        <v>1.75</v>
+      </c>
+      <c r="S136">
+        <v>2.05</v>
+      </c>
+      <c r="T136">
+        <v>1.75</v>
+      </c>
+      <c r="U136">
+        <v>1.775</v>
+      </c>
+      <c r="V136">
+        <v>2.025</v>
+      </c>
+      <c r="W136">
+        <v>-1</v>
+      </c>
+      <c r="X136">
+        <v>1.9</v>
+      </c>
+      <c r="Y136">
+        <v>-1</v>
+      </c>
+      <c r="Z136">
+        <v>0.375</v>
+      </c>
+      <c r="AA136">
+        <v>-0.5</v>
+      </c>
+      <c r="AB136">
+        <v>0.3875</v>
+      </c>
+      <c r="AC136">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>7862044</v>
+      </c>
+      <c r="C137" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137" t="s">
+        <v>28</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45392.5</v>
+      </c>
+      <c r="F137" t="s">
+        <v>31</v>
+      </c>
+      <c r="G137" t="s">
+        <v>36</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137" t="s">
+        <v>40</v>
+      </c>
+      <c r="K137">
+        <v>2.1</v>
+      </c>
+      <c r="L137">
+        <v>3.05</v>
+      </c>
+      <c r="M137">
+        <v>3.2</v>
+      </c>
+      <c r="N137">
+        <v>3.4</v>
+      </c>
+      <c r="O137">
+        <v>3</v>
+      </c>
+      <c r="P137">
+        <v>2.1</v>
+      </c>
+      <c r="Q137">
+        <v>0.25</v>
+      </c>
+      <c r="R137">
+        <v>1.95</v>
+      </c>
+      <c r="S137">
+        <v>1.85</v>
+      </c>
+      <c r="T137">
+        <v>2</v>
+      </c>
+      <c r="U137">
+        <v>1.95</v>
+      </c>
+      <c r="V137">
+        <v>1.85</v>
+      </c>
+      <c r="W137">
+        <v>-1</v>
+      </c>
+      <c r="X137">
+        <v>2</v>
+      </c>
+      <c r="Y137">
+        <v>-1</v>
+      </c>
+      <c r="Z137">
+        <v>0.475</v>
+      </c>
+      <c r="AA137">
+        <v>-0.5</v>
+      </c>
+      <c r="AB137">
+        <v>-1</v>
+      </c>
+      <c r="AC137">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>7862923</v>
+      </c>
+      <c r="C138" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138" t="s">
+        <v>28</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45392.54166666666</v>
+      </c>
+      <c r="F138" t="s">
+        <v>38</v>
+      </c>
+      <c r="G138" t="s">
+        <v>29</v>
+      </c>
+      <c r="H138">
+        <v>3</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138" t="s">
+        <v>41</v>
+      </c>
+      <c r="K138">
+        <v>1.333</v>
+      </c>
+      <c r="L138">
+        <v>4.333</v>
+      </c>
+      <c r="M138">
+        <v>7.5</v>
+      </c>
+      <c r="N138">
+        <v>1.75</v>
+      </c>
+      <c r="O138">
+        <v>3.2</v>
+      </c>
+      <c r="P138">
+        <v>4.333</v>
+      </c>
+      <c r="Q138">
+        <v>-0.5</v>
+      </c>
+      <c r="R138">
+        <v>1.8</v>
+      </c>
+      <c r="S138">
+        <v>2</v>
+      </c>
+      <c r="T138">
+        <v>2</v>
+      </c>
+      <c r="U138">
+        <v>1.775</v>
+      </c>
+      <c r="V138">
+        <v>2.025</v>
+      </c>
+      <c r="W138">
+        <v>0.75</v>
+      </c>
+      <c r="X138">
+        <v>-1</v>
+      </c>
+      <c r="Y138">
+        <v>-1</v>
+      </c>
+      <c r="Z138">
+        <v>0.8</v>
+      </c>
+      <c r="AA138">
+        <v>-1</v>
+      </c>
+      <c r="AB138">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC138">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>7865008</v>
+      </c>
+      <c r="C139" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" t="s">
+        <v>28</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45392.58333333334</v>
+      </c>
+      <c r="F139" t="s">
+        <v>33</v>
+      </c>
+      <c r="G139" t="s">
+        <v>39</v>
+      </c>
+      <c r="H139">
+        <v>2</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139" t="s">
+        <v>41</v>
+      </c>
+      <c r="K139">
+        <v>1.333</v>
+      </c>
+      <c r="L139">
+        <v>4.2</v>
+      </c>
+      <c r="M139">
+        <v>8</v>
+      </c>
+      <c r="N139">
+        <v>1.25</v>
+      </c>
+      <c r="O139">
+        <v>5</v>
+      </c>
+      <c r="P139">
+        <v>8</v>
+      </c>
+      <c r="Q139">
+        <v>-1.5</v>
+      </c>
+      <c r="R139">
+        <v>1.85</v>
+      </c>
+      <c r="S139">
+        <v>1.95</v>
+      </c>
+      <c r="T139">
+        <v>2.75</v>
+      </c>
+      <c r="U139">
+        <v>1.825</v>
+      </c>
+      <c r="V139">
+        <v>1.975</v>
+      </c>
+      <c r="W139">
+        <v>0.25</v>
+      </c>
+      <c r="X139">
+        <v>-1</v>
+      </c>
+      <c r="Y139">
+        <v>-1</v>
+      </c>
+      <c r="Z139">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA139">
+        <v>-1</v>
+      </c>
+      <c r="AB139">
+        <v>-1</v>
+      </c>
+      <c r="AC139">
+        <v>0.9750000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -2737,7 +2737,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6732773</v>
+        <v>6732711</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2749,16 +2749,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J26" t="s">
         <v>42</v>
@@ -2767,37 +2767,37 @@
         <v>5</v>
       </c>
       <c r="L26">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M26">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="N26">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O26">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P26">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S26">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V26">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W26">
         <v>-1</v>
@@ -2806,19 +2806,19 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>0.5329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC26">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2826,7 +2826,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6732711</v>
+        <v>6732773</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2838,16 +2838,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>1</v>
-      </c>
-      <c r="I27">
-        <v>4</v>
       </c>
       <c r="J27" t="s">
         <v>42</v>
@@ -2856,37 +2856,37 @@
         <v>5</v>
       </c>
       <c r="L27">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M27">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="N27">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O27">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P27">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="Q27">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R27">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S27">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2895,19 +2895,19 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.25</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB27">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -4873,7 +4873,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6732795</v>
+        <v>6732794</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4885,13 +4885,13 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -4900,43 +4900,43 @@
         <v>41</v>
       </c>
       <c r="K50">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="L50">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M50">
+        <v>9</v>
+      </c>
+      <c r="N50">
+        <v>1.25</v>
+      </c>
+      <c r="O50">
+        <v>5.25</v>
+      </c>
+      <c r="P50">
+        <v>9</v>
+      </c>
+      <c r="Q50">
+        <v>-1.75</v>
+      </c>
+      <c r="R50">
+        <v>2</v>
+      </c>
+      <c r="S50">
+        <v>1.8</v>
+      </c>
+      <c r="T50">
         <v>3</v>
       </c>
-      <c r="N50">
-        <v>2.3</v>
-      </c>
-      <c r="O50">
-        <v>3.2</v>
-      </c>
-      <c r="P50">
-        <v>2.7</v>
-      </c>
-      <c r="Q50">
-        <v>-0.25</v>
-      </c>
-      <c r="R50">
-        <v>2.05</v>
-      </c>
-      <c r="S50">
-        <v>1.75</v>
-      </c>
-      <c r="T50">
-        <v>2.25</v>
-      </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W50">
-        <v>1.3</v>
+        <v>0.25</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4945,16 +4945,16 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC50">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4962,7 +4962,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6732794</v>
+        <v>6732795</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4974,13 +4974,13 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -4989,43 +4989,43 @@
         <v>41</v>
       </c>
       <c r="K51">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="L51">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M51">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N51">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="O51">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P51">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="Q51">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S51">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W51">
-        <v>0.25</v>
+        <v>1.3</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5034,16 +5034,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -8344,7 +8344,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7326568</v>
+        <v>6732827</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8356,76 +8356,76 @@
         <v>45220.375</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K89">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="L89">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="M89">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="N89">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="O89">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P89">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R89">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S89">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T89">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V89">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8433,7 +8433,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6732827</v>
+        <v>7326568</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8445,76 +8445,76 @@
         <v>45220.375</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G90" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K90">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="L90">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="M90">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="N90">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="O90">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P90">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="Q90">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T90">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U90">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V90">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y90">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA90">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -9412,7 +9412,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6732837</v>
+        <v>6732836</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9424,46 +9424,46 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I101">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K101">
-        <v>3.6</v>
+        <v>1.222</v>
       </c>
       <c r="L101">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M101">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="N101">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="O101">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P101">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q101">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R101">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S101">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T101">
         <v>2.5</v>
@@ -9475,19 +9475,19 @@
         <v>1.825</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA101">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
         <v>0.9750000000000001</v>
@@ -9590,7 +9590,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6732836</v>
+        <v>7465686</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9602,58 +9602,58 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
         <v>41</v>
       </c>
       <c r="K103">
-        <v>1.222</v>
+        <v>2.3</v>
       </c>
       <c r="L103">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M103">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="N103">
-        <v>1.363</v>
+        <v>2.55</v>
       </c>
       <c r="O103">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P103">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="Q103">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S103">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T103">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U103">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V103">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W103">
-        <v>0.363</v>
+        <v>1.55</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9662,13 +9662,13 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -9679,7 +9679,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7465686</v>
+        <v>6732837</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9691,73 +9691,73 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F104" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H104">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I104">
+        <v>3</v>
+      </c>
+      <c r="J104" t="s">
+        <v>42</v>
+      </c>
+      <c r="K104">
+        <v>3.6</v>
+      </c>
+      <c r="L104">
+        <v>3.6</v>
+      </c>
+      <c r="M104">
+        <v>1.8</v>
+      </c>
+      <c r="N104">
+        <v>3</v>
+      </c>
+      <c r="O104">
+        <v>3.6</v>
+      </c>
+      <c r="P104">
         <v>2</v>
-      </c>
-      <c r="J104" t="s">
-        <v>41</v>
-      </c>
-      <c r="K104">
-        <v>2.3</v>
-      </c>
-      <c r="L104">
-        <v>4</v>
-      </c>
-      <c r="M104">
-        <v>2.3</v>
-      </c>
-      <c r="N104">
-        <v>2.55</v>
-      </c>
-      <c r="O104">
-        <v>4</v>
-      </c>
-      <c r="P104">
-        <v>2.2</v>
       </c>
       <c r="Q104">
         <v>0.25</v>
       </c>
       <c r="R104">
+        <v>2</v>
+      </c>
+      <c r="S104">
         <v>1.8</v>
       </c>
-      <c r="S104">
-        <v>2</v>
-      </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U104">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z104">
+        <v>-1</v>
+      </c>
+      <c r="AA104">
         <v>0.8</v>
       </c>
-      <c r="AA104">
-        <v>-1</v>
-      </c>
       <c r="AB104">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -10836,7 +10836,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7862911</v>
+        <v>7862036</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10848,73 +10848,73 @@
         <v>45364.54166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G117" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>4</v>
+      </c>
+      <c r="J117" t="s">
+        <v>42</v>
+      </c>
+      <c r="K117">
+        <v>8</v>
+      </c>
+      <c r="L117">
+        <v>4.5</v>
+      </c>
+      <c r="M117">
+        <v>1.3</v>
+      </c>
+      <c r="N117">
+        <v>6.5</v>
+      </c>
+      <c r="O117">
+        <v>4.5</v>
+      </c>
+      <c r="P117">
+        <v>1.333</v>
+      </c>
+      <c r="Q117">
+        <v>1.25</v>
+      </c>
+      <c r="R117">
         <v>2</v>
       </c>
-      <c r="I117">
-        <v>2</v>
-      </c>
-      <c r="J117" t="s">
-        <v>40</v>
-      </c>
-      <c r="K117">
-        <v>2.15</v>
-      </c>
-      <c r="L117">
-        <v>3.1</v>
-      </c>
-      <c r="M117">
-        <v>3.1</v>
-      </c>
-      <c r="N117">
-        <v>2.45</v>
-      </c>
-      <c r="O117">
-        <v>2.9</v>
-      </c>
-      <c r="P117">
-        <v>3</v>
-      </c>
-      <c r="Q117">
-        <v>0</v>
-      </c>
-      <c r="R117">
-        <v>1.725</v>
-      </c>
       <c r="S117">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="T117">
         <v>2.5</v>
       </c>
       <c r="U117">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V117">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB117">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10925,7 +10925,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7862036</v>
+        <v>7862911</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10937,73 +10937,73 @@
         <v>45364.54166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K118">
-        <v>8</v>
+        <v>2.15</v>
       </c>
       <c r="L118">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M118">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="N118">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="O118">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="P118">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="Q118">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R118">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S118">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="T118">
         <v>2.5</v>
       </c>
       <c r="U118">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V118">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y118">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA118">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB118">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC118">
         <v>-1</v>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -504,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC139"/>
+  <dimension ref="A1:AC142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4873,7 +4873,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6732794</v>
+        <v>6732795</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4885,13 +4885,13 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -4900,43 +4900,43 @@
         <v>41</v>
       </c>
       <c r="K50">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="L50">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M50">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N50">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="O50">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P50">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="Q50">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S50">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T50">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
-        <v>0.25</v>
+        <v>1.3</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4945,16 +4945,16 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4962,7 +4962,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6732795</v>
+        <v>6732794</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4974,13 +4974,13 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -4989,43 +4989,43 @@
         <v>41</v>
       </c>
       <c r="K51">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="L51">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M51">
+        <v>9</v>
+      </c>
+      <c r="N51">
+        <v>1.25</v>
+      </c>
+      <c r="O51">
+        <v>5.25</v>
+      </c>
+      <c r="P51">
+        <v>9</v>
+      </c>
+      <c r="Q51">
+        <v>-1.75</v>
+      </c>
+      <c r="R51">
+        <v>2</v>
+      </c>
+      <c r="S51">
+        <v>1.8</v>
+      </c>
+      <c r="T51">
         <v>3</v>
       </c>
-      <c r="N51">
-        <v>2.3</v>
-      </c>
-      <c r="O51">
-        <v>3.2</v>
-      </c>
-      <c r="P51">
-        <v>2.7</v>
-      </c>
-      <c r="Q51">
-        <v>-0.25</v>
-      </c>
-      <c r="R51">
-        <v>2.05</v>
-      </c>
-      <c r="S51">
-        <v>1.75</v>
-      </c>
-      <c r="T51">
-        <v>2.25</v>
-      </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
-        <v>1.3</v>
+        <v>0.25</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5034,16 +5034,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC51">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -8344,7 +8344,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6732827</v>
+        <v>7326568</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8356,76 +8356,76 @@
         <v>45220.375</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K89">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="L89">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="M89">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="N89">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="O89">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P89">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="Q89">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S89">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U89">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V89">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y89">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA89">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8433,7 +8433,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7326568</v>
+        <v>6732827</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8445,76 +8445,76 @@
         <v>45220.375</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K90">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="L90">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="M90">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="N90">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="O90">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P90">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="Q90">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R90">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S90">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T90">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V90">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z90">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -9323,7 +9323,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6732727</v>
+        <v>6732834</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9335,61 +9335,61 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K100">
-        <v>1.285</v>
+        <v>1.25</v>
       </c>
       <c r="L100">
         <v>5.5</v>
       </c>
       <c r="M100">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="N100">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="O100">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P100">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q100">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R100">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S100">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T100">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U100">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V100">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W100">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y100">
         <v>-1</v>
@@ -9398,13 +9398,13 @@
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9501,7 +9501,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6732834</v>
+        <v>6732837</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9513,76 +9513,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J102" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K102">
-        <v>1.25</v>
+        <v>3.6</v>
       </c>
       <c r="L102">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M102">
-        <v>7.5</v>
+        <v>1.8</v>
       </c>
       <c r="N102">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="O102">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P102">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q102">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S102">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T102">
         <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC102">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9679,7 +9679,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6732837</v>
+        <v>6732727</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9691,76 +9691,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K104">
-        <v>3.6</v>
+        <v>1.285</v>
       </c>
       <c r="L104">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M104">
+        <v>6.5</v>
+      </c>
+      <c r="N104">
+        <v>1.3</v>
+      </c>
+      <c r="O104">
+        <v>5.5</v>
+      </c>
+      <c r="P104">
+        <v>6</v>
+      </c>
+      <c r="Q104">
+        <v>-1.5</v>
+      </c>
+      <c r="R104">
+        <v>1.9</v>
+      </c>
+      <c r="S104">
+        <v>1.9</v>
+      </c>
+      <c r="T104">
+        <v>2.75</v>
+      </c>
+      <c r="U104">
         <v>1.8</v>
       </c>
-      <c r="N104">
-        <v>3</v>
-      </c>
-      <c r="O104">
-        <v>3.6</v>
-      </c>
-      <c r="P104">
+      <c r="V104">
         <v>2</v>
       </c>
-      <c r="Q104">
-        <v>0.25</v>
-      </c>
-      <c r="R104">
-        <v>2</v>
-      </c>
-      <c r="S104">
-        <v>1.8</v>
-      </c>
-      <c r="T104">
-        <v>2.5</v>
-      </c>
-      <c r="U104">
-        <v>1.975</v>
-      </c>
-      <c r="V104">
-        <v>1.825</v>
-      </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
+        <v>-1</v>
+      </c>
+      <c r="Z104">
+        <v>-1</v>
+      </c>
+      <c r="AA104">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB104">
+        <v>-1</v>
+      </c>
+      <c r="AC104">
         <v>1</v>
-      </c>
-      <c r="Z104">
-        <v>-1</v>
-      </c>
-      <c r="AA104">
-        <v>0.8</v>
-      </c>
-      <c r="AB104">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC104">
-        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10836,7 +10836,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7862036</v>
+        <v>7862911</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10848,73 +10848,73 @@
         <v>45364.54166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K117">
-        <v>8</v>
+        <v>2.15</v>
       </c>
       <c r="L117">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M117">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="N117">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="O117">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="P117">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="Q117">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R117">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S117">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="T117">
         <v>2.5</v>
       </c>
       <c r="U117">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V117">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y117">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA117">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB117">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10925,7 +10925,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7862911</v>
+        <v>7862036</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10937,73 +10937,73 @@
         <v>45364.54166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <v>4</v>
+      </c>
+      <c r="J118" t="s">
+        <v>42</v>
+      </c>
+      <c r="K118">
+        <v>8</v>
+      </c>
+      <c r="L118">
+        <v>4.5</v>
+      </c>
+      <c r="M118">
+        <v>1.3</v>
+      </c>
+      <c r="N118">
+        <v>6.5</v>
+      </c>
+      <c r="O118">
+        <v>4.5</v>
+      </c>
+      <c r="P118">
+        <v>1.333</v>
+      </c>
+      <c r="Q118">
+        <v>1.25</v>
+      </c>
+      <c r="R118">
         <v>2</v>
       </c>
-      <c r="I118">
-        <v>2</v>
-      </c>
-      <c r="J118" t="s">
-        <v>40</v>
-      </c>
-      <c r="K118">
-        <v>2.15</v>
-      </c>
-      <c r="L118">
-        <v>3.1</v>
-      </c>
-      <c r="M118">
-        <v>3.1</v>
-      </c>
-      <c r="N118">
-        <v>2.45</v>
-      </c>
-      <c r="O118">
-        <v>2.9</v>
-      </c>
-      <c r="P118">
-        <v>3</v>
-      </c>
-      <c r="Q118">
-        <v>0</v>
-      </c>
-      <c r="R118">
-        <v>1.725</v>
-      </c>
       <c r="S118">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="T118">
         <v>2.5</v>
       </c>
       <c r="U118">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z118">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB118">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -12876,6 +12876,228 @@
       </c>
       <c r="AC139">
         <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>7862925</v>
+      </c>
+      <c r="C140" t="s">
+        <v>28</v>
+      </c>
+      <c r="D140" t="s">
+        <v>28</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45396.29166666666</v>
+      </c>
+      <c r="F140" t="s">
+        <v>29</v>
+      </c>
+      <c r="G140" t="s">
+        <v>37</v>
+      </c>
+      <c r="K140">
+        <v>3.75</v>
+      </c>
+      <c r="L140">
+        <v>3.1</v>
+      </c>
+      <c r="M140">
+        <v>1.909</v>
+      </c>
+      <c r="N140">
+        <v>3.75</v>
+      </c>
+      <c r="O140">
+        <v>3.1</v>
+      </c>
+      <c r="P140">
+        <v>1.909</v>
+      </c>
+      <c r="Q140">
+        <v>0.25</v>
+      </c>
+      <c r="R140">
+        <v>2.1</v>
+      </c>
+      <c r="S140">
+        <v>1.7</v>
+      </c>
+      <c r="T140">
+        <v>2.25</v>
+      </c>
+      <c r="U140">
+        <v>1.975</v>
+      </c>
+      <c r="V140">
+        <v>1.825</v>
+      </c>
+      <c r="W140">
+        <v>0</v>
+      </c>
+      <c r="X140">
+        <v>0</v>
+      </c>
+      <c r="Y140">
+        <v>0</v>
+      </c>
+      <c r="Z140">
+        <v>0</v>
+      </c>
+      <c r="AA140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>7862046</v>
+      </c>
+      <c r="C141" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" t="s">
+        <v>28</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45396.375</v>
+      </c>
+      <c r="F141" t="s">
+        <v>32</v>
+      </c>
+      <c r="G141" t="s">
+        <v>33</v>
+      </c>
+      <c r="K141">
+        <v>3.75</v>
+      </c>
+      <c r="L141">
+        <v>3.25</v>
+      </c>
+      <c r="M141">
+        <v>1.833</v>
+      </c>
+      <c r="N141">
+        <v>3.25</v>
+      </c>
+      <c r="O141">
+        <v>3</v>
+      </c>
+      <c r="P141">
+        <v>2.1</v>
+      </c>
+      <c r="Q141">
+        <v>0.25</v>
+      </c>
+      <c r="R141">
+        <v>1.95</v>
+      </c>
+      <c r="S141">
+        <v>1.85</v>
+      </c>
+      <c r="T141">
+        <v>2.25</v>
+      </c>
+      <c r="U141">
+        <v>2.025</v>
+      </c>
+      <c r="V141">
+        <v>1.775</v>
+      </c>
+      <c r="W141">
+        <v>0</v>
+      </c>
+      <c r="X141">
+        <v>0</v>
+      </c>
+      <c r="Y141">
+        <v>0</v>
+      </c>
+      <c r="Z141">
+        <v>0</v>
+      </c>
+      <c r="AA141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>7862926</v>
+      </c>
+      <c r="C142" t="s">
+        <v>28</v>
+      </c>
+      <c r="D142" t="s">
+        <v>28</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45396.52083333334</v>
+      </c>
+      <c r="F142" t="s">
+        <v>30</v>
+      </c>
+      <c r="G142" t="s">
+        <v>38</v>
+      </c>
+      <c r="K142">
+        <v>4.2</v>
+      </c>
+      <c r="L142">
+        <v>3.3</v>
+      </c>
+      <c r="M142">
+        <v>1.75</v>
+      </c>
+      <c r="N142">
+        <v>3.8</v>
+      </c>
+      <c r="O142">
+        <v>3.25</v>
+      </c>
+      <c r="P142">
+        <v>1.833</v>
+      </c>
+      <c r="Q142">
+        <v>0.5</v>
+      </c>
+      <c r="R142">
+        <v>1.925</v>
+      </c>
+      <c r="S142">
+        <v>1.875</v>
+      </c>
+      <c r="T142">
+        <v>2.25</v>
+      </c>
+      <c r="U142">
+        <v>1.9</v>
+      </c>
+      <c r="V142">
+        <v>1.9</v>
+      </c>
+      <c r="W142">
+        <v>0</v>
+      </c>
+      <c r="X142">
+        <v>0</v>
+      </c>
+      <c r="Y142">
+        <v>0</v>
+      </c>
+      <c r="Z142">
+        <v>0</v>
+      </c>
+      <c r="AA142">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -504,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC142"/>
+  <dimension ref="A1:AC141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2737,7 +2737,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6732711</v>
+        <v>6732773</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2749,16 +2749,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>1</v>
-      </c>
-      <c r="I26">
-        <v>4</v>
       </c>
       <c r="J26" t="s">
         <v>42</v>
@@ -2767,37 +2767,37 @@
         <v>5</v>
       </c>
       <c r="L26">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M26">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="N26">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O26">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P26">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="Q26">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R26">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V26">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W26">
         <v>-1</v>
@@ -2806,19 +2806,19 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>0.25</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB26">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2826,7 +2826,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6732773</v>
+        <v>6732711</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2838,16 +2838,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J27" t="s">
         <v>42</v>
@@ -2856,37 +2856,37 @@
         <v>5</v>
       </c>
       <c r="L27">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="N27">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O27">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P27">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R27">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S27">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V27">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2895,19 +2895,19 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.5329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -4873,7 +4873,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6732795</v>
+        <v>6732794</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4885,13 +4885,13 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -4900,43 +4900,43 @@
         <v>41</v>
       </c>
       <c r="K50">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="L50">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M50">
+        <v>9</v>
+      </c>
+      <c r="N50">
+        <v>1.25</v>
+      </c>
+      <c r="O50">
+        <v>5.25</v>
+      </c>
+      <c r="P50">
+        <v>9</v>
+      </c>
+      <c r="Q50">
+        <v>-1.75</v>
+      </c>
+      <c r="R50">
+        <v>2</v>
+      </c>
+      <c r="S50">
+        <v>1.8</v>
+      </c>
+      <c r="T50">
         <v>3</v>
       </c>
-      <c r="N50">
-        <v>2.3</v>
-      </c>
-      <c r="O50">
-        <v>3.2</v>
-      </c>
-      <c r="P50">
-        <v>2.7</v>
-      </c>
-      <c r="Q50">
-        <v>-0.25</v>
-      </c>
-      <c r="R50">
-        <v>2.05</v>
-      </c>
-      <c r="S50">
-        <v>1.75</v>
-      </c>
-      <c r="T50">
-        <v>2.25</v>
-      </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W50">
-        <v>1.3</v>
+        <v>0.25</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4945,16 +4945,16 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC50">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4962,7 +4962,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6732794</v>
+        <v>6732795</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4974,13 +4974,13 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -4989,43 +4989,43 @@
         <v>41</v>
       </c>
       <c r="K51">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="L51">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M51">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N51">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="O51">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P51">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="Q51">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S51">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W51">
-        <v>0.25</v>
+        <v>1.3</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5034,16 +5034,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -9323,7 +9323,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6732834</v>
+        <v>6732836</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9335,76 +9335,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K100">
-        <v>1.25</v>
+        <v>1.222</v>
       </c>
       <c r="L100">
         <v>5.5</v>
       </c>
       <c r="M100">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="N100">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="O100">
         <v>4.5</v>
       </c>
       <c r="P100">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q100">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R100">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S100">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T100">
         <v>2.5</v>
       </c>
       <c r="U100">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V100">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X100">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA100">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC100">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9412,7 +9412,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6732836</v>
+        <v>6732834</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9424,76 +9424,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K101">
-        <v>1.222</v>
+        <v>1.25</v>
       </c>
       <c r="L101">
         <v>5.5</v>
       </c>
       <c r="M101">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="N101">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="O101">
         <v>4.5</v>
       </c>
       <c r="P101">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q101">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R101">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S101">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T101">
         <v>2.5</v>
       </c>
       <c r="U101">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V101">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W101">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB101">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -10836,7 +10836,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7862911</v>
+        <v>7862036</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10848,73 +10848,73 @@
         <v>45364.54166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G117" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>4</v>
+      </c>
+      <c r="J117" t="s">
+        <v>42</v>
+      </c>
+      <c r="K117">
+        <v>8</v>
+      </c>
+      <c r="L117">
+        <v>4.5</v>
+      </c>
+      <c r="M117">
+        <v>1.3</v>
+      </c>
+      <c r="N117">
+        <v>6.5</v>
+      </c>
+      <c r="O117">
+        <v>4.5</v>
+      </c>
+      <c r="P117">
+        <v>1.333</v>
+      </c>
+      <c r="Q117">
+        <v>1.25</v>
+      </c>
+      <c r="R117">
         <v>2</v>
       </c>
-      <c r="I117">
-        <v>2</v>
-      </c>
-      <c r="J117" t="s">
-        <v>40</v>
-      </c>
-      <c r="K117">
-        <v>2.15</v>
-      </c>
-      <c r="L117">
-        <v>3.1</v>
-      </c>
-      <c r="M117">
-        <v>3.1</v>
-      </c>
-      <c r="N117">
-        <v>2.45</v>
-      </c>
-      <c r="O117">
-        <v>2.9</v>
-      </c>
-      <c r="P117">
-        <v>3</v>
-      </c>
-      <c r="Q117">
-        <v>0</v>
-      </c>
-      <c r="R117">
-        <v>1.725</v>
-      </c>
       <c r="S117">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="T117">
         <v>2.5</v>
       </c>
       <c r="U117">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V117">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB117">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10925,7 +10925,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7862036</v>
+        <v>7862911</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10937,73 +10937,73 @@
         <v>45364.54166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K118">
-        <v>8</v>
+        <v>2.15</v>
       </c>
       <c r="L118">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M118">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="N118">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="O118">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="P118">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="Q118">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R118">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S118">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="T118">
         <v>2.5</v>
       </c>
       <c r="U118">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V118">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y118">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA118">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB118">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -12883,7 +12883,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7862925</v>
+        <v>7862924</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12892,64 +12892,79 @@
         <v>28</v>
       </c>
       <c r="E140" s="2">
-        <v>45396.29166666666</v>
+        <v>45395.375</v>
       </c>
       <c r="F140" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G140" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140" t="s">
+        <v>42</v>
       </c>
       <c r="K140">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L140">
+        <v>3.2</v>
+      </c>
+      <c r="M140">
+        <v>2.5</v>
+      </c>
+      <c r="N140">
+        <v>2.05</v>
+      </c>
+      <c r="O140">
+        <v>3.3</v>
+      </c>
+      <c r="P140">
         <v>3.1</v>
       </c>
-      <c r="M140">
-        <v>1.909</v>
-      </c>
-      <c r="N140">
-        <v>3.75</v>
-      </c>
-      <c r="O140">
-        <v>3.1</v>
-      </c>
-      <c r="P140">
-        <v>1.909</v>
-      </c>
       <c r="Q140">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
+        <v>1.9</v>
+      </c>
+      <c r="S140">
+        <v>1.9</v>
+      </c>
+      <c r="T140">
+        <v>2</v>
+      </c>
+      <c r="U140">
+        <v>1.775</v>
+      </c>
+      <c r="V140">
+        <v>2.025</v>
+      </c>
+      <c r="W140">
+        <v>-1</v>
+      </c>
+      <c r="X140">
+        <v>-1</v>
+      </c>
+      <c r="Y140">
         <v>2.1</v>
       </c>
-      <c r="S140">
-        <v>1.7</v>
-      </c>
-      <c r="T140">
-        <v>2.25</v>
-      </c>
-      <c r="U140">
-        <v>1.975</v>
-      </c>
-      <c r="V140">
-        <v>1.825</v>
-      </c>
-      <c r="W140">
-        <v>0</v>
-      </c>
-      <c r="X140">
-        <v>0</v>
-      </c>
-      <c r="Y140">
-        <v>0</v>
-      </c>
       <c r="Z140">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB140">
+        <v>-1</v>
+      </c>
+      <c r="AC140">
+        <v>1.025</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12957,7 +12972,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7862046</v>
+        <v>7862045</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12966,138 +12981,79 @@
         <v>28</v>
       </c>
       <c r="E141" s="2">
-        <v>45396.375</v>
+        <v>45395.45833333334</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141" t="s">
+        <v>42</v>
       </c>
       <c r="K141">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L141">
         <v>3.25</v>
       </c>
       <c r="M141">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="N141">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="O141">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P141">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="Q141">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R141">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S141">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T141">
         <v>2.25</v>
       </c>
       <c r="U141">
+        <v>1.775</v>
+      </c>
+      <c r="V141">
         <v>2.025</v>
       </c>
-      <c r="V141">
-        <v>1.775</v>
-      </c>
       <c r="W141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
-        <v>0</v>
+        <v>0.571</v>
       </c>
       <c r="Z141">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:29">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="B142">
-        <v>7862926</v>
-      </c>
-      <c r="C142" t="s">
-        <v>28</v>
-      </c>
-      <c r="D142" t="s">
-        <v>28</v>
-      </c>
-      <c r="E142" s="2">
-        <v>45396.52083333334</v>
-      </c>
-      <c r="F142" t="s">
-        <v>30</v>
-      </c>
-      <c r="G142" t="s">
-        <v>38</v>
-      </c>
-      <c r="K142">
-        <v>4.2</v>
-      </c>
-      <c r="L142">
-        <v>3.3</v>
-      </c>
-      <c r="M142">
-        <v>1.75</v>
-      </c>
-      <c r="N142">
-        <v>3.8</v>
-      </c>
-      <c r="O142">
-        <v>3.25</v>
-      </c>
-      <c r="P142">
-        <v>1.833</v>
-      </c>
-      <c r="Q142">
-        <v>0.5</v>
-      </c>
-      <c r="R142">
-        <v>1.925</v>
-      </c>
-      <c r="S142">
-        <v>1.875</v>
-      </c>
-      <c r="T142">
-        <v>2.25</v>
-      </c>
-      <c r="U142">
-        <v>1.9</v>
-      </c>
-      <c r="V142">
-        <v>1.9</v>
-      </c>
-      <c r="W142">
-        <v>0</v>
-      </c>
-      <c r="X142">
-        <v>0</v>
-      </c>
-      <c r="Y142">
-        <v>0</v>
-      </c>
-      <c r="Z142">
-        <v>0</v>
-      </c>
-      <c r="AA142">
-        <v>0</v>
+        <v>0.4</v>
+      </c>
+      <c r="AB141">
+        <v>-1</v>
+      </c>
+      <c r="AC141">
+        <v>1.025</v>
       </c>
     </row>
   </sheetData>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -504,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC141"/>
+  <dimension ref="A1:AC143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2737,7 +2737,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6732773</v>
+        <v>6732711</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2749,16 +2749,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J26" t="s">
         <v>42</v>
@@ -2767,37 +2767,37 @@
         <v>5</v>
       </c>
       <c r="L26">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M26">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="N26">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O26">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P26">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S26">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V26">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W26">
         <v>-1</v>
@@ -2806,19 +2806,19 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>0.5329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC26">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2826,7 +2826,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6732711</v>
+        <v>6732773</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2838,16 +2838,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>1</v>
-      </c>
-      <c r="I27">
-        <v>4</v>
       </c>
       <c r="J27" t="s">
         <v>42</v>
@@ -2856,37 +2856,37 @@
         <v>5</v>
       </c>
       <c r="L27">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M27">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="N27">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O27">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P27">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="Q27">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R27">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S27">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2895,19 +2895,19 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.25</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB27">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -8344,7 +8344,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7326568</v>
+        <v>6732827</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8356,76 +8356,76 @@
         <v>45220.375</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K89">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="L89">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="M89">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="N89">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="O89">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P89">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R89">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S89">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T89">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V89">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8433,7 +8433,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6732827</v>
+        <v>7326568</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8445,76 +8445,76 @@
         <v>45220.375</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G90" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K90">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="L90">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="M90">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="N90">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="O90">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P90">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="Q90">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T90">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U90">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V90">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y90">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA90">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -9323,7 +9323,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6732836</v>
+        <v>6732837</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9335,46 +9335,46 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
         <v>3</v>
       </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
       <c r="J100" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K100">
-        <v>1.222</v>
+        <v>3.6</v>
       </c>
       <c r="L100">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M100">
-        <v>9</v>
+        <v>1.8</v>
       </c>
       <c r="N100">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="O100">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P100">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q100">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R100">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S100">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T100">
         <v>2.5</v>
@@ -9386,19 +9386,19 @@
         <v>1.825</v>
       </c>
       <c r="W100">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z100">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB100">
         <v>0.9750000000000001</v>
@@ -9412,7 +9412,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6732834</v>
+        <v>6732727</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9424,61 +9424,61 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K101">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="L101">
         <v>5.5</v>
       </c>
       <c r="M101">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="N101">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="O101">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="P101">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q101">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R101">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S101">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T101">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V101">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X101">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
@@ -9487,13 +9487,13 @@
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB101">
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9501,7 +9501,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6732837</v>
+        <v>6732836</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9513,46 +9513,46 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H102">
+        <v>3</v>
+      </c>
+      <c r="I102">
         <v>0</v>
       </c>
-      <c r="I102">
-        <v>3</v>
-      </c>
       <c r="J102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K102">
-        <v>3.6</v>
+        <v>1.222</v>
       </c>
       <c r="L102">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M102">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="N102">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="O102">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P102">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q102">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R102">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S102">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T102">
         <v>2.5</v>
@@ -9564,19 +9564,19 @@
         <v>1.825</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA102">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
         <v>0.9750000000000001</v>
@@ -9679,7 +9679,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6732727</v>
+        <v>6732834</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9691,61 +9691,61 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K104">
-        <v>1.285</v>
+        <v>1.25</v>
       </c>
       <c r="L104">
         <v>5.5</v>
       </c>
       <c r="M104">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="N104">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="O104">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P104">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q104">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R104">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S104">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U104">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V104">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W104">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y104">
         <v>-1</v>
@@ -9754,13 +9754,13 @@
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10836,7 +10836,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7862036</v>
+        <v>7862911</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10848,73 +10848,73 @@
         <v>45364.54166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K117">
-        <v>8</v>
+        <v>2.15</v>
       </c>
       <c r="L117">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M117">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="N117">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="O117">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="P117">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="Q117">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R117">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S117">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="T117">
         <v>2.5</v>
       </c>
       <c r="U117">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V117">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y117">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA117">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB117">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10925,7 +10925,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7862911</v>
+        <v>7862036</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10937,73 +10937,73 @@
         <v>45364.54166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <v>4</v>
+      </c>
+      <c r="J118" t="s">
+        <v>42</v>
+      </c>
+      <c r="K118">
+        <v>8</v>
+      </c>
+      <c r="L118">
+        <v>4.5</v>
+      </c>
+      <c r="M118">
+        <v>1.3</v>
+      </c>
+      <c r="N118">
+        <v>6.5</v>
+      </c>
+      <c r="O118">
+        <v>4.5</v>
+      </c>
+      <c r="P118">
+        <v>1.333</v>
+      </c>
+      <c r="Q118">
+        <v>1.25</v>
+      </c>
+      <c r="R118">
         <v>2</v>
       </c>
-      <c r="I118">
-        <v>2</v>
-      </c>
-      <c r="J118" t="s">
-        <v>40</v>
-      </c>
-      <c r="K118">
-        <v>2.15</v>
-      </c>
-      <c r="L118">
-        <v>3.1</v>
-      </c>
-      <c r="M118">
-        <v>3.1</v>
-      </c>
-      <c r="N118">
-        <v>2.45</v>
-      </c>
-      <c r="O118">
-        <v>2.9</v>
-      </c>
-      <c r="P118">
-        <v>3</v>
-      </c>
-      <c r="Q118">
-        <v>0</v>
-      </c>
-      <c r="R118">
-        <v>1.725</v>
-      </c>
       <c r="S118">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="T118">
         <v>2.5</v>
       </c>
       <c r="U118">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z118">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB118">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -13054,6 +13054,184 @@
       </c>
       <c r="AC141">
         <v>1.025</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>7862925</v>
+      </c>
+      <c r="C142" t="s">
+        <v>28</v>
+      </c>
+      <c r="D142" t="s">
+        <v>28</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45396.29166666666</v>
+      </c>
+      <c r="F142" t="s">
+        <v>29</v>
+      </c>
+      <c r="G142" t="s">
+        <v>37</v>
+      </c>
+      <c r="H142">
+        <v>2</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142" t="s">
+        <v>41</v>
+      </c>
+      <c r="K142">
+        <v>3.75</v>
+      </c>
+      <c r="L142">
+        <v>3.1</v>
+      </c>
+      <c r="M142">
+        <v>1.909</v>
+      </c>
+      <c r="N142">
+        <v>4</v>
+      </c>
+      <c r="O142">
+        <v>3.2</v>
+      </c>
+      <c r="P142">
+        <v>1.85</v>
+      </c>
+      <c r="Q142">
+        <v>0.5</v>
+      </c>
+      <c r="R142">
+        <v>1.875</v>
+      </c>
+      <c r="S142">
+        <v>1.925</v>
+      </c>
+      <c r="T142">
+        <v>2</v>
+      </c>
+      <c r="U142">
+        <v>1.8</v>
+      </c>
+      <c r="V142">
+        <v>2</v>
+      </c>
+      <c r="W142">
+        <v>3</v>
+      </c>
+      <c r="X142">
+        <v>-1</v>
+      </c>
+      <c r="Y142">
+        <v>-1</v>
+      </c>
+      <c r="Z142">
+        <v>0.875</v>
+      </c>
+      <c r="AA142">
+        <v>-1</v>
+      </c>
+      <c r="AB142">
+        <v>0.8</v>
+      </c>
+      <c r="AC142">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>7862046</v>
+      </c>
+      <c r="C143" t="s">
+        <v>28</v>
+      </c>
+      <c r="D143" t="s">
+        <v>28</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45396.375</v>
+      </c>
+      <c r="F143" t="s">
+        <v>32</v>
+      </c>
+      <c r="G143" t="s">
+        <v>33</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143">
+        <v>2</v>
+      </c>
+      <c r="J143" t="s">
+        <v>42</v>
+      </c>
+      <c r="K143">
+        <v>3.75</v>
+      </c>
+      <c r="L143">
+        <v>3.25</v>
+      </c>
+      <c r="M143">
+        <v>1.833</v>
+      </c>
+      <c r="N143">
+        <v>3.5</v>
+      </c>
+      <c r="O143">
+        <v>3</v>
+      </c>
+      <c r="P143">
+        <v>2</v>
+      </c>
+      <c r="Q143">
+        <v>0.25</v>
+      </c>
+      <c r="R143">
+        <v>2.025</v>
+      </c>
+      <c r="S143">
+        <v>1.775</v>
+      </c>
+      <c r="T143">
+        <v>2</v>
+      </c>
+      <c r="U143">
+        <v>1.825</v>
+      </c>
+      <c r="V143">
+        <v>1.975</v>
+      </c>
+      <c r="W143">
+        <v>-1</v>
+      </c>
+      <c r="X143">
+        <v>-1</v>
+      </c>
+      <c r="Y143">
+        <v>1</v>
+      </c>
+      <c r="Z143">
+        <v>-1</v>
+      </c>
+      <c r="AA143">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB143">
+        <v>0.825</v>
+      </c>
+      <c r="AC143">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -2737,7 +2737,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6732711</v>
+        <v>6732773</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2749,16 +2749,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>1</v>
-      </c>
-      <c r="I26">
-        <v>4</v>
       </c>
       <c r="J26" t="s">
         <v>42</v>
@@ -2767,37 +2767,37 @@
         <v>5</v>
       </c>
       <c r="L26">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M26">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="N26">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O26">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P26">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="Q26">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R26">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V26">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W26">
         <v>-1</v>
@@ -2806,19 +2806,19 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>0.25</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB26">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2826,7 +2826,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6732773</v>
+        <v>6732711</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2838,16 +2838,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J27" t="s">
         <v>42</v>
@@ -2856,37 +2856,37 @@
         <v>5</v>
       </c>
       <c r="L27">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="N27">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O27">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P27">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R27">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S27">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V27">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2895,19 +2895,19 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.5329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -9323,7 +9323,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6732837</v>
+        <v>6732836</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9335,46 +9335,46 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H100">
+        <v>3</v>
+      </c>
+      <c r="I100">
         <v>0</v>
       </c>
-      <c r="I100">
-        <v>3</v>
-      </c>
       <c r="J100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K100">
-        <v>3.6</v>
+        <v>1.222</v>
       </c>
       <c r="L100">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M100">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="N100">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="O100">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P100">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q100">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R100">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S100">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T100">
         <v>2.5</v>
@@ -9386,19 +9386,19 @@
         <v>1.825</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA100">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
         <v>0.9750000000000001</v>
@@ -9412,7 +9412,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6732727</v>
+        <v>7465686</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9424,58 +9424,58 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
         <v>41</v>
       </c>
       <c r="K101">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="L101">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M101">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="N101">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="O101">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P101">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q101">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R101">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S101">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T101">
         <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V101">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W101">
-        <v>0.3</v>
+        <v>1.55</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9484,16 +9484,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA101">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC101">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9501,7 +9501,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6732836</v>
+        <v>6732834</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9513,76 +9513,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K102">
-        <v>1.222</v>
+        <v>1.25</v>
       </c>
       <c r="L102">
         <v>5.5</v>
       </c>
       <c r="M102">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="N102">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="O102">
         <v>4.5</v>
       </c>
       <c r="P102">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q102">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R102">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S102">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T102">
         <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V102">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W102">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB102">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9590,7 +9590,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7465686</v>
+        <v>6732837</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9602,73 +9602,73 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F103" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H103">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I103">
+        <v>3</v>
+      </c>
+      <c r="J103" t="s">
+        <v>42</v>
+      </c>
+      <c r="K103">
+        <v>3.6</v>
+      </c>
+      <c r="L103">
+        <v>3.6</v>
+      </c>
+      <c r="M103">
+        <v>1.8</v>
+      </c>
+      <c r="N103">
+        <v>3</v>
+      </c>
+      <c r="O103">
+        <v>3.6</v>
+      </c>
+      <c r="P103">
         <v>2</v>
-      </c>
-      <c r="J103" t="s">
-        <v>41</v>
-      </c>
-      <c r="K103">
-        <v>2.3</v>
-      </c>
-      <c r="L103">
-        <v>4</v>
-      </c>
-      <c r="M103">
-        <v>2.3</v>
-      </c>
-      <c r="N103">
-        <v>2.55</v>
-      </c>
-      <c r="O103">
-        <v>4</v>
-      </c>
-      <c r="P103">
-        <v>2.2</v>
       </c>
       <c r="Q103">
         <v>0.25</v>
       </c>
       <c r="R103">
+        <v>2</v>
+      </c>
+      <c r="S103">
         <v>1.8</v>
       </c>
-      <c r="S103">
-        <v>2</v>
-      </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U103">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V103">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W103">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z103">
+        <v>-1</v>
+      </c>
+      <c r="AA103">
         <v>0.8</v>
       </c>
-      <c r="AA103">
-        <v>-1</v>
-      </c>
       <c r="AB103">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -9679,7 +9679,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6732834</v>
+        <v>6732727</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9691,61 +9691,61 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K104">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="L104">
         <v>5.5</v>
       </c>
       <c r="M104">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="N104">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="O104">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="P104">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q104">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R104">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S104">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T104">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V104">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X104">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
@@ -9754,13 +9754,13 @@
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -12527,7 +12527,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7862922</v>
+        <v>7862044</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12539,76 +12539,76 @@
         <v>45392.5</v>
       </c>
       <c r="F136" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G136" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
         <v>40</v>
       </c>
       <c r="K136">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L136">
+        <v>3.05</v>
+      </c>
+      <c r="M136">
+        <v>3.2</v>
+      </c>
+      <c r="N136">
+        <v>3.4</v>
+      </c>
+      <c r="O136">
         <v>3</v>
       </c>
-      <c r="M136">
-        <v>2.5</v>
-      </c>
-      <c r="N136">
-        <v>2.9</v>
-      </c>
-      <c r="O136">
-        <v>2.9</v>
-      </c>
       <c r="P136">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="Q136">
         <v>0.25</v>
       </c>
       <c r="R136">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S136">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T136">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U136">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V136">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.375</v>
+        <v>0.475</v>
       </c>
       <c r="AA136">
         <v>-0.5</v>
       </c>
       <c r="AB136">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12616,7 +12616,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7862044</v>
+        <v>7862922</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12628,76 +12628,76 @@
         <v>45392.5</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
         <v>40</v>
       </c>
       <c r="K137">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L137">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="M137">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="N137">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="O137">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P137">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="Q137">
         <v>0.25</v>
       </c>
       <c r="R137">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S137">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T137">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U137">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V137">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.475</v>
+        <v>0.375</v>
       </c>
       <c r="AA137">
         <v>-0.5</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC137">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="138" spans="1:29">

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -2737,7 +2737,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6732773</v>
+        <v>6732711</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2749,16 +2749,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J26" t="s">
         <v>42</v>
@@ -2767,37 +2767,37 @@
         <v>5</v>
       </c>
       <c r="L26">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M26">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="N26">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O26">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P26">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S26">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V26">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W26">
         <v>-1</v>
@@ -2806,19 +2806,19 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>0.5329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC26">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2826,7 +2826,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6732711</v>
+        <v>6732773</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2838,16 +2838,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>1</v>
-      </c>
-      <c r="I27">
-        <v>4</v>
       </c>
       <c r="J27" t="s">
         <v>42</v>
@@ -2856,37 +2856,37 @@
         <v>5</v>
       </c>
       <c r="L27">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M27">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="N27">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O27">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P27">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="Q27">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R27">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S27">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2895,19 +2895,19 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.25</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB27">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -8344,7 +8344,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6732827</v>
+        <v>7326568</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8356,76 +8356,76 @@
         <v>45220.375</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K89">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="L89">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="M89">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="N89">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="O89">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P89">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="Q89">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S89">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U89">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V89">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y89">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA89">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8433,7 +8433,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7326568</v>
+        <v>6732827</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8445,76 +8445,76 @@
         <v>45220.375</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K90">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="L90">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="M90">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="N90">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="O90">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P90">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="Q90">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R90">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S90">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T90">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V90">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z90">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -9323,7 +9323,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6732836</v>
+        <v>7465686</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9335,58 +9335,58 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
         <v>41</v>
       </c>
       <c r="K100">
-        <v>1.222</v>
+        <v>2.3</v>
       </c>
       <c r="L100">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M100">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="N100">
-        <v>1.363</v>
+        <v>2.55</v>
       </c>
       <c r="O100">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P100">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="Q100">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R100">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S100">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T100">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V100">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W100">
-        <v>0.363</v>
+        <v>1.55</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9395,13 +9395,13 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9412,7 +9412,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7465686</v>
+        <v>6732837</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9424,73 +9424,73 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H101">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I101">
+        <v>3</v>
+      </c>
+      <c r="J101" t="s">
+        <v>42</v>
+      </c>
+      <c r="K101">
+        <v>3.6</v>
+      </c>
+      <c r="L101">
+        <v>3.6</v>
+      </c>
+      <c r="M101">
+        <v>1.8</v>
+      </c>
+      <c r="N101">
+        <v>3</v>
+      </c>
+      <c r="O101">
+        <v>3.6</v>
+      </c>
+      <c r="P101">
         <v>2</v>
-      </c>
-      <c r="J101" t="s">
-        <v>41</v>
-      </c>
-      <c r="K101">
-        <v>2.3</v>
-      </c>
-      <c r="L101">
-        <v>4</v>
-      </c>
-      <c r="M101">
-        <v>2.3</v>
-      </c>
-      <c r="N101">
-        <v>2.55</v>
-      </c>
-      <c r="O101">
-        <v>4</v>
-      </c>
-      <c r="P101">
-        <v>2.2</v>
       </c>
       <c r="Q101">
         <v>0.25</v>
       </c>
       <c r="R101">
+        <v>2</v>
+      </c>
+      <c r="S101">
         <v>1.8</v>
       </c>
-      <c r="S101">
-        <v>2</v>
-      </c>
       <c r="T101">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U101">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V101">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W101">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z101">
+        <v>-1</v>
+      </c>
+      <c r="AA101">
         <v>0.8</v>
       </c>
-      <c r="AA101">
-        <v>-1</v>
-      </c>
       <c r="AB101">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9501,7 +9501,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6732834</v>
+        <v>6732727</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9513,61 +9513,61 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K102">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="L102">
         <v>5.5</v>
       </c>
       <c r="M102">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="N102">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="O102">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="P102">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q102">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R102">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S102">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T102">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U102">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X102">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
@@ -9576,13 +9576,13 @@
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB102">
         <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9590,7 +9590,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6732837</v>
+        <v>6732834</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9602,76 +9602,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K103">
-        <v>3.6</v>
+        <v>1.25</v>
       </c>
       <c r="L103">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M103">
-        <v>1.8</v>
+        <v>7.5</v>
       </c>
       <c r="N103">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="O103">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P103">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R103">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S103">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T103">
         <v>2.5</v>
       </c>
       <c r="U103">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V103">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y103">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB103">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9679,7 +9679,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6732727</v>
+        <v>6732836</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9691,13 +9691,13 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -9706,25 +9706,25 @@
         <v>41</v>
       </c>
       <c r="K104">
-        <v>1.285</v>
+        <v>1.222</v>
       </c>
       <c r="L104">
         <v>5.5</v>
       </c>
       <c r="M104">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="N104">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="O104">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P104">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q104">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R104">
         <v>1.9</v>
@@ -9733,16 +9733,16 @@
         <v>1.9</v>
       </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U104">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
-        <v>0.3</v>
+        <v>0.363</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9751,16 +9751,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA104">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC104">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -8344,7 +8344,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7326568</v>
+        <v>6732827</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8356,76 +8356,76 @@
         <v>45220.375</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K89">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="L89">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="M89">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="N89">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="O89">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P89">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R89">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S89">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T89">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V89">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8433,7 +8433,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6732827</v>
+        <v>7326568</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8445,76 +8445,76 @@
         <v>45220.375</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G90" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K90">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="L90">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="M90">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="N90">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="O90">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P90">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="Q90">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T90">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U90">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V90">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y90">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA90">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -9323,7 +9323,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7465686</v>
+        <v>6732837</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9335,73 +9335,73 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H100">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I100">
+        <v>3</v>
+      </c>
+      <c r="J100" t="s">
+        <v>42</v>
+      </c>
+      <c r="K100">
+        <v>3.6</v>
+      </c>
+      <c r="L100">
+        <v>3.6</v>
+      </c>
+      <c r="M100">
+        <v>1.8</v>
+      </c>
+      <c r="N100">
+        <v>3</v>
+      </c>
+      <c r="O100">
+        <v>3.6</v>
+      </c>
+      <c r="P100">
         <v>2</v>
-      </c>
-      <c r="J100" t="s">
-        <v>41</v>
-      </c>
-      <c r="K100">
-        <v>2.3</v>
-      </c>
-      <c r="L100">
-        <v>4</v>
-      </c>
-      <c r="M100">
-        <v>2.3</v>
-      </c>
-      <c r="N100">
-        <v>2.55</v>
-      </c>
-      <c r="O100">
-        <v>4</v>
-      </c>
-      <c r="P100">
-        <v>2.2</v>
       </c>
       <c r="Q100">
         <v>0.25</v>
       </c>
       <c r="R100">
+        <v>2</v>
+      </c>
+      <c r="S100">
         <v>1.8</v>
       </c>
-      <c r="S100">
-        <v>2</v>
-      </c>
       <c r="T100">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U100">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V100">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W100">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z100">
+        <v>-1</v>
+      </c>
+      <c r="AA100">
         <v>0.8</v>
       </c>
-      <c r="AA100">
-        <v>-1</v>
-      </c>
       <c r="AB100">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9412,7 +9412,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6732837</v>
+        <v>6732836</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9424,46 +9424,46 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H101">
+        <v>3</v>
+      </c>
+      <c r="I101">
         <v>0</v>
       </c>
-      <c r="I101">
-        <v>3</v>
-      </c>
       <c r="J101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K101">
-        <v>3.6</v>
+        <v>1.222</v>
       </c>
       <c r="L101">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M101">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="N101">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="O101">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P101">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q101">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R101">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S101">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T101">
         <v>2.5</v>
@@ -9475,19 +9475,19 @@
         <v>1.825</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA101">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
         <v>0.9750000000000001</v>
@@ -9501,7 +9501,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6732727</v>
+        <v>6732834</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9513,61 +9513,61 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K102">
-        <v>1.285</v>
+        <v>1.25</v>
       </c>
       <c r="L102">
         <v>5.5</v>
       </c>
       <c r="M102">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="N102">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="O102">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P102">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q102">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R102">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S102">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T102">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V102">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W102">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y102">
         <v>-1</v>
@@ -9576,13 +9576,13 @@
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB102">
         <v>-1</v>
       </c>
       <c r="AC102">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9590,7 +9590,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6732834</v>
+        <v>6732727</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9602,61 +9602,61 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103">
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K103">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="L103">
         <v>5.5</v>
       </c>
       <c r="M103">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="N103">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="O103">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="P103">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q103">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R103">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S103">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T103">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U103">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V103">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X103">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
@@ -9665,13 +9665,13 @@
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB103">
         <v>-1</v>
       </c>
       <c r="AC103">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9679,7 +9679,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6732836</v>
+        <v>7465686</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9691,58 +9691,58 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
         <v>41</v>
       </c>
       <c r="K104">
-        <v>1.222</v>
+        <v>2.3</v>
       </c>
       <c r="L104">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M104">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="N104">
-        <v>1.363</v>
+        <v>2.55</v>
       </c>
       <c r="O104">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P104">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="Q104">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R104">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T104">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V104">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W104">
-        <v>0.363</v>
+        <v>1.55</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9751,13 +9751,13 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -10836,7 +10836,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7862911</v>
+        <v>7862036</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10848,73 +10848,73 @@
         <v>45364.54166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G117" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>4</v>
+      </c>
+      <c r="J117" t="s">
+        <v>42</v>
+      </c>
+      <c r="K117">
+        <v>8</v>
+      </c>
+      <c r="L117">
+        <v>4.5</v>
+      </c>
+      <c r="M117">
+        <v>1.3</v>
+      </c>
+      <c r="N117">
+        <v>6.5</v>
+      </c>
+      <c r="O117">
+        <v>4.5</v>
+      </c>
+      <c r="P117">
+        <v>1.333</v>
+      </c>
+      <c r="Q117">
+        <v>1.25</v>
+      </c>
+      <c r="R117">
         <v>2</v>
       </c>
-      <c r="I117">
-        <v>2</v>
-      </c>
-      <c r="J117" t="s">
-        <v>40</v>
-      </c>
-      <c r="K117">
-        <v>2.15</v>
-      </c>
-      <c r="L117">
-        <v>3.1</v>
-      </c>
-      <c r="M117">
-        <v>3.1</v>
-      </c>
-      <c r="N117">
-        <v>2.45</v>
-      </c>
-      <c r="O117">
-        <v>2.9</v>
-      </c>
-      <c r="P117">
-        <v>3</v>
-      </c>
-      <c r="Q117">
-        <v>0</v>
-      </c>
-      <c r="R117">
-        <v>1.725</v>
-      </c>
       <c r="S117">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="T117">
         <v>2.5</v>
       </c>
       <c r="U117">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V117">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB117">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10925,7 +10925,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7862036</v>
+        <v>7862911</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10937,73 +10937,73 @@
         <v>45364.54166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K118">
-        <v>8</v>
+        <v>2.15</v>
       </c>
       <c r="L118">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M118">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="N118">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="O118">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="P118">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="Q118">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R118">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S118">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="T118">
         <v>2.5</v>
       </c>
       <c r="U118">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V118">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y118">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA118">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB118">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -12527,7 +12527,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7862044</v>
+        <v>7862922</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12539,76 +12539,76 @@
         <v>45392.5</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G136" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
         <v>40</v>
       </c>
       <c r="K136">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L136">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="M136">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="N136">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="O136">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P136">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="Q136">
         <v>0.25</v>
       </c>
       <c r="R136">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S136">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T136">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U136">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V136">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.475</v>
+        <v>0.375</v>
       </c>
       <c r="AA136">
         <v>-0.5</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC136">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12616,7 +12616,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7862922</v>
+        <v>7862044</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12628,76 +12628,76 @@
         <v>45392.5</v>
       </c>
       <c r="F137" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G137" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
         <v>40</v>
       </c>
       <c r="K137">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L137">
+        <v>3.05</v>
+      </c>
+      <c r="M137">
+        <v>3.2</v>
+      </c>
+      <c r="N137">
+        <v>3.4</v>
+      </c>
+      <c r="O137">
         <v>3</v>
       </c>
-      <c r="M137">
-        <v>2.5</v>
-      </c>
-      <c r="N137">
-        <v>2.9</v>
-      </c>
-      <c r="O137">
-        <v>2.9</v>
-      </c>
       <c r="P137">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="Q137">
         <v>0.25</v>
       </c>
       <c r="R137">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S137">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T137">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U137">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V137">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.375</v>
+        <v>0.475</v>
       </c>
       <c r="AA137">
         <v>-0.5</v>
       </c>
       <c r="AB137">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:29">

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -2737,7 +2737,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6732711</v>
+        <v>6732773</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2749,16 +2749,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>1</v>
-      </c>
-      <c r="I26">
-        <v>4</v>
       </c>
       <c r="J26" t="s">
         <v>42</v>
@@ -2767,37 +2767,37 @@
         <v>5</v>
       </c>
       <c r="L26">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M26">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="N26">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O26">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P26">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="Q26">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R26">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V26">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W26">
         <v>-1</v>
@@ -2806,19 +2806,19 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>0.25</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB26">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2826,7 +2826,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6732773</v>
+        <v>6732711</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2838,16 +2838,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J27" t="s">
         <v>42</v>
@@ -2856,37 +2856,37 @@
         <v>5</v>
       </c>
       <c r="L27">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="N27">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O27">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P27">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R27">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S27">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V27">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2895,19 +2895,19 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.5329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -4873,7 +4873,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6732794</v>
+        <v>6732795</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4885,13 +4885,13 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -4900,43 +4900,43 @@
         <v>41</v>
       </c>
       <c r="K50">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="L50">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M50">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N50">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="O50">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P50">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="Q50">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S50">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T50">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
-        <v>0.25</v>
+        <v>1.3</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4945,16 +4945,16 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4962,7 +4962,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6732795</v>
+        <v>6732794</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4974,13 +4974,13 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -4989,43 +4989,43 @@
         <v>41</v>
       </c>
       <c r="K51">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="L51">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M51">
+        <v>9</v>
+      </c>
+      <c r="N51">
+        <v>1.25</v>
+      </c>
+      <c r="O51">
+        <v>5.25</v>
+      </c>
+      <c r="P51">
+        <v>9</v>
+      </c>
+      <c r="Q51">
+        <v>-1.75</v>
+      </c>
+      <c r="R51">
+        <v>2</v>
+      </c>
+      <c r="S51">
+        <v>1.8</v>
+      </c>
+      <c r="T51">
         <v>3</v>
       </c>
-      <c r="N51">
-        <v>2.3</v>
-      </c>
-      <c r="O51">
-        <v>3.2</v>
-      </c>
-      <c r="P51">
-        <v>2.7</v>
-      </c>
-      <c r="Q51">
-        <v>-0.25</v>
-      </c>
-      <c r="R51">
-        <v>2.05</v>
-      </c>
-      <c r="S51">
-        <v>1.75</v>
-      </c>
-      <c r="T51">
-        <v>2.25</v>
-      </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
-        <v>1.3</v>
+        <v>0.25</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5034,16 +5034,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC51">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -9323,7 +9323,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6732837</v>
+        <v>6732727</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9335,76 +9335,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
         <v>0</v>
       </c>
-      <c r="I100">
-        <v>3</v>
-      </c>
       <c r="J100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K100">
-        <v>3.6</v>
+        <v>1.285</v>
       </c>
       <c r="L100">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M100">
+        <v>6.5</v>
+      </c>
+      <c r="N100">
+        <v>1.3</v>
+      </c>
+      <c r="O100">
+        <v>5.5</v>
+      </c>
+      <c r="P100">
+        <v>6</v>
+      </c>
+      <c r="Q100">
+        <v>-1.5</v>
+      </c>
+      <c r="R100">
+        <v>1.9</v>
+      </c>
+      <c r="S100">
+        <v>1.9</v>
+      </c>
+      <c r="T100">
+        <v>2.75</v>
+      </c>
+      <c r="U100">
         <v>1.8</v>
       </c>
-      <c r="N100">
-        <v>3</v>
-      </c>
-      <c r="O100">
-        <v>3.6</v>
-      </c>
-      <c r="P100">
+      <c r="V100">
         <v>2</v>
       </c>
-      <c r="Q100">
-        <v>0.25</v>
-      </c>
-      <c r="R100">
-        <v>2</v>
-      </c>
-      <c r="S100">
-        <v>1.8</v>
-      </c>
-      <c r="T100">
-        <v>2.5</v>
-      </c>
-      <c r="U100">
-        <v>1.975</v>
-      </c>
-      <c r="V100">
-        <v>1.825</v>
-      </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
+        <v>-1</v>
+      </c>
+      <c r="Z100">
+        <v>-1</v>
+      </c>
+      <c r="AA100">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB100">
+        <v>-1</v>
+      </c>
+      <c r="AC100">
         <v>1</v>
-      </c>
-      <c r="Z100">
-        <v>-1</v>
-      </c>
-      <c r="AA100">
-        <v>0.8</v>
-      </c>
-      <c r="AB100">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC100">
-        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9412,7 +9412,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6732836</v>
+        <v>6732834</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9424,76 +9424,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K101">
-        <v>1.222</v>
+        <v>1.25</v>
       </c>
       <c r="L101">
         <v>5.5</v>
       </c>
       <c r="M101">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="N101">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="O101">
         <v>4.5</v>
       </c>
       <c r="P101">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q101">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R101">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S101">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T101">
         <v>2.5</v>
       </c>
       <c r="U101">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V101">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W101">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB101">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9501,7 +9501,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6732834</v>
+        <v>6732837</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9513,76 +9513,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J102" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K102">
-        <v>1.25</v>
+        <v>3.6</v>
       </c>
       <c r="L102">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M102">
-        <v>7.5</v>
+        <v>1.8</v>
       </c>
       <c r="N102">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="O102">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P102">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q102">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S102">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T102">
         <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC102">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9590,7 +9590,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6732727</v>
+        <v>7465686</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9602,58 +9602,58 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
         <v>41</v>
       </c>
       <c r="K103">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="L103">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M103">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="N103">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="O103">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P103">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q103">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S103">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T103">
         <v>2.75</v>
       </c>
       <c r="U103">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V103">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W103">
-        <v>0.3</v>
+        <v>1.55</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9662,16 +9662,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA103">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC103">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9679,7 +9679,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7465686</v>
+        <v>6732836</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9691,58 +9691,58 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F104" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
         <v>41</v>
       </c>
       <c r="K104">
-        <v>2.3</v>
+        <v>1.222</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M104">
-        <v>2.3</v>
+        <v>9</v>
       </c>
       <c r="N104">
-        <v>2.55</v>
+        <v>1.363</v>
       </c>
       <c r="O104">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P104">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="Q104">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R104">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S104">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U104">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
-        <v>1.55</v>
+        <v>0.363</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9751,13 +9751,13 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -10836,7 +10836,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7862036</v>
+        <v>7862911</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10848,73 +10848,73 @@
         <v>45364.54166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K117">
-        <v>8</v>
+        <v>2.15</v>
       </c>
       <c r="L117">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M117">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="N117">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="O117">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="P117">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="Q117">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R117">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S117">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="T117">
         <v>2.5</v>
       </c>
       <c r="U117">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V117">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y117">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA117">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB117">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10925,7 +10925,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7862911</v>
+        <v>7862036</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10937,73 +10937,73 @@
         <v>45364.54166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <v>4</v>
+      </c>
+      <c r="J118" t="s">
+        <v>42</v>
+      </c>
+      <c r="K118">
+        <v>8</v>
+      </c>
+      <c r="L118">
+        <v>4.5</v>
+      </c>
+      <c r="M118">
+        <v>1.3</v>
+      </c>
+      <c r="N118">
+        <v>6.5</v>
+      </c>
+      <c r="O118">
+        <v>4.5</v>
+      </c>
+      <c r="P118">
+        <v>1.333</v>
+      </c>
+      <c r="Q118">
+        <v>1.25</v>
+      </c>
+      <c r="R118">
         <v>2</v>
       </c>
-      <c r="I118">
-        <v>2</v>
-      </c>
-      <c r="J118" t="s">
-        <v>40</v>
-      </c>
-      <c r="K118">
-        <v>2.15</v>
-      </c>
-      <c r="L118">
-        <v>3.1</v>
-      </c>
-      <c r="M118">
-        <v>3.1</v>
-      </c>
-      <c r="N118">
-        <v>2.45</v>
-      </c>
-      <c r="O118">
-        <v>2.9</v>
-      </c>
-      <c r="P118">
-        <v>3</v>
-      </c>
-      <c r="Q118">
-        <v>0</v>
-      </c>
-      <c r="R118">
-        <v>1.725</v>
-      </c>
       <c r="S118">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="T118">
         <v>2.5</v>
       </c>
       <c r="U118">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z118">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB118">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -12527,7 +12527,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7862922</v>
+        <v>7862044</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12539,76 +12539,76 @@
         <v>45392.5</v>
       </c>
       <c r="F136" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G136" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
         <v>40</v>
       </c>
       <c r="K136">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L136">
+        <v>3.05</v>
+      </c>
+      <c r="M136">
+        <v>3.2</v>
+      </c>
+      <c r="N136">
+        <v>3.4</v>
+      </c>
+      <c r="O136">
         <v>3</v>
       </c>
-      <c r="M136">
-        <v>2.5</v>
-      </c>
-      <c r="N136">
-        <v>2.9</v>
-      </c>
-      <c r="O136">
-        <v>2.9</v>
-      </c>
       <c r="P136">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="Q136">
         <v>0.25</v>
       </c>
       <c r="R136">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S136">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T136">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U136">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V136">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.375</v>
+        <v>0.475</v>
       </c>
       <c r="AA136">
         <v>-0.5</v>
       </c>
       <c r="AB136">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12616,7 +12616,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7862044</v>
+        <v>7862922</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12628,76 +12628,76 @@
         <v>45392.5</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
         <v>40</v>
       </c>
       <c r="K137">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L137">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="M137">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="N137">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="O137">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P137">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="Q137">
         <v>0.25</v>
       </c>
       <c r="R137">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S137">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T137">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U137">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V137">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.475</v>
+        <v>0.375</v>
       </c>
       <c r="AA137">
         <v>-0.5</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC137">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="138" spans="1:29">

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -504,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC143"/>
+  <dimension ref="A1:AC144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8344,7 +8344,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6732827</v>
+        <v>7326568</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8356,76 +8356,76 @@
         <v>45220.375</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K89">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="L89">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="M89">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="N89">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="O89">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P89">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="Q89">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S89">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U89">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V89">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y89">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA89">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8433,7 +8433,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7326568</v>
+        <v>6732827</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8445,76 +8445,76 @@
         <v>45220.375</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K90">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="L90">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="M90">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="N90">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="O90">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P90">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="Q90">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R90">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S90">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T90">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V90">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z90">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -10836,7 +10836,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7862911</v>
+        <v>7862036</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10848,73 +10848,73 @@
         <v>45364.54166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G117" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>4</v>
+      </c>
+      <c r="J117" t="s">
+        <v>42</v>
+      </c>
+      <c r="K117">
+        <v>8</v>
+      </c>
+      <c r="L117">
+        <v>4.5</v>
+      </c>
+      <c r="M117">
+        <v>1.3</v>
+      </c>
+      <c r="N117">
+        <v>6.5</v>
+      </c>
+      <c r="O117">
+        <v>4.5</v>
+      </c>
+      <c r="P117">
+        <v>1.333</v>
+      </c>
+      <c r="Q117">
+        <v>1.25</v>
+      </c>
+      <c r="R117">
         <v>2</v>
       </c>
-      <c r="I117">
-        <v>2</v>
-      </c>
-      <c r="J117" t="s">
-        <v>40</v>
-      </c>
-      <c r="K117">
-        <v>2.15</v>
-      </c>
-      <c r="L117">
-        <v>3.1</v>
-      </c>
-      <c r="M117">
-        <v>3.1</v>
-      </c>
-      <c r="N117">
-        <v>2.45</v>
-      </c>
-      <c r="O117">
-        <v>2.9</v>
-      </c>
-      <c r="P117">
-        <v>3</v>
-      </c>
-      <c r="Q117">
-        <v>0</v>
-      </c>
-      <c r="R117">
-        <v>1.725</v>
-      </c>
       <c r="S117">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="T117">
         <v>2.5</v>
       </c>
       <c r="U117">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V117">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB117">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10925,7 +10925,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7862036</v>
+        <v>7862911</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10937,73 +10937,73 @@
         <v>45364.54166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K118">
-        <v>8</v>
+        <v>2.15</v>
       </c>
       <c r="L118">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M118">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="N118">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="O118">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="P118">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="Q118">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R118">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S118">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="T118">
         <v>2.5</v>
       </c>
       <c r="U118">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V118">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y118">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA118">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB118">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -13232,6 +13232,80 @@
       </c>
       <c r="AC143">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>7862048</v>
+      </c>
+      <c r="C144" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" t="s">
+        <v>28</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45403.51736111111</v>
+      </c>
+      <c r="F144" t="s">
+        <v>33</v>
+      </c>
+      <c r="G144" t="s">
+        <v>29</v>
+      </c>
+      <c r="K144">
+        <v>1.333</v>
+      </c>
+      <c r="L144">
+        <v>5</v>
+      </c>
+      <c r="M144">
+        <v>6</v>
+      </c>
+      <c r="N144">
+        <v>1.4</v>
+      </c>
+      <c r="O144">
+        <v>4.75</v>
+      </c>
+      <c r="P144">
+        <v>5.5</v>
+      </c>
+      <c r="Q144">
+        <v>-1.25</v>
+      </c>
+      <c r="R144">
+        <v>1.925</v>
+      </c>
+      <c r="S144">
+        <v>1.875</v>
+      </c>
+      <c r="T144">
+        <v>2.5</v>
+      </c>
+      <c r="U144">
+        <v>1.8</v>
+      </c>
+      <c r="V144">
+        <v>2</v>
+      </c>
+      <c r="W144">
+        <v>0</v>
+      </c>
+      <c r="X144">
+        <v>0</v>
+      </c>
+      <c r="Y144">
+        <v>0</v>
+      </c>
+      <c r="Z144">
+        <v>0</v>
+      </c>
+      <c r="AA144">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -504,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC144"/>
+  <dimension ref="A1:AC148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2737,7 +2737,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6732773</v>
+        <v>6732711</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2749,16 +2749,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J26" t="s">
         <v>42</v>
@@ -2767,37 +2767,37 @@
         <v>5</v>
       </c>
       <c r="L26">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M26">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="N26">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O26">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P26">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S26">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V26">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W26">
         <v>-1</v>
@@ -2806,19 +2806,19 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>0.5329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC26">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2826,7 +2826,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6732711</v>
+        <v>6732773</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2838,16 +2838,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>1</v>
-      </c>
-      <c r="I27">
-        <v>4</v>
       </c>
       <c r="J27" t="s">
         <v>42</v>
@@ -2856,37 +2856,37 @@
         <v>5</v>
       </c>
       <c r="L27">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M27">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="N27">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O27">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P27">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="Q27">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R27">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S27">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2895,19 +2895,19 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.25</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB27">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -4873,7 +4873,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6732795</v>
+        <v>6732794</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4885,13 +4885,13 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -4900,43 +4900,43 @@
         <v>41</v>
       </c>
       <c r="K50">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="L50">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M50">
+        <v>9</v>
+      </c>
+      <c r="N50">
+        <v>1.25</v>
+      </c>
+      <c r="O50">
+        <v>5.25</v>
+      </c>
+      <c r="P50">
+        <v>9</v>
+      </c>
+      <c r="Q50">
+        <v>-1.75</v>
+      </c>
+      <c r="R50">
+        <v>2</v>
+      </c>
+      <c r="S50">
+        <v>1.8</v>
+      </c>
+      <c r="T50">
         <v>3</v>
       </c>
-      <c r="N50">
-        <v>2.3</v>
-      </c>
-      <c r="O50">
-        <v>3.2</v>
-      </c>
-      <c r="P50">
-        <v>2.7</v>
-      </c>
-      <c r="Q50">
-        <v>-0.25</v>
-      </c>
-      <c r="R50">
-        <v>2.05</v>
-      </c>
-      <c r="S50">
-        <v>1.75</v>
-      </c>
-      <c r="T50">
-        <v>2.25</v>
-      </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W50">
-        <v>1.3</v>
+        <v>0.25</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4945,16 +4945,16 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC50">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4962,7 +4962,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6732794</v>
+        <v>6732795</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4974,13 +4974,13 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -4989,43 +4989,43 @@
         <v>41</v>
       </c>
       <c r="K51">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="L51">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M51">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N51">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="O51">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P51">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="Q51">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S51">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W51">
-        <v>0.25</v>
+        <v>1.3</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5034,16 +5034,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -8344,7 +8344,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7326568</v>
+        <v>6732827</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8356,76 +8356,76 @@
         <v>45220.375</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K89">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="L89">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="M89">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="N89">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="O89">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P89">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R89">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S89">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T89">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V89">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8433,7 +8433,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6732827</v>
+        <v>7326568</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8445,76 +8445,76 @@
         <v>45220.375</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G90" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K90">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="L90">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="M90">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="N90">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="O90">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P90">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="Q90">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T90">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U90">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V90">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y90">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA90">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -9501,7 +9501,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6732837</v>
+        <v>6732836</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9513,46 +9513,46 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K102">
-        <v>3.6</v>
+        <v>1.222</v>
       </c>
       <c r="L102">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M102">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="N102">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="O102">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P102">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q102">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R102">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S102">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T102">
         <v>2.5</v>
@@ -9564,19 +9564,19 @@
         <v>1.825</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA102">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
         <v>0.9750000000000001</v>
@@ -9679,7 +9679,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6732836</v>
+        <v>6732837</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9691,46 +9691,46 @@
         <v>45242.41319444445</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>3</v>
       </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
       <c r="J104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K104">
-        <v>1.222</v>
+        <v>3.6</v>
       </c>
       <c r="L104">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M104">
-        <v>9</v>
+        <v>1.8</v>
       </c>
       <c r="N104">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="O104">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P104">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q104">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R104">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S104">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T104">
         <v>2.5</v>
@@ -9742,19 +9742,19 @@
         <v>1.825</v>
       </c>
       <c r="W104">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z104">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB104">
         <v>0.9750000000000001</v>
@@ -12527,7 +12527,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7862044</v>
+        <v>7862922</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12539,76 +12539,76 @@
         <v>45392.5</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G136" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
         <v>40</v>
       </c>
       <c r="K136">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L136">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="M136">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="N136">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="O136">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P136">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="Q136">
         <v>0.25</v>
       </c>
       <c r="R136">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S136">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T136">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U136">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V136">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.475</v>
+        <v>0.375</v>
       </c>
       <c r="AA136">
         <v>-0.5</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC136">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12616,7 +12616,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7862922</v>
+        <v>7862044</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12628,76 +12628,76 @@
         <v>45392.5</v>
       </c>
       <c r="F137" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G137" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
         <v>40</v>
       </c>
       <c r="K137">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L137">
+        <v>3.05</v>
+      </c>
+      <c r="M137">
+        <v>3.2</v>
+      </c>
+      <c r="N137">
+        <v>3.4</v>
+      </c>
+      <c r="O137">
         <v>3</v>
       </c>
-      <c r="M137">
-        <v>2.5</v>
-      </c>
-      <c r="N137">
-        <v>2.9</v>
-      </c>
-      <c r="O137">
-        <v>2.9</v>
-      </c>
       <c r="P137">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="Q137">
         <v>0.25</v>
       </c>
       <c r="R137">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S137">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T137">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U137">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V137">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.375</v>
+        <v>0.475</v>
       </c>
       <c r="AA137">
         <v>-0.5</v>
       </c>
       <c r="AB137">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -13239,7 +13239,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7862048</v>
+        <v>7862047</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13248,63 +13248,419 @@
         <v>28</v>
       </c>
       <c r="E144" s="2">
-        <v>45403.51736111111</v>
+        <v>45402.375</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G144" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="H144">
+        <v>2</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144" t="s">
+        <v>41</v>
       </c>
       <c r="K144">
-        <v>1.333</v>
+        <v>1.444</v>
       </c>
       <c r="L144">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M144">
         <v>6</v>
       </c>
       <c r="N144">
+        <v>1.615</v>
+      </c>
+      <c r="O144">
+        <v>3.6</v>
+      </c>
+      <c r="P144">
+        <v>4.75</v>
+      </c>
+      <c r="Q144">
+        <v>-0.75</v>
+      </c>
+      <c r="R144">
+        <v>1.825</v>
+      </c>
+      <c r="S144">
+        <v>1.975</v>
+      </c>
+      <c r="T144">
+        <v>2.25</v>
+      </c>
+      <c r="U144">
+        <v>2</v>
+      </c>
+      <c r="V144">
+        <v>1.8</v>
+      </c>
+      <c r="W144">
+        <v>0.615</v>
+      </c>
+      <c r="X144">
+        <v>-1</v>
+      </c>
+      <c r="Y144">
+        <v>-1</v>
+      </c>
+      <c r="Z144">
+        <v>0.4125</v>
+      </c>
+      <c r="AA144">
+        <v>-0.5</v>
+      </c>
+      <c r="AB144">
+        <v>1</v>
+      </c>
+      <c r="AC144">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:29">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>7862927</v>
+      </c>
+      <c r="C145" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145" t="s">
+        <v>28</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45402.5</v>
+      </c>
+      <c r="F145" t="s">
+        <v>37</v>
+      </c>
+      <c r="G145" t="s">
+        <v>30</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145" t="s">
+        <v>41</v>
+      </c>
+      <c r="K145">
+        <v>2</v>
+      </c>
+      <c r="L145">
+        <v>3.25</v>
+      </c>
+      <c r="M145">
+        <v>3.25</v>
+      </c>
+      <c r="N145">
+        <v>1.65</v>
+      </c>
+      <c r="O145">
+        <v>3.75</v>
+      </c>
+      <c r="P145">
+        <v>4.2</v>
+      </c>
+      <c r="Q145">
+        <v>-0.75</v>
+      </c>
+      <c r="R145">
+        <v>1.9</v>
+      </c>
+      <c r="S145">
+        <v>1.9</v>
+      </c>
+      <c r="T145">
+        <v>2</v>
+      </c>
+      <c r="U145">
+        <v>1.775</v>
+      </c>
+      <c r="V145">
+        <v>2.025</v>
+      </c>
+      <c r="W145">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X145">
+        <v>-1</v>
+      </c>
+      <c r="Y145">
+        <v>-1</v>
+      </c>
+      <c r="Z145">
+        <v>0.45</v>
+      </c>
+      <c r="AA145">
+        <v>-0.5</v>
+      </c>
+      <c r="AB145">
+        <v>-1</v>
+      </c>
+      <c r="AC145">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="146" spans="1:29">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>7862928</v>
+      </c>
+      <c r="C146" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146" t="s">
+        <v>28</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45403.29166666666</v>
+      </c>
+      <c r="F146" t="s">
+        <v>32</v>
+      </c>
+      <c r="G146" t="s">
+        <v>39</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146" t="s">
+        <v>40</v>
+      </c>
+      <c r="K146">
+        <v>1.8</v>
+      </c>
+      <c r="L146">
+        <v>3.4</v>
+      </c>
+      <c r="M146">
+        <v>3.8</v>
+      </c>
+      <c r="N146">
+        <v>1.6</v>
+      </c>
+      <c r="O146">
+        <v>3.5</v>
+      </c>
+      <c r="P146">
+        <v>5</v>
+      </c>
+      <c r="Q146">
+        <v>-0.75</v>
+      </c>
+      <c r="R146">
+        <v>1.825</v>
+      </c>
+      <c r="S146">
+        <v>1.975</v>
+      </c>
+      <c r="T146">
+        <v>2.25</v>
+      </c>
+      <c r="U146">
+        <v>1.95</v>
+      </c>
+      <c r="V146">
+        <v>1.85</v>
+      </c>
+      <c r="W146">
+        <v>-1</v>
+      </c>
+      <c r="X146">
+        <v>2.5</v>
+      </c>
+      <c r="Y146">
+        <v>-1</v>
+      </c>
+      <c r="Z146">
+        <v>-1</v>
+      </c>
+      <c r="AA146">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB146">
+        <v>-0.5</v>
+      </c>
+      <c r="AC146">
+        <v>0.425</v>
+      </c>
+    </row>
+    <row r="147" spans="1:29">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>7862929</v>
+      </c>
+      <c r="C147" t="s">
+        <v>28</v>
+      </c>
+      <c r="D147" t="s">
+        <v>28</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45403.375</v>
+      </c>
+      <c r="F147" t="s">
+        <v>35</v>
+      </c>
+      <c r="G147" t="s">
+        <v>31</v>
+      </c>
+      <c r="H147">
+        <v>2</v>
+      </c>
+      <c r="I147">
+        <v>2</v>
+      </c>
+      <c r="J147" t="s">
+        <v>40</v>
+      </c>
+      <c r="K147">
         <v>1.4</v>
       </c>
-      <c r="O144">
+      <c r="L147">
+        <v>4.5</v>
+      </c>
+      <c r="M147">
+        <v>5.5</v>
+      </c>
+      <c r="N147">
+        <v>1.5</v>
+      </c>
+      <c r="O147">
+        <v>4.333</v>
+      </c>
+      <c r="P147">
+        <v>5</v>
+      </c>
+      <c r="Q147">
+        <v>-1</v>
+      </c>
+      <c r="R147">
+        <v>1.825</v>
+      </c>
+      <c r="S147">
+        <v>1.975</v>
+      </c>
+      <c r="T147">
+        <v>2.75</v>
+      </c>
+      <c r="U147">
+        <v>2</v>
+      </c>
+      <c r="V147">
+        <v>1.8</v>
+      </c>
+      <c r="W147">
+        <v>-1</v>
+      </c>
+      <c r="X147">
+        <v>3.333</v>
+      </c>
+      <c r="Y147">
+        <v>-1</v>
+      </c>
+      <c r="Z147">
+        <v>-1</v>
+      </c>
+      <c r="AA147">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB147">
+        <v>1</v>
+      </c>
+      <c r="AC147">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>7862048</v>
+      </c>
+      <c r="C148" t="s">
+        <v>28</v>
+      </c>
+      <c r="D148" t="s">
+        <v>28</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45403.51736111111</v>
+      </c>
+      <c r="F148" t="s">
+        <v>33</v>
+      </c>
+      <c r="G148" t="s">
+        <v>29</v>
+      </c>
+      <c r="K148">
+        <v>1.333</v>
+      </c>
+      <c r="L148">
+        <v>5</v>
+      </c>
+      <c r="M148">
+        <v>6</v>
+      </c>
+      <c r="N148">
+        <v>1.4</v>
+      </c>
+      <c r="O148">
         <v>4.75</v>
       </c>
-      <c r="P144">
+      <c r="P148">
         <v>5.5</v>
       </c>
-      <c r="Q144">
+      <c r="Q148">
         <v>-1.25</v>
       </c>
-      <c r="R144">
+      <c r="R148">
         <v>1.925</v>
       </c>
-      <c r="S144">
+      <c r="S148">
         <v>1.875</v>
       </c>
-      <c r="T144">
+      <c r="T148">
         <v>2.5</v>
       </c>
-      <c r="U144">
+      <c r="U148">
         <v>1.8</v>
       </c>
-      <c r="V144">
-        <v>2</v>
-      </c>
-      <c r="W144">
-        <v>0</v>
-      </c>
-      <c r="X144">
-        <v>0</v>
-      </c>
-      <c r="Y144">
-        <v>0</v>
-      </c>
-      <c r="Z144">
-        <v>0</v>
-      </c>
-      <c r="AA144">
+      <c r="V148">
+        <v>2</v>
+      </c>
+      <c r="W148">
+        <v>0</v>
+      </c>
+      <c r="X148">
+        <v>0</v>
+      </c>
+      <c r="Y148">
+        <v>0</v>
+      </c>
+      <c r="Z148">
+        <v>0</v>
+      </c>
+      <c r="AA148">
         <v>0</v>
       </c>
     </row>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB147"/>
+  <dimension ref="A1:AB148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -750,10 +750,10 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
         <v>0.875</v>
@@ -922,10 +922,10 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z5">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
         <v>-1</v>
@@ -1094,10 +1094,10 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z7">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
         <v>-1</v>
@@ -1352,10 +1352,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="Y10">
+        <v>-1</v>
+      </c>
+      <c r="Z10">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z10">
-        <v>-1</v>
       </c>
       <c r="AA10">
         <v>-1</v>
@@ -1438,10 +1438,10 @@
         <v>0.7</v>
       </c>
       <c r="Y11">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA11">
         <v>-1</v>
@@ -1782,10 +1782,10 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
         <v>0.9750000000000001</v>
@@ -2126,10 +2126,10 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>0.833</v>
       </c>
       <c r="Y21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA21">
         <v>0.8500000000000001</v>
@@ -2384,10 +2384,10 @@
         <v>2.2</v>
       </c>
       <c r="Y22">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA22">
         <v>0.9750000000000001</v>
@@ -2556,10 +2556,10 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
         <v>0.8999999999999999</v>
@@ -2642,10 +2642,10 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
         <v>0.8999999999999999</v>
@@ -2659,7 +2659,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6732773</v>
+        <v>6732711</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
@@ -2668,16 +2668,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I26" t="s">
         <v>41</v>
@@ -2686,37 +2686,37 @@
         <v>5</v>
       </c>
       <c r="K26">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L26">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="M26">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N26">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="O26">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="P26">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Q26">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R26">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S26">
         <v>2.5</v>
       </c>
       <c r="T26">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U26">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V26">
         <v>-1</v>
@@ -2725,19 +2725,19 @@
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>0.5329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="Y26">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB26">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -2745,7 +2745,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6732711</v>
+        <v>6732773</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
@@ -2754,16 +2754,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>1</v>
-      </c>
-      <c r="H27">
-        <v>4</v>
       </c>
       <c r="I27" t="s">
         <v>41</v>
@@ -2772,37 +2772,37 @@
         <v>5</v>
       </c>
       <c r="K27">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L27">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="M27">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N27">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="O27">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="P27">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R27">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S27">
         <v>2.5</v>
       </c>
       <c r="T27">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U27">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
         <v>-1</v>
@@ -2811,19 +2811,19 @@
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>0.25</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y27">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2900,10 +2900,10 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z28">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
         <v>0.45</v>
@@ -2986,10 +2986,10 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z29">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
         <v>0.8</v>
@@ -3072,10 +3072,10 @@
         <v>0.3</v>
       </c>
       <c r="Y30">
-        <v>1.075</v>
+        <v>0.5375000000000001</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA30">
         <v>0.4875</v>
@@ -3244,10 +3244,10 @@
         <v>2.25</v>
       </c>
       <c r="Y32">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA32">
         <v>-1</v>
@@ -3330,10 +3330,10 @@
         <v>2.75</v>
       </c>
       <c r="Y33">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA33">
         <v>-1</v>
@@ -3416,10 +3416,10 @@
         <v>2</v>
       </c>
       <c r="Y34">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA34">
         <v>1.025</v>
@@ -3588,10 +3588,10 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z36">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
         <v>0.9750000000000001</v>
@@ -3846,10 +3846,10 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
         <v>-0.5</v>
@@ -3932,10 +3932,10 @@
         <v>0.5</v>
       </c>
       <c r="Y40">
+        <v>-1</v>
+      </c>
+      <c r="Z40">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z40">
-        <v>-1</v>
       </c>
       <c r="AA40">
         <v>0.7</v>
@@ -4018,10 +4018,10 @@
         <v>0.909</v>
       </c>
       <c r="Y41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA41">
         <v>0.8</v>
@@ -4190,10 +4190,10 @@
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="Z43">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA43">
         <v>-1</v>
@@ -4276,10 +4276,10 @@
         <v>2.3</v>
       </c>
       <c r="Y44">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA44">
         <v>0.95</v>
@@ -4362,10 +4362,10 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z45">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
         <v>-0.5</v>
@@ -4448,10 +4448,10 @@
         <v>2.6</v>
       </c>
       <c r="Y46">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA46">
         <v>-1</v>
@@ -4792,10 +4792,10 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z50">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
         <v>-1</v>
@@ -4878,10 +4878,10 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
         <v>0</v>
@@ -4964,10 +4964,10 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z52">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
         <v>-1</v>
@@ -5050,10 +5050,10 @@
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z53">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA53">
         <v>0.8999999999999999</v>
@@ -5136,10 +5136,10 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z54">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
         <v>0.9750000000000001</v>
@@ -5222,10 +5222,10 @@
         <v>2.2</v>
       </c>
       <c r="Y55">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA55">
         <v>0.825</v>
@@ -5308,10 +5308,10 @@
         <v>0.363</v>
       </c>
       <c r="Y56">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA56">
         <v>0.4625</v>
@@ -5480,10 +5480,10 @@
         <v>0.222</v>
       </c>
       <c r="Y58">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA58">
         <v>-1</v>
@@ -5652,10 +5652,10 @@
         <v>0.95</v>
       </c>
       <c r="Y60">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA60">
         <v>-1</v>
@@ -5738,10 +5738,10 @@
         <v>0.615</v>
       </c>
       <c r="Y61">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA61">
         <v>1</v>
@@ -5824,10 +5824,10 @@
         <v>0.833</v>
       </c>
       <c r="Y62">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA62">
         <v>0.9750000000000001</v>
@@ -5910,10 +5910,10 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z63">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA63">
         <v>-1</v>
@@ -5996,10 +5996,10 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z64">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
         <v>0.925</v>
@@ -6082,10 +6082,10 @@
         <v>0.3999999999999999</v>
       </c>
       <c r="Y65">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA65">
         <v>-1</v>
@@ -6168,10 +6168,10 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z66">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
         <v>-1</v>
@@ -6254,10 +6254,10 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="Z67">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA67">
         <v>-1</v>
@@ -6512,10 +6512,10 @@
         <v>0.444</v>
       </c>
       <c r="Y70">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA70">
         <v>-1</v>
@@ -6598,10 +6598,10 @@
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z71">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
         <v>-1</v>
@@ -6770,10 +6770,10 @@
         <v>0.363</v>
       </c>
       <c r="Y73">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA73">
         <v>0.95</v>
@@ -6856,10 +6856,10 @@
         <v>2.75</v>
       </c>
       <c r="Y74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA74">
         <v>-1</v>
@@ -6942,10 +6942,10 @@
         <v>1.45</v>
       </c>
       <c r="Y75">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA75">
         <v>-1</v>
@@ -7114,10 +7114,10 @@
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z77">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
         <v>0.8999999999999999</v>
@@ -7200,10 +7200,10 @@
         <v>4.5</v>
       </c>
       <c r="Y78">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA78">
         <v>-1</v>
@@ -7372,10 +7372,10 @@
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z80">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AA80">
         <v>-1</v>
@@ -7458,10 +7458,10 @@
         <v>0.3999999999999999</v>
       </c>
       <c r="Y81">
+        <v>-1</v>
+      </c>
+      <c r="Z81">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z81">
-        <v>-1</v>
       </c>
       <c r="AA81">
         <v>-1</v>
@@ -7630,10 +7630,10 @@
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z83">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
         <v>0.9750000000000001</v>
@@ -7802,10 +7802,10 @@
         <v>0.7</v>
       </c>
       <c r="Y85">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA85">
         <v>0.8500000000000001</v>
@@ -7974,10 +7974,10 @@
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z87">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
         <v>-0.5</v>
@@ -8060,10 +8060,10 @@
         <v>2.4</v>
       </c>
       <c r="Y88">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA88">
         <v>0.9750000000000001</v>
@@ -8146,10 +8146,10 @@
         <v>0.6499999999999999</v>
       </c>
       <c r="Y89">
+        <v>-1</v>
+      </c>
+      <c r="Z89">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z89">
-        <v>-1</v>
       </c>
       <c r="AA89">
         <v>-1</v>
@@ -8318,10 +8318,10 @@
         <v>1.1</v>
       </c>
       <c r="Y91">
+        <v>-1</v>
+      </c>
+      <c r="Z91">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z91">
-        <v>-1</v>
       </c>
       <c r="AA91">
         <v>0.8999999999999999</v>
@@ -8490,10 +8490,10 @@
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
         <v>-0.5</v>
@@ -8662,10 +8662,10 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z95">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
         <v>0.8</v>
@@ -8920,10 +8920,10 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="Y98">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA98">
         <v>0.8999999999999999</v>
@@ -9006,10 +9006,10 @@
         <v>1.1</v>
       </c>
       <c r="Y99">
+        <v>-1</v>
+      </c>
+      <c r="Z99">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z99">
-        <v>-1</v>
       </c>
       <c r="AA99">
         <v>0.8999999999999999</v>
@@ -9023,7 +9023,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6732727</v>
+        <v>6732834</v>
       </c>
       <c r="C100" t="s">
         <v>27</v>
@@ -9032,61 +9032,61 @@
         <v>45242.41319444445</v>
       </c>
       <c r="E100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J100">
-        <v>1.285</v>
+        <v>1.25</v>
       </c>
       <c r="K100">
         <v>5.5</v>
       </c>
       <c r="L100">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="M100">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="N100">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="O100">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P100">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="Q100">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="R100">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S100">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T100">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U100">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V100">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9095,13 +9095,13 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9109,7 +9109,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6732834</v>
+        <v>6732727</v>
       </c>
       <c r="C101" t="s">
         <v>27</v>
@@ -9118,61 +9118,61 @@
         <v>45242.41319444445</v>
       </c>
       <c r="E101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F101" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J101">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="K101">
         <v>5.5</v>
       </c>
       <c r="L101">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="M101">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="N101">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="O101">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P101">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="Q101">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="R101">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S101">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T101">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U101">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V101">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="W101">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9181,13 +9181,13 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:28">
@@ -9195,7 +9195,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6732836</v>
+        <v>7465686</v>
       </c>
       <c r="C102" t="s">
         <v>27</v>
@@ -9204,58 +9204,58 @@
         <v>45242.41319444445</v>
       </c>
       <c r="E102" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G102">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="s">
         <v>40</v>
       </c>
       <c r="J102">
-        <v>1.222</v>
+        <v>2.3</v>
       </c>
       <c r="K102">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="L102">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="M102">
-        <v>1.363</v>
+        <v>2.55</v>
       </c>
       <c r="N102">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O102">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="P102">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q102">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R102">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S102">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T102">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U102">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V102">
-        <v>0.363</v>
+        <v>1.55</v>
       </c>
       <c r="W102">
         <v>-1</v>
@@ -9264,13 +9264,13 @@
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z102">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB102">
         <v>-1</v>
@@ -9281,7 +9281,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7465686</v>
+        <v>6732836</v>
       </c>
       <c r="C103" t="s">
         <v>27</v>
@@ -9290,58 +9290,58 @@
         <v>45242.41319444445</v>
       </c>
       <c r="E103" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G103">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="s">
         <v>40</v>
       </c>
       <c r="J103">
-        <v>2.3</v>
+        <v>1.222</v>
       </c>
       <c r="K103">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="L103">
-        <v>2.3</v>
+        <v>9</v>
       </c>
       <c r="M103">
-        <v>2.55</v>
+        <v>1.363</v>
       </c>
       <c r="N103">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O103">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="P103">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q103">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R103">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S103">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T103">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U103">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V103">
-        <v>1.55</v>
+        <v>0.363</v>
       </c>
       <c r="W103">
         <v>-1</v>
@@ -9350,13 +9350,13 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z103">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB103">
         <v>-1</v>
@@ -9436,10 +9436,10 @@
         <v>1</v>
       </c>
       <c r="Y104">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA104">
         <v>0.9750000000000001</v>
@@ -9780,10 +9780,10 @@
         <v>0.45</v>
       </c>
       <c r="Y108">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA108">
         <v>-1</v>
@@ -9866,10 +9866,10 @@
         <v>2.1</v>
       </c>
       <c r="Y109">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA109">
         <v>0.8999999999999999</v>
@@ -9952,10 +9952,10 @@
         <v>2</v>
       </c>
       <c r="Y110">
+        <v>-1</v>
+      </c>
+      <c r="Z110">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z110">
-        <v>-1</v>
       </c>
       <c r="AA110">
         <v>0.825</v>
@@ -10038,10 +10038,10 @@
         <v>3.5</v>
       </c>
       <c r="Y111">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA111">
         <v>-1</v>
@@ -10382,10 +10382,10 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="Z115">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA115">
         <v>0.825</v>
@@ -10485,7 +10485,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7862911</v>
+        <v>7862036</v>
       </c>
       <c r="C117" t="s">
         <v>27</v>
@@ -10494,73 +10494,73 @@
         <v>45364.54166666666</v>
       </c>
       <c r="E117" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F117" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I117" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J117">
-        <v>2.15</v>
+        <v>8</v>
       </c>
       <c r="K117">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="L117">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="M117">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="N117">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="O117">
-        <v>3</v>
+        <v>1.333</v>
       </c>
       <c r="P117">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q117">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="R117">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="S117">
         <v>2.5</v>
       </c>
       <c r="T117">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="U117">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V117">
         <v>-1</v>
       </c>
       <c r="W117">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Y117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA117">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB117">
         <v>-1</v>
@@ -10571,7 +10571,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7862036</v>
+        <v>7862911</v>
       </c>
       <c r="C118" t="s">
         <v>27</v>
@@ -10580,73 +10580,73 @@
         <v>45364.54166666666</v>
       </c>
       <c r="E118" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J118">
-        <v>8</v>
+        <v>2.15</v>
       </c>
       <c r="K118">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="L118">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="M118">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="N118">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="O118">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="P118">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="Q118">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="R118">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="S118">
         <v>2.5</v>
       </c>
       <c r="T118">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="U118">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V118">
         <v>-1</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X118">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA118">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB118">
         <v>-1</v>
@@ -10726,10 +10726,10 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z119">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
         <v>-1</v>
@@ -10812,10 +10812,10 @@
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z120">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
         <v>-1</v>
@@ -10898,10 +10898,10 @@
         <v>4</v>
       </c>
       <c r="Y121">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA121">
         <v>-1</v>
@@ -10984,10 +10984,10 @@
         <v>2.4</v>
       </c>
       <c r="Y122">
+        <v>-1</v>
+      </c>
+      <c r="Z122">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z122">
-        <v>-1</v>
       </c>
       <c r="AA122">
         <v>-0.5</v>
@@ -11070,10 +11070,10 @@
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z123">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
         <v>1.025</v>
@@ -11156,10 +11156,10 @@
         <v>3.5</v>
       </c>
       <c r="Y124">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA124">
         <v>0.9750000000000001</v>
@@ -11242,10 +11242,10 @@
         <v>1.75</v>
       </c>
       <c r="Y125">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA125">
         <v>0</v>
@@ -11328,10 +11328,10 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z126">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
         <v>0.925</v>
@@ -11414,10 +11414,10 @@
         <v>3.5</v>
       </c>
       <c r="Y127">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA127">
         <v>-1</v>
@@ -11500,10 +11500,10 @@
         <v>2</v>
       </c>
       <c r="Y128">
+        <v>-1</v>
+      </c>
+      <c r="Z128">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z128">
-        <v>-1</v>
       </c>
       <c r="AA128">
         <v>-1</v>
@@ -11586,10 +11586,10 @@
         <v>1</v>
       </c>
       <c r="Y129">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA129">
         <v>-1</v>
@@ -11844,10 +11844,10 @@
         <v>2.3</v>
       </c>
       <c r="Y132">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA132">
         <v>-0.5</v>
@@ -11930,10 +11930,10 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z133">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
         <v>0.925</v>
@@ -12016,10 +12016,10 @@
         <v>1.8</v>
       </c>
       <c r="Y134">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA134">
         <v>-1</v>
@@ -12102,10 +12102,10 @@
         <v>5</v>
       </c>
       <c r="Y135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA135">
         <v>-1</v>
@@ -12360,10 +12360,10 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z138">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
         <v>0.7749999999999999</v>
@@ -12446,10 +12446,10 @@
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z139">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
         <v>-1</v>
@@ -12532,10 +12532,10 @@
         <v>2.1</v>
       </c>
       <c r="Y140">
+        <v>-1</v>
+      </c>
+      <c r="Z140">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z140">
-        <v>-1</v>
       </c>
       <c r="AA140">
         <v>-1</v>
@@ -12618,10 +12618,10 @@
         <v>0.571</v>
       </c>
       <c r="Y141">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA141">
         <v>-1</v>
@@ -12704,10 +12704,10 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z142">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
         <v>0.8</v>
@@ -12790,10 +12790,10 @@
         <v>1</v>
       </c>
       <c r="Y143">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA143">
         <v>0.825</v>
@@ -12876,10 +12876,10 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="Z144">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA144">
         <v>1</v>
@@ -12962,10 +12962,10 @@
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z145">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA145">
         <v>-1</v>
@@ -13143,6 +13143,92 @@
         <v>1</v>
       </c>
       <c r="AB147">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:28">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>7862048</v>
+      </c>
+      <c r="C148" t="s">
+        <v>27</v>
+      </c>
+      <c r="D148" s="2">
+        <v>45403.51736111111</v>
+      </c>
+      <c r="E148" t="s">
+        <v>32</v>
+      </c>
+      <c r="F148" t="s">
+        <v>28</v>
+      </c>
+      <c r="G148">
+        <v>3</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148" t="s">
+        <v>40</v>
+      </c>
+      <c r="J148">
+        <v>1.333</v>
+      </c>
+      <c r="K148">
+        <v>5</v>
+      </c>
+      <c r="L148">
+        <v>6</v>
+      </c>
+      <c r="M148">
+        <v>1.3</v>
+      </c>
+      <c r="N148">
+        <v>5.25</v>
+      </c>
+      <c r="O148">
+        <v>6.5</v>
+      </c>
+      <c r="P148">
+        <v>-1.5</v>
+      </c>
+      <c r="Q148">
+        <v>1.975</v>
+      </c>
+      <c r="R148">
+        <v>1.825</v>
+      </c>
+      <c r="S148">
+        <v>2.75</v>
+      </c>
+      <c r="T148">
+        <v>1.9</v>
+      </c>
+      <c r="U148">
+        <v>1.9</v>
+      </c>
+      <c r="V148">
+        <v>0.3</v>
+      </c>
+      <c r="W148">
+        <v>-1</v>
+      </c>
+      <c r="X148">
+        <v>-1</v>
+      </c>
+      <c r="Y148">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="Z148">
+        <v>-1</v>
+      </c>
+      <c r="AA148">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB148">
         <v>-1</v>
       </c>
     </row>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB148"/>
+  <dimension ref="A1:AB152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9023,7 +9023,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6732834</v>
+        <v>6732727</v>
       </c>
       <c r="C100" t="s">
         <v>27</v>
@@ -9032,61 +9032,61 @@
         <v>45242.41319444445</v>
       </c>
       <c r="E100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F100" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J100">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="K100">
         <v>5.5</v>
       </c>
       <c r="L100">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="M100">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="N100">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="O100">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P100">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="Q100">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="R100">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S100">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T100">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U100">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V100">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="W100">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9095,13 +9095,13 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9109,7 +9109,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6732727</v>
+        <v>6732834</v>
       </c>
       <c r="C101" t="s">
         <v>27</v>
@@ -9118,61 +9118,61 @@
         <v>45242.41319444445</v>
       </c>
       <c r="E101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J101">
-        <v>1.285</v>
+        <v>1.25</v>
       </c>
       <c r="K101">
         <v>5.5</v>
       </c>
       <c r="L101">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="M101">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="N101">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="O101">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P101">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="Q101">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="R101">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S101">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T101">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U101">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V101">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9181,13 +9181,13 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="102" spans="1:28">
@@ -9195,7 +9195,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7465686</v>
+        <v>6732836</v>
       </c>
       <c r="C102" t="s">
         <v>27</v>
@@ -9204,58 +9204,58 @@
         <v>45242.41319444445</v>
       </c>
       <c r="E102" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G102">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="s">
         <v>40</v>
       </c>
       <c r="J102">
-        <v>2.3</v>
+        <v>1.222</v>
       </c>
       <c r="K102">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="L102">
-        <v>2.3</v>
+        <v>9</v>
       </c>
       <c r="M102">
-        <v>2.55</v>
+        <v>1.363</v>
       </c>
       <c r="N102">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O102">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="P102">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q102">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R102">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S102">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T102">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U102">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V102">
-        <v>1.55</v>
+        <v>0.363</v>
       </c>
       <c r="W102">
         <v>-1</v>
@@ -9264,13 +9264,13 @@
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB102">
         <v>-1</v>
@@ -9281,7 +9281,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6732836</v>
+        <v>7465686</v>
       </c>
       <c r="C103" t="s">
         <v>27</v>
@@ -9290,58 +9290,58 @@
         <v>45242.41319444445</v>
       </c>
       <c r="E103" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G103">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="s">
         <v>40</v>
       </c>
       <c r="J103">
-        <v>1.222</v>
+        <v>2.3</v>
       </c>
       <c r="K103">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="L103">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="M103">
-        <v>1.363</v>
+        <v>2.55</v>
       </c>
       <c r="N103">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O103">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="P103">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q103">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R103">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S103">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T103">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U103">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V103">
-        <v>0.363</v>
+        <v>1.55</v>
       </c>
       <c r="W103">
         <v>-1</v>
@@ -9350,13 +9350,13 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB103">
         <v>-1</v>
@@ -12119,7 +12119,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7862922</v>
+        <v>7862044</v>
       </c>
       <c r="C136" t="s">
         <v>27</v>
@@ -12128,76 +12128,76 @@
         <v>45392.5</v>
       </c>
       <c r="E136" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="s">
         <v>39</v>
       </c>
       <c r="J136">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="K136">
+        <v>3.05</v>
+      </c>
+      <c r="L136">
+        <v>3.2</v>
+      </c>
+      <c r="M136">
+        <v>3.4</v>
+      </c>
+      <c r="N136">
         <v>3</v>
       </c>
-      <c r="L136">
-        <v>2.5</v>
-      </c>
-      <c r="M136">
-        <v>2.9</v>
-      </c>
-      <c r="N136">
-        <v>2.9</v>
-      </c>
       <c r="O136">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="P136">
         <v>0.25</v>
       </c>
       <c r="Q136">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="R136">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S136">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T136">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U136">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V136">
         <v>-1</v>
       </c>
       <c r="W136">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0.375</v>
+        <v>0.475</v>
       </c>
       <c r="Z136">
         <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:28">
@@ -12205,7 +12205,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7862044</v>
+        <v>7862922</v>
       </c>
       <c r="C137" t="s">
         <v>27</v>
@@ -12214,76 +12214,76 @@
         <v>45392.5</v>
       </c>
       <c r="E137" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="s">
         <v>39</v>
       </c>
       <c r="J137">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="K137">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L137">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="M137">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N137">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O137">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="P137">
         <v>0.25</v>
       </c>
       <c r="Q137">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="R137">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S137">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T137">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V137">
         <v>-1</v>
       </c>
       <c r="W137">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0.475</v>
+        <v>0.375</v>
       </c>
       <c r="Z137">
         <v>-0.5</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB137">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="138" spans="1:28">
@@ -13229,6 +13229,350 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB148">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:28">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>7862049</v>
+      </c>
+      <c r="C149" t="s">
+        <v>27</v>
+      </c>
+      <c r="D149" s="2">
+        <v>45405.54166666666</v>
+      </c>
+      <c r="E149" t="s">
+        <v>36</v>
+      </c>
+      <c r="F149" t="s">
+        <v>35</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="I149" t="s">
+        <v>41</v>
+      </c>
+      <c r="J149">
+        <v>1.65</v>
+      </c>
+      <c r="K149">
+        <v>3.5</v>
+      </c>
+      <c r="L149">
+        <v>4.5</v>
+      </c>
+      <c r="M149">
+        <v>2.05</v>
+      </c>
+      <c r="N149">
+        <v>2.9</v>
+      </c>
+      <c r="O149">
+        <v>3.4</v>
+      </c>
+      <c r="P149">
+        <v>-0.25</v>
+      </c>
+      <c r="Q149">
+        <v>1.8</v>
+      </c>
+      <c r="R149">
+        <v>2</v>
+      </c>
+      <c r="S149">
+        <v>1.75</v>
+      </c>
+      <c r="T149">
+        <v>1.75</v>
+      </c>
+      <c r="U149">
+        <v>2.05</v>
+      </c>
+      <c r="V149">
+        <v>-1</v>
+      </c>
+      <c r="W149">
+        <v>-1</v>
+      </c>
+      <c r="X149">
+        <v>2.4</v>
+      </c>
+      <c r="Y149">
+        <v>-1</v>
+      </c>
+      <c r="Z149">
+        <v>1</v>
+      </c>
+      <c r="AA149">
+        <v>-1</v>
+      </c>
+      <c r="AB149">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="150" spans="1:28">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>7862930</v>
+      </c>
+      <c r="C150" t="s">
+        <v>27</v>
+      </c>
+      <c r="D150" s="2">
+        <v>45406.5</v>
+      </c>
+      <c r="E150" t="s">
+        <v>38</v>
+      </c>
+      <c r="F150" t="s">
+        <v>34</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+      <c r="H150">
+        <v>2</v>
+      </c>
+      <c r="I150" t="s">
+        <v>41</v>
+      </c>
+      <c r="J150">
+        <v>4</v>
+      </c>
+      <c r="K150">
+        <v>2.9</v>
+      </c>
+      <c r="L150">
+        <v>1.909</v>
+      </c>
+      <c r="M150">
+        <v>4.5</v>
+      </c>
+      <c r="N150">
+        <v>3.1</v>
+      </c>
+      <c r="O150">
+        <v>1.727</v>
+      </c>
+      <c r="P150">
+        <v>0.5</v>
+      </c>
+      <c r="Q150">
+        <v>2</v>
+      </c>
+      <c r="R150">
+        <v>1.8</v>
+      </c>
+      <c r="S150">
+        <v>2.25</v>
+      </c>
+      <c r="T150">
+        <v>2</v>
+      </c>
+      <c r="U150">
+        <v>1.8</v>
+      </c>
+      <c r="V150">
+        <v>-1</v>
+      </c>
+      <c r="W150">
+        <v>-1</v>
+      </c>
+      <c r="X150">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="Y150">
+        <v>-1</v>
+      </c>
+      <c r="Z150">
+        <v>0.8</v>
+      </c>
+      <c r="AA150">
+        <v>1</v>
+      </c>
+      <c r="AB150">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:28">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>7862932</v>
+      </c>
+      <c r="C151" t="s">
+        <v>27</v>
+      </c>
+      <c r="D151" s="2">
+        <v>45406.54166666666</v>
+      </c>
+      <c r="E151" t="s">
+        <v>37</v>
+      </c>
+      <c r="F151" t="s">
+        <v>30</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>3</v>
+      </c>
+      <c r="I151" t="s">
+        <v>41</v>
+      </c>
+      <c r="J151">
+        <v>1.4</v>
+      </c>
+      <c r="K151">
+        <v>4.333</v>
+      </c>
+      <c r="L151">
+        <v>6</v>
+      </c>
+      <c r="M151">
+        <v>1.45</v>
+      </c>
+      <c r="N151">
+        <v>4.75</v>
+      </c>
+      <c r="O151">
+        <v>4.5</v>
+      </c>
+      <c r="P151">
+        <v>-1</v>
+      </c>
+      <c r="Q151">
+        <v>1.85</v>
+      </c>
+      <c r="R151">
+        <v>1.95</v>
+      </c>
+      <c r="S151">
+        <v>2.25</v>
+      </c>
+      <c r="T151">
+        <v>1.875</v>
+      </c>
+      <c r="U151">
+        <v>1.925</v>
+      </c>
+      <c r="V151">
+        <v>-1</v>
+      </c>
+      <c r="W151">
+        <v>-1</v>
+      </c>
+      <c r="X151">
+        <v>3.5</v>
+      </c>
+      <c r="Y151">
+        <v>-1</v>
+      </c>
+      <c r="Z151">
+        <v>0.95</v>
+      </c>
+      <c r="AA151">
+        <v>0.875</v>
+      </c>
+      <c r="AB151">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:28">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>7862050</v>
+      </c>
+      <c r="C152" t="s">
+        <v>27</v>
+      </c>
+      <c r="D152" s="2">
+        <v>45406.58333333334</v>
+      </c>
+      <c r="E152" t="s">
+        <v>32</v>
+      </c>
+      <c r="F152" t="s">
+        <v>29</v>
+      </c>
+      <c r="G152">
+        <v>4</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152" t="s">
+        <v>40</v>
+      </c>
+      <c r="J152">
+        <v>1.363</v>
+      </c>
+      <c r="K152">
+        <v>4.333</v>
+      </c>
+      <c r="L152">
+        <v>6.5</v>
+      </c>
+      <c r="M152">
+        <v>1.2</v>
+      </c>
+      <c r="N152">
+        <v>5.5</v>
+      </c>
+      <c r="O152">
+        <v>10</v>
+      </c>
+      <c r="P152">
+        <v>-1.75</v>
+      </c>
+      <c r="Q152">
+        <v>1.95</v>
+      </c>
+      <c r="R152">
+        <v>1.85</v>
+      </c>
+      <c r="S152">
+        <v>2.5</v>
+      </c>
+      <c r="T152">
+        <v>1.825</v>
+      </c>
+      <c r="U152">
+        <v>1.975</v>
+      </c>
+      <c r="V152">
+        <v>0.2</v>
+      </c>
+      <c r="W152">
+        <v>-1</v>
+      </c>
+      <c r="X152">
+        <v>-1</v>
+      </c>
+      <c r="Y152">
+        <v>0.95</v>
+      </c>
+      <c r="Z152">
+        <v>-1</v>
+      </c>
+      <c r="AA152">
+        <v>0.825</v>
+      </c>
+      <c r="AB152">
         <v>-1</v>
       </c>
     </row>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>7862934</t>
   </si>
   <si>
     <t>Lithuania A Lyga</t>
@@ -501,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB152"/>
+  <dimension ref="A1:AB149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,16 +601,16 @@
         <v>6227963</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>45079.5</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -616,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J2">
         <v>5.5</v>
@@ -684,16 +687,16 @@
         <v>6227964</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <v>45080.375</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -702,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J3">
         <v>1.85</v>
@@ -770,16 +773,16 @@
         <v>6227965</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
         <v>45080.45833333334</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -788,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J4">
         <v>2.4</v>
@@ -856,16 +859,16 @@
         <v>6227966</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>45080.54166666666</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -874,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -942,16 +945,16 @@
         <v>6227242</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>45081.49652777778</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -960,7 +963,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J6">
         <v>1.571</v>
@@ -1028,16 +1031,16 @@
         <v>6227967</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>45083.5</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1046,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J7">
         <v>2.3</v>
@@ -1114,16 +1117,16 @@
         <v>6227968</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>45083.58333333334</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1132,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J8">
         <v>4.333</v>
@@ -1200,16 +1203,16 @@
         <v>6227969</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>45084.5</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1218,7 +1221,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J9">
         <v>5.5</v>
@@ -1286,16 +1289,16 @@
         <v>6227970</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>45084.54166666666</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1304,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>3.3</v>
@@ -1372,16 +1375,16 @@
         <v>6227243</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>45084.58333333334</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1390,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>3.25</v>
@@ -1458,16 +1461,16 @@
         <v>6227971</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
         <v>45087.45833333334</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1476,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J12">
         <v>2.75</v>
@@ -1544,16 +1547,16 @@
         <v>6227972</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>45087.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1562,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J13">
         <v>1.533</v>
@@ -1630,16 +1633,16 @@
         <v>6227244</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>45088.41666666666</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1648,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J14">
         <v>1.333</v>
@@ -1716,16 +1719,16 @@
         <v>6227973</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>45088.49652777778</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -1734,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J15">
         <v>1.3</v>
@@ -1802,16 +1805,16 @@
         <v>6732710</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>45099.54166666666</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1820,7 +1823,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>11</v>
@@ -1888,16 +1891,16 @@
         <v>6732766</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>45099.58333333334</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1906,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J17">
         <v>1.363</v>
@@ -1974,16 +1977,16 @@
         <v>6732767</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>45101.29166666666</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1992,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J18">
         <v>1.727</v>
@@ -2060,16 +2063,16 @@
         <v>6732768</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
         <v>45101.54166666666</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2078,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J19">
         <v>1.4</v>
@@ -2146,16 +2149,16 @@
         <v>6732769</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
         <v>45102.5</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2164,7 +2167,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>6</v>
@@ -2232,16 +2235,16 @@
         <v>6732713</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>45104.54166666666</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2250,7 +2253,7 @@
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>3.25</v>
@@ -2318,16 +2321,16 @@
         <v>6732778</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2">
         <v>45105.54166666666</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2336,7 +2339,7 @@
         <v>3</v>
       </c>
       <c r="I22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>1.571</v>
@@ -2404,16 +2407,16 @@
         <v>6732770</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2">
         <v>45107.5</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2422,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J23">
         <v>1.444</v>
@@ -2490,16 +2493,16 @@
         <v>6732771</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2">
         <v>45108.5</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2508,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J24">
         <v>3.6</v>
@@ -2576,16 +2579,16 @@
         <v>6732772</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2">
         <v>45109.49652777778</v>
       </c>
       <c r="E25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" t="s">
         <v>37</v>
-      </c>
-      <c r="F25" t="s">
-        <v>36</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -2594,7 +2597,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J25">
         <v>3.1</v>
@@ -2659,64 +2662,64 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6732711</v>
+        <v>6732773</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2">
         <v>45109.58333333334</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>1</v>
       </c>
-      <c r="H26">
-        <v>4</v>
-      </c>
       <c r="I26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>5</v>
       </c>
       <c r="K26">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L26">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="M26">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N26">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="O26">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="P26">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R26">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S26">
         <v>2.5</v>
       </c>
       <c r="T26">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V26">
         <v>-1</v>
@@ -2725,19 +2728,19 @@
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>0.25</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -2745,64 +2748,64 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6732773</v>
+        <v>6732711</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2">
         <v>45109.58333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>5</v>
       </c>
       <c r="K27">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L27">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="M27">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N27">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="O27">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Q27">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R27">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S27">
         <v>2.5</v>
       </c>
       <c r="T27">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U27">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V27">
         <v>-1</v>
@@ -2811,19 +2814,19 @@
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>0.5329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2834,16 +2837,16 @@
         <v>6732712</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2">
         <v>45113.54166666666</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -2852,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J28">
         <v>1.4</v>
@@ -2920,16 +2923,16 @@
         <v>6732774</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
         <v>45114.54166666666</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -2938,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J29">
         <v>1.8</v>
@@ -3006,16 +3009,16 @@
         <v>6732775</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2">
         <v>45115.45833333334</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3024,7 +3027,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>5.5</v>
@@ -3092,16 +3095,16 @@
         <v>6732776</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2">
         <v>45115.54166666666</v>
       </c>
       <c r="E31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" t="s">
         <v>36</v>
-      </c>
-      <c r="F31" t="s">
-        <v>35</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3110,7 +3113,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J31">
         <v>1.333</v>
@@ -3178,16 +3181,16 @@
         <v>6732777</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2">
         <v>45116.49652777778</v>
       </c>
       <c r="E32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3196,7 +3199,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>1.909</v>
@@ -3264,16 +3267,16 @@
         <v>6732779</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2">
         <v>45121.54166666666</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3282,7 +3285,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>2.15</v>
@@ -3350,16 +3353,16 @@
         <v>6901957</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2">
         <v>45123.49652777778</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3368,7 +3371,7 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>3</v>
@@ -3436,16 +3439,16 @@
         <v>6732786</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2">
         <v>45125.58333333334</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3454,7 +3457,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J35">
         <v>4.8</v>
@@ -3522,16 +3525,16 @@
         <v>6732714</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2">
         <v>45128.54166666666</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -3540,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J36">
         <v>1.222</v>
@@ -3608,16 +3611,16 @@
         <v>6732782</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2">
         <v>45129.54166666666</v>
       </c>
       <c r="E37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3626,7 +3629,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J37">
         <v>2.375</v>
@@ -3694,16 +3697,16 @@
         <v>6732784</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2">
         <v>45130.49652777778</v>
       </c>
       <c r="E38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3712,7 +3715,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J38">
         <v>3</v>
@@ -3780,16 +3783,16 @@
         <v>6732785</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2">
         <v>45131.58333333334</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -3798,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J39">
         <v>1.666</v>
@@ -3866,16 +3869,16 @@
         <v>6732783</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2">
         <v>45132.54166666666</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3884,7 +3887,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>4.333</v>
@@ -3952,16 +3955,16 @@
         <v>6732787</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2">
         <v>45135.54166666666</v>
       </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3970,7 +3973,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>3.1</v>
@@ -4038,16 +4041,16 @@
         <v>6732788</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2">
         <v>45136.5</v>
       </c>
       <c r="E42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4056,7 +4059,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J42">
         <v>2.45</v>
@@ -4124,16 +4127,16 @@
         <v>6732789</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2">
         <v>45137.5</v>
       </c>
       <c r="E43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" t="s">
         <v>34</v>
-      </c>
-      <c r="F43" t="s">
-        <v>33</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4142,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J43">
         <v>1.5</v>
@@ -4210,16 +4213,16 @@
         <v>6983663</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2">
         <v>45137.625</v>
       </c>
       <c r="E44" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" t="s">
         <v>32</v>
-      </c>
-      <c r="F44" t="s">
-        <v>31</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4228,7 +4231,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J44">
         <v>2.1</v>
@@ -4296,16 +4299,16 @@
         <v>6732790</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2">
         <v>45142.54166666666</v>
       </c>
       <c r="E45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4314,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J45">
         <v>2.5</v>
@@ -4382,16 +4385,16 @@
         <v>6732791</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2">
         <v>45143.5</v>
       </c>
       <c r="E46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4400,7 +4403,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J46">
         <v>2</v>
@@ -4468,16 +4471,16 @@
         <v>7012025</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2">
         <v>45144.49652777778</v>
       </c>
       <c r="E47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4486,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J47">
         <v>3.5</v>
@@ -4554,16 +4557,16 @@
         <v>6732793</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2">
         <v>45144.54166666666</v>
       </c>
       <c r="E48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4572,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J48">
         <v>1.444</v>
@@ -4640,16 +4643,16 @@
         <v>7012024</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2">
         <v>45145.54166666666</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -4658,7 +4661,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J49">
         <v>1.85</v>
@@ -4723,85 +4726,85 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6732795</v>
+        <v>6732794</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2">
         <v>45149.54166666666</v>
       </c>
       <c r="E50" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>41</v>
+      </c>
+      <c r="J50">
+        <v>1.25</v>
+      </c>
+      <c r="K50">
+        <v>5</v>
+      </c>
+      <c r="L50">
+        <v>9</v>
+      </c>
+      <c r="M50">
+        <v>1.25</v>
+      </c>
+      <c r="N50">
+        <v>5.25</v>
+      </c>
+      <c r="O50">
+        <v>9</v>
+      </c>
+      <c r="P50">
+        <v>-1.75</v>
+      </c>
+      <c r="Q50">
+        <v>2</v>
+      </c>
+      <c r="R50">
+        <v>1.8</v>
+      </c>
+      <c r="S50">
+        <v>3</v>
+      </c>
+      <c r="T50">
+        <v>1.975</v>
+      </c>
+      <c r="U50">
+        <v>1.825</v>
+      </c>
+      <c r="V50">
+        <v>0.25</v>
+      </c>
+      <c r="W50">
+        <v>-1</v>
+      </c>
+      <c r="X50">
+        <v>-1</v>
+      </c>
+      <c r="Y50">
         <v>1</v>
       </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50" t="s">
-        <v>40</v>
-      </c>
-      <c r="J50">
-        <v>2.15</v>
-      </c>
-      <c r="K50">
-        <v>3.2</v>
-      </c>
-      <c r="L50">
-        <v>3</v>
-      </c>
-      <c r="M50">
-        <v>2.3</v>
-      </c>
-      <c r="N50">
-        <v>3.2</v>
-      </c>
-      <c r="O50">
-        <v>2.7</v>
-      </c>
-      <c r="P50">
-        <v>-0.25</v>
-      </c>
-      <c r="Q50">
-        <v>2.05</v>
-      </c>
-      <c r="R50">
-        <v>1.75</v>
-      </c>
-      <c r="S50">
-        <v>2.25</v>
-      </c>
-      <c r="T50">
-        <v>1.9</v>
-      </c>
-      <c r="U50">
-        <v>1.9</v>
-      </c>
-      <c r="V50">
-        <v>1.3</v>
-      </c>
-      <c r="W50">
-        <v>-1</v>
-      </c>
-      <c r="X50">
-        <v>-1</v>
-      </c>
-      <c r="Y50">
-        <v>1.05</v>
-      </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB50">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -4809,10 +4812,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6732794</v>
+        <v>6732795</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2">
         <v>45149.54166666666</v>
@@ -4821,55 +4824,55 @@
         <v>36</v>
       </c>
       <c r="F51" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>41</v>
+      </c>
+      <c r="J51">
+        <v>2.15</v>
+      </c>
+      <c r="K51">
+        <v>3.2</v>
+      </c>
+      <c r="L51">
         <v>3</v>
       </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51" t="s">
-        <v>40</v>
-      </c>
-      <c r="J51">
-        <v>1.25</v>
-      </c>
-      <c r="K51">
-        <v>5</v>
-      </c>
-      <c r="L51">
-        <v>9</v>
-      </c>
       <c r="M51">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="N51">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="O51">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="P51">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q51">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R51">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S51">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T51">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U51">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>0.25</v>
+        <v>1.3</v>
       </c>
       <c r="W51">
         <v>-1</v>
@@ -4878,16 +4881,16 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -4898,16 +4901,16 @@
         <v>6732796</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2">
         <v>45151.375</v>
       </c>
       <c r="E52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4916,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J52">
         <v>1.222</v>
@@ -4984,16 +4987,16 @@
         <v>6732797</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D53" s="2">
         <v>45151.49652777778</v>
       </c>
       <c r="E53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -5002,7 +5005,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J53">
         <v>1.444</v>
@@ -5070,16 +5073,16 @@
         <v>6732717</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2">
         <v>45151.58333333334</v>
       </c>
       <c r="E54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G54">
         <v>4</v>
@@ -5088,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J54">
         <v>1.444</v>
@@ -5156,16 +5159,16 @@
         <v>6732798</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2">
         <v>45156.54166666666</v>
       </c>
       <c r="E55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5174,7 +5177,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J55">
         <v>2.2</v>
@@ -5242,16 +5245,16 @@
         <v>6732799</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5260,7 +5263,7 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J56">
         <v>9</v>
@@ -5328,16 +5331,16 @@
         <v>6732800</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2">
         <v>45157.5</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5346,7 +5349,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J57">
         <v>5.5</v>
@@ -5414,16 +5417,16 @@
         <v>6732718</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2">
         <v>45158.49652777778</v>
       </c>
       <c r="E58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5432,7 +5435,7 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J58">
         <v>6</v>
@@ -5500,16 +5503,16 @@
         <v>6732801</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2">
         <v>45158.54166666666</v>
       </c>
       <c r="E59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5518,7 +5521,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J59">
         <v>2.2</v>
@@ -5586,16 +5589,16 @@
         <v>6732802</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2">
         <v>45163.54166666666</v>
       </c>
       <c r="E60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5604,7 +5607,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J60">
         <v>4.5</v>
@@ -5672,16 +5675,16 @@
         <v>6732803</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -5690,7 +5693,7 @@
         <v>6</v>
       </c>
       <c r="I61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J61">
         <v>2.8</v>
@@ -5758,16 +5761,16 @@
         <v>6732804</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2">
         <v>45164.54166666666</v>
       </c>
       <c r="E62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5776,7 +5779,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J62">
         <v>3.6</v>
@@ -5844,17 +5847,17 @@
         <v>6732805</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2">
         <v>45165.375</v>
       </c>
       <c r="E63" t="s">
+        <v>32</v>
+      </c>
+      <c r="F63" t="s">
         <v>31</v>
       </c>
-      <c r="F63" t="s">
-        <v>30</v>
-      </c>
       <c r="G63">
         <v>2</v>
       </c>
@@ -5862,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J63">
         <v>1.222</v>
@@ -5930,16 +5933,16 @@
         <v>6732719</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2">
         <v>45165.49652777778</v>
       </c>
       <c r="E64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G64">
         <v>4</v>
@@ -5948,7 +5951,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J64">
         <v>1.25</v>
@@ -6016,16 +6019,16 @@
         <v>7143716</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2">
         <v>45171.29166666666</v>
       </c>
       <c r="E65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6034,7 +6037,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J65">
         <v>12</v>
@@ -6102,16 +6105,16 @@
         <v>6732807</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2">
         <v>45171.375</v>
       </c>
       <c r="E66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6120,7 +6123,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J66">
         <v>1.3</v>
@@ -6188,16 +6191,16 @@
         <v>6732808</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E67" t="s">
+        <v>30</v>
+      </c>
+      <c r="F67" t="s">
         <v>29</v>
-      </c>
-      <c r="F67" t="s">
-        <v>28</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6206,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J67">
         <v>1.7</v>
@@ -6274,16 +6277,16 @@
         <v>6732809</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2">
         <v>45172.49652777778</v>
       </c>
       <c r="E68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6292,7 +6295,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J68">
         <v>1.833</v>
@@ -6360,16 +6363,16 @@
         <v>6732720</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2">
         <v>45172.5</v>
       </c>
       <c r="E69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6378,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J69">
         <v>1.125</v>
@@ -6446,16 +6449,16 @@
         <v>7202207</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2">
         <v>45185.375</v>
       </c>
       <c r="E70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6464,7 +6467,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J70">
         <v>4</v>
@@ -6532,16 +6535,16 @@
         <v>6732812</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2">
         <v>45185.5</v>
       </c>
       <c r="E71" t="s">
+        <v>31</v>
+      </c>
+      <c r="F71" t="s">
         <v>30</v>
-      </c>
-      <c r="F71" t="s">
-        <v>29</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6550,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J71">
         <v>2.5</v>
@@ -6618,16 +6621,16 @@
         <v>6732813</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2">
         <v>45186.375</v>
       </c>
       <c r="E72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F72" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6636,7 +6639,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J72">
         <v>1.285</v>
@@ -6704,16 +6707,16 @@
         <v>6732721</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2">
         <v>45186.49652777778</v>
       </c>
       <c r="E73" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73" t="s">
         <v>33</v>
-      </c>
-      <c r="F73" t="s">
-        <v>32</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -6722,7 +6725,7 @@
         <v>6</v>
       </c>
       <c r="I73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J73">
         <v>6</v>
@@ -6790,16 +6793,16 @@
         <v>6732814</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2">
         <v>45191.5</v>
       </c>
       <c r="E74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6808,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J74">
         <v>1.8</v>
@@ -6876,16 +6879,16 @@
         <v>6732815</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2">
         <v>45192.375</v>
       </c>
       <c r="E75" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -6894,7 +6897,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J75">
         <v>2.375</v>
@@ -6962,16 +6965,16 @@
         <v>6732816</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -6980,7 +6983,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J76">
         <v>1.125</v>
@@ -7048,16 +7051,16 @@
         <v>6732817</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2">
         <v>45193.375</v>
       </c>
       <c r="E77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G77">
         <v>3</v>
@@ -7066,7 +7069,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J77">
         <v>2.25</v>
@@ -7134,16 +7137,16 @@
         <v>6732722</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2">
         <v>45193.49652777778</v>
       </c>
       <c r="E78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7152,7 +7155,7 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J78">
         <v>1.4</v>
@@ -7220,16 +7223,16 @@
         <v>6732820</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2">
         <v>45197.54166666666</v>
       </c>
       <c r="E79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7238,7 +7241,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J79">
         <v>1.6</v>
@@ -7306,16 +7309,16 @@
         <v>6732818</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2">
         <v>45198.5</v>
       </c>
       <c r="E80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7324,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J80">
         <v>1.4</v>
@@ -7392,16 +7395,16 @@
         <v>6732723</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D81" s="2">
         <v>45199.375</v>
       </c>
       <c r="E81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7410,7 +7413,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J81">
         <v>5</v>
@@ -7478,16 +7481,16 @@
         <v>6732819</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -7496,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J82">
         <v>2.2</v>
@@ -7564,16 +7567,16 @@
         <v>6732823</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2">
         <v>45206.375</v>
       </c>
       <c r="E83" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7582,7 +7585,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J83">
         <v>1.65</v>
@@ -7650,16 +7653,16 @@
         <v>6732824</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F84" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7668,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J84">
         <v>1.909</v>
@@ -7736,16 +7739,16 @@
         <v>6732825</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2">
         <v>45206.54166666666</v>
       </c>
       <c r="E85" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7754,7 +7757,7 @@
         <v>3</v>
       </c>
       <c r="I85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J85">
         <v>4.5</v>
@@ -7822,16 +7825,16 @@
         <v>7299034</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7840,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J86">
         <v>1.45</v>
@@ -7908,16 +7911,16 @@
         <v>6732724</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2">
         <v>45207.49652777778</v>
       </c>
       <c r="E87" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7926,7 +7929,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J87">
         <v>1.909</v>
@@ -7994,16 +7997,16 @@
         <v>6732826</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2">
         <v>45219.5</v>
       </c>
       <c r="E88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8012,7 +8015,7 @@
         <v>2</v>
       </c>
       <c r="I88" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J88">
         <v>2.25</v>
@@ -8080,16 +8083,16 @@
         <v>6732827</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2">
         <v>45220.375</v>
       </c>
       <c r="E89" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -8098,7 +8101,7 @@
         <v>2</v>
       </c>
       <c r="I89" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J89">
         <v>6</v>
@@ -8166,16 +8169,16 @@
         <v>7326568</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2">
         <v>45220.375</v>
       </c>
       <c r="E90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8184,7 +8187,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J90">
         <v>2.375</v>
@@ -8252,16 +8255,16 @@
         <v>6732828</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8270,7 +8273,7 @@
         <v>2</v>
       </c>
       <c r="I91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J91">
         <v>2.625</v>
@@ -8338,16 +8341,16 @@
         <v>6732725</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2">
         <v>45221.49652777778</v>
       </c>
       <c r="E92" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -8356,7 +8359,7 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J92">
         <v>1.571</v>
@@ -8424,16 +8427,16 @@
         <v>7216318</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2">
         <v>45224.5</v>
       </c>
       <c r="E93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8442,7 +8445,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J93">
         <v>4.75</v>
@@ -8510,16 +8513,16 @@
         <v>6732811</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2">
         <v>45224.52083333334</v>
       </c>
       <c r="E94" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -8528,7 +8531,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J94">
         <v>3.1</v>
@@ -8596,16 +8599,16 @@
         <v>6732835</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2">
         <v>45228.41666666666</v>
       </c>
       <c r="E95" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G95">
         <v>4</v>
@@ -8614,7 +8617,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J95">
         <v>2.5</v>
@@ -8682,16 +8685,16 @@
         <v>7259250</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2">
         <v>45229.54166666666</v>
       </c>
       <c r="E96" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8700,7 +8703,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J96">
         <v>3.6</v>
@@ -8768,16 +8771,16 @@
         <v>6732831</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D97" s="2">
         <v>45234.33333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8786,7 +8789,7 @@
         <v>3</v>
       </c>
       <c r="I97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J97">
         <v>5</v>
@@ -8854,16 +8857,16 @@
         <v>6732833</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2">
         <v>45235.41666666666</v>
       </c>
       <c r="E98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8872,7 +8875,7 @@
         <v>2</v>
       </c>
       <c r="I98" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J98">
         <v>6.5</v>
@@ -8940,16 +8943,16 @@
         <v>6732832</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2">
         <v>45235.53819444445</v>
       </c>
       <c r="E99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8958,7 +8961,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J99">
         <v>2.625</v>
@@ -9023,10 +9026,10 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6732727</v>
+        <v>6732834</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2">
         <v>45242.41319444445</v>
@@ -9038,7 +9041,7 @@
         <v>29</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9047,46 +9050,46 @@
         <v>40</v>
       </c>
       <c r="J100">
-        <v>1.285</v>
+        <v>1.25</v>
       </c>
       <c r="K100">
         <v>5.5</v>
       </c>
       <c r="L100">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="M100">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="N100">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="O100">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P100">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="Q100">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="R100">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S100">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T100">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U100">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V100">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9095,13 +9098,13 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9109,70 +9112,70 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6732834</v>
+        <v>6732727</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2">
         <v>45242.41319444445</v>
       </c>
       <c r="E101" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F101" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J101">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="K101">
         <v>5.5</v>
       </c>
       <c r="L101">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="M101">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="N101">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="O101">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P101">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="Q101">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="R101">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S101">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T101">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U101">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V101">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="W101">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9181,13 +9184,13 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:28">
@@ -9195,67 +9198,67 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6732836</v>
+        <v>7465686</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D102" s="2">
         <v>45242.41319444445</v>
       </c>
       <c r="E102" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G102">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J102">
-        <v>1.222</v>
+        <v>2.3</v>
       </c>
       <c r="K102">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="L102">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="M102">
-        <v>1.363</v>
+        <v>2.55</v>
       </c>
       <c r="N102">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O102">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="P102">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q102">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R102">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S102">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T102">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U102">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V102">
-        <v>0.363</v>
+        <v>1.55</v>
       </c>
       <c r="W102">
         <v>-1</v>
@@ -9264,13 +9267,13 @@
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB102">
         <v>-1</v>
@@ -9281,10 +9284,10 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7465686</v>
+        <v>6732836</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2">
         <v>45242.41319444445</v>
@@ -9293,55 +9296,55 @@
         <v>37</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G103">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J103">
-        <v>2.3</v>
+        <v>1.222</v>
       </c>
       <c r="K103">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="L103">
-        <v>2.3</v>
+        <v>9</v>
       </c>
       <c r="M103">
-        <v>2.55</v>
+        <v>1.363</v>
       </c>
       <c r="N103">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O103">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="P103">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q103">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R103">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S103">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T103">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U103">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V103">
-        <v>1.55</v>
+        <v>0.363</v>
       </c>
       <c r="W103">
         <v>-1</v>
@@ -9350,13 +9353,13 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB103">
         <v>-1</v>
@@ -9370,16 +9373,16 @@
         <v>6732837</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2">
         <v>45242.41319444445</v>
       </c>
       <c r="E104" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -9388,7 +9391,7 @@
         <v>3</v>
       </c>
       <c r="I104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J104">
         <v>3.6</v>
@@ -9456,16 +9459,16 @@
         <v>7862033</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2">
         <v>45352.58333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9474,7 +9477,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J105">
         <v>4.333</v>
@@ -9542,16 +9545,16 @@
         <v>7862902</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2">
         <v>45353.33333333334</v>
       </c>
       <c r="E106" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9560,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J106">
         <v>7.5</v>
@@ -9628,16 +9631,16 @@
         <v>7862903</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D107" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E107" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9646,7 +9649,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -9714,16 +9717,16 @@
         <v>7862034</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D108" s="2">
         <v>45354.33333333334</v>
       </c>
       <c r="E108" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9732,7 +9735,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J108">
         <v>6.5</v>
@@ -9800,16 +9803,16 @@
         <v>7862904</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D109" s="2">
         <v>45354.5625</v>
       </c>
       <c r="E109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9818,7 +9821,7 @@
         <v>3</v>
       </c>
       <c r="I109" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J109">
         <v>1.8</v>
@@ -9886,16 +9889,16 @@
         <v>7862905</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D110" s="2">
         <v>45360.33333333334</v>
       </c>
       <c r="E110" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9904,7 +9907,7 @@
         <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J110">
         <v>2.1</v>
@@ -9972,16 +9975,16 @@
         <v>7862906</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D111" s="2">
         <v>45360.41666666666</v>
       </c>
       <c r="E111" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F111" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -9990,7 +9993,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J111">
         <v>2</v>
@@ -10058,16 +10061,16 @@
         <v>7862907</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D112" s="2">
         <v>45361.33333333334</v>
       </c>
       <c r="E112" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -10076,7 +10079,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J112">
         <v>1.4</v>
@@ -10144,16 +10147,16 @@
         <v>7862908</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D113" s="2">
         <v>45361.41666666666</v>
       </c>
       <c r="E113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F113" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10162,7 +10165,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J113">
         <v>1.2</v>
@@ -10230,16 +10233,16 @@
         <v>7862035</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D114" s="2">
         <v>45361.5625</v>
       </c>
       <c r="E114" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G114">
         <v>3</v>
@@ -10248,7 +10251,7 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J114">
         <v>1.3</v>
@@ -10316,16 +10319,16 @@
         <v>7862909</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D115" s="2">
         <v>45363.54166666666</v>
       </c>
       <c r="E115" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -10334,7 +10337,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J115">
         <v>2</v>
@@ -10402,17 +10405,17 @@
         <v>7862910</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D116" s="2">
         <v>45364.5</v>
       </c>
       <c r="E116" t="s">
+        <v>30</v>
+      </c>
+      <c r="F116" t="s">
         <v>29</v>
       </c>
-      <c r="F116" t="s">
-        <v>28</v>
-      </c>
       <c r="G116">
         <v>0</v>
       </c>
@@ -10420,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J116">
         <v>2.3</v>
@@ -10488,16 +10491,16 @@
         <v>7862036</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D117" s="2">
         <v>45364.54166666666</v>
       </c>
       <c r="E117" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10506,7 +10509,7 @@
         <v>4</v>
       </c>
       <c r="I117" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J117">
         <v>8</v>
@@ -10574,16 +10577,16 @@
         <v>7862911</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D118" s="2">
         <v>45364.54166666666</v>
       </c>
       <c r="E118" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G118">
         <v>2</v>
@@ -10592,7 +10595,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J118">
         <v>2.15</v>
@@ -10660,16 +10663,16 @@
         <v>7862037</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D119" s="2">
         <v>45364.63541666666</v>
       </c>
       <c r="E119" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10678,7 +10681,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J119">
         <v>7.5</v>
@@ -10746,16 +10749,16 @@
         <v>7862038</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D120" s="2">
         <v>45367.375</v>
       </c>
       <c r="E120" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10764,7 +10767,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J120">
         <v>2.5</v>
@@ -10832,16 +10835,16 @@
         <v>7862912</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D121" s="2">
         <v>45367.4375</v>
       </c>
       <c r="E121" t="s">
+        <v>32</v>
+      </c>
+      <c r="F121" t="s">
         <v>31</v>
-      </c>
-      <c r="F121" t="s">
-        <v>30</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -10850,7 +10853,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J121">
         <v>1.2</v>
@@ -10918,16 +10921,16 @@
         <v>7862913</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D122" s="2">
         <v>45368.375</v>
       </c>
       <c r="E122" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -10936,7 +10939,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J122">
         <v>2.2</v>
@@ -11004,16 +11007,16 @@
         <v>7862914</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D123" s="2">
         <v>45368.41666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11022,7 +11025,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J123">
         <v>2.5</v>
@@ -11090,16 +11093,16 @@
         <v>7862039</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D124" s="2">
         <v>45368.5625</v>
       </c>
       <c r="E124" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11108,7 +11111,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J124">
         <v>1.615</v>
@@ -11176,16 +11179,16 @@
         <v>7862915</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D125" s="2">
         <v>45380.58333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F125" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -11194,7 +11197,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J125">
         <v>2.6</v>
@@ -11262,16 +11265,16 @@
         <v>7862916</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D126" s="2">
         <v>45381.41666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G126">
         <v>4</v>
@@ -11280,7 +11283,7 @@
         <v>2</v>
       </c>
       <c r="I126" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J126">
         <v>2.5</v>
@@ -11348,16 +11351,16 @@
         <v>7862917</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D127" s="2">
         <v>45381.5</v>
       </c>
       <c r="E127" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -11366,7 +11369,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J127">
         <v>1.533</v>
@@ -11434,16 +11437,16 @@
         <v>7862040</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D128" s="2">
         <v>45382.375</v>
       </c>
       <c r="E128" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F128" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11452,7 +11455,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J128">
         <v>2.45</v>
@@ -11520,16 +11523,16 @@
         <v>7862042</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D129" s="2">
         <v>45382.51736111111</v>
       </c>
       <c r="E129" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -11538,7 +11541,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J129">
         <v>4</v>
@@ -11606,16 +11609,16 @@
         <v>7862918</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D130" s="2">
         <v>45388.375</v>
       </c>
       <c r="E130" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11624,7 +11627,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J130">
         <v>4.333</v>
@@ -11692,16 +11695,16 @@
         <v>7862919</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D131" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11710,7 +11713,7 @@
         <v>2</v>
       </c>
       <c r="I131" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J131">
         <v>2.25</v>
@@ -11778,16 +11781,16 @@
         <v>7865009</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D132" s="2">
         <v>45389.29166666666</v>
       </c>
       <c r="E132" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F132" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11796,7 +11799,7 @@
         <v>2</v>
       </c>
       <c r="I132" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J132">
         <v>1.833</v>
@@ -11864,16 +11867,16 @@
         <v>7862043</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D133" s="2">
         <v>45389.375</v>
       </c>
       <c r="E133" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G133">
         <v>3</v>
@@ -11882,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J133">
         <v>1.666</v>
@@ -11950,16 +11953,16 @@
         <v>7862920</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D134" s="2">
         <v>45389.51736111111</v>
       </c>
       <c r="E134" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -11968,7 +11971,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J134">
         <v>2.75</v>
@@ -12036,16 +12039,16 @@
         <v>7862921</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D135" s="2">
         <v>45391.5</v>
       </c>
       <c r="E135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12054,7 +12057,7 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J135">
         <v>1.75</v>
@@ -12119,85 +12122,85 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7862044</v>
+        <v>7862922</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D136" s="2">
         <v>45392.5</v>
       </c>
       <c r="E136" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J136">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="K136">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L136">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="M136">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N136">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O136">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="P136">
         <v>0.25</v>
       </c>
       <c r="Q136">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="R136">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S136">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T136">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U136">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V136">
         <v>-1</v>
       </c>
       <c r="W136">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0.475</v>
+        <v>0.375</v>
       </c>
       <c r="Z136">
         <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB136">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="137" spans="1:28">
@@ -12205,85 +12208,85 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7862922</v>
+        <v>7862044</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D137" s="2">
         <v>45392.5</v>
       </c>
       <c r="E137" t="s">
+        <v>31</v>
+      </c>
+      <c r="F137" t="s">
         <v>36</v>
       </c>
-      <c r="F137" t="s">
-        <v>31</v>
-      </c>
       <c r="G137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J137">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="K137">
+        <v>3.05</v>
+      </c>
+      <c r="L137">
+        <v>3.2</v>
+      </c>
+      <c r="M137">
+        <v>3.4</v>
+      </c>
+      <c r="N137">
         <v>3</v>
       </c>
-      <c r="L137">
-        <v>2.5</v>
-      </c>
-      <c r="M137">
-        <v>2.9</v>
-      </c>
-      <c r="N137">
-        <v>2.9</v>
-      </c>
       <c r="O137">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="P137">
         <v>0.25</v>
       </c>
       <c r="Q137">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="R137">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S137">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T137">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U137">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V137">
         <v>-1</v>
       </c>
       <c r="W137">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0.375</v>
+        <v>0.475</v>
       </c>
       <c r="Z137">
         <v>-0.5</v>
       </c>
       <c r="AA137">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:28">
@@ -12294,16 +12297,16 @@
         <v>7862923</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D138" s="2">
         <v>45392.54166666666</v>
       </c>
       <c r="E138" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F138" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G138">
         <v>3</v>
@@ -12312,7 +12315,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J138">
         <v>1.333</v>
@@ -12380,16 +12383,16 @@
         <v>7865008</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D139" s="2">
         <v>45392.58333333334</v>
       </c>
       <c r="E139" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F139" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -12398,7 +12401,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J139">
         <v>1.333</v>
@@ -12466,16 +12469,16 @@
         <v>7862924</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D140" s="2">
         <v>45395.375</v>
       </c>
       <c r="E140" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -12484,7 +12487,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J140">
         <v>2.5</v>
@@ -12552,16 +12555,16 @@
         <v>7862045</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D141" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E141" t="s">
+        <v>36</v>
+      </c>
+      <c r="F141" t="s">
         <v>35</v>
-      </c>
-      <c r="F141" t="s">
-        <v>34</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -12570,7 +12573,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J141">
         <v>3.4</v>
@@ -12638,16 +12641,16 @@
         <v>7862925</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D142" s="2">
         <v>45396.29166666666</v>
       </c>
       <c r="E142" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F142" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -12656,7 +12659,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J142">
         <v>3.75</v>
@@ -12724,16 +12727,16 @@
         <v>7862046</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D143" s="2">
         <v>45396.375</v>
       </c>
       <c r="E143" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -12742,7 +12745,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J143">
         <v>3.75</v>
@@ -12810,16 +12813,16 @@
         <v>7862047</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D144" s="2">
         <v>45402.375</v>
       </c>
       <c r="E144" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -12828,7 +12831,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J144">
         <v>1.444</v>
@@ -12896,16 +12899,16 @@
         <v>7862927</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D145" s="2">
         <v>45402.5</v>
       </c>
       <c r="E145" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12914,7 +12917,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -12982,16 +12985,16 @@
         <v>7862928</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D146" s="2">
         <v>45403.29166666666</v>
       </c>
       <c r="E146" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13000,7 +13003,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J146">
         <v>1.8</v>
@@ -13068,16 +13071,16 @@
         <v>7862929</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D147" s="2">
         <v>45403.375</v>
       </c>
       <c r="E147" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G147">
         <v>2</v>
@@ -13086,7 +13089,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J147">
         <v>1.4</v>
@@ -13154,16 +13157,16 @@
         <v>7862048</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D148" s="2">
         <v>45403.51736111111</v>
       </c>
       <c r="E148" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F148" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13172,7 +13175,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J148">
         <v>1.333</v>
@@ -13236,344 +13239,65 @@
       <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149">
-        <v>7862049</v>
+      <c r="B149" t="s">
+        <v>27</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D149" s="2">
-        <v>45405.54166666666</v>
+        <v>45410.29166666666</v>
       </c>
       <c r="E149" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
-      </c>
-      <c r="G149">
-        <v>0</v>
-      </c>
-      <c r="H149">
-        <v>1</v>
-      </c>
-      <c r="I149" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J149">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="K149">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L149">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="M149">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="N149">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="O149">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P149">
         <v>-0.25</v>
       </c>
       <c r="Q149">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R149">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S149">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="T149">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="U149">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V149">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X149">
-        <v>2.4</v>
-      </c>
-      <c r="Y149">
-        <v>-1</v>
-      </c>
-      <c r="Z149">
-        <v>1</v>
-      </c>
-      <c r="AA149">
-        <v>-1</v>
-      </c>
-      <c r="AB149">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="150" spans="1:28">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="B150">
-        <v>7862930</v>
-      </c>
-      <c r="C150" t="s">
-        <v>27</v>
-      </c>
-      <c r="D150" s="2">
-        <v>45406.5</v>
-      </c>
-      <c r="E150" t="s">
-        <v>38</v>
-      </c>
-      <c r="F150" t="s">
-        <v>34</v>
-      </c>
-      <c r="G150">
-        <v>1</v>
-      </c>
-      <c r="H150">
-        <v>2</v>
-      </c>
-      <c r="I150" t="s">
-        <v>41</v>
-      </c>
-      <c r="J150">
-        <v>4</v>
-      </c>
-      <c r="K150">
-        <v>2.9</v>
-      </c>
-      <c r="L150">
-        <v>1.909</v>
-      </c>
-      <c r="M150">
-        <v>4.5</v>
-      </c>
-      <c r="N150">
-        <v>3.1</v>
-      </c>
-      <c r="O150">
-        <v>1.727</v>
-      </c>
-      <c r="P150">
-        <v>0.5</v>
-      </c>
-      <c r="Q150">
-        <v>2</v>
-      </c>
-      <c r="R150">
-        <v>1.8</v>
-      </c>
-      <c r="S150">
-        <v>2.25</v>
-      </c>
-      <c r="T150">
-        <v>2</v>
-      </c>
-      <c r="U150">
-        <v>1.8</v>
-      </c>
-      <c r="V150">
-        <v>-1</v>
-      </c>
-      <c r="W150">
-        <v>-1</v>
-      </c>
-      <c r="X150">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="Y150">
-        <v>-1</v>
-      </c>
-      <c r="Z150">
-        <v>0.8</v>
-      </c>
-      <c r="AA150">
-        <v>1</v>
-      </c>
-      <c r="AB150">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:28">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
-      <c r="B151">
-        <v>7862932</v>
-      </c>
-      <c r="C151" t="s">
-        <v>27</v>
-      </c>
-      <c r="D151" s="2">
-        <v>45406.54166666666</v>
-      </c>
-      <c r="E151" t="s">
-        <v>37</v>
-      </c>
-      <c r="F151" t="s">
-        <v>30</v>
-      </c>
-      <c r="G151">
-        <v>0</v>
-      </c>
-      <c r="H151">
-        <v>3</v>
-      </c>
-      <c r="I151" t="s">
-        <v>41</v>
-      </c>
-      <c r="J151">
-        <v>1.4</v>
-      </c>
-      <c r="K151">
-        <v>4.333</v>
-      </c>
-      <c r="L151">
-        <v>6</v>
-      </c>
-      <c r="M151">
-        <v>1.45</v>
-      </c>
-      <c r="N151">
-        <v>4.75</v>
-      </c>
-      <c r="O151">
-        <v>4.5</v>
-      </c>
-      <c r="P151">
-        <v>-1</v>
-      </c>
-      <c r="Q151">
-        <v>1.85</v>
-      </c>
-      <c r="R151">
-        <v>1.95</v>
-      </c>
-      <c r="S151">
-        <v>2.25</v>
-      </c>
-      <c r="T151">
-        <v>1.875</v>
-      </c>
-      <c r="U151">
-        <v>1.925</v>
-      </c>
-      <c r="V151">
-        <v>-1</v>
-      </c>
-      <c r="W151">
-        <v>-1</v>
-      </c>
-      <c r="X151">
-        <v>3.5</v>
-      </c>
-      <c r="Y151">
-        <v>-1</v>
-      </c>
-      <c r="Z151">
-        <v>0.95</v>
-      </c>
-      <c r="AA151">
-        <v>0.875</v>
-      </c>
-      <c r="AB151">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:28">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="B152">
-        <v>7862050</v>
-      </c>
-      <c r="C152" t="s">
-        <v>27</v>
-      </c>
-      <c r="D152" s="2">
-        <v>45406.58333333334</v>
-      </c>
-      <c r="E152" t="s">
-        <v>32</v>
-      </c>
-      <c r="F152" t="s">
-        <v>29</v>
-      </c>
-      <c r="G152">
-        <v>4</v>
-      </c>
-      <c r="H152">
-        <v>0</v>
-      </c>
-      <c r="I152" t="s">
-        <v>40</v>
-      </c>
-      <c r="J152">
-        <v>1.363</v>
-      </c>
-      <c r="K152">
-        <v>4.333</v>
-      </c>
-      <c r="L152">
-        <v>6.5</v>
-      </c>
-      <c r="M152">
-        <v>1.2</v>
-      </c>
-      <c r="N152">
-        <v>5.5</v>
-      </c>
-      <c r="O152">
-        <v>10</v>
-      </c>
-      <c r="P152">
-        <v>-1.75</v>
-      </c>
-      <c r="Q152">
-        <v>1.95</v>
-      </c>
-      <c r="R152">
-        <v>1.85</v>
-      </c>
-      <c r="S152">
-        <v>2.5</v>
-      </c>
-      <c r="T152">
-        <v>1.825</v>
-      </c>
-      <c r="U152">
-        <v>1.975</v>
-      </c>
-      <c r="V152">
-        <v>0.2</v>
-      </c>
-      <c r="W152">
-        <v>-1</v>
-      </c>
-      <c r="X152">
-        <v>-1</v>
-      </c>
-      <c r="Y152">
-        <v>0.95</v>
-      </c>
-      <c r="Z152">
-        <v>-1</v>
-      </c>
-      <c r="AA152">
-        <v>0.825</v>
-      </c>
-      <c r="AB152">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -97,7 +97,19 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
+    <t>7862933</t>
+  </si>
+  <si>
     <t>7862934</t>
+  </si>
+  <si>
+    <t>7862935</t>
+  </si>
+  <si>
+    <t>7862051</t>
+  </si>
+  <si>
+    <t>7862936</t>
   </si>
   <si>
     <t>Lithuania A Lyga</t>
@@ -504,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB149"/>
+  <dimension ref="A1:AB157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,16 +613,16 @@
         <v>6227963</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2">
         <v>45079.5</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -619,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J2">
         <v>5.5</v>
@@ -687,16 +699,16 @@
         <v>6227964</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2">
         <v>45080.375</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -705,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J3">
         <v>1.85</v>
@@ -773,16 +785,16 @@
         <v>6227965</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2">
         <v>45080.45833333334</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -791,7 +803,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J4">
         <v>2.4</v>
@@ -859,16 +871,16 @@
         <v>6227966</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2">
         <v>45080.54166666666</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -877,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -945,16 +957,16 @@
         <v>6227242</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2">
         <v>45081.49652777778</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -963,7 +975,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J6">
         <v>1.571</v>
@@ -1031,16 +1043,16 @@
         <v>6227967</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2">
         <v>45083.5</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1049,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J7">
         <v>2.3</v>
@@ -1117,16 +1129,16 @@
         <v>6227968</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2">
         <v>45083.58333333334</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1135,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J8">
         <v>4.333</v>
@@ -1203,16 +1215,16 @@
         <v>6227969</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2">
         <v>45084.5</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1221,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J9">
         <v>5.5</v>
@@ -1289,16 +1301,16 @@
         <v>6227970</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2">
         <v>45084.54166666666</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1307,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J10">
         <v>3.3</v>
@@ -1375,16 +1387,16 @@
         <v>6227243</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2">
         <v>45084.58333333334</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1393,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J11">
         <v>3.25</v>
@@ -1461,16 +1473,16 @@
         <v>6227971</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2">
         <v>45087.45833333334</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1479,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J12">
         <v>2.75</v>
@@ -1547,16 +1559,16 @@
         <v>6227972</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2">
         <v>45087.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1565,7 +1577,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J13">
         <v>1.533</v>
@@ -1633,16 +1645,16 @@
         <v>6227244</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2">
         <v>45088.41666666666</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1651,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J14">
         <v>1.333</v>
@@ -1719,16 +1731,16 @@
         <v>6227973</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2">
         <v>45088.49652777778</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -1737,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J15">
         <v>1.3</v>
@@ -1805,16 +1817,16 @@
         <v>6732710</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2">
         <v>45099.54166666666</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1823,7 +1835,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J16">
         <v>11</v>
@@ -1891,16 +1903,16 @@
         <v>6732766</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2">
         <v>45099.58333333334</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1909,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J17">
         <v>1.363</v>
@@ -1977,16 +1989,16 @@
         <v>6732767</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2">
         <v>45101.29166666666</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1995,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J18">
         <v>1.727</v>
@@ -2063,16 +2075,16 @@
         <v>6732768</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2">
         <v>45101.54166666666</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2081,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J19">
         <v>1.4</v>
@@ -2149,16 +2161,16 @@
         <v>6732769</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2">
         <v>45102.5</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2167,7 +2179,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J20">
         <v>6</v>
@@ -2235,16 +2247,16 @@
         <v>6732713</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2">
         <v>45104.54166666666</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2253,7 +2265,7 @@
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J21">
         <v>3.25</v>
@@ -2321,16 +2333,16 @@
         <v>6732778</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2">
         <v>45105.54166666666</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2339,7 +2351,7 @@
         <v>3</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J22">
         <v>1.571</v>
@@ -2407,16 +2419,16 @@
         <v>6732770</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D23" s="2">
         <v>45107.5</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2425,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J23">
         <v>1.444</v>
@@ -2493,16 +2505,16 @@
         <v>6732771</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2">
         <v>45108.5</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2511,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J24">
         <v>3.6</v>
@@ -2579,16 +2591,16 @@
         <v>6732772</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D25" s="2">
         <v>45109.49652777778</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -2597,7 +2609,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J25">
         <v>3.1</v>
@@ -2665,16 +2677,16 @@
         <v>6732773</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2">
         <v>45109.58333333334</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2683,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J26">
         <v>5</v>
@@ -2751,16 +2763,16 @@
         <v>6732711</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D27" s="2">
         <v>45109.58333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2769,7 +2781,7 @@
         <v>4</v>
       </c>
       <c r="I27" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J27">
         <v>5</v>
@@ -2837,16 +2849,16 @@
         <v>6732712</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D28" s="2">
         <v>45113.54166666666</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -2855,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J28">
         <v>1.4</v>
@@ -2923,16 +2935,16 @@
         <v>6732774</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D29" s="2">
         <v>45114.54166666666</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -2941,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J29">
         <v>1.8</v>
@@ -3009,16 +3021,16 @@
         <v>6732775</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2">
         <v>45115.45833333334</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3027,7 +3039,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J30">
         <v>5.5</v>
@@ -3095,16 +3107,16 @@
         <v>6732776</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D31" s="2">
         <v>45115.54166666666</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3113,7 +3125,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J31">
         <v>1.333</v>
@@ -3181,16 +3193,16 @@
         <v>6732777</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D32" s="2">
         <v>45116.49652777778</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3199,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J32">
         <v>1.909</v>
@@ -3267,16 +3279,16 @@
         <v>6732779</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D33" s="2">
         <v>45121.54166666666</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3285,7 +3297,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J33">
         <v>2.15</v>
@@ -3353,16 +3365,16 @@
         <v>6901957</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D34" s="2">
         <v>45123.49652777778</v>
       </c>
       <c r="E34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" t="s">
         <v>34</v>
-      </c>
-      <c r="F34" t="s">
-        <v>30</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3371,7 +3383,7 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J34">
         <v>3</v>
@@ -3439,16 +3451,16 @@
         <v>6732786</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D35" s="2">
         <v>45125.58333333334</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3457,7 +3469,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J35">
         <v>4.8</v>
@@ -3525,16 +3537,16 @@
         <v>6732714</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D36" s="2">
         <v>45128.54166666666</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -3543,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J36">
         <v>1.222</v>
@@ -3611,16 +3623,16 @@
         <v>6732782</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D37" s="2">
         <v>45129.54166666666</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3629,7 +3641,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J37">
         <v>2.375</v>
@@ -3697,16 +3709,16 @@
         <v>6732784</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D38" s="2">
         <v>45130.49652777778</v>
       </c>
       <c r="E38" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3715,7 +3727,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J38">
         <v>3</v>
@@ -3783,16 +3795,16 @@
         <v>6732785</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D39" s="2">
         <v>45131.58333333334</v>
       </c>
       <c r="E39" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -3801,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J39">
         <v>1.666</v>
@@ -3869,16 +3881,16 @@
         <v>6732783</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D40" s="2">
         <v>45132.54166666666</v>
       </c>
       <c r="E40" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3887,7 +3899,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J40">
         <v>4.333</v>
@@ -3955,16 +3967,16 @@
         <v>6732787</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D41" s="2">
         <v>45135.54166666666</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3973,7 +3985,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J41">
         <v>3.1</v>
@@ -4041,16 +4053,16 @@
         <v>6732788</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D42" s="2">
         <v>45136.5</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4059,7 +4071,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J42">
         <v>2.45</v>
@@ -4127,16 +4139,16 @@
         <v>6732789</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D43" s="2">
         <v>45137.5</v>
       </c>
       <c r="E43" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4145,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J43">
         <v>1.5</v>
@@ -4213,16 +4225,16 @@
         <v>6983663</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D44" s="2">
         <v>45137.625</v>
       </c>
       <c r="E44" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4231,7 +4243,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J44">
         <v>2.1</v>
@@ -4299,16 +4311,16 @@
         <v>6732790</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D45" s="2">
         <v>45142.54166666666</v>
       </c>
       <c r="E45" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4317,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J45">
         <v>2.5</v>
@@ -4385,16 +4397,16 @@
         <v>6732791</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D46" s="2">
         <v>45143.5</v>
       </c>
       <c r="E46" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4403,7 +4415,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J46">
         <v>2</v>
@@ -4471,17 +4483,17 @@
         <v>7012025</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D47" s="2">
         <v>45144.49652777778</v>
       </c>
       <c r="E47" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" t="s">
         <v>37</v>
       </c>
-      <c r="F47" t="s">
-        <v>33</v>
-      </c>
       <c r="G47">
         <v>0</v>
       </c>
@@ -4489,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J47">
         <v>3.5</v>
@@ -4557,16 +4569,16 @@
         <v>6732793</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D48" s="2">
         <v>45144.54166666666</v>
       </c>
       <c r="E48" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4575,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J48">
         <v>1.444</v>
@@ -4643,16 +4655,16 @@
         <v>7012024</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D49" s="2">
         <v>45145.54166666666</v>
       </c>
       <c r="E49" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -4661,7 +4673,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J49">
         <v>1.85</v>
@@ -4726,67 +4738,67 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6732794</v>
+        <v>6732795</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D50" s="2">
         <v>45149.54166666666</v>
       </c>
       <c r="E50" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>45</v>
+      </c>
+      <c r="J50">
+        <v>2.15</v>
+      </c>
+      <c r="K50">
+        <v>3.2</v>
+      </c>
+      <c r="L50">
         <v>3</v>
       </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50" t="s">
-        <v>41</v>
-      </c>
-      <c r="J50">
-        <v>1.25</v>
-      </c>
-      <c r="K50">
-        <v>5</v>
-      </c>
-      <c r="L50">
-        <v>9</v>
-      </c>
       <c r="M50">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="N50">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="O50">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="P50">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q50">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R50">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S50">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T50">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U50">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>0.25</v>
+        <v>1.3</v>
       </c>
       <c r="W50">
         <v>-1</v>
@@ -4795,16 +4807,16 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -4812,85 +4824,85 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6732795</v>
+        <v>6732794</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D51" s="2">
         <v>45149.54166666666</v>
       </c>
       <c r="E51" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>45</v>
+      </c>
+      <c r="J51">
+        <v>1.25</v>
+      </c>
+      <c r="K51">
+        <v>5</v>
+      </c>
+      <c r="L51">
+        <v>9</v>
+      </c>
+      <c r="M51">
+        <v>1.25</v>
+      </c>
+      <c r="N51">
+        <v>5.25</v>
+      </c>
+      <c r="O51">
+        <v>9</v>
+      </c>
+      <c r="P51">
+        <v>-1.75</v>
+      </c>
+      <c r="Q51">
+        <v>2</v>
+      </c>
+      <c r="R51">
+        <v>1.8</v>
+      </c>
+      <c r="S51">
+        <v>3</v>
+      </c>
+      <c r="T51">
+        <v>1.975</v>
+      </c>
+      <c r="U51">
+        <v>1.825</v>
+      </c>
+      <c r="V51">
+        <v>0.25</v>
+      </c>
+      <c r="W51">
+        <v>-1</v>
+      </c>
+      <c r="X51">
+        <v>-1</v>
+      </c>
+      <c r="Y51">
         <v>1</v>
       </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51" t="s">
-        <v>41</v>
-      </c>
-      <c r="J51">
-        <v>2.15</v>
-      </c>
-      <c r="K51">
-        <v>3.2</v>
-      </c>
-      <c r="L51">
-        <v>3</v>
-      </c>
-      <c r="M51">
-        <v>2.3</v>
-      </c>
-      <c r="N51">
-        <v>3.2</v>
-      </c>
-      <c r="O51">
-        <v>2.7</v>
-      </c>
-      <c r="P51">
-        <v>-0.25</v>
-      </c>
-      <c r="Q51">
-        <v>2.05</v>
-      </c>
-      <c r="R51">
-        <v>1.75</v>
-      </c>
-      <c r="S51">
-        <v>2.25</v>
-      </c>
-      <c r="T51">
-        <v>1.9</v>
-      </c>
-      <c r="U51">
-        <v>1.9</v>
-      </c>
-      <c r="V51">
-        <v>1.3</v>
-      </c>
-      <c r="W51">
-        <v>-1</v>
-      </c>
-      <c r="X51">
-        <v>-1</v>
-      </c>
-      <c r="Y51">
-        <v>1.05</v>
-      </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB51">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -4901,16 +4913,16 @@
         <v>6732796</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D52" s="2">
         <v>45151.375</v>
       </c>
       <c r="E52" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4919,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J52">
         <v>1.222</v>
@@ -4987,16 +4999,16 @@
         <v>6732797</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D53" s="2">
         <v>45151.49652777778</v>
       </c>
       <c r="E53" t="s">
+        <v>42</v>
+      </c>
+      <c r="F53" t="s">
         <v>38</v>
-      </c>
-      <c r="F53" t="s">
-        <v>34</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -5005,7 +5017,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J53">
         <v>1.444</v>
@@ -5073,16 +5085,16 @@
         <v>6732717</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D54" s="2">
         <v>45151.58333333334</v>
       </c>
       <c r="E54" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G54">
         <v>4</v>
@@ -5091,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J54">
         <v>1.444</v>
@@ -5159,16 +5171,16 @@
         <v>6732798</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D55" s="2">
         <v>45156.54166666666</v>
       </c>
       <c r="E55" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5177,7 +5189,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J55">
         <v>2.2</v>
@@ -5245,16 +5257,16 @@
         <v>6732799</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D56" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E56" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5263,7 +5275,7 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J56">
         <v>9</v>
@@ -5331,16 +5343,16 @@
         <v>6732800</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D57" s="2">
         <v>45157.5</v>
       </c>
       <c r="E57" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5349,7 +5361,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J57">
         <v>5.5</v>
@@ -5417,16 +5429,16 @@
         <v>6732718</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D58" s="2">
         <v>45158.49652777778</v>
       </c>
       <c r="E58" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5435,7 +5447,7 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J58">
         <v>6</v>
@@ -5503,16 +5515,16 @@
         <v>6732801</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D59" s="2">
         <v>45158.54166666666</v>
       </c>
       <c r="E59" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5521,7 +5533,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J59">
         <v>2.2</v>
@@ -5589,16 +5601,16 @@
         <v>6732802</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D60" s="2">
         <v>45163.54166666666</v>
       </c>
       <c r="E60" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5607,7 +5619,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J60">
         <v>4.5</v>
@@ -5675,16 +5687,16 @@
         <v>6732803</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D61" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E61" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -5693,7 +5705,7 @@
         <v>6</v>
       </c>
       <c r="I61" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J61">
         <v>2.8</v>
@@ -5761,16 +5773,16 @@
         <v>6732804</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D62" s="2">
         <v>45164.54166666666</v>
       </c>
       <c r="E62" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5779,7 +5791,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J62">
         <v>3.6</v>
@@ -5847,16 +5859,16 @@
         <v>6732805</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D63" s="2">
         <v>45165.375</v>
       </c>
       <c r="E63" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5865,7 +5877,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J63">
         <v>1.222</v>
@@ -5933,16 +5945,16 @@
         <v>6732719</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D64" s="2">
         <v>45165.49652777778</v>
       </c>
       <c r="E64" t="s">
+        <v>37</v>
+      </c>
+      <c r="F64" t="s">
         <v>33</v>
-      </c>
-      <c r="F64" t="s">
-        <v>29</v>
       </c>
       <c r="G64">
         <v>4</v>
@@ -5951,7 +5963,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J64">
         <v>1.25</v>
@@ -6019,16 +6031,16 @@
         <v>7143716</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D65" s="2">
         <v>45171.29166666666</v>
       </c>
       <c r="E65" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6037,7 +6049,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J65">
         <v>12</v>
@@ -6105,16 +6117,16 @@
         <v>6732807</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D66" s="2">
         <v>45171.375</v>
       </c>
       <c r="E66" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6123,7 +6135,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J66">
         <v>1.3</v>
@@ -6191,16 +6203,16 @@
         <v>6732808</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D67" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6209,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J67">
         <v>1.7</v>
@@ -6277,16 +6289,16 @@
         <v>6732809</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D68" s="2">
         <v>45172.49652777778</v>
       </c>
       <c r="E68" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6295,7 +6307,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J68">
         <v>1.833</v>
@@ -6363,16 +6375,16 @@
         <v>6732720</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D69" s="2">
         <v>45172.5</v>
       </c>
       <c r="E69" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6381,7 +6393,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J69">
         <v>1.125</v>
@@ -6449,16 +6461,16 @@
         <v>7202207</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D70" s="2">
         <v>45185.375</v>
       </c>
       <c r="E70" t="s">
+        <v>40</v>
+      </c>
+      <c r="F70" t="s">
         <v>36</v>
-      </c>
-      <c r="F70" t="s">
-        <v>32</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6467,7 +6479,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J70">
         <v>4</v>
@@ -6535,16 +6547,16 @@
         <v>6732812</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D71" s="2">
         <v>45185.5</v>
       </c>
       <c r="E71" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6553,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J71">
         <v>2.5</v>
@@ -6621,16 +6633,16 @@
         <v>6732813</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D72" s="2">
         <v>45186.375</v>
       </c>
       <c r="E72" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6639,7 +6651,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J72">
         <v>1.285</v>
@@ -6707,16 +6719,16 @@
         <v>6732721</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D73" s="2">
         <v>45186.49652777778</v>
       </c>
       <c r="E73" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -6725,7 +6737,7 @@
         <v>6</v>
       </c>
       <c r="I73" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J73">
         <v>6</v>
@@ -6793,16 +6805,16 @@
         <v>6732814</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D74" s="2">
         <v>45191.5</v>
       </c>
       <c r="E74" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6811,7 +6823,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J74">
         <v>1.8</v>
@@ -6879,16 +6891,16 @@
         <v>6732815</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D75" s="2">
         <v>45192.375</v>
       </c>
       <c r="E75" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -6897,7 +6909,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J75">
         <v>2.375</v>
@@ -6965,16 +6977,16 @@
         <v>6732816</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D76" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E76" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -6983,7 +6995,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J76">
         <v>1.125</v>
@@ -7051,16 +7063,16 @@
         <v>6732817</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D77" s="2">
         <v>45193.375</v>
       </c>
       <c r="E77" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G77">
         <v>3</v>
@@ -7069,7 +7081,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J77">
         <v>2.25</v>
@@ -7137,16 +7149,16 @@
         <v>6732722</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D78" s="2">
         <v>45193.49652777778</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7155,7 +7167,7 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J78">
         <v>1.4</v>
@@ -7223,16 +7235,16 @@
         <v>6732820</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D79" s="2">
         <v>45197.54166666666</v>
       </c>
       <c r="E79" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7241,7 +7253,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J79">
         <v>1.6</v>
@@ -7309,16 +7321,16 @@
         <v>6732818</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D80" s="2">
         <v>45198.5</v>
       </c>
       <c r="E80" t="s">
+        <v>39</v>
+      </c>
+      <c r="F80" t="s">
         <v>35</v>
-      </c>
-      <c r="F80" t="s">
-        <v>31</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7327,7 +7339,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J80">
         <v>1.4</v>
@@ -7395,16 +7407,16 @@
         <v>6732723</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D81" s="2">
         <v>45199.375</v>
       </c>
       <c r="E81" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7413,7 +7425,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J81">
         <v>5</v>
@@ -7481,16 +7493,16 @@
         <v>6732819</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D82" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E82" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -7499,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J82">
         <v>2.2</v>
@@ -7567,16 +7579,16 @@
         <v>6732823</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D83" s="2">
         <v>45206.375</v>
       </c>
       <c r="E83" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7585,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J83">
         <v>1.65</v>
@@ -7653,16 +7665,16 @@
         <v>6732824</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D84" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E84" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7671,7 +7683,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J84">
         <v>1.909</v>
@@ -7739,16 +7751,16 @@
         <v>6732825</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D85" s="2">
         <v>45206.54166666666</v>
       </c>
       <c r="E85" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7757,7 +7769,7 @@
         <v>3</v>
       </c>
       <c r="I85" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J85">
         <v>4.5</v>
@@ -7825,16 +7837,16 @@
         <v>7299034</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D86" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E86" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7843,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J86">
         <v>1.45</v>
@@ -7911,16 +7923,16 @@
         <v>6732724</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D87" s="2">
         <v>45207.49652777778</v>
       </c>
       <c r="E87" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7929,7 +7941,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J87">
         <v>1.909</v>
@@ -7997,16 +8009,16 @@
         <v>6732826</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D88" s="2">
         <v>45219.5</v>
       </c>
       <c r="E88" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8015,7 +8027,7 @@
         <v>2</v>
       </c>
       <c r="I88" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J88">
         <v>2.25</v>
@@ -8083,16 +8095,16 @@
         <v>6732827</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D89" s="2">
         <v>45220.375</v>
       </c>
       <c r="E89" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -8101,7 +8113,7 @@
         <v>2</v>
       </c>
       <c r="I89" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J89">
         <v>6</v>
@@ -8169,16 +8181,16 @@
         <v>7326568</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D90" s="2">
         <v>45220.375</v>
       </c>
       <c r="E90" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8187,7 +8199,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J90">
         <v>2.375</v>
@@ -8255,16 +8267,16 @@
         <v>6732828</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D91" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E91" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8273,7 +8285,7 @@
         <v>2</v>
       </c>
       <c r="I91" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J91">
         <v>2.625</v>
@@ -8341,16 +8353,16 @@
         <v>6732725</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D92" s="2">
         <v>45221.49652777778</v>
       </c>
       <c r="E92" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -8359,7 +8371,7 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J92">
         <v>1.571</v>
@@ -8427,16 +8439,16 @@
         <v>7216318</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D93" s="2">
         <v>45224.5</v>
       </c>
       <c r="E93" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8445,7 +8457,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J93">
         <v>4.75</v>
@@ -8513,16 +8525,16 @@
         <v>6732811</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D94" s="2">
         <v>45224.52083333334</v>
       </c>
       <c r="E94" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -8531,7 +8543,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J94">
         <v>3.1</v>
@@ -8599,16 +8611,16 @@
         <v>6732835</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D95" s="2">
         <v>45228.41666666666</v>
       </c>
       <c r="E95" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G95">
         <v>4</v>
@@ -8617,7 +8629,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J95">
         <v>2.5</v>
@@ -8685,16 +8697,16 @@
         <v>7259250</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D96" s="2">
         <v>45229.54166666666</v>
       </c>
       <c r="E96" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8703,7 +8715,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J96">
         <v>3.6</v>
@@ -8771,16 +8783,16 @@
         <v>6732831</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D97" s="2">
         <v>45234.33333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F97" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8789,7 +8801,7 @@
         <v>3</v>
       </c>
       <c r="I97" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J97">
         <v>5</v>
@@ -8857,16 +8869,16 @@
         <v>6732833</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D98" s="2">
         <v>45235.41666666666</v>
       </c>
       <c r="E98" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8875,7 +8887,7 @@
         <v>2</v>
       </c>
       <c r="I98" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J98">
         <v>6.5</v>
@@ -8943,16 +8955,16 @@
         <v>6732832</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D99" s="2">
         <v>45235.53819444445</v>
       </c>
       <c r="E99" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8961,7 +8973,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J99">
         <v>2.625</v>
@@ -9026,85 +9038,85 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6732834</v>
+        <v>7465686</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D100" s="2">
         <v>45242.41319444445</v>
       </c>
       <c r="E100" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J100">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="K100">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="L100">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="M100">
-        <v>1.45</v>
+        <v>2.55</v>
       </c>
       <c r="N100">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O100">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="P100">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q100">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="R100">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S100">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T100">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U100">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V100">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="W100">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z100">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB100">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9112,85 +9124,85 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6732727</v>
+        <v>6732837</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D101" s="2">
         <v>45242.41319444445</v>
       </c>
       <c r="E101" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>3</v>
+      </c>
+      <c r="I101" t="s">
+        <v>46</v>
+      </c>
+      <c r="J101">
+        <v>3.6</v>
+      </c>
+      <c r="K101">
+        <v>3.6</v>
+      </c>
+      <c r="L101">
+        <v>1.8</v>
+      </c>
+      <c r="M101">
+        <v>3</v>
+      </c>
+      <c r="N101">
+        <v>3.6</v>
+      </c>
+      <c r="O101">
+        <v>2</v>
+      </c>
+      <c r="P101">
+        <v>0.25</v>
+      </c>
+      <c r="Q101">
+        <v>2</v>
+      </c>
+      <c r="R101">
+        <v>1.8</v>
+      </c>
+      <c r="S101">
+        <v>2.5</v>
+      </c>
+      <c r="T101">
+        <v>1.975</v>
+      </c>
+      <c r="U101">
+        <v>1.825</v>
+      </c>
+      <c r="V101">
+        <v>-1</v>
+      </c>
+      <c r="W101">
+        <v>-1</v>
+      </c>
+      <c r="X101">
         <v>1</v>
       </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-      <c r="I101" t="s">
-        <v>41</v>
-      </c>
-      <c r="J101">
-        <v>1.285</v>
-      </c>
-      <c r="K101">
-        <v>5.5</v>
-      </c>
-      <c r="L101">
-        <v>6.5</v>
-      </c>
-      <c r="M101">
-        <v>1.3</v>
-      </c>
-      <c r="N101">
-        <v>5.5</v>
-      </c>
-      <c r="O101">
-        <v>6</v>
-      </c>
-      <c r="P101">
-        <v>-1.5</v>
-      </c>
-      <c r="Q101">
-        <v>1.9</v>
-      </c>
-      <c r="R101">
-        <v>1.9</v>
-      </c>
-      <c r="S101">
-        <v>2.75</v>
-      </c>
-      <c r="T101">
-        <v>1.8</v>
-      </c>
-      <c r="U101">
-        <v>2</v>
-      </c>
-      <c r="V101">
-        <v>0.3</v>
-      </c>
-      <c r="W101">
-        <v>-1</v>
-      </c>
-      <c r="X101">
-        <v>-1</v>
-      </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB101">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:28">
@@ -9198,85 +9210,85 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7465686</v>
+        <v>6732834</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D102" s="2">
         <v>45242.41319444445</v>
       </c>
       <c r="E102" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G102">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J102">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="K102">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="L102">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="M102">
-        <v>2.55</v>
+        <v>1.45</v>
       </c>
       <c r="N102">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O102">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="P102">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q102">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R102">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S102">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T102">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U102">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V102">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA102">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -9284,10 +9296,10 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6732836</v>
+        <v>6732727</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D103" s="2">
         <v>45242.41319444445</v>
@@ -9296,37 +9308,37 @@
         <v>37</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J103">
-        <v>1.222</v>
+        <v>1.285</v>
       </c>
       <c r="K103">
         <v>5.5</v>
       </c>
       <c r="L103">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="M103">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="N103">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="O103">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P103">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q103">
         <v>1.9</v>
@@ -9335,16 +9347,16 @@
         <v>1.9</v>
       </c>
       <c r="S103">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T103">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U103">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V103">
-        <v>0.363</v>
+        <v>0.3</v>
       </c>
       <c r="W103">
         <v>-1</v>
@@ -9353,16 +9365,16 @@
         <v>-1</v>
       </c>
       <c r="Y103">
+        <v>-1</v>
+      </c>
+      <c r="Z103">
         <v>0.8999999999999999</v>
       </c>
-      <c r="Z103">
-        <v>-1</v>
-      </c>
       <c r="AA103">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:28">
@@ -9370,55 +9382,55 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6732837</v>
+        <v>6732836</v>
       </c>
       <c r="C104" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D104" s="2">
         <v>45242.41319444445</v>
       </c>
       <c r="E104" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J104">
-        <v>3.6</v>
+        <v>1.222</v>
       </c>
       <c r="K104">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="L104">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="M104">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="N104">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O104">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P104">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q104">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R104">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S104">
         <v>2.5</v>
@@ -9430,19 +9442,19 @@
         <v>1.825</v>
       </c>
       <c r="V104">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z104">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
         <v>0.9750000000000001</v>
@@ -9459,16 +9471,16 @@
         <v>7862033</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D105" s="2">
         <v>45352.58333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9477,7 +9489,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J105">
         <v>4.333</v>
@@ -9545,16 +9557,16 @@
         <v>7862902</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D106" s="2">
         <v>45353.33333333334</v>
       </c>
       <c r="E106" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9563,7 +9575,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J106">
         <v>7.5</v>
@@ -9631,16 +9643,16 @@
         <v>7862903</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D107" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E107" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F107" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9649,7 +9661,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -9717,16 +9729,16 @@
         <v>7862034</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D108" s="2">
         <v>45354.33333333334</v>
       </c>
       <c r="E108" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9735,7 +9747,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J108">
         <v>6.5</v>
@@ -9803,16 +9815,16 @@
         <v>7862904</v>
       </c>
       <c r="C109" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D109" s="2">
         <v>45354.5625</v>
       </c>
       <c r="E109" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9821,7 +9833,7 @@
         <v>3</v>
       </c>
       <c r="I109" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J109">
         <v>1.8</v>
@@ -9889,16 +9901,16 @@
         <v>7862905</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D110" s="2">
         <v>45360.33333333334</v>
       </c>
       <c r="E110" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9907,7 +9919,7 @@
         <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J110">
         <v>2.1</v>
@@ -9975,16 +9987,16 @@
         <v>7862906</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D111" s="2">
         <v>45360.41666666666</v>
       </c>
       <c r="E111" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -9993,7 +10005,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J111">
         <v>2</v>
@@ -10061,16 +10073,16 @@
         <v>7862907</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D112" s="2">
         <v>45361.33333333334</v>
       </c>
       <c r="E112" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -10079,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J112">
         <v>1.4</v>
@@ -10147,16 +10159,16 @@
         <v>7862908</v>
       </c>
       <c r="C113" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D113" s="2">
         <v>45361.41666666666</v>
       </c>
       <c r="E113" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10165,7 +10177,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J113">
         <v>1.2</v>
@@ -10233,16 +10245,16 @@
         <v>7862035</v>
       </c>
       <c r="C114" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D114" s="2">
         <v>45361.5625</v>
       </c>
       <c r="E114" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G114">
         <v>3</v>
@@ -10251,7 +10263,7 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J114">
         <v>1.3</v>
@@ -10319,16 +10331,16 @@
         <v>7862909</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D115" s="2">
         <v>45363.54166666666</v>
       </c>
       <c r="E115" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -10337,7 +10349,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J115">
         <v>2</v>
@@ -10405,16 +10417,16 @@
         <v>7862910</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D116" s="2">
         <v>45364.5</v>
       </c>
       <c r="E116" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10423,7 +10435,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J116">
         <v>2.3</v>
@@ -10491,16 +10503,16 @@
         <v>7862036</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D117" s="2">
         <v>45364.54166666666</v>
       </c>
       <c r="E117" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10509,7 +10521,7 @@
         <v>4</v>
       </c>
       <c r="I117" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J117">
         <v>8</v>
@@ -10577,16 +10589,16 @@
         <v>7862911</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D118" s="2">
         <v>45364.54166666666</v>
       </c>
       <c r="E118" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G118">
         <v>2</v>
@@ -10595,7 +10607,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J118">
         <v>2.15</v>
@@ -10663,16 +10675,16 @@
         <v>7862037</v>
       </c>
       <c r="C119" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D119" s="2">
         <v>45364.63541666666</v>
       </c>
       <c r="E119" t="s">
+        <v>40</v>
+      </c>
+      <c r="F119" t="s">
         <v>36</v>
-      </c>
-      <c r="F119" t="s">
-        <v>32</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10681,7 +10693,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J119">
         <v>7.5</v>
@@ -10749,16 +10761,16 @@
         <v>7862038</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D120" s="2">
         <v>45367.375</v>
       </c>
       <c r="E120" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10767,7 +10779,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J120">
         <v>2.5</v>
@@ -10835,16 +10847,16 @@
         <v>7862912</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D121" s="2">
         <v>45367.4375</v>
       </c>
       <c r="E121" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -10853,7 +10865,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J121">
         <v>1.2</v>
@@ -10921,16 +10933,16 @@
         <v>7862913</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D122" s="2">
         <v>45368.375</v>
       </c>
       <c r="E122" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -10939,7 +10951,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J122">
         <v>2.2</v>
@@ -11007,16 +11019,16 @@
         <v>7862914</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D123" s="2">
         <v>45368.41666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11025,7 +11037,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J123">
         <v>2.5</v>
@@ -11093,16 +11105,16 @@
         <v>7862039</v>
       </c>
       <c r="C124" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D124" s="2">
         <v>45368.5625</v>
       </c>
       <c r="E124" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11111,7 +11123,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J124">
         <v>1.615</v>
@@ -11179,16 +11191,16 @@
         <v>7862915</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D125" s="2">
         <v>45380.58333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F125" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -11197,7 +11209,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J125">
         <v>2.6</v>
@@ -11265,16 +11277,16 @@
         <v>7862916</v>
       </c>
       <c r="C126" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D126" s="2">
         <v>45381.41666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G126">
         <v>4</v>
@@ -11283,7 +11295,7 @@
         <v>2</v>
       </c>
       <c r="I126" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J126">
         <v>2.5</v>
@@ -11351,16 +11363,16 @@
         <v>7862917</v>
       </c>
       <c r="C127" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D127" s="2">
         <v>45381.5</v>
       </c>
       <c r="E127" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -11369,7 +11381,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J127">
         <v>1.533</v>
@@ -11437,16 +11449,16 @@
         <v>7862040</v>
       </c>
       <c r="C128" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D128" s="2">
         <v>45382.375</v>
       </c>
       <c r="E128" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11455,7 +11467,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J128">
         <v>2.45</v>
@@ -11523,16 +11535,16 @@
         <v>7862042</v>
       </c>
       <c r="C129" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D129" s="2">
         <v>45382.51736111111</v>
       </c>
       <c r="E129" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -11541,7 +11553,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J129">
         <v>4</v>
@@ -11609,16 +11621,16 @@
         <v>7862918</v>
       </c>
       <c r="C130" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D130" s="2">
         <v>45388.375</v>
       </c>
       <c r="E130" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11627,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J130">
         <v>4.333</v>
@@ -11695,16 +11707,16 @@
         <v>7862919</v>
       </c>
       <c r="C131" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D131" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11713,7 +11725,7 @@
         <v>2</v>
       </c>
       <c r="I131" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J131">
         <v>2.25</v>
@@ -11781,16 +11793,16 @@
         <v>7865009</v>
       </c>
       <c r="C132" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D132" s="2">
         <v>45389.29166666666</v>
       </c>
       <c r="E132" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11799,7 +11811,7 @@
         <v>2</v>
       </c>
       <c r="I132" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J132">
         <v>1.833</v>
@@ -11867,16 +11879,16 @@
         <v>7862043</v>
       </c>
       <c r="C133" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D133" s="2">
         <v>45389.375</v>
       </c>
       <c r="E133" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G133">
         <v>3</v>
@@ -11885,7 +11897,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J133">
         <v>1.666</v>
@@ -11953,16 +11965,16 @@
         <v>7862920</v>
       </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D134" s="2">
         <v>45389.51736111111</v>
       </c>
       <c r="E134" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -11971,7 +11983,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J134">
         <v>2.75</v>
@@ -12039,16 +12051,16 @@
         <v>7862921</v>
       </c>
       <c r="C135" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D135" s="2">
         <v>45391.5</v>
       </c>
       <c r="E135" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F135" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12057,7 +12069,7 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J135">
         <v>1.75</v>
@@ -12125,16 +12137,16 @@
         <v>7862922</v>
       </c>
       <c r="C136" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D136" s="2">
         <v>45392.5</v>
       </c>
       <c r="E136" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -12143,7 +12155,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J136">
         <v>2.7</v>
@@ -12211,16 +12223,16 @@
         <v>7862044</v>
       </c>
       <c r="C137" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D137" s="2">
         <v>45392.5</v>
       </c>
       <c r="E137" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -12229,7 +12241,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J137">
         <v>2.1</v>
@@ -12297,16 +12309,16 @@
         <v>7862923</v>
       </c>
       <c r="C138" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D138" s="2">
         <v>45392.54166666666</v>
       </c>
       <c r="E138" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F138" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G138">
         <v>3</v>
@@ -12315,7 +12327,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J138">
         <v>1.333</v>
@@ -12383,16 +12395,16 @@
         <v>7865008</v>
       </c>
       <c r="C139" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D139" s="2">
         <v>45392.58333333334</v>
       </c>
       <c r="E139" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F139" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -12401,7 +12413,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J139">
         <v>1.333</v>
@@ -12469,16 +12481,16 @@
         <v>7862924</v>
       </c>
       <c r="C140" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D140" s="2">
         <v>45395.375</v>
       </c>
       <c r="E140" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -12487,7 +12499,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J140">
         <v>2.5</v>
@@ -12555,16 +12567,16 @@
         <v>7862045</v>
       </c>
       <c r="C141" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D141" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E141" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -12573,7 +12585,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J141">
         <v>3.4</v>
@@ -12641,16 +12653,16 @@
         <v>7862925</v>
       </c>
       <c r="C142" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D142" s="2">
         <v>45396.29166666666</v>
       </c>
       <c r="E142" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -12659,7 +12671,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J142">
         <v>3.75</v>
@@ -12727,16 +12739,16 @@
         <v>7862046</v>
       </c>
       <c r="C143" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D143" s="2">
         <v>45396.375</v>
       </c>
       <c r="E143" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -12745,7 +12757,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J143">
         <v>3.75</v>
@@ -12813,16 +12825,16 @@
         <v>7862047</v>
       </c>
       <c r="C144" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D144" s="2">
         <v>45402.375</v>
       </c>
       <c r="E144" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -12831,7 +12843,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J144">
         <v>1.444</v>
@@ -12899,16 +12911,16 @@
         <v>7862927</v>
       </c>
       <c r="C145" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D145" s="2">
         <v>45402.5</v>
       </c>
       <c r="E145" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12917,7 +12929,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -12985,16 +12997,16 @@
         <v>7862928</v>
       </c>
       <c r="C146" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D146" s="2">
         <v>45403.29166666666</v>
       </c>
       <c r="E146" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F146" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13003,7 +13015,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J146">
         <v>1.8</v>
@@ -13071,17 +13083,17 @@
         <v>7862929</v>
       </c>
       <c r="C147" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D147" s="2">
         <v>45403.375</v>
       </c>
       <c r="E147" t="s">
+        <v>39</v>
+      </c>
+      <c r="F147" t="s">
         <v>35</v>
       </c>
-      <c r="F147" t="s">
-        <v>31</v>
-      </c>
       <c r="G147">
         <v>2</v>
       </c>
@@ -13089,7 +13101,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J147">
         <v>1.4</v>
@@ -13157,16 +13169,16 @@
         <v>7862048</v>
       </c>
       <c r="C148" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D148" s="2">
         <v>45403.51736111111</v>
       </c>
       <c r="E148" t="s">
+        <v>37</v>
+      </c>
+      <c r="F148" t="s">
         <v>33</v>
-      </c>
-      <c r="F148" t="s">
-        <v>29</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13175,7 +13187,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J148">
         <v>1.333</v>
@@ -13239,64 +13251,668 @@
       <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="s">
-        <v>27</v>
+      <c r="B149">
+        <v>7862049</v>
       </c>
       <c r="C149" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D149" s="2">
-        <v>45410.29166666666</v>
+        <v>45405.54166666666</v>
       </c>
       <c r="E149" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="I149" t="s">
+        <v>46</v>
       </c>
       <c r="J149">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="K149">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L149">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="M149">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="N149">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="O149">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P149">
         <v>-0.25</v>
       </c>
       <c r="Q149">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R149">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S149">
+        <v>1.75</v>
+      </c>
+      <c r="T149">
+        <v>1.75</v>
+      </c>
+      <c r="U149">
+        <v>2.05</v>
+      </c>
+      <c r="V149">
+        <v>-1</v>
+      </c>
+      <c r="W149">
+        <v>-1</v>
+      </c>
+      <c r="X149">
+        <v>2.4</v>
+      </c>
+      <c r="Y149">
+        <v>-1</v>
+      </c>
+      <c r="Z149">
+        <v>1</v>
+      </c>
+      <c r="AA149">
+        <v>-1</v>
+      </c>
+      <c r="AB149">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="150" spans="1:28">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>7862930</v>
+      </c>
+      <c r="C150" t="s">
+        <v>32</v>
+      </c>
+      <c r="D150" s="2">
+        <v>45406.5</v>
+      </c>
+      <c r="E150" t="s">
+        <v>43</v>
+      </c>
+      <c r="F150" t="s">
+        <v>39</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+      <c r="H150">
+        <v>2</v>
+      </c>
+      <c r="I150" t="s">
+        <v>46</v>
+      </c>
+      <c r="J150">
+        <v>4</v>
+      </c>
+      <c r="K150">
+        <v>2.9</v>
+      </c>
+      <c r="L150">
+        <v>1.909</v>
+      </c>
+      <c r="M150">
+        <v>4.5</v>
+      </c>
+      <c r="N150">
+        <v>3.1</v>
+      </c>
+      <c r="O150">
+        <v>1.727</v>
+      </c>
+      <c r="P150">
+        <v>0.5</v>
+      </c>
+      <c r="Q150">
+        <v>2</v>
+      </c>
+      <c r="R150">
+        <v>1.8</v>
+      </c>
+      <c r="S150">
         <v>2.25</v>
       </c>
-      <c r="T149">
+      <c r="T150">
+        <v>2</v>
+      </c>
+      <c r="U150">
+        <v>1.8</v>
+      </c>
+      <c r="V150">
+        <v>-1</v>
+      </c>
+      <c r="W150">
+        <v>-1</v>
+      </c>
+      <c r="X150">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="Y150">
+        <v>-1</v>
+      </c>
+      <c r="Z150">
+        <v>0.8</v>
+      </c>
+      <c r="AA150">
+        <v>1</v>
+      </c>
+      <c r="AB150">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:28">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>7862932</v>
+      </c>
+      <c r="C151" t="s">
+        <v>32</v>
+      </c>
+      <c r="D151" s="2">
+        <v>45406.54166666666</v>
+      </c>
+      <c r="E151" t="s">
+        <v>42</v>
+      </c>
+      <c r="F151" t="s">
+        <v>35</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>3</v>
+      </c>
+      <c r="I151" t="s">
+        <v>46</v>
+      </c>
+      <c r="J151">
+        <v>1.4</v>
+      </c>
+      <c r="K151">
+        <v>4.333</v>
+      </c>
+      <c r="L151">
+        <v>6</v>
+      </c>
+      <c r="M151">
+        <v>1.45</v>
+      </c>
+      <c r="N151">
+        <v>4.75</v>
+      </c>
+      <c r="O151">
+        <v>4.5</v>
+      </c>
+      <c r="P151">
+        <v>-1</v>
+      </c>
+      <c r="Q151">
+        <v>1.85</v>
+      </c>
+      <c r="R151">
+        <v>1.95</v>
+      </c>
+      <c r="S151">
+        <v>2.25</v>
+      </c>
+      <c r="T151">
+        <v>1.875</v>
+      </c>
+      <c r="U151">
+        <v>1.925</v>
+      </c>
+      <c r="V151">
+        <v>-1</v>
+      </c>
+      <c r="W151">
+        <v>-1</v>
+      </c>
+      <c r="X151">
+        <v>3.5</v>
+      </c>
+      <c r="Y151">
+        <v>-1</v>
+      </c>
+      <c r="Z151">
+        <v>0.95</v>
+      </c>
+      <c r="AA151">
+        <v>0.875</v>
+      </c>
+      <c r="AB151">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:28">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>7862050</v>
+      </c>
+      <c r="C152" t="s">
+        <v>32</v>
+      </c>
+      <c r="D152" s="2">
+        <v>45406.58333333334</v>
+      </c>
+      <c r="E152" t="s">
+        <v>37</v>
+      </c>
+      <c r="F152" t="s">
+        <v>34</v>
+      </c>
+      <c r="G152">
+        <v>4</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152" t="s">
+        <v>45</v>
+      </c>
+      <c r="J152">
+        <v>1.363</v>
+      </c>
+      <c r="K152">
+        <v>4.333</v>
+      </c>
+      <c r="L152">
+        <v>6.5</v>
+      </c>
+      <c r="M152">
+        <v>1.2</v>
+      </c>
+      <c r="N152">
+        <v>5.5</v>
+      </c>
+      <c r="O152">
+        <v>10</v>
+      </c>
+      <c r="P152">
+        <v>-1.75</v>
+      </c>
+      <c r="Q152">
+        <v>1.95</v>
+      </c>
+      <c r="R152">
+        <v>1.85</v>
+      </c>
+      <c r="S152">
+        <v>2.5</v>
+      </c>
+      <c r="T152">
+        <v>1.825</v>
+      </c>
+      <c r="U152">
         <v>1.975</v>
       </c>
-      <c r="U149">
+      <c r="V152">
+        <v>0.2</v>
+      </c>
+      <c r="W152">
+        <v>-1</v>
+      </c>
+      <c r="X152">
+        <v>-1</v>
+      </c>
+      <c r="Y152">
+        <v>0.95</v>
+      </c>
+      <c r="Z152">
+        <v>-1</v>
+      </c>
+      <c r="AA152">
+        <v>0.825</v>
+      </c>
+      <c r="AB152">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:28">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>27</v>
+      </c>
+      <c r="C153" t="s">
+        <v>32</v>
+      </c>
+      <c r="D153" s="2">
+        <v>45409.375</v>
+      </c>
+      <c r="E153" t="s">
+        <v>33</v>
+      </c>
+      <c r="F153" t="s">
+        <v>43</v>
+      </c>
+      <c r="J153">
+        <v>2.875</v>
+      </c>
+      <c r="K153">
+        <v>3.1</v>
+      </c>
+      <c r="L153">
+        <v>2.375</v>
+      </c>
+      <c r="M153">
+        <v>2.25</v>
+      </c>
+      <c r="N153">
+        <v>3.1</v>
+      </c>
+      <c r="O153">
+        <v>3.1</v>
+      </c>
+      <c r="P153">
+        <v>-0.25</v>
+      </c>
+      <c r="Q153">
+        <v>1.975</v>
+      </c>
+      <c r="R153">
         <v>1.825</v>
       </c>
-      <c r="V149">
-        <v>0</v>
-      </c>
-      <c r="W149">
-        <v>0</v>
-      </c>
-      <c r="X149">
+      <c r="S153">
+        <v>2.25</v>
+      </c>
+      <c r="T153">
+        <v>2</v>
+      </c>
+      <c r="U153">
+        <v>1.8</v>
+      </c>
+      <c r="V153">
+        <v>0</v>
+      </c>
+      <c r="W153">
+        <v>0</v>
+      </c>
+      <c r="X153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:28">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>28</v>
+      </c>
+      <c r="C154" t="s">
+        <v>32</v>
+      </c>
+      <c r="D154" s="2">
+        <v>45410.29166666666</v>
+      </c>
+      <c r="E154" t="s">
+        <v>39</v>
+      </c>
+      <c r="F154" t="s">
+        <v>42</v>
+      </c>
+      <c r="J154">
+        <v>2.3</v>
+      </c>
+      <c r="K154">
+        <v>3.25</v>
+      </c>
+      <c r="L154">
+        <v>2.875</v>
+      </c>
+      <c r="M154">
+        <v>2.3</v>
+      </c>
+      <c r="N154">
+        <v>3.25</v>
+      </c>
+      <c r="O154">
+        <v>2.875</v>
+      </c>
+      <c r="P154">
+        <v>-0.25</v>
+      </c>
+      <c r="Q154">
+        <v>2.025</v>
+      </c>
+      <c r="R154">
+        <v>1.775</v>
+      </c>
+      <c r="S154">
+        <v>2.25</v>
+      </c>
+      <c r="T154">
+        <v>1.975</v>
+      </c>
+      <c r="U154">
+        <v>1.825</v>
+      </c>
+      <c r="V154">
+        <v>0</v>
+      </c>
+      <c r="W154">
+        <v>0</v>
+      </c>
+      <c r="X154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:28">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>29</v>
+      </c>
+      <c r="C155" t="s">
+        <v>32</v>
+      </c>
+      <c r="D155" s="2">
+        <v>45410.375</v>
+      </c>
+      <c r="E155" t="s">
+        <v>35</v>
+      </c>
+      <c r="F155" t="s">
+        <v>41</v>
+      </c>
+      <c r="J155">
+        <v>4.25</v>
+      </c>
+      <c r="K155">
+        <v>3.3</v>
+      </c>
+      <c r="L155">
+        <v>1.8</v>
+      </c>
+      <c r="M155">
+        <v>3.8</v>
+      </c>
+      <c r="N155">
+        <v>3.1</v>
+      </c>
+      <c r="O155">
+        <v>1.95</v>
+      </c>
+      <c r="P155">
+        <v>0.5</v>
+      </c>
+      <c r="Q155">
+        <v>1.8</v>
+      </c>
+      <c r="R155">
+        <v>2</v>
+      </c>
+      <c r="S155">
+        <v>2</v>
+      </c>
+      <c r="T155">
+        <v>1.85</v>
+      </c>
+      <c r="U155">
+        <v>1.95</v>
+      </c>
+      <c r="V155">
+        <v>0</v>
+      </c>
+      <c r="W155">
+        <v>0</v>
+      </c>
+      <c r="X155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:28">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>30</v>
+      </c>
+      <c r="C156" t="s">
+        <v>32</v>
+      </c>
+      <c r="D156" s="2">
+        <v>45410.45833333334</v>
+      </c>
+      <c r="E156" t="s">
+        <v>40</v>
+      </c>
+      <c r="F156" t="s">
+        <v>37</v>
+      </c>
+      <c r="J156">
+        <v>6</v>
+      </c>
+      <c r="K156">
+        <v>4.25</v>
+      </c>
+      <c r="L156">
+        <v>1.444</v>
+      </c>
+      <c r="M156">
+        <v>4.75</v>
+      </c>
+      <c r="N156">
+        <v>3.8</v>
+      </c>
+      <c r="O156">
+        <v>1.6</v>
+      </c>
+      <c r="P156">
+        <v>0.75</v>
+      </c>
+      <c r="Q156">
+        <v>2.025</v>
+      </c>
+      <c r="R156">
+        <v>1.775</v>
+      </c>
+      <c r="S156">
+        <v>2.25</v>
+      </c>
+      <c r="T156">
+        <v>1.8</v>
+      </c>
+      <c r="U156">
+        <v>2</v>
+      </c>
+      <c r="V156">
+        <v>0</v>
+      </c>
+      <c r="W156">
+        <v>0</v>
+      </c>
+      <c r="X156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:28">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>31</v>
+      </c>
+      <c r="C157" t="s">
+        <v>32</v>
+      </c>
+      <c r="D157" s="2">
+        <v>45410.5625</v>
+      </c>
+      <c r="E157" t="s">
+        <v>34</v>
+      </c>
+      <c r="F157" t="s">
+        <v>36</v>
+      </c>
+      <c r="J157">
+        <v>5</v>
+      </c>
+      <c r="K157">
+        <v>3.4</v>
+      </c>
+      <c r="L157">
+        <v>1.666</v>
+      </c>
+      <c r="M157">
+        <v>4.2</v>
+      </c>
+      <c r="N157">
+        <v>3.2</v>
+      </c>
+      <c r="O157">
+        <v>1.85</v>
+      </c>
+      <c r="P157">
+        <v>0.5</v>
+      </c>
+      <c r="Q157">
+        <v>1.925</v>
+      </c>
+      <c r="R157">
+        <v>1.875</v>
+      </c>
+      <c r="S157">
+        <v>2</v>
+      </c>
+      <c r="T157">
+        <v>1.8</v>
+      </c>
+      <c r="U157">
+        <v>2</v>
+      </c>
+      <c r="V157">
+        <v>0</v>
+      </c>
+      <c r="W157">
+        <v>0</v>
+      </c>
+      <c r="X157">
         <v>0</v>
       </c>
     </row>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>7862933</t>
   </si>
   <si>
     <t>7862934</t>
@@ -516,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB157"/>
+  <dimension ref="A1:AB156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,16 +610,16 @@
         <v>6227963</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2">
         <v>45079.5</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -631,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J2">
         <v>5.5</v>
@@ -699,16 +696,16 @@
         <v>6227964</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2">
         <v>45080.375</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -717,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J3">
         <v>1.85</v>
@@ -785,16 +782,16 @@
         <v>6227965</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2">
         <v>45080.45833333334</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -803,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J4">
         <v>2.4</v>
@@ -871,16 +868,16 @@
         <v>6227966</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2">
         <v>45080.54166666666</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -889,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -957,16 +954,16 @@
         <v>6227242</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2">
         <v>45081.49652777778</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -975,7 +972,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J6">
         <v>1.571</v>
@@ -1043,16 +1040,16 @@
         <v>6227967</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2">
         <v>45083.5</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1061,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7">
         <v>2.3</v>
@@ -1129,16 +1126,16 @@
         <v>6227968</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2">
         <v>45083.58333333334</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1147,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J8">
         <v>4.333</v>
@@ -1215,16 +1212,16 @@
         <v>6227969</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2">
         <v>45084.5</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1233,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J9">
         <v>5.5</v>
@@ -1301,16 +1298,16 @@
         <v>6227970</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2">
         <v>45084.54166666666</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1319,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J10">
         <v>3.3</v>
@@ -1387,16 +1384,16 @@
         <v>6227243</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2">
         <v>45084.58333333334</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1405,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J11">
         <v>3.25</v>
@@ -1473,16 +1470,16 @@
         <v>6227971</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2">
         <v>45087.45833333334</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1491,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J12">
         <v>2.75</v>
@@ -1559,16 +1556,16 @@
         <v>6227972</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2">
         <v>45087.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1577,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J13">
         <v>1.533</v>
@@ -1645,16 +1642,16 @@
         <v>6227244</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2">
         <v>45088.41666666666</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1663,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J14">
         <v>1.333</v>
@@ -1731,16 +1728,16 @@
         <v>6227973</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2">
         <v>45088.49652777778</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -1749,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J15">
         <v>1.3</v>
@@ -1817,16 +1814,16 @@
         <v>6732710</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2">
         <v>45099.54166666666</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1835,7 +1832,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J16">
         <v>11</v>
@@ -1903,16 +1900,16 @@
         <v>6732766</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2">
         <v>45099.58333333334</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1921,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J17">
         <v>1.363</v>
@@ -1989,16 +1986,16 @@
         <v>6732767</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="2">
         <v>45101.29166666666</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2007,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J18">
         <v>1.727</v>
@@ -2075,16 +2072,16 @@
         <v>6732768</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="2">
         <v>45101.54166666666</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2093,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J19">
         <v>1.4</v>
@@ -2161,16 +2158,16 @@
         <v>6732769</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="2">
         <v>45102.5</v>
       </c>
       <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
         <v>35</v>
-      </c>
-      <c r="F20" t="s">
-        <v>36</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2179,7 +2176,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J20">
         <v>6</v>
@@ -2247,16 +2244,16 @@
         <v>6732713</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="2">
         <v>45104.54166666666</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2265,7 +2262,7 @@
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J21">
         <v>3.25</v>
@@ -2333,16 +2330,16 @@
         <v>6732778</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="2">
         <v>45105.54166666666</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2351,7 +2348,7 @@
         <v>3</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J22">
         <v>1.571</v>
@@ -2419,16 +2416,16 @@
         <v>6732770</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2">
         <v>45107.5</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2437,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J23">
         <v>1.444</v>
@@ -2505,16 +2502,16 @@
         <v>6732771</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="2">
         <v>45108.5</v>
       </c>
       <c r="E24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" t="s">
         <v>33</v>
-      </c>
-      <c r="F24" t="s">
-        <v>34</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2523,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J24">
         <v>3.6</v>
@@ -2591,16 +2588,16 @@
         <v>6732772</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" s="2">
         <v>45109.49652777778</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -2609,7 +2606,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J25">
         <v>3.1</v>
@@ -2677,16 +2674,16 @@
         <v>6732773</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="2">
         <v>45109.58333333334</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2695,7 +2692,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J26">
         <v>5</v>
@@ -2763,16 +2760,16 @@
         <v>6732711</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="2">
         <v>45109.58333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2781,7 +2778,7 @@
         <v>4</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J27">
         <v>5</v>
@@ -2849,16 +2846,16 @@
         <v>6732712</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" s="2">
         <v>45113.54166666666</v>
       </c>
       <c r="E28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" t="s">
         <v>37</v>
-      </c>
-      <c r="F28" t="s">
-        <v>38</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -2867,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J28">
         <v>1.4</v>
@@ -2935,16 +2932,16 @@
         <v>6732774</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29" s="2">
         <v>45114.54166666666</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -2953,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J29">
         <v>1.8</v>
@@ -3021,16 +3018,16 @@
         <v>6732775</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D30" s="2">
         <v>45115.45833333334</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3039,7 +3036,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J30">
         <v>5.5</v>
@@ -3107,16 +3104,16 @@
         <v>6732776</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" s="2">
         <v>45115.54166666666</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3125,7 +3122,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J31">
         <v>1.333</v>
@@ -3193,16 +3190,16 @@
         <v>6732777</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D32" s="2">
         <v>45116.49652777778</v>
       </c>
       <c r="E32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" t="s">
         <v>34</v>
-      </c>
-      <c r="F32" t="s">
-        <v>35</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3211,7 +3208,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J32">
         <v>1.909</v>
@@ -3279,16 +3276,16 @@
         <v>6732779</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" s="2">
         <v>45121.54166666666</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3297,7 +3294,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J33">
         <v>2.15</v>
@@ -3365,16 +3362,16 @@
         <v>6901957</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D34" s="2">
         <v>45123.49652777778</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3383,7 +3380,7 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J34">
         <v>3</v>
@@ -3451,16 +3448,16 @@
         <v>6732786</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D35" s="2">
         <v>45125.58333333334</v>
       </c>
       <c r="E35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3469,7 +3466,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J35">
         <v>4.8</v>
@@ -3537,16 +3534,16 @@
         <v>6732714</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D36" s="2">
         <v>45128.54166666666</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -3555,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J36">
         <v>1.222</v>
@@ -3623,16 +3620,16 @@
         <v>6732782</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D37" s="2">
         <v>45129.54166666666</v>
       </c>
       <c r="E37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3641,7 +3638,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J37">
         <v>2.375</v>
@@ -3709,16 +3706,16 @@
         <v>6732784</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D38" s="2">
         <v>45130.49652777778</v>
       </c>
       <c r="E38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3727,7 +3724,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J38">
         <v>3</v>
@@ -3795,16 +3792,16 @@
         <v>6732785</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D39" s="2">
         <v>45131.58333333334</v>
       </c>
       <c r="E39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -3813,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J39">
         <v>1.666</v>
@@ -3881,16 +3878,16 @@
         <v>6732783</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D40" s="2">
         <v>45132.54166666666</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3899,7 +3896,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J40">
         <v>4.333</v>
@@ -3967,16 +3964,16 @@
         <v>6732787</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D41" s="2">
         <v>45135.54166666666</v>
       </c>
       <c r="E41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3985,7 +3982,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J41">
         <v>3.1</v>
@@ -4053,16 +4050,16 @@
         <v>6732788</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D42" s="2">
         <v>45136.5</v>
       </c>
       <c r="E42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4071,7 +4068,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J42">
         <v>2.45</v>
@@ -4139,16 +4136,16 @@
         <v>6732789</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D43" s="2">
         <v>45137.5</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4157,7 +4154,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J43">
         <v>1.5</v>
@@ -4225,16 +4222,16 @@
         <v>6983663</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D44" s="2">
         <v>45137.625</v>
       </c>
       <c r="E44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4243,7 +4240,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J44">
         <v>2.1</v>
@@ -4311,16 +4308,16 @@
         <v>6732790</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D45" s="2">
         <v>45142.54166666666</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4329,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J45">
         <v>2.5</v>
@@ -4397,16 +4394,16 @@
         <v>6732791</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D46" s="2">
         <v>45143.5</v>
       </c>
       <c r="E46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4415,7 +4412,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J46">
         <v>2</v>
@@ -4483,16 +4480,16 @@
         <v>7012025</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D47" s="2">
         <v>45144.49652777778</v>
       </c>
       <c r="E47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4501,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J47">
         <v>3.5</v>
@@ -4569,16 +4566,16 @@
         <v>6732793</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D48" s="2">
         <v>45144.54166666666</v>
       </c>
       <c r="E48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4587,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J48">
         <v>1.444</v>
@@ -4655,16 +4652,16 @@
         <v>7012024</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D49" s="2">
         <v>45145.54166666666</v>
       </c>
       <c r="E49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -4673,7 +4670,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J49">
         <v>1.85</v>
@@ -4738,10 +4735,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6732795</v>
+        <v>6732794</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D50" s="2">
         <v>45149.54166666666</v>
@@ -4750,73 +4747,73 @@
         <v>40</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>44</v>
+      </c>
+      <c r="J50">
+        <v>1.25</v>
+      </c>
+      <c r="K50">
+        <v>5</v>
+      </c>
+      <c r="L50">
+        <v>9</v>
+      </c>
+      <c r="M50">
+        <v>1.25</v>
+      </c>
+      <c r="N50">
+        <v>5.25</v>
+      </c>
+      <c r="O50">
+        <v>9</v>
+      </c>
+      <c r="P50">
+        <v>-1.75</v>
+      </c>
+      <c r="Q50">
+        <v>2</v>
+      </c>
+      <c r="R50">
+        <v>1.8</v>
+      </c>
+      <c r="S50">
+        <v>3</v>
+      </c>
+      <c r="T50">
+        <v>1.975</v>
+      </c>
+      <c r="U50">
+        <v>1.825</v>
+      </c>
+      <c r="V50">
+        <v>0.25</v>
+      </c>
+      <c r="W50">
+        <v>-1</v>
+      </c>
+      <c r="X50">
+        <v>-1</v>
+      </c>
+      <c r="Y50">
         <v>1</v>
       </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50" t="s">
-        <v>45</v>
-      </c>
-      <c r="J50">
-        <v>2.15</v>
-      </c>
-      <c r="K50">
-        <v>3.2</v>
-      </c>
-      <c r="L50">
-        <v>3</v>
-      </c>
-      <c r="M50">
-        <v>2.3</v>
-      </c>
-      <c r="N50">
-        <v>3.2</v>
-      </c>
-      <c r="O50">
-        <v>2.7</v>
-      </c>
-      <c r="P50">
-        <v>-0.25</v>
-      </c>
-      <c r="Q50">
-        <v>2.05</v>
-      </c>
-      <c r="R50">
-        <v>1.75</v>
-      </c>
-      <c r="S50">
-        <v>2.25</v>
-      </c>
-      <c r="T50">
-        <v>1.9</v>
-      </c>
-      <c r="U50">
-        <v>1.9</v>
-      </c>
-      <c r="V50">
-        <v>1.3</v>
-      </c>
-      <c r="W50">
-        <v>-1</v>
-      </c>
-      <c r="X50">
-        <v>-1</v>
-      </c>
-      <c r="Y50">
-        <v>1.05</v>
-      </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB50">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -4824,67 +4821,67 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6732794</v>
+        <v>6732795</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D51" s="2">
         <v>45149.54166666666</v>
       </c>
       <c r="E51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>44</v>
+      </c>
+      <c r="J51">
+        <v>2.15</v>
+      </c>
+      <c r="K51">
+        <v>3.2</v>
+      </c>
+      <c r="L51">
         <v>3</v>
       </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51" t="s">
-        <v>45</v>
-      </c>
-      <c r="J51">
-        <v>1.25</v>
-      </c>
-      <c r="K51">
-        <v>5</v>
-      </c>
-      <c r="L51">
-        <v>9</v>
-      </c>
       <c r="M51">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="N51">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="O51">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="P51">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q51">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R51">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S51">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T51">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U51">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>0.25</v>
+        <v>1.3</v>
       </c>
       <c r="W51">
         <v>-1</v>
@@ -4893,16 +4890,16 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -4913,16 +4910,16 @@
         <v>6732796</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D52" s="2">
         <v>45151.375</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4931,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J52">
         <v>1.222</v>
@@ -4999,16 +4996,16 @@
         <v>6732797</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D53" s="2">
         <v>45151.49652777778</v>
       </c>
       <c r="E53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -5017,7 +5014,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J53">
         <v>1.444</v>
@@ -5085,16 +5082,16 @@
         <v>6732717</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D54" s="2">
         <v>45151.58333333334</v>
       </c>
       <c r="E54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G54">
         <v>4</v>
@@ -5103,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J54">
         <v>1.444</v>
@@ -5171,16 +5168,16 @@
         <v>6732798</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D55" s="2">
         <v>45156.54166666666</v>
       </c>
       <c r="E55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5189,7 +5186,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J55">
         <v>2.2</v>
@@ -5257,16 +5254,16 @@
         <v>6732799</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D56" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5275,7 +5272,7 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J56">
         <v>9</v>
@@ -5343,16 +5340,16 @@
         <v>6732800</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D57" s="2">
         <v>45157.5</v>
       </c>
       <c r="E57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5361,7 +5358,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J57">
         <v>5.5</v>
@@ -5429,16 +5426,16 @@
         <v>6732718</v>
       </c>
       <c r="C58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D58" s="2">
         <v>45158.49652777778</v>
       </c>
       <c r="E58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5447,7 +5444,7 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J58">
         <v>6</v>
@@ -5515,16 +5512,16 @@
         <v>6732801</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D59" s="2">
         <v>45158.54166666666</v>
       </c>
       <c r="E59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5533,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J59">
         <v>2.2</v>
@@ -5601,16 +5598,16 @@
         <v>6732802</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D60" s="2">
         <v>45163.54166666666</v>
       </c>
       <c r="E60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5619,7 +5616,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J60">
         <v>4.5</v>
@@ -5687,16 +5684,16 @@
         <v>6732803</v>
       </c>
       <c r="C61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D61" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -5705,7 +5702,7 @@
         <v>6</v>
       </c>
       <c r="I61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J61">
         <v>2.8</v>
@@ -5773,16 +5770,16 @@
         <v>6732804</v>
       </c>
       <c r="C62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D62" s="2">
         <v>45164.54166666666</v>
       </c>
       <c r="E62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5791,7 +5788,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J62">
         <v>3.6</v>
@@ -5859,16 +5856,16 @@
         <v>6732805</v>
       </c>
       <c r="C63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D63" s="2">
         <v>45165.375</v>
       </c>
       <c r="E63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5877,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J63">
         <v>1.222</v>
@@ -5945,16 +5942,16 @@
         <v>6732719</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D64" s="2">
         <v>45165.49652777778</v>
       </c>
       <c r="E64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G64">
         <v>4</v>
@@ -5963,7 +5960,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J64">
         <v>1.25</v>
@@ -6031,16 +6028,16 @@
         <v>7143716</v>
       </c>
       <c r="C65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D65" s="2">
         <v>45171.29166666666</v>
       </c>
       <c r="E65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6049,7 +6046,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J65">
         <v>12</v>
@@ -6117,17 +6114,17 @@
         <v>6732807</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D66" s="2">
         <v>45171.375</v>
       </c>
       <c r="E66" t="s">
+        <v>38</v>
+      </c>
+      <c r="F66" t="s">
         <v>39</v>
       </c>
-      <c r="F66" t="s">
-        <v>40</v>
-      </c>
       <c r="G66">
         <v>2</v>
       </c>
@@ -6135,7 +6132,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J66">
         <v>1.3</v>
@@ -6203,16 +6200,16 @@
         <v>6732808</v>
       </c>
       <c r="C67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D67" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6221,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J67">
         <v>1.7</v>
@@ -6289,16 +6286,16 @@
         <v>6732809</v>
       </c>
       <c r="C68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D68" s="2">
         <v>45172.49652777778</v>
       </c>
       <c r="E68" t="s">
+        <v>40</v>
+      </c>
+      <c r="F68" t="s">
         <v>41</v>
-      </c>
-      <c r="F68" t="s">
-        <v>42</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6307,7 +6304,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J68">
         <v>1.833</v>
@@ -6375,16 +6372,16 @@
         <v>6732720</v>
       </c>
       <c r="C69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D69" s="2">
         <v>45172.5</v>
       </c>
       <c r="E69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6393,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J69">
         <v>1.125</v>
@@ -6461,16 +6458,16 @@
         <v>7202207</v>
       </c>
       <c r="C70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D70" s="2">
         <v>45185.375</v>
       </c>
       <c r="E70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6479,7 +6476,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J70">
         <v>4</v>
@@ -6547,16 +6544,16 @@
         <v>6732812</v>
       </c>
       <c r="C71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D71" s="2">
         <v>45185.5</v>
       </c>
       <c r="E71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6565,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J71">
         <v>2.5</v>
@@ -6633,16 +6630,16 @@
         <v>6732813</v>
       </c>
       <c r="C72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D72" s="2">
         <v>45186.375</v>
       </c>
       <c r="E72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6651,7 +6648,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J72">
         <v>1.285</v>
@@ -6719,16 +6716,16 @@
         <v>6732721</v>
       </c>
       <c r="C73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D73" s="2">
         <v>45186.49652777778</v>
       </c>
       <c r="E73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -6737,7 +6734,7 @@
         <v>6</v>
       </c>
       <c r="I73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J73">
         <v>6</v>
@@ -6805,16 +6802,16 @@
         <v>6732814</v>
       </c>
       <c r="C74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D74" s="2">
         <v>45191.5</v>
       </c>
       <c r="E74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6823,7 +6820,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J74">
         <v>1.8</v>
@@ -6891,16 +6888,16 @@
         <v>6732815</v>
       </c>
       <c r="C75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D75" s="2">
         <v>45192.375</v>
       </c>
       <c r="E75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -6909,7 +6906,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J75">
         <v>2.375</v>
@@ -6977,16 +6974,16 @@
         <v>6732816</v>
       </c>
       <c r="C76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D76" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -6995,7 +6992,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J76">
         <v>1.125</v>
@@ -7063,16 +7060,16 @@
         <v>6732817</v>
       </c>
       <c r="C77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D77" s="2">
         <v>45193.375</v>
       </c>
       <c r="E77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G77">
         <v>3</v>
@@ -7081,7 +7078,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J77">
         <v>2.25</v>
@@ -7149,16 +7146,16 @@
         <v>6732722</v>
       </c>
       <c r="C78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D78" s="2">
         <v>45193.49652777778</v>
       </c>
       <c r="E78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7167,7 +7164,7 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J78">
         <v>1.4</v>
@@ -7235,16 +7232,16 @@
         <v>6732820</v>
       </c>
       <c r="C79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D79" s="2">
         <v>45197.54166666666</v>
       </c>
       <c r="E79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7253,7 +7250,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J79">
         <v>1.6</v>
@@ -7321,16 +7318,16 @@
         <v>6732818</v>
       </c>
       <c r="C80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D80" s="2">
         <v>45198.5</v>
       </c>
       <c r="E80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7339,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J80">
         <v>1.4</v>
@@ -7407,16 +7404,16 @@
         <v>6732723</v>
       </c>
       <c r="C81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D81" s="2">
         <v>45199.375</v>
       </c>
       <c r="E81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7425,7 +7422,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J81">
         <v>5</v>
@@ -7493,16 +7490,16 @@
         <v>6732819</v>
       </c>
       <c r="C82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D82" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -7511,7 +7508,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J82">
         <v>2.2</v>
@@ -7579,16 +7576,16 @@
         <v>6732823</v>
       </c>
       <c r="C83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D83" s="2">
         <v>45206.375</v>
       </c>
       <c r="E83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7597,7 +7594,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J83">
         <v>1.65</v>
@@ -7665,16 +7662,16 @@
         <v>6732824</v>
       </c>
       <c r="C84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D84" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7683,7 +7680,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J84">
         <v>1.909</v>
@@ -7751,16 +7748,16 @@
         <v>6732825</v>
       </c>
       <c r="C85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D85" s="2">
         <v>45206.54166666666</v>
       </c>
       <c r="E85" t="s">
+        <v>37</v>
+      </c>
+      <c r="F85" t="s">
         <v>38</v>
-      </c>
-      <c r="F85" t="s">
-        <v>39</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7769,7 +7766,7 @@
         <v>3</v>
       </c>
       <c r="I85" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J85">
         <v>4.5</v>
@@ -7837,16 +7834,16 @@
         <v>7299034</v>
       </c>
       <c r="C86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D86" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E86" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7855,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J86">
         <v>1.45</v>
@@ -7923,17 +7920,17 @@
         <v>6732724</v>
       </c>
       <c r="C87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D87" s="2">
         <v>45207.49652777778</v>
       </c>
       <c r="E87" t="s">
+        <v>35</v>
+      </c>
+      <c r="F87" t="s">
         <v>36</v>
       </c>
-      <c r="F87" t="s">
-        <v>37</v>
-      </c>
       <c r="G87">
         <v>2</v>
       </c>
@@ -7941,7 +7938,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J87">
         <v>1.909</v>
@@ -8009,16 +8006,16 @@
         <v>6732826</v>
       </c>
       <c r="C88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D88" s="2">
         <v>45219.5</v>
       </c>
       <c r="E88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8027,7 +8024,7 @@
         <v>2</v>
       </c>
       <c r="I88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J88">
         <v>2.25</v>
@@ -8095,16 +8092,16 @@
         <v>6732827</v>
       </c>
       <c r="C89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D89" s="2">
         <v>45220.375</v>
       </c>
       <c r="E89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -8113,7 +8110,7 @@
         <v>2</v>
       </c>
       <c r="I89" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J89">
         <v>6</v>
@@ -8181,16 +8178,16 @@
         <v>7326568</v>
       </c>
       <c r="C90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D90" s="2">
         <v>45220.375</v>
       </c>
       <c r="E90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8199,7 +8196,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J90">
         <v>2.375</v>
@@ -8267,16 +8264,16 @@
         <v>6732828</v>
       </c>
       <c r="C91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D91" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8285,7 +8282,7 @@
         <v>2</v>
       </c>
       <c r="I91" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J91">
         <v>2.625</v>
@@ -8353,16 +8350,16 @@
         <v>6732725</v>
       </c>
       <c r="C92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D92" s="2">
         <v>45221.49652777778</v>
       </c>
       <c r="E92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -8371,7 +8368,7 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J92">
         <v>1.571</v>
@@ -8439,17 +8436,17 @@
         <v>7216318</v>
       </c>
       <c r="C93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D93" s="2">
         <v>45224.5</v>
       </c>
       <c r="E93" t="s">
+        <v>39</v>
+      </c>
+      <c r="F93" t="s">
         <v>40</v>
       </c>
-      <c r="F93" t="s">
-        <v>41</v>
-      </c>
       <c r="G93">
         <v>2</v>
       </c>
@@ -8457,7 +8454,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J93">
         <v>4.75</v>
@@ -8525,16 +8522,16 @@
         <v>6732811</v>
       </c>
       <c r="C94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D94" s="2">
         <v>45224.52083333334</v>
       </c>
       <c r="E94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -8543,7 +8540,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J94">
         <v>3.1</v>
@@ -8611,16 +8608,16 @@
         <v>6732835</v>
       </c>
       <c r="C95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D95" s="2">
         <v>45228.41666666666</v>
       </c>
       <c r="E95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G95">
         <v>4</v>
@@ -8629,7 +8626,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J95">
         <v>2.5</v>
@@ -8697,16 +8694,16 @@
         <v>7259250</v>
       </c>
       <c r="C96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D96" s="2">
         <v>45229.54166666666</v>
       </c>
       <c r="E96" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8715,7 +8712,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J96">
         <v>3.6</v>
@@ -8783,16 +8780,16 @@
         <v>6732831</v>
       </c>
       <c r="C97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D97" s="2">
         <v>45234.33333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F97" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8801,7 +8798,7 @@
         <v>3</v>
       </c>
       <c r="I97" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J97">
         <v>5</v>
@@ -8869,16 +8866,16 @@
         <v>6732833</v>
       </c>
       <c r="C98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D98" s="2">
         <v>45235.41666666666</v>
       </c>
       <c r="E98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8887,7 +8884,7 @@
         <v>2</v>
       </c>
       <c r="I98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J98">
         <v>6.5</v>
@@ -8955,16 +8952,16 @@
         <v>6732832</v>
       </c>
       <c r="C99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D99" s="2">
         <v>45235.53819444445</v>
       </c>
       <c r="E99" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8973,7 +8970,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J99">
         <v>2.625</v>
@@ -9041,16 +9038,16 @@
         <v>7465686</v>
       </c>
       <c r="C100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D100" s="2">
         <v>45242.41319444445</v>
       </c>
       <c r="E100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G100">
         <v>4</v>
@@ -9059,7 +9056,7 @@
         <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J100">
         <v>2.3</v>
@@ -9127,16 +9124,16 @@
         <v>6732837</v>
       </c>
       <c r="C101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D101" s="2">
         <v>45242.41319444445</v>
       </c>
       <c r="E101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -9145,7 +9142,7 @@
         <v>3</v>
       </c>
       <c r="I101" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J101">
         <v>3.6</v>
@@ -9210,10 +9207,10 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6732834</v>
+        <v>6732727</v>
       </c>
       <c r="C102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D102" s="2">
         <v>45242.41319444445</v>
@@ -9225,7 +9222,7 @@
         <v>33</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9234,46 +9231,46 @@
         <v>44</v>
       </c>
       <c r="J102">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="K102">
         <v>5.5</v>
       </c>
       <c r="L102">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="M102">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="N102">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="O102">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P102">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="Q102">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="R102">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S102">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T102">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U102">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V102">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="W102">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9282,13 +9279,13 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -9296,70 +9293,70 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6732727</v>
+        <v>6732834</v>
       </c>
       <c r="C103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D103" s="2">
         <v>45242.41319444445</v>
       </c>
       <c r="E103" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J103">
-        <v>1.285</v>
+        <v>1.25</v>
       </c>
       <c r="K103">
         <v>5.5</v>
       </c>
       <c r="L103">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="M103">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="N103">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="O103">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P103">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="Q103">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="R103">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S103">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T103">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U103">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V103">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9368,13 +9365,13 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="104" spans="1:28">
@@ -9385,16 +9382,16 @@
         <v>6732836</v>
       </c>
       <c r="C104" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D104" s="2">
         <v>45242.41319444445</v>
       </c>
       <c r="E104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G104">
         <v>3</v>
@@ -9403,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J104">
         <v>1.222</v>
@@ -9471,17 +9468,17 @@
         <v>7862033</v>
       </c>
       <c r="C105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D105" s="2">
         <v>45352.58333333334</v>
       </c>
       <c r="E105" t="s">
+        <v>39</v>
+      </c>
+      <c r="F105" t="s">
         <v>40</v>
       </c>
-      <c r="F105" t="s">
-        <v>41</v>
-      </c>
       <c r="G105">
         <v>0</v>
       </c>
@@ -9489,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J105">
         <v>4.333</v>
@@ -9557,16 +9554,16 @@
         <v>7862902</v>
       </c>
       <c r="C106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D106" s="2">
         <v>45353.33333333334</v>
       </c>
       <c r="E106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9575,7 +9572,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J106">
         <v>7.5</v>
@@ -9643,16 +9640,16 @@
         <v>7862903</v>
       </c>
       <c r="C107" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D107" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9661,7 +9658,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -9729,16 +9726,16 @@
         <v>7862034</v>
       </c>
       <c r="C108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D108" s="2">
         <v>45354.33333333334</v>
       </c>
       <c r="E108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F108" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9747,7 +9744,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J108">
         <v>6.5</v>
@@ -9815,16 +9812,16 @@
         <v>7862904</v>
       </c>
       <c r="C109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D109" s="2">
         <v>45354.5625</v>
       </c>
       <c r="E109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F109" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9833,7 +9830,7 @@
         <v>3</v>
       </c>
       <c r="I109" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J109">
         <v>1.8</v>
@@ -9901,16 +9898,16 @@
         <v>7862905</v>
       </c>
       <c r="C110" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D110" s="2">
         <v>45360.33333333334</v>
       </c>
       <c r="E110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F110" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9919,7 +9916,7 @@
         <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J110">
         <v>2.1</v>
@@ -9987,16 +9984,16 @@
         <v>7862906</v>
       </c>
       <c r="C111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D111" s="2">
         <v>45360.41666666666</v>
       </c>
       <c r="E111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -10005,7 +10002,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J111">
         <v>2</v>
@@ -10073,16 +10070,16 @@
         <v>7862907</v>
       </c>
       <c r="C112" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D112" s="2">
         <v>45361.33333333334</v>
       </c>
       <c r="E112" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -10091,7 +10088,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J112">
         <v>1.4</v>
@@ -10159,16 +10156,16 @@
         <v>7862908</v>
       </c>
       <c r="C113" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D113" s="2">
         <v>45361.41666666666</v>
       </c>
       <c r="E113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10177,7 +10174,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J113">
         <v>1.2</v>
@@ -10245,16 +10242,16 @@
         <v>7862035</v>
       </c>
       <c r="C114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D114" s="2">
         <v>45361.5625</v>
       </c>
       <c r="E114" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F114" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G114">
         <v>3</v>
@@ -10263,7 +10260,7 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J114">
         <v>1.3</v>
@@ -10331,16 +10328,16 @@
         <v>7862909</v>
       </c>
       <c r="C115" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D115" s="2">
         <v>45363.54166666666</v>
       </c>
       <c r="E115" t="s">
+        <v>41</v>
+      </c>
+      <c r="F115" t="s">
         <v>42</v>
-      </c>
-      <c r="F115" t="s">
-        <v>43</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -10349,7 +10346,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J115">
         <v>2</v>
@@ -10417,16 +10414,16 @@
         <v>7862910</v>
       </c>
       <c r="C116" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D116" s="2">
         <v>45364.5</v>
       </c>
       <c r="E116" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10435,7 +10432,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J116">
         <v>2.3</v>
@@ -10503,16 +10500,16 @@
         <v>7862036</v>
       </c>
       <c r="C117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D117" s="2">
         <v>45364.54166666666</v>
       </c>
       <c r="E117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10521,7 +10518,7 @@
         <v>4</v>
       </c>
       <c r="I117" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J117">
         <v>8</v>
@@ -10589,16 +10586,16 @@
         <v>7862911</v>
       </c>
       <c r="C118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D118" s="2">
         <v>45364.54166666666</v>
       </c>
       <c r="E118" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G118">
         <v>2</v>
@@ -10607,7 +10604,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J118">
         <v>2.15</v>
@@ -10675,16 +10672,16 @@
         <v>7862037</v>
       </c>
       <c r="C119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D119" s="2">
         <v>45364.63541666666</v>
       </c>
       <c r="E119" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10693,7 +10690,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J119">
         <v>7.5</v>
@@ -10761,16 +10758,16 @@
         <v>7862038</v>
       </c>
       <c r="C120" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D120" s="2">
         <v>45367.375</v>
       </c>
       <c r="E120" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10779,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J120">
         <v>2.5</v>
@@ -10847,16 +10844,16 @@
         <v>7862912</v>
       </c>
       <c r="C121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D121" s="2">
         <v>45367.4375</v>
       </c>
       <c r="E121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -10865,7 +10862,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J121">
         <v>1.2</v>
@@ -10933,16 +10930,16 @@
         <v>7862913</v>
       </c>
       <c r="C122" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D122" s="2">
         <v>45368.375</v>
       </c>
       <c r="E122" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -10951,7 +10948,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J122">
         <v>2.2</v>
@@ -11019,16 +11016,16 @@
         <v>7862914</v>
       </c>
       <c r="C123" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D123" s="2">
         <v>45368.41666666666</v>
       </c>
       <c r="E123" t="s">
+        <v>40</v>
+      </c>
+      <c r="F123" t="s">
         <v>41</v>
-      </c>
-      <c r="F123" t="s">
-        <v>42</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11037,7 +11034,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J123">
         <v>2.5</v>
@@ -11105,16 +11102,16 @@
         <v>7862039</v>
       </c>
       <c r="C124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D124" s="2">
         <v>45368.5625</v>
       </c>
       <c r="E124" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11123,7 +11120,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J124">
         <v>1.615</v>
@@ -11191,16 +11188,16 @@
         <v>7862915</v>
       </c>
       <c r="C125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D125" s="2">
         <v>45380.58333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -11209,7 +11206,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J125">
         <v>2.6</v>
@@ -11277,16 +11274,16 @@
         <v>7862916</v>
       </c>
       <c r="C126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D126" s="2">
         <v>45381.41666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G126">
         <v>4</v>
@@ -11295,7 +11292,7 @@
         <v>2</v>
       </c>
       <c r="I126" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J126">
         <v>2.5</v>
@@ -11363,16 +11360,16 @@
         <v>7862917</v>
       </c>
       <c r="C127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D127" s="2">
         <v>45381.5</v>
       </c>
       <c r="E127" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F127" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -11381,7 +11378,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J127">
         <v>1.533</v>
@@ -11449,16 +11446,16 @@
         <v>7862040</v>
       </c>
       <c r="C128" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D128" s="2">
         <v>45382.375</v>
       </c>
       <c r="E128" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11467,7 +11464,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J128">
         <v>2.45</v>
@@ -11535,16 +11532,16 @@
         <v>7862042</v>
       </c>
       <c r="C129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D129" s="2">
         <v>45382.51736111111</v>
       </c>
       <c r="E129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -11553,7 +11550,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J129">
         <v>4</v>
@@ -11621,16 +11618,16 @@
         <v>7862918</v>
       </c>
       <c r="C130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D130" s="2">
         <v>45388.375</v>
       </c>
       <c r="E130" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F130" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11639,7 +11636,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J130">
         <v>4.333</v>
@@ -11707,17 +11704,17 @@
         <v>7862919</v>
       </c>
       <c r="C131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D131" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E131" t="s">
+        <v>33</v>
+      </c>
+      <c r="F131" t="s">
         <v>34</v>
       </c>
-      <c r="F131" t="s">
-        <v>35</v>
-      </c>
       <c r="G131">
         <v>2</v>
       </c>
@@ -11725,7 +11722,7 @@
         <v>2</v>
       </c>
       <c r="I131" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J131">
         <v>2.25</v>
@@ -11793,16 +11790,16 @@
         <v>7865009</v>
       </c>
       <c r="C132" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D132" s="2">
         <v>45389.29166666666</v>
       </c>
       <c r="E132" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F132" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11811,7 +11808,7 @@
         <v>2</v>
       </c>
       <c r="I132" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J132">
         <v>1.833</v>
@@ -11879,16 +11876,16 @@
         <v>7862043</v>
       </c>
       <c r="C133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D133" s="2">
         <v>45389.375</v>
       </c>
       <c r="E133" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G133">
         <v>3</v>
@@ -11897,7 +11894,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J133">
         <v>1.666</v>
@@ -11965,16 +11962,16 @@
         <v>7862920</v>
       </c>
       <c r="C134" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D134" s="2">
         <v>45389.51736111111</v>
       </c>
       <c r="E134" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -11983,7 +11980,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J134">
         <v>2.75</v>
@@ -12051,16 +12048,16 @@
         <v>7862921</v>
       </c>
       <c r="C135" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D135" s="2">
         <v>45391.5</v>
       </c>
       <c r="E135" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12069,7 +12066,7 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J135">
         <v>1.75</v>
@@ -12134,85 +12131,85 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7862922</v>
+        <v>7862044</v>
       </c>
       <c r="C136" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D136" s="2">
         <v>45392.5</v>
       </c>
       <c r="E136" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J136">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="K136">
+        <v>3.05</v>
+      </c>
+      <c r="L136">
+        <v>3.2</v>
+      </c>
+      <c r="M136">
+        <v>3.4</v>
+      </c>
+      <c r="N136">
         <v>3</v>
       </c>
-      <c r="L136">
-        <v>2.5</v>
-      </c>
-      <c r="M136">
-        <v>2.9</v>
-      </c>
-      <c r="N136">
-        <v>2.9</v>
-      </c>
       <c r="O136">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="P136">
         <v>0.25</v>
       </c>
       <c r="Q136">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="R136">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S136">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T136">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U136">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V136">
         <v>-1</v>
       </c>
       <c r="W136">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0.375</v>
+        <v>0.475</v>
       </c>
       <c r="Z136">
         <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:28">
@@ -12220,85 +12217,85 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7862044</v>
+        <v>7862922</v>
       </c>
       <c r="C137" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D137" s="2">
         <v>45392.5</v>
       </c>
       <c r="E137" t="s">
+        <v>40</v>
+      </c>
+      <c r="F137" t="s">
         <v>35</v>
       </c>
-      <c r="F137" t="s">
-        <v>40</v>
-      </c>
       <c r="G137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J137">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="K137">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L137">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="M137">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N137">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O137">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="P137">
         <v>0.25</v>
       </c>
       <c r="Q137">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="R137">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S137">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T137">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V137">
         <v>-1</v>
       </c>
       <c r="W137">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0.475</v>
+        <v>0.375</v>
       </c>
       <c r="Z137">
         <v>-0.5</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB137">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="138" spans="1:28">
@@ -12309,16 +12306,16 @@
         <v>7862923</v>
       </c>
       <c r="C138" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D138" s="2">
         <v>45392.54166666666</v>
       </c>
       <c r="E138" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F138" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G138">
         <v>3</v>
@@ -12327,7 +12324,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J138">
         <v>1.333</v>
@@ -12395,16 +12392,16 @@
         <v>7865008</v>
       </c>
       <c r="C139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D139" s="2">
         <v>45392.58333333334</v>
       </c>
       <c r="E139" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F139" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -12413,7 +12410,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J139">
         <v>1.333</v>
@@ -12481,16 +12478,16 @@
         <v>7862924</v>
       </c>
       <c r="C140" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D140" s="2">
         <v>45395.375</v>
       </c>
       <c r="E140" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -12499,7 +12496,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J140">
         <v>2.5</v>
@@ -12567,16 +12564,16 @@
         <v>7862045</v>
       </c>
       <c r="C141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D141" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E141" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -12585,7 +12582,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J141">
         <v>3.4</v>
@@ -12653,16 +12650,16 @@
         <v>7862925</v>
       </c>
       <c r="C142" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D142" s="2">
         <v>45396.29166666666</v>
       </c>
       <c r="E142" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -12671,7 +12668,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J142">
         <v>3.75</v>
@@ -12739,16 +12736,16 @@
         <v>7862046</v>
       </c>
       <c r="C143" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D143" s="2">
         <v>45396.375</v>
       </c>
       <c r="E143" t="s">
+        <v>35</v>
+      </c>
+      <c r="F143" t="s">
         <v>36</v>
-      </c>
-      <c r="F143" t="s">
-        <v>37</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -12757,7 +12754,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J143">
         <v>3.75</v>
@@ -12825,16 +12822,16 @@
         <v>7862047</v>
       </c>
       <c r="C144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D144" s="2">
         <v>45402.375</v>
       </c>
       <c r="E144" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F144" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -12843,7 +12840,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J144">
         <v>1.444</v>
@@ -12911,16 +12908,16 @@
         <v>7862927</v>
       </c>
       <c r="C145" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D145" s="2">
         <v>45402.5</v>
       </c>
       <c r="E145" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F145" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12929,7 +12926,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -12997,16 +12994,16 @@
         <v>7862928</v>
       </c>
       <c r="C146" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D146" s="2">
         <v>45403.29166666666</v>
       </c>
       <c r="E146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F146" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13015,7 +13012,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J146">
         <v>1.8</v>
@@ -13083,16 +13080,16 @@
         <v>7862929</v>
       </c>
       <c r="C147" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D147" s="2">
         <v>45403.375</v>
       </c>
       <c r="E147" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G147">
         <v>2</v>
@@ -13101,7 +13098,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J147">
         <v>1.4</v>
@@ -13169,16 +13166,16 @@
         <v>7862048</v>
       </c>
       <c r="C148" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D148" s="2">
         <v>45403.51736111111</v>
       </c>
       <c r="E148" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F148" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13187,7 +13184,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J148">
         <v>1.333</v>
@@ -13255,16 +13252,16 @@
         <v>7862049</v>
       </c>
       <c r="C149" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D149" s="2">
         <v>45405.54166666666</v>
       </c>
       <c r="E149" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F149" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13273,7 +13270,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J149">
         <v>1.65</v>
@@ -13341,16 +13338,16 @@
         <v>7862930</v>
       </c>
       <c r="C150" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D150" s="2">
         <v>45406.5</v>
       </c>
       <c r="E150" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F150" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -13359,7 +13356,7 @@
         <v>2</v>
       </c>
       <c r="I150" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J150">
         <v>4</v>
@@ -13427,16 +13424,16 @@
         <v>7862932</v>
       </c>
       <c r="C151" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D151" s="2">
         <v>45406.54166666666</v>
       </c>
       <c r="E151" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -13445,7 +13442,7 @@
         <v>3</v>
       </c>
       <c r="I151" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J151">
         <v>1.4</v>
@@ -13513,16 +13510,16 @@
         <v>7862050</v>
       </c>
       <c r="C152" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D152" s="2">
         <v>45406.58333333334</v>
       </c>
       <c r="E152" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G152">
         <v>4</v>
@@ -13531,7 +13528,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J152">
         <v>1.363</v>
@@ -13599,52 +13596,52 @@
         <v>27</v>
       </c>
       <c r="C153" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D153" s="2">
-        <v>45409.375</v>
+        <v>45410.29166666666</v>
       </c>
       <c r="E153" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F153" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J153">
+        <v>2.3</v>
+      </c>
+      <c r="K153">
+        <v>3.25</v>
+      </c>
+      <c r="L153">
         <v>2.875</v>
       </c>
-      <c r="K153">
-        <v>3.1</v>
-      </c>
-      <c r="L153">
-        <v>2.375</v>
-      </c>
       <c r="M153">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N153">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O153">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P153">
         <v>-0.25</v>
       </c>
       <c r="Q153">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="R153">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S153">
         <v>2.25</v>
       </c>
       <c r="T153">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U153">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V153">
         <v>0</v>
@@ -13664,52 +13661,52 @@
         <v>28</v>
       </c>
       <c r="C154" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D154" s="2">
-        <v>45410.29166666666</v>
+        <v>45410.375</v>
       </c>
       <c r="E154" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F154" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J154">
-        <v>2.3</v>
+        <v>4.25</v>
       </c>
       <c r="K154">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L154">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="M154">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="N154">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="O154">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="P154">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q154">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="R154">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S154">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T154">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U154">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V154">
         <v>0</v>
@@ -13729,52 +13726,52 @@
         <v>29</v>
       </c>
       <c r="C155" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D155" s="2">
-        <v>45410.375</v>
+        <v>45410.45833333334</v>
       </c>
       <c r="E155" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F155" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J155">
+        <v>6</v>
+      </c>
+      <c r="K155">
         <v>4.25</v>
       </c>
-      <c r="K155">
-        <v>3.3</v>
-      </c>
       <c r="L155">
+        <v>1.444</v>
+      </c>
+      <c r="M155">
+        <v>4.75</v>
+      </c>
+      <c r="N155">
+        <v>3.8</v>
+      </c>
+      <c r="O155">
+        <v>1.6</v>
+      </c>
+      <c r="P155">
+        <v>0.75</v>
+      </c>
+      <c r="Q155">
+        <v>2.025</v>
+      </c>
+      <c r="R155">
+        <v>1.775</v>
+      </c>
+      <c r="S155">
+        <v>2.25</v>
+      </c>
+      <c r="T155">
         <v>1.8</v>
       </c>
-      <c r="M155">
-        <v>3.8</v>
-      </c>
-      <c r="N155">
-        <v>3.1</v>
-      </c>
-      <c r="O155">
-        <v>1.95</v>
-      </c>
-      <c r="P155">
-        <v>0.5</v>
-      </c>
-      <c r="Q155">
-        <v>1.8</v>
-      </c>
-      <c r="R155">
-        <v>2</v>
-      </c>
-      <c r="S155">
-        <v>2</v>
-      </c>
-      <c r="T155">
-        <v>1.85</v>
-      </c>
       <c r="U155">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V155">
         <v>0</v>
@@ -13794,46 +13791,46 @@
         <v>30</v>
       </c>
       <c r="C156" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D156" s="2">
-        <v>45410.45833333334</v>
+        <v>45410.5625</v>
       </c>
       <c r="E156" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F156" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J156">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K156">
-        <v>4.25</v>
+        <v>3.4</v>
       </c>
       <c r="L156">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="M156">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="N156">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O156">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="P156">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q156">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="R156">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S156">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T156">
         <v>1.8</v>
@@ -13848,71 +13845,6 @@
         <v>0</v>
       </c>
       <c r="X156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:28">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="B157" t="s">
-        <v>31</v>
-      </c>
-      <c r="C157" t="s">
-        <v>32</v>
-      </c>
-      <c r="D157" s="2">
-        <v>45410.5625</v>
-      </c>
-      <c r="E157" t="s">
-        <v>34</v>
-      </c>
-      <c r="F157" t="s">
-        <v>36</v>
-      </c>
-      <c r="J157">
-        <v>5</v>
-      </c>
-      <c r="K157">
-        <v>3.4</v>
-      </c>
-      <c r="L157">
-        <v>1.666</v>
-      </c>
-      <c r="M157">
-        <v>4.2</v>
-      </c>
-      <c r="N157">
-        <v>3.2</v>
-      </c>
-      <c r="O157">
-        <v>1.85</v>
-      </c>
-      <c r="P157">
-        <v>0.5</v>
-      </c>
-      <c r="Q157">
-        <v>1.925</v>
-      </c>
-      <c r="R157">
-        <v>1.875</v>
-      </c>
-      <c r="S157">
-        <v>2</v>
-      </c>
-      <c r="T157">
-        <v>1.8</v>
-      </c>
-      <c r="U157">
-        <v>2</v>
-      </c>
-      <c r="V157">
-        <v>0</v>
-      </c>
-      <c r="W157">
-        <v>0</v>
-      </c>
-      <c r="X157">
         <v>0</v>
       </c>
     </row>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -95,12 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>7862934</t>
-  </si>
-  <si>
-    <t>7862935</t>
   </si>
   <si>
     <t>7862051</t>
@@ -513,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB156"/>
+  <dimension ref="A1:AB154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,25 +604,25 @@
         <v>6227963</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
         <v>45079.5</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>41</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>43</v>
       </c>
       <c r="J2">
         <v>5.5</v>
@@ -696,16 +690,16 @@
         <v>6227964</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>45080.375</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -714,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>1.85</v>
@@ -782,16 +776,16 @@
         <v>6227965</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
         <v>45080.45833333334</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -800,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J4">
         <v>2.4</v>
@@ -868,16 +862,16 @@
         <v>6227966</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
         <v>45080.54166666666</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -886,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -954,16 +948,16 @@
         <v>6227242</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>45081.49652777778</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -972,7 +966,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J6">
         <v>1.571</v>
@@ -1040,16 +1034,16 @@
         <v>6227967</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2">
         <v>45083.5</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1058,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>2.3</v>
@@ -1126,16 +1120,16 @@
         <v>6227968</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
         <v>45083.58333333334</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1144,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J8">
         <v>4.333</v>
@@ -1212,16 +1206,16 @@
         <v>6227969</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2">
         <v>45084.5</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1230,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J9">
         <v>5.5</v>
@@ -1298,16 +1292,16 @@
         <v>6227970</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
         <v>45084.54166666666</v>
       </c>
       <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
         <v>33</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1316,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J10">
         <v>3.3</v>
@@ -1384,16 +1378,16 @@
         <v>6227243</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2">
         <v>45084.58333333334</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1402,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J11">
         <v>3.25</v>
@@ -1470,16 +1464,16 @@
         <v>6227971</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2">
         <v>45087.45833333334</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1488,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J12">
         <v>2.75</v>
@@ -1556,16 +1550,16 @@
         <v>6227972</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2">
         <v>45087.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1574,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J13">
         <v>1.533</v>
@@ -1642,16 +1636,16 @@
         <v>6227244</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
         <v>45088.41666666666</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1660,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J14">
         <v>1.333</v>
@@ -1728,16 +1722,16 @@
         <v>6227973</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2">
         <v>45088.49652777778</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -1746,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>1.3</v>
@@ -1814,16 +1808,16 @@
         <v>6732710</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2">
         <v>45099.54166666666</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1832,7 +1826,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J16">
         <v>11</v>
@@ -1900,16 +1894,16 @@
         <v>6732766</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2">
         <v>45099.58333333334</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1918,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J17">
         <v>1.363</v>
@@ -1986,16 +1980,16 @@
         <v>6732767</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2">
         <v>45101.29166666666</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2004,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J18">
         <v>1.727</v>
@@ -2072,16 +2066,16 @@
         <v>6732768</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2">
         <v>45101.54166666666</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2090,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>1.4</v>
@@ -2158,16 +2152,16 @@
         <v>6732769</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2">
         <v>45102.5</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2176,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J20">
         <v>6</v>
@@ -2244,16 +2238,16 @@
         <v>6732713</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2">
         <v>45104.54166666666</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2262,7 +2256,7 @@
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J21">
         <v>3.25</v>
@@ -2330,16 +2324,16 @@
         <v>6732778</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2">
         <v>45105.54166666666</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2348,7 +2342,7 @@
         <v>3</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J22">
         <v>1.571</v>
@@ -2416,16 +2410,16 @@
         <v>6732770</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2">
         <v>45107.5</v>
       </c>
       <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" t="s">
         <v>35</v>
-      </c>
-      <c r="F23" t="s">
-        <v>37</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2434,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>1.444</v>
@@ -2502,16 +2496,16 @@
         <v>6732771</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D24" s="2">
         <v>45108.5</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2520,7 +2514,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>3.6</v>
@@ -2588,16 +2582,16 @@
         <v>6732772</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2">
         <v>45109.49652777778</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -2606,7 +2600,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>3.1</v>
@@ -2674,16 +2668,16 @@
         <v>6732773</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D26" s="2">
         <v>45109.58333333334</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2692,7 +2686,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J26">
         <v>5</v>
@@ -2760,16 +2754,16 @@
         <v>6732711</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D27" s="2">
         <v>45109.58333333334</v>
       </c>
       <c r="E27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" t="s">
         <v>34</v>
-      </c>
-      <c r="F27" t="s">
-        <v>36</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2778,7 +2772,7 @@
         <v>4</v>
       </c>
       <c r="I27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J27">
         <v>5</v>
@@ -2846,16 +2840,16 @@
         <v>6732712</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2">
         <v>45113.54166666666</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -2864,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>1.4</v>
@@ -2932,16 +2926,16 @@
         <v>6732774</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D29" s="2">
         <v>45114.54166666666</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -2950,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>1.8</v>
@@ -3018,16 +3012,16 @@
         <v>6732775</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2">
         <v>45115.45833333334</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3036,7 +3030,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J30">
         <v>5.5</v>
@@ -3104,16 +3098,16 @@
         <v>6732776</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2">
         <v>45115.54166666666</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3122,7 +3116,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>1.333</v>
@@ -3190,16 +3184,16 @@
         <v>6732777</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D32" s="2">
         <v>45116.49652777778</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3208,7 +3202,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J32">
         <v>1.909</v>
@@ -3276,16 +3270,16 @@
         <v>6732779</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D33" s="2">
         <v>45121.54166666666</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3294,7 +3288,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J33">
         <v>2.15</v>
@@ -3362,16 +3356,16 @@
         <v>6901957</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D34" s="2">
         <v>45123.49652777778</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3380,7 +3374,7 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J34">
         <v>3</v>
@@ -3448,16 +3442,16 @@
         <v>6732786</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D35" s="2">
         <v>45125.58333333334</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3466,7 +3460,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J35">
         <v>4.8</v>
@@ -3534,16 +3528,16 @@
         <v>6732714</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D36" s="2">
         <v>45128.54166666666</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -3552,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>1.222</v>
@@ -3620,16 +3614,16 @@
         <v>6732782</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D37" s="2">
         <v>45129.54166666666</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3638,7 +3632,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J37">
         <v>2.375</v>
@@ -3706,16 +3700,16 @@
         <v>6732784</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D38" s="2">
         <v>45130.49652777778</v>
       </c>
       <c r="E38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3724,7 +3718,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J38">
         <v>3</v>
@@ -3792,16 +3786,16 @@
         <v>6732785</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D39" s="2">
         <v>45131.58333333334</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -3810,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>1.666</v>
@@ -3878,16 +3872,16 @@
         <v>6732783</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D40" s="2">
         <v>45132.54166666666</v>
       </c>
       <c r="E40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3896,7 +3890,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J40">
         <v>4.333</v>
@@ -3964,16 +3958,16 @@
         <v>6732787</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D41" s="2">
         <v>45135.54166666666</v>
       </c>
       <c r="E41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3982,7 +3976,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J41">
         <v>3.1</v>
@@ -4050,16 +4044,16 @@
         <v>6732788</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D42" s="2">
         <v>45136.5</v>
       </c>
       <c r="E42" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4068,7 +4062,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J42">
         <v>2.45</v>
@@ -4136,16 +4130,16 @@
         <v>6732789</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D43" s="2">
         <v>45137.5</v>
       </c>
       <c r="E43" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4154,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>1.5</v>
@@ -4222,16 +4216,16 @@
         <v>6983663</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D44" s="2">
         <v>45137.625</v>
       </c>
       <c r="E44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4240,7 +4234,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J44">
         <v>2.1</v>
@@ -4308,16 +4302,16 @@
         <v>6732790</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D45" s="2">
         <v>45142.54166666666</v>
       </c>
       <c r="E45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4326,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J45">
         <v>2.5</v>
@@ -4394,16 +4388,16 @@
         <v>6732791</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D46" s="2">
         <v>45143.5</v>
       </c>
       <c r="E46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4412,7 +4406,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J46">
         <v>2</v>
@@ -4480,16 +4474,16 @@
         <v>7012025</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D47" s="2">
         <v>45144.49652777778</v>
       </c>
       <c r="E47" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4498,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J47">
         <v>3.5</v>
@@ -4566,25 +4560,25 @@
         <v>6732793</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D48" s="2">
         <v>45144.54166666666</v>
       </c>
       <c r="E48" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
         <v>41</v>
-      </c>
-      <c r="F48" t="s">
-        <v>32</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48" t="s">
-        <v>43</v>
       </c>
       <c r="J48">
         <v>1.444</v>
@@ -4652,16 +4646,16 @@
         <v>7012024</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D49" s="2">
         <v>45145.54166666666</v>
       </c>
       <c r="E49" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -4670,7 +4664,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J49">
         <v>1.85</v>
@@ -4738,16 +4732,16 @@
         <v>6732794</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D50" s="2">
         <v>45149.54166666666</v>
       </c>
       <c r="E50" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -4756,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J50">
         <v>1.25</v>
@@ -4824,16 +4818,16 @@
         <v>6732795</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D51" s="2">
         <v>45149.54166666666</v>
       </c>
       <c r="E51" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4842,7 +4836,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J51">
         <v>2.15</v>
@@ -4910,16 +4904,16 @@
         <v>6732796</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D52" s="2">
         <v>45151.375</v>
       </c>
       <c r="E52" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4928,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J52">
         <v>1.222</v>
@@ -4996,16 +4990,16 @@
         <v>6732797</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D53" s="2">
         <v>45151.49652777778</v>
       </c>
       <c r="E53" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -5014,7 +5008,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J53">
         <v>1.444</v>
@@ -5082,16 +5076,16 @@
         <v>6732717</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D54" s="2">
         <v>45151.58333333334</v>
       </c>
       <c r="E54" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" t="s">
         <v>36</v>
-      </c>
-      <c r="F54" t="s">
-        <v>38</v>
       </c>
       <c r="G54">
         <v>4</v>
@@ -5100,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J54">
         <v>1.444</v>
@@ -5168,16 +5162,16 @@
         <v>6732798</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D55" s="2">
         <v>45156.54166666666</v>
       </c>
       <c r="E55" t="s">
+        <v>35</v>
+      </c>
+      <c r="F55" t="s">
         <v>37</v>
-      </c>
-      <c r="F55" t="s">
-        <v>39</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5186,7 +5180,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J55">
         <v>2.2</v>
@@ -5254,16 +5248,16 @@
         <v>6732799</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D56" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5272,7 +5266,7 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J56">
         <v>9</v>
@@ -5340,16 +5334,16 @@
         <v>6732800</v>
       </c>
       <c r="C57" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D57" s="2">
         <v>45157.5</v>
       </c>
       <c r="E57" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5358,7 +5352,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J57">
         <v>5.5</v>
@@ -5426,16 +5420,16 @@
         <v>6732718</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D58" s="2">
         <v>45158.49652777778</v>
       </c>
       <c r="E58" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5444,7 +5438,7 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J58">
         <v>6</v>
@@ -5512,16 +5506,16 @@
         <v>6732801</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D59" s="2">
         <v>45158.54166666666</v>
       </c>
       <c r="E59" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5530,7 +5524,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J59">
         <v>2.2</v>
@@ -5598,16 +5592,16 @@
         <v>6732802</v>
       </c>
       <c r="C60" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D60" s="2">
         <v>45163.54166666666</v>
       </c>
       <c r="E60" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5616,7 +5610,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J60">
         <v>4.5</v>
@@ -5684,16 +5678,16 @@
         <v>6732803</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D61" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E61" t="s">
+        <v>37</v>
+      </c>
+      <c r="F61" t="s">
         <v>39</v>
-      </c>
-      <c r="F61" t="s">
-        <v>41</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -5702,7 +5696,7 @@
         <v>6</v>
       </c>
       <c r="I61" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J61">
         <v>2.8</v>
@@ -5770,16 +5764,16 @@
         <v>6732804</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D62" s="2">
         <v>45164.54166666666</v>
       </c>
       <c r="E62" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5788,7 +5782,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J62">
         <v>3.6</v>
@@ -5856,16 +5850,16 @@
         <v>6732805</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D63" s="2">
         <v>45165.375</v>
       </c>
       <c r="E63" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5874,7 +5868,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J63">
         <v>1.222</v>
@@ -5942,16 +5936,16 @@
         <v>6732719</v>
       </c>
       <c r="C64" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D64" s="2">
         <v>45165.49652777778</v>
       </c>
       <c r="E64" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G64">
         <v>4</v>
@@ -5960,7 +5954,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J64">
         <v>1.25</v>
@@ -6028,16 +6022,16 @@
         <v>7143716</v>
       </c>
       <c r="C65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D65" s="2">
         <v>45171.29166666666</v>
       </c>
       <c r="E65" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6046,7 +6040,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J65">
         <v>12</v>
@@ -6114,16 +6108,16 @@
         <v>6732807</v>
       </c>
       <c r="C66" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D66" s="2">
         <v>45171.375</v>
       </c>
       <c r="E66" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6132,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J66">
         <v>1.3</v>
@@ -6200,16 +6194,16 @@
         <v>6732808</v>
       </c>
       <c r="C67" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D67" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6218,7 +6212,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J67">
         <v>1.7</v>
@@ -6286,16 +6280,16 @@
         <v>6732809</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D68" s="2">
         <v>45172.49652777778</v>
       </c>
       <c r="E68" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F68" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6304,7 +6298,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J68">
         <v>1.833</v>
@@ -6372,16 +6366,16 @@
         <v>6732720</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D69" s="2">
         <v>45172.5</v>
       </c>
       <c r="E69" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6390,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J69">
         <v>1.125</v>
@@ -6458,16 +6452,16 @@
         <v>7202207</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D70" s="2">
         <v>45185.375</v>
       </c>
       <c r="E70" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6476,7 +6470,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J70">
         <v>4</v>
@@ -6544,16 +6538,16 @@
         <v>6732812</v>
       </c>
       <c r="C71" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D71" s="2">
         <v>45185.5</v>
       </c>
       <c r="E71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6562,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J71">
         <v>2.5</v>
@@ -6630,16 +6624,16 @@
         <v>6732813</v>
       </c>
       <c r="C72" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D72" s="2">
         <v>45186.375</v>
       </c>
       <c r="E72" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6648,7 +6642,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J72">
         <v>1.285</v>
@@ -6716,16 +6710,16 @@
         <v>6732721</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D73" s="2">
         <v>45186.49652777778</v>
       </c>
       <c r="E73" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -6734,7 +6728,7 @@
         <v>6</v>
       </c>
       <c r="I73" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J73">
         <v>6</v>
@@ -6802,16 +6796,16 @@
         <v>6732814</v>
       </c>
       <c r="C74" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D74" s="2">
         <v>45191.5</v>
       </c>
       <c r="E74" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6820,7 +6814,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J74">
         <v>1.8</v>
@@ -6888,16 +6882,16 @@
         <v>6732815</v>
       </c>
       <c r="C75" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D75" s="2">
         <v>45192.375</v>
       </c>
       <c r="E75" t="s">
+        <v>30</v>
+      </c>
+      <c r="F75" t="s">
         <v>32</v>
-      </c>
-      <c r="F75" t="s">
-        <v>34</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -6906,7 +6900,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J75">
         <v>2.375</v>
@@ -6974,16 +6968,16 @@
         <v>6732816</v>
       </c>
       <c r="C76" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D76" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E76" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -6992,7 +6986,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J76">
         <v>1.125</v>
@@ -7060,16 +7054,16 @@
         <v>6732817</v>
       </c>
       <c r="C77" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D77" s="2">
         <v>45193.375</v>
       </c>
       <c r="E77" t="s">
+        <v>36</v>
+      </c>
+      <c r="F77" t="s">
         <v>38</v>
-      </c>
-      <c r="F77" t="s">
-        <v>40</v>
       </c>
       <c r="G77">
         <v>3</v>
@@ -7078,7 +7072,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J77">
         <v>2.25</v>
@@ -7146,16 +7140,16 @@
         <v>6732722</v>
       </c>
       <c r="C78" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D78" s="2">
         <v>45193.49652777778</v>
       </c>
       <c r="E78" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7164,7 +7158,7 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J78">
         <v>1.4</v>
@@ -7232,16 +7226,16 @@
         <v>6732820</v>
       </c>
       <c r="C79" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D79" s="2">
         <v>45197.54166666666</v>
       </c>
       <c r="E79" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7250,7 +7244,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J79">
         <v>1.6</v>
@@ -7318,16 +7312,16 @@
         <v>6732818</v>
       </c>
       <c r="C80" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D80" s="2">
         <v>45198.5</v>
       </c>
       <c r="E80" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7336,7 +7330,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J80">
         <v>1.4</v>
@@ -7404,16 +7398,16 @@
         <v>6732723</v>
       </c>
       <c r="C81" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D81" s="2">
         <v>45199.375</v>
       </c>
       <c r="E81" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7422,7 +7416,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J81">
         <v>5</v>
@@ -7490,16 +7484,16 @@
         <v>6732819</v>
       </c>
       <c r="C82" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D82" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E82" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -7508,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J82">
         <v>2.2</v>
@@ -7576,16 +7570,16 @@
         <v>6732823</v>
       </c>
       <c r="C83" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D83" s="2">
         <v>45206.375</v>
       </c>
       <c r="E83" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7594,7 +7588,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J83">
         <v>1.65</v>
@@ -7662,16 +7656,16 @@
         <v>6732824</v>
       </c>
       <c r="C84" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D84" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E84" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7680,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J84">
         <v>1.909</v>
@@ -7748,16 +7742,16 @@
         <v>6732825</v>
       </c>
       <c r="C85" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D85" s="2">
         <v>45206.54166666666</v>
       </c>
       <c r="E85" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7766,7 +7760,7 @@
         <v>3</v>
       </c>
       <c r="I85" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J85">
         <v>4.5</v>
@@ -7834,16 +7828,16 @@
         <v>7299034</v>
       </c>
       <c r="C86" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D86" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E86" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7852,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J86">
         <v>1.45</v>
@@ -7920,16 +7914,16 @@
         <v>6732724</v>
       </c>
       <c r="C87" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D87" s="2">
         <v>45207.49652777778</v>
       </c>
       <c r="E87" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7938,7 +7932,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J87">
         <v>1.909</v>
@@ -8006,16 +8000,16 @@
         <v>6732826</v>
       </c>
       <c r="C88" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D88" s="2">
         <v>45219.5</v>
       </c>
       <c r="E88" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8024,7 +8018,7 @@
         <v>2</v>
       </c>
       <c r="I88" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J88">
         <v>2.25</v>
@@ -8092,16 +8086,16 @@
         <v>6732827</v>
       </c>
       <c r="C89" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D89" s="2">
         <v>45220.375</v>
       </c>
       <c r="E89" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F89" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -8110,7 +8104,7 @@
         <v>2</v>
       </c>
       <c r="I89" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J89">
         <v>6</v>
@@ -8178,16 +8172,16 @@
         <v>7326568</v>
       </c>
       <c r="C90" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D90" s="2">
         <v>45220.375</v>
       </c>
       <c r="E90" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8196,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J90">
         <v>2.375</v>
@@ -8264,16 +8258,16 @@
         <v>6732828</v>
       </c>
       <c r="C91" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D91" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E91" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8282,7 +8276,7 @@
         <v>2</v>
       </c>
       <c r="I91" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J91">
         <v>2.625</v>
@@ -8350,16 +8344,16 @@
         <v>6732725</v>
       </c>
       <c r="C92" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D92" s="2">
         <v>45221.49652777778</v>
       </c>
       <c r="E92" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -8368,7 +8362,7 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J92">
         <v>1.571</v>
@@ -8436,16 +8430,16 @@
         <v>7216318</v>
       </c>
       <c r="C93" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D93" s="2">
         <v>45224.5</v>
       </c>
       <c r="E93" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8454,7 +8448,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J93">
         <v>4.75</v>
@@ -8522,16 +8516,16 @@
         <v>6732811</v>
       </c>
       <c r="C94" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D94" s="2">
         <v>45224.52083333334</v>
       </c>
       <c r="E94" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -8540,7 +8534,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J94">
         <v>3.1</v>
@@ -8608,16 +8602,16 @@
         <v>6732835</v>
       </c>
       <c r="C95" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D95" s="2">
         <v>45228.41666666666</v>
       </c>
       <c r="E95" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G95">
         <v>4</v>
@@ -8626,7 +8620,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J95">
         <v>2.5</v>
@@ -8694,16 +8688,16 @@
         <v>7259250</v>
       </c>
       <c r="C96" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D96" s="2">
         <v>45229.54166666666</v>
       </c>
       <c r="E96" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8712,7 +8706,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J96">
         <v>3.6</v>
@@ -8780,16 +8774,16 @@
         <v>6732831</v>
       </c>
       <c r="C97" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D97" s="2">
         <v>45234.33333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8798,7 +8792,7 @@
         <v>3</v>
       </c>
       <c r="I97" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J97">
         <v>5</v>
@@ -8866,16 +8860,16 @@
         <v>6732833</v>
       </c>
       <c r="C98" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D98" s="2">
         <v>45235.41666666666</v>
       </c>
       <c r="E98" t="s">
+        <v>31</v>
+      </c>
+      <c r="F98" t="s">
         <v>33</v>
-      </c>
-      <c r="F98" t="s">
-        <v>35</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8884,7 +8878,7 @@
         <v>2</v>
       </c>
       <c r="I98" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J98">
         <v>6.5</v>
@@ -8952,16 +8946,16 @@
         <v>6732832</v>
       </c>
       <c r="C99" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D99" s="2">
         <v>45235.53819444445</v>
       </c>
       <c r="E99" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8970,7 +8964,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J99">
         <v>2.625</v>
@@ -9038,16 +9032,16 @@
         <v>7465686</v>
       </c>
       <c r="C100" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D100" s="2">
         <v>45242.41319444445</v>
       </c>
       <c r="E100" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G100">
         <v>4</v>
@@ -9056,7 +9050,7 @@
         <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J100">
         <v>2.3</v>
@@ -9124,16 +9118,16 @@
         <v>6732837</v>
       </c>
       <c r="C101" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D101" s="2">
         <v>45242.41319444445</v>
       </c>
       <c r="E101" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -9142,7 +9136,7 @@
         <v>3</v>
       </c>
       <c r="I101" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J101">
         <v>3.6</v>
@@ -9210,16 +9204,16 @@
         <v>6732727</v>
       </c>
       <c r="C102" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D102" s="2">
         <v>45242.41319444445</v>
       </c>
       <c r="E102" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9228,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J102">
         <v>1.285</v>
@@ -9296,16 +9290,16 @@
         <v>6732834</v>
       </c>
       <c r="C103" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D103" s="2">
         <v>45242.41319444445</v>
       </c>
       <c r="E103" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9314,7 +9308,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J103">
         <v>1.25</v>
@@ -9382,16 +9376,16 @@
         <v>6732836</v>
       </c>
       <c r="C104" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D104" s="2">
         <v>45242.41319444445</v>
       </c>
       <c r="E104" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G104">
         <v>3</v>
@@ -9400,7 +9394,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J104">
         <v>1.222</v>
@@ -9468,16 +9462,16 @@
         <v>7862033</v>
       </c>
       <c r="C105" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D105" s="2">
         <v>45352.58333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F105" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9486,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J105">
         <v>4.333</v>
@@ -9554,16 +9548,16 @@
         <v>7862902</v>
       </c>
       <c r="C106" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D106" s="2">
         <v>45353.33333333334</v>
       </c>
       <c r="E106" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9572,7 +9566,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J106">
         <v>7.5</v>
@@ -9640,16 +9634,16 @@
         <v>7862903</v>
       </c>
       <c r="C107" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D107" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E107" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F107" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9658,7 +9652,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -9726,16 +9720,16 @@
         <v>7862034</v>
       </c>
       <c r="C108" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D108" s="2">
         <v>45354.33333333334</v>
       </c>
       <c r="E108" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9744,7 +9738,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J108">
         <v>6.5</v>
@@ -9812,16 +9806,16 @@
         <v>7862904</v>
       </c>
       <c r="C109" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D109" s="2">
         <v>45354.5625</v>
       </c>
       <c r="E109" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F109" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9830,7 +9824,7 @@
         <v>3</v>
       </c>
       <c r="I109" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J109">
         <v>1.8</v>
@@ -9898,16 +9892,16 @@
         <v>7862905</v>
       </c>
       <c r="C110" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D110" s="2">
         <v>45360.33333333334</v>
       </c>
       <c r="E110" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F110" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9916,7 +9910,7 @@
         <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J110">
         <v>2.1</v>
@@ -9984,16 +9978,16 @@
         <v>7862906</v>
       </c>
       <c r="C111" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D111" s="2">
         <v>45360.41666666666</v>
       </c>
       <c r="E111" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -10002,7 +9996,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J111">
         <v>2</v>
@@ -10070,16 +10064,16 @@
         <v>7862907</v>
       </c>
       <c r="C112" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D112" s="2">
         <v>45361.33333333334</v>
       </c>
       <c r="E112" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -10088,7 +10082,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J112">
         <v>1.4</v>
@@ -10156,16 +10150,16 @@
         <v>7862908</v>
       </c>
       <c r="C113" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D113" s="2">
         <v>45361.41666666666</v>
       </c>
       <c r="E113" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F113" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10174,7 +10168,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J113">
         <v>1.2</v>
@@ -10242,16 +10236,16 @@
         <v>7862035</v>
       </c>
       <c r="C114" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D114" s="2">
         <v>45361.5625</v>
       </c>
       <c r="E114" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F114" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G114">
         <v>3</v>
@@ -10260,7 +10254,7 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J114">
         <v>1.3</v>
@@ -10328,16 +10322,16 @@
         <v>7862909</v>
       </c>
       <c r="C115" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D115" s="2">
         <v>45363.54166666666</v>
       </c>
       <c r="E115" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F115" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -10346,7 +10340,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J115">
         <v>2</v>
@@ -10414,16 +10408,16 @@
         <v>7862910</v>
       </c>
       <c r="C116" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D116" s="2">
         <v>45364.5</v>
       </c>
       <c r="E116" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10432,7 +10426,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J116">
         <v>2.3</v>
@@ -10497,82 +10491,82 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7862036</v>
+        <v>7862911</v>
       </c>
       <c r="C117" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D117" s="2">
         <v>45364.54166666666</v>
       </c>
       <c r="E117" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F117" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I117" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J117">
-        <v>8</v>
+        <v>2.15</v>
       </c>
       <c r="K117">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="L117">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="M117">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="N117">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="O117">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="P117">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="Q117">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="R117">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="S117">
         <v>2.5</v>
       </c>
       <c r="T117">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="U117">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V117">
         <v>-1</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X117">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z117">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA117">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB117">
         <v>-1</v>
@@ -10583,82 +10577,82 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7862911</v>
+        <v>7862036</v>
       </c>
       <c r="C118" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D118" s="2">
         <v>45364.54166666666</v>
       </c>
       <c r="E118" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I118" t="s">
         <v>43</v>
       </c>
       <c r="J118">
-        <v>2.15</v>
+        <v>8</v>
       </c>
       <c r="K118">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="L118">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="M118">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="N118">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="O118">
-        <v>3</v>
+        <v>1.333</v>
       </c>
       <c r="P118">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q118">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="R118">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="S118">
         <v>2.5</v>
       </c>
       <c r="T118">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="U118">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V118">
         <v>-1</v>
       </c>
       <c r="W118">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Y118">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA118">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB118">
         <v>-1</v>
@@ -10672,16 +10666,16 @@
         <v>7862037</v>
       </c>
       <c r="C119" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D119" s="2">
         <v>45364.63541666666</v>
       </c>
       <c r="E119" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10690,7 +10684,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J119">
         <v>7.5</v>
@@ -10758,16 +10752,16 @@
         <v>7862038</v>
       </c>
       <c r="C120" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D120" s="2">
         <v>45367.375</v>
       </c>
       <c r="E120" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10776,7 +10770,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J120">
         <v>2.5</v>
@@ -10844,16 +10838,16 @@
         <v>7862912</v>
       </c>
       <c r="C121" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D121" s="2">
         <v>45367.4375</v>
       </c>
       <c r="E121" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -10862,7 +10856,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J121">
         <v>1.2</v>
@@ -10930,16 +10924,16 @@
         <v>7862913</v>
       </c>
       <c r="C122" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D122" s="2">
         <v>45368.375</v>
       </c>
       <c r="E122" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -10948,7 +10942,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J122">
         <v>2.2</v>
@@ -11016,16 +11010,16 @@
         <v>7862914</v>
       </c>
       <c r="C123" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D123" s="2">
         <v>45368.41666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F123" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11034,7 +11028,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J123">
         <v>2.5</v>
@@ -11102,16 +11096,16 @@
         <v>7862039</v>
       </c>
       <c r="C124" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D124" s="2">
         <v>45368.5625</v>
       </c>
       <c r="E124" t="s">
+        <v>34</v>
+      </c>
+      <c r="F124" t="s">
         <v>36</v>
-      </c>
-      <c r="F124" t="s">
-        <v>38</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11120,7 +11114,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J124">
         <v>1.615</v>
@@ -11188,16 +11182,16 @@
         <v>7862915</v>
       </c>
       <c r="C125" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D125" s="2">
         <v>45380.58333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -11206,7 +11200,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J125">
         <v>2.6</v>
@@ -11274,16 +11268,16 @@
         <v>7862916</v>
       </c>
       <c r="C126" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D126" s="2">
         <v>45381.41666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G126">
         <v>4</v>
@@ -11292,7 +11286,7 @@
         <v>2</v>
       </c>
       <c r="I126" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J126">
         <v>2.5</v>
@@ -11360,16 +11354,16 @@
         <v>7862917</v>
       </c>
       <c r="C127" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D127" s="2">
         <v>45381.5</v>
       </c>
       <c r="E127" t="s">
+        <v>38</v>
+      </c>
+      <c r="F127" t="s">
         <v>40</v>
-      </c>
-      <c r="F127" t="s">
-        <v>42</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -11378,7 +11372,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J127">
         <v>1.533</v>
@@ -11446,16 +11440,16 @@
         <v>7862040</v>
       </c>
       <c r="C128" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D128" s="2">
         <v>45382.375</v>
       </c>
       <c r="E128" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11464,7 +11458,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J128">
         <v>2.45</v>
@@ -11532,16 +11526,16 @@
         <v>7862042</v>
       </c>
       <c r="C129" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D129" s="2">
         <v>45382.51736111111</v>
       </c>
       <c r="E129" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F129" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -11550,7 +11544,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J129">
         <v>4</v>
@@ -11618,16 +11612,16 @@
         <v>7862918</v>
       </c>
       <c r="C130" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D130" s="2">
         <v>45388.375</v>
       </c>
       <c r="E130" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F130" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11636,7 +11630,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J130">
         <v>4.333</v>
@@ -11704,16 +11698,16 @@
         <v>7862919</v>
       </c>
       <c r="C131" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D131" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11722,7 +11716,7 @@
         <v>2</v>
       </c>
       <c r="I131" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J131">
         <v>2.25</v>
@@ -11790,16 +11784,16 @@
         <v>7865009</v>
       </c>
       <c r="C132" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D132" s="2">
         <v>45389.29166666666</v>
       </c>
       <c r="E132" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11808,7 +11802,7 @@
         <v>2</v>
       </c>
       <c r="I132" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J132">
         <v>1.833</v>
@@ -11876,16 +11870,16 @@
         <v>7862043</v>
       </c>
       <c r="C133" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D133" s="2">
         <v>45389.375</v>
       </c>
       <c r="E133" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F133" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G133">
         <v>3</v>
@@ -11894,7 +11888,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J133">
         <v>1.666</v>
@@ -11962,16 +11956,16 @@
         <v>7862920</v>
       </c>
       <c r="C134" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D134" s="2">
         <v>45389.51736111111</v>
       </c>
       <c r="E134" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -11980,7 +11974,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J134">
         <v>2.75</v>
@@ -12048,16 +12042,16 @@
         <v>7862921</v>
       </c>
       <c r="C135" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D135" s="2">
         <v>45391.5</v>
       </c>
       <c r="E135" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12066,7 +12060,7 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J135">
         <v>1.75</v>
@@ -12134,16 +12128,16 @@
         <v>7862044</v>
       </c>
       <c r="C136" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D136" s="2">
         <v>45392.5</v>
       </c>
       <c r="E136" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12152,7 +12146,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J136">
         <v>2.1</v>
@@ -12220,16 +12214,16 @@
         <v>7862922</v>
       </c>
       <c r="C137" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D137" s="2">
         <v>45392.5</v>
       </c>
       <c r="E137" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12238,7 +12232,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J137">
         <v>2.7</v>
@@ -12306,16 +12300,16 @@
         <v>7862923</v>
       </c>
       <c r="C138" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D138" s="2">
         <v>45392.54166666666</v>
       </c>
       <c r="E138" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G138">
         <v>3</v>
@@ -12324,7 +12318,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J138">
         <v>1.333</v>
@@ -12392,25 +12386,25 @@
         <v>7865008</v>
       </c>
       <c r="C139" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D139" s="2">
         <v>45392.58333333334</v>
       </c>
       <c r="E139" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F139" t="s">
+        <v>40</v>
+      </c>
+      <c r="G139">
+        <v>2</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139" t="s">
         <v>42</v>
-      </c>
-      <c r="G139">
-        <v>2</v>
-      </c>
-      <c r="H139">
-        <v>0</v>
-      </c>
-      <c r="I139" t="s">
-        <v>44</v>
       </c>
       <c r="J139">
         <v>1.333</v>
@@ -12478,16 +12472,16 @@
         <v>7862924</v>
       </c>
       <c r="C140" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D140" s="2">
         <v>45395.375</v>
       </c>
       <c r="E140" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F140" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -12496,7 +12490,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J140">
         <v>2.5</v>
@@ -12564,16 +12558,16 @@
         <v>7862045</v>
       </c>
       <c r="C141" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D141" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E141" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -12582,7 +12576,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J141">
         <v>3.4</v>
@@ -12650,16 +12644,16 @@
         <v>7862925</v>
       </c>
       <c r="C142" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D142" s="2">
         <v>45396.29166666666</v>
       </c>
       <c r="E142" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F142" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -12668,7 +12662,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J142">
         <v>3.75</v>
@@ -12736,16 +12730,16 @@
         <v>7862046</v>
       </c>
       <c r="C143" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D143" s="2">
         <v>45396.375</v>
       </c>
       <c r="E143" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F143" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -12754,7 +12748,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J143">
         <v>3.75</v>
@@ -12822,16 +12816,16 @@
         <v>7862047</v>
       </c>
       <c r="C144" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D144" s="2">
         <v>45402.375</v>
       </c>
       <c r="E144" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -12840,7 +12834,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J144">
         <v>1.444</v>
@@ -12908,16 +12902,16 @@
         <v>7862927</v>
       </c>
       <c r="C145" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D145" s="2">
         <v>45402.5</v>
       </c>
       <c r="E145" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12926,7 +12920,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -12994,16 +12988,16 @@
         <v>7862928</v>
       </c>
       <c r="C146" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D146" s="2">
         <v>45403.29166666666</v>
       </c>
       <c r="E146" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F146" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13012,7 +13006,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J146">
         <v>1.8</v>
@@ -13080,16 +13074,16 @@
         <v>7862929</v>
       </c>
       <c r="C147" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D147" s="2">
         <v>45403.375</v>
       </c>
       <c r="E147" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F147" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G147">
         <v>2</v>
@@ -13098,7 +13092,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J147">
         <v>1.4</v>
@@ -13166,16 +13160,16 @@
         <v>7862048</v>
       </c>
       <c r="C148" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D148" s="2">
         <v>45403.51736111111</v>
       </c>
       <c r="E148" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13184,7 +13178,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J148">
         <v>1.333</v>
@@ -13252,16 +13246,16 @@
         <v>7862049</v>
       </c>
       <c r="C149" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D149" s="2">
         <v>45405.54166666666</v>
       </c>
       <c r="E149" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F149" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13270,7 +13264,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J149">
         <v>1.65</v>
@@ -13338,16 +13332,16 @@
         <v>7862930</v>
       </c>
       <c r="C150" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D150" s="2">
         <v>45406.5</v>
       </c>
       <c r="E150" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -13356,7 +13350,7 @@
         <v>2</v>
       </c>
       <c r="I150" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J150">
         <v>4</v>
@@ -13424,16 +13418,16 @@
         <v>7862932</v>
       </c>
       <c r="C151" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D151" s="2">
         <v>45406.54166666666</v>
       </c>
       <c r="E151" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F151" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -13442,7 +13436,7 @@
         <v>3</v>
       </c>
       <c r="I151" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J151">
         <v>1.4</v>
@@ -13510,16 +13504,16 @@
         <v>7862050</v>
       </c>
       <c r="C152" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D152" s="2">
         <v>45406.58333333334</v>
       </c>
       <c r="E152" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F152" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G152">
         <v>4</v>
@@ -13528,7 +13522,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J152">
         <v>1.363</v>
@@ -13596,37 +13590,37 @@
         <v>27</v>
       </c>
       <c r="C153" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D153" s="2">
-        <v>45410.29166666666</v>
+        <v>45410.45833333334</v>
       </c>
       <c r="E153" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F153" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="J153">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="K153">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="L153">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="M153">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="N153">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="O153">
-        <v>2.875</v>
+        <v>1.6</v>
       </c>
       <c r="P153">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q153">
         <v>2.025</v>
@@ -13638,10 +13632,10 @@
         <v>2.25</v>
       </c>
       <c r="T153">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U153">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V153">
         <v>0</v>
@@ -13661,53 +13655,53 @@
         <v>28</v>
       </c>
       <c r="C154" t="s">
+        <v>29</v>
+      </c>
+      <c r="D154" s="2">
+        <v>45410.54166666666</v>
+      </c>
+      <c r="E154" t="s">
         <v>31</v>
       </c>
-      <c r="D154" s="2">
-        <v>45410.375</v>
-      </c>
-      <c r="E154" t="s">
-        <v>34</v>
-      </c>
       <c r="F154" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J154">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="K154">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L154">
+        <v>1.666</v>
+      </c>
+      <c r="M154">
+        <v>3</v>
+      </c>
+      <c r="N154">
+        <v>2.9</v>
+      </c>
+      <c r="O154">
+        <v>2.375</v>
+      </c>
+      <c r="P154">
+        <v>0.25</v>
+      </c>
+      <c r="Q154">
+        <v>1.775</v>
+      </c>
+      <c r="R154">
+        <v>2.025</v>
+      </c>
+      <c r="S154">
+        <v>2</v>
+      </c>
+      <c r="T154">
+        <v>2</v>
+      </c>
+      <c r="U154">
         <v>1.8</v>
       </c>
-      <c r="M154">
-        <v>3.8</v>
-      </c>
-      <c r="N154">
-        <v>3.1</v>
-      </c>
-      <c r="O154">
-        <v>1.95</v>
-      </c>
-      <c r="P154">
-        <v>0.5</v>
-      </c>
-      <c r="Q154">
-        <v>1.8</v>
-      </c>
-      <c r="R154">
-        <v>2</v>
-      </c>
-      <c r="S154">
-        <v>2</v>
-      </c>
-      <c r="T154">
-        <v>1.85</v>
-      </c>
-      <c r="U154">
-        <v>1.95</v>
-      </c>
       <c r="V154">
         <v>0</v>
       </c>
@@ -13715,136 +13709,6 @@
         <v>0</v>
       </c>
       <c r="X154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:28">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
-      <c r="B155" t="s">
-        <v>29</v>
-      </c>
-      <c r="C155" t="s">
-        <v>31</v>
-      </c>
-      <c r="D155" s="2">
-        <v>45410.45833333334</v>
-      </c>
-      <c r="E155" t="s">
-        <v>39</v>
-      </c>
-      <c r="F155" t="s">
-        <v>36</v>
-      </c>
-      <c r="J155">
-        <v>6</v>
-      </c>
-      <c r="K155">
-        <v>4.25</v>
-      </c>
-      <c r="L155">
-        <v>1.444</v>
-      </c>
-      <c r="M155">
-        <v>4.75</v>
-      </c>
-      <c r="N155">
-        <v>3.8</v>
-      </c>
-      <c r="O155">
-        <v>1.6</v>
-      </c>
-      <c r="P155">
-        <v>0.75</v>
-      </c>
-      <c r="Q155">
-        <v>2.025</v>
-      </c>
-      <c r="R155">
-        <v>1.775</v>
-      </c>
-      <c r="S155">
-        <v>2.25</v>
-      </c>
-      <c r="T155">
-        <v>1.8</v>
-      </c>
-      <c r="U155">
-        <v>2</v>
-      </c>
-      <c r="V155">
-        <v>0</v>
-      </c>
-      <c r="W155">
-        <v>0</v>
-      </c>
-      <c r="X155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:28">
-      <c r="A156" s="1">
-        <v>154</v>
-      </c>
-      <c r="B156" t="s">
-        <v>30</v>
-      </c>
-      <c r="C156" t="s">
-        <v>31</v>
-      </c>
-      <c r="D156" s="2">
-        <v>45410.5625</v>
-      </c>
-      <c r="E156" t="s">
-        <v>33</v>
-      </c>
-      <c r="F156" t="s">
-        <v>35</v>
-      </c>
-      <c r="J156">
-        <v>5</v>
-      </c>
-      <c r="K156">
-        <v>3.4</v>
-      </c>
-      <c r="L156">
-        <v>1.666</v>
-      </c>
-      <c r="M156">
-        <v>4.2</v>
-      </c>
-      <c r="N156">
-        <v>3.2</v>
-      </c>
-      <c r="O156">
-        <v>1.85</v>
-      </c>
-      <c r="P156">
-        <v>0.5</v>
-      </c>
-      <c r="Q156">
-        <v>1.925</v>
-      </c>
-      <c r="R156">
-        <v>1.875</v>
-      </c>
-      <c r="S156">
-        <v>2</v>
-      </c>
-      <c r="T156">
-        <v>1.8</v>
-      </c>
-      <c r="U156">
-        <v>2</v>
-      </c>
-      <c r="V156">
-        <v>0</v>
-      </c>
-      <c r="W156">
-        <v>0</v>
-      </c>
-      <c r="X156">
         <v>0</v>
       </c>
     </row>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -103,13 +103,13 @@
     <t>FK Dziugas Telsiai</t>
   </si>
   <si>
+    <t>Panevezys</t>
+  </si>
+  <si>
     <t>FK Dainava Alytus</t>
   </si>
   <si>
     <t>Banga Gargzdai</t>
-  </si>
-  <si>
-    <t>Panevezys</t>
   </si>
   <si>
     <t>FK Zalgiris Vilnius</t>
@@ -121,10 +121,10 @@
     <t>Hegelmann Litauen</t>
   </si>
   <si>
-    <t>Suduva Marijampole</t>
+    <t>FK Siauliai</t>
   </si>
   <si>
-    <t>FK Siauliai</t>
+    <t>Suduva Marijampole</t>
   </si>
   <si>
     <t>FK Kauno Zalgiris</t>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB154"/>
+  <dimension ref="A1:AB157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -681,55 +681,55 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6227964</v>
+        <v>6227966</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="2">
-        <v>45080.375</v>
+        <v>45080.54166666666</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>40</v>
       </c>
       <c r="J3">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>1.95</v>
+      </c>
+      <c r="N3">
         <v>3.6</v>
       </c>
-      <c r="M3">
-        <v>1.833</v>
-      </c>
-      <c r="N3">
-        <v>3.8</v>
-      </c>
       <c r="O3">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P3">
         <v>-0.5</v>
       </c>
       <c r="Q3">
+        <v>1.95</v>
+      </c>
+      <c r="R3">
         <v>1.85</v>
-      </c>
-      <c r="R3">
-        <v>1.95</v>
       </c>
       <c r="S3">
         <v>2.5</v>
@@ -741,7 +741,7 @@
         <v>1.925</v>
       </c>
       <c r="V3">
-        <v>0.833</v>
+        <v>0.95</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -750,16 +750,16 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -767,85 +767,85 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6227965</v>
+        <v>6227964</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="2">
-        <v>45080.45833333334</v>
+        <v>45080.375</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J4">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="K4">
         <v>3.4</v>
       </c>
       <c r="L4">
+        <v>3.6</v>
+      </c>
+      <c r="M4">
+        <v>1.833</v>
+      </c>
+      <c r="N4">
+        <v>3.8</v>
+      </c>
+      <c r="O4">
+        <v>3.5</v>
+      </c>
+      <c r="P4">
+        <v>-0.5</v>
+      </c>
+      <c r="Q4">
+        <v>1.85</v>
+      </c>
+      <c r="R4">
+        <v>1.95</v>
+      </c>
+      <c r="S4">
         <v>2.5</v>
       </c>
-      <c r="M4">
-        <v>3.5</v>
-      </c>
-      <c r="N4">
-        <v>3.75</v>
-      </c>
-      <c r="O4">
-        <v>1.833</v>
-      </c>
-      <c r="P4">
-        <v>0.5</v>
-      </c>
-      <c r="Q4">
-        <v>1.9</v>
-      </c>
-      <c r="R4">
-        <v>1.9</v>
-      </c>
-      <c r="S4">
-        <v>2.25</v>
-      </c>
       <c r="T4">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="U4">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="W4">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB4">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -853,85 +853,85 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6227966</v>
+        <v>6227965</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="2">
-        <v>45080.54166666666</v>
+        <v>45080.45833333334</v>
       </c>
       <c r="E5" t="s">
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="K5">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="M5">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="N5">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O5">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="P5">
+        <v>0.5</v>
+      </c>
+      <c r="Q5">
+        <v>1.9</v>
+      </c>
+      <c r="R5">
+        <v>1.9</v>
+      </c>
+      <c r="S5">
+        <v>2.25</v>
+      </c>
+      <c r="T5">
+        <v>1.775</v>
+      </c>
+      <c r="U5">
+        <v>2.025</v>
+      </c>
+      <c r="V5">
+        <v>-1</v>
+      </c>
+      <c r="W5">
+        <v>2.75</v>
+      </c>
+      <c r="X5">
+        <v>-1</v>
+      </c>
+      <c r="Y5">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="Z5">
+        <v>-1</v>
+      </c>
+      <c r="AA5">
         <v>-0.5</v>
       </c>
-      <c r="Q5">
-        <v>1.95</v>
-      </c>
-      <c r="R5">
-        <v>1.85</v>
-      </c>
-      <c r="S5">
-        <v>2.5</v>
-      </c>
-      <c r="T5">
-        <v>1.875</v>
-      </c>
-      <c r="U5">
-        <v>1.925</v>
-      </c>
-      <c r="V5">
-        <v>0.95</v>
-      </c>
-      <c r="W5">
-        <v>-1</v>
-      </c>
-      <c r="X5">
-        <v>-1</v>
-      </c>
-      <c r="Y5">
-        <v>0.95</v>
-      </c>
-      <c r="Z5">
-        <v>-1</v>
-      </c>
-      <c r="AA5">
-        <v>-1</v>
-      </c>
       <c r="AB5">
-        <v>0.925</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -951,7 +951,7 @@
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1120,10 +1120,10 @@
         <v>45083.5</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1209,7 +1209,7 @@
         <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1292,10 +1292,10 @@
         <v>45084.54166666666</v>
       </c>
       <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
         <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>31</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1455,85 +1455,85 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6227971</v>
+        <v>6227972</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="2">
-        <v>45087.45833333334</v>
+        <v>45087.54166666666</v>
       </c>
       <c r="E12" t="s">
         <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="s">
         <v>39</v>
       </c>
       <c r="J12">
+        <v>1.533</v>
+      </c>
+      <c r="K12">
+        <v>3.6</v>
+      </c>
+      <c r="L12">
+        <v>5.5</v>
+      </c>
+      <c r="M12">
+        <v>1.4</v>
+      </c>
+      <c r="N12">
+        <v>4</v>
+      </c>
+      <c r="O12">
+        <v>6.5</v>
+      </c>
+      <c r="P12">
+        <v>-1.25</v>
+      </c>
+      <c r="Q12">
+        <v>1.9</v>
+      </c>
+      <c r="R12">
+        <v>1.9</v>
+      </c>
+      <c r="S12">
         <v>2.75</v>
       </c>
-      <c r="K12">
+      <c r="T12">
+        <v>1.8</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <v>-1</v>
+      </c>
+      <c r="W12">
         <v>3</v>
       </c>
-      <c r="L12">
-        <v>2.4</v>
-      </c>
-      <c r="M12">
-        <v>2.6</v>
-      </c>
-      <c r="N12">
-        <v>2.9</v>
-      </c>
-      <c r="O12">
-        <v>2.6</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>1.925</v>
-      </c>
-      <c r="R12">
-        <v>1.875</v>
-      </c>
-      <c r="S12">
-        <v>2.25</v>
-      </c>
-      <c r="T12">
-        <v>1.975</v>
-      </c>
-      <c r="U12">
-        <v>1.825</v>
-      </c>
-      <c r="V12">
-        <v>-1</v>
-      </c>
-      <c r="W12">
-        <v>1.9</v>
-      </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1541,85 +1541,85 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6227972</v>
+        <v>6227971</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="2">
-        <v>45087.54166666666</v>
+        <v>45087.45833333334</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="s">
         <v>39</v>
       </c>
       <c r="J13">
-        <v>1.533</v>
+        <v>2.75</v>
       </c>
       <c r="K13">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="M13">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="N13">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="O13">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="P13">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q13">
+        <v>1.925</v>
+      </c>
+      <c r="R13">
+        <v>1.875</v>
+      </c>
+      <c r="S13">
+        <v>2.25</v>
+      </c>
+      <c r="T13">
+        <v>1.975</v>
+      </c>
+      <c r="U13">
+        <v>1.825</v>
+      </c>
+      <c r="V13">
+        <v>-1</v>
+      </c>
+      <c r="W13">
         <v>1.9</v>
       </c>
-      <c r="R13">
-        <v>1.9</v>
-      </c>
-      <c r="S13">
-        <v>2.75</v>
-      </c>
-      <c r="T13">
-        <v>1.8</v>
-      </c>
-      <c r="U13">
-        <v>2</v>
-      </c>
-      <c r="V13">
-        <v>-1</v>
-      </c>
-      <c r="W13">
-        <v>3</v>
-      </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1627,85 +1627,85 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6227973</v>
+        <v>6227244</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="2">
-        <v>45088.49652777778</v>
+        <v>45088.41666666666</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J14">
-        <v>1.3</v>
+        <v>1.333</v>
       </c>
       <c r="K14">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M14">
-        <v>1.222</v>
+        <v>1.333</v>
       </c>
       <c r="N14">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="O14">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="P14">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R14">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T14">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U14">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V14">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
+        <v>-1</v>
+      </c>
+      <c r="Z14">
         <v>1</v>
       </c>
-      <c r="Z14">
-        <v>-1</v>
-      </c>
       <c r="AA14">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1713,85 +1713,85 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6227244</v>
+        <v>6227973</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="2">
-        <v>45088.41666666666</v>
+        <v>45088.49652777778</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J15">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="K15">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="L15">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M15">
-        <v>1.333</v>
+        <v>1.222</v>
       </c>
       <c r="N15">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="O15">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="P15">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="R15">
         <v>1.8</v>
       </c>
-      <c r="R15">
-        <v>2</v>
-      </c>
       <c r="S15">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T15">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U15">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V15">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="W15">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB15">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -1799,85 +1799,85 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6732710</v>
+        <v>6732766</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="2">
-        <v>45099.54166666666</v>
+        <v>45099.58333333334</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J16">
-        <v>11</v>
+        <v>1.363</v>
       </c>
       <c r="K16">
-        <v>5.5</v>
+        <v>4.25</v>
       </c>
       <c r="L16">
-        <v>1.2</v>
+        <v>7</v>
       </c>
       <c r="M16">
-        <v>9</v>
+        <v>1.4</v>
       </c>
       <c r="N16">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O16">
-        <v>1.3</v>
+        <v>7</v>
       </c>
       <c r="P16">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q16">
+        <v>1.925</v>
+      </c>
+      <c r="R16">
+        <v>1.875</v>
+      </c>
+      <c r="S16">
+        <v>2.5</v>
+      </c>
+      <c r="T16">
         <v>1.975</v>
       </c>
-      <c r="R16">
+      <c r="U16">
         <v>1.825</v>
       </c>
-      <c r="S16">
-        <v>3</v>
-      </c>
-      <c r="T16">
-        <v>2</v>
-      </c>
-      <c r="U16">
-        <v>1.8</v>
-      </c>
       <c r="V16">
         <v>-1</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X16">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -1885,85 +1885,85 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6732766</v>
+        <v>6732710</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="2">
-        <v>45099.58333333334</v>
+        <v>45099.54166666666</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J17">
-        <v>1.363</v>
+        <v>11</v>
       </c>
       <c r="K17">
-        <v>4.25</v>
+        <v>5.5</v>
       </c>
       <c r="L17">
-        <v>7</v>
+        <v>1.2</v>
       </c>
       <c r="M17">
-        <v>1.4</v>
+        <v>9</v>
       </c>
       <c r="N17">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O17">
-        <v>7</v>
+        <v>1.3</v>
       </c>
       <c r="P17">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q17">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R17">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S17">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T17">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U17">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V17">
         <v>-1</v>
       </c>
       <c r="W17">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z17">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB17">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -1980,7 +1980,7 @@
         <v>45101.54166666666</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
         <v>33</v>
@@ -2069,7 +2069,7 @@
         <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2152,10 +2152,10 @@
         <v>45102.5</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>45105.54166666666</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
         <v>34</v>
@@ -2410,7 +2410,7 @@
         <v>45107.5</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
         <v>33</v>
@@ -2499,7 +2499,7 @@
         <v>28</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2573,58 +2573,58 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6732772</v>
+        <v>6732773</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="2">
-        <v>45109.49652777778</v>
+        <v>45109.58333333334</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J25">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="L25">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="M25">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N25">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="O25">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R25">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S25">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T25">
         <v>1.9</v>
@@ -2633,25 +2633,25 @@
         <v>1.9</v>
       </c>
       <c r="V25">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y25">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA25">
+        <v>-1</v>
+      </c>
+      <c r="AB25">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB25">
-        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -2659,7 +2659,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6732773</v>
+        <v>6732711</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
@@ -2668,16 +2668,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I26" t="s">
         <v>41</v>
@@ -2686,37 +2686,37 @@
         <v>5</v>
       </c>
       <c r="K26">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L26">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="M26">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N26">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="O26">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="P26">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Q26">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R26">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S26">
         <v>2.5</v>
       </c>
       <c r="T26">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U26">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V26">
         <v>-1</v>
@@ -2725,19 +2725,19 @@
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>0.5329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB26">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -2745,82 +2745,82 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6732711</v>
+        <v>6732772</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="2">
-        <v>45109.58333333334</v>
+        <v>45109.49652777778</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J27">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="K27">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L27">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="M27">
-        <v>11</v>
+        <v>2.6</v>
       </c>
       <c r="N27">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="O27">
-        <v>1.25</v>
+        <v>2.7</v>
       </c>
       <c r="P27">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R27">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S27">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T27">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U27">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z27">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB27">
         <v>-1</v>
@@ -2926,7 +2926,7 @@
         <v>45114.54166666666</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F29" t="s">
         <v>37</v>
@@ -3098,10 +3098,10 @@
         <v>45115.54166666666</v>
       </c>
       <c r="E31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" t="s">
         <v>36</v>
-      </c>
-      <c r="F31" t="s">
-        <v>35</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3184,10 +3184,10 @@
         <v>45116.49652777778</v>
       </c>
       <c r="E32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3270,7 +3270,7 @@
         <v>45121.54166666666</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F33" t="s">
         <v>28</v>
@@ -3359,7 +3359,7 @@
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3442,7 +3442,7 @@
         <v>45125.58333333334</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F35" t="s">
         <v>37</v>
@@ -3531,7 +3531,7 @@
         <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -3614,7 +3614,7 @@
         <v>45129.54166666666</v>
       </c>
       <c r="E37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
         <v>37</v>
@@ -3786,10 +3786,10 @@
         <v>45131.58333333334</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -3872,7 +3872,7 @@
         <v>45132.54166666666</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F40" t="s">
         <v>34</v>
@@ -3958,10 +3958,10 @@
         <v>45135.54166666666</v>
       </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -4047,7 +4047,7 @@
         <v>28</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4219,7 +4219,7 @@
         <v>32</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4302,10 +4302,10 @@
         <v>45142.54166666666</v>
       </c>
       <c r="E45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4391,7 +4391,7 @@
         <v>33</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4560,7 +4560,7 @@
         <v>45144.49652777778</v>
       </c>
       <c r="E48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F48" t="s">
         <v>32</v>
@@ -4646,7 +4646,7 @@
         <v>45145.54166666666</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F49" t="s">
         <v>34</v>
@@ -4732,7 +4732,7 @@
         <v>45149.54166666666</v>
       </c>
       <c r="E50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F50" t="s">
         <v>28</v>
@@ -4818,10 +4818,10 @@
         <v>45149.54166666666</v>
       </c>
       <c r="E51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4895,67 +4895,67 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6732797</v>
+        <v>6732796</v>
       </c>
       <c r="C52" t="s">
         <v>27</v>
       </c>
       <c r="D52" s="2">
-        <v>45151.49652777778</v>
+        <v>45151.375</v>
       </c>
       <c r="E52" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="s">
         <v>40</v>
       </c>
       <c r="J52">
-        <v>1.444</v>
+        <v>1.222</v>
       </c>
       <c r="K52">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="L52">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="M52">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="N52">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="O52">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P52">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="Q52">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R52">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S52">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T52">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U52">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V52">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="W52">
         <v>-1</v>
@@ -4964,16 +4964,16 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="53" spans="1:28">
@@ -4981,25 +4981,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6732717</v>
+        <v>6732797</v>
       </c>
       <c r="C53" t="s">
         <v>27</v>
       </c>
       <c r="D53" s="2">
-        <v>45151.58333333334</v>
+        <v>45151.49652777778</v>
       </c>
       <c r="E53" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="s">
         <v>40</v>
@@ -5026,19 +5026,19 @@
         <v>-1</v>
       </c>
       <c r="Q53">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R53">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S53">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T53">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U53">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V53">
         <v>0.5</v>
@@ -5050,13 +5050,13 @@
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA53">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB53">
         <v>-1</v>
@@ -5067,22 +5067,22 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6732796</v>
+        <v>6732717</v>
       </c>
       <c r="C54" t="s">
         <v>27</v>
       </c>
       <c r="D54" s="2">
-        <v>45151.375</v>
+        <v>45151.58333333334</v>
       </c>
       <c r="E54" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5091,43 +5091,43 @@
         <v>40</v>
       </c>
       <c r="J54">
-        <v>1.222</v>
+        <v>1.444</v>
       </c>
       <c r="K54">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="L54">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="M54">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="N54">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="O54">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P54">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="Q54">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R54">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S54">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T54">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U54">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V54">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="W54">
         <v>-1</v>
@@ -5136,16 +5136,16 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z54">
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB54">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -5165,7 +5165,7 @@
         <v>33</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5239,85 +5239,85 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6732800</v>
+        <v>6732799</v>
       </c>
       <c r="C56" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="2">
-        <v>45157.5</v>
+        <v>45157.41666666666</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J56">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="K56">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="L56">
-        <v>1.444</v>
+        <v>1.25</v>
       </c>
       <c r="M56">
+        <v>6.5</v>
+      </c>
+      <c r="N56">
         <v>4.333</v>
       </c>
-      <c r="N56">
-        <v>3.8</v>
-      </c>
       <c r="O56">
-        <v>1.615</v>
+        <v>1.363</v>
       </c>
       <c r="P56">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="Q56">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R56">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S56">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T56">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U56">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V56">
         <v>-1</v>
       </c>
       <c r="W56">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y56">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB56">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="57" spans="1:28">
@@ -5325,85 +5325,85 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6732799</v>
+        <v>6732800</v>
       </c>
       <c r="C57" t="s">
         <v>27</v>
       </c>
       <c r="D57" s="2">
-        <v>45157.41666666666</v>
+        <v>45157.5</v>
       </c>
       <c r="E57" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J57">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="K57">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="L57">
-        <v>1.25</v>
+        <v>1.444</v>
       </c>
       <c r="M57">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="N57">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="O57">
-        <v>1.363</v>
+        <v>1.615</v>
       </c>
       <c r="P57">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q57">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R57">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S57">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T57">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U57">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V57">
         <v>-1</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X57">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z57">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:28">
@@ -5506,7 +5506,7 @@
         <v>45158.49652777778</v>
       </c>
       <c r="E59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F59" t="s">
         <v>32</v>
@@ -5595,7 +5595,7 @@
         <v>33</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5678,7 +5678,7 @@
         <v>45164.54166666666</v>
       </c>
       <c r="E61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F61" t="s">
         <v>34</v>
@@ -5764,7 +5764,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F62" t="s">
         <v>37</v>
@@ -5841,34 +5841,34 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6732719</v>
+        <v>6732805</v>
       </c>
       <c r="C63" t="s">
         <v>27</v>
       </c>
       <c r="D63" s="2">
-        <v>45165.49652777778</v>
+        <v>45165.375</v>
       </c>
       <c r="E63" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F63" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="s">
         <v>40</v>
       </c>
       <c r="J63">
-        <v>1.25</v>
+        <v>1.222</v>
       </c>
       <c r="K63">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L63">
         <v>9</v>
@@ -5877,28 +5877,28 @@
         <v>1.142</v>
       </c>
       <c r="N63">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O63">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P63">
-        <v>-2.25</v>
+        <v>-2</v>
       </c>
       <c r="Q63">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R63">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S63">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="T63">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U63">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V63">
         <v>0.1419999999999999</v>
@@ -5910,16 +5910,16 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA63">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:28">
@@ -5927,34 +5927,34 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6732805</v>
+        <v>6732719</v>
       </c>
       <c r="C64" t="s">
         <v>27</v>
       </c>
       <c r="D64" s="2">
-        <v>45165.375</v>
+        <v>45165.49652777778</v>
       </c>
       <c r="E64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="s">
         <v>40</v>
       </c>
       <c r="J64">
-        <v>1.222</v>
+        <v>1.25</v>
       </c>
       <c r="K64">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L64">
         <v>9</v>
@@ -5963,28 +5963,28 @@
         <v>1.142</v>
       </c>
       <c r="N64">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O64">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P64">
-        <v>-2</v>
+        <v>-2.25</v>
       </c>
       <c r="Q64">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R64">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S64">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="T64">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U64">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V64">
         <v>0.1419999999999999</v>
@@ -5996,16 +5996,16 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="Z64">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB64">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -6013,85 +6013,85 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6732808</v>
+        <v>7143716</v>
       </c>
       <c r="C65" t="s">
         <v>27</v>
       </c>
       <c r="D65" s="2">
-        <v>45171.45833333334</v>
+        <v>45171.29166666666</v>
       </c>
       <c r="E65" t="s">
+        <v>33</v>
+      </c>
+      <c r="F65" t="s">
         <v>29</v>
       </c>
-      <c r="F65" t="s">
-        <v>28</v>
-      </c>
       <c r="G65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J65">
-        <v>1.7</v>
+        <v>12</v>
       </c>
       <c r="K65">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="L65">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="M65">
-        <v>1.65</v>
+        <v>7.5</v>
       </c>
       <c r="N65">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="O65">
-        <v>4.75</v>
+        <v>1.4</v>
       </c>
       <c r="P65">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="Q65">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R65">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S65">
         <v>2.5</v>
       </c>
       <c r="T65">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U65">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V65">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y65">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA65">
         <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -6099,85 +6099,85 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7143716</v>
+        <v>6732807</v>
       </c>
       <c r="C66" t="s">
         <v>27</v>
       </c>
       <c r="D66" s="2">
-        <v>45171.29166666666</v>
+        <v>45171.375</v>
       </c>
       <c r="E66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J66">
-        <v>12</v>
+        <v>1.3</v>
       </c>
       <c r="K66">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L66">
-        <v>1.2</v>
+        <v>8</v>
       </c>
       <c r="M66">
-        <v>7.5</v>
+        <v>1.4</v>
       </c>
       <c r="N66">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O66">
-        <v>1.4</v>
+        <v>6.5</v>
       </c>
       <c r="P66">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q66">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R66">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S66">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T66">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U66">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V66">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z66">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
         <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="67" spans="1:28">
@@ -6185,22 +6185,22 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6732807</v>
+        <v>6732808</v>
       </c>
       <c r="C67" t="s">
         <v>27</v>
       </c>
       <c r="D67" s="2">
-        <v>45171.375</v>
+        <v>45171.45833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6209,43 +6209,43 @@
         <v>40</v>
       </c>
       <c r="J67">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="K67">
+        <v>3.25</v>
+      </c>
+      <c r="L67">
         <v>4.5</v>
       </c>
-      <c r="L67">
-        <v>8</v>
-      </c>
       <c r="M67">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="N67">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="O67">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="P67">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q67">
+        <v>1.875</v>
+      </c>
+      <c r="R67">
         <v>1.925</v>
       </c>
-      <c r="R67">
-        <v>1.875</v>
-      </c>
       <c r="S67">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T67">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U67">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V67">
-        <v>0.3999999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W67">
         <v>-1</v>
@@ -6254,16 +6254,16 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA67">
         <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="68" spans="1:28">
@@ -6271,85 +6271,85 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6732720</v>
+        <v>6732809</v>
       </c>
       <c r="C68" t="s">
         <v>27</v>
       </c>
       <c r="D68" s="2">
-        <v>45172.5</v>
+        <v>45172.49652777778</v>
       </c>
       <c r="E68" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G68">
         <v>1</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J68">
-        <v>1.125</v>
+        <v>1.833</v>
       </c>
       <c r="K68">
-        <v>6.4</v>
+        <v>3.25</v>
       </c>
       <c r="L68">
-        <v>15</v>
+        <v>3.75</v>
       </c>
       <c r="M68">
-        <v>1.166</v>
+        <v>2.2</v>
       </c>
       <c r="N68">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="O68">
-        <v>13</v>
+        <v>2.8</v>
       </c>
       <c r="P68">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="Q68">
+        <v>1.95</v>
+      </c>
+      <c r="R68">
+        <v>1.85</v>
+      </c>
+      <c r="S68">
+        <v>2.5</v>
+      </c>
+      <c r="T68">
         <v>1.825</v>
       </c>
-      <c r="R68">
+      <c r="U68">
         <v>1.975</v>
       </c>
-      <c r="S68">
-        <v>3.25</v>
-      </c>
-      <c r="T68">
-        <v>1.975</v>
-      </c>
-      <c r="U68">
-        <v>1.825</v>
-      </c>
       <c r="V68">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z68">
+        <v>0.425</v>
+      </c>
+      <c r="AA68">
+        <v>-1</v>
+      </c>
+      <c r="AB68">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA68">
-        <v>-1</v>
-      </c>
-      <c r="AB68">
-        <v>0.825</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -6357,85 +6357,85 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6732809</v>
+        <v>6732720</v>
       </c>
       <c r="C69" t="s">
         <v>27</v>
       </c>
       <c r="D69" s="2">
-        <v>45172.49652777778</v>
+        <v>45172.5</v>
       </c>
       <c r="E69" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G69">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J69">
-        <v>1.833</v>
+        <v>1.125</v>
       </c>
       <c r="K69">
+        <v>6.4</v>
+      </c>
+      <c r="L69">
+        <v>15</v>
+      </c>
+      <c r="M69">
+        <v>1.166</v>
+      </c>
+      <c r="N69">
+        <v>6.5</v>
+      </c>
+      <c r="O69">
+        <v>13</v>
+      </c>
+      <c r="P69">
+        <v>-2</v>
+      </c>
+      <c r="Q69">
+        <v>1.825</v>
+      </c>
+      <c r="R69">
+        <v>1.975</v>
+      </c>
+      <c r="S69">
         <v>3.25</v>
       </c>
-      <c r="L69">
-        <v>3.75</v>
-      </c>
-      <c r="M69">
-        <v>2.2</v>
-      </c>
-      <c r="N69">
-        <v>3.4</v>
-      </c>
-      <c r="O69">
-        <v>2.8</v>
-      </c>
-      <c r="P69">
-        <v>-0.25</v>
-      </c>
-      <c r="Q69">
-        <v>1.95</v>
-      </c>
-      <c r="R69">
-        <v>1.85</v>
-      </c>
-      <c r="S69">
-        <v>2.5</v>
-      </c>
       <c r="T69">
+        <v>1.975</v>
+      </c>
+      <c r="U69">
         <v>1.825</v>
       </c>
-      <c r="U69">
-        <v>1.975</v>
-      </c>
       <c r="V69">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="W69">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -6452,10 +6452,10 @@
         <v>45185.375</v>
       </c>
       <c r="E70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6538,10 +6538,10 @@
         <v>45185.5</v>
       </c>
       <c r="E71" t="s">
+        <v>31</v>
+      </c>
+      <c r="F71" t="s">
         <v>30</v>
-      </c>
-      <c r="F71" t="s">
-        <v>29</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6615,49 +6615,49 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6732721</v>
+        <v>6732813</v>
       </c>
       <c r="C72" t="s">
         <v>27</v>
       </c>
       <c r="D72" s="2">
-        <v>45186.49652777778</v>
+        <v>45186.375</v>
       </c>
       <c r="E72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72" t="s">
+        <v>39</v>
+      </c>
+      <c r="J72">
+        <v>1.285</v>
+      </c>
+      <c r="K72">
+        <v>5.5</v>
+      </c>
+      <c r="L72">
+        <v>6.5</v>
+      </c>
+      <c r="M72">
+        <v>1.3</v>
+      </c>
+      <c r="N72">
+        <v>5.5</v>
+      </c>
+      <c r="O72">
         <v>6</v>
       </c>
-      <c r="I72" t="s">
-        <v>41</v>
-      </c>
-      <c r="J72">
-        <v>6</v>
-      </c>
-      <c r="K72">
-        <v>5</v>
-      </c>
-      <c r="L72">
-        <v>1.333</v>
-      </c>
-      <c r="M72">
-        <v>5.5</v>
-      </c>
-      <c r="N72">
-        <v>5</v>
-      </c>
-      <c r="O72">
-        <v>1.363</v>
-      </c>
       <c r="P72">
-        <v>1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q72">
         <v>1.95</v>
@@ -6669,19 +6669,19 @@
         <v>2.75</v>
       </c>
       <c r="T72">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U72">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V72">
         <v>-1</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="X72">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
         <v>-1</v>
@@ -6690,10 +6690,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AA72">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="73" spans="1:28">
@@ -6701,49 +6701,49 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6732813</v>
+        <v>6732721</v>
       </c>
       <c r="C73" t="s">
         <v>27</v>
       </c>
       <c r="D73" s="2">
-        <v>45186.375</v>
+        <v>45186.49652777778</v>
       </c>
       <c r="E73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F73" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I73" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J73">
-        <v>1.285</v>
+        <v>6</v>
       </c>
       <c r="K73">
+        <v>5</v>
+      </c>
+      <c r="L73">
+        <v>1.333</v>
+      </c>
+      <c r="M73">
         <v>5.5</v>
       </c>
-      <c r="L73">
-        <v>6.5</v>
-      </c>
-      <c r="M73">
-        <v>1.3</v>
-      </c>
       <c r="N73">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O73">
-        <v>6</v>
+        <v>1.363</v>
       </c>
       <c r="P73">
-        <v>-1.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -6755,19 +6755,19 @@
         <v>2.75</v>
       </c>
       <c r="T73">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U73">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V73">
         <v>-1</v>
       </c>
       <c r="W73">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y73">
         <v>-1</v>
@@ -6776,10 +6776,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB73">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:28">
@@ -6796,7 +6796,7 @@
         <v>45191.5</v>
       </c>
       <c r="E74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F74" t="s">
         <v>33</v>
@@ -6873,85 +6873,85 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6732816</v>
+        <v>6732815</v>
       </c>
       <c r="C75" t="s">
         <v>27</v>
       </c>
       <c r="D75" s="2">
-        <v>45192.45833333334</v>
+        <v>45192.375</v>
       </c>
       <c r="E75" t="s">
+        <v>28</v>
+      </c>
+      <c r="F75" t="s">
         <v>31</v>
       </c>
-      <c r="F75" t="s">
-        <v>35</v>
-      </c>
       <c r="G75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J75">
-        <v>1.125</v>
+        <v>2.375</v>
       </c>
       <c r="K75">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="L75">
-        <v>19</v>
+        <v>2.625</v>
       </c>
       <c r="M75">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="N75">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="O75">
-        <v>15</v>
+        <v>2.45</v>
       </c>
       <c r="P75">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R75">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S75">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T75">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U75">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V75">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA75">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -6959,85 +6959,85 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6732815</v>
+        <v>6732816</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
       </c>
       <c r="D76" s="2">
-        <v>45192.375</v>
+        <v>45192.45833333334</v>
       </c>
       <c r="E76" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J76">
-        <v>2.375</v>
+        <v>1.125</v>
       </c>
       <c r="K76">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="L76">
-        <v>2.625</v>
+        <v>19</v>
       </c>
       <c r="M76">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="N76">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="O76">
-        <v>2.45</v>
+        <v>15</v>
       </c>
       <c r="P76">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="Q76">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R76">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S76">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T76">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U76">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V76">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB76">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7143,7 +7143,7 @@
         <v>34</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -7229,7 +7229,7 @@
         <v>37</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7315,7 +7315,7 @@
         <v>34</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7484,7 +7484,7 @@
         <v>45199.375</v>
       </c>
       <c r="E82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F82" t="s">
         <v>32</v>
@@ -7561,82 +7561,82 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6732825</v>
+        <v>6732823</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
       </c>
       <c r="D83" s="2">
-        <v>45206.54166666666</v>
+        <v>45206.375</v>
       </c>
       <c r="E83" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J83">
-        <v>4.5</v>
+        <v>1.65</v>
       </c>
       <c r="K83">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L83">
+        <v>5</v>
+      </c>
+      <c r="M83">
+        <v>1.45</v>
+      </c>
+      <c r="N83">
+        <v>3.4</v>
+      </c>
+      <c r="O83">
+        <v>7.5</v>
+      </c>
+      <c r="P83">
+        <v>-1.25</v>
+      </c>
+      <c r="Q83">
+        <v>2</v>
+      </c>
+      <c r="R83">
         <v>1.8</v>
-      </c>
-      <c r="M83">
-        <v>5</v>
-      </c>
-      <c r="N83">
-        <v>3.2</v>
-      </c>
-      <c r="O83">
-        <v>1.7</v>
-      </c>
-      <c r="P83">
-        <v>0.75</v>
-      </c>
-      <c r="Q83">
-        <v>1.875</v>
-      </c>
-      <c r="R83">
-        <v>1.925</v>
       </c>
       <c r="S83">
         <v>2.5</v>
       </c>
       <c r="T83">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U83">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V83">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="Z83">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB83">
         <v>-1</v>
@@ -7656,7 +7656,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F84" t="s">
         <v>28</v>
@@ -7733,82 +7733,82 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6732823</v>
+        <v>6732825</v>
       </c>
       <c r="C85" t="s">
         <v>27</v>
       </c>
       <c r="D85" s="2">
-        <v>45206.375</v>
+        <v>45206.54166666666</v>
       </c>
       <c r="E85" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G85">
+        <v>2</v>
+      </c>
+      <c r="H85">
         <v>3</v>
       </c>
-      <c r="H85">
-        <v>1</v>
-      </c>
       <c r="I85" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J85">
-        <v>1.65</v>
+        <v>4.5</v>
       </c>
       <c r="K85">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L85">
+        <v>1.8</v>
+      </c>
+      <c r="M85">
         <v>5</v>
       </c>
-      <c r="M85">
-        <v>1.45</v>
-      </c>
       <c r="N85">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O85">
-        <v>7.5</v>
+        <v>1.7</v>
       </c>
       <c r="P85">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q85">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R85">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S85">
         <v>2.5</v>
       </c>
       <c r="T85">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U85">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V85">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Y85">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA85">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB85">
         <v>-1</v>
@@ -7828,10 +7828,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="E86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7914,7 +7914,7 @@
         <v>45207.49652777778</v>
       </c>
       <c r="E87" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F87" t="s">
         <v>32</v>
@@ -8000,10 +8000,10 @@
         <v>45219.5</v>
       </c>
       <c r="E88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8086,7 +8086,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F89" t="s">
         <v>33</v>
@@ -8261,7 +8261,7 @@
         <v>34</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8347,7 +8347,7 @@
         <v>32</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -8421,49 +8421,49 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7216318</v>
+        <v>6732811</v>
       </c>
       <c r="C93" t="s">
         <v>27</v>
       </c>
       <c r="D93" s="2">
-        <v>45224.5</v>
+        <v>45224.52083333334</v>
       </c>
       <c r="E93" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J93">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="K93">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="L93">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="M93">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="N93">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O93">
-        <v>1.833</v>
+        <v>2.9</v>
       </c>
       <c r="P93">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q93">
         <v>1.95</v>
@@ -8475,31 +8475,31 @@
         <v>2.25</v>
       </c>
       <c r="T93">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U93">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA93">
         <v>-0.5</v>
       </c>
       <c r="AB93">
-        <v>0.475</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="94" spans="1:28">
@@ -8507,49 +8507,49 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6732811</v>
+        <v>7216318</v>
       </c>
       <c r="C94" t="s">
         <v>27</v>
       </c>
       <c r="D94" s="2">
-        <v>45224.52083333334</v>
+        <v>45224.5</v>
       </c>
       <c r="E94" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J94">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="K94">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L94">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="M94">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="N94">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O94">
-        <v>2.9</v>
+        <v>1.833</v>
       </c>
       <c r="P94">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q94">
         <v>1.95</v>
@@ -8561,31 +8561,31 @@
         <v>2.25</v>
       </c>
       <c r="T94">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U94">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V94">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="W94">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z94">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
         <v>-0.5</v>
       </c>
       <c r="AB94">
-        <v>0.4625</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="95" spans="1:28">
@@ -8688,10 +8688,10 @@
         <v>45229.54166666666</v>
       </c>
       <c r="E96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8777,7 +8777,7 @@
         <v>28</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8860,10 +8860,10 @@
         <v>45235.41666666666</v>
       </c>
       <c r="E98" t="s">
+        <v>30</v>
+      </c>
+      <c r="F98" t="s">
         <v>29</v>
-      </c>
-      <c r="F98" t="s">
-        <v>31</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -9023,7 +9023,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6732836</v>
+        <v>6732727</v>
       </c>
       <c r="C100" t="s">
         <v>27</v>
@@ -9032,13 +9032,13 @@
         <v>45242.41319444445</v>
       </c>
       <c r="E100" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F100" t="s">
         <v>30</v>
       </c>
       <c r="G100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9047,25 +9047,25 @@
         <v>40</v>
       </c>
       <c r="J100">
-        <v>1.222</v>
+        <v>1.285</v>
       </c>
       <c r="K100">
         <v>5.5</v>
       </c>
       <c r="L100">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="M100">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="N100">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="O100">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P100">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q100">
         <v>1.9</v>
@@ -9074,16 +9074,16 @@
         <v>1.9</v>
       </c>
       <c r="S100">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T100">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U100">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V100">
-        <v>0.363</v>
+        <v>0.3</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9092,16 +9092,16 @@
         <v>-1</v>
       </c>
       <c r="Y100">
+        <v>-1</v>
+      </c>
+      <c r="Z100">
         <v>0.8999999999999999</v>
       </c>
-      <c r="Z100">
-        <v>-1</v>
-      </c>
       <c r="AA100">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9195,7 +9195,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6732834</v>
+        <v>6732837</v>
       </c>
       <c r="C102" t="s">
         <v>27</v>
@@ -9204,76 +9204,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="E102" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F102" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I102" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J102">
-        <v>1.25</v>
+        <v>3.6</v>
       </c>
       <c r="K102">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="L102">
-        <v>7.5</v>
+        <v>1.8</v>
       </c>
       <c r="M102">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="N102">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O102">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P102">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q102">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="R102">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S102">
         <v>2.5</v>
       </c>
       <c r="T102">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U102">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V102">
         <v>-1</v>
       </c>
       <c r="W102">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB102">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -9281,7 +9281,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6732727</v>
+        <v>6732834</v>
       </c>
       <c r="C103" t="s">
         <v>27</v>
@@ -9290,61 +9290,61 @@
         <v>45242.41319444445</v>
       </c>
       <c r="E103" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J103">
-        <v>1.285</v>
+        <v>1.25</v>
       </c>
       <c r="K103">
         <v>5.5</v>
       </c>
       <c r="L103">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="M103">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="N103">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="O103">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P103">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="Q103">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="R103">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S103">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T103">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U103">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V103">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9353,13 +9353,13 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="104" spans="1:28">
@@ -9367,7 +9367,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6732837</v>
+        <v>6732836</v>
       </c>
       <c r="C104" t="s">
         <v>27</v>
@@ -9379,43 +9379,43 @@
         <v>35</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J104">
-        <v>3.6</v>
+        <v>1.222</v>
       </c>
       <c r="K104">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="L104">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="M104">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="N104">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O104">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P104">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q104">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R104">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S104">
         <v>2.5</v>
@@ -9427,19 +9427,19 @@
         <v>1.825</v>
       </c>
       <c r="V104">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z104">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
         <v>0.9750000000000001</v>
@@ -9462,10 +9462,10 @@
         <v>45352.58333333334</v>
       </c>
       <c r="E105" t="s">
+        <v>36</v>
+      </c>
+      <c r="F105" t="s">
         <v>35</v>
-      </c>
-      <c r="F105" t="s">
-        <v>36</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9551,7 +9551,7 @@
         <v>28</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9634,7 +9634,7 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E107" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F107" t="s">
         <v>37</v>
@@ -9806,7 +9806,7 @@
         <v>45354.33333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F109" t="s">
         <v>32</v>
@@ -10055,16 +10055,16 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7862907</v>
+        <v>7862908</v>
       </c>
       <c r="C112" t="s">
         <v>27</v>
       </c>
       <c r="D112" s="2">
-        <v>45361.33333333334</v>
+        <v>45361.41666666666</v>
       </c>
       <c r="E112" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F112" t="s">
         <v>30</v>
@@ -10079,46 +10079,46 @@
         <v>39</v>
       </c>
       <c r="J112">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="K112">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="L112">
+        <v>10</v>
+      </c>
+      <c r="M112">
+        <v>1.444</v>
+      </c>
+      <c r="N112">
+        <v>4.2</v>
+      </c>
+      <c r="O112">
         <v>5.5</v>
       </c>
-      <c r="M112">
-        <v>1.5</v>
-      </c>
-      <c r="N112">
-        <v>4</v>
-      </c>
-      <c r="O112">
-        <v>5</v>
-      </c>
       <c r="P112">
         <v>-1</v>
       </c>
       <c r="Q112">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="R112">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S112">
         <v>2.25</v>
       </c>
       <c r="T112">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U112">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
         <v>-1</v>
       </c>
       <c r="W112">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10127,13 +10127,13 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA112">
         <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="113" spans="1:28">
@@ -10141,64 +10141,64 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7862908</v>
+        <v>7862035</v>
       </c>
       <c r="C113" t="s">
         <v>27</v>
       </c>
       <c r="D113" s="2">
-        <v>45361.41666666666</v>
+        <v>45361.5625</v>
       </c>
       <c r="E113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F113" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I113" t="s">
         <v>39</v>
       </c>
       <c r="J113">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="K113">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L113">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M113">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="N113">
         <v>4.2</v>
       </c>
       <c r="O113">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="P113">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="Q113">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="R113">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S113">
         <v>2.25</v>
       </c>
       <c r="T113">
+        <v>1.925</v>
+      </c>
+      <c r="U113">
         <v>1.875</v>
-      </c>
-      <c r="U113">
-        <v>1.925</v>
       </c>
       <c r="V113">
         <v>-1</v>
@@ -10213,13 +10213,13 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB113">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:28">
@@ -10227,70 +10227,70 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7862035</v>
+        <v>7862907</v>
       </c>
       <c r="C114" t="s">
         <v>27</v>
       </c>
       <c r="D114" s="2">
-        <v>45361.5625</v>
+        <v>45361.33333333334</v>
       </c>
       <c r="E114" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G114">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="s">
         <v>39</v>
       </c>
       <c r="J114">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="K114">
+        <v>4.5</v>
+      </c>
+      <c r="L114">
+        <v>5.5</v>
+      </c>
+      <c r="M114">
+        <v>1.5</v>
+      </c>
+      <c r="N114">
+        <v>4</v>
+      </c>
+      <c r="O114">
         <v>5</v>
       </c>
-      <c r="L114">
-        <v>7</v>
-      </c>
-      <c r="M114">
-        <v>1.363</v>
-      </c>
-      <c r="N114">
-        <v>4.2</v>
-      </c>
-      <c r="O114">
-        <v>7</v>
-      </c>
       <c r="P114">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="Q114">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R114">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S114">
         <v>2.25</v>
       </c>
       <c r="T114">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U114">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V114">
         <v>-1</v>
       </c>
       <c r="W114">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10299,13 +10299,13 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA114">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="115" spans="1:28">
@@ -10399,85 +10399,85 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7862036</v>
+        <v>7862910</v>
       </c>
       <c r="C116" t="s">
         <v>27</v>
       </c>
       <c r="D116" s="2">
-        <v>45364.54166666666</v>
+        <v>45364.5</v>
       </c>
       <c r="E116" t="s">
         <v>30</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J116">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="K116">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="L116">
-        <v>1.3</v>
+        <v>3.25</v>
       </c>
       <c r="M116">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="N116">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="O116">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="P116">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q116">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="R116">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S116">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="T116">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U116">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V116">
         <v>-1</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X116">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z116">
-        <v>0.8</v>
+        <v>0.3625</v>
       </c>
       <c r="AA116">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="117" spans="1:28">
@@ -10485,85 +10485,85 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7862910</v>
+        <v>7862037</v>
       </c>
       <c r="C117" t="s">
         <v>27</v>
       </c>
       <c r="D117" s="2">
-        <v>45364.5</v>
+        <v>45364.63541666666</v>
       </c>
       <c r="E117" t="s">
+        <v>36</v>
+      </c>
+      <c r="F117" t="s">
         <v>29</v>
       </c>
-      <c r="F117" t="s">
-        <v>28</v>
-      </c>
       <c r="G117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J117">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="K117">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="L117">
+        <v>1.363</v>
+      </c>
+      <c r="M117">
+        <v>3.1</v>
+      </c>
+      <c r="N117">
         <v>3.25</v>
       </c>
-      <c r="M117">
-        <v>2.4</v>
-      </c>
-      <c r="N117">
-        <v>2.75</v>
-      </c>
       <c r="O117">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="P117">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q117">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="R117">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S117">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T117">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U117">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V117">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="W117">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="Z117">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
         <v>-1</v>
       </c>
       <c r="AB117">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:28">
@@ -10583,7 +10583,7 @@
         <v>34</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G118">
         <v>2</v>
@@ -10657,85 +10657,85 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7862037</v>
+        <v>7862036</v>
       </c>
       <c r="C119" t="s">
         <v>27</v>
       </c>
       <c r="D119" s="2">
-        <v>45364.63541666666</v>
+        <v>45364.54166666666</v>
       </c>
       <c r="E119" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G119">
         <v>1</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I119" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J119">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="K119">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L119">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="M119">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="N119">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="O119">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="P119">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="Q119">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R119">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S119">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T119">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V119">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Y119">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB119">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:28">
@@ -10752,10 +10752,10 @@
         <v>45367.4375</v>
       </c>
       <c r="E120" t="s">
+        <v>29</v>
+      </c>
+      <c r="F120" t="s">
         <v>31</v>
-      </c>
-      <c r="F120" t="s">
-        <v>30</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>28</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10915,58 +10915,58 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7862913</v>
+        <v>7862039</v>
       </c>
       <c r="C122" t="s">
         <v>27</v>
       </c>
       <c r="D122" s="2">
-        <v>45368.375</v>
+        <v>45368.5625</v>
       </c>
       <c r="E122" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I122" t="s">
         <v>41</v>
       </c>
       <c r="J122">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="K122">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L122">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="M122">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="N122">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O122">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P122">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q122">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R122">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S122">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T122">
         <v>1.975</v>
@@ -10981,19 +10981,19 @@
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA122">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB122">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:28">
@@ -11010,7 +11010,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F123" t="s">
         <v>37</v>
@@ -11087,58 +11087,58 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7862039</v>
+        <v>7862913</v>
       </c>
       <c r="C124" t="s">
         <v>27</v>
       </c>
       <c r="D124" s="2">
-        <v>45368.5625</v>
+        <v>45368.375</v>
       </c>
       <c r="E124" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124" t="s">
         <v>41</v>
       </c>
       <c r="J124">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="K124">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L124">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="M124">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="N124">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O124">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P124">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q124">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R124">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S124">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T124">
         <v>1.975</v>
@@ -11153,19 +11153,19 @@
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA124">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="125" spans="1:28">
@@ -11182,7 +11182,7 @@
         <v>45380.58333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F125" t="s">
         <v>28</v>
@@ -11259,85 +11259,85 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7862916</v>
+        <v>7862917</v>
       </c>
       <c r="C126" t="s">
         <v>27</v>
       </c>
       <c r="D126" s="2">
-        <v>45381.41666666666</v>
+        <v>45381.5</v>
       </c>
       <c r="E126" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G126">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J126">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="K126">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="L126">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="M126">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="N126">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="O126">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="P126">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q126">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R126">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S126">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T126">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U126">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V126">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="W126">
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y126">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA126">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="127" spans="1:28">
@@ -11345,85 +11345,85 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7862917</v>
+        <v>7862916</v>
       </c>
       <c r="C127" t="s">
         <v>27</v>
       </c>
       <c r="D127" s="2">
-        <v>45381.5</v>
+        <v>45381.41666666666</v>
       </c>
       <c r="E127" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J127">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="K127">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="L127">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="M127">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="N127">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="O127">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="P127">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q127">
+        <v>1.9</v>
+      </c>
+      <c r="R127">
+        <v>1.9</v>
+      </c>
+      <c r="S127">
+        <v>2.25</v>
+      </c>
+      <c r="T127">
+        <v>1.925</v>
+      </c>
+      <c r="U127">
         <v>1.875</v>
       </c>
-      <c r="R127">
-        <v>1.925</v>
-      </c>
-      <c r="S127">
-        <v>2.75</v>
-      </c>
-      <c r="T127">
-        <v>1.95</v>
-      </c>
-      <c r="U127">
-        <v>1.85</v>
-      </c>
       <c r="V127">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="W127">
         <v>-1</v>
       </c>
       <c r="X127">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z127">
+        <v>-1</v>
+      </c>
+      <c r="AA127">
         <v>0.925</v>
       </c>
-      <c r="AA127">
-        <v>-1</v>
-      </c>
       <c r="AB127">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:28">
@@ -11431,19 +11431,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7862042</v>
+        <v>7862040</v>
       </c>
       <c r="C128" t="s">
         <v>27</v>
       </c>
       <c r="D128" s="2">
-        <v>45382.51736111111</v>
+        <v>45382.375</v>
       </c>
       <c r="E128" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11455,40 +11455,40 @@
         <v>41</v>
       </c>
       <c r="J128">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="K128">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L128">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="M128">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="N128">
         <v>3.2</v>
       </c>
       <c r="O128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P128">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q128">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R128">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S128">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T128">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U128">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V128">
         <v>-1</v>
@@ -11497,19 +11497,19 @@
         <v>-1</v>
       </c>
       <c r="X128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="129" spans="1:28">
@@ -11517,19 +11517,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7862040</v>
+        <v>7862042</v>
       </c>
       <c r="C129" t="s">
         <v>27</v>
       </c>
       <c r="D129" s="2">
-        <v>45382.375</v>
+        <v>45382.51736111111</v>
       </c>
       <c r="E129" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F129" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -11541,41 +11541,41 @@
         <v>41</v>
       </c>
       <c r="J129">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="K129">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L129">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="M129">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="N129">
         <v>3.2</v>
       </c>
       <c r="O129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P129">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q129">
+        <v>1.975</v>
+      </c>
+      <c r="R129">
+        <v>1.825</v>
+      </c>
+      <c r="S129">
+        <v>2.5</v>
+      </c>
+      <c r="T129">
         <v>1.9</v>
       </c>
-      <c r="R129">
+      <c r="U129">
         <v>1.9</v>
       </c>
-      <c r="S129">
-        <v>2</v>
-      </c>
-      <c r="T129">
-        <v>1.85</v>
-      </c>
-      <c r="U129">
-        <v>1.95</v>
-      </c>
       <c r="V129">
         <v>-1</v>
       </c>
@@ -11583,19 +11583,19 @@
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
+        <v>0.825</v>
+      </c>
+      <c r="AA129">
+        <v>-1</v>
+      </c>
+      <c r="AB129">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA129">
-        <v>-1</v>
-      </c>
-      <c r="AB129">
-        <v>0.95</v>
       </c>
     </row>
     <row r="130" spans="1:28">
@@ -11603,85 +11603,85 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7862919</v>
+        <v>7862918</v>
       </c>
       <c r="C130" t="s">
         <v>27</v>
       </c>
       <c r="D130" s="2">
-        <v>45388.45833333334</v>
+        <v>45388.375</v>
       </c>
       <c r="E130" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="s">
         <v>39</v>
       </c>
       <c r="J130">
+        <v>4.333</v>
+      </c>
+      <c r="K130">
+        <v>3.75</v>
+      </c>
+      <c r="L130">
+        <v>1.615</v>
+      </c>
+      <c r="M130">
+        <v>4.5</v>
+      </c>
+      <c r="N130">
+        <v>3.4</v>
+      </c>
+      <c r="O130">
+        <v>1.65</v>
+      </c>
+      <c r="P130">
+        <v>0.75</v>
+      </c>
+      <c r="Q130">
+        <v>1.875</v>
+      </c>
+      <c r="R130">
+        <v>1.925</v>
+      </c>
+      <c r="S130">
         <v>2.25</v>
       </c>
-      <c r="K130">
-        <v>2.9</v>
-      </c>
-      <c r="L130">
-        <v>3.1</v>
-      </c>
-      <c r="M130">
-        <v>2.05</v>
-      </c>
-      <c r="N130">
-        <v>3</v>
-      </c>
-      <c r="O130">
-        <v>3.5</v>
-      </c>
-      <c r="P130">
-        <v>-0.25</v>
-      </c>
-      <c r="Q130">
-        <v>1.775</v>
-      </c>
-      <c r="R130">
-        <v>2.025</v>
-      </c>
-      <c r="S130">
-        <v>2</v>
-      </c>
       <c r="T130">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V130">
         <v>-1</v>
       </c>
       <c r="W130">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="Z130">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="131" spans="1:28">
@@ -11689,85 +11689,85 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7862918</v>
+        <v>7862919</v>
       </c>
       <c r="C131" t="s">
         <v>27</v>
       </c>
       <c r="D131" s="2">
-        <v>45388.375</v>
+        <v>45388.45833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="s">
         <v>39</v>
       </c>
       <c r="J131">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="K131">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="L131">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="M131">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="N131">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O131">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="P131">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q131">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="R131">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S131">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T131">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U131">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
         <v>-1</v>
       </c>
       <c r="W131">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB131">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:28">
@@ -11775,64 +11775,64 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7862920</v>
+        <v>7865009</v>
       </c>
       <c r="C132" t="s">
         <v>27</v>
       </c>
       <c r="D132" s="2">
-        <v>45389.51736111111</v>
+        <v>45389.29166666666</v>
       </c>
       <c r="E132" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G132">
         <v>0</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132" t="s">
         <v>41</v>
       </c>
       <c r="J132">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="K132">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="L132">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="M132">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="N132">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O132">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="P132">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q132">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R132">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S132">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T132">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U132">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V132">
         <v>-1</v>
@@ -11841,19 +11841,19 @@
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB132">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="133" spans="1:28">
@@ -11873,7 +11873,7 @@
         <v>32</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G133">
         <v>3</v>
@@ -11947,64 +11947,64 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7865009</v>
+        <v>7862920</v>
       </c>
       <c r="C134" t="s">
         <v>27</v>
       </c>
       <c r="D134" s="2">
-        <v>45389.29166666666</v>
+        <v>45389.51736111111</v>
       </c>
       <c r="E134" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G134">
         <v>0</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="s">
         <v>41</v>
       </c>
       <c r="J134">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="K134">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="L134">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="M134">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="N134">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O134">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="P134">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q134">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="R134">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S134">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T134">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U134">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V134">
         <v>-1</v>
@@ -12013,19 +12013,19 @@
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="135" spans="1:28">
@@ -12045,7 +12045,7 @@
         <v>34</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12119,85 +12119,85 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7865008</v>
+        <v>7862044</v>
       </c>
       <c r="C136" t="s">
         <v>27</v>
       </c>
       <c r="D136" s="2">
-        <v>45392.58333333334</v>
+        <v>45392.5</v>
       </c>
       <c r="E136" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J136">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="K136">
-        <v>4.2</v>
+        <v>3.05</v>
       </c>
       <c r="L136">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="M136">
-        <v>1.25</v>
+        <v>3.4</v>
       </c>
       <c r="N136">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O136">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="P136">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q136">
+        <v>1.95</v>
+      </c>
+      <c r="R136">
         <v>1.85</v>
       </c>
-      <c r="R136">
+      <c r="S136">
+        <v>2</v>
+      </c>
+      <c r="T136">
         <v>1.95</v>
       </c>
-      <c r="S136">
-        <v>2.75</v>
-      </c>
-      <c r="T136">
-        <v>1.825</v>
-      </c>
       <c r="U136">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V136">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
+        <v>0.475</v>
+      </c>
+      <c r="Z136">
+        <v>-0.5</v>
+      </c>
+      <c r="AA136">
+        <v>-1</v>
+      </c>
+      <c r="AB136">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z136">
-        <v>-1</v>
-      </c>
-      <c r="AA136">
-        <v>-1</v>
-      </c>
-      <c r="AB136">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:28">
@@ -12291,85 +12291,85 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7862922</v>
+        <v>7865008</v>
       </c>
       <c r="C138" t="s">
         <v>27</v>
       </c>
       <c r="D138" s="2">
-        <v>45392.5</v>
+        <v>45392.58333333334</v>
       </c>
       <c r="E138" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J138">
-        <v>2.7</v>
+        <v>1.333</v>
       </c>
       <c r="K138">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="L138">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="M138">
-        <v>2.9</v>
+        <v>1.25</v>
       </c>
       <c r="N138">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="O138">
-        <v>2.375</v>
+        <v>8</v>
       </c>
       <c r="P138">
+        <v>-1.5</v>
+      </c>
+      <c r="Q138">
+        <v>1.85</v>
+      </c>
+      <c r="R138">
+        <v>1.95</v>
+      </c>
+      <c r="S138">
+        <v>2.75</v>
+      </c>
+      <c r="T138">
+        <v>1.825</v>
+      </c>
+      <c r="U138">
+        <v>1.975</v>
+      </c>
+      <c r="V138">
         <v>0.25</v>
       </c>
-      <c r="Q138">
-        <v>1.75</v>
-      </c>
-      <c r="R138">
-        <v>2.05</v>
-      </c>
-      <c r="S138">
-        <v>1.75</v>
-      </c>
-      <c r="T138">
-        <v>1.775</v>
-      </c>
-      <c r="U138">
-        <v>2.025</v>
-      </c>
-      <c r="V138">
-        <v>-1</v>
-      </c>
       <c r="W138">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>0.375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z138">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:28">
@@ -12377,7 +12377,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7862044</v>
+        <v>7862922</v>
       </c>
       <c r="C139" t="s">
         <v>27</v>
@@ -12386,76 +12386,76 @@
         <v>45392.5</v>
       </c>
       <c r="E139" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="s">
         <v>39</v>
       </c>
       <c r="J139">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="K139">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L139">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="M139">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N139">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O139">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="P139">
         <v>0.25</v>
       </c>
       <c r="Q139">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="R139">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S139">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T139">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U139">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V139">
         <v>-1</v>
       </c>
       <c r="W139">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>0.475</v>
+        <v>0.375</v>
       </c>
       <c r="Z139">
         <v>-0.5</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB139">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="140" spans="1:28">
@@ -12463,19 +12463,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7862924</v>
+        <v>7862045</v>
       </c>
       <c r="C140" t="s">
         <v>27</v>
       </c>
       <c r="D140" s="2">
-        <v>45395.375</v>
+        <v>45395.45833333334</v>
       </c>
       <c r="E140" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -12487,34 +12487,34 @@
         <v>41</v>
       </c>
       <c r="J140">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="K140">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L140">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="M140">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="N140">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O140">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="P140">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q140">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R140">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S140">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T140">
         <v>1.775</v>
@@ -12529,13 +12529,13 @@
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>2.1</v>
+        <v>0.571</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z140">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AA140">
         <v>-1</v>
@@ -12549,19 +12549,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7862045</v>
+        <v>7862924</v>
       </c>
       <c r="C141" t="s">
         <v>27</v>
       </c>
       <c r="D141" s="2">
-        <v>45395.45833333334</v>
+        <v>45395.375</v>
       </c>
       <c r="E141" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -12573,34 +12573,34 @@
         <v>41</v>
       </c>
       <c r="J141">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="K141">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L141">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="M141">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="N141">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="O141">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="P141">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q141">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R141">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S141">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T141">
         <v>1.775</v>
@@ -12615,13 +12615,13 @@
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>0.571</v>
+        <v>2.1</v>
       </c>
       <c r="Y141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA141">
         <v>-1</v>
@@ -12635,82 +12635,82 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7862046</v>
+        <v>7862925</v>
       </c>
       <c r="C142" t="s">
         <v>27</v>
       </c>
       <c r="D142" s="2">
-        <v>45396.375</v>
+        <v>45396.29166666666</v>
       </c>
       <c r="E142" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G142">
+        <v>2</v>
+      </c>
+      <c r="H142">
         <v>1</v>
       </c>
-      <c r="H142">
-        <v>2</v>
-      </c>
       <c r="I142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J142">
         <v>3.75</v>
       </c>
       <c r="K142">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L142">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="M142">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N142">
+        <v>3.2</v>
+      </c>
+      <c r="O142">
+        <v>1.85</v>
+      </c>
+      <c r="P142">
+        <v>0.5</v>
+      </c>
+      <c r="Q142">
+        <v>1.875</v>
+      </c>
+      <c r="R142">
+        <v>1.925</v>
+      </c>
+      <c r="S142">
+        <v>2</v>
+      </c>
+      <c r="T142">
+        <v>1.8</v>
+      </c>
+      <c r="U142">
+        <v>2</v>
+      </c>
+      <c r="V142">
         <v>3</v>
       </c>
-      <c r="O142">
-        <v>2</v>
-      </c>
-      <c r="P142">
-        <v>0.25</v>
-      </c>
-      <c r="Q142">
-        <v>2.025</v>
-      </c>
-      <c r="R142">
-        <v>1.775</v>
-      </c>
-      <c r="S142">
-        <v>2</v>
-      </c>
-      <c r="T142">
-        <v>1.825</v>
-      </c>
-      <c r="U142">
-        <v>1.975</v>
-      </c>
-      <c r="V142">
-        <v>-1</v>
-      </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z142">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB142">
         <v>-1</v>
@@ -12721,82 +12721,82 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7862925</v>
+        <v>7862046</v>
       </c>
       <c r="C143" t="s">
         <v>27</v>
       </c>
       <c r="D143" s="2">
-        <v>45396.29166666666</v>
+        <v>45396.375</v>
       </c>
       <c r="E143" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F143" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J143">
         <v>3.75</v>
       </c>
       <c r="K143">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L143">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="M143">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N143">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O143">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="P143">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q143">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="R143">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S143">
         <v>2</v>
       </c>
       <c r="T143">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U143">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V143">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y143">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA143">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB143">
         <v>-1</v>
@@ -12816,10 +12816,10 @@
         <v>45402.5</v>
       </c>
       <c r="E144" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F144" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12905,7 +12905,7 @@
         <v>37</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -12988,7 +12988,7 @@
         <v>45403.29166666666</v>
       </c>
       <c r="E146" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F146" t="s">
         <v>38</v>
@@ -13065,82 +13065,82 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7862929</v>
+        <v>7862048</v>
       </c>
       <c r="C147" t="s">
         <v>27</v>
       </c>
       <c r="D147" s="2">
-        <v>45403.375</v>
+        <v>45403.51736111111</v>
       </c>
       <c r="E147" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J147">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="K147">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L147">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M147">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="N147">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="O147">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="P147">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="Q147">
+        <v>1.975</v>
+      </c>
+      <c r="R147">
         <v>1.825</v>
-      </c>
-      <c r="R147">
-        <v>1.975</v>
       </c>
       <c r="S147">
         <v>2.75</v>
       </c>
       <c r="T147">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U147">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V147">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="W147">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z147">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB147">
         <v>-1</v>
@@ -13151,82 +13151,82 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7862048</v>
+        <v>7862929</v>
       </c>
       <c r="C148" t="s">
         <v>27</v>
       </c>
       <c r="D148" s="2">
-        <v>45403.51736111111</v>
+        <v>45403.375</v>
       </c>
       <c r="E148" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F148" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J148">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="K148">
+        <v>4.5</v>
+      </c>
+      <c r="L148">
+        <v>5.5</v>
+      </c>
+      <c r="M148">
+        <v>1.5</v>
+      </c>
+      <c r="N148">
+        <v>4.333</v>
+      </c>
+      <c r="O148">
         <v>5</v>
       </c>
-      <c r="L148">
-        <v>6</v>
-      </c>
-      <c r="M148">
-        <v>1.3</v>
-      </c>
-      <c r="N148">
-        <v>5.25</v>
-      </c>
-      <c r="O148">
-        <v>6.5</v>
-      </c>
       <c r="P148">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="Q148">
+        <v>1.825</v>
+      </c>
+      <c r="R148">
         <v>1.975</v>
-      </c>
-      <c r="R148">
-        <v>1.825</v>
       </c>
       <c r="S148">
         <v>2.75</v>
       </c>
       <c r="T148">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U148">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V148">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
+        <v>-1</v>
+      </c>
+      <c r="Z148">
         <v>0.9750000000000001</v>
       </c>
-      <c r="Z148">
-        <v>-1</v>
-      </c>
       <c r="AA148">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB148">
         <v>-1</v>
@@ -13246,10 +13246,10 @@
         <v>45405.54166666666</v>
       </c>
       <c r="E149" t="s">
+        <v>35</v>
+      </c>
+      <c r="F149" t="s">
         <v>36</v>
-      </c>
-      <c r="F149" t="s">
-        <v>35</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13335,7 +13335,7 @@
         <v>32</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G150">
         <v>4</v>
@@ -13421,7 +13421,7 @@
         <v>37</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -13667,84 +13667,342 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7862934</v>
+        <v>7862051</v>
       </c>
       <c r="C154" t="s">
         <v>27</v>
       </c>
       <c r="D154" s="2">
-        <v>45410.29166666666</v>
+        <v>45410.45833333334</v>
       </c>
       <c r="E154" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F154" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154">
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J154">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="K154">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="L154">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="M154">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="N154">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O154">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="P154">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q154">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="R154">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S154">
         <v>2.25</v>
       </c>
       <c r="T154">
+        <v>1.8</v>
+      </c>
+      <c r="U154">
+        <v>2</v>
+      </c>
+      <c r="V154">
+        <v>-1</v>
+      </c>
+      <c r="W154">
+        <v>2.8</v>
+      </c>
+      <c r="X154">
+        <v>-1</v>
+      </c>
+      <c r="Y154">
+        <v>1.025</v>
+      </c>
+      <c r="Z154">
+        <v>-1</v>
+      </c>
+      <c r="AA154">
+        <v>-0.5</v>
+      </c>
+      <c r="AB154">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:28">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>7862935</v>
+      </c>
+      <c r="C155" t="s">
+        <v>27</v>
+      </c>
+      <c r="D155" s="2">
+        <v>45410.375</v>
+      </c>
+      <c r="E155" t="s">
+        <v>31</v>
+      </c>
+      <c r="F155" t="s">
+        <v>35</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="I155" t="s">
+        <v>41</v>
+      </c>
+      <c r="J155">
+        <v>4.25</v>
+      </c>
+      <c r="K155">
+        <v>3.3</v>
+      </c>
+      <c r="L155">
+        <v>1.8</v>
+      </c>
+      <c r="M155">
+        <v>3.25</v>
+      </c>
+      <c r="N155">
+        <v>3.1</v>
+      </c>
+      <c r="O155">
+        <v>2.15</v>
+      </c>
+      <c r="P155">
+        <v>0.25</v>
+      </c>
+      <c r="Q155">
+        <v>1.9</v>
+      </c>
+      <c r="R155">
+        <v>1.9</v>
+      </c>
+      <c r="S155">
+        <v>2.25</v>
+      </c>
+      <c r="T155">
+        <v>2</v>
+      </c>
+      <c r="U155">
+        <v>1.8</v>
+      </c>
+      <c r="V155">
+        <v>-1</v>
+      </c>
+      <c r="W155">
+        <v>-1</v>
+      </c>
+      <c r="X155">
+        <v>1.15</v>
+      </c>
+      <c r="Y155">
+        <v>-1</v>
+      </c>
+      <c r="Z155">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA155">
+        <v>-1</v>
+      </c>
+      <c r="AB155">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:28">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>7862936</v>
+      </c>
+      <c r="C156" t="s">
+        <v>27</v>
+      </c>
+      <c r="D156" s="2">
+        <v>45410.54166666666</v>
+      </c>
+      <c r="E156" t="s">
+        <v>30</v>
+      </c>
+      <c r="F156" t="s">
+        <v>29</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156" t="s">
+        <v>39</v>
+      </c>
+      <c r="J156">
+        <v>5</v>
+      </c>
+      <c r="K156">
+        <v>3.4</v>
+      </c>
+      <c r="L156">
+        <v>1.666</v>
+      </c>
+      <c r="M156">
+        <v>3.25</v>
+      </c>
+      <c r="N156">
+        <v>3</v>
+      </c>
+      <c r="O156">
+        <v>2.15</v>
+      </c>
+      <c r="P156">
+        <v>0.25</v>
+      </c>
+      <c r="Q156">
         <v>1.875</v>
       </c>
-      <c r="U154">
+      <c r="R156">
         <v>1.925</v>
       </c>
-      <c r="V154">
-        <v>-1</v>
-      </c>
-      <c r="W154">
-        <v>-1</v>
-      </c>
-      <c r="X154">
+      <c r="S156">
+        <v>2</v>
+      </c>
+      <c r="T156">
+        <v>2</v>
+      </c>
+      <c r="U156">
+        <v>1.8</v>
+      </c>
+      <c r="V156">
+        <v>-1</v>
+      </c>
+      <c r="W156">
+        <v>2</v>
+      </c>
+      <c r="X156">
+        <v>-1</v>
+      </c>
+      <c r="Y156">
+        <v>0.4375</v>
+      </c>
+      <c r="Z156">
+        <v>-0.5</v>
+      </c>
+      <c r="AA156">
+        <v>-1</v>
+      </c>
+      <c r="AB156">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:28">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>7862934</v>
+      </c>
+      <c r="C157" t="s">
+        <v>27</v>
+      </c>
+      <c r="D157" s="2">
+        <v>45410.29166666666</v>
+      </c>
+      <c r="E157" t="s">
+        <v>34</v>
+      </c>
+      <c r="F157" t="s">
+        <v>37</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="I157" t="s">
+        <v>41</v>
+      </c>
+      <c r="J157">
+        <v>2.3</v>
+      </c>
+      <c r="K157">
+        <v>3.25</v>
+      </c>
+      <c r="L157">
+        <v>2.875</v>
+      </c>
+      <c r="M157">
+        <v>2.2</v>
+      </c>
+      <c r="N157">
+        <v>3.4</v>
+      </c>
+      <c r="O157">
+        <v>2.9</v>
+      </c>
+      <c r="P157">
+        <v>-0.25</v>
+      </c>
+      <c r="Q157">
+        <v>1.95</v>
+      </c>
+      <c r="R157">
+        <v>1.85</v>
+      </c>
+      <c r="S157">
+        <v>2.25</v>
+      </c>
+      <c r="T157">
+        <v>1.875</v>
+      </c>
+      <c r="U157">
+        <v>1.925</v>
+      </c>
+      <c r="V157">
+        <v>-1</v>
+      </c>
+      <c r="W157">
+        <v>-1</v>
+      </c>
+      <c r="X157">
         <v>1.9</v>
       </c>
-      <c r="Y154">
-        <v>-1</v>
-      </c>
-      <c r="Z154">
+      <c r="Y157">
+        <v>-1</v>
+      </c>
+      <c r="Z157">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA154">
-        <v>-1</v>
-      </c>
-      <c r="AB154">
+      <c r="AA157">
+        <v>-1</v>
+      </c>
+      <c r="AB157">
         <v>0.925</v>
       </c>
     </row>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -95,15 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>7862938</t>
-  </si>
-  <si>
-    <t>7862939</t>
-  </si>
-  <si>
-    <t>7862053</t>
   </si>
   <si>
     <t>Lithuania A Lyga</t>
@@ -510,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB160"/>
+  <dimension ref="A1:AB157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,16 +598,16 @@
         <v>6227963</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45079.5</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -625,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J2">
         <v>5.5</v>
@@ -693,16 +684,16 @@
         <v>6227964</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45080.375</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -711,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J3">
         <v>1.85</v>
@@ -779,16 +770,16 @@
         <v>6227965</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>45080.45833333334</v>
       </c>
       <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
         <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -797,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J4">
         <v>2.4</v>
@@ -865,16 +856,16 @@
         <v>6227966</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>45080.54166666666</v>
       </c>
       <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
         <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -883,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -951,25 +942,25 @@
         <v>6227242</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>45081.49652777778</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
         <v>39</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>42</v>
       </c>
       <c r="J6">
         <v>1.571</v>
@@ -1037,16 +1028,16 @@
         <v>6227967</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>45083.5</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1055,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J7">
         <v>2.3</v>
@@ -1123,16 +1114,16 @@
         <v>6227968</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>45083.58333333334</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1141,7 +1132,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J8">
         <v>4.333</v>
@@ -1209,16 +1200,16 @@
         <v>6227969</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>45084.5</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1227,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J9">
         <v>5.5</v>
@@ -1295,16 +1286,16 @@
         <v>6227970</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>45084.54166666666</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1313,7 +1304,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J10">
         <v>3.3</v>
@@ -1381,16 +1372,16 @@
         <v>6227243</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>45084.58333333334</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1399,7 +1390,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J11">
         <v>3.25</v>
@@ -1467,16 +1458,16 @@
         <v>6227971</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>45087.45833333334</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1485,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J12">
         <v>2.75</v>
@@ -1553,16 +1544,16 @@
         <v>6227972</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>45087.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1571,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J13">
         <v>1.533</v>
@@ -1639,16 +1630,16 @@
         <v>6227244</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>45088.41666666666</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1657,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J14">
         <v>1.333</v>
@@ -1725,16 +1716,16 @@
         <v>6227973</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>45088.49652777778</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -1743,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J15">
         <v>1.3</v>
@@ -1811,16 +1802,16 @@
         <v>6732710</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>45099.54166666666</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1829,7 +1820,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J16">
         <v>11</v>
@@ -1897,16 +1888,16 @@
         <v>6732766</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>45099.58333333334</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1915,7 +1906,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J17">
         <v>1.363</v>
@@ -1983,16 +1974,16 @@
         <v>6732767</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>45101.29166666666</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2001,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J18">
         <v>1.727</v>
@@ -2069,16 +2060,16 @@
         <v>6732768</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>45101.54166666666</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2087,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J19">
         <v>1.4</v>
@@ -2155,16 +2146,16 @@
         <v>6732769</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>45102.5</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2173,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J20">
         <v>6</v>
@@ -2241,16 +2232,16 @@
         <v>6732713</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>45104.54166666666</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2259,7 +2250,7 @@
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J21">
         <v>3.25</v>
@@ -2327,16 +2318,16 @@
         <v>6732778</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>45105.54166666666</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2345,7 +2336,7 @@
         <v>3</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J22">
         <v>1.571</v>
@@ -2413,16 +2404,16 @@
         <v>6732770</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>45107.5</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2431,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J23">
         <v>1.444</v>
@@ -2499,16 +2490,16 @@
         <v>6732771</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>45108.5</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2517,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J24">
         <v>3.6</v>
@@ -2585,16 +2576,16 @@
         <v>6732772</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
         <v>45109.49652777778</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -2603,7 +2594,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J25">
         <v>3.1</v>
@@ -2671,16 +2662,16 @@
         <v>6732711</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>45109.58333333334</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2689,7 +2680,7 @@
         <v>4</v>
       </c>
       <c r="I26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J26">
         <v>5</v>
@@ -2757,16 +2748,16 @@
         <v>6732773</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>45109.58333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2775,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J27">
         <v>5</v>
@@ -2843,16 +2834,16 @@
         <v>6732712</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
         <v>45113.54166666666</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -2861,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J28">
         <v>1.4</v>
@@ -2929,16 +2920,16 @@
         <v>6732774</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
         <v>45114.54166666666</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -2947,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J29">
         <v>1.8</v>
@@ -3015,16 +3006,16 @@
         <v>6732775</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
         <v>45115.45833333334</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3033,7 +3024,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J30">
         <v>5.5</v>
@@ -3101,16 +3092,16 @@
         <v>6732776</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2">
         <v>45115.54166666666</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3119,7 +3110,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J31">
         <v>1.333</v>
@@ -3187,16 +3178,16 @@
         <v>6732777</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
         <v>45116.49652777778</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3205,7 +3196,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J32">
         <v>1.909</v>
@@ -3273,16 +3264,16 @@
         <v>6732779</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2">
         <v>45121.54166666666</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3291,7 +3282,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J33">
         <v>2.15</v>
@@ -3359,16 +3350,16 @@
         <v>6901957</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2">
         <v>45123.49652777778</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3377,7 +3368,7 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J34">
         <v>3</v>
@@ -3445,16 +3436,16 @@
         <v>6732786</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2">
         <v>45125.58333333334</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3463,7 +3454,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J35">
         <v>4.8</v>
@@ -3531,16 +3522,16 @@
         <v>6732714</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2">
         <v>45128.54166666666</v>
       </c>
       <c r="E36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" t="s">
         <v>35</v>
-      </c>
-      <c r="F36" t="s">
-        <v>38</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -3549,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J36">
         <v>1.222</v>
@@ -3617,16 +3608,16 @@
         <v>6732782</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
         <v>45129.54166666666</v>
       </c>
       <c r="E37" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3635,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J37">
         <v>2.375</v>
@@ -3703,16 +3694,16 @@
         <v>6732784</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2">
         <v>45130.49652777778</v>
       </c>
       <c r="E38" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3721,7 +3712,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J38">
         <v>3</v>
@@ -3789,16 +3780,16 @@
         <v>6732785</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2">
         <v>45131.58333333334</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -3807,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J39">
         <v>1.666</v>
@@ -3875,16 +3866,16 @@
         <v>6732783</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2">
         <v>45132.54166666666</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3893,7 +3884,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J40">
         <v>4.333</v>
@@ -3961,16 +3952,16 @@
         <v>6732787</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2">
         <v>45135.54166666666</v>
       </c>
       <c r="E41" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3979,7 +3970,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J41">
         <v>3.1</v>
@@ -4047,16 +4038,16 @@
         <v>6732788</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <v>45136.5</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4065,7 +4056,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J42">
         <v>2.45</v>
@@ -4133,16 +4124,16 @@
         <v>6732789</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2">
         <v>45137.5</v>
       </c>
       <c r="E43" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4151,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J43">
         <v>1.5</v>
@@ -4219,16 +4210,16 @@
         <v>6983663</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2">
         <v>45137.625</v>
       </c>
       <c r="E44" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4237,7 +4228,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J44">
         <v>2.1</v>
@@ -4305,16 +4296,16 @@
         <v>6732790</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2">
         <v>45142.54166666666</v>
       </c>
       <c r="E45" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4323,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J45">
         <v>2.5</v>
@@ -4391,16 +4382,16 @@
         <v>6732791</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2">
         <v>45143.5</v>
       </c>
       <c r="E46" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4409,7 +4400,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J46">
         <v>2</v>
@@ -4477,25 +4468,25 @@
         <v>7012025</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2">
         <v>45144.49652777778</v>
       </c>
       <c r="E47" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
         <v>39</v>
-      </c>
-      <c r="F47" t="s">
-        <v>35</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47" t="s">
-        <v>42</v>
       </c>
       <c r="J47">
         <v>3.5</v>
@@ -4563,16 +4554,16 @@
         <v>6732793</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2">
         <v>45144.54166666666</v>
       </c>
       <c r="E48" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4581,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J48">
         <v>1.444</v>
@@ -4649,17 +4640,17 @@
         <v>7012024</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2">
         <v>45145.54166666666</v>
       </c>
       <c r="E49" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" t="s">
         <v>34</v>
       </c>
-      <c r="F49" t="s">
-        <v>37</v>
-      </c>
       <c r="G49">
         <v>2</v>
       </c>
@@ -4667,7 +4658,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J49">
         <v>1.85</v>
@@ -4735,16 +4726,16 @@
         <v>6732794</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
         <v>45149.54166666666</v>
       </c>
       <c r="E50" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -4753,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J50">
         <v>1.25</v>
@@ -4821,16 +4812,16 @@
         <v>6732795</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2">
         <v>45149.54166666666</v>
       </c>
       <c r="E51" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4839,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J51">
         <v>2.15</v>
@@ -4907,16 +4898,16 @@
         <v>6732796</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2">
         <v>45151.375</v>
       </c>
       <c r="E52" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4925,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J52">
         <v>1.222</v>
@@ -4993,16 +4984,16 @@
         <v>6732797</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2">
         <v>45151.49652777778</v>
       </c>
       <c r="E53" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -5011,7 +5002,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J53">
         <v>1.444</v>
@@ -5079,16 +5070,16 @@
         <v>6732717</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2">
         <v>45151.58333333334</v>
       </c>
       <c r="E54" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G54">
         <v>4</v>
@@ -5097,7 +5088,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J54">
         <v>1.444</v>
@@ -5165,16 +5156,16 @@
         <v>6732798</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2">
         <v>45156.54166666666</v>
       </c>
       <c r="E55" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5183,7 +5174,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J55">
         <v>2.2</v>
@@ -5251,16 +5242,16 @@
         <v>6732799</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E56" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" t="s">
         <v>31</v>
-      </c>
-      <c r="F56" t="s">
-        <v>34</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5269,7 +5260,7 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J56">
         <v>9</v>
@@ -5337,16 +5328,16 @@
         <v>6732800</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2">
         <v>45157.5</v>
       </c>
       <c r="E57" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5355,7 +5346,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J57">
         <v>5.5</v>
@@ -5423,17 +5414,17 @@
         <v>6732718</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2">
         <v>45158.49652777778</v>
       </c>
       <c r="E58" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" t="s">
         <v>32</v>
       </c>
-      <c r="F58" t="s">
-        <v>35</v>
-      </c>
       <c r="G58">
         <v>0</v>
       </c>
@@ -5441,7 +5432,7 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J58">
         <v>6</v>
@@ -5509,16 +5500,16 @@
         <v>6732801</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2">
         <v>45158.54166666666</v>
       </c>
       <c r="E59" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" t="s">
         <v>37</v>
-      </c>
-      <c r="F59" t="s">
-        <v>40</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5527,7 +5518,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J59">
         <v>2.2</v>
@@ -5595,16 +5586,16 @@
         <v>6732802</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2">
         <v>45163.54166666666</v>
       </c>
       <c r="E60" t="s">
+        <v>33</v>
+      </c>
+      <c r="F60" t="s">
         <v>36</v>
-      </c>
-      <c r="F60" t="s">
-        <v>39</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5613,7 +5604,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J60">
         <v>4.5</v>
@@ -5681,16 +5672,16 @@
         <v>6732803</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E61" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -5699,7 +5690,7 @@
         <v>6</v>
       </c>
       <c r="I61" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J61">
         <v>2.8</v>
@@ -5767,16 +5758,16 @@
         <v>6732804</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2">
         <v>45164.54166666666</v>
       </c>
       <c r="E62" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5785,7 +5776,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J62">
         <v>3.6</v>
@@ -5853,16 +5844,16 @@
         <v>6732805</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2">
         <v>45165.375</v>
       </c>
       <c r="E63" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5871,7 +5862,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J63">
         <v>1.222</v>
@@ -5939,16 +5930,16 @@
         <v>6732719</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2">
         <v>45165.49652777778</v>
       </c>
       <c r="E64" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G64">
         <v>4</v>
@@ -5957,7 +5948,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J64">
         <v>1.25</v>
@@ -6025,16 +6016,16 @@
         <v>7143716</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2">
         <v>45171.29166666666</v>
       </c>
       <c r="E65" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6043,7 +6034,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J65">
         <v>12</v>
@@ -6111,16 +6102,16 @@
         <v>6732807</v>
       </c>
       <c r="C66" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2">
         <v>45171.375</v>
       </c>
       <c r="E66" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6129,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J66">
         <v>1.3</v>
@@ -6197,16 +6188,16 @@
         <v>6732808</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6215,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J67">
         <v>1.7</v>
@@ -6283,16 +6274,16 @@
         <v>6732809</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
         <v>45172.49652777778</v>
       </c>
       <c r="E68" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F68" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6301,7 +6292,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J68">
         <v>1.833</v>
@@ -6369,16 +6360,16 @@
         <v>6732720</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2">
         <v>45172.5</v>
       </c>
       <c r="E69" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6387,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J69">
         <v>1.125</v>
@@ -6455,16 +6446,16 @@
         <v>7202207</v>
       </c>
       <c r="C70" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2">
         <v>45185.375</v>
       </c>
       <c r="E70" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6473,7 +6464,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J70">
         <v>4</v>
@@ -6541,16 +6532,16 @@
         <v>6732812</v>
       </c>
       <c r="C71" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
         <v>45185.5</v>
       </c>
       <c r="E71" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6559,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J71">
         <v>2.5</v>
@@ -6627,16 +6618,16 @@
         <v>6732813</v>
       </c>
       <c r="C72" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2">
         <v>45186.375</v>
       </c>
       <c r="E72" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6645,7 +6636,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J72">
         <v>1.285</v>
@@ -6713,16 +6704,16 @@
         <v>6732721</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2">
         <v>45186.49652777778</v>
       </c>
       <c r="E73" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -6731,7 +6722,7 @@
         <v>6</v>
       </c>
       <c r="I73" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J73">
         <v>6</v>
@@ -6799,16 +6790,16 @@
         <v>6732814</v>
       </c>
       <c r="C74" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2">
         <v>45191.5</v>
       </c>
       <c r="E74" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6817,7 +6808,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J74">
         <v>1.8</v>
@@ -6885,16 +6876,16 @@
         <v>6732815</v>
       </c>
       <c r="C75" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2">
         <v>45192.375</v>
       </c>
       <c r="E75" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -6903,7 +6894,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J75">
         <v>2.375</v>
@@ -6971,16 +6962,16 @@
         <v>6732816</v>
       </c>
       <c r="C76" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E76" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -6989,7 +6980,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J76">
         <v>1.125</v>
@@ -7057,16 +7048,16 @@
         <v>6732817</v>
       </c>
       <c r="C77" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2">
         <v>45193.375</v>
       </c>
       <c r="E77" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G77">
         <v>3</v>
@@ -7075,7 +7066,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J77">
         <v>2.25</v>
@@ -7143,16 +7134,16 @@
         <v>6732722</v>
       </c>
       <c r="C78" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2">
         <v>45193.49652777778</v>
       </c>
       <c r="E78" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7161,7 +7152,7 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J78">
         <v>1.4</v>
@@ -7229,16 +7220,16 @@
         <v>6732820</v>
       </c>
       <c r="C79" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2">
         <v>45197.54166666666</v>
       </c>
       <c r="E79" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7247,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J79">
         <v>1.6</v>
@@ -7315,16 +7306,16 @@
         <v>6732818</v>
       </c>
       <c r="C80" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2">
         <v>45198.5</v>
       </c>
       <c r="E80" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7333,7 +7324,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J80">
         <v>1.4</v>
@@ -7401,16 +7392,16 @@
         <v>6732723</v>
       </c>
       <c r="C81" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2">
         <v>45199.375</v>
       </c>
       <c r="E81" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7419,7 +7410,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J81">
         <v>5</v>
@@ -7487,16 +7478,16 @@
         <v>6732819</v>
       </c>
       <c r="C82" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E82" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -7505,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J82">
         <v>2.2</v>
@@ -7573,16 +7564,16 @@
         <v>6732823</v>
       </c>
       <c r="C83" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2">
         <v>45206.375</v>
       </c>
       <c r="E83" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7591,7 +7582,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J83">
         <v>1.65</v>
@@ -7659,16 +7650,16 @@
         <v>6732824</v>
       </c>
       <c r="C84" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E84" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7677,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J84">
         <v>1.909</v>
@@ -7745,16 +7736,16 @@
         <v>6732825</v>
       </c>
       <c r="C85" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2">
         <v>45206.54166666666</v>
       </c>
       <c r="E85" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7763,7 +7754,7 @@
         <v>3</v>
       </c>
       <c r="I85" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J85">
         <v>4.5</v>
@@ -7831,25 +7822,25 @@
         <v>7299034</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E86" t="s">
+        <v>36</v>
+      </c>
+      <c r="F86" t="s">
+        <v>29</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86" t="s">
         <v>39</v>
-      </c>
-      <c r="F86" t="s">
-        <v>32</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86" t="s">
-        <v>42</v>
       </c>
       <c r="J86">
         <v>1.45</v>
@@ -7917,16 +7908,16 @@
         <v>6732724</v>
       </c>
       <c r="C87" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2">
         <v>45207.49652777778</v>
       </c>
       <c r="E87" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7935,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J87">
         <v>1.909</v>
@@ -8003,16 +7994,16 @@
         <v>6732826</v>
       </c>
       <c r="C88" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2">
         <v>45219.5</v>
       </c>
       <c r="E88" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F88" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8021,7 +8012,7 @@
         <v>2</v>
       </c>
       <c r="I88" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J88">
         <v>2.25</v>
@@ -8089,16 +8080,16 @@
         <v>7326568</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2">
         <v>45220.375</v>
       </c>
       <c r="E89" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -8107,7 +8098,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J89">
         <v>2.375</v>
@@ -8175,16 +8166,16 @@
         <v>6732827</v>
       </c>
       <c r="C90" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2">
         <v>45220.375</v>
       </c>
       <c r="E90" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F90" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8193,7 +8184,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J90">
         <v>6</v>
@@ -8261,16 +8252,16 @@
         <v>6732828</v>
       </c>
       <c r="C91" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E91" t="s">
+        <v>30</v>
+      </c>
+      <c r="F91" t="s">
         <v>33</v>
-      </c>
-      <c r="F91" t="s">
-        <v>36</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8279,7 +8270,7 @@
         <v>2</v>
       </c>
       <c r="I91" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J91">
         <v>2.625</v>
@@ -8347,25 +8338,25 @@
         <v>6732725</v>
       </c>
       <c r="C92" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2">
         <v>45221.49652777778</v>
       </c>
       <c r="E92" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F92" t="s">
+        <v>36</v>
+      </c>
+      <c r="G92">
+        <v>2</v>
+      </c>
+      <c r="H92">
+        <v>2</v>
+      </c>
+      <c r="I92" t="s">
         <v>39</v>
-      </c>
-      <c r="G92">
-        <v>2</v>
-      </c>
-      <c r="H92">
-        <v>2</v>
-      </c>
-      <c r="I92" t="s">
-        <v>42</v>
       </c>
       <c r="J92">
         <v>1.571</v>
@@ -8433,16 +8424,16 @@
         <v>7216318</v>
       </c>
       <c r="C93" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
         <v>45224.5</v>
       </c>
       <c r="E93" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8451,7 +8442,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J93">
         <v>4.75</v>
@@ -8519,16 +8510,16 @@
         <v>6732811</v>
       </c>
       <c r="C94" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
         <v>45224.52083333334</v>
       </c>
       <c r="E94" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -8537,7 +8528,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J94">
         <v>3.1</v>
@@ -8605,16 +8596,16 @@
         <v>6732835</v>
       </c>
       <c r="C95" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>45228.41666666666</v>
       </c>
       <c r="E95" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G95">
         <v>4</v>
@@ -8623,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J95">
         <v>2.5</v>
@@ -8691,16 +8682,16 @@
         <v>7259250</v>
       </c>
       <c r="C96" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2">
         <v>45229.54166666666</v>
       </c>
       <c r="E96" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8709,7 +8700,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J96">
         <v>3.6</v>
@@ -8777,16 +8768,16 @@
         <v>6732831</v>
       </c>
       <c r="C97" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2">
         <v>45234.33333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8795,7 +8786,7 @@
         <v>3</v>
       </c>
       <c r="I97" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J97">
         <v>5</v>
@@ -8863,16 +8854,16 @@
         <v>6732833</v>
       </c>
       <c r="C98" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2">
         <v>45235.41666666666</v>
       </c>
       <c r="E98" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8881,7 +8872,7 @@
         <v>2</v>
       </c>
       <c r="I98" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J98">
         <v>6.5</v>
@@ -8949,16 +8940,16 @@
         <v>6732832</v>
       </c>
       <c r="C99" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2">
         <v>45235.53819444445</v>
       </c>
       <c r="E99" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8967,7 +8958,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J99">
         <v>2.625</v>
@@ -9035,16 +9026,16 @@
         <v>6732834</v>
       </c>
       <c r="C100" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2">
         <v>45242.41319444445</v>
       </c>
       <c r="E100" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -9053,7 +9044,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J100">
         <v>1.25</v>
@@ -9121,16 +9112,16 @@
         <v>6732836</v>
       </c>
       <c r="C101" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2">
         <v>45242.41319444445</v>
       </c>
       <c r="E101" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9139,7 +9130,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J101">
         <v>1.222</v>
@@ -9207,16 +9198,16 @@
         <v>6732837</v>
       </c>
       <c r="C102" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2">
         <v>45242.41319444445</v>
       </c>
       <c r="E102" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9225,7 +9216,7 @@
         <v>3</v>
       </c>
       <c r="I102" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J102">
         <v>3.6</v>
@@ -9293,16 +9284,16 @@
         <v>6732727</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2">
         <v>45242.41319444445</v>
       </c>
       <c r="E103" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9311,7 +9302,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J103">
         <v>1.285</v>
@@ -9379,16 +9370,16 @@
         <v>7465686</v>
       </c>
       <c r="C104" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2">
         <v>45242.41319444445</v>
       </c>
       <c r="E104" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G104">
         <v>4</v>
@@ -9397,7 +9388,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J104">
         <v>2.3</v>
@@ -9465,25 +9456,25 @@
         <v>7862033</v>
       </c>
       <c r="C105" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2">
         <v>45352.58333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F105" t="s">
+        <v>36</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105" t="s">
         <v>39</v>
-      </c>
-      <c r="G105">
-        <v>0</v>
-      </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
-      <c r="I105" t="s">
-        <v>42</v>
       </c>
       <c r="J105">
         <v>4.333</v>
@@ -9551,17 +9542,17 @@
         <v>7862902</v>
       </c>
       <c r="C106" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2">
         <v>45353.33333333334</v>
       </c>
       <c r="E106" t="s">
+        <v>28</v>
+      </c>
+      <c r="F106" t="s">
         <v>31</v>
       </c>
-      <c r="F106" t="s">
-        <v>34</v>
-      </c>
       <c r="G106">
         <v>0</v>
       </c>
@@ -9569,7 +9560,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J106">
         <v>7.5</v>
@@ -9637,16 +9628,16 @@
         <v>7862903</v>
       </c>
       <c r="C107" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E107" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F107" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9655,7 +9646,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -9723,16 +9714,16 @@
         <v>7862034</v>
       </c>
       <c r="C108" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2">
         <v>45354.33333333334</v>
       </c>
       <c r="E108" t="s">
+        <v>29</v>
+      </c>
+      <c r="F108" t="s">
         <v>32</v>
-      </c>
-      <c r="F108" t="s">
-        <v>35</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9741,7 +9732,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J108">
         <v>6.5</v>
@@ -9809,16 +9800,16 @@
         <v>7862904</v>
       </c>
       <c r="C109" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2">
         <v>45354.5625</v>
       </c>
       <c r="E109" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9827,7 +9818,7 @@
         <v>3</v>
       </c>
       <c r="I109" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J109">
         <v>1.8</v>
@@ -9895,16 +9886,16 @@
         <v>7862905</v>
       </c>
       <c r="C110" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2">
         <v>45360.33333333334</v>
       </c>
       <c r="E110" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F110" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9913,7 +9904,7 @@
         <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J110">
         <v>2.1</v>
@@ -9981,16 +9972,16 @@
         <v>7862906</v>
       </c>
       <c r="C111" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2">
         <v>45360.41666666666</v>
       </c>
       <c r="E111" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -9999,7 +9990,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J111">
         <v>2</v>
@@ -10067,25 +10058,25 @@
         <v>7862907</v>
       </c>
       <c r="C112" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2">
         <v>45361.33333333334</v>
       </c>
       <c r="E112" t="s">
+        <v>36</v>
+      </c>
+      <c r="F112" t="s">
+        <v>30</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112" t="s">
         <v>39</v>
-      </c>
-      <c r="F112" t="s">
-        <v>33</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-      <c r="I112" t="s">
-        <v>42</v>
       </c>
       <c r="J112">
         <v>1.4</v>
@@ -10153,16 +10144,16 @@
         <v>7862908</v>
       </c>
       <c r="C113" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2">
         <v>45361.41666666666</v>
       </c>
       <c r="E113" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10171,7 +10162,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J113">
         <v>1.2</v>
@@ -10239,16 +10230,16 @@
         <v>7862035</v>
       </c>
       <c r="C114" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2">
         <v>45361.5625</v>
       </c>
       <c r="E114" t="s">
+        <v>32</v>
+      </c>
+      <c r="F114" t="s">
         <v>35</v>
-      </c>
-      <c r="F114" t="s">
-        <v>38</v>
       </c>
       <c r="G114">
         <v>3</v>
@@ -10257,7 +10248,7 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J114">
         <v>1.3</v>
@@ -10325,16 +10316,16 @@
         <v>7862909</v>
       </c>
       <c r="C115" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D115" s="2">
         <v>45363.54166666666</v>
       </c>
       <c r="E115" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F115" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -10343,7 +10334,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J115">
         <v>2</v>
@@ -10411,16 +10402,16 @@
         <v>7862910</v>
       </c>
       <c r="C116" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2">
         <v>45364.5</v>
       </c>
       <c r="E116" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F116" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10429,7 +10420,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J116">
         <v>2.3</v>
@@ -10497,25 +10488,25 @@
         <v>7862911</v>
       </c>
       <c r="C117" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D117" s="2">
         <v>45364.54166666666</v>
       </c>
       <c r="E117" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F117" t="s">
+        <v>36</v>
+      </c>
+      <c r="G117">
+        <v>2</v>
+      </c>
+      <c r="H117">
+        <v>2</v>
+      </c>
+      <c r="I117" t="s">
         <v>39</v>
-      </c>
-      <c r="G117">
-        <v>2</v>
-      </c>
-      <c r="H117">
-        <v>2</v>
-      </c>
-      <c r="I117" t="s">
-        <v>42</v>
       </c>
       <c r="J117">
         <v>2.15</v>
@@ -10583,16 +10574,16 @@
         <v>7862036</v>
       </c>
       <c r="C118" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2">
         <v>45364.54166666666</v>
       </c>
       <c r="E118" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -10601,7 +10592,7 @@
         <v>4</v>
       </c>
       <c r="I118" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J118">
         <v>8</v>
@@ -10669,16 +10660,16 @@
         <v>7862037</v>
       </c>
       <c r="C119" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D119" s="2">
         <v>45364.63541666666</v>
       </c>
       <c r="E119" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10687,7 +10678,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J119">
         <v>7.5</v>
@@ -10755,16 +10746,16 @@
         <v>7862038</v>
       </c>
       <c r="C120" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2">
         <v>45367.375</v>
       </c>
       <c r="E120" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10773,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J120">
         <v>2.5</v>
@@ -10841,16 +10832,16 @@
         <v>7862912</v>
       </c>
       <c r="C121" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2">
         <v>45367.4375</v>
       </c>
       <c r="E121" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -10859,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J121">
         <v>1.2</v>
@@ -10927,25 +10918,25 @@
         <v>7862913</v>
       </c>
       <c r="C122" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2">
         <v>45368.375</v>
       </c>
       <c r="E122" t="s">
+        <v>38</v>
+      </c>
+      <c r="F122" t="s">
+        <v>29</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>2</v>
+      </c>
+      <c r="I122" t="s">
         <v>41</v>
-      </c>
-      <c r="F122" t="s">
-        <v>32</v>
-      </c>
-      <c r="G122">
-        <v>0</v>
-      </c>
-      <c r="H122">
-        <v>2</v>
-      </c>
-      <c r="I122" t="s">
-        <v>44</v>
       </c>
       <c r="J122">
         <v>2.2</v>
@@ -11013,16 +11004,16 @@
         <v>7862914</v>
       </c>
       <c r="C123" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D123" s="2">
         <v>45368.41666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F123" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11031,7 +11022,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J123">
         <v>2.5</v>
@@ -11099,16 +11090,16 @@
         <v>7862039</v>
       </c>
       <c r="C124" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2">
         <v>45368.5625</v>
       </c>
       <c r="E124" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11117,7 +11108,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J124">
         <v>1.615</v>
@@ -11185,16 +11176,16 @@
         <v>7862915</v>
       </c>
       <c r="C125" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D125" s="2">
         <v>45380.58333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -11203,7 +11194,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J125">
         <v>2.6</v>
@@ -11271,16 +11262,16 @@
         <v>7862916</v>
       </c>
       <c r="C126" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D126" s="2">
         <v>45381.41666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G126">
         <v>4</v>
@@ -11289,7 +11280,7 @@
         <v>2</v>
       </c>
       <c r="I126" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J126">
         <v>2.5</v>
@@ -11357,16 +11348,16 @@
         <v>7862917</v>
       </c>
       <c r="C127" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D127" s="2">
         <v>45381.5</v>
       </c>
       <c r="E127" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F127" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -11375,7 +11366,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J127">
         <v>1.533</v>
@@ -11443,16 +11434,16 @@
         <v>7862040</v>
       </c>
       <c r="C128" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D128" s="2">
         <v>45382.375</v>
       </c>
       <c r="E128" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11461,7 +11452,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J128">
         <v>2.45</v>
@@ -11529,16 +11520,16 @@
         <v>7862042</v>
       </c>
       <c r="C129" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D129" s="2">
         <v>45382.51736111111</v>
       </c>
       <c r="E129" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -11547,7 +11538,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J129">
         <v>4</v>
@@ -11615,16 +11606,16 @@
         <v>7862918</v>
       </c>
       <c r="C130" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2">
         <v>45388.375</v>
       </c>
       <c r="E130" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11633,7 +11624,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J130">
         <v>4.333</v>
@@ -11701,16 +11692,16 @@
         <v>7862919</v>
       </c>
       <c r="C131" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11719,7 +11710,7 @@
         <v>2</v>
       </c>
       <c r="I131" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J131">
         <v>2.25</v>
@@ -11787,25 +11778,25 @@
         <v>7865009</v>
       </c>
       <c r="C132" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2">
         <v>45389.29166666666</v>
       </c>
       <c r="E132" t="s">
+        <v>38</v>
+      </c>
+      <c r="F132" t="s">
+        <v>35</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>2</v>
+      </c>
+      <c r="I132" t="s">
         <v>41</v>
-      </c>
-      <c r="F132" t="s">
-        <v>38</v>
-      </c>
-      <c r="G132">
-        <v>0</v>
-      </c>
-      <c r="H132">
-        <v>2</v>
-      </c>
-      <c r="I132" t="s">
-        <v>44</v>
       </c>
       <c r="J132">
         <v>1.833</v>
@@ -11873,16 +11864,16 @@
         <v>7862043</v>
       </c>
       <c r="C133" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2">
         <v>45389.375</v>
       </c>
       <c r="E133" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G133">
         <v>3</v>
@@ -11891,7 +11882,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J133">
         <v>1.666</v>
@@ -11959,16 +11950,16 @@
         <v>7862920</v>
       </c>
       <c r="C134" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2">
         <v>45389.51736111111</v>
       </c>
       <c r="E134" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -11977,7 +11968,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J134">
         <v>2.75</v>
@@ -12045,16 +12036,16 @@
         <v>7862921</v>
       </c>
       <c r="C135" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2">
         <v>45391.5</v>
       </c>
       <c r="E135" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12063,7 +12054,7 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J135">
         <v>1.75</v>
@@ -12128,85 +12119,85 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7862922</v>
+        <v>7862044</v>
       </c>
       <c r="C136" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D136" s="2">
         <v>45392.5</v>
       </c>
       <c r="E136" t="s">
+        <v>30</v>
+      </c>
+      <c r="F136" t="s">
+        <v>35</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136" t="s">
         <v>39</v>
       </c>
-      <c r="F136" t="s">
-        <v>34</v>
-      </c>
-      <c r="G136">
-        <v>1</v>
-      </c>
-      <c r="H136">
-        <v>1</v>
-      </c>
-      <c r="I136" t="s">
-        <v>42</v>
-      </c>
       <c r="J136">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="K136">
+        <v>3.05</v>
+      </c>
+      <c r="L136">
+        <v>3.2</v>
+      </c>
+      <c r="M136">
+        <v>3.4</v>
+      </c>
+      <c r="N136">
         <v>3</v>
       </c>
-      <c r="L136">
-        <v>2.5</v>
-      </c>
-      <c r="M136">
-        <v>2.9</v>
-      </c>
-      <c r="N136">
-        <v>2.9</v>
-      </c>
       <c r="O136">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="P136">
         <v>0.25</v>
       </c>
       <c r="Q136">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="R136">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S136">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T136">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U136">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V136">
         <v>-1</v>
       </c>
       <c r="W136">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0.375</v>
+        <v>0.475</v>
       </c>
       <c r="Z136">
         <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:28">
@@ -12214,85 +12205,85 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7862044</v>
+        <v>7862922</v>
       </c>
       <c r="C137" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D137" s="2">
         <v>45392.5</v>
       </c>
       <c r="E137" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F137" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J137">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="K137">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L137">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="M137">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N137">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O137">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="P137">
         <v>0.25</v>
       </c>
       <c r="Q137">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="R137">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S137">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T137">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V137">
         <v>-1</v>
       </c>
       <c r="W137">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0.475</v>
+        <v>0.375</v>
       </c>
       <c r="Z137">
         <v>-0.5</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB137">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="138" spans="1:28">
@@ -12303,16 +12294,16 @@
         <v>7862923</v>
       </c>
       <c r="C138" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D138" s="2">
         <v>45392.54166666666</v>
       </c>
       <c r="E138" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G138">
         <v>3</v>
@@ -12321,7 +12312,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J138">
         <v>1.333</v>
@@ -12389,16 +12380,16 @@
         <v>7865008</v>
       </c>
       <c r="C139" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D139" s="2">
         <v>45392.58333333334</v>
       </c>
       <c r="E139" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -12407,7 +12398,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J139">
         <v>1.333</v>
@@ -12475,16 +12466,16 @@
         <v>7862924</v>
       </c>
       <c r="C140" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D140" s="2">
         <v>45395.375</v>
       </c>
       <c r="E140" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F140" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -12493,7 +12484,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J140">
         <v>2.5</v>
@@ -12561,16 +12552,16 @@
         <v>7862045</v>
       </c>
       <c r="C141" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D141" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E141" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -12579,7 +12570,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J141">
         <v>3.4</v>
@@ -12647,16 +12638,16 @@
         <v>7862925</v>
       </c>
       <c r="C142" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D142" s="2">
         <v>45396.29166666666</v>
       </c>
       <c r="E142" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -12665,7 +12656,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J142">
         <v>3.75</v>
@@ -12733,16 +12724,16 @@
         <v>7862046</v>
       </c>
       <c r="C143" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D143" s="2">
         <v>45396.375</v>
       </c>
       <c r="E143" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -12751,7 +12742,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J143">
         <v>3.75</v>
@@ -12819,16 +12810,16 @@
         <v>7862047</v>
       </c>
       <c r="C144" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D144" s="2">
         <v>45402.375</v>
       </c>
       <c r="E144" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F144" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -12837,7 +12828,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J144">
         <v>1.444</v>
@@ -12905,16 +12896,16 @@
         <v>7862927</v>
       </c>
       <c r="C145" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D145" s="2">
         <v>45402.5</v>
       </c>
       <c r="E145" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12923,7 +12914,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -12991,16 +12982,16 @@
         <v>7862928</v>
       </c>
       <c r="C146" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D146" s="2">
         <v>45403.29166666666</v>
       </c>
       <c r="E146" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13009,7 +13000,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J146">
         <v>1.8</v>
@@ -13077,16 +13068,16 @@
         <v>7862929</v>
       </c>
       <c r="C147" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D147" s="2">
         <v>45403.375</v>
       </c>
       <c r="E147" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G147">
         <v>2</v>
@@ -13095,7 +13086,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J147">
         <v>1.4</v>
@@ -13163,16 +13154,16 @@
         <v>7862048</v>
       </c>
       <c r="C148" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D148" s="2">
         <v>45403.51736111111</v>
       </c>
       <c r="E148" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13181,7 +13172,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J148">
         <v>1.333</v>
@@ -13249,16 +13240,16 @@
         <v>7862049</v>
       </c>
       <c r="C149" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D149" s="2">
         <v>45405.54166666666</v>
       </c>
       <c r="E149" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13267,7 +13258,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J149">
         <v>1.65</v>
@@ -13335,16 +13326,16 @@
         <v>7862930</v>
       </c>
       <c r="C150" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D150" s="2">
         <v>45406.5</v>
       </c>
       <c r="E150" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F150" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -13353,7 +13344,7 @@
         <v>2</v>
       </c>
       <c r="I150" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J150">
         <v>4</v>
@@ -13421,16 +13412,16 @@
         <v>7862932</v>
       </c>
       <c r="C151" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D151" s="2">
         <v>45406.54166666666</v>
       </c>
       <c r="E151" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -13439,7 +13430,7 @@
         <v>3</v>
       </c>
       <c r="I151" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J151">
         <v>1.4</v>
@@ -13507,16 +13498,16 @@
         <v>7862050</v>
       </c>
       <c r="C152" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D152" s="2">
         <v>45406.58333333334</v>
       </c>
       <c r="E152" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F152" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G152">
         <v>4</v>
@@ -13525,7 +13516,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J152">
         <v>1.363</v>
@@ -13593,16 +13584,16 @@
         <v>7862933</v>
       </c>
       <c r="C153" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D153" s="2">
         <v>45409.375</v>
       </c>
       <c r="E153" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F153" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G153">
         <v>2</v>
@@ -13611,7 +13602,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J153">
         <v>2.875</v>
@@ -13679,16 +13670,16 @@
         <v>7862934</v>
       </c>
       <c r="C154" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D154" s="2">
         <v>45410.29166666666</v>
       </c>
       <c r="E154" t="s">
+        <v>34</v>
+      </c>
+      <c r="F154" t="s">
         <v>37</v>
-      </c>
-      <c r="F154" t="s">
-        <v>40</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -13697,7 +13688,7 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J154">
         <v>2.3</v>
@@ -13765,16 +13756,16 @@
         <v>7862935</v>
       </c>
       <c r="C155" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D155" s="2">
         <v>45410.375</v>
       </c>
       <c r="E155" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F155" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13783,7 +13774,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J155">
         <v>4.25</v>
@@ -13851,16 +13842,16 @@
         <v>7862051</v>
       </c>
       <c r="C156" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D156" s="2">
         <v>45410.45833333334</v>
       </c>
       <c r="E156" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F156" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13869,7 +13860,7 @@
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J156">
         <v>6</v>
@@ -13937,16 +13928,16 @@
         <v>7862936</v>
       </c>
       <c r="C157" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D157" s="2">
         <v>45410.54166666666</v>
       </c>
       <c r="E157" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F157" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -13955,7 +13946,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J157">
         <v>5</v>
@@ -14013,201 +14004,6 @@
       </c>
       <c r="AB157">
         <v>0.8</v>
-      </c>
-    </row>
-    <row r="158" spans="1:28">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="B158" t="s">
-        <v>27</v>
-      </c>
-      <c r="C158" t="s">
-        <v>30</v>
-      </c>
-      <c r="D158" s="2">
-        <v>45414.5</v>
-      </c>
-      <c r="E158" t="s">
-        <v>31</v>
-      </c>
-      <c r="F158" t="s">
-        <v>32</v>
-      </c>
-      <c r="J158">
-        <v>2.35</v>
-      </c>
-      <c r="K158">
-        <v>2.9</v>
-      </c>
-      <c r="L158">
-        <v>3</v>
-      </c>
-      <c r="M158">
-        <v>2.3</v>
-      </c>
-      <c r="N158">
-        <v>2.8</v>
-      </c>
-      <c r="O158">
-        <v>3.1</v>
-      </c>
-      <c r="P158">
-        <v>-0.25</v>
-      </c>
-      <c r="Q158">
-        <v>2</v>
-      </c>
-      <c r="R158">
-        <v>1.8</v>
-      </c>
-      <c r="S158">
-        <v>1.75</v>
-      </c>
-      <c r="T158">
-        <v>1.85</v>
-      </c>
-      <c r="U158">
-        <v>1.95</v>
-      </c>
-      <c r="V158">
-        <v>0</v>
-      </c>
-      <c r="W158">
-        <v>0</v>
-      </c>
-      <c r="X158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:28">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="B159" t="s">
-        <v>28</v>
-      </c>
-      <c r="C159" t="s">
-        <v>30</v>
-      </c>
-      <c r="D159" s="2">
-        <v>45414.5</v>
-      </c>
-      <c r="E159" t="s">
-        <v>41</v>
-      </c>
-      <c r="F159" t="s">
-        <v>40</v>
-      </c>
-      <c r="J159">
-        <v>4.1</v>
-      </c>
-      <c r="K159">
-        <v>3.3</v>
-      </c>
-      <c r="L159">
-        <v>1.8</v>
-      </c>
-      <c r="M159">
-        <v>4.5</v>
-      </c>
-      <c r="N159">
-        <v>3.4</v>
-      </c>
-      <c r="O159">
-        <v>1.7</v>
-      </c>
-      <c r="P159">
-        <v>0.75</v>
-      </c>
-      <c r="Q159">
-        <v>1.825</v>
-      </c>
-      <c r="R159">
-        <v>1.975</v>
-      </c>
-      <c r="S159">
-        <v>2.25</v>
-      </c>
-      <c r="T159">
-        <v>1.9</v>
-      </c>
-      <c r="U159">
-        <v>1.9</v>
-      </c>
-      <c r="V159">
-        <v>0</v>
-      </c>
-      <c r="W159">
-        <v>0</v>
-      </c>
-      <c r="X159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:28">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="B160" t="s">
-        <v>29</v>
-      </c>
-      <c r="C160" t="s">
-        <v>30</v>
-      </c>
-      <c r="D160" s="2">
-        <v>45414.54166666666</v>
-      </c>
-      <c r="E160" t="s">
-        <v>34</v>
-      </c>
-      <c r="F160" t="s">
-        <v>38</v>
-      </c>
-      <c r="J160">
-        <v>1.869</v>
-      </c>
-      <c r="K160">
-        <v>3.1</v>
-      </c>
-      <c r="L160">
-        <v>4.1</v>
-      </c>
-      <c r="M160">
-        <v>2.1</v>
-      </c>
-      <c r="N160">
-        <v>3</v>
-      </c>
-      <c r="O160">
-        <v>3.6</v>
-      </c>
-      <c r="P160">
-        <v>-0.25</v>
-      </c>
-      <c r="Q160">
-        <v>1.8</v>
-      </c>
-      <c r="R160">
-        <v>2</v>
-      </c>
-      <c r="S160">
-        <v>2</v>
-      </c>
-      <c r="T160">
-        <v>1.925</v>
-      </c>
-      <c r="U160">
-        <v>1.875</v>
-      </c>
-      <c r="V160">
-        <v>0</v>
-      </c>
-      <c r="W160">
-        <v>0</v>
-      </c>
-      <c r="X160">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -12119,7 +12119,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7862044</v>
+        <v>7862922</v>
       </c>
       <c r="C136" t="s">
         <v>27</v>
@@ -12128,76 +12128,76 @@
         <v>45392.5</v>
       </c>
       <c r="E136" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="s">
         <v>39</v>
       </c>
       <c r="J136">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="K136">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L136">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="M136">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N136">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O136">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="P136">
         <v>0.25</v>
       </c>
       <c r="Q136">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="R136">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S136">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T136">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U136">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V136">
         <v>-1</v>
       </c>
       <c r="W136">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0.475</v>
+        <v>0.375</v>
       </c>
       <c r="Z136">
         <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB136">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="137" spans="1:28">
@@ -12205,7 +12205,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7862922</v>
+        <v>7862044</v>
       </c>
       <c r="C137" t="s">
         <v>27</v>
@@ -12214,76 +12214,76 @@
         <v>45392.5</v>
       </c>
       <c r="E137" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="s">
         <v>39</v>
       </c>
       <c r="J137">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="K137">
+        <v>3.05</v>
+      </c>
+      <c r="L137">
+        <v>3.2</v>
+      </c>
+      <c r="M137">
+        <v>3.4</v>
+      </c>
+      <c r="N137">
         <v>3</v>
       </c>
-      <c r="L137">
-        <v>2.5</v>
-      </c>
-      <c r="M137">
-        <v>2.9</v>
-      </c>
-      <c r="N137">
-        <v>2.9</v>
-      </c>
       <c r="O137">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="P137">
         <v>0.25</v>
       </c>
       <c r="Q137">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="R137">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S137">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T137">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U137">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V137">
         <v>-1</v>
       </c>
       <c r="W137">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0.375</v>
+        <v>0.475</v>
       </c>
       <c r="Z137">
         <v>-0.5</v>
       </c>
       <c r="AA137">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:28">

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB157"/>
+  <dimension ref="A1:AB162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8077,7 +8077,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7326568</v>
+        <v>6732827</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -8086,76 +8086,76 @@
         <v>45220.375</v>
       </c>
       <c r="E89" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J89">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="K89">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="L89">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="M89">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="N89">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O89">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="P89">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q89">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="R89">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S89">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T89">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U89">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V89">
         <v>-1</v>
       </c>
       <c r="W89">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8163,7 +8163,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6732827</v>
+        <v>7326568</v>
       </c>
       <c r="C90" t="s">
         <v>27</v>
@@ -8172,76 +8172,76 @@
         <v>45220.375</v>
       </c>
       <c r="E90" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J90">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="K90">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="L90">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="M90">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="N90">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O90">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="P90">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S90">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T90">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U90">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V90">
         <v>-1</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X90">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z90">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA90">
         <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="91" spans="1:28">
@@ -9023,7 +9023,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6732834</v>
+        <v>7465686</v>
       </c>
       <c r="C100" t="s">
         <v>27</v>
@@ -9032,76 +9032,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="E100" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F100" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J100">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="K100">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="L100">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="M100">
-        <v>1.45</v>
+        <v>2.55</v>
       </c>
       <c r="N100">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O100">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="P100">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q100">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="R100">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S100">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T100">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U100">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V100">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="W100">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z100">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB100">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9109,7 +9109,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6732836</v>
+        <v>6732837</v>
       </c>
       <c r="C101" t="s">
         <v>27</v>
@@ -9118,46 +9118,46 @@
         <v>45242.41319444445</v>
       </c>
       <c r="E101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
         <v>3</v>
       </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
       <c r="I101" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J101">
-        <v>1.222</v>
+        <v>3.6</v>
       </c>
       <c r="K101">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="L101">
-        <v>9</v>
+        <v>1.8</v>
       </c>
       <c r="M101">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="N101">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O101">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P101">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q101">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R101">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S101">
         <v>2.5</v>
@@ -9169,19 +9169,19 @@
         <v>1.825</v>
       </c>
       <c r="V101">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y101">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA101">
         <v>0.9750000000000001</v>
@@ -9195,7 +9195,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6732837</v>
+        <v>6732836</v>
       </c>
       <c r="C102" t="s">
         <v>27</v>
@@ -9204,46 +9204,46 @@
         <v>45242.41319444445</v>
       </c>
       <c r="E102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J102">
-        <v>3.6</v>
+        <v>1.222</v>
       </c>
       <c r="K102">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="L102">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="M102">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="N102">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O102">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P102">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q102">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R102">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S102">
         <v>2.5</v>
@@ -9255,19 +9255,19 @@
         <v>1.825</v>
       </c>
       <c r="V102">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z102">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
         <v>0.9750000000000001</v>
@@ -9281,7 +9281,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6732727</v>
+        <v>6732834</v>
       </c>
       <c r="C103" t="s">
         <v>27</v>
@@ -9290,61 +9290,61 @@
         <v>45242.41319444445</v>
       </c>
       <c r="E103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J103">
-        <v>1.285</v>
+        <v>1.25</v>
       </c>
       <c r="K103">
         <v>5.5</v>
       </c>
       <c r="L103">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="M103">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="N103">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="O103">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P103">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="Q103">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="R103">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S103">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T103">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U103">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V103">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9353,13 +9353,13 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="104" spans="1:28">
@@ -9367,7 +9367,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7465686</v>
+        <v>6732727</v>
       </c>
       <c r="C104" t="s">
         <v>27</v>
@@ -9376,58 +9376,58 @@
         <v>45242.41319444445</v>
       </c>
       <c r="E104" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G104">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="s">
         <v>40</v>
       </c>
       <c r="J104">
-        <v>2.3</v>
+        <v>1.285</v>
       </c>
       <c r="K104">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="L104">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="M104">
-        <v>2.55</v>
+        <v>1.3</v>
       </c>
       <c r="N104">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="O104">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="P104">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q104">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R104">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S104">
         <v>2.75</v>
       </c>
       <c r="T104">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U104">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V104">
-        <v>1.55</v>
+        <v>0.3</v>
       </c>
       <c r="W104">
         <v>-1</v>
@@ -9436,16 +9436,16 @@
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA104">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -14003,6 +14003,436 @@
         <v>-1</v>
       </c>
       <c r="AB157">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:28">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>7862937</v>
+      </c>
+      <c r="C158" t="s">
+        <v>27</v>
+      </c>
+      <c r="D158" s="2">
+        <v>45413.375</v>
+      </c>
+      <c r="E158" t="s">
+        <v>36</v>
+      </c>
+      <c r="F158" t="s">
+        <v>34</v>
+      </c>
+      <c r="G158">
+        <v>1</v>
+      </c>
+      <c r="H158">
+        <v>1</v>
+      </c>
+      <c r="I158" t="s">
+        <v>39</v>
+      </c>
+      <c r="J158">
+        <v>2.75</v>
+      </c>
+      <c r="K158">
+        <v>3.05</v>
+      </c>
+      <c r="L158">
+        <v>2.375</v>
+      </c>
+      <c r="M158">
+        <v>3.1</v>
+      </c>
+      <c r="N158">
+        <v>3.25</v>
+      </c>
+      <c r="O158">
+        <v>2.05</v>
+      </c>
+      <c r="P158">
+        <v>0.25</v>
+      </c>
+      <c r="Q158">
+        <v>1.95</v>
+      </c>
+      <c r="R158">
+        <v>1.85</v>
+      </c>
+      <c r="S158">
+        <v>2.25</v>
+      </c>
+      <c r="T158">
+        <v>1.825</v>
+      </c>
+      <c r="U158">
+        <v>1.975</v>
+      </c>
+      <c r="V158">
+        <v>-1</v>
+      </c>
+      <c r="W158">
+        <v>2.25</v>
+      </c>
+      <c r="X158">
+        <v>-1</v>
+      </c>
+      <c r="Y158">
+        <v>0.475</v>
+      </c>
+      <c r="Z158">
+        <v>-0.5</v>
+      </c>
+      <c r="AA158">
+        <v>-0.5</v>
+      </c>
+      <c r="AB158">
+        <v>0.4875</v>
+      </c>
+    </row>
+    <row r="159" spans="1:28">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>7862052</v>
+      </c>
+      <c r="C159" t="s">
+        <v>27</v>
+      </c>
+      <c r="D159" s="2">
+        <v>45413.45833333334</v>
+      </c>
+      <c r="E159" t="s">
+        <v>32</v>
+      </c>
+      <c r="F159" t="s">
+        <v>30</v>
+      </c>
+      <c r="G159">
+        <v>2</v>
+      </c>
+      <c r="H159">
+        <v>2</v>
+      </c>
+      <c r="I159" t="s">
+        <v>39</v>
+      </c>
+      <c r="J159">
+        <v>1.25</v>
+      </c>
+      <c r="K159">
+        <v>4.8</v>
+      </c>
+      <c r="L159">
+        <v>9.5</v>
+      </c>
+      <c r="M159">
+        <v>1.25</v>
+      </c>
+      <c r="N159">
+        <v>5</v>
+      </c>
+      <c r="O159">
+        <v>8.5</v>
+      </c>
+      <c r="P159">
+        <v>-1.5</v>
+      </c>
+      <c r="Q159">
+        <v>1.8</v>
+      </c>
+      <c r="R159">
+        <v>2</v>
+      </c>
+      <c r="S159">
+        <v>2.75</v>
+      </c>
+      <c r="T159">
+        <v>1.825</v>
+      </c>
+      <c r="U159">
+        <v>1.975</v>
+      </c>
+      <c r="V159">
+        <v>-1</v>
+      </c>
+      <c r="W159">
+        <v>4</v>
+      </c>
+      <c r="X159">
+        <v>-1</v>
+      </c>
+      <c r="Y159">
+        <v>-1</v>
+      </c>
+      <c r="Z159">
+        <v>1</v>
+      </c>
+      <c r="AA159">
+        <v>0.825</v>
+      </c>
+      <c r="AB159">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:28">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>7862939</v>
+      </c>
+      <c r="C160" t="s">
+        <v>27</v>
+      </c>
+      <c r="D160" s="2">
+        <v>45414.5</v>
+      </c>
+      <c r="E160" t="s">
+        <v>38</v>
+      </c>
+      <c r="F160" t="s">
+        <v>37</v>
+      </c>
+      <c r="G160">
+        <v>3</v>
+      </c>
+      <c r="H160">
+        <v>2</v>
+      </c>
+      <c r="I160" t="s">
+        <v>40</v>
+      </c>
+      <c r="J160">
+        <v>4.1</v>
+      </c>
+      <c r="K160">
+        <v>3.3</v>
+      </c>
+      <c r="L160">
+        <v>1.8</v>
+      </c>
+      <c r="M160">
+        <v>5</v>
+      </c>
+      <c r="N160">
+        <v>3.75</v>
+      </c>
+      <c r="O160">
+        <v>1.571</v>
+      </c>
+      <c r="P160">
+        <v>1</v>
+      </c>
+      <c r="Q160">
+        <v>1.8</v>
+      </c>
+      <c r="R160">
+        <v>2</v>
+      </c>
+      <c r="S160">
+        <v>2.5</v>
+      </c>
+      <c r="T160">
+        <v>2</v>
+      </c>
+      <c r="U160">
+        <v>1.8</v>
+      </c>
+      <c r="V160">
+        <v>4</v>
+      </c>
+      <c r="W160">
+        <v>-1</v>
+      </c>
+      <c r="X160">
+        <v>-1</v>
+      </c>
+      <c r="Y160">
+        <v>0.8</v>
+      </c>
+      <c r="Z160">
+        <v>-1</v>
+      </c>
+      <c r="AA160">
+        <v>1</v>
+      </c>
+      <c r="AB160">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:28">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>7862938</v>
+      </c>
+      <c r="C161" t="s">
+        <v>27</v>
+      </c>
+      <c r="D161" s="2">
+        <v>45414.5</v>
+      </c>
+      <c r="E161" t="s">
+        <v>28</v>
+      </c>
+      <c r="F161" t="s">
+        <v>29</v>
+      </c>
+      <c r="G161">
+        <v>2</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161" t="s">
+        <v>40</v>
+      </c>
+      <c r="J161">
+        <v>2.35</v>
+      </c>
+      <c r="K161">
+        <v>2.9</v>
+      </c>
+      <c r="L161">
+        <v>3</v>
+      </c>
+      <c r="M161">
+        <v>2.55</v>
+      </c>
+      <c r="N161">
+        <v>2.75</v>
+      </c>
+      <c r="O161">
+        <v>2.875</v>
+      </c>
+      <c r="P161">
+        <v>0</v>
+      </c>
+      <c r="Q161">
+        <v>1.825</v>
+      </c>
+      <c r="R161">
+        <v>1.975</v>
+      </c>
+      <c r="S161">
+        <v>1.75</v>
+      </c>
+      <c r="T161">
+        <v>1.825</v>
+      </c>
+      <c r="U161">
+        <v>1.975</v>
+      </c>
+      <c r="V161">
+        <v>1.55</v>
+      </c>
+      <c r="W161">
+        <v>-1</v>
+      </c>
+      <c r="X161">
+        <v>-1</v>
+      </c>
+      <c r="Y161">
+        <v>0.825</v>
+      </c>
+      <c r="Z161">
+        <v>-1</v>
+      </c>
+      <c r="AA161">
+        <v>0.825</v>
+      </c>
+      <c r="AB161">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:28">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>7862053</v>
+      </c>
+      <c r="C162" t="s">
+        <v>27</v>
+      </c>
+      <c r="D162" s="2">
+        <v>45414.54166666666</v>
+      </c>
+      <c r="E162" t="s">
+        <v>31</v>
+      </c>
+      <c r="F162" t="s">
+        <v>35</v>
+      </c>
+      <c r="G162">
+        <v>1</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162" t="s">
+        <v>40</v>
+      </c>
+      <c r="J162">
+        <v>1.869</v>
+      </c>
+      <c r="K162">
+        <v>3.1</v>
+      </c>
+      <c r="L162">
+        <v>4.1</v>
+      </c>
+      <c r="M162">
+        <v>1.75</v>
+      </c>
+      <c r="N162">
+        <v>3.1</v>
+      </c>
+      <c r="O162">
+        <v>5</v>
+      </c>
+      <c r="P162">
+        <v>-0.5</v>
+      </c>
+      <c r="Q162">
+        <v>1.8</v>
+      </c>
+      <c r="R162">
+        <v>2</v>
+      </c>
+      <c r="S162">
+        <v>2</v>
+      </c>
+      <c r="T162">
+        <v>2</v>
+      </c>
+      <c r="U162">
+        <v>1.8</v>
+      </c>
+      <c r="V162">
+        <v>0.75</v>
+      </c>
+      <c r="W162">
+        <v>-1</v>
+      </c>
+      <c r="X162">
+        <v>-1</v>
+      </c>
+      <c r="Y162">
+        <v>0.8</v>
+      </c>
+      <c r="Z162">
+        <v>-1</v>
+      </c>
+      <c r="AA162">
+        <v>-1</v>
+      </c>
+      <c r="AB162">
         <v>0.8</v>
       </c>
     </row>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -4723,7 +4723,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6732794</v>
+        <v>6732795</v>
       </c>
       <c r="C50" t="s">
         <v>27</v>
@@ -4732,13 +4732,13 @@
         <v>45149.54166666666</v>
       </c>
       <c r="E50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F50" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -4747,43 +4747,43 @@
         <v>40</v>
       </c>
       <c r="J50">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="K50">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="L50">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M50">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="N50">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="O50">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="P50">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q50">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R50">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S50">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T50">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U50">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>0.25</v>
+        <v>1.3</v>
       </c>
       <c r="W50">
         <v>-1</v>
@@ -4792,16 +4792,16 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -4809,7 +4809,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6732795</v>
+        <v>6732794</v>
       </c>
       <c r="C51" t="s">
         <v>27</v>
@@ -4818,13 +4818,13 @@
         <v>45149.54166666666</v>
       </c>
       <c r="E51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -4833,43 +4833,43 @@
         <v>40</v>
       </c>
       <c r="J51">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="K51">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="L51">
+        <v>9</v>
+      </c>
+      <c r="M51">
+        <v>1.25</v>
+      </c>
+      <c r="N51">
+        <v>5.25</v>
+      </c>
+      <c r="O51">
+        <v>9</v>
+      </c>
+      <c r="P51">
+        <v>-1.75</v>
+      </c>
+      <c r="Q51">
+        <v>2</v>
+      </c>
+      <c r="R51">
+        <v>1.8</v>
+      </c>
+      <c r="S51">
         <v>3</v>
       </c>
-      <c r="M51">
-        <v>2.3</v>
-      </c>
-      <c r="N51">
-        <v>3.2</v>
-      </c>
-      <c r="O51">
-        <v>2.7</v>
-      </c>
-      <c r="P51">
-        <v>-0.25</v>
-      </c>
-      <c r="Q51">
-        <v>2.05</v>
-      </c>
-      <c r="R51">
-        <v>1.75</v>
-      </c>
-      <c r="S51">
-        <v>2.25</v>
-      </c>
       <c r="T51">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V51">
-        <v>1.3</v>
+        <v>0.25</v>
       </c>
       <c r="W51">
         <v>-1</v>
@@ -4878,16 +4878,16 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB51">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -8077,7 +8077,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6732827</v>
+        <v>7326568</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -8086,76 +8086,76 @@
         <v>45220.375</v>
       </c>
       <c r="E89" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J89">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="K89">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="L89">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="M89">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="N89">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O89">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="P89">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q89">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="R89">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S89">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T89">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U89">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V89">
         <v>-1</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X89">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z89">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8163,7 +8163,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7326568</v>
+        <v>6732827</v>
       </c>
       <c r="C90" t="s">
         <v>27</v>
@@ -8172,76 +8172,76 @@
         <v>45220.375</v>
       </c>
       <c r="E90" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J90">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="K90">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="L90">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="M90">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="N90">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O90">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="P90">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q90">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="R90">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S90">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T90">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U90">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V90">
         <v>-1</v>
       </c>
       <c r="W90">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y90">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA90">
         <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:28">
@@ -9023,7 +9023,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7465686</v>
+        <v>6732837</v>
       </c>
       <c r="C100" t="s">
         <v>27</v>
@@ -9032,73 +9032,73 @@
         <v>45242.41319444445</v>
       </c>
       <c r="E100" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G100">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J100">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="K100">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L100">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="M100">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="N100">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O100">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="P100">
         <v>0.25</v>
       </c>
       <c r="Q100">
+        <v>2</v>
+      </c>
+      <c r="R100">
         <v>1.8</v>
       </c>
-      <c r="R100">
-        <v>2</v>
-      </c>
       <c r="S100">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T100">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U100">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V100">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y100">
+        <v>-1</v>
+      </c>
+      <c r="Z100">
         <v>0.8</v>
       </c>
-      <c r="Z100">
-        <v>-1</v>
-      </c>
       <c r="AA100">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB100">
         <v>-1</v>
@@ -9109,7 +9109,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6732837</v>
+        <v>7465686</v>
       </c>
       <c r="C101" t="s">
         <v>27</v>
@@ -9118,73 +9118,73 @@
         <v>45242.41319444445</v>
       </c>
       <c r="E101" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J101">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="K101">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L101">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="M101">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N101">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O101">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="P101">
         <v>0.25</v>
       </c>
       <c r="Q101">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R101">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S101">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T101">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U101">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V101">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z101">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB101">
         <v>-1</v>
@@ -9195,7 +9195,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6732836</v>
+        <v>6732834</v>
       </c>
       <c r="C102" t="s">
         <v>27</v>
@@ -9204,76 +9204,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="E102" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J102">
-        <v>1.222</v>
+        <v>1.25</v>
       </c>
       <c r="K102">
         <v>5.5</v>
       </c>
       <c r="L102">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="M102">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="N102">
         <v>4.5</v>
       </c>
       <c r="O102">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P102">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="Q102">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="R102">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S102">
         <v>2.5</v>
       </c>
       <c r="T102">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U102">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V102">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA102">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -9281,7 +9281,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6732834</v>
+        <v>6732727</v>
       </c>
       <c r="C103" t="s">
         <v>27</v>
@@ -9290,61 +9290,61 @@
         <v>45242.41319444445</v>
       </c>
       <c r="E103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F103" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J103">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="K103">
         <v>5.5</v>
       </c>
       <c r="L103">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="M103">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="N103">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="O103">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P103">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="Q103">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="R103">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S103">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T103">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U103">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V103">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="W103">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9353,13 +9353,13 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:28">
@@ -9367,7 +9367,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6732727</v>
+        <v>6732836</v>
       </c>
       <c r="C104" t="s">
         <v>27</v>
@@ -9376,13 +9376,13 @@
         <v>45242.41319444445</v>
       </c>
       <c r="E104" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9391,25 +9391,25 @@
         <v>40</v>
       </c>
       <c r="J104">
-        <v>1.285</v>
+        <v>1.222</v>
       </c>
       <c r="K104">
         <v>5.5</v>
       </c>
       <c r="L104">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="M104">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="N104">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="O104">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P104">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q104">
         <v>1.9</v>
@@ -9418,16 +9418,16 @@
         <v>1.9</v>
       </c>
       <c r="S104">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T104">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U104">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V104">
-        <v>0.3</v>
+        <v>0.363</v>
       </c>
       <c r="W104">
         <v>-1</v>
@@ -9436,16 +9436,16 @@
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z104">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB104">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -10485,7 +10485,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7862911</v>
+        <v>7862036</v>
       </c>
       <c r="C117" t="s">
         <v>27</v>
@@ -10494,73 +10494,73 @@
         <v>45364.54166666666</v>
       </c>
       <c r="E117" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F117" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I117" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J117">
-        <v>2.15</v>
+        <v>8</v>
       </c>
       <c r="K117">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="L117">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="M117">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="N117">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="O117">
-        <v>3</v>
+        <v>1.333</v>
       </c>
       <c r="P117">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q117">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="R117">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="S117">
         <v>2.5</v>
       </c>
       <c r="T117">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="U117">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V117">
         <v>-1</v>
       </c>
       <c r="W117">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Y117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA117">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB117">
         <v>-1</v>
@@ -10571,7 +10571,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7862036</v>
+        <v>7862911</v>
       </c>
       <c r="C118" t="s">
         <v>27</v>
@@ -10580,73 +10580,73 @@
         <v>45364.54166666666</v>
       </c>
       <c r="E118" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J118">
-        <v>8</v>
+        <v>2.15</v>
       </c>
       <c r="K118">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="L118">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="M118">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="N118">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="O118">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="P118">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="Q118">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="R118">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="S118">
         <v>2.5</v>
       </c>
       <c r="T118">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="U118">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V118">
         <v>-1</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X118">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z118">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA118">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB118">
         <v>-1</v>
@@ -12119,7 +12119,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7862922</v>
+        <v>7862044</v>
       </c>
       <c r="C136" t="s">
         <v>27</v>
@@ -12128,76 +12128,76 @@
         <v>45392.5</v>
       </c>
       <c r="E136" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="s">
         <v>39</v>
       </c>
       <c r="J136">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="K136">
+        <v>3.05</v>
+      </c>
+      <c r="L136">
+        <v>3.2</v>
+      </c>
+      <c r="M136">
+        <v>3.4</v>
+      </c>
+      <c r="N136">
         <v>3</v>
       </c>
-      <c r="L136">
-        <v>2.5</v>
-      </c>
-      <c r="M136">
-        <v>2.9</v>
-      </c>
-      <c r="N136">
-        <v>2.9</v>
-      </c>
       <c r="O136">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="P136">
         <v>0.25</v>
       </c>
       <c r="Q136">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="R136">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S136">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T136">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U136">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V136">
         <v>-1</v>
       </c>
       <c r="W136">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0.375</v>
+        <v>0.475</v>
       </c>
       <c r="Z136">
         <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:28">
@@ -12205,7 +12205,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7862044</v>
+        <v>7862922</v>
       </c>
       <c r="C137" t="s">
         <v>27</v>
@@ -12214,76 +12214,76 @@
         <v>45392.5</v>
       </c>
       <c r="E137" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="s">
         <v>39</v>
       </c>
       <c r="J137">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="K137">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L137">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="M137">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N137">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O137">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="P137">
         <v>0.25</v>
       </c>
       <c r="Q137">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="R137">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S137">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T137">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V137">
         <v>-1</v>
       </c>
       <c r="W137">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0.475</v>
+        <v>0.375</v>
       </c>
       <c r="Z137">
         <v>-0.5</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB137">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="138" spans="1:28">

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -2659,7 +2659,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6732711</v>
+        <v>6732773</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
@@ -2668,16 +2668,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>1</v>
-      </c>
-      <c r="H26">
-        <v>4</v>
       </c>
       <c r="I26" t="s">
         <v>41</v>
@@ -2686,37 +2686,37 @@
         <v>5</v>
       </c>
       <c r="K26">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L26">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="M26">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N26">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="O26">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="P26">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R26">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S26">
         <v>2.5</v>
       </c>
       <c r="T26">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V26">
         <v>-1</v>
@@ -2725,19 +2725,19 @@
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>0.25</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -2745,7 +2745,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6732773</v>
+        <v>6732711</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
@@ -2754,16 +2754,16 @@
         <v>45109.58333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I27" t="s">
         <v>41</v>
@@ -2772,37 +2772,37 @@
         <v>5</v>
       </c>
       <c r="K27">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L27">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="M27">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N27">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="O27">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Q27">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R27">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S27">
         <v>2.5</v>
       </c>
       <c r="T27">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U27">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V27">
         <v>-1</v>
@@ -2811,19 +2811,19 @@
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>0.5329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -4723,7 +4723,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6732795</v>
+        <v>6732794</v>
       </c>
       <c r="C50" t="s">
         <v>27</v>
@@ -4732,13 +4732,13 @@
         <v>45149.54166666666</v>
       </c>
       <c r="E50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -4747,43 +4747,43 @@
         <v>40</v>
       </c>
       <c r="J50">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="K50">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="L50">
+        <v>9</v>
+      </c>
+      <c r="M50">
+        <v>1.25</v>
+      </c>
+      <c r="N50">
+        <v>5.25</v>
+      </c>
+      <c r="O50">
+        <v>9</v>
+      </c>
+      <c r="P50">
+        <v>-1.75</v>
+      </c>
+      <c r="Q50">
+        <v>2</v>
+      </c>
+      <c r="R50">
+        <v>1.8</v>
+      </c>
+      <c r="S50">
         <v>3</v>
       </c>
-      <c r="M50">
-        <v>2.3</v>
-      </c>
-      <c r="N50">
-        <v>3.2</v>
-      </c>
-      <c r="O50">
-        <v>2.7</v>
-      </c>
-      <c r="P50">
-        <v>-0.25</v>
-      </c>
-      <c r="Q50">
-        <v>2.05</v>
-      </c>
-      <c r="R50">
-        <v>1.75</v>
-      </c>
-      <c r="S50">
-        <v>2.25</v>
-      </c>
       <c r="T50">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V50">
-        <v>1.3</v>
+        <v>0.25</v>
       </c>
       <c r="W50">
         <v>-1</v>
@@ -4792,16 +4792,16 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB50">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -4809,7 +4809,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6732794</v>
+        <v>6732795</v>
       </c>
       <c r="C51" t="s">
         <v>27</v>
@@ -4818,13 +4818,13 @@
         <v>45149.54166666666</v>
       </c>
       <c r="E51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F51" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -4833,43 +4833,43 @@
         <v>40</v>
       </c>
       <c r="J51">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="K51">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="L51">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M51">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="N51">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="O51">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="P51">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q51">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R51">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S51">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T51">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U51">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>0.25</v>
+        <v>1.3</v>
       </c>
       <c r="W51">
         <v>-1</v>
@@ -4878,16 +4878,16 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -9023,7 +9023,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6732837</v>
+        <v>6732834</v>
       </c>
       <c r="C100" t="s">
         <v>27</v>
@@ -9032,76 +9032,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="E100" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J100">
-        <v>3.6</v>
+        <v>1.25</v>
       </c>
       <c r="K100">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="L100">
-        <v>1.8</v>
+        <v>7.5</v>
       </c>
       <c r="M100">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="N100">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O100">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P100">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q100">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="R100">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S100">
         <v>2.5</v>
       </c>
       <c r="T100">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U100">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V100">
         <v>-1</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X100">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AA100">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9109,7 +9109,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7465686</v>
+        <v>6732837</v>
       </c>
       <c r="C101" t="s">
         <v>27</v>
@@ -9118,73 +9118,73 @@
         <v>45242.41319444445</v>
       </c>
       <c r="E101" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G101">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I101" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J101">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="K101">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L101">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="M101">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="N101">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O101">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="P101">
         <v>0.25</v>
       </c>
       <c r="Q101">
+        <v>2</v>
+      </c>
+      <c r="R101">
         <v>1.8</v>
       </c>
-      <c r="R101">
-        <v>2</v>
-      </c>
       <c r="S101">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T101">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U101">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V101">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y101">
+        <v>-1</v>
+      </c>
+      <c r="Z101">
         <v>0.8</v>
       </c>
-      <c r="Z101">
-        <v>-1</v>
-      </c>
       <c r="AA101">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB101">
         <v>-1</v>
@@ -9195,7 +9195,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6732834</v>
+        <v>6732727</v>
       </c>
       <c r="C102" t="s">
         <v>27</v>
@@ -9204,61 +9204,61 @@
         <v>45242.41319444445</v>
       </c>
       <c r="E102" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F102" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J102">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="K102">
         <v>5.5</v>
       </c>
       <c r="L102">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="M102">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="N102">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="O102">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P102">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="Q102">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="R102">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S102">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T102">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U102">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V102">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="W102">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9267,13 +9267,13 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -9281,7 +9281,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6732727</v>
+        <v>6732836</v>
       </c>
       <c r="C103" t="s">
         <v>27</v>
@@ -9290,13 +9290,13 @@
         <v>45242.41319444445</v>
       </c>
       <c r="E103" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -9305,25 +9305,25 @@
         <v>40</v>
       </c>
       <c r="J103">
-        <v>1.285</v>
+        <v>1.222</v>
       </c>
       <c r="K103">
         <v>5.5</v>
       </c>
       <c r="L103">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="M103">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="N103">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="O103">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P103">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q103">
         <v>1.9</v>
@@ -9332,16 +9332,16 @@
         <v>1.9</v>
       </c>
       <c r="S103">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T103">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U103">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V103">
-        <v>0.3</v>
+        <v>0.363</v>
       </c>
       <c r="W103">
         <v>-1</v>
@@ -9350,16 +9350,16 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z103">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB103">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:28">
@@ -9367,7 +9367,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6732836</v>
+        <v>7465686</v>
       </c>
       <c r="C104" t="s">
         <v>27</v>
@@ -9376,58 +9376,58 @@
         <v>45242.41319444445</v>
       </c>
       <c r="E104" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G104">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="s">
         <v>40</v>
       </c>
       <c r="J104">
-        <v>1.222</v>
+        <v>2.3</v>
       </c>
       <c r="K104">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="L104">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="M104">
-        <v>1.363</v>
+        <v>2.55</v>
       </c>
       <c r="N104">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O104">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="P104">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q104">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R104">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S104">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T104">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U104">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V104">
-        <v>0.363</v>
+        <v>1.55</v>
       </c>
       <c r="W104">
         <v>-1</v>
@@ -9436,13 +9436,13 @@
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB104">
         <v>-1</v>
@@ -12119,7 +12119,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7862044</v>
+        <v>7862922</v>
       </c>
       <c r="C136" t="s">
         <v>27</v>
@@ -12128,76 +12128,76 @@
         <v>45392.5</v>
       </c>
       <c r="E136" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="s">
         <v>39</v>
       </c>
       <c r="J136">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="K136">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L136">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="M136">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N136">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O136">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="P136">
         <v>0.25</v>
       </c>
       <c r="Q136">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="R136">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S136">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T136">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U136">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V136">
         <v>-1</v>
       </c>
       <c r="W136">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0.475</v>
+        <v>0.375</v>
       </c>
       <c r="Z136">
         <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB136">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="137" spans="1:28">
@@ -12205,7 +12205,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7862922</v>
+        <v>7862044</v>
       </c>
       <c r="C137" t="s">
         <v>27</v>
@@ -12214,76 +12214,76 @@
         <v>45392.5</v>
       </c>
       <c r="E137" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="s">
         <v>39</v>
       </c>
       <c r="J137">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="K137">
+        <v>3.05</v>
+      </c>
+      <c r="L137">
+        <v>3.2</v>
+      </c>
+      <c r="M137">
+        <v>3.4</v>
+      </c>
+      <c r="N137">
         <v>3</v>
       </c>
-      <c r="L137">
-        <v>2.5</v>
-      </c>
-      <c r="M137">
-        <v>2.9</v>
-      </c>
-      <c r="N137">
-        <v>2.9</v>
-      </c>
       <c r="O137">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="P137">
         <v>0.25</v>
       </c>
       <c r="Q137">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="R137">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S137">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T137">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U137">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V137">
         <v>-1</v>
       </c>
       <c r="W137">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0.375</v>
+        <v>0.475</v>
       </c>
       <c r="Z137">
         <v>-0.5</v>
       </c>
       <c r="AA137">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:28">

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB162"/>
+  <dimension ref="A1:AB167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8077,7 +8077,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7326568</v>
+        <v>6732827</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -8086,76 +8086,76 @@
         <v>45220.375</v>
       </c>
       <c r="E89" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J89">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="K89">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="L89">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="M89">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="N89">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O89">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="P89">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q89">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="R89">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S89">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T89">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U89">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V89">
         <v>-1</v>
       </c>
       <c r="W89">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8163,7 +8163,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6732827</v>
+        <v>7326568</v>
       </c>
       <c r="C90" t="s">
         <v>27</v>
@@ -8172,76 +8172,76 @@
         <v>45220.375</v>
       </c>
       <c r="E90" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J90">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="K90">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="L90">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="M90">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="N90">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O90">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="P90">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S90">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T90">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U90">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V90">
         <v>-1</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X90">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z90">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA90">
         <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="91" spans="1:28">
@@ -9023,7 +9023,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6732834</v>
+        <v>6732727</v>
       </c>
       <c r="C100" t="s">
         <v>27</v>
@@ -9032,61 +9032,61 @@
         <v>45242.41319444445</v>
       </c>
       <c r="E100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F100" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J100">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="K100">
         <v>5.5</v>
       </c>
       <c r="L100">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="M100">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="N100">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="O100">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P100">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="Q100">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="R100">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S100">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T100">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U100">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V100">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="W100">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9095,13 +9095,13 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9109,7 +9109,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6732837</v>
+        <v>6732836</v>
       </c>
       <c r="C101" t="s">
         <v>27</v>
@@ -9118,46 +9118,46 @@
         <v>45242.41319444445</v>
       </c>
       <c r="E101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J101">
-        <v>3.6</v>
+        <v>1.222</v>
       </c>
       <c r="K101">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="L101">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="M101">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="N101">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O101">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P101">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q101">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R101">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S101">
         <v>2.5</v>
@@ -9169,19 +9169,19 @@
         <v>1.825</v>
       </c>
       <c r="V101">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z101">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
         <v>0.9750000000000001</v>
@@ -9195,7 +9195,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6732727</v>
+        <v>6732837</v>
       </c>
       <c r="C102" t="s">
         <v>27</v>
@@ -9204,76 +9204,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="E102" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>3</v>
+      </c>
+      <c r="I102" t="s">
+        <v>41</v>
+      </c>
+      <c r="J102">
+        <v>3.6</v>
+      </c>
+      <c r="K102">
+        <v>3.6</v>
+      </c>
+      <c r="L102">
+        <v>1.8</v>
+      </c>
+      <c r="M102">
+        <v>3</v>
+      </c>
+      <c r="N102">
+        <v>3.6</v>
+      </c>
+      <c r="O102">
+        <v>2</v>
+      </c>
+      <c r="P102">
+        <v>0.25</v>
+      </c>
+      <c r="Q102">
+        <v>2</v>
+      </c>
+      <c r="R102">
+        <v>1.8</v>
+      </c>
+      <c r="S102">
+        <v>2.5</v>
+      </c>
+      <c r="T102">
+        <v>1.975</v>
+      </c>
+      <c r="U102">
+        <v>1.825</v>
+      </c>
+      <c r="V102">
+        <v>-1</v>
+      </c>
+      <c r="W102">
+        <v>-1</v>
+      </c>
+      <c r="X102">
         <v>1</v>
       </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-      <c r="I102" t="s">
-        <v>40</v>
-      </c>
-      <c r="J102">
-        <v>1.285</v>
-      </c>
-      <c r="K102">
-        <v>5.5</v>
-      </c>
-      <c r="L102">
-        <v>6.5</v>
-      </c>
-      <c r="M102">
-        <v>1.3</v>
-      </c>
-      <c r="N102">
-        <v>5.5</v>
-      </c>
-      <c r="O102">
-        <v>6</v>
-      </c>
-      <c r="P102">
-        <v>-1.5</v>
-      </c>
-      <c r="Q102">
-        <v>1.9</v>
-      </c>
-      <c r="R102">
-        <v>1.9</v>
-      </c>
-      <c r="S102">
-        <v>2.75</v>
-      </c>
-      <c r="T102">
-        <v>1.8</v>
-      </c>
-      <c r="U102">
-        <v>2</v>
-      </c>
-      <c r="V102">
-        <v>0.3</v>
-      </c>
-      <c r="W102">
-        <v>-1</v>
-      </c>
-      <c r="X102">
-        <v>-1</v>
-      </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB102">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -9281,7 +9281,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6732836</v>
+        <v>7465686</v>
       </c>
       <c r="C103" t="s">
         <v>27</v>
@@ -9290,58 +9290,58 @@
         <v>45242.41319444445</v>
       </c>
       <c r="E103" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G103">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="s">
         <v>40</v>
       </c>
       <c r="J103">
-        <v>1.222</v>
+        <v>2.3</v>
       </c>
       <c r="K103">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="L103">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="M103">
-        <v>1.363</v>
+        <v>2.55</v>
       </c>
       <c r="N103">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O103">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="P103">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q103">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R103">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S103">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T103">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U103">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V103">
-        <v>0.363</v>
+        <v>1.55</v>
       </c>
       <c r="W103">
         <v>-1</v>
@@ -9350,13 +9350,13 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB103">
         <v>-1</v>
@@ -9367,7 +9367,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7465686</v>
+        <v>6732834</v>
       </c>
       <c r="C104" t="s">
         <v>27</v>
@@ -9376,76 +9376,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="E104" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G104">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J104">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="K104">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="L104">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="M104">
-        <v>2.55</v>
+        <v>1.45</v>
       </c>
       <c r="N104">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O104">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="P104">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q104">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R104">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S104">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T104">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U104">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V104">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA104">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -12119,7 +12119,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7862922</v>
+        <v>7862044</v>
       </c>
       <c r="C136" t="s">
         <v>27</v>
@@ -12128,76 +12128,76 @@
         <v>45392.5</v>
       </c>
       <c r="E136" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="s">
         <v>39</v>
       </c>
       <c r="J136">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="K136">
+        <v>3.05</v>
+      </c>
+      <c r="L136">
+        <v>3.2</v>
+      </c>
+      <c r="M136">
+        <v>3.4</v>
+      </c>
+      <c r="N136">
         <v>3</v>
       </c>
-      <c r="L136">
-        <v>2.5</v>
-      </c>
-      <c r="M136">
-        <v>2.9</v>
-      </c>
-      <c r="N136">
-        <v>2.9</v>
-      </c>
       <c r="O136">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="P136">
         <v>0.25</v>
       </c>
       <c r="Q136">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="R136">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S136">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T136">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U136">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V136">
         <v>-1</v>
       </c>
       <c r="W136">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0.375</v>
+        <v>0.475</v>
       </c>
       <c r="Z136">
         <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:28">
@@ -12205,7 +12205,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7862044</v>
+        <v>7862922</v>
       </c>
       <c r="C137" t="s">
         <v>27</v>
@@ -12214,76 +12214,76 @@
         <v>45392.5</v>
       </c>
       <c r="E137" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="s">
         <v>39</v>
       </c>
       <c r="J137">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="K137">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L137">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="M137">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N137">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O137">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="P137">
         <v>0.25</v>
       </c>
       <c r="Q137">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="R137">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S137">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T137">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V137">
         <v>-1</v>
       </c>
       <c r="W137">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0.475</v>
+        <v>0.375</v>
       </c>
       <c r="Z137">
         <v>-0.5</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB137">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="138" spans="1:28">
@@ -14434,6 +14434,436 @@
       </c>
       <c r="AB162">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:28">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>7862940</v>
+      </c>
+      <c r="C163" t="s">
+        <v>27</v>
+      </c>
+      <c r="D163" s="2">
+        <v>45423.375</v>
+      </c>
+      <c r="E163" t="s">
+        <v>29</v>
+      </c>
+      <c r="F163" t="s">
+        <v>38</v>
+      </c>
+      <c r="G163">
+        <v>1</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163" t="s">
+        <v>40</v>
+      </c>
+      <c r="J163">
+        <v>2.375</v>
+      </c>
+      <c r="K163">
+        <v>3</v>
+      </c>
+      <c r="L163">
+        <v>2.875</v>
+      </c>
+      <c r="M163">
+        <v>2.2</v>
+      </c>
+      <c r="N163">
+        <v>2.9</v>
+      </c>
+      <c r="O163">
+        <v>3.4</v>
+      </c>
+      <c r="P163">
+        <v>-0.25</v>
+      </c>
+      <c r="Q163">
+        <v>1.925</v>
+      </c>
+      <c r="R163">
+        <v>1.875</v>
+      </c>
+      <c r="S163">
+        <v>2</v>
+      </c>
+      <c r="T163">
+        <v>1.9</v>
+      </c>
+      <c r="U163">
+        <v>1.9</v>
+      </c>
+      <c r="V163">
+        <v>1.2</v>
+      </c>
+      <c r="W163">
+        <v>-1</v>
+      </c>
+      <c r="X163">
+        <v>-1</v>
+      </c>
+      <c r="Y163">
+        <v>0.925</v>
+      </c>
+      <c r="Z163">
+        <v>-1</v>
+      </c>
+      <c r="AA163">
+        <v>-1</v>
+      </c>
+      <c r="AB163">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:28">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>7862054</v>
+      </c>
+      <c r="C164" t="s">
+        <v>27</v>
+      </c>
+      <c r="D164" s="2">
+        <v>45423.45833333334</v>
+      </c>
+      <c r="E164" t="s">
+        <v>35</v>
+      </c>
+      <c r="F164" t="s">
+        <v>28</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164" t="s">
+        <v>41</v>
+      </c>
+      <c r="J164">
+        <v>2.15</v>
+      </c>
+      <c r="K164">
+        <v>3</v>
+      </c>
+      <c r="L164">
+        <v>3.25</v>
+      </c>
+      <c r="M164">
+        <v>2.05</v>
+      </c>
+      <c r="N164">
+        <v>2.875</v>
+      </c>
+      <c r="O164">
+        <v>3.75</v>
+      </c>
+      <c r="P164">
+        <v>-0.25</v>
+      </c>
+      <c r="Q164">
+        <v>1.825</v>
+      </c>
+      <c r="R164">
+        <v>1.975</v>
+      </c>
+      <c r="S164">
+        <v>1.75</v>
+      </c>
+      <c r="T164">
+        <v>1.825</v>
+      </c>
+      <c r="U164">
+        <v>1.975</v>
+      </c>
+      <c r="V164">
+        <v>-1</v>
+      </c>
+      <c r="W164">
+        <v>-1</v>
+      </c>
+      <c r="X164">
+        <v>2.75</v>
+      </c>
+      <c r="Y164">
+        <v>-1</v>
+      </c>
+      <c r="Z164">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA164">
+        <v>-1</v>
+      </c>
+      <c r="AB164">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:28">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>7862941</v>
+      </c>
+      <c r="C165" t="s">
+        <v>27</v>
+      </c>
+      <c r="D165" s="2">
+        <v>45423.54166666666</v>
+      </c>
+      <c r="E165" t="s">
+        <v>30</v>
+      </c>
+      <c r="F165" t="s">
+        <v>31</v>
+      </c>
+      <c r="G165">
+        <v>2</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165" t="s">
+        <v>40</v>
+      </c>
+      <c r="J165">
+        <v>4.25</v>
+      </c>
+      <c r="K165">
+        <v>3.2</v>
+      </c>
+      <c r="L165">
+        <v>1.8</v>
+      </c>
+      <c r="M165">
+        <v>3.8</v>
+      </c>
+      <c r="N165">
+        <v>3.2</v>
+      </c>
+      <c r="O165">
+        <v>1.85</v>
+      </c>
+      <c r="P165">
+        <v>0.5</v>
+      </c>
+      <c r="Q165">
+        <v>1.875</v>
+      </c>
+      <c r="R165">
+        <v>1.925</v>
+      </c>
+      <c r="S165">
+        <v>2</v>
+      </c>
+      <c r="T165">
+        <v>1.775</v>
+      </c>
+      <c r="U165">
+        <v>2.025</v>
+      </c>
+      <c r="V165">
+        <v>2.8</v>
+      </c>
+      <c r="W165">
+        <v>-1</v>
+      </c>
+      <c r="X165">
+        <v>-1</v>
+      </c>
+      <c r="Y165">
+        <v>0.875</v>
+      </c>
+      <c r="Z165">
+        <v>-1</v>
+      </c>
+      <c r="AA165">
+        <v>0</v>
+      </c>
+      <c r="AB165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:28">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>7862055</v>
+      </c>
+      <c r="C166" t="s">
+        <v>27</v>
+      </c>
+      <c r="D166" s="2">
+        <v>45424.41666666666</v>
+      </c>
+      <c r="E166" t="s">
+        <v>34</v>
+      </c>
+      <c r="F166" t="s">
+        <v>32</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166" t="s">
+        <v>39</v>
+      </c>
+      <c r="J166">
+        <v>3.75</v>
+      </c>
+      <c r="K166">
+        <v>3.4</v>
+      </c>
+      <c r="L166">
+        <v>1.85</v>
+      </c>
+      <c r="M166">
+        <v>3.6</v>
+      </c>
+      <c r="N166">
+        <v>3.8</v>
+      </c>
+      <c r="O166">
+        <v>1.8</v>
+      </c>
+      <c r="P166">
+        <v>0.5</v>
+      </c>
+      <c r="Q166">
+        <v>1.975</v>
+      </c>
+      <c r="R166">
+        <v>1.825</v>
+      </c>
+      <c r="S166">
+        <v>3</v>
+      </c>
+      <c r="T166">
+        <v>1.95</v>
+      </c>
+      <c r="U166">
+        <v>1.85</v>
+      </c>
+      <c r="V166">
+        <v>-1</v>
+      </c>
+      <c r="W166">
+        <v>2.8</v>
+      </c>
+      <c r="X166">
+        <v>-1</v>
+      </c>
+      <c r="Y166">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="Z166">
+        <v>-1</v>
+      </c>
+      <c r="AA166">
+        <v>-1</v>
+      </c>
+      <c r="AB166">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:28">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>7862942</v>
+      </c>
+      <c r="C167" t="s">
+        <v>27</v>
+      </c>
+      <c r="D167" s="2">
+        <v>45424.51736111111</v>
+      </c>
+      <c r="E167" t="s">
+        <v>37</v>
+      </c>
+      <c r="F167" t="s">
+        <v>36</v>
+      </c>
+      <c r="G167">
+        <v>2</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="I167" t="s">
+        <v>40</v>
+      </c>
+      <c r="J167">
+        <v>2.05</v>
+      </c>
+      <c r="K167">
+        <v>3.1</v>
+      </c>
+      <c r="L167">
+        <v>3.4</v>
+      </c>
+      <c r="M167">
+        <v>2.05</v>
+      </c>
+      <c r="N167">
+        <v>3.2</v>
+      </c>
+      <c r="O167">
+        <v>3.5</v>
+      </c>
+      <c r="P167">
+        <v>-0.25</v>
+      </c>
+      <c r="Q167">
+        <v>1.775</v>
+      </c>
+      <c r="R167">
+        <v>2.025</v>
+      </c>
+      <c r="S167">
+        <v>2.5</v>
+      </c>
+      <c r="T167">
+        <v>2</v>
+      </c>
+      <c r="U167">
+        <v>1.8</v>
+      </c>
+      <c r="V167">
+        <v>1.05</v>
+      </c>
+      <c r="W167">
+        <v>-1</v>
+      </c>
+      <c r="X167">
+        <v>-1</v>
+      </c>
+      <c r="Y167">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="Z167">
+        <v>-1</v>
+      </c>
+      <c r="AA167">
+        <v>1</v>
+      </c>
+      <c r="AB167">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>7862056</t>
   </si>
   <si>
     <t>Lithuania A Lyga</t>
@@ -501,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB167"/>
+  <dimension ref="A1:AB168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,16 +601,16 @@
         <v>6227963</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>45079.5</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -616,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J2">
         <v>5.5</v>
@@ -684,16 +687,16 @@
         <v>6227964</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <v>45080.375</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -702,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J3">
         <v>1.85</v>
@@ -770,16 +773,16 @@
         <v>6227965</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
         <v>45080.45833333334</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -788,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J4">
         <v>2.4</v>
@@ -856,16 +859,16 @@
         <v>6227966</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>45080.54166666666</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -874,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -942,16 +945,16 @@
         <v>6227242</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>45081.49652777778</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -960,7 +963,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J6">
         <v>1.571</v>
@@ -1028,16 +1031,16 @@
         <v>6227967</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>45083.5</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1046,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J7">
         <v>2.3</v>
@@ -1114,16 +1117,16 @@
         <v>6227968</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>45083.58333333334</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1132,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J8">
         <v>4.333</v>
@@ -1200,16 +1203,16 @@
         <v>6227969</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>45084.5</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1218,7 +1221,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J9">
         <v>5.5</v>
@@ -1286,16 +1289,16 @@
         <v>6227970</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>45084.54166666666</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1304,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>3.3</v>
@@ -1372,16 +1375,16 @@
         <v>6227243</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>45084.58333333334</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1390,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>3.25</v>
@@ -1458,16 +1461,16 @@
         <v>6227971</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
         <v>45087.45833333334</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1476,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J12">
         <v>2.75</v>
@@ -1544,16 +1547,16 @@
         <v>6227972</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>45087.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1562,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J13">
         <v>1.533</v>
@@ -1630,16 +1633,16 @@
         <v>6227244</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>45088.41666666666</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1648,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J14">
         <v>1.333</v>
@@ -1716,16 +1719,16 @@
         <v>6227973</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>45088.49652777778</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -1734,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J15">
         <v>1.3</v>
@@ -1802,16 +1805,16 @@
         <v>6732710</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>45099.54166666666</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1820,7 +1823,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>11</v>
@@ -1888,16 +1891,16 @@
         <v>6732766</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>45099.58333333334</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1906,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J17">
         <v>1.363</v>
@@ -1974,16 +1977,16 @@
         <v>6732767</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>45101.29166666666</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1992,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J18">
         <v>1.727</v>
@@ -2060,16 +2063,16 @@
         <v>6732768</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
         <v>45101.54166666666</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2078,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J19">
         <v>1.4</v>
@@ -2146,16 +2149,16 @@
         <v>6732769</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
         <v>45102.5</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2164,7 +2167,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>6</v>
@@ -2232,16 +2235,16 @@
         <v>6732713</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>45104.54166666666</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2250,7 +2253,7 @@
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>3.25</v>
@@ -2318,16 +2321,16 @@
         <v>6732778</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2">
         <v>45105.54166666666</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2336,7 +2339,7 @@
         <v>3</v>
       </c>
       <c r="I22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>1.571</v>
@@ -2404,16 +2407,16 @@
         <v>6732770</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2">
         <v>45107.5</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2422,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J23">
         <v>1.444</v>
@@ -2490,16 +2493,16 @@
         <v>6732771</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2">
         <v>45108.5</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2508,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J24">
         <v>3.6</v>
@@ -2576,16 +2579,16 @@
         <v>6732772</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2">
         <v>45109.49652777778</v>
       </c>
       <c r="E25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" t="s">
         <v>37</v>
-      </c>
-      <c r="F25" t="s">
-        <v>36</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -2594,7 +2597,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J25">
         <v>3.1</v>
@@ -2659,64 +2662,64 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6732773</v>
+        <v>6732711</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2">
         <v>45109.58333333334</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>5</v>
       </c>
       <c r="K26">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L26">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="M26">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N26">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="O26">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="P26">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Q26">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R26">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S26">
         <v>2.5</v>
       </c>
       <c r="T26">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U26">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V26">
         <v>-1</v>
@@ -2725,19 +2728,19 @@
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>0.5329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB26">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -2745,64 +2748,64 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6732711</v>
+        <v>6732773</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2">
         <v>45109.58333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>1</v>
       </c>
-      <c r="H27">
-        <v>4</v>
-      </c>
       <c r="I27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>5</v>
       </c>
       <c r="K27">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L27">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="M27">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N27">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="O27">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="P27">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R27">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S27">
         <v>2.5</v>
       </c>
       <c r="T27">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U27">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
         <v>-1</v>
@@ -2811,19 +2814,19 @@
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>0.25</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2834,16 +2837,16 @@
         <v>6732712</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2">
         <v>45113.54166666666</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -2852,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J28">
         <v>1.4</v>
@@ -2920,16 +2923,16 @@
         <v>6732774</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
         <v>45114.54166666666</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -2938,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J29">
         <v>1.8</v>
@@ -3006,16 +3009,16 @@
         <v>6732775</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2">
         <v>45115.45833333334</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3024,7 +3027,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>5.5</v>
@@ -3092,16 +3095,16 @@
         <v>6732776</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2">
         <v>45115.54166666666</v>
       </c>
       <c r="E31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" t="s">
         <v>36</v>
-      </c>
-      <c r="F31" t="s">
-        <v>35</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3110,7 +3113,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J31">
         <v>1.333</v>
@@ -3178,16 +3181,16 @@
         <v>6732777</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2">
         <v>45116.49652777778</v>
       </c>
       <c r="E32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3196,7 +3199,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>1.909</v>
@@ -3264,16 +3267,16 @@
         <v>6732779</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2">
         <v>45121.54166666666</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3282,7 +3285,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>2.15</v>
@@ -3350,16 +3353,16 @@
         <v>6901957</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2">
         <v>45123.49652777778</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3368,7 +3371,7 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>3</v>
@@ -3436,16 +3439,16 @@
         <v>6732786</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2">
         <v>45125.58333333334</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3454,7 +3457,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J35">
         <v>4.8</v>
@@ -3522,16 +3525,16 @@
         <v>6732714</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2">
         <v>45128.54166666666</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -3540,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J36">
         <v>1.222</v>
@@ -3608,16 +3611,16 @@
         <v>6732782</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2">
         <v>45129.54166666666</v>
       </c>
       <c r="E37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3626,7 +3629,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J37">
         <v>2.375</v>
@@ -3694,16 +3697,16 @@
         <v>6732784</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2">
         <v>45130.49652777778</v>
       </c>
       <c r="E38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3712,7 +3715,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J38">
         <v>3</v>
@@ -3780,16 +3783,16 @@
         <v>6732785</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2">
         <v>45131.58333333334</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -3798,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J39">
         <v>1.666</v>
@@ -3866,16 +3869,16 @@
         <v>6732783</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2">
         <v>45132.54166666666</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3884,7 +3887,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>4.333</v>
@@ -3952,16 +3955,16 @@
         <v>6732787</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2">
         <v>45135.54166666666</v>
       </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3970,7 +3973,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>3.1</v>
@@ -4038,16 +4041,16 @@
         <v>6732788</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2">
         <v>45136.5</v>
       </c>
       <c r="E42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4056,7 +4059,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J42">
         <v>2.45</v>
@@ -4124,16 +4127,16 @@
         <v>6732789</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2">
         <v>45137.5</v>
       </c>
       <c r="E43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" t="s">
         <v>34</v>
-      </c>
-      <c r="F43" t="s">
-        <v>33</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4142,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J43">
         <v>1.5</v>
@@ -4210,16 +4213,16 @@
         <v>6983663</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2">
         <v>45137.625</v>
       </c>
       <c r="E44" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" t="s">
         <v>32</v>
-      </c>
-      <c r="F44" t="s">
-        <v>31</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4228,7 +4231,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J44">
         <v>2.1</v>
@@ -4296,16 +4299,16 @@
         <v>6732790</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2">
         <v>45142.54166666666</v>
       </c>
       <c r="E45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4314,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J45">
         <v>2.5</v>
@@ -4382,16 +4385,16 @@
         <v>6732791</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2">
         <v>45143.5</v>
       </c>
       <c r="E46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4400,7 +4403,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J46">
         <v>2</v>
@@ -4468,16 +4471,16 @@
         <v>7012025</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2">
         <v>45144.49652777778</v>
       </c>
       <c r="E47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4486,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J47">
         <v>3.5</v>
@@ -4554,16 +4557,16 @@
         <v>6732793</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2">
         <v>45144.54166666666</v>
       </c>
       <c r="E48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4572,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J48">
         <v>1.444</v>
@@ -4640,16 +4643,16 @@
         <v>7012024</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2">
         <v>45145.54166666666</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -4658,7 +4661,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J49">
         <v>1.85</v>
@@ -4726,16 +4729,16 @@
         <v>6732794</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2">
         <v>45149.54166666666</v>
       </c>
       <c r="E50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -4744,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J50">
         <v>1.25</v>
@@ -4812,16 +4815,16 @@
         <v>6732795</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2">
         <v>45149.54166666666</v>
       </c>
       <c r="E51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4830,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J51">
         <v>2.15</v>
@@ -4898,16 +4901,16 @@
         <v>6732796</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2">
         <v>45151.375</v>
       </c>
       <c r="E52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4916,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J52">
         <v>1.222</v>
@@ -4984,16 +4987,16 @@
         <v>6732797</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D53" s="2">
         <v>45151.49652777778</v>
       </c>
       <c r="E53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -5002,7 +5005,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J53">
         <v>1.444</v>
@@ -5070,16 +5073,16 @@
         <v>6732717</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2">
         <v>45151.58333333334</v>
       </c>
       <c r="E54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G54">
         <v>4</v>
@@ -5088,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J54">
         <v>1.444</v>
@@ -5156,16 +5159,16 @@
         <v>6732798</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2">
         <v>45156.54166666666</v>
       </c>
       <c r="E55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5174,7 +5177,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J55">
         <v>2.2</v>
@@ -5242,16 +5245,16 @@
         <v>6732799</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5260,7 +5263,7 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J56">
         <v>9</v>
@@ -5328,16 +5331,16 @@
         <v>6732800</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2">
         <v>45157.5</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5346,7 +5349,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J57">
         <v>5.5</v>
@@ -5414,16 +5417,16 @@
         <v>6732718</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2">
         <v>45158.49652777778</v>
       </c>
       <c r="E58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5432,7 +5435,7 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J58">
         <v>6</v>
@@ -5500,16 +5503,16 @@
         <v>6732801</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2">
         <v>45158.54166666666</v>
       </c>
       <c r="E59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5518,7 +5521,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J59">
         <v>2.2</v>
@@ -5586,16 +5589,16 @@
         <v>6732802</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2">
         <v>45163.54166666666</v>
       </c>
       <c r="E60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5604,7 +5607,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J60">
         <v>4.5</v>
@@ -5672,16 +5675,16 @@
         <v>6732803</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -5690,7 +5693,7 @@
         <v>6</v>
       </c>
       <c r="I61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J61">
         <v>2.8</v>
@@ -5758,16 +5761,16 @@
         <v>6732804</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2">
         <v>45164.54166666666</v>
       </c>
       <c r="E62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5776,7 +5779,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J62">
         <v>3.6</v>
@@ -5844,17 +5847,17 @@
         <v>6732805</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2">
         <v>45165.375</v>
       </c>
       <c r="E63" t="s">
+        <v>32</v>
+      </c>
+      <c r="F63" t="s">
         <v>31</v>
       </c>
-      <c r="F63" t="s">
-        <v>30</v>
-      </c>
       <c r="G63">
         <v>2</v>
       </c>
@@ -5862,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J63">
         <v>1.222</v>
@@ -5930,16 +5933,16 @@
         <v>6732719</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2">
         <v>45165.49652777778</v>
       </c>
       <c r="E64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G64">
         <v>4</v>
@@ -5948,7 +5951,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J64">
         <v>1.25</v>
@@ -6016,16 +6019,16 @@
         <v>7143716</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2">
         <v>45171.29166666666</v>
       </c>
       <c r="E65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6034,7 +6037,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J65">
         <v>12</v>
@@ -6102,16 +6105,16 @@
         <v>6732807</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2">
         <v>45171.375</v>
       </c>
       <c r="E66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6120,7 +6123,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J66">
         <v>1.3</v>
@@ -6188,16 +6191,16 @@
         <v>6732808</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E67" t="s">
+        <v>30</v>
+      </c>
+      <c r="F67" t="s">
         <v>29</v>
-      </c>
-      <c r="F67" t="s">
-        <v>28</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6206,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J67">
         <v>1.7</v>
@@ -6274,16 +6277,16 @@
         <v>6732809</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2">
         <v>45172.49652777778</v>
       </c>
       <c r="E68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6292,7 +6295,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J68">
         <v>1.833</v>
@@ -6360,16 +6363,16 @@
         <v>6732720</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2">
         <v>45172.5</v>
       </c>
       <c r="E69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6378,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J69">
         <v>1.125</v>
@@ -6446,16 +6449,16 @@
         <v>7202207</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2">
         <v>45185.375</v>
       </c>
       <c r="E70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6464,7 +6467,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J70">
         <v>4</v>
@@ -6532,16 +6535,16 @@
         <v>6732812</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2">
         <v>45185.5</v>
       </c>
       <c r="E71" t="s">
+        <v>31</v>
+      </c>
+      <c r="F71" t="s">
         <v>30</v>
-      </c>
-      <c r="F71" t="s">
-        <v>29</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6550,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J71">
         <v>2.5</v>
@@ -6618,16 +6621,16 @@
         <v>6732813</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2">
         <v>45186.375</v>
       </c>
       <c r="E72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F72" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6636,7 +6639,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J72">
         <v>1.285</v>
@@ -6704,16 +6707,16 @@
         <v>6732721</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2">
         <v>45186.49652777778</v>
       </c>
       <c r="E73" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73" t="s">
         <v>33</v>
-      </c>
-      <c r="F73" t="s">
-        <v>32</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -6722,7 +6725,7 @@
         <v>6</v>
       </c>
       <c r="I73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J73">
         <v>6</v>
@@ -6790,16 +6793,16 @@
         <v>6732814</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2">
         <v>45191.5</v>
       </c>
       <c r="E74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6808,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J74">
         <v>1.8</v>
@@ -6876,16 +6879,16 @@
         <v>6732815</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2">
         <v>45192.375</v>
       </c>
       <c r="E75" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -6894,7 +6897,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J75">
         <v>2.375</v>
@@ -6962,16 +6965,16 @@
         <v>6732816</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -6980,7 +6983,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J76">
         <v>1.125</v>
@@ -7048,16 +7051,16 @@
         <v>6732817</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2">
         <v>45193.375</v>
       </c>
       <c r="E77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G77">
         <v>3</v>
@@ -7066,7 +7069,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J77">
         <v>2.25</v>
@@ -7134,16 +7137,16 @@
         <v>6732722</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2">
         <v>45193.49652777778</v>
       </c>
       <c r="E78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7152,7 +7155,7 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J78">
         <v>1.4</v>
@@ -7220,16 +7223,16 @@
         <v>6732820</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2">
         <v>45197.54166666666</v>
       </c>
       <c r="E79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7238,7 +7241,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J79">
         <v>1.6</v>
@@ -7306,16 +7309,16 @@
         <v>6732818</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2">
         <v>45198.5</v>
       </c>
       <c r="E80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7324,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J80">
         <v>1.4</v>
@@ -7392,16 +7395,16 @@
         <v>6732723</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D81" s="2">
         <v>45199.375</v>
       </c>
       <c r="E81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7410,7 +7413,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J81">
         <v>5</v>
@@ -7478,16 +7481,16 @@
         <v>6732819</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -7496,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J82">
         <v>2.2</v>
@@ -7564,16 +7567,16 @@
         <v>6732823</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2">
         <v>45206.375</v>
       </c>
       <c r="E83" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7582,7 +7585,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J83">
         <v>1.65</v>
@@ -7650,16 +7653,16 @@
         <v>6732824</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F84" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7668,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J84">
         <v>1.909</v>
@@ -7736,16 +7739,16 @@
         <v>6732825</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2">
         <v>45206.54166666666</v>
       </c>
       <c r="E85" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7754,7 +7757,7 @@
         <v>3</v>
       </c>
       <c r="I85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J85">
         <v>4.5</v>
@@ -7822,16 +7825,16 @@
         <v>7299034</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7840,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J86">
         <v>1.45</v>
@@ -7908,16 +7911,16 @@
         <v>6732724</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2">
         <v>45207.49652777778</v>
       </c>
       <c r="E87" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7926,7 +7929,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J87">
         <v>1.909</v>
@@ -7994,16 +7997,16 @@
         <v>6732826</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2">
         <v>45219.5</v>
       </c>
       <c r="E88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8012,7 +8015,7 @@
         <v>2</v>
       </c>
       <c r="I88" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J88">
         <v>2.25</v>
@@ -8080,16 +8083,16 @@
         <v>6732827</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2">
         <v>45220.375</v>
       </c>
       <c r="E89" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -8098,7 +8101,7 @@
         <v>2</v>
       </c>
       <c r="I89" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J89">
         <v>6</v>
@@ -8166,16 +8169,16 @@
         <v>7326568</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2">
         <v>45220.375</v>
       </c>
       <c r="E90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8184,7 +8187,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J90">
         <v>2.375</v>
@@ -8252,16 +8255,16 @@
         <v>6732828</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8270,7 +8273,7 @@
         <v>2</v>
       </c>
       <c r="I91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J91">
         <v>2.625</v>
@@ -8338,16 +8341,16 @@
         <v>6732725</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2">
         <v>45221.49652777778</v>
       </c>
       <c r="E92" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -8356,7 +8359,7 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J92">
         <v>1.571</v>
@@ -8424,16 +8427,16 @@
         <v>7216318</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2">
         <v>45224.5</v>
       </c>
       <c r="E93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8442,7 +8445,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J93">
         <v>4.75</v>
@@ -8510,16 +8513,16 @@
         <v>6732811</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2">
         <v>45224.52083333334</v>
       </c>
       <c r="E94" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -8528,7 +8531,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J94">
         <v>3.1</v>
@@ -8596,16 +8599,16 @@
         <v>6732835</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2">
         <v>45228.41666666666</v>
       </c>
       <c r="E95" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G95">
         <v>4</v>
@@ -8614,7 +8617,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J95">
         <v>2.5</v>
@@ -8682,16 +8685,16 @@
         <v>7259250</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2">
         <v>45229.54166666666</v>
       </c>
       <c r="E96" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8700,7 +8703,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J96">
         <v>3.6</v>
@@ -8768,16 +8771,16 @@
         <v>6732831</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D97" s="2">
         <v>45234.33333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8786,7 +8789,7 @@
         <v>3</v>
       </c>
       <c r="I97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J97">
         <v>5</v>
@@ -8854,16 +8857,16 @@
         <v>6732833</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2">
         <v>45235.41666666666</v>
       </c>
       <c r="E98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8872,7 +8875,7 @@
         <v>2</v>
       </c>
       <c r="I98" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J98">
         <v>6.5</v>
@@ -8940,16 +8943,16 @@
         <v>6732832</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2">
         <v>45235.53819444445</v>
       </c>
       <c r="E99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8958,7 +8961,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J99">
         <v>2.625</v>
@@ -9023,67 +9026,67 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6732727</v>
+        <v>7465686</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2">
         <v>45242.41319444445</v>
       </c>
       <c r="E100" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J100">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="K100">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="L100">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="M100">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="N100">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="O100">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="P100">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q100">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R100">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S100">
         <v>2.75</v>
       </c>
       <c r="T100">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U100">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V100">
-        <v>0.3</v>
+        <v>1.55</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9092,16 +9095,16 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z100">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB100">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9109,49 +9112,49 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6732836</v>
+        <v>6732727</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2">
         <v>45242.41319444445</v>
       </c>
       <c r="E101" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F101" t="s">
         <v>30</v>
       </c>
       <c r="G101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J101">
-        <v>1.222</v>
+        <v>1.285</v>
       </c>
       <c r="K101">
         <v>5.5</v>
       </c>
       <c r="L101">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="M101">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="N101">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="O101">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P101">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q101">
         <v>1.9</v>
@@ -9160,16 +9163,16 @@
         <v>1.9</v>
       </c>
       <c r="S101">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T101">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U101">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V101">
-        <v>0.363</v>
+        <v>0.3</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9178,16 +9181,16 @@
         <v>-1</v>
       </c>
       <c r="Y101">
+        <v>-1</v>
+      </c>
+      <c r="Z101">
         <v>0.8999999999999999</v>
       </c>
-      <c r="Z101">
-        <v>-1</v>
-      </c>
       <c r="AA101">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:28">
@@ -9195,85 +9198,85 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6732837</v>
+        <v>6732834</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D102" s="2">
         <v>45242.41319444445</v>
       </c>
       <c r="E102" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J102">
-        <v>3.6</v>
+        <v>1.25</v>
       </c>
       <c r="K102">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="L102">
-        <v>1.8</v>
+        <v>7.5</v>
       </c>
       <c r="M102">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="N102">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O102">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P102">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q102">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="R102">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S102">
         <v>2.5</v>
       </c>
       <c r="T102">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U102">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V102">
         <v>-1</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X102">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AA102">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -9281,10 +9284,10 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7465686</v>
+        <v>6732836</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2">
         <v>45242.41319444445</v>
@@ -9293,55 +9296,55 @@
         <v>37</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G103">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J103">
-        <v>2.3</v>
+        <v>1.222</v>
       </c>
       <c r="K103">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="L103">
-        <v>2.3</v>
+        <v>9</v>
       </c>
       <c r="M103">
-        <v>2.55</v>
+        <v>1.363</v>
       </c>
       <c r="N103">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O103">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="P103">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q103">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R103">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S103">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T103">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U103">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V103">
-        <v>1.55</v>
+        <v>0.363</v>
       </c>
       <c r="W103">
         <v>-1</v>
@@ -9350,13 +9353,13 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB103">
         <v>-1</v>
@@ -9367,85 +9370,85 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6732834</v>
+        <v>6732837</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2">
         <v>45242.41319444445</v>
       </c>
       <c r="E104" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F104" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I104" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J104">
-        <v>1.25</v>
+        <v>3.6</v>
       </c>
       <c r="K104">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="L104">
-        <v>7.5</v>
+        <v>1.8</v>
       </c>
       <c r="M104">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="N104">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O104">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P104">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q104">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="R104">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
         <v>2.5</v>
       </c>
       <c r="T104">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U104">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V104">
         <v>-1</v>
       </c>
       <c r="W104">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB104">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9456,16 +9459,16 @@
         <v>7862033</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2">
         <v>45352.58333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9474,7 +9477,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J105">
         <v>4.333</v>
@@ -9542,16 +9545,16 @@
         <v>7862902</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2">
         <v>45353.33333333334</v>
       </c>
       <c r="E106" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9560,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J106">
         <v>7.5</v>
@@ -9628,16 +9631,16 @@
         <v>7862903</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D107" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E107" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9646,7 +9649,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -9714,16 +9717,16 @@
         <v>7862034</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D108" s="2">
         <v>45354.33333333334</v>
       </c>
       <c r="E108" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9732,7 +9735,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J108">
         <v>6.5</v>
@@ -9800,16 +9803,16 @@
         <v>7862904</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D109" s="2">
         <v>45354.5625</v>
       </c>
       <c r="E109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9818,7 +9821,7 @@
         <v>3</v>
       </c>
       <c r="I109" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J109">
         <v>1.8</v>
@@ -9886,16 +9889,16 @@
         <v>7862905</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D110" s="2">
         <v>45360.33333333334</v>
       </c>
       <c r="E110" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9904,7 +9907,7 @@
         <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J110">
         <v>2.1</v>
@@ -9972,16 +9975,16 @@
         <v>7862906</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D111" s="2">
         <v>45360.41666666666</v>
       </c>
       <c r="E111" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F111" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -9990,7 +9993,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J111">
         <v>2</v>
@@ -10058,16 +10061,16 @@
         <v>7862907</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D112" s="2">
         <v>45361.33333333334</v>
       </c>
       <c r="E112" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -10076,7 +10079,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J112">
         <v>1.4</v>
@@ -10144,16 +10147,16 @@
         <v>7862908</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D113" s="2">
         <v>45361.41666666666</v>
       </c>
       <c r="E113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F113" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10162,7 +10165,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J113">
         <v>1.2</v>
@@ -10230,16 +10233,16 @@
         <v>7862035</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D114" s="2">
         <v>45361.5625</v>
       </c>
       <c r="E114" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G114">
         <v>3</v>
@@ -10248,7 +10251,7 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J114">
         <v>1.3</v>
@@ -10316,16 +10319,16 @@
         <v>7862909</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D115" s="2">
         <v>45363.54166666666</v>
       </c>
       <c r="E115" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -10334,7 +10337,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J115">
         <v>2</v>
@@ -10402,17 +10405,17 @@
         <v>7862910</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D116" s="2">
         <v>45364.5</v>
       </c>
       <c r="E116" t="s">
+        <v>30</v>
+      </c>
+      <c r="F116" t="s">
         <v>29</v>
       </c>
-      <c r="F116" t="s">
-        <v>28</v>
-      </c>
       <c r="G116">
         <v>0</v>
       </c>
@@ -10420,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J116">
         <v>2.3</v>
@@ -10485,82 +10488,82 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7862036</v>
+        <v>7862911</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D117" s="2">
         <v>45364.54166666666</v>
       </c>
       <c r="E117" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I117" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J117">
-        <v>8</v>
+        <v>2.15</v>
       </c>
       <c r="K117">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="L117">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="M117">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="N117">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="O117">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="P117">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="Q117">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="R117">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="S117">
         <v>2.5</v>
       </c>
       <c r="T117">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="U117">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V117">
         <v>-1</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X117">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z117">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA117">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB117">
         <v>-1</v>
@@ -10571,82 +10574,82 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7862911</v>
+        <v>7862036</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D118" s="2">
         <v>45364.54166666666</v>
       </c>
       <c r="E118" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I118" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J118">
-        <v>2.15</v>
+        <v>8</v>
       </c>
       <c r="K118">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="L118">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="M118">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="N118">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="O118">
-        <v>3</v>
+        <v>1.333</v>
       </c>
       <c r="P118">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q118">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="R118">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="S118">
         <v>2.5</v>
       </c>
       <c r="T118">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="U118">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V118">
         <v>-1</v>
       </c>
       <c r="W118">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Y118">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA118">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB118">
         <v>-1</v>
@@ -10660,16 +10663,16 @@
         <v>7862037</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D119" s="2">
         <v>45364.63541666666</v>
       </c>
       <c r="E119" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10678,7 +10681,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J119">
         <v>7.5</v>
@@ -10746,16 +10749,16 @@
         <v>7862038</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D120" s="2">
         <v>45367.375</v>
       </c>
       <c r="E120" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10764,7 +10767,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J120">
         <v>2.5</v>
@@ -10832,16 +10835,16 @@
         <v>7862912</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D121" s="2">
         <v>45367.4375</v>
       </c>
       <c r="E121" t="s">
+        <v>32</v>
+      </c>
+      <c r="F121" t="s">
         <v>31</v>
-      </c>
-      <c r="F121" t="s">
-        <v>30</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -10850,7 +10853,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J121">
         <v>1.2</v>
@@ -10918,16 +10921,16 @@
         <v>7862913</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D122" s="2">
         <v>45368.375</v>
       </c>
       <c r="E122" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -10936,7 +10939,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J122">
         <v>2.2</v>
@@ -11004,16 +11007,16 @@
         <v>7862914</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D123" s="2">
         <v>45368.41666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11022,7 +11025,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J123">
         <v>2.5</v>
@@ -11090,16 +11093,16 @@
         <v>7862039</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D124" s="2">
         <v>45368.5625</v>
       </c>
       <c r="E124" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11108,7 +11111,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J124">
         <v>1.615</v>
@@ -11176,16 +11179,16 @@
         <v>7862915</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D125" s="2">
         <v>45380.58333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F125" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -11194,7 +11197,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J125">
         <v>2.6</v>
@@ -11262,16 +11265,16 @@
         <v>7862916</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D126" s="2">
         <v>45381.41666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G126">
         <v>4</v>
@@ -11280,7 +11283,7 @@
         <v>2</v>
       </c>
       <c r="I126" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J126">
         <v>2.5</v>
@@ -11348,16 +11351,16 @@
         <v>7862917</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D127" s="2">
         <v>45381.5</v>
       </c>
       <c r="E127" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -11366,7 +11369,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J127">
         <v>1.533</v>
@@ -11434,16 +11437,16 @@
         <v>7862040</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D128" s="2">
         <v>45382.375</v>
       </c>
       <c r="E128" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F128" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11452,7 +11455,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J128">
         <v>2.45</v>
@@ -11520,16 +11523,16 @@
         <v>7862042</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D129" s="2">
         <v>45382.51736111111</v>
       </c>
       <c r="E129" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -11538,7 +11541,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J129">
         <v>4</v>
@@ -11606,16 +11609,16 @@
         <v>7862918</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D130" s="2">
         <v>45388.375</v>
       </c>
       <c r="E130" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11624,7 +11627,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J130">
         <v>4.333</v>
@@ -11692,16 +11695,16 @@
         <v>7862919</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D131" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11710,7 +11713,7 @@
         <v>2</v>
       </c>
       <c r="I131" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J131">
         <v>2.25</v>
@@ -11778,16 +11781,16 @@
         <v>7865009</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D132" s="2">
         <v>45389.29166666666</v>
       </c>
       <c r="E132" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F132" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11796,7 +11799,7 @@
         <v>2</v>
       </c>
       <c r="I132" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J132">
         <v>1.833</v>
@@ -11864,16 +11867,16 @@
         <v>7862043</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D133" s="2">
         <v>45389.375</v>
       </c>
       <c r="E133" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G133">
         <v>3</v>
@@ -11882,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J133">
         <v>1.666</v>
@@ -11950,16 +11953,16 @@
         <v>7862920</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D134" s="2">
         <v>45389.51736111111</v>
       </c>
       <c r="E134" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -11968,7 +11971,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J134">
         <v>2.75</v>
@@ -12036,16 +12039,16 @@
         <v>7862921</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D135" s="2">
         <v>45391.5</v>
       </c>
       <c r="E135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12054,7 +12057,7 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J135">
         <v>1.75</v>
@@ -12119,85 +12122,85 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7862044</v>
+        <v>7862922</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D136" s="2">
         <v>45392.5</v>
       </c>
       <c r="E136" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J136">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="K136">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L136">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="M136">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N136">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O136">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="P136">
         <v>0.25</v>
       </c>
       <c r="Q136">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="R136">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S136">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T136">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U136">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V136">
         <v>-1</v>
       </c>
       <c r="W136">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0.475</v>
+        <v>0.375</v>
       </c>
       <c r="Z136">
         <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB136">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="137" spans="1:28">
@@ -12205,85 +12208,85 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7862922</v>
+        <v>7862044</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D137" s="2">
         <v>45392.5</v>
       </c>
       <c r="E137" t="s">
+        <v>31</v>
+      </c>
+      <c r="F137" t="s">
         <v>36</v>
       </c>
-      <c r="F137" t="s">
-        <v>31</v>
-      </c>
       <c r="G137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J137">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="K137">
+        <v>3.05</v>
+      </c>
+      <c r="L137">
+        <v>3.2</v>
+      </c>
+      <c r="M137">
+        <v>3.4</v>
+      </c>
+      <c r="N137">
         <v>3</v>
       </c>
-      <c r="L137">
-        <v>2.5</v>
-      </c>
-      <c r="M137">
-        <v>2.9</v>
-      </c>
-      <c r="N137">
-        <v>2.9</v>
-      </c>
       <c r="O137">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="P137">
         <v>0.25</v>
       </c>
       <c r="Q137">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="R137">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S137">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T137">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U137">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V137">
         <v>-1</v>
       </c>
       <c r="W137">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0.375</v>
+        <v>0.475</v>
       </c>
       <c r="Z137">
         <v>-0.5</v>
       </c>
       <c r="AA137">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:28">
@@ -12294,16 +12297,16 @@
         <v>7862923</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D138" s="2">
         <v>45392.54166666666</v>
       </c>
       <c r="E138" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F138" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G138">
         <v>3</v>
@@ -12312,7 +12315,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J138">
         <v>1.333</v>
@@ -12380,16 +12383,16 @@
         <v>7865008</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D139" s="2">
         <v>45392.58333333334</v>
       </c>
       <c r="E139" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F139" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -12398,7 +12401,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J139">
         <v>1.333</v>
@@ -12466,16 +12469,16 @@
         <v>7862924</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D140" s="2">
         <v>45395.375</v>
       </c>
       <c r="E140" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -12484,7 +12487,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J140">
         <v>2.5</v>
@@ -12552,16 +12555,16 @@
         <v>7862045</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D141" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E141" t="s">
+        <v>36</v>
+      </c>
+      <c r="F141" t="s">
         <v>35</v>
-      </c>
-      <c r="F141" t="s">
-        <v>34</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -12570,7 +12573,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J141">
         <v>3.4</v>
@@ -12638,16 +12641,16 @@
         <v>7862925</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D142" s="2">
         <v>45396.29166666666</v>
       </c>
       <c r="E142" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F142" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -12656,7 +12659,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J142">
         <v>3.75</v>
@@ -12724,16 +12727,16 @@
         <v>7862046</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D143" s="2">
         <v>45396.375</v>
       </c>
       <c r="E143" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -12742,7 +12745,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J143">
         <v>3.75</v>
@@ -12810,16 +12813,16 @@
         <v>7862047</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D144" s="2">
         <v>45402.375</v>
       </c>
       <c r="E144" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -12828,7 +12831,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J144">
         <v>1.444</v>
@@ -12896,16 +12899,16 @@
         <v>7862927</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D145" s="2">
         <v>45402.5</v>
       </c>
       <c r="E145" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12914,7 +12917,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -12982,16 +12985,16 @@
         <v>7862928</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D146" s="2">
         <v>45403.29166666666</v>
       </c>
       <c r="E146" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13000,7 +13003,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J146">
         <v>1.8</v>
@@ -13068,16 +13071,16 @@
         <v>7862929</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D147" s="2">
         <v>45403.375</v>
       </c>
       <c r="E147" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G147">
         <v>2</v>
@@ -13086,7 +13089,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J147">
         <v>1.4</v>
@@ -13154,16 +13157,16 @@
         <v>7862048</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D148" s="2">
         <v>45403.51736111111</v>
       </c>
       <c r="E148" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F148" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13172,7 +13175,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J148">
         <v>1.333</v>
@@ -13240,16 +13243,16 @@
         <v>7862049</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D149" s="2">
         <v>45405.54166666666</v>
       </c>
       <c r="E149" t="s">
+        <v>37</v>
+      </c>
+      <c r="F149" t="s">
         <v>36</v>
-      </c>
-      <c r="F149" t="s">
-        <v>35</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13258,7 +13261,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J149">
         <v>1.65</v>
@@ -13326,16 +13329,16 @@
         <v>7862930</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D150" s="2">
         <v>45406.5</v>
       </c>
       <c r="E150" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F150" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -13344,7 +13347,7 @@
         <v>2</v>
       </c>
       <c r="I150" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J150">
         <v>4</v>
@@ -13412,16 +13415,16 @@
         <v>7862932</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D151" s="2">
         <v>45406.54166666666</v>
       </c>
       <c r="E151" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -13430,7 +13433,7 @@
         <v>3</v>
       </c>
       <c r="I151" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J151">
         <v>1.4</v>
@@ -13498,16 +13501,16 @@
         <v>7862050</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D152" s="2">
         <v>45406.58333333334</v>
       </c>
       <c r="E152" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F152" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G152">
         <v>4</v>
@@ -13516,7 +13519,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J152">
         <v>1.363</v>
@@ -13584,16 +13587,16 @@
         <v>7862933</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D153" s="2">
         <v>45409.375</v>
       </c>
       <c r="E153" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F153" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G153">
         <v>2</v>
@@ -13602,7 +13605,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J153">
         <v>2.875</v>
@@ -13670,16 +13673,16 @@
         <v>7862934</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D154" s="2">
         <v>45410.29166666666</v>
       </c>
       <c r="E154" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F154" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -13688,7 +13691,7 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J154">
         <v>2.3</v>
@@ -13756,16 +13759,16 @@
         <v>7862935</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D155" s="2">
         <v>45410.375</v>
       </c>
       <c r="E155" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13774,7 +13777,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J155">
         <v>4.25</v>
@@ -13842,16 +13845,16 @@
         <v>7862051</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D156" s="2">
         <v>45410.45833333334</v>
       </c>
       <c r="E156" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F156" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13860,7 +13863,7 @@
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J156">
         <v>6</v>
@@ -13928,16 +13931,16 @@
         <v>7862936</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D157" s="2">
         <v>45410.54166666666</v>
       </c>
       <c r="E157" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F157" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -13946,7 +13949,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J157">
         <v>5</v>
@@ -14014,16 +14017,16 @@
         <v>7862937</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D158" s="2">
         <v>45413.375</v>
       </c>
       <c r="E158" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F158" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14032,7 +14035,7 @@
         <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J158">
         <v>2.75</v>
@@ -14100,16 +14103,16 @@
         <v>7862052</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D159" s="2">
         <v>45413.45833333334</v>
       </c>
       <c r="E159" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -14118,7 +14121,7 @@
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J159">
         <v>1.25</v>
@@ -14183,67 +14186,67 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7862939</v>
+        <v>7862938</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D160" s="2">
         <v>45414.5</v>
       </c>
       <c r="E160" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G160">
+        <v>2</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160" t="s">
+        <v>41</v>
+      </c>
+      <c r="J160">
+        <v>2.35</v>
+      </c>
+      <c r="K160">
+        <v>2.9</v>
+      </c>
+      <c r="L160">
         <v>3</v>
       </c>
-      <c r="H160">
-        <v>2</v>
-      </c>
-      <c r="I160" t="s">
-        <v>40</v>
-      </c>
-      <c r="J160">
-        <v>4.1</v>
-      </c>
-      <c r="K160">
-        <v>3.3</v>
-      </c>
-      <c r="L160">
-        <v>1.8</v>
-      </c>
       <c r="M160">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="N160">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="O160">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="P160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q160">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R160">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S160">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="T160">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U160">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V160">
-        <v>4</v>
+        <v>1.55</v>
       </c>
       <c r="W160">
         <v>-1</v>
@@ -14252,13 +14255,13 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB160">
         <v>-1</v>
@@ -14269,67 +14272,67 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7862938</v>
+        <v>7862939</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D161" s="2">
         <v>45414.5</v>
       </c>
       <c r="E161" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F161" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G161">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H161">
+        <v>2</v>
+      </c>
+      <c r="I161" t="s">
+        <v>41</v>
+      </c>
+      <c r="J161">
+        <v>4.1</v>
+      </c>
+      <c r="K161">
+        <v>3.3</v>
+      </c>
+      <c r="L161">
+        <v>1.8</v>
+      </c>
+      <c r="M161">
+        <v>5</v>
+      </c>
+      <c r="N161">
+        <v>3.75</v>
+      </c>
+      <c r="O161">
+        <v>1.571</v>
+      </c>
+      <c r="P161">
         <v>1</v>
       </c>
-      <c r="I161" t="s">
-        <v>40</v>
-      </c>
-      <c r="J161">
-        <v>2.35</v>
-      </c>
-      <c r="K161">
-        <v>2.9</v>
-      </c>
-      <c r="L161">
-        <v>3</v>
-      </c>
-      <c r="M161">
-        <v>2.55</v>
-      </c>
-      <c r="N161">
-        <v>2.75</v>
-      </c>
-      <c r="O161">
-        <v>2.875</v>
-      </c>
-      <c r="P161">
-        <v>0</v>
-      </c>
       <c r="Q161">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R161">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S161">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="T161">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U161">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V161">
-        <v>1.55</v>
+        <v>4</v>
       </c>
       <c r="W161">
         <v>-1</v>
@@ -14338,13 +14341,13 @@
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="Z161">
         <v>-1</v>
       </c>
       <c r="AA161">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB161">
         <v>-1</v>
@@ -14358,16 +14361,16 @@
         <v>7862053</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D162" s="2">
         <v>45414.54166666666</v>
       </c>
       <c r="E162" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -14376,7 +14379,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J162">
         <v>1.869</v>
@@ -14444,16 +14447,16 @@
         <v>7862940</v>
       </c>
       <c r="C163" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D163" s="2">
         <v>45423.375</v>
       </c>
       <c r="E163" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F163" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14462,7 +14465,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J163">
         <v>2.375</v>
@@ -14530,16 +14533,16 @@
         <v>7862054</v>
       </c>
       <c r="C164" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D164" s="2">
         <v>45423.45833333334</v>
       </c>
       <c r="E164" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F164" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -14548,7 +14551,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J164">
         <v>2.15</v>
@@ -14616,16 +14619,16 @@
         <v>7862941</v>
       </c>
       <c r="C165" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D165" s="2">
         <v>45423.54166666666</v>
       </c>
       <c r="E165" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F165" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -14634,7 +14637,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J165">
         <v>4.25</v>
@@ -14702,16 +14705,16 @@
         <v>7862055</v>
       </c>
       <c r="C166" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D166" s="2">
         <v>45424.41666666666</v>
       </c>
       <c r="E166" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14720,7 +14723,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J166">
         <v>3.75</v>
@@ -14788,16 +14791,16 @@
         <v>7862942</v>
       </c>
       <c r="C167" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D167" s="2">
         <v>45424.51736111111</v>
       </c>
       <c r="E167" t="s">
+        <v>38</v>
+      </c>
+      <c r="F167" t="s">
         <v>37</v>
-      </c>
-      <c r="F167" t="s">
-        <v>36</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -14806,7 +14809,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J167">
         <v>2.05</v>
@@ -14864,6 +14867,71 @@
       </c>
       <c r="AB167">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:28">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>27</v>
+      </c>
+      <c r="C168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D168" s="2">
+        <v>45429.54166666666</v>
+      </c>
+      <c r="E168" t="s">
+        <v>30</v>
+      </c>
+      <c r="F168" t="s">
+        <v>36</v>
+      </c>
+      <c r="J168">
+        <v>2.875</v>
+      </c>
+      <c r="K168">
+        <v>2.75</v>
+      </c>
+      <c r="L168">
+        <v>2.5</v>
+      </c>
+      <c r="M168">
+        <v>2.875</v>
+      </c>
+      <c r="N168">
+        <v>2.75</v>
+      </c>
+      <c r="O168">
+        <v>2.5</v>
+      </c>
+      <c r="P168">
+        <v>0</v>
+      </c>
+      <c r="Q168">
+        <v>2.025</v>
+      </c>
+      <c r="R168">
+        <v>1.775</v>
+      </c>
+      <c r="S168">
+        <v>1.75</v>
+      </c>
+      <c r="T168">
+        <v>1.825</v>
+      </c>
+      <c r="U168">
+        <v>1.975</v>
+      </c>
+      <c r="V168">
+        <v>0</v>
+      </c>
+      <c r="W168">
+        <v>0</v>
+      </c>
+      <c r="X168">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -97,7 +97,10 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7862056</t>
+    <t>7862943</t>
+  </si>
+  <si>
+    <t>7862944</t>
   </si>
   <si>
     <t>Lithuania A Lyga</t>
@@ -504,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB168"/>
+  <dimension ref="A1:AB169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,16 +604,16 @@
         <v>6227963</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
         <v>45079.5</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -619,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J2">
         <v>5.5</v>
@@ -687,16 +690,16 @@
         <v>6227964</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>45080.375</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -705,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>1.85</v>
@@ -773,16 +776,16 @@
         <v>6227965</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
         <v>45080.45833333334</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -791,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J4">
         <v>2.4</v>
@@ -859,16 +862,16 @@
         <v>6227966</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
         <v>45080.54166666666</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -877,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -945,16 +948,16 @@
         <v>6227242</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>45081.49652777778</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -963,7 +966,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J6">
         <v>1.571</v>
@@ -1031,16 +1034,16 @@
         <v>6227967</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2">
         <v>45083.5</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1049,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>2.3</v>
@@ -1117,16 +1120,16 @@
         <v>6227968</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
         <v>45083.58333333334</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1135,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J8">
         <v>4.333</v>
@@ -1203,16 +1206,16 @@
         <v>6227969</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2">
         <v>45084.5</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1221,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J9">
         <v>5.5</v>
@@ -1289,16 +1292,16 @@
         <v>6227970</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
         <v>45084.54166666666</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1307,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J10">
         <v>3.3</v>
@@ -1375,16 +1378,16 @@
         <v>6227243</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2">
         <v>45084.58333333334</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1393,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J11">
         <v>3.25</v>
@@ -1461,16 +1464,16 @@
         <v>6227971</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2">
         <v>45087.45833333334</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1479,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J12">
         <v>2.75</v>
@@ -1547,16 +1550,16 @@
         <v>6227972</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2">
         <v>45087.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1565,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J13">
         <v>1.533</v>
@@ -1633,16 +1636,16 @@
         <v>6227244</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
         <v>45088.41666666666</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1651,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J14">
         <v>1.333</v>
@@ -1719,16 +1722,16 @@
         <v>6227973</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2">
         <v>45088.49652777778</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -1737,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>1.3</v>
@@ -1805,16 +1808,16 @@
         <v>6732710</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2">
         <v>45099.54166666666</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1823,7 +1826,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J16">
         <v>11</v>
@@ -1891,16 +1894,16 @@
         <v>6732766</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2">
         <v>45099.58333333334</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1909,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J17">
         <v>1.363</v>
@@ -1977,16 +1980,16 @@
         <v>6732767</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2">
         <v>45101.29166666666</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1995,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J18">
         <v>1.727</v>
@@ -2063,16 +2066,16 @@
         <v>6732768</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2">
         <v>45101.54166666666</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2081,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>1.4</v>
@@ -2149,16 +2152,16 @@
         <v>6732769</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2">
         <v>45102.5</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2167,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J20">
         <v>6</v>
@@ -2235,16 +2238,16 @@
         <v>6732713</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2">
         <v>45104.54166666666</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2253,7 +2256,7 @@
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J21">
         <v>3.25</v>
@@ -2321,16 +2324,16 @@
         <v>6732778</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2">
         <v>45105.54166666666</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2339,7 +2342,7 @@
         <v>3</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J22">
         <v>1.571</v>
@@ -2407,16 +2410,16 @@
         <v>6732770</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2">
         <v>45107.5</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2425,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>1.444</v>
@@ -2493,16 +2496,16 @@
         <v>6732771</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" s="2">
         <v>45108.5</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2511,7 +2514,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>3.6</v>
@@ -2579,16 +2582,16 @@
         <v>6732772</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2">
         <v>45109.49652777778</v>
       </c>
       <c r="E25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" t="s">
         <v>38</v>
-      </c>
-      <c r="F25" t="s">
-        <v>37</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -2597,7 +2600,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>3.1</v>
@@ -2662,64 +2665,64 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6732711</v>
+        <v>6732773</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D26" s="2">
         <v>45109.58333333334</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>1</v>
       </c>
-      <c r="H26">
-        <v>4</v>
-      </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J26">
         <v>5</v>
       </c>
       <c r="K26">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L26">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="M26">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N26">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="O26">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="P26">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R26">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S26">
         <v>2.5</v>
       </c>
       <c r="T26">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V26">
         <v>-1</v>
@@ -2728,19 +2731,19 @@
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>0.25</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -2748,64 +2751,64 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6732773</v>
+        <v>6732711</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D27" s="2">
         <v>45109.58333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J27">
         <v>5</v>
       </c>
       <c r="K27">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L27">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="M27">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N27">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="O27">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Q27">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R27">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S27">
         <v>2.5</v>
       </c>
       <c r="T27">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U27">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V27">
         <v>-1</v>
@@ -2814,19 +2817,19 @@
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>0.5329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2837,16 +2840,16 @@
         <v>6732712</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2">
         <v>45113.54166666666</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -2855,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>1.4</v>
@@ -2923,16 +2926,16 @@
         <v>6732774</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29" s="2">
         <v>45114.54166666666</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -2941,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>1.8</v>
@@ -3009,16 +3012,16 @@
         <v>6732775</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2">
         <v>45115.45833333334</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3027,7 +3030,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J30">
         <v>5.5</v>
@@ -3095,16 +3098,16 @@
         <v>6732776</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2">
         <v>45115.54166666666</v>
       </c>
       <c r="E31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" t="s">
         <v>37</v>
-      </c>
-      <c r="F31" t="s">
-        <v>36</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3113,7 +3116,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>1.333</v>
@@ -3181,16 +3184,16 @@
         <v>6732777</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D32" s="2">
         <v>45116.49652777778</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3199,7 +3202,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J32">
         <v>1.909</v>
@@ -3267,16 +3270,16 @@
         <v>6732779</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D33" s="2">
         <v>45121.54166666666</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3285,7 +3288,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J33">
         <v>2.15</v>
@@ -3353,16 +3356,16 @@
         <v>6901957</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D34" s="2">
         <v>45123.49652777778</v>
       </c>
       <c r="E34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3371,7 +3374,7 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J34">
         <v>3</v>
@@ -3439,16 +3442,16 @@
         <v>6732786</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D35" s="2">
         <v>45125.58333333334</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3457,7 +3460,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J35">
         <v>4.8</v>
@@ -3525,16 +3528,16 @@
         <v>6732714</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D36" s="2">
         <v>45128.54166666666</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -3543,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>1.222</v>
@@ -3611,16 +3614,16 @@
         <v>6732782</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D37" s="2">
         <v>45129.54166666666</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3629,7 +3632,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J37">
         <v>2.375</v>
@@ -3697,16 +3700,16 @@
         <v>6732784</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D38" s="2">
         <v>45130.49652777778</v>
       </c>
       <c r="E38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3715,7 +3718,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J38">
         <v>3</v>
@@ -3783,16 +3786,16 @@
         <v>6732785</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D39" s="2">
         <v>45131.58333333334</v>
       </c>
       <c r="E39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -3801,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>1.666</v>
@@ -3869,16 +3872,16 @@
         <v>6732783</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D40" s="2">
         <v>45132.54166666666</v>
       </c>
       <c r="E40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3887,7 +3890,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J40">
         <v>4.333</v>
@@ -3955,16 +3958,16 @@
         <v>6732787</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D41" s="2">
         <v>45135.54166666666</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3973,7 +3976,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J41">
         <v>3.1</v>
@@ -4041,16 +4044,16 @@
         <v>6732788</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D42" s="2">
         <v>45136.5</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4059,7 +4062,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J42">
         <v>2.45</v>
@@ -4127,16 +4130,16 @@
         <v>6732789</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D43" s="2">
         <v>45137.5</v>
       </c>
       <c r="E43" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" t="s">
         <v>35</v>
-      </c>
-      <c r="F43" t="s">
-        <v>34</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4145,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>1.5</v>
@@ -4213,16 +4216,16 @@
         <v>6983663</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D44" s="2">
         <v>45137.625</v>
       </c>
       <c r="E44" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" t="s">
         <v>33</v>
-      </c>
-      <c r="F44" t="s">
-        <v>32</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4231,7 +4234,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J44">
         <v>2.1</v>
@@ -4299,16 +4302,16 @@
         <v>6732790</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D45" s="2">
         <v>45142.54166666666</v>
       </c>
       <c r="E45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4317,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J45">
         <v>2.5</v>
@@ -4385,16 +4388,16 @@
         <v>6732791</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D46" s="2">
         <v>45143.5</v>
       </c>
       <c r="E46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4403,7 +4406,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J46">
         <v>2</v>
@@ -4471,16 +4474,16 @@
         <v>7012025</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D47" s="2">
         <v>45144.49652777778</v>
       </c>
       <c r="E47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4489,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J47">
         <v>3.5</v>
@@ -4557,16 +4560,16 @@
         <v>6732793</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D48" s="2">
         <v>45144.54166666666</v>
       </c>
       <c r="E48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4575,7 +4578,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J48">
         <v>1.444</v>
@@ -4643,16 +4646,16 @@
         <v>7012024</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D49" s="2">
         <v>45145.54166666666</v>
       </c>
       <c r="E49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -4661,7 +4664,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J49">
         <v>1.85</v>
@@ -4729,16 +4732,16 @@
         <v>6732794</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D50" s="2">
         <v>45149.54166666666</v>
       </c>
       <c r="E50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -4747,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J50">
         <v>1.25</v>
@@ -4815,16 +4818,16 @@
         <v>6732795</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D51" s="2">
         <v>45149.54166666666</v>
       </c>
       <c r="E51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4833,7 +4836,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J51">
         <v>2.15</v>
@@ -4901,16 +4904,16 @@
         <v>6732796</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D52" s="2">
         <v>45151.375</v>
       </c>
       <c r="E52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4919,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J52">
         <v>1.222</v>
@@ -4987,16 +4990,16 @@
         <v>6732797</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D53" s="2">
         <v>45151.49652777778</v>
       </c>
       <c r="E53" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -5005,7 +5008,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J53">
         <v>1.444</v>
@@ -5073,16 +5076,16 @@
         <v>6732717</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D54" s="2">
         <v>45151.58333333334</v>
       </c>
       <c r="E54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G54">
         <v>4</v>
@@ -5091,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J54">
         <v>1.444</v>
@@ -5159,16 +5162,16 @@
         <v>6732798</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D55" s="2">
         <v>45156.54166666666</v>
       </c>
       <c r="E55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5177,7 +5180,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J55">
         <v>2.2</v>
@@ -5245,16 +5248,16 @@
         <v>6732799</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D56" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5263,7 +5266,7 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J56">
         <v>9</v>
@@ -5331,16 +5334,16 @@
         <v>6732800</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D57" s="2">
         <v>45157.5</v>
       </c>
       <c r="E57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5349,7 +5352,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J57">
         <v>5.5</v>
@@ -5417,16 +5420,16 @@
         <v>6732718</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D58" s="2">
         <v>45158.49652777778</v>
       </c>
       <c r="E58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5435,7 +5438,7 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J58">
         <v>6</v>
@@ -5503,16 +5506,16 @@
         <v>6732801</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D59" s="2">
         <v>45158.54166666666</v>
       </c>
       <c r="E59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5521,7 +5524,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J59">
         <v>2.2</v>
@@ -5589,16 +5592,16 @@
         <v>6732802</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D60" s="2">
         <v>45163.54166666666</v>
       </c>
       <c r="E60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5607,7 +5610,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J60">
         <v>4.5</v>
@@ -5675,16 +5678,16 @@
         <v>6732803</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D61" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -5693,7 +5696,7 @@
         <v>6</v>
       </c>
       <c r="I61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J61">
         <v>2.8</v>
@@ -5761,16 +5764,16 @@
         <v>6732804</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D62" s="2">
         <v>45164.54166666666</v>
       </c>
       <c r="E62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5779,7 +5782,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J62">
         <v>3.6</v>
@@ -5847,17 +5850,17 @@
         <v>6732805</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D63" s="2">
         <v>45165.375</v>
       </c>
       <c r="E63" t="s">
+        <v>33</v>
+      </c>
+      <c r="F63" t="s">
         <v>32</v>
       </c>
-      <c r="F63" t="s">
-        <v>31</v>
-      </c>
       <c r="G63">
         <v>2</v>
       </c>
@@ -5865,7 +5868,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J63">
         <v>1.222</v>
@@ -5933,16 +5936,16 @@
         <v>6732719</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D64" s="2">
         <v>45165.49652777778</v>
       </c>
       <c r="E64" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G64">
         <v>4</v>
@@ -5951,7 +5954,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J64">
         <v>1.25</v>
@@ -6019,16 +6022,16 @@
         <v>7143716</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D65" s="2">
         <v>45171.29166666666</v>
       </c>
       <c r="E65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6037,7 +6040,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J65">
         <v>12</v>
@@ -6105,16 +6108,16 @@
         <v>6732807</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D66" s="2">
         <v>45171.375</v>
       </c>
       <c r="E66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6123,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J66">
         <v>1.3</v>
@@ -6191,16 +6194,16 @@
         <v>6732808</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D67" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E67" t="s">
+        <v>31</v>
+      </c>
+      <c r="F67" t="s">
         <v>30</v>
-      </c>
-      <c r="F67" t="s">
-        <v>29</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6209,7 +6212,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J67">
         <v>1.7</v>
@@ -6277,16 +6280,16 @@
         <v>6732809</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D68" s="2">
         <v>45172.49652777778</v>
       </c>
       <c r="E68" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6295,7 +6298,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J68">
         <v>1.833</v>
@@ -6363,16 +6366,16 @@
         <v>6732720</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D69" s="2">
         <v>45172.5</v>
       </c>
       <c r="E69" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6381,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J69">
         <v>1.125</v>
@@ -6449,16 +6452,16 @@
         <v>7202207</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D70" s="2">
         <v>45185.375</v>
       </c>
       <c r="E70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6467,7 +6470,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J70">
         <v>4</v>
@@ -6535,16 +6538,16 @@
         <v>6732812</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D71" s="2">
         <v>45185.5</v>
       </c>
       <c r="E71" t="s">
+        <v>32</v>
+      </c>
+      <c r="F71" t="s">
         <v>31</v>
-      </c>
-      <c r="F71" t="s">
-        <v>30</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6553,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J71">
         <v>2.5</v>
@@ -6621,16 +6624,16 @@
         <v>6732813</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D72" s="2">
         <v>45186.375</v>
       </c>
       <c r="E72" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6639,7 +6642,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J72">
         <v>1.285</v>
@@ -6707,16 +6710,16 @@
         <v>6732721</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D73" s="2">
         <v>45186.49652777778</v>
       </c>
       <c r="E73" t="s">
+        <v>35</v>
+      </c>
+      <c r="F73" t="s">
         <v>34</v>
-      </c>
-      <c r="F73" t="s">
-        <v>33</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -6725,7 +6728,7 @@
         <v>6</v>
       </c>
       <c r="I73" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J73">
         <v>6</v>
@@ -6793,16 +6796,16 @@
         <v>6732814</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D74" s="2">
         <v>45191.5</v>
       </c>
       <c r="E74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6811,7 +6814,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J74">
         <v>1.8</v>
@@ -6879,16 +6882,16 @@
         <v>6732815</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D75" s="2">
         <v>45192.375</v>
       </c>
       <c r="E75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -6897,7 +6900,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J75">
         <v>2.375</v>
@@ -6965,16 +6968,16 @@
         <v>6732816</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D76" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -6983,7 +6986,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J76">
         <v>1.125</v>
@@ -7051,16 +7054,16 @@
         <v>6732817</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D77" s="2">
         <v>45193.375</v>
       </c>
       <c r="E77" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G77">
         <v>3</v>
@@ -7069,7 +7072,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J77">
         <v>2.25</v>
@@ -7137,16 +7140,16 @@
         <v>6732722</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D78" s="2">
         <v>45193.49652777778</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7155,7 +7158,7 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J78">
         <v>1.4</v>
@@ -7223,16 +7226,16 @@
         <v>6732820</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D79" s="2">
         <v>45197.54166666666</v>
       </c>
       <c r="E79" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7241,7 +7244,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J79">
         <v>1.6</v>
@@ -7309,16 +7312,16 @@
         <v>6732818</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D80" s="2">
         <v>45198.5</v>
       </c>
       <c r="E80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7327,7 +7330,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J80">
         <v>1.4</v>
@@ -7395,16 +7398,16 @@
         <v>6732723</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D81" s="2">
         <v>45199.375</v>
       </c>
       <c r="E81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7413,7 +7416,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J81">
         <v>5</v>
@@ -7481,16 +7484,16 @@
         <v>6732819</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D82" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -7499,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J82">
         <v>2.2</v>
@@ -7567,16 +7570,16 @@
         <v>6732823</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D83" s="2">
         <v>45206.375</v>
       </c>
       <c r="E83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7585,7 +7588,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J83">
         <v>1.65</v>
@@ -7653,16 +7656,16 @@
         <v>6732824</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D84" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E84" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7671,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J84">
         <v>1.909</v>
@@ -7739,16 +7742,16 @@
         <v>6732825</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D85" s="2">
         <v>45206.54166666666</v>
       </c>
       <c r="E85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7757,7 +7760,7 @@
         <v>3</v>
       </c>
       <c r="I85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J85">
         <v>4.5</v>
@@ -7825,16 +7828,16 @@
         <v>7299034</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D86" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E86" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7843,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J86">
         <v>1.45</v>
@@ -7911,16 +7914,16 @@
         <v>6732724</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D87" s="2">
         <v>45207.49652777778</v>
       </c>
       <c r="E87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7929,7 +7932,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J87">
         <v>1.909</v>
@@ -7997,16 +8000,16 @@
         <v>6732826</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D88" s="2">
         <v>45219.5</v>
       </c>
       <c r="E88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8015,7 +8018,7 @@
         <v>2</v>
       </c>
       <c r="I88" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J88">
         <v>2.25</v>
@@ -8083,16 +8086,16 @@
         <v>6732827</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D89" s="2">
         <v>45220.375</v>
       </c>
       <c r="E89" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -8101,7 +8104,7 @@
         <v>2</v>
       </c>
       <c r="I89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J89">
         <v>6</v>
@@ -8169,16 +8172,16 @@
         <v>7326568</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D90" s="2">
         <v>45220.375</v>
       </c>
       <c r="E90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8187,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J90">
         <v>2.375</v>
@@ -8255,16 +8258,16 @@
         <v>6732828</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D91" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8273,7 +8276,7 @@
         <v>2</v>
       </c>
       <c r="I91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J91">
         <v>2.625</v>
@@ -8341,16 +8344,16 @@
         <v>6732725</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D92" s="2">
         <v>45221.49652777778</v>
       </c>
       <c r="E92" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -8359,7 +8362,7 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J92">
         <v>1.571</v>
@@ -8427,16 +8430,16 @@
         <v>7216318</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D93" s="2">
         <v>45224.5</v>
       </c>
       <c r="E93" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8445,7 +8448,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J93">
         <v>4.75</v>
@@ -8513,16 +8516,16 @@
         <v>6732811</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D94" s="2">
         <v>45224.52083333334</v>
       </c>
       <c r="E94" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -8531,7 +8534,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J94">
         <v>3.1</v>
@@ -8599,16 +8602,16 @@
         <v>6732835</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D95" s="2">
         <v>45228.41666666666</v>
       </c>
       <c r="E95" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G95">
         <v>4</v>
@@ -8617,7 +8620,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J95">
         <v>2.5</v>
@@ -8685,16 +8688,16 @@
         <v>7259250</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D96" s="2">
         <v>45229.54166666666</v>
       </c>
       <c r="E96" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8703,7 +8706,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J96">
         <v>3.6</v>
@@ -8771,16 +8774,16 @@
         <v>6732831</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D97" s="2">
         <v>45234.33333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F97" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8789,7 +8792,7 @@
         <v>3</v>
       </c>
       <c r="I97" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J97">
         <v>5</v>
@@ -8857,16 +8860,16 @@
         <v>6732833</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D98" s="2">
         <v>45235.41666666666</v>
       </c>
       <c r="E98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8875,7 +8878,7 @@
         <v>2</v>
       </c>
       <c r="I98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J98">
         <v>6.5</v>
@@ -8943,16 +8946,16 @@
         <v>6732832</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D99" s="2">
         <v>45235.53819444445</v>
       </c>
       <c r="E99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8961,7 +8964,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J99">
         <v>2.625</v>
@@ -9029,16 +9032,16 @@
         <v>7465686</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D100" s="2">
         <v>45242.41319444445</v>
       </c>
       <c r="E100" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G100">
         <v>4</v>
@@ -9047,7 +9050,7 @@
         <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J100">
         <v>2.3</v>
@@ -9115,16 +9118,16 @@
         <v>6732727</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D101" s="2">
         <v>45242.41319444445</v>
       </c>
       <c r="E101" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9133,7 +9136,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J101">
         <v>1.285</v>
@@ -9201,16 +9204,16 @@
         <v>6732834</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D102" s="2">
         <v>45242.41319444445</v>
       </c>
       <c r="E102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9219,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J102">
         <v>1.25</v>
@@ -9287,16 +9290,16 @@
         <v>6732836</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D103" s="2">
         <v>45242.41319444445</v>
       </c>
       <c r="E103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -9305,7 +9308,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J103">
         <v>1.222</v>
@@ -9373,16 +9376,16 @@
         <v>6732837</v>
       </c>
       <c r="C104" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D104" s="2">
         <v>45242.41319444445</v>
       </c>
       <c r="E104" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -9391,7 +9394,7 @@
         <v>3</v>
       </c>
       <c r="I104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J104">
         <v>3.6</v>
@@ -9459,16 +9462,16 @@
         <v>7862033</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D105" s="2">
         <v>45352.58333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9477,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J105">
         <v>4.333</v>
@@ -9545,16 +9548,16 @@
         <v>7862902</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D106" s="2">
         <v>45353.33333333334</v>
       </c>
       <c r="E106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9563,7 +9566,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J106">
         <v>7.5</v>
@@ -9631,16 +9634,16 @@
         <v>7862903</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D107" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F107" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9649,7 +9652,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -9717,16 +9720,16 @@
         <v>7862034</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D108" s="2">
         <v>45354.33333333334</v>
       </c>
       <c r="E108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9735,7 +9738,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J108">
         <v>6.5</v>
@@ -9803,16 +9806,16 @@
         <v>7862904</v>
       </c>
       <c r="C109" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D109" s="2">
         <v>45354.5625</v>
       </c>
       <c r="E109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9821,7 +9824,7 @@
         <v>3</v>
       </c>
       <c r="I109" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J109">
         <v>1.8</v>
@@ -9889,16 +9892,16 @@
         <v>7862905</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D110" s="2">
         <v>45360.33333333334</v>
       </c>
       <c r="E110" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9907,7 +9910,7 @@
         <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J110">
         <v>2.1</v>
@@ -9975,16 +9978,16 @@
         <v>7862906</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D111" s="2">
         <v>45360.41666666666</v>
       </c>
       <c r="E111" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -9993,7 +9996,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J111">
         <v>2</v>
@@ -10061,16 +10064,16 @@
         <v>7862907</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D112" s="2">
         <v>45361.33333333334</v>
       </c>
       <c r="E112" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -10079,7 +10082,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J112">
         <v>1.4</v>
@@ -10147,16 +10150,16 @@
         <v>7862908</v>
       </c>
       <c r="C113" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D113" s="2">
         <v>45361.41666666666</v>
       </c>
       <c r="E113" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10165,7 +10168,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J113">
         <v>1.2</v>
@@ -10233,16 +10236,16 @@
         <v>7862035</v>
       </c>
       <c r="C114" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D114" s="2">
         <v>45361.5625</v>
       </c>
       <c r="E114" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G114">
         <v>3</v>
@@ -10251,7 +10254,7 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J114">
         <v>1.3</v>
@@ -10319,16 +10322,16 @@
         <v>7862909</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D115" s="2">
         <v>45363.54166666666</v>
       </c>
       <c r="E115" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -10337,7 +10340,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J115">
         <v>2</v>
@@ -10405,17 +10408,17 @@
         <v>7862910</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D116" s="2">
         <v>45364.5</v>
       </c>
       <c r="E116" t="s">
+        <v>31</v>
+      </c>
+      <c r="F116" t="s">
         <v>30</v>
       </c>
-      <c r="F116" t="s">
-        <v>29</v>
-      </c>
       <c r="G116">
         <v>0</v>
       </c>
@@ -10423,7 +10426,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J116">
         <v>2.3</v>
@@ -10491,16 +10494,16 @@
         <v>7862911</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D117" s="2">
         <v>45364.54166666666</v>
       </c>
       <c r="E117" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G117">
         <v>2</v>
@@ -10509,7 +10512,7 @@
         <v>2</v>
       </c>
       <c r="I117" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J117">
         <v>2.15</v>
@@ -10577,16 +10580,16 @@
         <v>7862036</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D118" s="2">
         <v>45364.54166666666</v>
       </c>
       <c r="E118" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -10595,7 +10598,7 @@
         <v>4</v>
       </c>
       <c r="I118" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J118">
         <v>8</v>
@@ -10663,16 +10666,16 @@
         <v>7862037</v>
       </c>
       <c r="C119" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D119" s="2">
         <v>45364.63541666666</v>
       </c>
       <c r="E119" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10681,7 +10684,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J119">
         <v>7.5</v>
@@ -10749,16 +10752,16 @@
         <v>7862038</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D120" s="2">
         <v>45367.375</v>
       </c>
       <c r="E120" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10767,7 +10770,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J120">
         <v>2.5</v>
@@ -10835,16 +10838,16 @@
         <v>7862912</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D121" s="2">
         <v>45367.4375</v>
       </c>
       <c r="E121" t="s">
+        <v>33</v>
+      </c>
+      <c r="F121" t="s">
         <v>32</v>
-      </c>
-      <c r="F121" t="s">
-        <v>31</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -10853,7 +10856,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J121">
         <v>1.2</v>
@@ -10921,16 +10924,16 @@
         <v>7862913</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D122" s="2">
         <v>45368.375</v>
       </c>
       <c r="E122" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -10939,7 +10942,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J122">
         <v>2.2</v>
@@ -11007,16 +11010,16 @@
         <v>7862914</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D123" s="2">
         <v>45368.41666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11025,7 +11028,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J123">
         <v>2.5</v>
@@ -11093,16 +11096,16 @@
         <v>7862039</v>
       </c>
       <c r="C124" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D124" s="2">
         <v>45368.5625</v>
       </c>
       <c r="E124" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11111,7 +11114,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J124">
         <v>1.615</v>
@@ -11179,16 +11182,16 @@
         <v>7862915</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D125" s="2">
         <v>45380.58333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F125" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -11197,7 +11200,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J125">
         <v>2.6</v>
@@ -11265,16 +11268,16 @@
         <v>7862916</v>
       </c>
       <c r="C126" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D126" s="2">
         <v>45381.41666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G126">
         <v>4</v>
@@ -11283,7 +11286,7 @@
         <v>2</v>
       </c>
       <c r="I126" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J126">
         <v>2.5</v>
@@ -11351,16 +11354,16 @@
         <v>7862917</v>
       </c>
       <c r="C127" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D127" s="2">
         <v>45381.5</v>
       </c>
       <c r="E127" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -11369,7 +11372,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J127">
         <v>1.533</v>
@@ -11437,16 +11440,16 @@
         <v>7862040</v>
       </c>
       <c r="C128" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D128" s="2">
         <v>45382.375</v>
       </c>
       <c r="E128" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11455,7 +11458,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J128">
         <v>2.45</v>
@@ -11523,16 +11526,16 @@
         <v>7862042</v>
       </c>
       <c r="C129" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D129" s="2">
         <v>45382.51736111111</v>
       </c>
       <c r="E129" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -11541,7 +11544,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J129">
         <v>4</v>
@@ -11609,16 +11612,16 @@
         <v>7862918</v>
       </c>
       <c r="C130" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D130" s="2">
         <v>45388.375</v>
       </c>
       <c r="E130" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11627,7 +11630,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J130">
         <v>4.333</v>
@@ -11695,16 +11698,16 @@
         <v>7862919</v>
       </c>
       <c r="C131" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D131" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11713,7 +11716,7 @@
         <v>2</v>
       </c>
       <c r="I131" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J131">
         <v>2.25</v>
@@ -11781,16 +11784,16 @@
         <v>7865009</v>
       </c>
       <c r="C132" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D132" s="2">
         <v>45389.29166666666</v>
       </c>
       <c r="E132" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11799,7 +11802,7 @@
         <v>2</v>
       </c>
       <c r="I132" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J132">
         <v>1.833</v>
@@ -11867,16 +11870,16 @@
         <v>7862043</v>
       </c>
       <c r="C133" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D133" s="2">
         <v>45389.375</v>
       </c>
       <c r="E133" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G133">
         <v>3</v>
@@ -11885,7 +11888,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J133">
         <v>1.666</v>
@@ -11953,16 +11956,16 @@
         <v>7862920</v>
       </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D134" s="2">
         <v>45389.51736111111</v>
       </c>
       <c r="E134" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -11971,7 +11974,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J134">
         <v>2.75</v>
@@ -12039,16 +12042,16 @@
         <v>7862921</v>
       </c>
       <c r="C135" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D135" s="2">
         <v>45391.5</v>
       </c>
       <c r="E135" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F135" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12057,7 +12060,7 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J135">
         <v>1.75</v>
@@ -12125,16 +12128,16 @@
         <v>7862922</v>
       </c>
       <c r="C136" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D136" s="2">
         <v>45392.5</v>
       </c>
       <c r="E136" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -12143,7 +12146,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J136">
         <v>2.7</v>
@@ -12211,16 +12214,16 @@
         <v>7862044</v>
       </c>
       <c r="C137" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D137" s="2">
         <v>45392.5</v>
       </c>
       <c r="E137" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -12229,7 +12232,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J137">
         <v>2.1</v>
@@ -12297,16 +12300,16 @@
         <v>7862923</v>
       </c>
       <c r="C138" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D138" s="2">
         <v>45392.54166666666</v>
       </c>
       <c r="E138" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F138" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G138">
         <v>3</v>
@@ -12315,7 +12318,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J138">
         <v>1.333</v>
@@ -12383,16 +12386,16 @@
         <v>7865008</v>
       </c>
       <c r="C139" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D139" s="2">
         <v>45392.58333333334</v>
       </c>
       <c r="E139" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F139" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -12401,7 +12404,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J139">
         <v>1.333</v>
@@ -12469,16 +12472,16 @@
         <v>7862924</v>
       </c>
       <c r="C140" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D140" s="2">
         <v>45395.375</v>
       </c>
       <c r="E140" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -12487,7 +12490,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J140">
         <v>2.5</v>
@@ -12555,16 +12558,16 @@
         <v>7862045</v>
       </c>
       <c r="C141" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D141" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E141" t="s">
+        <v>37</v>
+      </c>
+      <c r="F141" t="s">
         <v>36</v>
-      </c>
-      <c r="F141" t="s">
-        <v>35</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -12573,7 +12576,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J141">
         <v>3.4</v>
@@ -12641,16 +12644,16 @@
         <v>7862925</v>
       </c>
       <c r="C142" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D142" s="2">
         <v>45396.29166666666</v>
       </c>
       <c r="E142" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -12659,7 +12662,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J142">
         <v>3.75</v>
@@ -12727,16 +12730,16 @@
         <v>7862046</v>
       </c>
       <c r="C143" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D143" s="2">
         <v>45396.375</v>
       </c>
       <c r="E143" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -12745,7 +12748,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J143">
         <v>3.75</v>
@@ -12813,16 +12816,16 @@
         <v>7862047</v>
       </c>
       <c r="C144" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D144" s="2">
         <v>45402.375</v>
       </c>
       <c r="E144" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -12831,7 +12834,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J144">
         <v>1.444</v>
@@ -12899,16 +12902,16 @@
         <v>7862927</v>
       </c>
       <c r="C145" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D145" s="2">
         <v>45402.5</v>
       </c>
       <c r="E145" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12917,7 +12920,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -12985,16 +12988,16 @@
         <v>7862928</v>
       </c>
       <c r="C146" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D146" s="2">
         <v>45403.29166666666</v>
       </c>
       <c r="E146" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F146" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13003,7 +13006,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J146">
         <v>1.8</v>
@@ -13071,16 +13074,16 @@
         <v>7862929</v>
       </c>
       <c r="C147" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D147" s="2">
         <v>45403.375</v>
       </c>
       <c r="E147" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G147">
         <v>2</v>
@@ -13089,7 +13092,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J147">
         <v>1.4</v>
@@ -13157,16 +13160,16 @@
         <v>7862048</v>
       </c>
       <c r="C148" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D148" s="2">
         <v>45403.51736111111</v>
       </c>
       <c r="E148" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F148" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13175,7 +13178,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J148">
         <v>1.333</v>
@@ -13243,16 +13246,16 @@
         <v>7862049</v>
       </c>
       <c r="C149" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D149" s="2">
         <v>45405.54166666666</v>
       </c>
       <c r="E149" t="s">
+        <v>38</v>
+      </c>
+      <c r="F149" t="s">
         <v>37</v>
-      </c>
-      <c r="F149" t="s">
-        <v>36</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13261,7 +13264,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J149">
         <v>1.65</v>
@@ -13329,16 +13332,16 @@
         <v>7862930</v>
       </c>
       <c r="C150" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D150" s="2">
         <v>45406.5</v>
       </c>
       <c r="E150" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -13347,7 +13350,7 @@
         <v>2</v>
       </c>
       <c r="I150" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J150">
         <v>4</v>
@@ -13415,16 +13418,16 @@
         <v>7862932</v>
       </c>
       <c r="C151" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D151" s="2">
         <v>45406.54166666666</v>
       </c>
       <c r="E151" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F151" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -13433,7 +13436,7 @@
         <v>3</v>
       </c>
       <c r="I151" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J151">
         <v>1.4</v>
@@ -13501,16 +13504,16 @@
         <v>7862050</v>
       </c>
       <c r="C152" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D152" s="2">
         <v>45406.58333333334</v>
       </c>
       <c r="E152" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F152" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G152">
         <v>4</v>
@@ -13519,7 +13522,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J152">
         <v>1.363</v>
@@ -13587,16 +13590,16 @@
         <v>7862933</v>
       </c>
       <c r="C153" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D153" s="2">
         <v>45409.375</v>
       </c>
       <c r="E153" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F153" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G153">
         <v>2</v>
@@ -13605,7 +13608,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J153">
         <v>2.875</v>
@@ -13673,16 +13676,16 @@
         <v>7862934</v>
       </c>
       <c r="C154" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D154" s="2">
         <v>45410.29166666666</v>
       </c>
       <c r="E154" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F154" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -13691,7 +13694,7 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J154">
         <v>2.3</v>
@@ -13759,16 +13762,16 @@
         <v>7862935</v>
       </c>
       <c r="C155" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D155" s="2">
         <v>45410.375</v>
       </c>
       <c r="E155" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F155" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13777,7 +13780,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J155">
         <v>4.25</v>
@@ -13845,16 +13848,16 @@
         <v>7862051</v>
       </c>
       <c r="C156" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D156" s="2">
         <v>45410.45833333334</v>
       </c>
       <c r="E156" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13863,7 +13866,7 @@
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J156">
         <v>6</v>
@@ -13931,16 +13934,16 @@
         <v>7862936</v>
       </c>
       <c r="C157" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D157" s="2">
         <v>45410.54166666666</v>
       </c>
       <c r="E157" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F157" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -13949,7 +13952,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J157">
         <v>5</v>
@@ -14017,16 +14020,16 @@
         <v>7862937</v>
       </c>
       <c r="C158" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D158" s="2">
         <v>45413.375</v>
       </c>
       <c r="E158" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14035,7 +14038,7 @@
         <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J158">
         <v>2.75</v>
@@ -14103,16 +14106,16 @@
         <v>7862052</v>
       </c>
       <c r="C159" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D159" s="2">
         <v>45413.45833333334</v>
       </c>
       <c r="E159" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -14121,7 +14124,7 @@
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J159">
         <v>1.25</v>
@@ -14189,16 +14192,16 @@
         <v>7862938</v>
       </c>
       <c r="C160" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D160" s="2">
         <v>45414.5</v>
       </c>
       <c r="E160" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F160" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G160">
         <v>2</v>
@@ -14207,7 +14210,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J160">
         <v>2.35</v>
@@ -14275,16 +14278,16 @@
         <v>7862939</v>
       </c>
       <c r="C161" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D161" s="2">
         <v>45414.5</v>
       </c>
       <c r="E161" t="s">
+        <v>40</v>
+      </c>
+      <c r="F161" t="s">
         <v>39</v>
-      </c>
-      <c r="F161" t="s">
-        <v>38</v>
       </c>
       <c r="G161">
         <v>3</v>
@@ -14293,7 +14296,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J161">
         <v>4.1</v>
@@ -14361,16 +14364,16 @@
         <v>7862053</v>
       </c>
       <c r="C162" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D162" s="2">
         <v>45414.54166666666</v>
       </c>
       <c r="E162" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F162" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -14379,7 +14382,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J162">
         <v>1.869</v>
@@ -14447,16 +14450,16 @@
         <v>7862940</v>
       </c>
       <c r="C163" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D163" s="2">
         <v>45423.375</v>
       </c>
       <c r="E163" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F163" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14465,7 +14468,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J163">
         <v>2.375</v>
@@ -14533,16 +14536,16 @@
         <v>7862054</v>
       </c>
       <c r="C164" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D164" s="2">
         <v>45423.45833333334</v>
       </c>
       <c r="E164" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -14551,7 +14554,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J164">
         <v>2.15</v>
@@ -14619,16 +14622,16 @@
         <v>7862941</v>
       </c>
       <c r="C165" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D165" s="2">
         <v>45423.54166666666</v>
       </c>
       <c r="E165" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F165" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -14637,7 +14640,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J165">
         <v>4.25</v>
@@ -14705,16 +14708,16 @@
         <v>7862055</v>
       </c>
       <c r="C166" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D166" s="2">
         <v>45424.41666666666</v>
       </c>
       <c r="E166" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F166" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14723,7 +14726,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J166">
         <v>3.75</v>
@@ -14791,16 +14794,16 @@
         <v>7862942</v>
       </c>
       <c r="C167" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D167" s="2">
         <v>45424.51736111111</v>
       </c>
       <c r="E167" t="s">
+        <v>39</v>
+      </c>
+      <c r="F167" t="s">
         <v>38</v>
-      </c>
-      <c r="F167" t="s">
-        <v>37</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -14809,7 +14812,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J167">
         <v>2.05</v>
@@ -14877,60 +14880,125 @@
         <v>27</v>
       </c>
       <c r="C168" t="s">
+        <v>29</v>
+      </c>
+      <c r="D168" s="2">
+        <v>45430.41666666666</v>
+      </c>
+      <c r="E168" t="s">
+        <v>40</v>
+      </c>
+      <c r="F168" t="s">
+        <v>38</v>
+      </c>
+      <c r="J168">
+        <v>3.4</v>
+      </c>
+      <c r="K168">
+        <v>2.9</v>
+      </c>
+      <c r="L168">
+        <v>2.1</v>
+      </c>
+      <c r="M168">
+        <v>3.3</v>
+      </c>
+      <c r="N168">
+        <v>2.9</v>
+      </c>
+      <c r="O168">
+        <v>2.1</v>
+      </c>
+      <c r="P168">
+        <v>0.25</v>
+      </c>
+      <c r="Q168">
+        <v>1.95</v>
+      </c>
+      <c r="R168">
+        <v>1.85</v>
+      </c>
+      <c r="S168">
+        <v>2.25</v>
+      </c>
+      <c r="T168">
+        <v>1.8</v>
+      </c>
+      <c r="U168">
+        <v>2</v>
+      </c>
+      <c r="V168">
+        <v>0</v>
+      </c>
+      <c r="W168">
+        <v>0</v>
+      </c>
+      <c r="X168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:28">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
         <v>28</v>
       </c>
-      <c r="D168" s="2">
-        <v>45429.54166666666</v>
-      </c>
-      <c r="E168" t="s">
-        <v>30</v>
-      </c>
-      <c r="F168" t="s">
+      <c r="C169" t="s">
+        <v>29</v>
+      </c>
+      <c r="D169" s="2">
+        <v>45430.5</v>
+      </c>
+      <c r="E169" t="s">
+        <v>33</v>
+      </c>
+      <c r="F169" t="s">
         <v>36</v>
       </c>
-      <c r="J168">
+      <c r="J169">
+        <v>2.3</v>
+      </c>
+      <c r="K169">
+        <v>2.8</v>
+      </c>
+      <c r="L169">
+        <v>3.1</v>
+      </c>
+      <c r="M169">
+        <v>2.45</v>
+      </c>
+      <c r="N169">
+        <v>2.8</v>
+      </c>
+      <c r="O169">
         <v>2.875</v>
       </c>
-      <c r="K168">
-        <v>2.75</v>
-      </c>
-      <c r="L168">
-        <v>2.5</v>
-      </c>
-      <c r="M168">
-        <v>2.875</v>
-      </c>
-      <c r="N168">
-        <v>2.75</v>
-      </c>
-      <c r="O168">
-        <v>2.5</v>
-      </c>
-      <c r="P168">
-        <v>0</v>
-      </c>
-      <c r="Q168">
-        <v>2.025</v>
-      </c>
-      <c r="R168">
-        <v>1.775</v>
-      </c>
-      <c r="S168">
+      <c r="P169">
+        <v>0</v>
+      </c>
+      <c r="Q169">
         <v>1.75</v>
       </c>
-      <c r="T168">
-        <v>1.825</v>
-      </c>
-      <c r="U168">
-        <v>1.975</v>
-      </c>
-      <c r="V168">
-        <v>0</v>
-      </c>
-      <c r="W168">
-        <v>0</v>
-      </c>
-      <c r="X168">
+      <c r="R169">
+        <v>2.05</v>
+      </c>
+      <c r="S169">
+        <v>2</v>
+      </c>
+      <c r="T169">
+        <v>1.9</v>
+      </c>
+      <c r="U169">
+        <v>1.9</v>
+      </c>
+      <c r="V169">
+        <v>0</v>
+      </c>
+      <c r="W169">
+        <v>0</v>
+      </c>
+      <c r="X169">
         <v>0</v>
       </c>
     </row>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -97,10 +97,10 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7862943</t>
+    <t>7862945</t>
   </si>
   <si>
-    <t>7862944</t>
+    <t>7862057</t>
   </si>
   <si>
     <t>Lithuania A Lyga</t>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB169"/>
+  <dimension ref="A1:AB170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9029,7 +9029,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7465686</v>
+        <v>6732834</v>
       </c>
       <c r="C100" t="s">
         <v>29</v>
@@ -9038,76 +9038,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="E100" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G100">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J100">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="K100">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="L100">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="M100">
-        <v>2.55</v>
+        <v>1.45</v>
       </c>
       <c r="N100">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O100">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="P100">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q100">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R100">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S100">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T100">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U100">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V100">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA100">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9115,7 +9115,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6732727</v>
+        <v>7465686</v>
       </c>
       <c r="C101" t="s">
         <v>29</v>
@@ -9124,58 +9124,58 @@
         <v>45242.41319444445</v>
       </c>
       <c r="E101" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="s">
         <v>42</v>
       </c>
       <c r="J101">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="K101">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="L101">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="M101">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="N101">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="O101">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="P101">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q101">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R101">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S101">
         <v>2.75</v>
       </c>
       <c r="T101">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U101">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V101">
-        <v>0.3</v>
+        <v>1.55</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9184,16 +9184,16 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z101">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB101">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:28">
@@ -9201,7 +9201,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6732834</v>
+        <v>6732837</v>
       </c>
       <c r="C102" t="s">
         <v>29</v>
@@ -9210,76 +9210,76 @@
         <v>45242.41319444445</v>
       </c>
       <c r="E102" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I102" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J102">
-        <v>1.25</v>
+        <v>3.6</v>
       </c>
       <c r="K102">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="L102">
-        <v>7.5</v>
+        <v>1.8</v>
       </c>
       <c r="M102">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="N102">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O102">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P102">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q102">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="R102">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S102">
         <v>2.5</v>
       </c>
       <c r="T102">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U102">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V102">
         <v>-1</v>
       </c>
       <c r="W102">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB102">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -9287,7 +9287,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6732836</v>
+        <v>6732727</v>
       </c>
       <c r="C103" t="s">
         <v>29</v>
@@ -9296,13 +9296,13 @@
         <v>45242.41319444445</v>
       </c>
       <c r="E103" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -9311,25 +9311,25 @@
         <v>42</v>
       </c>
       <c r="J103">
-        <v>1.222</v>
+        <v>1.285</v>
       </c>
       <c r="K103">
         <v>5.5</v>
       </c>
       <c r="L103">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="M103">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="N103">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="O103">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P103">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q103">
         <v>1.9</v>
@@ -9338,16 +9338,16 @@
         <v>1.9</v>
       </c>
       <c r="S103">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T103">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U103">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V103">
-        <v>0.363</v>
+        <v>0.3</v>
       </c>
       <c r="W103">
         <v>-1</v>
@@ -9356,16 +9356,16 @@
         <v>-1</v>
       </c>
       <c r="Y103">
+        <v>-1</v>
+      </c>
+      <c r="Z103">
         <v>0.8999999999999999</v>
       </c>
-      <c r="Z103">
-        <v>-1</v>
-      </c>
       <c r="AA103">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:28">
@@ -9373,7 +9373,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6732837</v>
+        <v>6732836</v>
       </c>
       <c r="C104" t="s">
         <v>29</v>
@@ -9382,46 +9382,46 @@
         <v>45242.41319444445</v>
       </c>
       <c r="E104" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J104">
-        <v>3.6</v>
+        <v>1.222</v>
       </c>
       <c r="K104">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="L104">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="M104">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="N104">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O104">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P104">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q104">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R104">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S104">
         <v>2.5</v>
@@ -9433,19 +9433,19 @@
         <v>1.825</v>
       </c>
       <c r="V104">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z104">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
         <v>0.9750000000000001</v>
@@ -10491,7 +10491,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7862911</v>
+        <v>7862036</v>
       </c>
       <c r="C117" t="s">
         <v>29</v>
@@ -10500,73 +10500,73 @@
         <v>45364.54166666666</v>
       </c>
       <c r="E117" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I117" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J117">
-        <v>2.15</v>
+        <v>8</v>
       </c>
       <c r="K117">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="L117">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="M117">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="N117">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="O117">
-        <v>3</v>
+        <v>1.333</v>
       </c>
       <c r="P117">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q117">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="R117">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="S117">
         <v>2.5</v>
       </c>
       <c r="T117">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="U117">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V117">
         <v>-1</v>
       </c>
       <c r="W117">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Y117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA117">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB117">
         <v>-1</v>
@@ -10577,7 +10577,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7862036</v>
+        <v>7862911</v>
       </c>
       <c r="C118" t="s">
         <v>29</v>
@@ -10586,73 +10586,73 @@
         <v>45364.54166666666</v>
       </c>
       <c r="E118" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J118">
-        <v>8</v>
+        <v>2.15</v>
       </c>
       <c r="K118">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="L118">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="M118">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="N118">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="O118">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="P118">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="Q118">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="R118">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="S118">
         <v>2.5</v>
       </c>
       <c r="T118">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="U118">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V118">
         <v>-1</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X118">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z118">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA118">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB118">
         <v>-1</v>
@@ -14876,65 +14876,86 @@
       <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="s">
-        <v>27</v>
+      <c r="B168">
+        <v>7862056</v>
       </c>
       <c r="C168" t="s">
         <v>29</v>
       </c>
       <c r="D168" s="2">
-        <v>45430.41666666666</v>
+        <v>45429.54166666666</v>
       </c>
       <c r="E168" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F168" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="I168" t="s">
+        <v>43</v>
       </c>
       <c r="J168">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="K168">
+        <v>2.75</v>
+      </c>
+      <c r="L168">
+        <v>2.5</v>
+      </c>
+      <c r="M168">
+        <v>2.55</v>
+      </c>
+      <c r="N168">
+        <v>2.625</v>
+      </c>
+      <c r="O168">
         <v>2.9</v>
       </c>
-      <c r="L168">
-        <v>2.1</v>
-      </c>
-      <c r="M168">
-        <v>3.3</v>
-      </c>
-      <c r="N168">
-        <v>2.9</v>
-      </c>
-      <c r="O168">
-        <v>2.1</v>
-      </c>
       <c r="P168">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q168">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="R168">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S168">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="T168">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U168">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V168">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W168">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X168">
-        <v>0</v>
+        <v>1.9</v>
+      </c>
+      <c r="Y168">
+        <v>-1</v>
+      </c>
+      <c r="Z168">
+        <v>1.05</v>
+      </c>
+      <c r="AA168">
+        <v>-1</v>
+      </c>
+      <c r="AB168">
+        <v>0.825</v>
       </c>
     </row>
     <row r="169" spans="1:28">
@@ -14942,34 +14963,34 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C169" t="s">
         <v>29</v>
       </c>
       <c r="D169" s="2">
-        <v>45430.5</v>
+        <v>45431.41666666666</v>
       </c>
       <c r="E169" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J169">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="K169">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="L169">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M169">
         <v>2.45</v>
       </c>
       <c r="N169">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="O169">
         <v>2.875</v>
@@ -14987,10 +15008,10 @@
         <v>2</v>
       </c>
       <c r="T169">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U169">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V169">
         <v>0</v>
@@ -14999,6 +15020,71 @@
         <v>0</v>
       </c>
       <c r="X169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:28">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>28</v>
+      </c>
+      <c r="C170" t="s">
+        <v>29</v>
+      </c>
+      <c r="D170" s="2">
+        <v>45431.51736111111</v>
+      </c>
+      <c r="E170" t="s">
+        <v>34</v>
+      </c>
+      <c r="F170" t="s">
+        <v>39</v>
+      </c>
+      <c r="J170">
+        <v>1.533</v>
+      </c>
+      <c r="K170">
+        <v>3.75</v>
+      </c>
+      <c r="L170">
+        <v>5</v>
+      </c>
+      <c r="M170">
+        <v>1.615</v>
+      </c>
+      <c r="N170">
+        <v>3.6</v>
+      </c>
+      <c r="O170">
+        <v>4.5</v>
+      </c>
+      <c r="P170">
+        <v>-0.75</v>
+      </c>
+      <c r="Q170">
+        <v>1.85</v>
+      </c>
+      <c r="R170">
+        <v>1.95</v>
+      </c>
+      <c r="S170">
+        <v>2.5</v>
+      </c>
+      <c r="T170">
+        <v>1.975</v>
+      </c>
+      <c r="U170">
+        <v>1.825</v>
+      </c>
+      <c r="V170">
+        <v>0</v>
+      </c>
+      <c r="W170">
+        <v>0</v>
+      </c>
+      <c r="X170">
         <v>0</v>
       </c>
     </row>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -95,12 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>7862945</t>
-  </si>
-  <si>
-    <t>7862057</t>
   </si>
   <si>
     <t>Lithuania A Lyga</t>
@@ -507,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB170"/>
+  <dimension ref="A1:AB172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,25 +598,25 @@
         <v>6227963</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45079.5</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>39</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
       </c>
       <c r="J2">
         <v>5.5</v>
@@ -690,16 +684,16 @@
         <v>6227964</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45080.375</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -708,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J3">
         <v>1.85</v>
@@ -776,16 +770,16 @@
         <v>6227965</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>45080.45833333334</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -794,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J4">
         <v>2.4</v>
@@ -862,16 +856,16 @@
         <v>6227966</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>45080.54166666666</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -880,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -948,16 +942,16 @@
         <v>6227242</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>45081.49652777778</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -966,7 +960,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J6">
         <v>1.571</v>
@@ -1034,16 +1028,16 @@
         <v>6227967</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>45083.5</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1052,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J7">
         <v>2.3</v>
@@ -1120,16 +1114,16 @@
         <v>6227968</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>45083.58333333334</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1138,7 +1132,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J8">
         <v>4.333</v>
@@ -1206,16 +1200,16 @@
         <v>6227969</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>45084.5</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1224,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J9">
         <v>5.5</v>
@@ -1292,16 +1286,16 @@
         <v>6227970</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>45084.54166666666</v>
       </c>
       <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
         <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>33</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1310,7 +1304,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J10">
         <v>3.3</v>
@@ -1378,16 +1372,16 @@
         <v>6227243</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>45084.58333333334</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1396,7 +1390,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J11">
         <v>3.25</v>
@@ -1464,16 +1458,16 @@
         <v>6227971</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>45087.45833333334</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1482,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J12">
         <v>2.75</v>
@@ -1550,16 +1544,16 @@
         <v>6227972</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>45087.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1568,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J13">
         <v>1.533</v>
@@ -1636,16 +1630,16 @@
         <v>6227244</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>45088.41666666666</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1654,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J14">
         <v>1.333</v>
@@ -1722,16 +1716,16 @@
         <v>6227973</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>45088.49652777778</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -1740,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J15">
         <v>1.3</v>
@@ -1808,16 +1802,16 @@
         <v>6732710</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>45099.54166666666</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1826,7 +1820,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J16">
         <v>11</v>
@@ -1894,16 +1888,16 @@
         <v>6732766</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>45099.58333333334</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1912,7 +1906,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J17">
         <v>1.363</v>
@@ -1980,16 +1974,16 @@
         <v>6732767</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>45101.29166666666</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1998,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J18">
         <v>1.727</v>
@@ -2066,16 +2060,16 @@
         <v>6732768</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>45101.54166666666</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2084,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J19">
         <v>1.4</v>
@@ -2152,16 +2146,16 @@
         <v>6732769</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>45102.5</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2170,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J20">
         <v>6</v>
@@ -2238,16 +2232,16 @@
         <v>6732713</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>45104.54166666666</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2256,7 +2250,7 @@
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J21">
         <v>3.25</v>
@@ -2324,16 +2318,16 @@
         <v>6732778</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>45105.54166666666</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2342,7 +2336,7 @@
         <v>3</v>
       </c>
       <c r="I22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J22">
         <v>1.571</v>
@@ -2410,16 +2404,16 @@
         <v>6732770</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>45107.5</v>
       </c>
       <c r="E23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" t="s">
         <v>33</v>
-      </c>
-      <c r="F23" t="s">
-        <v>35</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2428,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J23">
         <v>1.444</v>
@@ -2496,16 +2490,16 @@
         <v>6732771</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>45108.5</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2514,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J24">
         <v>3.6</v>
@@ -2582,16 +2576,16 @@
         <v>6732772</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
         <v>45109.49652777778</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -2600,7 +2594,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J25">
         <v>3.1</v>
@@ -2668,16 +2662,16 @@
         <v>6732773</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>45109.58333333334</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2686,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J26">
         <v>5</v>
@@ -2754,16 +2748,16 @@
         <v>6732711</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>45109.58333333334</v>
       </c>
       <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
         <v>32</v>
-      </c>
-      <c r="F27" t="s">
-        <v>34</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2772,7 +2766,7 @@
         <v>4</v>
       </c>
       <c r="I27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J27">
         <v>5</v>
@@ -2840,16 +2834,16 @@
         <v>6732712</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
         <v>45113.54166666666</v>
       </c>
       <c r="E28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -2858,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J28">
         <v>1.4</v>
@@ -2926,16 +2920,16 @@
         <v>6732774</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
         <v>45114.54166666666</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -2944,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J29">
         <v>1.8</v>
@@ -3012,16 +3006,16 @@
         <v>6732775</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
         <v>45115.45833333334</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3030,7 +3024,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J30">
         <v>5.5</v>
@@ -3098,16 +3092,16 @@
         <v>6732776</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2">
         <v>45115.54166666666</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3116,7 +3110,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J31">
         <v>1.333</v>
@@ -3184,16 +3178,16 @@
         <v>6732777</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
         <v>45116.49652777778</v>
       </c>
       <c r="E32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3202,7 +3196,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J32">
         <v>1.909</v>
@@ -3270,16 +3264,16 @@
         <v>6732779</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2">
         <v>45121.54166666666</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3288,7 +3282,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J33">
         <v>2.15</v>
@@ -3356,16 +3350,16 @@
         <v>6901957</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2">
         <v>45123.49652777778</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3374,7 +3368,7 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J34">
         <v>3</v>
@@ -3442,16 +3436,16 @@
         <v>6732786</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2">
         <v>45125.58333333334</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3460,7 +3454,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J35">
         <v>4.8</v>
@@ -3528,16 +3522,16 @@
         <v>6732714</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2">
         <v>45128.54166666666</v>
       </c>
       <c r="E36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -3546,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J36">
         <v>1.222</v>
@@ -3614,16 +3608,16 @@
         <v>6732782</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
         <v>45129.54166666666</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3632,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J37">
         <v>2.375</v>
@@ -3700,16 +3694,16 @@
         <v>6732784</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2">
         <v>45130.49652777778</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3718,7 +3712,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J38">
         <v>3</v>
@@ -3786,16 +3780,16 @@
         <v>6732785</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2">
         <v>45131.58333333334</v>
       </c>
       <c r="E39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -3804,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J39">
         <v>1.666</v>
@@ -3872,16 +3866,16 @@
         <v>6732783</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2">
         <v>45132.54166666666</v>
       </c>
       <c r="E40" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3890,7 +3884,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J40">
         <v>4.333</v>
@@ -3958,16 +3952,16 @@
         <v>6732787</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2">
         <v>45135.54166666666</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3976,7 +3970,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J41">
         <v>3.1</v>
@@ -4044,16 +4038,16 @@
         <v>6732788</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <v>45136.5</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4062,7 +4056,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J42">
         <v>2.45</v>
@@ -4130,16 +4124,16 @@
         <v>6732789</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2">
         <v>45137.5</v>
       </c>
       <c r="E43" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4148,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J43">
         <v>1.5</v>
@@ -4216,16 +4210,16 @@
         <v>6983663</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2">
         <v>45137.625</v>
       </c>
       <c r="E44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4234,7 +4228,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J44">
         <v>2.1</v>
@@ -4302,16 +4296,16 @@
         <v>6732790</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2">
         <v>45142.54166666666</v>
       </c>
       <c r="E45" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4320,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J45">
         <v>2.5</v>
@@ -4388,16 +4382,16 @@
         <v>6732791</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2">
         <v>45143.5</v>
       </c>
       <c r="E46" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4406,7 +4400,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J46">
         <v>2</v>
@@ -4474,16 +4468,16 @@
         <v>7012025</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2">
         <v>45144.49652777778</v>
       </c>
       <c r="E47" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4492,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J47">
         <v>3.5</v>
@@ -4560,25 +4554,25 @@
         <v>6732793</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2">
         <v>45144.54166666666</v>
       </c>
       <c r="E48" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
         <v>39</v>
-      </c>
-      <c r="F48" t="s">
-        <v>30</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48" t="s">
-        <v>41</v>
       </c>
       <c r="J48">
         <v>1.444</v>
@@ -4646,16 +4640,16 @@
         <v>7012024</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2">
         <v>45145.54166666666</v>
       </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -4664,7 +4658,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J49">
         <v>1.85</v>
@@ -4729,67 +4723,67 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6732794</v>
+        <v>6732795</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
         <v>45149.54166666666</v>
       </c>
       <c r="E50" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F50" t="s">
         <v>30</v>
       </c>
       <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J50">
+        <v>2.15</v>
+      </c>
+      <c r="K50">
+        <v>3.2</v>
+      </c>
+      <c r="L50">
         <v>3</v>
       </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50" t="s">
-        <v>42</v>
-      </c>
-      <c r="J50">
-        <v>1.25</v>
-      </c>
-      <c r="K50">
-        <v>5</v>
-      </c>
-      <c r="L50">
-        <v>9</v>
-      </c>
       <c r="M50">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="N50">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="O50">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="P50">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q50">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R50">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S50">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T50">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U50">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>0.25</v>
+        <v>1.3</v>
       </c>
       <c r="W50">
         <v>-1</v>
@@ -4798,16 +4792,16 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -4815,85 +4809,85 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6732795</v>
+        <v>6732794</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2">
         <v>45149.54166666666</v>
       </c>
       <c r="E51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>40</v>
+      </c>
+      <c r="J51">
+        <v>1.25</v>
+      </c>
+      <c r="K51">
+        <v>5</v>
+      </c>
+      <c r="L51">
+        <v>9</v>
+      </c>
+      <c r="M51">
+        <v>1.25</v>
+      </c>
+      <c r="N51">
+        <v>5.25</v>
+      </c>
+      <c r="O51">
+        <v>9</v>
+      </c>
+      <c r="P51">
+        <v>-1.75</v>
+      </c>
+      <c r="Q51">
+        <v>2</v>
+      </c>
+      <c r="R51">
+        <v>1.8</v>
+      </c>
+      <c r="S51">
+        <v>3</v>
+      </c>
+      <c r="T51">
+        <v>1.975</v>
+      </c>
+      <c r="U51">
+        <v>1.825</v>
+      </c>
+      <c r="V51">
+        <v>0.25</v>
+      </c>
+      <c r="W51">
+        <v>-1</v>
+      </c>
+      <c r="X51">
+        <v>-1</v>
+      </c>
+      <c r="Y51">
         <v>1</v>
       </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51" t="s">
-        <v>42</v>
-      </c>
-      <c r="J51">
-        <v>2.15</v>
-      </c>
-      <c r="K51">
-        <v>3.2</v>
-      </c>
-      <c r="L51">
-        <v>3</v>
-      </c>
-      <c r="M51">
-        <v>2.3</v>
-      </c>
-      <c r="N51">
-        <v>3.2</v>
-      </c>
-      <c r="O51">
-        <v>2.7</v>
-      </c>
-      <c r="P51">
-        <v>-0.25</v>
-      </c>
-      <c r="Q51">
-        <v>2.05</v>
-      </c>
-      <c r="R51">
-        <v>1.75</v>
-      </c>
-      <c r="S51">
-        <v>2.25</v>
-      </c>
-      <c r="T51">
-        <v>1.9</v>
-      </c>
-      <c r="U51">
-        <v>1.9</v>
-      </c>
-      <c r="V51">
-        <v>1.3</v>
-      </c>
-      <c r="W51">
-        <v>-1</v>
-      </c>
-      <c r="X51">
-        <v>-1</v>
-      </c>
-      <c r="Y51">
-        <v>1.05</v>
-      </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB51">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -4904,16 +4898,16 @@
         <v>6732796</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2">
         <v>45151.375</v>
       </c>
       <c r="E52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4922,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J52">
         <v>1.222</v>
@@ -4990,16 +4984,16 @@
         <v>6732797</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2">
         <v>45151.49652777778</v>
       </c>
       <c r="E53" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -5008,7 +5002,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J53">
         <v>1.444</v>
@@ -5076,16 +5070,16 @@
         <v>6732717</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2">
         <v>45151.58333333334</v>
       </c>
       <c r="E54" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54" t="s">
         <v>34</v>
-      </c>
-      <c r="F54" t="s">
-        <v>36</v>
       </c>
       <c r="G54">
         <v>4</v>
@@ -5094,7 +5088,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J54">
         <v>1.444</v>
@@ -5162,16 +5156,16 @@
         <v>6732798</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2">
         <v>45156.54166666666</v>
       </c>
       <c r="E55" t="s">
+        <v>33</v>
+      </c>
+      <c r="F55" t="s">
         <v>35</v>
-      </c>
-      <c r="F55" t="s">
-        <v>37</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5180,7 +5174,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J55">
         <v>2.2</v>
@@ -5248,16 +5242,16 @@
         <v>6732799</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5266,7 +5260,7 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J56">
         <v>9</v>
@@ -5334,16 +5328,16 @@
         <v>6732800</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2">
         <v>45157.5</v>
       </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5352,7 +5346,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J57">
         <v>5.5</v>
@@ -5420,16 +5414,16 @@
         <v>6732718</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2">
         <v>45158.49652777778</v>
       </c>
       <c r="E58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5438,7 +5432,7 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J58">
         <v>6</v>
@@ -5506,16 +5500,16 @@
         <v>6732801</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2">
         <v>45158.54166666666</v>
       </c>
       <c r="E59" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5524,7 +5518,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J59">
         <v>2.2</v>
@@ -5592,16 +5586,16 @@
         <v>6732802</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2">
         <v>45163.54166666666</v>
       </c>
       <c r="E60" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5610,7 +5604,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J60">
         <v>4.5</v>
@@ -5678,16 +5672,16 @@
         <v>6732803</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E61" t="s">
+        <v>35</v>
+      </c>
+      <c r="F61" t="s">
         <v>37</v>
-      </c>
-      <c r="F61" t="s">
-        <v>39</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -5696,7 +5690,7 @@
         <v>6</v>
       </c>
       <c r="I61" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J61">
         <v>2.8</v>
@@ -5764,16 +5758,16 @@
         <v>6732804</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2">
         <v>45164.54166666666</v>
       </c>
       <c r="E62" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5782,7 +5776,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J62">
         <v>3.6</v>
@@ -5850,16 +5844,16 @@
         <v>6732805</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2">
         <v>45165.375</v>
       </c>
       <c r="E63" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5868,7 +5862,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J63">
         <v>1.222</v>
@@ -5936,16 +5930,16 @@
         <v>6732719</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2">
         <v>45165.49652777778</v>
       </c>
       <c r="E64" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G64">
         <v>4</v>
@@ -5954,7 +5948,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J64">
         <v>1.25</v>
@@ -6022,16 +6016,16 @@
         <v>7143716</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2">
         <v>45171.29166666666</v>
       </c>
       <c r="E65" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6040,7 +6034,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J65">
         <v>12</v>
@@ -6108,16 +6102,16 @@
         <v>6732807</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2">
         <v>45171.375</v>
       </c>
       <c r="E66" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6126,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J66">
         <v>1.3</v>
@@ -6194,16 +6188,16 @@
         <v>6732808</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6212,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J67">
         <v>1.7</v>
@@ -6280,16 +6274,16 @@
         <v>6732809</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
         <v>45172.49652777778</v>
       </c>
       <c r="E68" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6298,7 +6292,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J68">
         <v>1.833</v>
@@ -6366,16 +6360,16 @@
         <v>6732720</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2">
         <v>45172.5</v>
       </c>
       <c r="E69" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6384,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J69">
         <v>1.125</v>
@@ -6452,16 +6446,16 @@
         <v>7202207</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2">
         <v>45185.375</v>
       </c>
       <c r="E70" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6470,7 +6464,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J70">
         <v>4</v>
@@ -6538,16 +6532,16 @@
         <v>6732812</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
         <v>45185.5</v>
       </c>
       <c r="E71" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6556,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J71">
         <v>2.5</v>
@@ -6624,16 +6618,16 @@
         <v>6732813</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2">
         <v>45186.375</v>
       </c>
       <c r="E72" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6642,7 +6636,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J72">
         <v>1.285</v>
@@ -6710,16 +6704,16 @@
         <v>6732721</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2">
         <v>45186.49652777778</v>
       </c>
       <c r="E73" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -6728,7 +6722,7 @@
         <v>6</v>
       </c>
       <c r="I73" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J73">
         <v>6</v>
@@ -6796,16 +6790,16 @@
         <v>6732814</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2">
         <v>45191.5</v>
       </c>
       <c r="E74" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6814,7 +6808,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J74">
         <v>1.8</v>
@@ -6882,16 +6876,16 @@
         <v>6732815</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2">
         <v>45192.375</v>
       </c>
       <c r="E75" t="s">
+        <v>28</v>
+      </c>
+      <c r="F75" t="s">
         <v>30</v>
-      </c>
-      <c r="F75" t="s">
-        <v>32</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -6900,7 +6894,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J75">
         <v>2.375</v>
@@ -6968,16 +6962,16 @@
         <v>6732816</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E76" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -6986,7 +6980,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J76">
         <v>1.125</v>
@@ -7054,16 +7048,16 @@
         <v>6732817</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2">
         <v>45193.375</v>
       </c>
       <c r="E77" t="s">
+        <v>34</v>
+      </c>
+      <c r="F77" t="s">
         <v>36</v>
-      </c>
-      <c r="F77" t="s">
-        <v>38</v>
       </c>
       <c r="G77">
         <v>3</v>
@@ -7072,7 +7066,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J77">
         <v>2.25</v>
@@ -7140,16 +7134,16 @@
         <v>6732722</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2">
         <v>45193.49652777778</v>
       </c>
       <c r="E78" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F78" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7158,7 +7152,7 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J78">
         <v>1.4</v>
@@ -7226,16 +7220,16 @@
         <v>6732820</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2">
         <v>45197.54166666666</v>
       </c>
       <c r="E79" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7244,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J79">
         <v>1.6</v>
@@ -7312,16 +7306,16 @@
         <v>6732818</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2">
         <v>45198.5</v>
       </c>
       <c r="E80" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7330,7 +7324,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J80">
         <v>1.4</v>
@@ -7398,16 +7392,16 @@
         <v>6732723</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2">
         <v>45199.375</v>
       </c>
       <c r="E81" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7416,7 +7410,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J81">
         <v>5</v>
@@ -7484,16 +7478,16 @@
         <v>6732819</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E82" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -7502,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J82">
         <v>2.2</v>
@@ -7570,16 +7564,16 @@
         <v>6732823</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2">
         <v>45206.375</v>
       </c>
       <c r="E83" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7588,7 +7582,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J83">
         <v>1.65</v>
@@ -7656,16 +7650,16 @@
         <v>6732824</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7674,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J84">
         <v>1.909</v>
@@ -7742,16 +7736,16 @@
         <v>6732825</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2">
         <v>45206.54166666666</v>
       </c>
       <c r="E85" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7760,7 +7754,7 @@
         <v>3</v>
       </c>
       <c r="I85" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J85">
         <v>4.5</v>
@@ -7828,16 +7822,16 @@
         <v>7299034</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E86" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7846,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J86">
         <v>1.45</v>
@@ -7914,16 +7908,16 @@
         <v>6732724</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2">
         <v>45207.49652777778</v>
       </c>
       <c r="E87" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7932,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J87">
         <v>1.909</v>
@@ -8000,16 +7994,16 @@
         <v>6732826</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2">
         <v>45219.5</v>
       </c>
       <c r="E88" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F88" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8018,7 +8012,7 @@
         <v>2</v>
       </c>
       <c r="I88" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J88">
         <v>2.25</v>
@@ -8086,16 +8080,16 @@
         <v>6732827</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2">
         <v>45220.375</v>
       </c>
       <c r="E89" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -8104,7 +8098,7 @@
         <v>2</v>
       </c>
       <c r="I89" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J89">
         <v>6</v>
@@ -8172,16 +8166,16 @@
         <v>7326568</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2">
         <v>45220.375</v>
       </c>
       <c r="E90" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8190,7 +8184,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J90">
         <v>2.375</v>
@@ -8258,16 +8252,16 @@
         <v>6732828</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E91" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8276,7 +8270,7 @@
         <v>2</v>
       </c>
       <c r="I91" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J91">
         <v>2.625</v>
@@ -8344,16 +8338,16 @@
         <v>6732725</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2">
         <v>45221.49652777778</v>
       </c>
       <c r="E92" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -8362,7 +8356,7 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J92">
         <v>1.571</v>
@@ -8430,16 +8424,16 @@
         <v>7216318</v>
       </c>
       <c r="C93" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
         <v>45224.5</v>
       </c>
       <c r="E93" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8448,7 +8442,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J93">
         <v>4.75</v>
@@ -8516,16 +8510,16 @@
         <v>6732811</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
         <v>45224.52083333334</v>
       </c>
       <c r="E94" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -8534,7 +8528,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J94">
         <v>3.1</v>
@@ -8602,16 +8596,16 @@
         <v>6732835</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>45228.41666666666</v>
       </c>
       <c r="E95" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G95">
         <v>4</v>
@@ -8620,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J95">
         <v>2.5</v>
@@ -8688,16 +8682,16 @@
         <v>7259250</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2">
         <v>45229.54166666666</v>
       </c>
       <c r="E96" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8706,7 +8700,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J96">
         <v>3.6</v>
@@ -8774,16 +8768,16 @@
         <v>6732831</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2">
         <v>45234.33333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8792,7 +8786,7 @@
         <v>3</v>
       </c>
       <c r="I97" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J97">
         <v>5</v>
@@ -8860,16 +8854,16 @@
         <v>6732833</v>
       </c>
       <c r="C98" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2">
         <v>45235.41666666666</v>
       </c>
       <c r="E98" t="s">
+        <v>29</v>
+      </c>
+      <c r="F98" t="s">
         <v>31</v>
-      </c>
-      <c r="F98" t="s">
-        <v>33</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8878,7 +8872,7 @@
         <v>2</v>
       </c>
       <c r="I98" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J98">
         <v>6.5</v>
@@ -8946,16 +8940,16 @@
         <v>6732832</v>
       </c>
       <c r="C99" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2">
         <v>45235.53819444445</v>
       </c>
       <c r="E99" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F99" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8964,7 +8958,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J99">
         <v>2.625</v>
@@ -9029,70 +9023,70 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6732834</v>
+        <v>6732727</v>
       </c>
       <c r="C100" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2">
         <v>45242.41319444445</v>
       </c>
       <c r="E100" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J100">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="K100">
         <v>5.5</v>
       </c>
       <c r="L100">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="M100">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="N100">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="O100">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P100">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="Q100">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="R100">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S100">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T100">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U100">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V100">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="W100">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9101,13 +9095,13 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9118,16 +9112,16 @@
         <v>7465686</v>
       </c>
       <c r="C101" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2">
         <v>45242.41319444445</v>
       </c>
       <c r="E101" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G101">
         <v>4</v>
@@ -9136,7 +9130,7 @@
         <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J101">
         <v>2.3</v>
@@ -9201,85 +9195,85 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6732837</v>
+        <v>6732834</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2">
         <v>45242.41319444445</v>
       </c>
       <c r="E102" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J102">
-        <v>3.6</v>
+        <v>1.25</v>
       </c>
       <c r="K102">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="L102">
-        <v>1.8</v>
+        <v>7.5</v>
       </c>
       <c r="M102">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="N102">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O102">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P102">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q102">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="R102">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S102">
         <v>2.5</v>
       </c>
       <c r="T102">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U102">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V102">
         <v>-1</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X102">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AA102">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -9287,85 +9281,85 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6732727</v>
+        <v>6732837</v>
       </c>
       <c r="C103" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2">
         <v>45242.41319444445</v>
       </c>
       <c r="E103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>3</v>
+      </c>
+      <c r="I103" t="s">
+        <v>41</v>
+      </c>
+      <c r="J103">
+        <v>3.6</v>
+      </c>
+      <c r="K103">
+        <v>3.6</v>
+      </c>
+      <c r="L103">
+        <v>1.8</v>
+      </c>
+      <c r="M103">
+        <v>3</v>
+      </c>
+      <c r="N103">
+        <v>3.6</v>
+      </c>
+      <c r="O103">
+        <v>2</v>
+      </c>
+      <c r="P103">
+        <v>0.25</v>
+      </c>
+      <c r="Q103">
+        <v>2</v>
+      </c>
+      <c r="R103">
+        <v>1.8</v>
+      </c>
+      <c r="S103">
+        <v>2.5</v>
+      </c>
+      <c r="T103">
+        <v>1.975</v>
+      </c>
+      <c r="U103">
+        <v>1.825</v>
+      </c>
+      <c r="V103">
+        <v>-1</v>
+      </c>
+      <c r="W103">
+        <v>-1</v>
+      </c>
+      <c r="X103">
         <v>1</v>
       </c>
-      <c r="H103">
-        <v>0</v>
-      </c>
-      <c r="I103" t="s">
-        <v>42</v>
-      </c>
-      <c r="J103">
-        <v>1.285</v>
-      </c>
-      <c r="K103">
-        <v>5.5</v>
-      </c>
-      <c r="L103">
-        <v>6.5</v>
-      </c>
-      <c r="M103">
-        <v>1.3</v>
-      </c>
-      <c r="N103">
-        <v>5.5</v>
-      </c>
-      <c r="O103">
-        <v>6</v>
-      </c>
-      <c r="P103">
-        <v>-1.5</v>
-      </c>
-      <c r="Q103">
-        <v>1.9</v>
-      </c>
-      <c r="R103">
-        <v>1.9</v>
-      </c>
-      <c r="S103">
-        <v>2.75</v>
-      </c>
-      <c r="T103">
-        <v>1.8</v>
-      </c>
-      <c r="U103">
-        <v>2</v>
-      </c>
-      <c r="V103">
-        <v>0.3</v>
-      </c>
-      <c r="W103">
-        <v>-1</v>
-      </c>
-      <c r="X103">
-        <v>-1</v>
-      </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB103">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:28">
@@ -9376,16 +9370,16 @@
         <v>6732836</v>
       </c>
       <c r="C104" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2">
         <v>45242.41319444445</v>
       </c>
       <c r="E104" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G104">
         <v>3</v>
@@ -9394,7 +9388,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J104">
         <v>1.222</v>
@@ -9462,16 +9456,16 @@
         <v>7862033</v>
       </c>
       <c r="C105" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2">
         <v>45352.58333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F105" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9480,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J105">
         <v>4.333</v>
@@ -9548,16 +9542,16 @@
         <v>7862902</v>
       </c>
       <c r="C106" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2">
         <v>45353.33333333334</v>
       </c>
       <c r="E106" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9566,7 +9560,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J106">
         <v>7.5</v>
@@ -9634,16 +9628,16 @@
         <v>7862903</v>
       </c>
       <c r="C107" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E107" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F107" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9652,7 +9646,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -9720,16 +9714,16 @@
         <v>7862034</v>
       </c>
       <c r="C108" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2">
         <v>45354.33333333334</v>
       </c>
       <c r="E108" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9738,7 +9732,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J108">
         <v>6.5</v>
@@ -9806,16 +9800,16 @@
         <v>7862904</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2">
         <v>45354.5625</v>
       </c>
       <c r="E109" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9824,7 +9818,7 @@
         <v>3</v>
       </c>
       <c r="I109" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J109">
         <v>1.8</v>
@@ -9892,16 +9886,16 @@
         <v>7862905</v>
       </c>
       <c r="C110" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2">
         <v>45360.33333333334</v>
       </c>
       <c r="E110" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9910,7 +9904,7 @@
         <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J110">
         <v>2.1</v>
@@ -9978,16 +9972,16 @@
         <v>7862906</v>
       </c>
       <c r="C111" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2">
         <v>45360.41666666666</v>
       </c>
       <c r="E111" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -9996,7 +9990,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J111">
         <v>2</v>
@@ -10064,16 +10058,16 @@
         <v>7862907</v>
       </c>
       <c r="C112" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2">
         <v>45361.33333333334</v>
       </c>
       <c r="E112" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -10082,7 +10076,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J112">
         <v>1.4</v>
@@ -10150,16 +10144,16 @@
         <v>7862908</v>
       </c>
       <c r="C113" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2">
         <v>45361.41666666666</v>
       </c>
       <c r="E113" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10168,7 +10162,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J113">
         <v>1.2</v>
@@ -10236,16 +10230,16 @@
         <v>7862035</v>
       </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2">
         <v>45361.5625</v>
       </c>
       <c r="E114" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G114">
         <v>3</v>
@@ -10254,7 +10248,7 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J114">
         <v>1.3</v>
@@ -10322,16 +10316,16 @@
         <v>7862909</v>
       </c>
       <c r="C115" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D115" s="2">
         <v>45363.54166666666</v>
       </c>
       <c r="E115" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -10340,7 +10334,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J115">
         <v>2</v>
@@ -10408,16 +10402,16 @@
         <v>7862910</v>
       </c>
       <c r="C116" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2">
         <v>45364.5</v>
       </c>
       <c r="E116" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F116" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10426,7 +10420,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J116">
         <v>2.3</v>
@@ -10491,82 +10485,82 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7862036</v>
+        <v>7862911</v>
       </c>
       <c r="C117" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D117" s="2">
         <v>45364.54166666666</v>
       </c>
       <c r="E117" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I117" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J117">
-        <v>8</v>
+        <v>2.15</v>
       </c>
       <c r="K117">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="L117">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="M117">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="N117">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="O117">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="P117">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="Q117">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="R117">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="S117">
         <v>2.5</v>
       </c>
       <c r="T117">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="U117">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V117">
         <v>-1</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X117">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z117">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA117">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB117">
         <v>-1</v>
@@ -10577,82 +10571,82 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7862911</v>
+        <v>7862036</v>
       </c>
       <c r="C118" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2">
         <v>45364.54166666666</v>
       </c>
       <c r="E118" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F118" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I118" t="s">
         <v>41</v>
       </c>
       <c r="J118">
-        <v>2.15</v>
+        <v>8</v>
       </c>
       <c r="K118">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="L118">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="M118">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="N118">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="O118">
-        <v>3</v>
+        <v>1.333</v>
       </c>
       <c r="P118">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q118">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="R118">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="S118">
         <v>2.5</v>
       </c>
       <c r="T118">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="U118">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V118">
         <v>-1</v>
       </c>
       <c r="W118">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Y118">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA118">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB118">
         <v>-1</v>
@@ -10666,16 +10660,16 @@
         <v>7862037</v>
       </c>
       <c r="C119" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D119" s="2">
         <v>45364.63541666666</v>
       </c>
       <c r="E119" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10684,7 +10678,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J119">
         <v>7.5</v>
@@ -10752,16 +10746,16 @@
         <v>7862038</v>
       </c>
       <c r="C120" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2">
         <v>45367.375</v>
       </c>
       <c r="E120" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10770,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J120">
         <v>2.5</v>
@@ -10838,16 +10832,16 @@
         <v>7862912</v>
       </c>
       <c r="C121" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2">
         <v>45367.4375</v>
       </c>
       <c r="E121" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F121" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -10856,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J121">
         <v>1.2</v>
@@ -10924,16 +10918,16 @@
         <v>7862913</v>
       </c>
       <c r="C122" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2">
         <v>45368.375</v>
       </c>
       <c r="E122" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -10942,7 +10936,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J122">
         <v>2.2</v>
@@ -11010,16 +11004,16 @@
         <v>7862914</v>
       </c>
       <c r="C123" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D123" s="2">
         <v>45368.41666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11028,7 +11022,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J123">
         <v>2.5</v>
@@ -11096,16 +11090,16 @@
         <v>7862039</v>
       </c>
       <c r="C124" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2">
         <v>45368.5625</v>
       </c>
       <c r="E124" t="s">
+        <v>32</v>
+      </c>
+      <c r="F124" t="s">
         <v>34</v>
-      </c>
-      <c r="F124" t="s">
-        <v>36</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11114,7 +11108,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J124">
         <v>1.615</v>
@@ -11182,16 +11176,16 @@
         <v>7862915</v>
       </c>
       <c r="C125" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D125" s="2">
         <v>45380.58333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -11200,7 +11194,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J125">
         <v>2.6</v>
@@ -11268,16 +11262,16 @@
         <v>7862916</v>
       </c>
       <c r="C126" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D126" s="2">
         <v>45381.41666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F126" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G126">
         <v>4</v>
@@ -11286,7 +11280,7 @@
         <v>2</v>
       </c>
       <c r="I126" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J126">
         <v>2.5</v>
@@ -11354,16 +11348,16 @@
         <v>7862917</v>
       </c>
       <c r="C127" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D127" s="2">
         <v>45381.5</v>
       </c>
       <c r="E127" t="s">
+        <v>36</v>
+      </c>
+      <c r="F127" t="s">
         <v>38</v>
-      </c>
-      <c r="F127" t="s">
-        <v>40</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -11372,7 +11366,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J127">
         <v>1.533</v>
@@ -11440,16 +11434,16 @@
         <v>7862040</v>
       </c>
       <c r="C128" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D128" s="2">
         <v>45382.375</v>
       </c>
       <c r="E128" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11458,7 +11452,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J128">
         <v>2.45</v>
@@ -11526,16 +11520,16 @@
         <v>7862042</v>
       </c>
       <c r="C129" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D129" s="2">
         <v>45382.51736111111</v>
       </c>
       <c r="E129" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -11544,7 +11538,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J129">
         <v>4</v>
@@ -11612,16 +11606,16 @@
         <v>7862918</v>
       </c>
       <c r="C130" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2">
         <v>45388.375</v>
       </c>
       <c r="E130" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11630,7 +11624,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J130">
         <v>4.333</v>
@@ -11698,16 +11692,16 @@
         <v>7862919</v>
       </c>
       <c r="C131" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11716,7 +11710,7 @@
         <v>2</v>
       </c>
       <c r="I131" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J131">
         <v>2.25</v>
@@ -11784,16 +11778,16 @@
         <v>7865009</v>
       </c>
       <c r="C132" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2">
         <v>45389.29166666666</v>
       </c>
       <c r="E132" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F132" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11802,7 +11796,7 @@
         <v>2</v>
       </c>
       <c r="I132" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J132">
         <v>1.833</v>
@@ -11870,16 +11864,16 @@
         <v>7862043</v>
       </c>
       <c r="C133" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2">
         <v>45389.375</v>
       </c>
       <c r="E133" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G133">
         <v>3</v>
@@ -11888,7 +11882,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J133">
         <v>1.666</v>
@@ -11956,16 +11950,16 @@
         <v>7862920</v>
       </c>
       <c r="C134" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2">
         <v>45389.51736111111</v>
       </c>
       <c r="E134" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -11974,7 +11968,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J134">
         <v>2.75</v>
@@ -12042,16 +12036,16 @@
         <v>7862921</v>
       </c>
       <c r="C135" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2">
         <v>45391.5</v>
       </c>
       <c r="E135" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12060,7 +12054,7 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J135">
         <v>1.75</v>
@@ -12128,16 +12122,16 @@
         <v>7862922</v>
       </c>
       <c r="C136" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D136" s="2">
         <v>45392.5</v>
       </c>
       <c r="E136" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F136" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -12146,7 +12140,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J136">
         <v>2.7</v>
@@ -12214,16 +12208,16 @@
         <v>7862044</v>
       </c>
       <c r="C137" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D137" s="2">
         <v>45392.5</v>
       </c>
       <c r="E137" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F137" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -12232,7 +12226,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J137">
         <v>2.1</v>
@@ -12300,16 +12294,16 @@
         <v>7862923</v>
       </c>
       <c r="C138" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D138" s="2">
         <v>45392.54166666666</v>
       </c>
       <c r="E138" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F138" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G138">
         <v>3</v>
@@ -12318,7 +12312,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J138">
         <v>1.333</v>
@@ -12386,25 +12380,25 @@
         <v>7865008</v>
       </c>
       <c r="C139" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D139" s="2">
         <v>45392.58333333334</v>
       </c>
       <c r="E139" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F139" t="s">
+        <v>38</v>
+      </c>
+      <c r="G139">
+        <v>2</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139" t="s">
         <v>40</v>
-      </c>
-      <c r="G139">
-        <v>2</v>
-      </c>
-      <c r="H139">
-        <v>0</v>
-      </c>
-      <c r="I139" t="s">
-        <v>42</v>
       </c>
       <c r="J139">
         <v>1.333</v>
@@ -12472,16 +12466,16 @@
         <v>7862924</v>
       </c>
       <c r="C140" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D140" s="2">
         <v>45395.375</v>
       </c>
       <c r="E140" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -12490,7 +12484,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J140">
         <v>2.5</v>
@@ -12558,16 +12552,16 @@
         <v>7862045</v>
       </c>
       <c r="C141" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D141" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E141" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -12576,7 +12570,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J141">
         <v>3.4</v>
@@ -12644,16 +12638,16 @@
         <v>7862925</v>
       </c>
       <c r="C142" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D142" s="2">
         <v>45396.29166666666</v>
       </c>
       <c r="E142" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F142" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -12662,7 +12656,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J142">
         <v>3.75</v>
@@ -12730,16 +12724,16 @@
         <v>7862046</v>
       </c>
       <c r="C143" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D143" s="2">
         <v>45396.375</v>
       </c>
       <c r="E143" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -12748,7 +12742,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J143">
         <v>3.75</v>
@@ -12816,16 +12810,16 @@
         <v>7862047</v>
       </c>
       <c r="C144" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D144" s="2">
         <v>45402.375</v>
       </c>
       <c r="E144" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -12834,7 +12828,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J144">
         <v>1.444</v>
@@ -12902,16 +12896,16 @@
         <v>7862927</v>
       </c>
       <c r="C145" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D145" s="2">
         <v>45402.5</v>
       </c>
       <c r="E145" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12920,7 +12914,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -12988,16 +12982,16 @@
         <v>7862928</v>
       </c>
       <c r="C146" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D146" s="2">
         <v>45403.29166666666</v>
       </c>
       <c r="E146" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13006,7 +13000,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J146">
         <v>1.8</v>
@@ -13074,16 +13068,16 @@
         <v>7862929</v>
       </c>
       <c r="C147" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D147" s="2">
         <v>45403.375</v>
       </c>
       <c r="E147" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G147">
         <v>2</v>
@@ -13092,7 +13086,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J147">
         <v>1.4</v>
@@ -13160,16 +13154,16 @@
         <v>7862048</v>
       </c>
       <c r="C148" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D148" s="2">
         <v>45403.51736111111</v>
       </c>
       <c r="E148" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F148" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13178,7 +13172,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J148">
         <v>1.333</v>
@@ -13246,16 +13240,16 @@
         <v>7862049</v>
       </c>
       <c r="C149" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D149" s="2">
         <v>45405.54166666666</v>
       </c>
       <c r="E149" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F149" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13264,7 +13258,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J149">
         <v>1.65</v>
@@ -13332,16 +13326,16 @@
         <v>7862930</v>
       </c>
       <c r="C150" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D150" s="2">
         <v>45406.5</v>
       </c>
       <c r="E150" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -13350,7 +13344,7 @@
         <v>2</v>
       </c>
       <c r="I150" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J150">
         <v>4</v>
@@ -13418,16 +13412,16 @@
         <v>7862932</v>
       </c>
       <c r="C151" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D151" s="2">
         <v>45406.54166666666</v>
       </c>
       <c r="E151" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F151" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -13436,7 +13430,7 @@
         <v>3</v>
       </c>
       <c r="I151" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J151">
         <v>1.4</v>
@@ -13504,16 +13498,16 @@
         <v>7862050</v>
       </c>
       <c r="C152" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D152" s="2">
         <v>45406.58333333334</v>
       </c>
       <c r="E152" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F152" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G152">
         <v>4</v>
@@ -13522,7 +13516,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J152">
         <v>1.363</v>
@@ -13590,25 +13584,25 @@
         <v>7862933</v>
       </c>
       <c r="C153" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D153" s="2">
         <v>45409.375</v>
       </c>
       <c r="E153" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F153" t="s">
+        <v>38</v>
+      </c>
+      <c r="G153">
+        <v>2</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153" t="s">
         <v>40</v>
-      </c>
-      <c r="G153">
-        <v>2</v>
-      </c>
-      <c r="H153">
-        <v>0</v>
-      </c>
-      <c r="I153" t="s">
-        <v>42</v>
       </c>
       <c r="J153">
         <v>2.875</v>
@@ -13676,16 +13670,16 @@
         <v>7862934</v>
       </c>
       <c r="C154" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D154" s="2">
         <v>45410.29166666666</v>
       </c>
       <c r="E154" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F154" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -13694,7 +13688,7 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J154">
         <v>2.3</v>
@@ -13762,16 +13756,16 @@
         <v>7862935</v>
       </c>
       <c r="C155" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D155" s="2">
         <v>45410.375</v>
       </c>
       <c r="E155" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F155" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13780,7 +13774,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J155">
         <v>4.25</v>
@@ -13848,16 +13842,16 @@
         <v>7862051</v>
       </c>
       <c r="C156" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D156" s="2">
         <v>45410.45833333334</v>
       </c>
       <c r="E156" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F156" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13866,7 +13860,7 @@
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J156">
         <v>6</v>
@@ -13934,17 +13928,17 @@
         <v>7862936</v>
       </c>
       <c r="C157" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D157" s="2">
         <v>45410.54166666666</v>
       </c>
       <c r="E157" t="s">
+        <v>29</v>
+      </c>
+      <c r="F157" t="s">
         <v>31</v>
       </c>
-      <c r="F157" t="s">
-        <v>33</v>
-      </c>
       <c r="G157">
         <v>0</v>
       </c>
@@ -13952,7 +13946,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J157">
         <v>5</v>
@@ -14020,16 +14014,16 @@
         <v>7862937</v>
       </c>
       <c r="C158" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D158" s="2">
         <v>45413.375</v>
       </c>
       <c r="E158" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F158" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14038,7 +14032,7 @@
         <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J158">
         <v>2.75</v>
@@ -14106,16 +14100,16 @@
         <v>7862052</v>
       </c>
       <c r="C159" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D159" s="2">
         <v>45413.45833333334</v>
       </c>
       <c r="E159" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F159" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -14124,7 +14118,7 @@
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J159">
         <v>1.25</v>
@@ -14192,16 +14186,16 @@
         <v>7862938</v>
       </c>
       <c r="C160" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D160" s="2">
         <v>45414.5</v>
       </c>
       <c r="E160" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F160" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G160">
         <v>2</v>
@@ -14210,7 +14204,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J160">
         <v>2.35</v>
@@ -14278,16 +14272,16 @@
         <v>7862939</v>
       </c>
       <c r="C161" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D161" s="2">
         <v>45414.5</v>
       </c>
       <c r="E161" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F161" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G161">
         <v>3</v>
@@ -14296,7 +14290,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J161">
         <v>4.1</v>
@@ -14364,16 +14358,16 @@
         <v>7862053</v>
       </c>
       <c r="C162" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D162" s="2">
         <v>45414.54166666666</v>
       </c>
       <c r="E162" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F162" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -14382,7 +14376,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J162">
         <v>1.869</v>
@@ -14450,16 +14444,16 @@
         <v>7862940</v>
       </c>
       <c r="C163" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D163" s="2">
         <v>45423.375</v>
       </c>
       <c r="E163" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F163" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14468,7 +14462,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J163">
         <v>2.375</v>
@@ -14536,16 +14530,16 @@
         <v>7862054</v>
       </c>
       <c r="C164" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D164" s="2">
         <v>45423.45833333334</v>
       </c>
       <c r="E164" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F164" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -14554,7 +14548,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J164">
         <v>2.15</v>
@@ -14622,16 +14616,16 @@
         <v>7862941</v>
       </c>
       <c r="C165" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D165" s="2">
         <v>45423.54166666666</v>
       </c>
       <c r="E165" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F165" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -14640,7 +14634,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J165">
         <v>4.25</v>
@@ -14708,16 +14702,16 @@
         <v>7862055</v>
       </c>
       <c r="C166" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D166" s="2">
         <v>45424.41666666666</v>
       </c>
       <c r="E166" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14726,7 +14720,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J166">
         <v>3.75</v>
@@ -14794,16 +14788,16 @@
         <v>7862942</v>
       </c>
       <c r="C167" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D167" s="2">
         <v>45424.51736111111</v>
       </c>
       <c r="E167" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F167" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -14812,7 +14806,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J167">
         <v>2.05</v>
@@ -14880,16 +14874,16 @@
         <v>7862056</v>
       </c>
       <c r="C168" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D168" s="2">
         <v>45429.54166666666</v>
       </c>
       <c r="E168" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F168" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14898,7 +14892,7 @@
         <v>1</v>
       </c>
       <c r="I168" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J168">
         <v>2.875</v>
@@ -14962,130 +14956,344 @@
       <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="s">
-        <v>27</v>
+      <c r="B169">
+        <v>7862943</v>
       </c>
       <c r="C169" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D169" s="2">
-        <v>45431.41666666666</v>
+        <v>45430.41666666666</v>
       </c>
       <c r="E169" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>3</v>
+      </c>
+      <c r="I169" t="s">
+        <v>41</v>
       </c>
       <c r="J169">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="K169">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="L169">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="M169">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="N169">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="O169">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="P169">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q169">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="R169">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S169">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T169">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U169">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V169">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W169">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X169">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Y169">
+        <v>-1</v>
+      </c>
+      <c r="Z169">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA169">
+        <v>1.025</v>
+      </c>
+      <c r="AB169">
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:28">
       <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170">
+        <v>7862944</v>
+      </c>
+      <c r="C170" t="s">
+        <v>27</v>
+      </c>
+      <c r="D170" s="2">
+        <v>45430.5</v>
+      </c>
+      <c r="E170" t="s">
+        <v>31</v>
+      </c>
+      <c r="F170" t="s">
+        <v>34</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>2</v>
+      </c>
+      <c r="I170" t="s">
+        <v>41</v>
+      </c>
+      <c r="J170">
+        <v>2.3</v>
+      </c>
+      <c r="K170">
+        <v>2.8</v>
+      </c>
+      <c r="L170">
+        <v>3.1</v>
+      </c>
+      <c r="M170">
+        <v>2.8</v>
+      </c>
+      <c r="N170">
+        <v>2.875</v>
+      </c>
+      <c r="O170">
+        <v>2.45</v>
+      </c>
+      <c r="P170">
+        <v>0</v>
+      </c>
+      <c r="Q170">
+        <v>2.05</v>
+      </c>
+      <c r="R170">
+        <v>1.75</v>
+      </c>
+      <c r="S170">
+        <v>2</v>
+      </c>
+      <c r="T170">
+        <v>1.775</v>
+      </c>
+      <c r="U170">
+        <v>2.025</v>
+      </c>
+      <c r="V170">
+        <v>-1</v>
+      </c>
+      <c r="W170">
+        <v>-1</v>
+      </c>
+      <c r="X170">
+        <v>1.45</v>
+      </c>
+      <c r="Y170">
+        <v>-1</v>
+      </c>
+      <c r="Z170">
+        <v>0.75</v>
+      </c>
+      <c r="AA170">
+        <v>0</v>
+      </c>
+      <c r="AB170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:28">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>7862945</v>
+      </c>
+      <c r="C171" t="s">
+        <v>27</v>
+      </c>
+      <c r="D171" s="2">
+        <v>45431.45833333334</v>
+      </c>
+      <c r="E171" t="s">
         <v>28</v>
       </c>
-      <c r="C170" t="s">
-        <v>29</v>
-      </c>
-      <c r="D170" s="2">
+      <c r="F171" t="s">
+        <v>30</v>
+      </c>
+      <c r="G171">
+        <v>1</v>
+      </c>
+      <c r="H171">
+        <v>1</v>
+      </c>
+      <c r="I171" t="s">
+        <v>39</v>
+      </c>
+      <c r="J171">
+        <v>2.5</v>
+      </c>
+      <c r="K171">
+        <v>2.875</v>
+      </c>
+      <c r="L171">
+        <v>2.75</v>
+      </c>
+      <c r="M171">
+        <v>2.45</v>
+      </c>
+      <c r="N171">
+        <v>2.9</v>
+      </c>
+      <c r="O171">
+        <v>2.7</v>
+      </c>
+      <c r="P171">
+        <v>0</v>
+      </c>
+      <c r="Q171">
+        <v>1.825</v>
+      </c>
+      <c r="R171">
+        <v>1.975</v>
+      </c>
+      <c r="S171">
+        <v>2</v>
+      </c>
+      <c r="T171">
+        <v>1.9</v>
+      </c>
+      <c r="U171">
+        <v>1.9</v>
+      </c>
+      <c r="V171">
+        <v>-1</v>
+      </c>
+      <c r="W171">
+        <v>1.9</v>
+      </c>
+      <c r="X171">
+        <v>-1</v>
+      </c>
+      <c r="Y171">
+        <v>0</v>
+      </c>
+      <c r="Z171">
+        <v>0</v>
+      </c>
+      <c r="AA171">
+        <v>0</v>
+      </c>
+      <c r="AB171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:28">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>7862057</v>
+      </c>
+      <c r="C172" t="s">
+        <v>27</v>
+      </c>
+      <c r="D172" s="2">
         <v>45431.51736111111</v>
       </c>
-      <c r="E170" t="s">
-        <v>34</v>
-      </c>
-      <c r="F170" t="s">
-        <v>39</v>
-      </c>
-      <c r="J170">
+      <c r="E172" t="s">
+        <v>32</v>
+      </c>
+      <c r="F172" t="s">
+        <v>37</v>
+      </c>
+      <c r="G172">
+        <v>1</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172" t="s">
+        <v>40</v>
+      </c>
+      <c r="J172">
         <v>1.533</v>
       </c>
-      <c r="K170">
+      <c r="K172">
         <v>3.75</v>
       </c>
-      <c r="L170">
+      <c r="L172">
         <v>5</v>
       </c>
-      <c r="M170">
-        <v>1.615</v>
-      </c>
-      <c r="N170">
+      <c r="M172">
+        <v>1.833</v>
+      </c>
+      <c r="N172">
+        <v>3.4</v>
+      </c>
+      <c r="O172">
         <v>3.6</v>
       </c>
-      <c r="O170">
-        <v>4.5</v>
-      </c>
-      <c r="P170">
-        <v>-0.75</v>
-      </c>
-      <c r="Q170">
+      <c r="P172">
+        <v>-0.5</v>
+      </c>
+      <c r="Q172">
         <v>1.85</v>
       </c>
-      <c r="R170">
+      <c r="R172">
         <v>1.95</v>
       </c>
-      <c r="S170">
+      <c r="S172">
         <v>2.5</v>
       </c>
-      <c r="T170">
+      <c r="T172">
         <v>1.975</v>
       </c>
-      <c r="U170">
+      <c r="U172">
         <v>1.825</v>
       </c>
-      <c r="V170">
-        <v>0</v>
-      </c>
-      <c r="W170">
-        <v>0</v>
-      </c>
-      <c r="X170">
-        <v>0</v>
+      <c r="V172">
+        <v>0.833</v>
+      </c>
+      <c r="W172">
+        <v>-1</v>
+      </c>
+      <c r="X172">
+        <v>-1</v>
+      </c>
+      <c r="Y172">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z172">
+        <v>-1</v>
+      </c>
+      <c r="AA172">
+        <v>-1</v>
+      </c>
+      <c r="AB172">
+        <v>0.825</v>
       </c>
     </row>
   </sheetData>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -4723,7 +4723,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6732795</v>
+        <v>6732794</v>
       </c>
       <c r="C50" t="s">
         <v>27</v>
@@ -4732,13 +4732,13 @@
         <v>45149.54166666666</v>
       </c>
       <c r="E50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -4747,43 +4747,43 @@
         <v>40</v>
       </c>
       <c r="J50">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="K50">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="L50">
+        <v>9</v>
+      </c>
+      <c r="M50">
+        <v>1.25</v>
+      </c>
+      <c r="N50">
+        <v>5.25</v>
+      </c>
+      <c r="O50">
+        <v>9</v>
+      </c>
+      <c r="P50">
+        <v>-1.75</v>
+      </c>
+      <c r="Q50">
+        <v>2</v>
+      </c>
+      <c r="R50">
+        <v>1.8</v>
+      </c>
+      <c r="S50">
         <v>3</v>
       </c>
-      <c r="M50">
-        <v>2.3</v>
-      </c>
-      <c r="N50">
-        <v>3.2</v>
-      </c>
-      <c r="O50">
-        <v>2.7</v>
-      </c>
-      <c r="P50">
-        <v>-0.25</v>
-      </c>
-      <c r="Q50">
-        <v>2.05</v>
-      </c>
-      <c r="R50">
-        <v>1.75</v>
-      </c>
-      <c r="S50">
-        <v>2.25</v>
-      </c>
       <c r="T50">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V50">
-        <v>1.3</v>
+        <v>0.25</v>
       </c>
       <c r="W50">
         <v>-1</v>
@@ -4792,16 +4792,16 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB50">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -4809,7 +4809,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6732794</v>
+        <v>6732795</v>
       </c>
       <c r="C51" t="s">
         <v>27</v>
@@ -4818,13 +4818,13 @@
         <v>45149.54166666666</v>
       </c>
       <c r="E51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F51" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -4833,43 +4833,43 @@
         <v>40</v>
       </c>
       <c r="J51">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="K51">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="L51">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M51">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="N51">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="O51">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="P51">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q51">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R51">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S51">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T51">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U51">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>0.25</v>
+        <v>1.3</v>
       </c>
       <c r="W51">
         <v>-1</v>
@@ -4878,16 +4878,16 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:28">

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,15 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>7865007</t>
+  </si>
+  <si>
+    <t>7862946</t>
+  </si>
+  <si>
+    <t>7862947</t>
   </si>
   <si>
     <t>Lithuania A Lyga</t>
@@ -501,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB172"/>
+  <dimension ref="A1:AB175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,16 +607,16 @@
         <v>6227963</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2">
         <v>45079.5</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -616,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>5.5</v>
@@ -684,16 +693,16 @@
         <v>6227964</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2">
         <v>45080.375</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -702,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J3">
         <v>1.85</v>
@@ -770,16 +779,16 @@
         <v>6227965</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2">
         <v>45080.45833333334</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -788,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>2.4</v>
@@ -856,16 +865,16 @@
         <v>6227966</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2">
         <v>45080.54166666666</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -874,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -942,16 +951,16 @@
         <v>6227242</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2">
         <v>45081.49652777778</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -960,7 +969,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>1.571</v>
@@ -1028,16 +1037,16 @@
         <v>6227967</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2">
         <v>45083.5</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1046,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J7">
         <v>2.3</v>
@@ -1114,16 +1123,16 @@
         <v>6227968</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2">
         <v>45083.58333333334</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1132,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>4.333</v>
@@ -1200,16 +1209,16 @@
         <v>6227969</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2">
         <v>45084.5</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1218,7 +1227,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>5.5</v>
@@ -1286,16 +1295,16 @@
         <v>6227970</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2">
         <v>45084.54166666666</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1304,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J10">
         <v>3.3</v>
@@ -1372,16 +1381,16 @@
         <v>6227243</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2">
         <v>45084.58333333334</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1390,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J11">
         <v>3.25</v>
@@ -1458,16 +1467,16 @@
         <v>6227971</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2">
         <v>45087.45833333334</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1476,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>2.75</v>
@@ -1544,16 +1553,16 @@
         <v>6227972</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2">
         <v>45087.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1562,7 +1571,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>1.533</v>
@@ -1630,17 +1639,17 @@
         <v>6227244</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2">
         <v>45088.41666666666</v>
       </c>
       <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
         <v>32</v>
       </c>
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
       <c r="G14">
         <v>0</v>
       </c>
@@ -1648,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>1.333</v>
@@ -1716,16 +1725,16 @@
         <v>6227973</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2">
         <v>45088.49652777778</v>
       </c>
       <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
         <v>31</v>
-      </c>
-      <c r="F15" t="s">
-        <v>28</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -1734,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J15">
         <v>1.3</v>
@@ -1802,16 +1811,16 @@
         <v>6732710</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2">
         <v>45099.54166666666</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1820,7 +1829,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J16">
         <v>11</v>
@@ -1888,16 +1897,16 @@
         <v>6732766</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2">
         <v>45099.58333333334</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1906,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>1.363</v>
@@ -1974,16 +1983,16 @@
         <v>6732767</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2">
         <v>45101.29166666666</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1992,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>1.727</v>
@@ -2060,17 +2069,17 @@
         <v>6732768</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D19" s="2">
         <v>45101.54166666666</v>
       </c>
       <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s">
         <v>36</v>
       </c>
-      <c r="F19" t="s">
-        <v>33</v>
-      </c>
       <c r="G19">
         <v>2</v>
       </c>
@@ -2078,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J19">
         <v>1.4</v>
@@ -2146,16 +2155,16 @@
         <v>6732769</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D20" s="2">
         <v>45102.5</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2164,7 +2173,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J20">
         <v>6</v>
@@ -2232,16 +2241,16 @@
         <v>6732713</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D21" s="2">
         <v>45104.54166666666</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2250,7 +2259,7 @@
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J21">
         <v>3.25</v>
@@ -2318,16 +2327,16 @@
         <v>6732778</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D22" s="2">
         <v>45105.54166666666</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2336,7 +2345,7 @@
         <v>3</v>
       </c>
       <c r="I22" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J22">
         <v>1.571</v>
@@ -2404,16 +2413,16 @@
         <v>6732770</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D23" s="2">
         <v>45107.5</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2422,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J23">
         <v>1.444</v>
@@ -2490,16 +2499,16 @@
         <v>6732771</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D24" s="2">
         <v>45108.5</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2508,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J24">
         <v>3.6</v>
@@ -2576,16 +2585,16 @@
         <v>6732772</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D25" s="2">
         <v>45109.49652777778</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -2594,7 +2603,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J25">
         <v>3.1</v>
@@ -2659,64 +2668,64 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6732773</v>
+        <v>6732711</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D26" s="2">
         <v>45109.58333333334</v>
       </c>
       <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" t="s">
         <v>35</v>
       </c>
-      <c r="F26" t="s">
-        <v>34</v>
-      </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I26" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J26">
         <v>5</v>
       </c>
       <c r="K26">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L26">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="M26">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N26">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="O26">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="P26">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Q26">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R26">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S26">
         <v>2.5</v>
       </c>
       <c r="T26">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U26">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V26">
         <v>-1</v>
@@ -2725,19 +2734,19 @@
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>0.5329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB26">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -2745,64 +2754,64 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6732711</v>
+        <v>6732773</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D27" s="2">
         <v>45109.58333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>1</v>
       </c>
-      <c r="H27">
-        <v>4</v>
-      </c>
       <c r="I27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J27">
         <v>5</v>
       </c>
       <c r="K27">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L27">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="M27">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N27">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="O27">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="P27">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R27">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S27">
         <v>2.5</v>
       </c>
       <c r="T27">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U27">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
         <v>-1</v>
@@ -2811,19 +2820,19 @@
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>0.25</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2834,16 +2843,16 @@
         <v>6732712</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D28" s="2">
         <v>45113.54166666666</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -2852,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J28">
         <v>1.4</v>
@@ -2920,16 +2929,16 @@
         <v>6732774</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D29" s="2">
         <v>45114.54166666666</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -2938,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J29">
         <v>1.8</v>
@@ -3006,16 +3015,16 @@
         <v>6732775</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D30" s="2">
         <v>45115.45833333334</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3024,7 +3033,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J30">
         <v>5.5</v>
@@ -3092,16 +3101,16 @@
         <v>6732776</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D31" s="2">
         <v>45115.54166666666</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3110,7 +3119,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J31">
         <v>1.333</v>
@@ -3178,16 +3187,16 @@
         <v>6732777</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D32" s="2">
         <v>45116.49652777778</v>
       </c>
       <c r="E32" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3196,7 +3205,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J32">
         <v>1.909</v>
@@ -3264,16 +3273,16 @@
         <v>6732779</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D33" s="2">
         <v>45121.54166666666</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3282,7 +3291,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J33">
         <v>2.15</v>
@@ -3350,16 +3359,16 @@
         <v>6901957</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D34" s="2">
         <v>45123.49652777778</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3368,7 +3377,7 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J34">
         <v>3</v>
@@ -3436,16 +3445,16 @@
         <v>6732786</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D35" s="2">
         <v>45125.58333333334</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3454,7 +3463,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>4.8</v>
@@ -3522,16 +3531,16 @@
         <v>6732714</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D36" s="2">
         <v>45128.54166666666</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -3540,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J36">
         <v>1.222</v>
@@ -3608,16 +3617,16 @@
         <v>6732782</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D37" s="2">
         <v>45129.54166666666</v>
       </c>
       <c r="E37" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3626,7 +3635,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>2.375</v>
@@ -3694,16 +3703,16 @@
         <v>6732784</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D38" s="2">
         <v>45130.49652777778</v>
       </c>
       <c r="E38" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3712,7 +3721,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>3</v>
@@ -3780,16 +3789,16 @@
         <v>6732785</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D39" s="2">
         <v>45131.58333333334</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -3798,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J39">
         <v>1.666</v>
@@ -3866,16 +3875,16 @@
         <v>6732783</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D40" s="2">
         <v>45132.54166666666</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3884,7 +3893,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J40">
         <v>4.333</v>
@@ -3952,16 +3961,16 @@
         <v>6732787</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D41" s="2">
         <v>45135.54166666666</v>
       </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3970,7 +3979,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J41">
         <v>3.1</v>
@@ -4038,16 +4047,16 @@
         <v>6732788</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D42" s="2">
         <v>45136.5</v>
       </c>
       <c r="E42" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4056,7 +4065,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>2.45</v>
@@ -4124,16 +4133,16 @@
         <v>6732789</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D43" s="2">
         <v>45137.5</v>
       </c>
       <c r="E43" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4142,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J43">
         <v>1.5</v>
@@ -4210,16 +4219,16 @@
         <v>6983663</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D44" s="2">
         <v>45137.625</v>
       </c>
       <c r="E44" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4228,7 +4237,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J44">
         <v>2.1</v>
@@ -4296,16 +4305,16 @@
         <v>6732790</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D45" s="2">
         <v>45142.54166666666</v>
       </c>
       <c r="E45" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4314,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J45">
         <v>2.5</v>
@@ -4382,16 +4391,16 @@
         <v>6732791</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D46" s="2">
         <v>45143.5</v>
       </c>
       <c r="E46" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46" t="s">
         <v>33</v>
-      </c>
-      <c r="F46" t="s">
-        <v>30</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4400,7 +4409,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J46">
         <v>2</v>
@@ -4468,16 +4477,16 @@
         <v>7012025</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D47" s="2">
         <v>45144.49652777778</v>
       </c>
       <c r="E47" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4486,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J47">
         <v>3.5</v>
@@ -4554,16 +4563,16 @@
         <v>6732793</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D48" s="2">
         <v>45144.54166666666</v>
       </c>
       <c r="E48" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F48" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4572,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J48">
         <v>1.444</v>
@@ -4640,16 +4649,16 @@
         <v>7012024</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D49" s="2">
         <v>45145.54166666666</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -4658,7 +4667,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J49">
         <v>1.85</v>
@@ -4723,67 +4732,67 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6732794</v>
+        <v>6732795</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D50" s="2">
         <v>45149.54166666666</v>
       </c>
       <c r="E50" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F50" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>43</v>
+      </c>
+      <c r="J50">
+        <v>2.15</v>
+      </c>
+      <c r="K50">
+        <v>3.2</v>
+      </c>
+      <c r="L50">
         <v>3</v>
       </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50" t="s">
-        <v>40</v>
-      </c>
-      <c r="J50">
-        <v>1.25</v>
-      </c>
-      <c r="K50">
-        <v>5</v>
-      </c>
-      <c r="L50">
-        <v>9</v>
-      </c>
       <c r="M50">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="N50">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="O50">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="P50">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q50">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R50">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S50">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T50">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U50">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>0.25</v>
+        <v>1.3</v>
       </c>
       <c r="W50">
         <v>-1</v>
@@ -4792,16 +4801,16 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -4809,85 +4818,85 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6732795</v>
+        <v>6732794</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D51" s="2">
         <v>45149.54166666666</v>
       </c>
       <c r="E51" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>43</v>
+      </c>
+      <c r="J51">
+        <v>1.25</v>
+      </c>
+      <c r="K51">
+        <v>5</v>
+      </c>
+      <c r="L51">
+        <v>9</v>
+      </c>
+      <c r="M51">
+        <v>1.25</v>
+      </c>
+      <c r="N51">
+        <v>5.25</v>
+      </c>
+      <c r="O51">
+        <v>9</v>
+      </c>
+      <c r="P51">
+        <v>-1.75</v>
+      </c>
+      <c r="Q51">
+        <v>2</v>
+      </c>
+      <c r="R51">
+        <v>1.8</v>
+      </c>
+      <c r="S51">
+        <v>3</v>
+      </c>
+      <c r="T51">
+        <v>1.975</v>
+      </c>
+      <c r="U51">
+        <v>1.825</v>
+      </c>
+      <c r="V51">
+        <v>0.25</v>
+      </c>
+      <c r="W51">
+        <v>-1</v>
+      </c>
+      <c r="X51">
+        <v>-1</v>
+      </c>
+      <c r="Y51">
         <v>1</v>
       </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51" t="s">
-        <v>40</v>
-      </c>
-      <c r="J51">
-        <v>2.15</v>
-      </c>
-      <c r="K51">
-        <v>3.2</v>
-      </c>
-      <c r="L51">
-        <v>3</v>
-      </c>
-      <c r="M51">
-        <v>2.3</v>
-      </c>
-      <c r="N51">
-        <v>3.2</v>
-      </c>
-      <c r="O51">
-        <v>2.7</v>
-      </c>
-      <c r="P51">
-        <v>-0.25</v>
-      </c>
-      <c r="Q51">
-        <v>2.05</v>
-      </c>
-      <c r="R51">
-        <v>1.75</v>
-      </c>
-      <c r="S51">
-        <v>2.25</v>
-      </c>
-      <c r="T51">
-        <v>1.9</v>
-      </c>
-      <c r="U51">
-        <v>1.9</v>
-      </c>
-      <c r="V51">
-        <v>1.3</v>
-      </c>
-      <c r="W51">
-        <v>-1</v>
-      </c>
-      <c r="X51">
-        <v>-1</v>
-      </c>
-      <c r="Y51">
-        <v>1.05</v>
-      </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB51">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -4898,16 +4907,16 @@
         <v>6732796</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D52" s="2">
         <v>45151.375</v>
       </c>
       <c r="E52" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4916,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J52">
         <v>1.222</v>
@@ -4984,16 +4993,16 @@
         <v>6732797</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D53" s="2">
         <v>45151.49652777778</v>
       </c>
       <c r="E53" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -5002,7 +5011,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J53">
         <v>1.444</v>
@@ -5070,16 +5079,16 @@
         <v>6732717</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D54" s="2">
         <v>45151.58333333334</v>
       </c>
       <c r="E54" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G54">
         <v>4</v>
@@ -5088,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J54">
         <v>1.444</v>
@@ -5156,16 +5165,16 @@
         <v>6732798</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D55" s="2">
         <v>45156.54166666666</v>
       </c>
       <c r="E55" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5174,7 +5183,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J55">
         <v>2.2</v>
@@ -5242,16 +5251,16 @@
         <v>6732799</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D56" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E56" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5260,7 +5269,7 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J56">
         <v>9</v>
@@ -5328,16 +5337,16 @@
         <v>6732800</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D57" s="2">
         <v>45157.5</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5346,7 +5355,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J57">
         <v>5.5</v>
@@ -5414,16 +5423,16 @@
         <v>6732718</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D58" s="2">
         <v>45158.49652777778</v>
       </c>
       <c r="E58" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5432,7 +5441,7 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J58">
         <v>6</v>
@@ -5500,16 +5509,16 @@
         <v>6732801</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D59" s="2">
         <v>45158.54166666666</v>
       </c>
       <c r="E59" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5518,7 +5527,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J59">
         <v>2.2</v>
@@ -5586,16 +5595,16 @@
         <v>6732802</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D60" s="2">
         <v>45163.54166666666</v>
       </c>
       <c r="E60" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5604,7 +5613,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J60">
         <v>4.5</v>
@@ -5672,16 +5681,16 @@
         <v>6732803</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D61" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E61" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -5690,7 +5699,7 @@
         <v>6</v>
       </c>
       <c r="I61" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J61">
         <v>2.8</v>
@@ -5758,16 +5767,16 @@
         <v>6732804</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D62" s="2">
         <v>45164.54166666666</v>
       </c>
       <c r="E62" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5776,7 +5785,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J62">
         <v>3.6</v>
@@ -5844,16 +5853,16 @@
         <v>6732805</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D63" s="2">
         <v>45165.375</v>
       </c>
       <c r="E63" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5862,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J63">
         <v>1.222</v>
@@ -5930,16 +5939,16 @@
         <v>6732719</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D64" s="2">
         <v>45165.49652777778</v>
       </c>
       <c r="E64" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F64" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G64">
         <v>4</v>
@@ -5948,7 +5957,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J64">
         <v>1.25</v>
@@ -6016,16 +6025,16 @@
         <v>7143716</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D65" s="2">
         <v>45171.29166666666</v>
       </c>
       <c r="E65" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6034,7 +6043,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J65">
         <v>12</v>
@@ -6102,16 +6111,16 @@
         <v>6732807</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D66" s="2">
         <v>45171.375</v>
       </c>
       <c r="E66" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6120,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J66">
         <v>1.3</v>
@@ -6188,16 +6197,16 @@
         <v>6732808</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D67" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F67" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6206,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J67">
         <v>1.7</v>
@@ -6274,16 +6283,16 @@
         <v>6732809</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D68" s="2">
         <v>45172.49652777778</v>
       </c>
       <c r="E68" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6292,7 +6301,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J68">
         <v>1.833</v>
@@ -6360,16 +6369,16 @@
         <v>6732720</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D69" s="2">
         <v>45172.5</v>
       </c>
       <c r="E69" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6378,7 +6387,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J69">
         <v>1.125</v>
@@ -6446,16 +6455,16 @@
         <v>7202207</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D70" s="2">
         <v>45185.375</v>
       </c>
       <c r="E70" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6464,7 +6473,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J70">
         <v>4</v>
@@ -6532,16 +6541,16 @@
         <v>6732812</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D71" s="2">
         <v>45185.5</v>
       </c>
       <c r="E71" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F71" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6550,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J71">
         <v>2.5</v>
@@ -6618,16 +6627,16 @@
         <v>6732813</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D72" s="2">
         <v>45186.375</v>
       </c>
       <c r="E72" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F72" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6636,7 +6645,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J72">
         <v>1.285</v>
@@ -6704,16 +6713,16 @@
         <v>6732721</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D73" s="2">
         <v>45186.49652777778</v>
       </c>
       <c r="E73" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -6722,7 +6731,7 @@
         <v>6</v>
       </c>
       <c r="I73" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J73">
         <v>6</v>
@@ -6790,16 +6799,16 @@
         <v>6732814</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D74" s="2">
         <v>45191.5</v>
       </c>
       <c r="E74" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6808,7 +6817,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J74">
         <v>1.8</v>
@@ -6876,16 +6885,16 @@
         <v>6732815</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D75" s="2">
         <v>45192.375</v>
       </c>
       <c r="E75" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -6894,7 +6903,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J75">
         <v>2.375</v>
@@ -6962,16 +6971,16 @@
         <v>6732816</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D76" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E76" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F76" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -6980,7 +6989,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J76">
         <v>1.125</v>
@@ -7048,16 +7057,16 @@
         <v>6732817</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D77" s="2">
         <v>45193.375</v>
       </c>
       <c r="E77" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G77">
         <v>3</v>
@@ -7066,7 +7075,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J77">
         <v>2.25</v>
@@ -7134,16 +7143,16 @@
         <v>6732722</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D78" s="2">
         <v>45193.49652777778</v>
       </c>
       <c r="E78" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7152,7 +7161,7 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J78">
         <v>1.4</v>
@@ -7220,16 +7229,16 @@
         <v>6732820</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D79" s="2">
         <v>45197.54166666666</v>
       </c>
       <c r="E79" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7238,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J79">
         <v>1.6</v>
@@ -7306,16 +7315,16 @@
         <v>6732818</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D80" s="2">
         <v>45198.5</v>
       </c>
       <c r="E80" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7324,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J80">
         <v>1.4</v>
@@ -7392,17 +7401,17 @@
         <v>6732723</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D81" s="2">
         <v>45199.375</v>
       </c>
       <c r="E81" t="s">
+        <v>38</v>
+      </c>
+      <c r="F81" t="s">
         <v>35</v>
       </c>
-      <c r="F81" t="s">
-        <v>32</v>
-      </c>
       <c r="G81">
         <v>0</v>
       </c>
@@ -7410,7 +7419,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J81">
         <v>5</v>
@@ -7478,16 +7487,16 @@
         <v>6732819</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D82" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E82" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F82" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -7496,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J82">
         <v>2.2</v>
@@ -7564,16 +7573,16 @@
         <v>6732823</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D83" s="2">
         <v>45206.375</v>
       </c>
       <c r="E83" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7582,7 +7591,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J83">
         <v>1.65</v>
@@ -7650,16 +7659,16 @@
         <v>6732824</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D84" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F84" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7668,7 +7677,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J84">
         <v>1.909</v>
@@ -7736,16 +7745,16 @@
         <v>6732825</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D85" s="2">
         <v>45206.54166666666</v>
       </c>
       <c r="E85" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7754,7 +7763,7 @@
         <v>3</v>
       </c>
       <c r="I85" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J85">
         <v>4.5</v>
@@ -7822,16 +7831,16 @@
         <v>7299034</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D86" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E86" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7840,7 +7849,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J86">
         <v>1.45</v>
@@ -7908,16 +7917,16 @@
         <v>6732724</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D87" s="2">
         <v>45207.49652777778</v>
       </c>
       <c r="E87" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7926,7 +7935,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J87">
         <v>1.909</v>
@@ -7994,16 +8003,16 @@
         <v>6732826</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D88" s="2">
         <v>45219.5</v>
       </c>
       <c r="E88" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8012,7 +8021,7 @@
         <v>2</v>
       </c>
       <c r="I88" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J88">
         <v>2.25</v>
@@ -8080,16 +8089,16 @@
         <v>6732827</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D89" s="2">
         <v>45220.375</v>
       </c>
       <c r="E89" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -8098,7 +8107,7 @@
         <v>2</v>
       </c>
       <c r="I89" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J89">
         <v>6</v>
@@ -8166,17 +8175,17 @@
         <v>7326568</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D90" s="2">
         <v>45220.375</v>
       </c>
       <c r="E90" t="s">
+        <v>37</v>
+      </c>
+      <c r="F90" t="s">
         <v>34</v>
       </c>
-      <c r="F90" t="s">
-        <v>31</v>
-      </c>
       <c r="G90">
         <v>0</v>
       </c>
@@ -8184,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J90">
         <v>2.375</v>
@@ -8252,16 +8261,16 @@
         <v>6732828</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D91" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E91" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8270,7 +8279,7 @@
         <v>2</v>
       </c>
       <c r="I91" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J91">
         <v>2.625</v>
@@ -8338,16 +8347,16 @@
         <v>6732725</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D92" s="2">
         <v>45221.49652777778</v>
       </c>
       <c r="E92" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -8356,7 +8365,7 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J92">
         <v>1.571</v>
@@ -8424,16 +8433,16 @@
         <v>7216318</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D93" s="2">
         <v>45224.5</v>
       </c>
       <c r="E93" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8442,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J93">
         <v>4.75</v>
@@ -8510,16 +8519,16 @@
         <v>6732811</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D94" s="2">
         <v>45224.52083333334</v>
       </c>
       <c r="E94" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -8528,7 +8537,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J94">
         <v>3.1</v>
@@ -8596,16 +8605,16 @@
         <v>6732835</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D95" s="2">
         <v>45228.41666666666</v>
       </c>
       <c r="E95" t="s">
+        <v>40</v>
+      </c>
+      <c r="F95" t="s">
         <v>37</v>
-      </c>
-      <c r="F95" t="s">
-        <v>34</v>
       </c>
       <c r="G95">
         <v>4</v>
@@ -8614,7 +8623,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J95">
         <v>2.5</v>
@@ -8682,16 +8691,16 @@
         <v>7259250</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D96" s="2">
         <v>45229.54166666666</v>
       </c>
       <c r="E96" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8700,7 +8709,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J96">
         <v>3.6</v>
@@ -8768,16 +8777,16 @@
         <v>6732831</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D97" s="2">
         <v>45234.33333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8786,7 +8795,7 @@
         <v>3</v>
       </c>
       <c r="I97" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J97">
         <v>5</v>
@@ -8854,16 +8863,16 @@
         <v>6732833</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D98" s="2">
         <v>45235.41666666666</v>
       </c>
       <c r="E98" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8872,7 +8881,7 @@
         <v>2</v>
       </c>
       <c r="I98" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J98">
         <v>6.5</v>
@@ -8940,16 +8949,16 @@
         <v>6732832</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D99" s="2">
         <v>45235.53819444445</v>
       </c>
       <c r="E99" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8958,7 +8967,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J99">
         <v>2.625</v>
@@ -9023,49 +9032,49 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6732727</v>
+        <v>6732836</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D100" s="2">
         <v>45242.41319444445</v>
       </c>
       <c r="E100" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J100">
-        <v>1.285</v>
+        <v>1.222</v>
       </c>
       <c r="K100">
         <v>5.5</v>
       </c>
       <c r="L100">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="M100">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="N100">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="O100">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P100">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q100">
         <v>1.9</v>
@@ -9074,16 +9083,16 @@
         <v>1.9</v>
       </c>
       <c r="S100">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T100">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U100">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V100">
-        <v>0.3</v>
+        <v>0.363</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9092,16 +9101,16 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z100">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB100">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9109,82 +9118,82 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7465686</v>
+        <v>6732837</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D101" s="2">
         <v>45242.41319444445</v>
       </c>
       <c r="E101" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G101">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I101" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J101">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="K101">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L101">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="M101">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="N101">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O101">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="P101">
         <v>0.25</v>
       </c>
       <c r="Q101">
+        <v>2</v>
+      </c>
+      <c r="R101">
         <v>1.8</v>
       </c>
-      <c r="R101">
-        <v>2</v>
-      </c>
       <c r="S101">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T101">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U101">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V101">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y101">
+        <v>-1</v>
+      </c>
+      <c r="Z101">
         <v>0.8</v>
       </c>
-      <c r="Z101">
-        <v>-1</v>
-      </c>
       <c r="AA101">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB101">
         <v>-1</v>
@@ -9195,85 +9204,85 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6732834</v>
+        <v>7465686</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D102" s="2">
         <v>45242.41319444445</v>
       </c>
       <c r="E102" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F102" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J102">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="K102">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="L102">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="M102">
-        <v>1.45</v>
+        <v>2.55</v>
       </c>
       <c r="N102">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O102">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="P102">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q102">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="R102">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S102">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T102">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U102">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V102">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="W102">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z102">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB102">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -9281,10 +9290,10 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6732837</v>
+        <v>6732727</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D103" s="2">
         <v>45242.41319444445</v>
@@ -9293,73 +9302,73 @@
         <v>35</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J103">
-        <v>3.6</v>
+        <v>1.285</v>
       </c>
       <c r="K103">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="L103">
+        <v>6.5</v>
+      </c>
+      <c r="M103">
+        <v>1.3</v>
+      </c>
+      <c r="N103">
+        <v>5.5</v>
+      </c>
+      <c r="O103">
+        <v>6</v>
+      </c>
+      <c r="P103">
+        <v>-1.5</v>
+      </c>
+      <c r="Q103">
+        <v>1.9</v>
+      </c>
+      <c r="R103">
+        <v>1.9</v>
+      </c>
+      <c r="S103">
+        <v>2.75</v>
+      </c>
+      <c r="T103">
         <v>1.8</v>
       </c>
-      <c r="M103">
-        <v>3</v>
-      </c>
-      <c r="N103">
-        <v>3.6</v>
-      </c>
-      <c r="O103">
-        <v>2</v>
-      </c>
-      <c r="P103">
-        <v>0.25</v>
-      </c>
-      <c r="Q103">
-        <v>2</v>
-      </c>
-      <c r="R103">
-        <v>1.8</v>
-      </c>
-      <c r="S103">
-        <v>2.5</v>
-      </c>
-      <c r="T103">
-        <v>1.975</v>
-      </c>
       <c r="U103">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V103">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
+        <v>-1</v>
+      </c>
+      <c r="Y103">
+        <v>-1</v>
+      </c>
+      <c r="Z103">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA103">
+        <v>-1</v>
+      </c>
+      <c r="AB103">
         <v>1</v>
-      </c>
-      <c r="Y103">
-        <v>-1</v>
-      </c>
-      <c r="Z103">
-        <v>0.8</v>
-      </c>
-      <c r="AA103">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB103">
-        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:28">
@@ -9367,85 +9376,85 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6732836</v>
+        <v>6732834</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D104" s="2">
         <v>45242.41319444445</v>
       </c>
       <c r="E104" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G104">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H104">
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J104">
-        <v>1.222</v>
+        <v>1.25</v>
       </c>
       <c r="K104">
         <v>5.5</v>
       </c>
       <c r="L104">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="M104">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="N104">
         <v>4.5</v>
       </c>
       <c r="O104">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P104">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="Q104">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="R104">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S104">
         <v>2.5</v>
       </c>
       <c r="T104">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U104">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V104">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA104">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9456,16 +9465,16 @@
         <v>7862033</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D105" s="2">
         <v>45352.58333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9474,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J105">
         <v>4.333</v>
@@ -9542,16 +9551,16 @@
         <v>7862902</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D106" s="2">
         <v>45353.33333333334</v>
       </c>
       <c r="E106" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9560,7 +9569,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J106">
         <v>7.5</v>
@@ -9628,16 +9637,16 @@
         <v>7862903</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D107" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E107" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9646,7 +9655,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -9714,16 +9723,16 @@
         <v>7862034</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D108" s="2">
         <v>45354.33333333334</v>
       </c>
       <c r="E108" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9732,7 +9741,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J108">
         <v>6.5</v>
@@ -9800,16 +9809,16 @@
         <v>7862904</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D109" s="2">
         <v>45354.5625</v>
       </c>
       <c r="E109" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9818,7 +9827,7 @@
         <v>3</v>
       </c>
       <c r="I109" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J109">
         <v>1.8</v>
@@ -9886,16 +9895,16 @@
         <v>7862905</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D110" s="2">
         <v>45360.33333333334</v>
       </c>
       <c r="E110" t="s">
+        <v>40</v>
+      </c>
+      <c r="F110" t="s">
         <v>37</v>
-      </c>
-      <c r="F110" t="s">
-        <v>34</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9904,7 +9913,7 @@
         <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J110">
         <v>2.1</v>
@@ -9972,16 +9981,16 @@
         <v>7862906</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D111" s="2">
         <v>45360.41666666666</v>
       </c>
       <c r="E111" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F111" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -9990,7 +9999,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J111">
         <v>2</v>
@@ -10058,16 +10067,16 @@
         <v>7862907</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D112" s="2">
         <v>45361.33333333334</v>
       </c>
       <c r="E112" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -10076,7 +10085,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J112">
         <v>1.4</v>
@@ -10144,16 +10153,16 @@
         <v>7862908</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D113" s="2">
         <v>45361.41666666666</v>
       </c>
       <c r="E113" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F113" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10162,7 +10171,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J113">
         <v>1.2</v>
@@ -10230,16 +10239,16 @@
         <v>7862035</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D114" s="2">
         <v>45361.5625</v>
       </c>
       <c r="E114" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G114">
         <v>3</v>
@@ -10248,7 +10257,7 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J114">
         <v>1.3</v>
@@ -10316,16 +10325,16 @@
         <v>7862909</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D115" s="2">
         <v>45363.54166666666</v>
       </c>
       <c r="E115" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -10334,7 +10343,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J115">
         <v>2</v>
@@ -10402,16 +10411,16 @@
         <v>7862910</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D116" s="2">
         <v>45364.5</v>
       </c>
       <c r="E116" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F116" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10420,7 +10429,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J116">
         <v>2.3</v>
@@ -10485,82 +10494,82 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7862911</v>
+        <v>7862036</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D117" s="2">
         <v>45364.54166666666</v>
       </c>
       <c r="E117" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F117" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I117" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J117">
-        <v>2.15</v>
+        <v>8</v>
       </c>
       <c r="K117">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="L117">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="M117">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="N117">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="O117">
-        <v>3</v>
+        <v>1.333</v>
       </c>
       <c r="P117">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q117">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="R117">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="S117">
         <v>2.5</v>
       </c>
       <c r="T117">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="U117">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V117">
         <v>-1</v>
       </c>
       <c r="W117">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Y117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA117">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB117">
         <v>-1</v>
@@ -10571,82 +10580,82 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7862036</v>
+        <v>7862911</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D118" s="2">
         <v>45364.54166666666</v>
       </c>
       <c r="E118" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J118">
-        <v>8</v>
+        <v>2.15</v>
       </c>
       <c r="K118">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="L118">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="M118">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="N118">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="O118">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="P118">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="Q118">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="R118">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="S118">
         <v>2.5</v>
       </c>
       <c r="T118">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="U118">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V118">
         <v>-1</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X118">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z118">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA118">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB118">
         <v>-1</v>
@@ -10660,16 +10669,16 @@
         <v>7862037</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D119" s="2">
         <v>45364.63541666666</v>
       </c>
       <c r="E119" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10678,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J119">
         <v>7.5</v>
@@ -10746,16 +10755,16 @@
         <v>7862038</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D120" s="2">
         <v>45367.375</v>
       </c>
       <c r="E120" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10764,7 +10773,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J120">
         <v>2.5</v>
@@ -10832,16 +10841,16 @@
         <v>7862912</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D121" s="2">
         <v>45367.4375</v>
       </c>
       <c r="E121" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F121" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -10850,7 +10859,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J121">
         <v>1.2</v>
@@ -10918,16 +10927,16 @@
         <v>7862913</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D122" s="2">
         <v>45368.375</v>
       </c>
       <c r="E122" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -10936,7 +10945,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J122">
         <v>2.2</v>
@@ -11004,16 +11013,16 @@
         <v>7862914</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D123" s="2">
         <v>45368.41666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11022,7 +11031,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J123">
         <v>2.5</v>
@@ -11090,16 +11099,16 @@
         <v>7862039</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D124" s="2">
         <v>45368.5625</v>
       </c>
       <c r="E124" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11108,7 +11117,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J124">
         <v>1.615</v>
@@ -11176,16 +11185,16 @@
         <v>7862915</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D125" s="2">
         <v>45380.58333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F125" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -11194,7 +11203,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J125">
         <v>2.6</v>
@@ -11262,16 +11271,16 @@
         <v>7862916</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D126" s="2">
         <v>45381.41666666666</v>
       </c>
       <c r="E126" t="s">
+        <v>37</v>
+      </c>
+      <c r="F126" t="s">
         <v>34</v>
-      </c>
-      <c r="F126" t="s">
-        <v>31</v>
       </c>
       <c r="G126">
         <v>4</v>
@@ -11280,7 +11289,7 @@
         <v>2</v>
       </c>
       <c r="I126" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J126">
         <v>2.5</v>
@@ -11348,16 +11357,16 @@
         <v>7862917</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D127" s="2">
         <v>45381.5</v>
       </c>
       <c r="E127" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -11366,7 +11375,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J127">
         <v>1.533</v>
@@ -11434,16 +11443,16 @@
         <v>7862040</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D128" s="2">
         <v>45382.375</v>
       </c>
       <c r="E128" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F128" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11452,7 +11461,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J128">
         <v>2.45</v>
@@ -11520,16 +11529,16 @@
         <v>7862042</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D129" s="2">
         <v>45382.51736111111</v>
       </c>
       <c r="E129" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -11538,7 +11547,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J129">
         <v>4</v>
@@ -11606,16 +11615,16 @@
         <v>7862918</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D130" s="2">
         <v>45388.375</v>
       </c>
       <c r="E130" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11624,7 +11633,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J130">
         <v>4.333</v>
@@ -11692,16 +11701,16 @@
         <v>7862919</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D131" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11710,7 +11719,7 @@
         <v>2</v>
       </c>
       <c r="I131" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J131">
         <v>2.25</v>
@@ -11778,17 +11787,17 @@
         <v>7865009</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D132" s="2">
         <v>45389.29166666666</v>
       </c>
       <c r="E132" t="s">
+        <v>41</v>
+      </c>
+      <c r="F132" t="s">
         <v>38</v>
       </c>
-      <c r="F132" t="s">
-        <v>35</v>
-      </c>
       <c r="G132">
         <v>0</v>
       </c>
@@ -11796,7 +11805,7 @@
         <v>2</v>
       </c>
       <c r="I132" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J132">
         <v>1.833</v>
@@ -11864,16 +11873,16 @@
         <v>7862043</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D133" s="2">
         <v>45389.375</v>
       </c>
       <c r="E133" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G133">
         <v>3</v>
@@ -11882,7 +11891,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J133">
         <v>1.666</v>
@@ -11950,16 +11959,16 @@
         <v>7862920</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D134" s="2">
         <v>45389.51736111111</v>
       </c>
       <c r="E134" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -11968,7 +11977,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J134">
         <v>2.75</v>
@@ -12036,16 +12045,16 @@
         <v>7862921</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D135" s="2">
         <v>45391.5</v>
       </c>
       <c r="E135" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12054,7 +12063,7 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J135">
         <v>1.75</v>
@@ -12122,16 +12131,16 @@
         <v>7862922</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D136" s="2">
         <v>45392.5</v>
       </c>
       <c r="E136" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -12140,7 +12149,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J136">
         <v>2.7</v>
@@ -12208,16 +12217,16 @@
         <v>7862044</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D137" s="2">
         <v>45392.5</v>
       </c>
       <c r="E137" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -12226,7 +12235,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J137">
         <v>2.1</v>
@@ -12294,16 +12303,16 @@
         <v>7862923</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D138" s="2">
         <v>45392.54166666666</v>
       </c>
       <c r="E138" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F138" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G138">
         <v>3</v>
@@ -12312,7 +12321,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J138">
         <v>1.333</v>
@@ -12380,16 +12389,16 @@
         <v>7865008</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D139" s="2">
         <v>45392.58333333334</v>
       </c>
       <c r="E139" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F139" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -12398,7 +12407,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J139">
         <v>1.333</v>
@@ -12466,16 +12475,16 @@
         <v>7862924</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D140" s="2">
         <v>45395.375</v>
       </c>
       <c r="E140" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -12484,7 +12493,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J140">
         <v>2.5</v>
@@ -12552,16 +12561,16 @@
         <v>7862045</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D141" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E141" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -12570,7 +12579,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J141">
         <v>3.4</v>
@@ -12638,16 +12647,16 @@
         <v>7862925</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D142" s="2">
         <v>45396.29166666666</v>
       </c>
       <c r="E142" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F142" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -12656,7 +12665,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J142">
         <v>3.75</v>
@@ -12724,16 +12733,16 @@
         <v>7862046</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D143" s="2">
         <v>45396.375</v>
       </c>
       <c r="E143" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -12742,7 +12751,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J143">
         <v>3.75</v>
@@ -12810,16 +12819,16 @@
         <v>7862047</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D144" s="2">
         <v>45402.375</v>
       </c>
       <c r="E144" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -12828,7 +12837,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J144">
         <v>1.444</v>
@@ -12896,16 +12905,16 @@
         <v>7862927</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D145" s="2">
         <v>45402.5</v>
       </c>
       <c r="E145" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12914,7 +12923,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -12982,16 +12991,16 @@
         <v>7862928</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D146" s="2">
         <v>45403.29166666666</v>
       </c>
       <c r="E146" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13000,7 +13009,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J146">
         <v>1.8</v>
@@ -13068,16 +13077,16 @@
         <v>7862929</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D147" s="2">
         <v>45403.375</v>
       </c>
       <c r="E147" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G147">
         <v>2</v>
@@ -13086,7 +13095,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J147">
         <v>1.4</v>
@@ -13154,16 +13163,16 @@
         <v>7862048</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D148" s="2">
         <v>45403.51736111111</v>
       </c>
       <c r="E148" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F148" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13172,7 +13181,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J148">
         <v>1.333</v>
@@ -13240,16 +13249,16 @@
         <v>7862049</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D149" s="2">
         <v>45405.54166666666</v>
       </c>
       <c r="E149" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13258,7 +13267,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J149">
         <v>1.65</v>
@@ -13326,16 +13335,16 @@
         <v>7862930</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D150" s="2">
         <v>45406.5</v>
       </c>
       <c r="E150" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F150" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -13344,7 +13353,7 @@
         <v>2</v>
       </c>
       <c r="I150" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J150">
         <v>4</v>
@@ -13412,16 +13421,16 @@
         <v>7862932</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D151" s="2">
         <v>45406.54166666666</v>
       </c>
       <c r="E151" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -13430,7 +13439,7 @@
         <v>3</v>
       </c>
       <c r="I151" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J151">
         <v>1.4</v>
@@ -13498,16 +13507,16 @@
         <v>7862050</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D152" s="2">
         <v>45406.58333333334</v>
       </c>
       <c r="E152" t="s">
+        <v>35</v>
+      </c>
+      <c r="F152" t="s">
         <v>32</v>
-      </c>
-      <c r="F152" t="s">
-        <v>29</v>
       </c>
       <c r="G152">
         <v>4</v>
@@ -13516,7 +13525,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J152">
         <v>1.363</v>
@@ -13584,16 +13593,16 @@
         <v>7862933</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D153" s="2">
         <v>45409.375</v>
       </c>
       <c r="E153" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F153" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G153">
         <v>2</v>
@@ -13602,7 +13611,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J153">
         <v>2.875</v>
@@ -13670,16 +13679,16 @@
         <v>7862934</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D154" s="2">
         <v>45410.29166666666</v>
       </c>
       <c r="E154" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F154" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -13688,7 +13697,7 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J154">
         <v>2.3</v>
@@ -13756,16 +13765,16 @@
         <v>7862935</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D155" s="2">
         <v>45410.375</v>
       </c>
       <c r="E155" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13774,7 +13783,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J155">
         <v>4.25</v>
@@ -13842,16 +13851,16 @@
         <v>7862051</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D156" s="2">
         <v>45410.45833333334</v>
       </c>
       <c r="E156" t="s">
+        <v>38</v>
+      </c>
+      <c r="F156" t="s">
         <v>35</v>
-      </c>
-      <c r="F156" t="s">
-        <v>32</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13860,7 +13869,7 @@
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J156">
         <v>6</v>
@@ -13928,16 +13937,16 @@
         <v>7862936</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D157" s="2">
         <v>45410.54166666666</v>
       </c>
       <c r="E157" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F157" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -13946,7 +13955,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J157">
         <v>5</v>
@@ -14014,16 +14023,16 @@
         <v>7862937</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D158" s="2">
         <v>45413.375</v>
       </c>
       <c r="E158" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F158" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14032,7 +14041,7 @@
         <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J158">
         <v>2.75</v>
@@ -14100,16 +14109,16 @@
         <v>7862052</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D159" s="2">
         <v>45413.45833333334</v>
       </c>
       <c r="E159" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -14118,7 +14127,7 @@
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J159">
         <v>1.25</v>
@@ -14186,16 +14195,16 @@
         <v>7862938</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D160" s="2">
         <v>45414.5</v>
       </c>
       <c r="E160" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F160" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G160">
         <v>2</v>
@@ -14204,7 +14213,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J160">
         <v>2.35</v>
@@ -14272,16 +14281,16 @@
         <v>7862939</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D161" s="2">
         <v>45414.5</v>
       </c>
       <c r="E161" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F161" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G161">
         <v>3</v>
@@ -14290,7 +14299,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J161">
         <v>4.1</v>
@@ -14358,16 +14367,16 @@
         <v>7862053</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D162" s="2">
         <v>45414.54166666666</v>
       </c>
       <c r="E162" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -14376,7 +14385,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J162">
         <v>1.869</v>
@@ -14444,16 +14453,16 @@
         <v>7862940</v>
       </c>
       <c r="C163" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D163" s="2">
         <v>45423.375</v>
       </c>
       <c r="E163" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F163" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14462,7 +14471,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J163">
         <v>2.375</v>
@@ -14530,16 +14539,16 @@
         <v>7862054</v>
       </c>
       <c r="C164" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D164" s="2">
         <v>45423.45833333334</v>
       </c>
       <c r="E164" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F164" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -14548,7 +14557,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J164">
         <v>2.15</v>
@@ -14616,16 +14625,16 @@
         <v>7862941</v>
       </c>
       <c r="C165" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D165" s="2">
         <v>45423.54166666666</v>
       </c>
       <c r="E165" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F165" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -14634,7 +14643,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J165">
         <v>4.25</v>
@@ -14702,16 +14711,16 @@
         <v>7862055</v>
       </c>
       <c r="C166" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D166" s="2">
         <v>45424.41666666666</v>
       </c>
       <c r="E166" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14720,7 +14729,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J166">
         <v>3.75</v>
@@ -14788,16 +14797,16 @@
         <v>7862942</v>
       </c>
       <c r="C167" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D167" s="2">
         <v>45424.51736111111</v>
       </c>
       <c r="E167" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F167" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -14806,7 +14815,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J167">
         <v>2.05</v>
@@ -14874,16 +14883,16 @@
         <v>7862056</v>
       </c>
       <c r="C168" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D168" s="2">
         <v>45429.54166666666</v>
       </c>
       <c r="E168" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14892,7 +14901,7 @@
         <v>1</v>
       </c>
       <c r="I168" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J168">
         <v>2.875</v>
@@ -14960,16 +14969,16 @@
         <v>7862943</v>
       </c>
       <c r="C169" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D169" s="2">
         <v>45430.41666666666</v>
       </c>
       <c r="E169" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -14978,7 +14987,7 @@
         <v>3</v>
       </c>
       <c r="I169" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J169">
         <v>3.4</v>
@@ -15046,16 +15055,16 @@
         <v>7862944</v>
       </c>
       <c r="C170" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D170" s="2">
         <v>45430.5</v>
       </c>
       <c r="E170" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F170" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -15064,7 +15073,7 @@
         <v>2</v>
       </c>
       <c r="I170" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J170">
         <v>2.3</v>
@@ -15132,16 +15141,16 @@
         <v>7862945</v>
       </c>
       <c r="C171" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D171" s="2">
         <v>45431.45833333334</v>
       </c>
       <c r="E171" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F171" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -15150,7 +15159,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J171">
         <v>2.5</v>
@@ -15218,16 +15227,16 @@
         <v>7862057</v>
       </c>
       <c r="C172" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D172" s="2">
         <v>45431.51736111111</v>
       </c>
       <c r="E172" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F172" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -15236,7 +15245,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J172">
         <v>1.533</v>
@@ -15294,6 +15303,201 @@
       </c>
       <c r="AB172">
         <v>0.825</v>
+      </c>
+    </row>
+    <row r="173" spans="1:28">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>27</v>
+      </c>
+      <c r="C173" t="s">
+        <v>30</v>
+      </c>
+      <c r="D173" s="2">
+        <v>45436.54166666666</v>
+      </c>
+      <c r="E173" t="s">
+        <v>38</v>
+      </c>
+      <c r="F173" t="s">
+        <v>41</v>
+      </c>
+      <c r="J173">
+        <v>1.909</v>
+      </c>
+      <c r="K173">
+        <v>3.3</v>
+      </c>
+      <c r="L173">
+        <v>3.5</v>
+      </c>
+      <c r="M173">
+        <v>2.2</v>
+      </c>
+      <c r="N173">
+        <v>3.3</v>
+      </c>
+      <c r="O173">
+        <v>2.8</v>
+      </c>
+      <c r="P173">
+        <v>-0.25</v>
+      </c>
+      <c r="Q173">
+        <v>1.975</v>
+      </c>
+      <c r="R173">
+        <v>1.825</v>
+      </c>
+      <c r="S173">
+        <v>2.25</v>
+      </c>
+      <c r="T173">
+        <v>1.95</v>
+      </c>
+      <c r="U173">
+        <v>1.85</v>
+      </c>
+      <c r="V173">
+        <v>0</v>
+      </c>
+      <c r="W173">
+        <v>0</v>
+      </c>
+      <c r="X173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:28">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>28</v>
+      </c>
+      <c r="C174" t="s">
+        <v>30</v>
+      </c>
+      <c r="D174" s="2">
+        <v>45437.41666666666</v>
+      </c>
+      <c r="E174" t="s">
+        <v>37</v>
+      </c>
+      <c r="F174" t="s">
+        <v>31</v>
+      </c>
+      <c r="J174">
+        <v>1.833</v>
+      </c>
+      <c r="K174">
+        <v>3.2</v>
+      </c>
+      <c r="L174">
+        <v>3.9</v>
+      </c>
+      <c r="M174">
+        <v>1.666</v>
+      </c>
+      <c r="N174">
+        <v>3.3</v>
+      </c>
+      <c r="O174">
+        <v>4.75</v>
+      </c>
+      <c r="P174">
+        <v>-0.75</v>
+      </c>
+      <c r="Q174">
+        <v>1.925</v>
+      </c>
+      <c r="R174">
+        <v>1.875</v>
+      </c>
+      <c r="S174">
+        <v>2.25</v>
+      </c>
+      <c r="T174">
+        <v>1.9</v>
+      </c>
+      <c r="U174">
+        <v>1.9</v>
+      </c>
+      <c r="V174">
+        <v>0</v>
+      </c>
+      <c r="W174">
+        <v>0</v>
+      </c>
+      <c r="X174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:28">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>29</v>
+      </c>
+      <c r="C175" t="s">
+        <v>30</v>
+      </c>
+      <c r="D175" s="2">
+        <v>45437.54166666666</v>
+      </c>
+      <c r="E175" t="s">
+        <v>34</v>
+      </c>
+      <c r="F175" t="s">
+        <v>40</v>
+      </c>
+      <c r="J175">
+        <v>2.75</v>
+      </c>
+      <c r="K175">
+        <v>3.2</v>
+      </c>
+      <c r="L175">
+        <v>2.3</v>
+      </c>
+      <c r="M175">
+        <v>2.55</v>
+      </c>
+      <c r="N175">
+        <v>3.2</v>
+      </c>
+      <c r="O175">
+        <v>2.5</v>
+      </c>
+      <c r="P175">
+        <v>0</v>
+      </c>
+      <c r="Q175">
+        <v>1.925</v>
+      </c>
+      <c r="R175">
+        <v>1.875</v>
+      </c>
+      <c r="S175">
+        <v>2.25</v>
+      </c>
+      <c r="T175">
+        <v>1.925</v>
+      </c>
+      <c r="U175">
+        <v>1.875</v>
+      </c>
+      <c r="V175">
+        <v>0</v>
+      </c>
+      <c r="W175">
+        <v>0</v>
+      </c>
+      <c r="X175">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Lithuania A Lyga/Lithuania A Lyga.xlsx
+++ b/Lithuania A Lyga/Lithuania A Lyga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -97,13 +97,10 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7865007</t>
+    <t>7862948</t>
   </si>
   <si>
-    <t>7862946</t>
-  </si>
-  <si>
-    <t>7862947</t>
+    <t>7862058</t>
   </si>
   <si>
     <t>Lithuania A Lyga</t>
@@ -510,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB175"/>
+  <dimension ref="A1:AB174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,16 +604,16 @@
         <v>6227963</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
         <v>45079.5</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -625,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J2">
         <v>5.5</v>
@@ -693,16 +690,16 @@
         <v>6227964</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>45080.375</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -711,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>1.85</v>
@@ -779,16 +776,16 @@
         <v>6227965</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
         <v>45080.45833333334</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -797,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J4">
         <v>2.4</v>
@@ -865,16 +862,16 @@
         <v>6227966</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
         <v>45080.54166666666</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -883,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -951,16 +948,16 @@
         <v>6227242</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>45081.49652777778</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -969,7 +966,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J6">
         <v>1.571</v>
@@ -1037,16 +1034,16 @@
         <v>6227967</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2">
         <v>45083.5</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1055,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>2.3</v>
@@ -1123,16 +1120,16 @@
         <v>6227968</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
         <v>45083.58333333334</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1141,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J8">
         <v>4.333</v>
@@ -1209,16 +1206,16 @@
         <v>6227969</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2">
         <v>45084.5</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1227,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J9">
         <v>5.5</v>
@@ -1295,16 +1292,16 @@
         <v>6227970</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
         <v>45084.54166666666</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1313,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J10">
         <v>3.3</v>
@@ -1381,16 +1378,16 @@
         <v>6227243</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2">
         <v>45084.58333333334</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1399,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J11">
         <v>3.25</v>
@@ -1467,16 +1464,16 @@
         <v>6227971</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2">
         <v>45087.45833333334</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1485,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J12">
         <v>2.75</v>
@@ -1553,16 +1550,16 @@
         <v>6227972</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2">
         <v>45087.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1571,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J13">
         <v>1.533</v>
@@ -1639,16 +1636,16 @@
         <v>6227244</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
         <v>45088.41666666666</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1657,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J14">
         <v>1.333</v>
@@ -1725,16 +1722,16 @@
         <v>6227973</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2">
         <v>45088.49652777778</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -1743,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>1.3</v>
@@ -1811,16 +1808,16 @@
         <v>6732710</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2">
         <v>45099.54166666666</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1829,7 +1826,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J16">
         <v>11</v>
@@ -1897,16 +1894,16 @@
         <v>6732766</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2">
         <v>45099.58333333334</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1915,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J17">
         <v>1.363</v>
@@ -1983,16 +1980,16 @@
         <v>6732767</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2">
         <v>45101.29166666666</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2001,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J18">
         <v>1.727</v>
@@ -2069,16 +2066,16 @@
         <v>6732768</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2">
         <v>45101.54166666666</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2087,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>1.4</v>
@@ -2155,16 +2152,16 @@
         <v>6732769</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2">
         <v>45102.5</v>
       </c>
       <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" t="s">
         <v>33</v>
-      </c>
-      <c r="F20" t="s">
-        <v>34</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2173,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J20">
         <v>6</v>
@@ -2241,16 +2238,16 @@
         <v>6732713</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2">
         <v>45104.54166666666</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2259,7 +2256,7 @@
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J21">
         <v>3.25</v>
@@ -2327,16 +2324,16 @@
         <v>6732778</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2">
         <v>45105.54166666666</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2345,7 +2342,7 @@
         <v>3</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J22">
         <v>1.571</v>
@@ -2413,16 +2410,16 @@
         <v>6732770</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2">
         <v>45107.5</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2431,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>1.444</v>
@@ -2499,16 +2496,16 @@
         <v>6732771</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="2">
         <v>45108.5</v>
       </c>
       <c r="E24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" t="s">
         <v>31</v>
-      </c>
-      <c r="F24" t="s">
-        <v>32</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2517,7 +2514,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>3.6</v>
@@ -2585,16 +2582,16 @@
         <v>6732772</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2">
         <v>45109.49652777778</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -2603,7 +2600,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>3.1</v>
@@ -2668,64 +2665,64 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6732711</v>
+        <v>6732773</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="2">
         <v>45109.58333333334</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>1</v>
       </c>
-      <c r="H26">
-        <v>4</v>
-      </c>
       <c r="I26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J26">
         <v>5</v>
       </c>
       <c r="K26">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L26">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="M26">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N26">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="O26">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="P26">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R26">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S26">
         <v>2.5</v>
       </c>
       <c r="T26">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V26">
         <v>-1</v>
@@ -2734,19 +2731,19 @@
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>0.25</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>-1</v>